--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\github\sharebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0D8509-A376-4F2F-A6A2-97619F8BDAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA27B690-1847-4AEC-B4EB-2F0E11FFECE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
   <si>
     <t>계획</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -301,6 +301,22 @@
   </si>
   <si>
     <t>홈플러스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올리브영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1079,7 +1095,7 @@
       <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:T2"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1335,7 +1351,7 @@
       </c>
       <c r="T6" s="8">
         <f>H10+M10+N10</f>
-        <v>1184851</v>
+        <v>1220270</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>32</v>
@@ -1434,7 +1450,7 @@
       </c>
       <c r="E8" s="8">
         <f>SUMIF($E$16:$E$33,E$6,$C$16:$C$33)+SUMIF($K$16:$K$33,E$6,$I$16:$I$33)</f>
-        <v>61189</v>
+        <v>85609</v>
       </c>
       <c r="F8" s="8">
         <f>SUMIF($E$16:$E$33,F$6,$C$16:$C$33)+SUMIF($K$16:$K$33,F$6,$I$16:$I$33)</f>
@@ -1446,7 +1462,7 @@
       </c>
       <c r="H8" s="8">
         <f>SUMIF($E$16:$E$33,H$6,$C$16:$C$33)+SUMIF($K$16:$K$33,H$6,$I$16:$I$33)</f>
-        <v>64420</v>
+        <v>75419</v>
       </c>
       <c r="I8" s="7">
         <v>300000</v>
@@ -1512,7 +1528,7 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>338811</v>
+        <v>314391</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8">
@@ -1521,7 +1537,7 @@
       </c>
       <c r="H9" s="8">
         <f t="shared" si="0"/>
-        <v>35580</v>
+        <v>24581</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="0"/>
@@ -1565,7 +1581,7 @@
       </c>
       <c r="T9" s="8">
         <f>T5-(T6+T7+T8)</f>
-        <v>1515149</v>
+        <v>1479730</v>
       </c>
       <c r="U9" s="15" t="s">
         <v>30</v>
@@ -1594,7 +1610,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="20">
         <f>SUM(E8:H8)</f>
-        <v>175609</v>
+        <v>211028</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -1623,7 +1639,7 @@
       </c>
       <c r="T10" s="9">
         <f>T6/T5</f>
-        <v>0.29621275000000002</v>
+        <v>0.30506749999999999</v>
       </c>
       <c r="U10" s="12" t="s">
         <v>31</v>
@@ -1735,11 +1751,11 @@
         <v>54</v>
       </c>
       <c r="T13" s="21">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="U13" s="8">
-        <f>T5*0.5</f>
-        <v>2000000</v>
+        <f>T5*T13</f>
+        <v>1800000</v>
       </c>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
@@ -1784,7 +1800,7 @@
         <v>0.4</v>
       </c>
       <c r="U14" s="8">
-        <f>T5*0.4</f>
+        <f>T5*T14</f>
         <v>1600000</v>
       </c>
       <c r="V14" s="13"/>
@@ -1957,7 +1973,7 @@
         <v>60</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="12"/>
@@ -2108,10 +2124,18 @@
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="H21" s="2">
+        <v>45296</v>
+      </c>
+      <c r="I21" s="17">
+        <v>30919</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="12"/>
@@ -2177,11 +2201,17 @@
     <row r="23" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A23" s="12"/>
       <c r="B23" s="2">
-        <v>45295</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+        <v>45296</v>
+      </c>
+      <c r="C23" s="17">
+        <v>4500</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>71</v>
+      </c>
       <c r="F23" s="19"/>
       <c r="G23" s="12"/>
       <c r="H23" s="16"/>

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\github\sharebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA27B690-1847-4AEC-B4EB-2F0E11FFECE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB13752A-4C55-46EB-ABEF-B75C146EC472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
   <si>
     <t>계획</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -268,55 +268,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>단백질바</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피부과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁(치킨)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈플러스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올리브영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>기타</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>단백질바</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>식비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>점심</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>교통비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>피부과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁(치킨)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈플러스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>올리브영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>점심</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>식비</t>
+    <t>카드값(전월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드값(금월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -329,7 +333,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +396,15 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7A0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -602,7 +615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,13 +721,416 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="2" builtinId="5"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF00CC66"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF00CC66"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF00CC66"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF00CC66"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF00CC66"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -781,6 +1197,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7A0000"/>
+      <color rgb="FFFFC7CE"/>
+      <color rgb="FFC6EFCE"/>
+      <color rgb="FF00CC66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1095,12 +1519,14 @@
       <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="9" width="10.8984375" customWidth="1"/>
+    <col min="2" max="4" width="10.8984375" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.8984375" customWidth="1"/>
     <col min="10" max="10" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.8984375" customWidth="1"/>
     <col min="13" max="13" width="27.5" bestFit="1" customWidth="1"/>
@@ -1311,7 +1737,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>43</v>
@@ -1351,7 +1777,7 @@
       </c>
       <c r="T6" s="8">
         <f>H10+M10+N10</f>
-        <v>1220270</v>
+        <v>1530881</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>32</v>
@@ -1379,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7">
-        <v>400000</v>
+        <v>468220</v>
       </c>
       <c r="F7" s="7">
         <v>120000</v>
       </c>
-      <c r="G7" s="7">
-        <v>200000</v>
+      <c r="G7" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="H7" s="7">
         <v>100000</v>
@@ -1449,20 +1875,19 @@
         <v>0</v>
       </c>
       <c r="E8" s="8">
-        <f>SUMIF($E$16:$E$33,E$6,$C$16:$C$33)+SUMIF($K$16:$K$33,E$6,$I$16:$I$33)</f>
-        <v>85609</v>
+        <v>468220</v>
       </c>
       <c r="F8" s="8">
-        <f>SUMIF($E$16:$E$33,F$6,$C$16:$C$33)+SUMIF($K$16:$K$33,F$6,$I$16:$I$33)</f>
+        <f>+SUMIF($K$16:$K$33,F$6,$I$16:$I$33)</f>
         <v>0</v>
       </c>
       <c r="G8" s="8">
-        <f>SUMIF($E$16:$E$33,G$6,$C$16:$C$33)+SUMIF($K$16:$K$33,G$6,$I$16:$I$33)</f>
-        <v>50000</v>
+        <f>SUMIF($K$16:$K$33,G$6,$I$16:$I$33)</f>
+        <v>0</v>
       </c>
       <c r="H8" s="8">
-        <f>SUMIF($E$16:$E$33,H$6,$C$16:$C$33)+SUMIF($K$16:$K$33,H$6,$I$16:$I$33)</f>
-        <v>75419</v>
+        <f>SUMIF($K$16:$K$33,H$6,$I$16:$I$33)</f>
+        <v>53419</v>
       </c>
       <c r="I8" s="7">
         <v>300000</v>
@@ -1528,16 +1953,16 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>314391</v>
+        <v>0</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>150000</v>
+        <f>G8</f>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="0"/>
-        <v>24581</v>
+        <v>46581</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="0"/>
@@ -1581,7 +2006,7 @@
       </c>
       <c r="T9" s="8">
         <f>T5-(T6+T7+T8)</f>
-        <v>1479730</v>
+        <v>1169119</v>
       </c>
       <c r="U9" s="15" t="s">
         <v>30</v>
@@ -1610,7 +2035,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="20">
         <f>SUM(E8:H8)</f>
-        <v>211028</v>
+        <v>521639</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -1639,7 +2064,7 @@
       </c>
       <c r="T10" s="9">
         <f>T6/T5</f>
-        <v>0.30506749999999999</v>
+        <v>0.38272024999999998</v>
       </c>
       <c r="U10" s="12" t="s">
         <v>31</v>
@@ -1677,7 +2102,7 @@
       <c r="S11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="35">
         <f>T7/T5</f>
         <v>0.27500000000000002</v>
       </c>
@@ -1697,8 +2122,13 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="8">
+        <f>SUM(C16:C33)</f>
+        <v>164939</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1924,7 +2354,7 @@
         <v>55</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="12"/>
@@ -1970,7 +2400,7 @@
         <v>19920</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>3</v>
@@ -2019,10 +2449,10 @@
         <v>5400</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="12"/>
@@ -2068,10 +2498,10 @@
         <v>50000</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="12"/>
@@ -2082,10 +2512,10 @@
         <v>6990</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
@@ -2117,10 +2547,10 @@
         <v>22000</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="12"/>
@@ -2131,10 +2561,10 @@
         <v>30919</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
@@ -2166,10 +2596,10 @@
         <v>23219</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="12"/>
@@ -2207,10 +2637,10 @@
         <v>4500</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="12"/>
@@ -2241,10 +2671,18 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A24" s="12"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="B24" s="2">
+        <v>45297</v>
+      </c>
+      <c r="C24" s="17">
+        <v>30900</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="F24" s="19"/>
       <c r="G24" s="12"/>
       <c r="H24" s="16"/>
@@ -3114,15 +3552,28 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C9:Q9">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T10:T11">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
+      <formula>$T$14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+      <formula>$T$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T11">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>$T$13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>$T$13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4955,15 +5406,15 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E9:Q9">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="lessThan">
       <formula>$T$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThan">
       <formula>$T$12</formula>
     </cfRule>
   </conditionalFormatting>

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\github\sharebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB13752A-4C55-46EB-ABEF-B75C146EC472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD88835-DB8A-4386-B8CE-C2D30C44FE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
   <si>
     <t>계획</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -321,6 +321,22 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노래방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시가스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -691,6 +707,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,55 +740,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="2" builtinId="5"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF00CC66"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -777,23 +754,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -852,179 +812,12 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <fgColor rgb="FF00CC66"/>
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF00CC66"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF00CC66"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1107,98 +900,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9C0006"/>
       <color rgb="FF7A0000"/>
       <color rgb="FFFFC7CE"/>
       <color rgb="FFC6EFCE"/>
@@ -1572,27 +1278,27 @@
     </row>
     <row r="2" spans="1:31" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
       <c r="W2" s="12"/>
@@ -1640,29 +1346,29 @@
     </row>
     <row r="4" spans="1:31" s="11" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
       <c r="R4" s="13"/>
-      <c r="S4" s="29" t="s">
+      <c r="S4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="29"/>
+      <c r="T4" s="30"/>
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
@@ -1677,34 +1383,34 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A5" s="12"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="32" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="30" t="s">
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="30" t="s">
+      <c r="P5" s="34"/>
+      <c r="Q5" s="31" t="s">
         <v>27</v>
       </c>
       <c r="R5" s="12"/>
@@ -1729,7 +1435,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A6" s="12"/>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
@@ -1763,21 +1469,21 @@
       <c r="M6" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="31"/>
+      <c r="N6" s="32"/>
       <c r="O6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="P6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="32"/>
       <c r="R6" s="12"/>
       <c r="S6" s="10" t="s">
         <v>28</v>
       </c>
       <c r="T6" s="8">
         <f>H10+M10+N10</f>
-        <v>1530881</v>
+        <v>1627201</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>32</v>
@@ -1879,7 +1585,7 @@
       </c>
       <c r="F8" s="8">
         <f>+SUMIF($K$16:$K$33,F$6,$I$16:$I$33)</f>
-        <v>0</v>
+        <v>82320</v>
       </c>
       <c r="G8" s="8">
         <f>SUMIF($K$16:$K$33,G$6,$I$16:$I$33)</f>
@@ -1887,7 +1593,7 @@
       </c>
       <c r="H8" s="8">
         <f>SUMIF($K$16:$K$33,H$6,$I$16:$I$33)</f>
-        <v>53419</v>
+        <v>67419</v>
       </c>
       <c r="I8" s="7">
         <v>300000</v>
@@ -1962,7 +1668,7 @@
       </c>
       <c r="H9" s="8">
         <f t="shared" si="0"/>
-        <v>46581</v>
+        <v>32581</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="0"/>
@@ -2006,7 +1712,7 @@
       </c>
       <c r="T9" s="8">
         <f>T5-(T6+T7+T8)</f>
-        <v>1169119</v>
+        <v>1072799</v>
       </c>
       <c r="U9" s="15" t="s">
         <v>30</v>
@@ -2035,7 +1741,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="20">
         <f>SUM(E8:H8)</f>
-        <v>521639</v>
+        <v>617959</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -2062,9 +1768,9 @@
       <c r="S10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="25">
         <f>T6/T5</f>
-        <v>0.38272024999999998</v>
+        <v>0.40680024999999997</v>
       </c>
       <c r="U10" s="12" t="s">
         <v>31</v>
@@ -2102,7 +1808,7 @@
       <c r="S11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="T11" s="35">
+      <c r="T11" s="25">
         <f>T7/T5</f>
         <v>0.27500000000000002</v>
       </c>
@@ -2200,22 +1906,22 @@
     </row>
     <row r="14" spans="1:31" s="11" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="13"/>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="13"/>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -2227,11 +1933,11 @@
         <v>33</v>
       </c>
       <c r="T14" s="21">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="U14" s="8">
         <f>T5*T14</f>
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
@@ -2603,10 +2309,18 @@
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
+      <c r="H22" s="2">
+        <v>45296</v>
+      </c>
+      <c r="I22" s="17">
+        <v>82320</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="12"/>
@@ -2644,10 +2358,18 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="H23" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I23" s="17">
+        <v>4000</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>74</v>
+      </c>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="12"/>
@@ -2685,10 +2407,18 @@
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
+      <c r="H24" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I24" s="17">
+        <v>10000</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>74</v>
+      </c>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
       <c r="N24" s="12"/>
@@ -2718,7 +2448,7 @@
       <c r="E25" s="18"/>
       <c r="F25" s="19"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="16"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="17"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
@@ -3551,29 +3281,29 @@
     <mergeCell ref="Q5:Q6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C9:Q9">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="C9:Q9">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
       <formula>$T$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="greaterThan">
       <formula>$T$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>$T$13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>$T$13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3635,27 +3365,27 @@
     </row>
     <row r="2" spans="1:31" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
       <c r="W2" s="12"/>
@@ -3703,29 +3433,29 @@
     </row>
     <row r="4" spans="1:31" s="11" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
       <c r="R4" s="13"/>
-      <c r="S4" s="29" t="s">
+      <c r="S4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="29"/>
+      <c r="T4" s="30"/>
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
@@ -3740,34 +3470,34 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A5" s="12"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="32" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="30" t="s">
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="30" t="s">
+      <c r="P5" s="34"/>
+      <c r="Q5" s="31" t="s">
         <v>27</v>
       </c>
       <c r="R5" s="12"/>
@@ -3792,7 +3522,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A6" s="12"/>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
@@ -3824,14 +3554,14 @@
       <c r="M6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="31"/>
+      <c r="N6" s="32"/>
       <c r="O6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="P6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="32"/>
       <c r="R6" s="12"/>
       <c r="S6" s="10" t="s">
         <v>28</v>
@@ -4161,22 +3891,22 @@
     </row>
     <row r="12" spans="1:31" s="11" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A12" s="13"/>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="13"/>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -5406,15 +5136,15 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E9:Q9">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>$T$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>$T$12</formula>
     </cfRule>
   </conditionalFormatting>

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\github\sharebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783B532B-7A7C-4F35-8A72-B2D150C7C6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9044C49-96E3-4AC4-A6B6-7CB904E2D8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
   <si>
     <t>계획</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -325,6 +325,14 @@
   </si>
   <si>
     <t>2024년 2월 송민영의 가계부(현대차 주식 18만원 이하일 때 구매)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁(치킨)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +423,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +451,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,96 +739,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="2" builtinId="5"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF00CC66"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF00CC66"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -881,68 +815,9 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF00CC66"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <fgColor rgb="FF00CC66"/>
@@ -1328,10 +1203,10 @@
   <dimension ref="A1:AF49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="15" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1530,7 +1405,7 @@
       </c>
       <c r="U5" s="7">
         <f>D10</f>
-        <v>4000000</v>
+        <v>4129547</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
@@ -1597,7 +1472,7 @@
       </c>
       <c r="U6" s="7">
         <f>I10+N10+O10</f>
-        <v>1693456</v>
+        <v>1623835</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>32</v>
@@ -1692,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>4000000</v>
+        <v>4129547</v>
       </c>
       <c r="D8" s="7">
         <v>0</v>
@@ -1706,7 +1581,7 @@
       </c>
       <c r="G8" s="7">
         <f>SUMIF($L$16:$L$33,G$6,$J$16:$J$33)</f>
-        <v>133674</v>
+        <v>175074</v>
       </c>
       <c r="H8" s="7">
         <f>SUMIF($L$16:$L$33,H$6,$J$16:$J$33)</f>
@@ -1734,7 +1609,7 @@
         <v>43690</v>
       </c>
       <c r="O8" s="7">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="P8" s="7">
         <v>1000000</v>
@@ -1772,7 +1647,7 @@
       </c>
       <c r="C9" s="7">
         <f t="shared" ref="C9:R9" si="0">C7-C8</f>
-        <v>0</v>
+        <v>-129547</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
@@ -1814,7 +1689,7 @@
       </c>
       <c r="O9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
@@ -1834,7 +1709,7 @@
       </c>
       <c r="U9" s="7">
         <f>U5-(U6+U7+U8)</f>
-        <v>1006544</v>
+        <v>1205712</v>
       </c>
       <c r="V9" s="13" t="s">
         <v>30</v>
@@ -1856,7 +1731,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="18">
         <f>C8+D8</f>
-        <v>4000000</v>
+        <v>4129547</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -1864,19 +1739,19 @@
       <c r="H10" s="10"/>
       <c r="I10" s="18">
         <f>SUM(E8:I8)</f>
-        <v>684214</v>
+        <v>725614</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18">
-        <f>SUM(L6:N8)</f>
-        <v>959242</v>
+        <f>SUM(J8:N8)</f>
+        <v>838221</v>
       </c>
       <c r="O10" s="18">
         <f>O8</f>
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="18">
@@ -1893,7 +1768,7 @@
       </c>
       <c r="U10" s="23">
         <f>U6/U5</f>
-        <v>0.42336400000000002</v>
+        <v>0.39322351822124801</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>31</v>
@@ -1934,7 +1809,7 @@
       </c>
       <c r="U11" s="23">
         <f>U7/U5</f>
-        <v>0.27500000000000002</v>
+        <v>0.26637304285433727</v>
       </c>
       <c r="V11" s="10" t="s">
         <v>47</v>
@@ -2017,7 +1892,7 @@
       </c>
       <c r="V13" s="7">
         <f>U5*U13</f>
-        <v>1800000</v>
+        <v>1858296.1500000001</v>
       </c>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
@@ -2064,7 +1939,7 @@
       </c>
       <c r="V14" s="7">
         <f>U5*U14</f>
-        <v>2000000</v>
+        <v>2064773.5</v>
       </c>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
@@ -2435,7 +2310,7 @@
       <c r="C22" s="15">
         <v>23219</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="35" t="s">
         <v>56</v>
       </c>
       <c r="E22" s="16" t="s">
@@ -2678,10 +2553,19 @@
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
+      <c r="I27" s="2">
+        <v>45300</v>
+      </c>
+      <c r="J27" s="15">
+        <f>7700+13200+20500</f>
+        <v>41400</v>
+      </c>
+      <c r="K27" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
       <c r="O27" s="10"/>
@@ -3468,28 +3352,28 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:R9">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>$U$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>$U$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>$U$13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>$U$13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5475,28 +5359,28 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:R9">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
       <formula>$U$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
       <formula>$U$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>$U$13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>$U$13</formula>
     </cfRule>
   </conditionalFormatting>

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\github\sharebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9044C49-96E3-4AC4-A6B6-7CB904E2D8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A79E100-0EDD-4CCF-A12D-01019D7207B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
   <si>
     <t>계획</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -333,6 +333,26 @@
   </si>
   <si>
     <t>저녁(치킨)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드결제료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이소 및 마트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -709,6 +729,9 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,9 +760,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -883,13 +903,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00CC66"/>
       <color rgb="FF006100"/>
       <color rgb="FF000000"/>
       <color rgb="FF9C0006"/>
       <color rgb="FF7A0000"/>
       <color rgb="FFFFC7CE"/>
       <color rgb="FFC6EFCE"/>
-      <color rgb="FF00CC66"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1206,7 +1226,7 @@
       <pane xSplit="2" ySplit="15" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1260,28 +1280,28 @@
     </row>
     <row r="2" spans="1:32" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
@@ -1330,30 +1350,30 @@
     </row>
     <row r="4" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="29" t="s">
+      <c r="T4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="29"/>
+      <c r="U4" s="30"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -1368,35 +1388,35 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="32" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="30" t="s">
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="30" t="s">
+      <c r="Q5" s="34"/>
+      <c r="R5" s="31" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="10"/>
@@ -1421,7 +1441,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
@@ -1458,21 +1478,21 @@
       <c r="N6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="31"/>
+      <c r="O6" s="32"/>
       <c r="P6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="31"/>
+      <c r="R6" s="32"/>
       <c r="S6" s="10"/>
       <c r="T6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="U6" s="7">
         <f>I10+N10+O10</f>
-        <v>1623835</v>
+        <v>1640735</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>32</v>
@@ -1581,7 +1601,7 @@
       </c>
       <c r="G8" s="7">
         <f>SUMIF($L$16:$L$33,G$6,$J$16:$J$33)</f>
-        <v>175074</v>
+        <v>191974</v>
       </c>
       <c r="H8" s="7">
         <f>SUMIF($L$16:$L$33,H$6,$J$16:$J$33)</f>
@@ -1646,11 +1666,11 @@
         <v>21</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" ref="C9:R9" si="0">C7-C8</f>
-        <v>-129547</v>
+        <f>C8-C7</f>
+        <v>129547</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C9:R9" si="0">D7-D8</f>
         <v>0</v>
       </c>
       <c r="E9" s="7">
@@ -1709,7 +1729,7 @@
       </c>
       <c r="U9" s="7">
         <f>U5-(U6+U7+U8)</f>
-        <v>1205712</v>
+        <v>1188812</v>
       </c>
       <c r="V9" s="13" t="s">
         <v>30</v>
@@ -1739,7 +1759,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="18">
         <f>SUM(E8:I8)</f>
-        <v>725614</v>
+        <v>742514</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -1768,7 +1788,7 @@
       </c>
       <c r="U10" s="23">
         <f>U6/U5</f>
-        <v>0.39322351822124801</v>
+        <v>0.39731597678873737</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>31</v>
@@ -1832,7 +1852,7 @@
       </c>
       <c r="C12" s="7">
         <f>SUM(C16:C33)</f>
-        <v>169439</v>
+        <v>182939</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="10"/>
@@ -1907,23 +1927,23 @@
     </row>
     <row r="14" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -2310,7 +2330,7 @@
       <c r="C22" s="15">
         <v>23219</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="25" t="s">
         <v>56</v>
       </c>
       <c r="E22" s="16" t="s">
@@ -2504,10 +2524,18 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="B26" s="2">
+        <v>45300</v>
+      </c>
+      <c r="C26" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="10"/>
@@ -2546,10 +2574,18 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="B27" s="2">
+        <v>45301</v>
+      </c>
+      <c r="C27" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="10"/>
@@ -2560,7 +2596,7 @@
         <f>7700+13200+20500</f>
         <v>41400</v>
       </c>
-      <c r="K27" s="35" t="s">
+      <c r="K27" s="25" t="s">
         <v>75</v>
       </c>
       <c r="L27" s="16" t="s">
@@ -2589,17 +2625,33 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="B28" s="2">
+        <v>45302</v>
+      </c>
+      <c r="C28" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
+      <c r="I28" s="2">
+        <v>45302</v>
+      </c>
+      <c r="J28" s="15">
+        <v>5400</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
       <c r="O28" s="10"/>
@@ -2630,10 +2682,18 @@
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
+      <c r="I29" s="2">
+        <v>45302</v>
+      </c>
+      <c r="J29" s="15">
+        <v>11500</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
       <c r="O29" s="10"/>
@@ -2664,7 +2724,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="14"/>
+      <c r="I30" s="2"/>
       <c r="J30" s="15"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
@@ -3390,7 +3450,7 @@
       <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:U2"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3444,28 +3504,28 @@
     </row>
     <row r="2" spans="1:32" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
@@ -3514,30 +3574,30 @@
     </row>
     <row r="4" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="29" t="s">
+      <c r="T4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="29"/>
+      <c r="U4" s="30"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -3552,35 +3612,35 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="32" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="30" t="s">
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="30" t="s">
+      <c r="Q5" s="34"/>
+      <c r="R5" s="31" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="10"/>
@@ -3605,7 +3665,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
@@ -3642,21 +3702,21 @@
       <c r="N6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="31"/>
+      <c r="O6" s="32"/>
       <c r="P6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="31"/>
+      <c r="R6" s="32"/>
       <c r="S6" s="10"/>
       <c r="T6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="U6" s="7">
         <f>I10+N10+O10</f>
-        <v>1527462</v>
+        <v>1359242</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>32</v>
@@ -3684,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>468220</v>
+        <v>300000</v>
       </c>
       <c r="F7" s="6">
         <v>120000</v>
@@ -3757,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="7">
-        <v>468220</v>
+        <v>300000</v>
       </c>
       <c r="F8" s="7">
         <f>+SUMIF($L$16:$L$33,F$6,$J$16:$J$33)</f>
@@ -3893,7 +3953,7 @@
       </c>
       <c r="U9" s="7">
         <f>U5-(U6+U7+U8)</f>
-        <v>372538</v>
+        <v>540758</v>
       </c>
       <c r="V9" s="13" t="s">
         <v>30</v>
@@ -3923,7 +3983,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="18">
         <f>SUM(E8:I8)</f>
-        <v>468220</v>
+        <v>300000</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -3952,7 +4012,7 @@
       </c>
       <c r="U10" s="23">
         <f>U6/U5</f>
-        <v>0.38186550000000002</v>
+        <v>0.33981050000000002</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>31</v>
@@ -4091,23 +4151,23 @@
     </row>
     <row r="14" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\github\sharebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A79E100-0EDD-4CCF-A12D-01019D7207B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D288A3E-FB89-4D75-ACC4-3B56832788A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
   <si>
     <t>계획</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -353,6 +353,46 @@
   </si>
   <si>
     <t>다이소 및 마트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액조정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의류구입비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC마트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올리브영</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -360,10 +400,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -653,7 +694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,6 +801,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1220,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C54BB4D-E324-4A99-BBF5-A16B01E6D104}">
-  <dimension ref="A1:AF49"/>
+  <dimension ref="A1:AF60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="15" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2:U2"/>
@@ -1231,9 +1275,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="4" width="10.8984375" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.8984375" customWidth="1"/>
     <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="10.8984375" customWidth="1"/>
+    <col min="6" max="8" width="10.8984375" customWidth="1"/>
+    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.8984375" customWidth="1"/>
     <col min="11" max="11" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="10.8984375" customWidth="1"/>
     <col min="14" max="14" width="27.5" bestFit="1" customWidth="1"/>
@@ -1492,7 +1539,7 @@
       </c>
       <c r="U6" s="7">
         <f>I10+N10+O10</f>
-        <v>1640735</v>
+        <v>1791475</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>32</v>
@@ -1596,20 +1643,20 @@
         <v>468220</v>
       </c>
       <c r="F8" s="7">
-        <f>+SUMIF($L$16:$L$33,F$6,$J$16:$J$33)</f>
+        <f>+SUMIF($L$16:$L$44,F$6,$J$16:$J$44)</f>
         <v>82320</v>
       </c>
       <c r="G8" s="7">
-        <f>SUMIF($L$16:$L$33,G$6,$J$16:$J$33)</f>
-        <v>191974</v>
+        <f>SUMIF($L$16:$L$44,G$6,$J$16:$J$44)</f>
+        <v>230514</v>
       </c>
       <c r="H8" s="7">
-        <f>SUMIF($L$16:$L$33,H$6,$J$16:$J$33)</f>
+        <f>SUMIF($L$16:$L$44,H$6,$J$16:$J$44)</f>
         <v>0</v>
       </c>
       <c r="I8" s="7">
-        <f>SUMIF($L$16:$L$33,I$6,$J$16:$J$33)</f>
-        <v>0</v>
+        <f>SUMIF($L$16:$L$44,I$6,$J$16:$J$44)</f>
+        <v>112200</v>
       </c>
       <c r="J8" s="6">
         <v>300000</v>
@@ -1638,7 +1685,7 @@
         <v>100000</v>
       </c>
       <c r="R8" s="7">
-        <f>SUMIF($E$16:$E$33,R$5,$C$16:$C$33)+SUMIF($L$16:$L$33,R$5,$J$16:$J$33)</f>
+        <f>SUMIF($E$16:$E$44,R$5,$C$16:$C$44)+SUMIF($L$16:$L$44,R$5,$J$16:$J$44)</f>
         <v>0</v>
       </c>
       <c r="S8" s="10"/>
@@ -1670,7 +1717,7 @@
         <v>129547</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" ref="C9:R9" si="0">D7-D8</f>
+        <f t="shared" ref="D9:R9" si="0">D7-D8</f>
         <v>0</v>
       </c>
       <c r="E9" s="7">
@@ -1685,7 +1732,7 @@
       </c>
       <c r="I9" s="7">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>-12200</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="0"/>
@@ -1729,7 +1776,7 @@
       </c>
       <c r="U9" s="7">
         <f>U5-(U6+U7+U8)</f>
-        <v>1188812</v>
+        <v>1038072</v>
       </c>
       <c r="V9" s="13" t="s">
         <v>30</v>
@@ -1759,7 +1806,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="18">
         <f>SUM(E8:I8)</f>
-        <v>742514</v>
+        <v>893254</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -1788,7 +1835,7 @@
       </c>
       <c r="U10" s="23">
         <f>U6/U5</f>
-        <v>0.39731597678873737</v>
+        <v>0.43381876995224899</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>31</v>
@@ -1851,8 +1898,8 @@
         <v>62</v>
       </c>
       <c r="C12" s="7">
-        <f>SUM(C16:C33)</f>
-        <v>182939</v>
+        <f>SUM(C16:C44)</f>
+        <v>196349</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="10"/>
@@ -2024,7 +2071,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
-      <c r="B16" s="2">
+      <c r="B16" s="36">
         <v>45293</v>
       </c>
       <c r="C16" s="15">
@@ -2039,7 +2086,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="2">
+      <c r="I16" s="36">
         <v>45292</v>
       </c>
       <c r="J16" s="3">
@@ -2074,7 +2121,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
-      <c r="B17" s="2">
+      <c r="B17" s="36">
         <v>45294</v>
       </c>
       <c r="C17" s="15">
@@ -2089,7 +2136,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="2">
+      <c r="I17" s="36">
         <v>45292</v>
       </c>
       <c r="J17" s="15">
@@ -2124,7 +2171,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
-      <c r="B18" s="2">
+      <c r="B18" s="36">
         <v>45295</v>
       </c>
       <c r="C18" s="15">
@@ -2139,7 +2186,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="2">
+      <c r="I18" s="36">
         <v>45293</v>
       </c>
       <c r="J18" s="15">
@@ -2174,7 +2221,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
-      <c r="B19" s="2">
+      <c r="B19" s="36">
         <v>45295</v>
       </c>
       <c r="C19" s="15">
@@ -2189,7 +2236,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="2">
+      <c r="I19" s="36">
         <v>45294</v>
       </c>
       <c r="J19" s="15">
@@ -2224,7 +2271,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
-      <c r="B20" s="2">
+      <c r="B20" s="36">
         <v>45295</v>
       </c>
       <c r="C20" s="15">
@@ -2239,7 +2286,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="2">
+      <c r="I20" s="36">
         <v>45295</v>
       </c>
       <c r="J20" s="15">
@@ -2274,7 +2321,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
-      <c r="B21" s="2">
+      <c r="B21" s="36">
         <v>45295</v>
       </c>
       <c r="C21" s="15">
@@ -2289,7 +2336,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="2">
+      <c r="I21" s="36">
         <v>45296</v>
       </c>
       <c r="J21" s="15">
@@ -2324,7 +2371,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
-      <c r="B22" s="2">
+      <c r="B22" s="36">
         <v>45295</v>
       </c>
       <c r="C22" s="15">
@@ -2339,7 +2386,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="2">
+      <c r="I22" s="36">
         <v>45296</v>
       </c>
       <c r="J22" s="15">
@@ -2374,7 +2421,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
-      <c r="B23" s="2">
+      <c r="B23" s="36">
         <v>45296</v>
       </c>
       <c r="C23" s="15">
@@ -2389,7 +2436,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="2">
+      <c r="I23" s="36">
         <v>45298</v>
       </c>
       <c r="J23" s="15">
@@ -2424,7 +2471,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
-      <c r="B24" s="2">
+      <c r="B24" s="36">
         <v>45297</v>
       </c>
       <c r="C24" s="15">
@@ -2439,7 +2486,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="2">
+      <c r="I24" s="36">
         <v>45298</v>
       </c>
       <c r="J24" s="15">
@@ -2474,7 +2521,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
-      <c r="B25" s="2">
+      <c r="B25" s="36">
         <v>45299</v>
       </c>
       <c r="C25" s="15">
@@ -2489,7 +2536,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="2">
+      <c r="I25" s="36">
         <v>45298</v>
       </c>
       <c r="J25" s="15">
@@ -2524,7 +2571,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
-      <c r="B26" s="2">
+      <c r="B26" s="36">
         <v>45300</v>
       </c>
       <c r="C26" s="15">
@@ -2539,7 +2586,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="2">
+      <c r="I26" s="36">
         <v>45299</v>
       </c>
       <c r="J26" s="15">
@@ -2574,7 +2621,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="2">
+      <c r="B27" s="36">
         <v>45301</v>
       </c>
       <c r="C27" s="15">
@@ -2589,7 +2636,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="2">
+      <c r="I27" s="36">
         <v>45300</v>
       </c>
       <c r="J27" s="15">
@@ -2625,7 +2672,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
-      <c r="B28" s="2">
+      <c r="B28" s="36">
         <v>45302</v>
       </c>
       <c r="C28" s="15">
@@ -2640,7 +2687,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="2">
+      <c r="I28" s="36">
         <v>45302</v>
       </c>
       <c r="J28" s="15">
@@ -2675,14 +2722,22 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="B29" s="36">
+        <v>45303</v>
+      </c>
+      <c r="C29" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="2">
+      <c r="I29" s="36">
         <v>45302</v>
       </c>
       <c r="J29" s="15">
@@ -2717,17 +2772,33 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="B30" s="36">
+        <v>45303</v>
+      </c>
+      <c r="C30" s="15">
+        <v>8910</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
+      <c r="I30" s="36">
+        <v>45303</v>
+      </c>
+      <c r="J30" s="15">
+        <v>2980</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="10"/>
@@ -2751,17 +2822,25 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
-      <c r="B31" s="14"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
+      <c r="I31" s="36">
+        <v>45303</v>
+      </c>
+      <c r="J31" s="15">
+        <v>50100</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
       <c r="O31" s="10"/>
@@ -2785,17 +2864,25 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
-      <c r="B32" s="14"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
+      <c r="I32" s="36">
+        <v>45303</v>
+      </c>
+      <c r="J32" s="15">
+        <v>62100</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
       <c r="O32" s="10"/>
@@ -2819,17 +2906,25 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
-      <c r="B33" s="14"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
+      <c r="I33" s="36">
+        <v>45303</v>
+      </c>
+      <c r="J33" s="15">
+        <v>35560</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
       <c r="O33" s="10"/>
@@ -2853,19 +2948,19 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
@@ -2887,19 +2982,19 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
       <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
@@ -2921,19 +3016,19 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
@@ -2955,19 +3050,19 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
       <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
@@ -2989,19 +3084,19 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
@@ -3023,19 +3118,19 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
@@ -3057,19 +3152,19 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
       <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
@@ -3091,19 +3186,19 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
@@ -3125,19 +3220,19 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
       <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
@@ -3159,19 +3254,19 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
       <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
@@ -3193,19 +3288,19 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
       <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
@@ -3394,6 +3489,380 @@
       <c r="AD49" s="10"/>
       <c r="AE49" s="10"/>
       <c r="AF49" s="10"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="10"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\github\sharebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D288A3E-FB89-4D75-ACC4-3B56832788A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE12D927-BE03-41A8-A7D6-55686C182F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
   </bookViews>
   <sheets>
     <sheet name="1월" sheetId="2" r:id="rId1"/>
-    <sheet name="2월" sheetId="3" r:id="rId2"/>
+    <sheet name="1월(자산)" sheetId="4" r:id="rId2"/>
+    <sheet name="2월" sheetId="3" r:id="rId3"/>
+    <sheet name="2월(자산)" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1월'!$B$15:$E$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2월'!$B$15:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1월(자산)'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2월'!$B$15:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2월(자산)'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="112">
   <si>
     <t>계획</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -324,10 +328,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2024년 2월 송민영의 가계부(현대차 주식 18만원 이하일 때 구매)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>생활비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -393,6 +393,94 @@
   </si>
   <si>
     <t>올리브영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이마트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년 1월 송민영의 자본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채권</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년 2월 송민영의 자본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기예금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청약통장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년 2월 송민영의 가계부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +492,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -522,7 +610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -682,6 +770,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -694,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,6 +946,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -803,7 +982,28 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -812,7 +1012,19 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -863,6 +1075,50 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1266,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C54BB4D-E324-4A99-BBF5-A16B01E6D104}">
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2:U2"/>
@@ -1327,28 +1583,28 @@
     </row>
     <row r="2" spans="1:32" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
@@ -1397,30 +1653,30 @@
     </row>
     <row r="4" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="30" t="s">
+      <c r="T4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="30"/>
+      <c r="U4" s="32"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -1435,35 +1691,35 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="33" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="31" t="s">
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="31" t="s">
+      <c r="Q5" s="36"/>
+      <c r="R5" s="33" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="10"/>
@@ -1488,7 +1744,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="32"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
@@ -1525,21 +1781,21 @@
       <c r="N6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="32"/>
+      <c r="O6" s="34"/>
       <c r="P6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="32"/>
+      <c r="R6" s="34"/>
       <c r="S6" s="10"/>
       <c r="T6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="U6" s="7">
         <f>I10+N10+O10</f>
-        <v>1791475</v>
+        <v>1917075</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>32</v>
@@ -1648,7 +1904,7 @@
       </c>
       <c r="G8" s="7">
         <f>SUMIF($L$16:$L$44,G$6,$J$16:$J$44)</f>
-        <v>230514</v>
+        <v>356114</v>
       </c>
       <c r="H8" s="7">
         <f>SUMIF($L$16:$L$44,H$6,$J$16:$J$44)</f>
@@ -1724,8 +1980,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>37680</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>43886</v>
+      </c>
       <c r="H9" s="7">
         <f>H8</f>
         <v>0</v>
@@ -1776,7 +2038,7 @@
       </c>
       <c r="U9" s="7">
         <f>U5-(U6+U7+U8)</f>
-        <v>1038072</v>
+        <v>912472</v>
       </c>
       <c r="V9" s="13" t="s">
         <v>30</v>
@@ -1806,7 +2068,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="18">
         <f>SUM(E8:I8)</f>
-        <v>893254</v>
+        <v>1018854</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -1835,7 +2097,7 @@
       </c>
       <c r="U10" s="23">
         <f>U6/U5</f>
-        <v>0.43381876995224899</v>
+        <v>0.46423372829998061</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>31</v>
@@ -1899,7 +2161,7 @@
       </c>
       <c r="C12" s="7">
         <f>SUM(C16:C44)</f>
-        <v>196349</v>
+        <v>246349</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="10"/>
@@ -1974,23 +2236,23 @@
     </row>
     <row r="14" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -2071,7 +2333,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
-      <c r="B16" s="36">
+      <c r="B16" s="27">
         <v>45293</v>
       </c>
       <c r="C16" s="15">
@@ -2086,7 +2348,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="36">
+      <c r="I16" s="27">
         <v>45292</v>
       </c>
       <c r="J16" s="3">
@@ -2121,7 +2383,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
-      <c r="B17" s="36">
+      <c r="B17" s="27">
         <v>45294</v>
       </c>
       <c r="C17" s="15">
@@ -2136,7 +2398,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="36">
+      <c r="I17" s="27">
         <v>45292</v>
       </c>
       <c r="J17" s="15">
@@ -2171,7 +2433,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
-      <c r="B18" s="36">
+      <c r="B18" s="27">
         <v>45295</v>
       </c>
       <c r="C18" s="15">
@@ -2186,7 +2448,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="36">
+      <c r="I18" s="27">
         <v>45293</v>
       </c>
       <c r="J18" s="15">
@@ -2221,7 +2483,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
-      <c r="B19" s="36">
+      <c r="B19" s="27">
         <v>45295</v>
       </c>
       <c r="C19" s="15">
@@ -2236,7 +2498,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="36">
+      <c r="I19" s="27">
         <v>45294</v>
       </c>
       <c r="J19" s="15">
@@ -2271,7 +2533,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
-      <c r="B20" s="36">
+      <c r="B20" s="27">
         <v>45295</v>
       </c>
       <c r="C20" s="15">
@@ -2286,7 +2548,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="36">
+      <c r="I20" s="27">
         <v>45295</v>
       </c>
       <c r="J20" s="15">
@@ -2321,7 +2583,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
-      <c r="B21" s="36">
+      <c r="B21" s="27">
         <v>45295</v>
       </c>
       <c r="C21" s="15">
@@ -2336,7 +2598,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="36">
+      <c r="I21" s="27">
         <v>45296</v>
       </c>
       <c r="J21" s="15">
@@ -2371,7 +2633,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
-      <c r="B22" s="36">
+      <c r="B22" s="27">
         <v>45295</v>
       </c>
       <c r="C22" s="15">
@@ -2386,7 +2648,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="36">
+      <c r="I22" s="27">
         <v>45296</v>
       </c>
       <c r="J22" s="15">
@@ -2421,7 +2683,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
-      <c r="B23" s="36">
+      <c r="B23" s="27">
         <v>45296</v>
       </c>
       <c r="C23" s="15">
@@ -2436,7 +2698,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="36">
+      <c r="I23" s="27">
         <v>45298</v>
       </c>
       <c r="J23" s="15">
@@ -2471,7 +2733,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
-      <c r="B24" s="36">
+      <c r="B24" s="27">
         <v>45297</v>
       </c>
       <c r="C24" s="15">
@@ -2486,7 +2748,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="36">
+      <c r="I24" s="27">
         <v>45298</v>
       </c>
       <c r="J24" s="15">
@@ -2521,7 +2783,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
-      <c r="B25" s="36">
+      <c r="B25" s="27">
         <v>45299</v>
       </c>
       <c r="C25" s="15">
@@ -2536,7 +2798,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="36">
+      <c r="I25" s="27">
         <v>45298</v>
       </c>
       <c r="J25" s="15">
@@ -2571,22 +2833,22 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
-      <c r="B26" s="36">
+      <c r="B26" s="27">
         <v>45300</v>
       </c>
       <c r="C26" s="15">
         <v>4500</v>
       </c>
       <c r="D26" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="36">
+      <c r="I26" s="27">
         <v>45299</v>
       </c>
       <c r="J26" s="15">
@@ -2621,22 +2883,22 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="36">
+      <c r="B27" s="27">
         <v>45301</v>
       </c>
       <c r="C27" s="15">
         <v>4500</v>
       </c>
       <c r="D27" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="36">
+      <c r="I27" s="27">
         <v>45300</v>
       </c>
       <c r="J27" s="15">
@@ -2644,10 +2906,10 @@
         <v>41400</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
@@ -2672,32 +2934,32 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
-      <c r="B28" s="36">
+      <c r="B28" s="27">
         <v>45302</v>
       </c>
       <c r="C28" s="15">
         <v>4500</v>
       </c>
       <c r="D28" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="36">
+      <c r="I28" s="27">
         <v>45302</v>
       </c>
       <c r="J28" s="15">
         <v>5400</v>
       </c>
       <c r="K28" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
@@ -2722,32 +2984,32 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
-      <c r="B29" s="36">
+      <c r="B29" s="27">
         <v>45303</v>
       </c>
       <c r="C29" s="15">
         <v>4500</v>
       </c>
       <c r="D29" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="36">
+      <c r="I29" s="27">
         <v>45302</v>
       </c>
       <c r="J29" s="15">
         <v>11500</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
@@ -2772,32 +3034,32 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
-      <c r="B30" s="36">
+      <c r="B30" s="27">
         <v>45303</v>
       </c>
       <c r="C30" s="15">
         <v>8910</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="36">
+      <c r="I30" s="27">
         <v>45303</v>
       </c>
       <c r="J30" s="15">
         <v>2980</v>
       </c>
       <c r="K30" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L30" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>86</v>
       </c>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
@@ -2822,24 +3084,32 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="B31" s="27">
+        <v>45304</v>
+      </c>
+      <c r="C31" s="15">
+        <v>50000</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="36">
+      <c r="I31" s="27">
         <v>45303</v>
       </c>
       <c r="J31" s="15">
         <v>50100</v>
       </c>
       <c r="K31" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L31" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
@@ -2864,24 +3134,24 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
-      <c r="B32" s="36"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="36">
+      <c r="I32" s="27">
         <v>45303</v>
       </c>
       <c r="J32" s="15">
         <v>62100</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
@@ -2906,24 +3176,24 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
-      <c r="B33" s="36"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="36">
+      <c r="I33" s="27">
         <v>45303</v>
       </c>
       <c r="J33" s="15">
         <v>35560</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
@@ -2948,17 +3218,25 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
-      <c r="B34" s="36"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
+      <c r="I34" s="27">
+        <v>45304</v>
+      </c>
+      <c r="J34" s="15">
+        <v>36000</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
       <c r="O34" s="10"/>
@@ -2982,17 +3260,25 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
-      <c r="B35" s="36"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="10"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
+      <c r="I35" s="27">
+        <v>45304</v>
+      </c>
+      <c r="J35" s="15">
+        <v>50000</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
       <c r="O35" s="10"/>
@@ -3016,17 +3302,25 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
-      <c r="B36" s="36"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
+      <c r="I36" s="27">
+        <v>45305</v>
+      </c>
+      <c r="J36" s="15">
+        <v>6600</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
       <c r="O36" s="10"/>
@@ -3050,17 +3344,25 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
-      <c r="B37" s="36"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="10"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
+      <c r="I37" s="27">
+        <v>45305</v>
+      </c>
+      <c r="J37" s="15">
+        <v>33000</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
       <c r="O37" s="10"/>
@@ -3084,14 +3386,14 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
-      <c r="B38" s="36"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="36"/>
+      <c r="I38" s="27"/>
       <c r="J38" s="15"/>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
@@ -3118,14 +3420,14 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
-      <c r="B39" s="36"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="36"/>
+      <c r="I39" s="27"/>
       <c r="J39" s="15"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
@@ -3152,14 +3454,14 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
-      <c r="B40" s="36"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="10"/>
-      <c r="I40" s="36"/>
+      <c r="I40" s="27"/>
       <c r="J40" s="15"/>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
@@ -3186,14 +3488,14 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
-      <c r="B41" s="36"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="36"/>
+      <c r="I41" s="27"/>
       <c r="J41" s="15"/>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
@@ -3220,14 +3522,14 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
-      <c r="B42" s="36"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="10"/>
-      <c r="I42" s="36"/>
+      <c r="I42" s="27"/>
       <c r="J42" s="15"/>
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
@@ -3254,14 +3556,14 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
-      <c r="B43" s="36"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="10"/>
-      <c r="I43" s="36"/>
+      <c r="I43" s="27"/>
       <c r="J43" s="15"/>
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
@@ -3288,14 +3590,14 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
-      <c r="B44" s="36"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="10"/>
-      <c r="I44" s="36"/>
+      <c r="I44" s="27"/>
       <c r="J44" s="15"/>
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
@@ -3881,28 +4183,28 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:R9">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="lessThan">
       <formula>$U$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
       <formula>$U$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>$U$13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
       <formula>$U$13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3912,14 +4214,459 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5234ECD1-E558-42B2-9B8B-4E13141F41E7}">
+  <dimension ref="A1:W17"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.59765625" customWidth="1"/>
+    <col min="7" max="8" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+    </row>
+    <row r="2" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="10"/>
+      <c r="B2" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row r="4" spans="1:22" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="N4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="32"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="S4" s="32"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A5" s="10"/>
+      <c r="B5" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="37"/>
+      <c r="N5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" s="7">
+        <f>SUM(C8:L8)</f>
+        <v>46900000</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6" s="7">
+        <f>SUM(C9:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="38">
+        <v>39000000</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39">
+        <v>6900000</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="38">
+        <v>39000000</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="39">
+        <v>6900000</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="38">
+        <f>C8*0</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38">
+        <f t="shared" ref="E9" si="0">E8*0</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38">
+        <f t="shared" ref="G9" si="1">G8*0</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38">
+        <f>I8*0</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="7">
+        <f>K8*0</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <f>L8*0</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="38">
+        <f>C8-C7</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38">
+        <f t="shared" ref="E10:H10" si="2">E8-E7</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38">
+        <f t="shared" ref="G10:H10" si="3">G8-G7</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38">
+        <f>I8-I7</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="7">
+        <f>K7-K8</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <f>L7-L8</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="O12" s="13"/>
+    </row>
+    <row r="17" spans="18:23" x14ac:dyDescent="0.4">
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C10 K10:L10 I10 E10 G10">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD05D24-AA82-4C1F-B69C-8DBF4B15B831}">
   <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="92" zoomScaleNormal="85" zoomScaleSheetLayoutView="92" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3973,28 +4720,28 @@
     </row>
     <row r="2" spans="1:32" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="29"/>
+      <c r="B2" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
@@ -4043,30 +4790,30 @@
     </row>
     <row r="4" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="30" t="s">
+      <c r="T4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="30"/>
+      <c r="U4" s="32"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -4081,35 +4828,35 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="33" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="31" t="s">
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="31" t="s">
+      <c r="Q5" s="36"/>
+      <c r="R5" s="33" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="10"/>
@@ -4118,7 +4865,7 @@
       </c>
       <c r="U5" s="7">
         <f>D10</f>
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
@@ -4134,7 +4881,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="32"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
@@ -4171,21 +4918,21 @@
       <c r="N6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="32"/>
+      <c r="O6" s="34"/>
       <c r="P6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="32"/>
+      <c r="R6" s="34"/>
       <c r="S6" s="10"/>
       <c r="T6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="U6" s="7">
         <f>I10+N10+O10</f>
-        <v>1359242</v>
+        <v>1305591</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>32</v>
@@ -4207,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="6">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -4280,13 +5027,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
         <v>0</v>
       </c>
       <c r="E8" s="7">
-        <v>300000</v>
+        <f>'1월'!C12</f>
+        <v>246349</v>
       </c>
       <c r="F8" s="7">
         <f>+SUMIF($L$16:$L$33,F$6,$J$16:$J$33)</f>
@@ -4368,7 +5116,7 @@
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53651</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4422,7 +5170,7 @@
       </c>
       <c r="U9" s="7">
         <f>U5-(U6+U7+U8)</f>
-        <v>540758</v>
+        <v>-3405591</v>
       </c>
       <c r="V9" s="13" t="s">
         <v>30</v>
@@ -4444,7 +5192,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="18">
         <f>C8+D8</f>
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -4452,7 +5200,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="18">
         <f>SUM(E8:I8)</f>
-        <v>300000</v>
+        <v>246349</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -4479,9 +5227,9 @@
       <c r="T10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10" s="23" t="e">
         <f>U6/U5</f>
-        <v>0.33981050000000002</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>31</v>
@@ -4520,9 +5268,9 @@
       <c r="T11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="U11" s="23">
+      <c r="U11" s="23" t="e">
         <f>U7/U5</f>
-        <v>0.47499999999999998</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V11" s="10" t="s">
         <v>47</v>
@@ -4605,7 +5353,7 @@
       </c>
       <c r="V13" s="7">
         <f>U5*U13</f>
-        <v>1800000</v>
+        <v>0</v>
       </c>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
@@ -4620,23 +5368,23 @@
     </row>
     <row r="14" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -4652,7 +5400,7 @@
       </c>
       <c r="V14" s="7">
         <f>U5*U14</f>
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
@@ -5888,32 +6636,516 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:R9">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>$U$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
       <formula>$U$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>$U$13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>$U$13</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBFE98F-838B-439D-B4B6-641D7CF90CC3}">
+  <dimension ref="A1:Z12"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="10.8984375" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.59765625" customWidth="1"/>
+    <col min="11" max="12" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.296875" customWidth="1"/>
+    <col min="17" max="18" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+    </row>
+    <row r="2" spans="1:26" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="10"/>
+      <c r="B2" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+    </row>
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="32"/>
+      <c r="Q4" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" s="32"/>
+      <c r="S4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A5" s="10"/>
+      <c r="B5" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="37"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" s="7">
+        <f>R5+SUM(C8:L8)</f>
+        <v>46900000</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="7">
+        <f>'1월(자산)'!O5</f>
+        <v>46900000</v>
+      </c>
+      <c r="S5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6" s="7">
+        <f>SUM(C9:L9)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39">
+        <v>0</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="38">
+        <v>0</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="38">
+        <v>0</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="39">
+        <v>0</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="38">
+        <v>0</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="38">
+        <f>C8*0</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38">
+        <f t="shared" ref="E9" si="0">E8*0</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38">
+        <f t="shared" ref="G9" si="1">G8*0</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38">
+        <f>I8*0</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="7">
+        <f>K8*0</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <f>L8*0</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="38">
+        <f>C8-C7</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38">
+        <f t="shared" ref="E10:H10" si="2">E8-E7</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38">
+        <f t="shared" ref="G10:H10" si="3">G8-G7</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38">
+        <f>I8-I7</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="7">
+        <f>K7-K8</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <f>L7-L8</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="S12" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C10 K10:L10 I10 E10 G10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\github\sharebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE12D927-BE03-41A8-A7D6-55686C182F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201EC851-4757-45E8-B573-34373D350A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="117">
   <si>
     <t>계획</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -481,6 +481,26 @@
   </si>
   <si>
     <t>2024년 2월 송민영의 가계부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>역귀성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해든마트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -867,7 +887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,6 +972,9 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -982,16 +1005,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1000,10 +1026,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,7 +1035,7 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="14">
     <dxf>
       <font>
         <b/>
@@ -1087,38 +1110,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1583,28 +1574,28 @@
     </row>
     <row r="2" spans="1:32" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
@@ -1653,30 +1644,30 @@
     </row>
     <row r="4" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="32"/>
+      <c r="U4" s="33"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -1691,35 +1682,35 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="35" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="33" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="33" t="s">
+      <c r="Q5" s="37"/>
+      <c r="R5" s="34" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="10"/>
@@ -1744,7 +1735,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
@@ -1781,21 +1772,21 @@
       <c r="N6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="34"/>
+      <c r="O6" s="35"/>
       <c r="P6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="34"/>
+      <c r="R6" s="35"/>
       <c r="S6" s="10"/>
       <c r="T6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="U6" s="7">
         <f>I10+N10+O10</f>
-        <v>1917075</v>
+        <v>2010925</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>32</v>
@@ -1904,7 +1895,7 @@
       </c>
       <c r="G8" s="7">
         <f>SUMIF($L$16:$L$44,G$6,$J$16:$J$44)</f>
-        <v>356114</v>
+        <v>449964</v>
       </c>
       <c r="H8" s="7">
         <f>SUMIF($L$16:$L$44,H$6,$J$16:$J$44)</f>
@@ -1984,9 +1975,9 @@
         <f t="shared" si="0"/>
         <v>37680</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="28">
         <f t="shared" si="0"/>
-        <v>43886</v>
+        <v>-49964</v>
       </c>
       <c r="H9" s="7">
         <f>H8</f>
@@ -2038,7 +2029,7 @@
       </c>
       <c r="U9" s="7">
         <f>U5-(U6+U7+U8)</f>
-        <v>912472</v>
+        <v>818622</v>
       </c>
       <c r="V9" s="13" t="s">
         <v>30</v>
@@ -2068,7 +2059,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="18">
         <f>SUM(E8:I8)</f>
-        <v>1018854</v>
+        <v>1112704</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -2097,7 +2088,7 @@
       </c>
       <c r="U10" s="23">
         <f>U6/U5</f>
-        <v>0.46423372829998061</v>
+        <v>0.48696019200168927</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>31</v>
@@ -2161,7 +2152,7 @@
       </c>
       <c r="C12" s="7">
         <f>SUM(C16:C44)</f>
-        <v>246349</v>
+        <v>250849</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="10"/>
@@ -2236,23 +2227,23 @@
     </row>
     <row r="14" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -3134,10 +3125,18 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="B32" s="27">
+        <v>45306</v>
+      </c>
+      <c r="C32" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="10"/>
@@ -3393,10 +3392,18 @@
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
+      <c r="I38" s="27">
+        <v>45305</v>
+      </c>
+      <c r="J38" s="15">
+        <v>82000</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>114</v>
+      </c>
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
       <c r="O38" s="10"/>
@@ -3427,10 +3434,19 @@
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
+      <c r="I39" s="27">
+        <v>45306</v>
+      </c>
+      <c r="J39" s="15">
+        <f>3800+8050</f>
+        <v>11850</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>114</v>
+      </c>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
       <c r="O39" s="10"/>
@@ -4183,28 +4199,28 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:R9">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThan">
       <formula>$U$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>$U$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>$U$13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>$U$13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4260,19 +4276,19 @@
     </row>
     <row r="2" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -4304,58 +4320,58 @@
     </row>
     <row r="4" spans="1:22" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="N4" s="32" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="N4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="32"/>
+      <c r="O4" s="33"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
-      <c r="R4" s="32" t="s">
+      <c r="R4" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="S4" s="32"/>
+      <c r="S4" s="33"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="35" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="35" t="s">
+      <c r="J5" s="37"/>
+      <c r="K5" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="37"/>
+      <c r="L5" s="38"/>
       <c r="N5" s="8" t="s">
         <v>101</v>
       </c>
@@ -4377,23 +4393,23 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="44" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="42" t="s">
+      <c r="H6" s="43"/>
+      <c r="I6" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="43"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="26" t="s">
         <v>103</v>
       </c>
@@ -4420,10 +4436,10 @@
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="41">
         <v>39000000</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="39">
         <v>0</v>
       </c>
@@ -4432,10 +4448,10 @@
         <v>6900000</v>
       </c>
       <c r="H7" s="40"/>
-      <c r="I7" s="38">
+      <c r="I7" s="41">
         <v>1000000</v>
       </c>
-      <c r="J7" s="38"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -4458,10 +4474,10 @@
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="41">
         <v>39000000</v>
       </c>
-      <c r="D8" s="38"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="39">
         <v>0</v>
       </c>
@@ -4470,10 +4486,10 @@
         <v>6900000</v>
       </c>
       <c r="H8" s="40"/>
-      <c r="I8" s="38">
+      <c r="I8" s="41">
         <v>1000000</v>
       </c>
-      <c r="J8" s="38"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -4496,26 +4512,26 @@
       <c r="B9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="41">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41">
         <f t="shared" ref="E9" si="0">E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38">
+      <c r="F9" s="41"/>
+      <c r="G9" s="41">
         <f t="shared" ref="G9" si="1">G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38">
+      <c r="H9" s="41"/>
+      <c r="I9" s="41">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="38"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -4540,26 +4556,26 @@
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="41">
         <f>C8-C7</f>
         <v>0</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38">
-        <f t="shared" ref="E10:H10" si="2">E8-E7</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38">
-        <f t="shared" ref="G10:H10" si="3">G8-G7</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41">
+        <f t="shared" ref="E10" si="2">E8-E7</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41">
+        <f t="shared" ref="G10" si="3">G8-G7</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41">
         <f>I8-I7</f>
         <v>0</v>
       </c>
-      <c r="J10" s="38"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="7">
         <f>K7-K8</f>
         <v>0</v>
@@ -4616,11 +4632,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="R4:S4"/>
@@ -4637,18 +4656,15 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C10 K10:L10 I10 E10 G10">
+  <conditionalFormatting sqref="C10 E10 G10 I10 K10:L10">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -4720,28 +4736,28 @@
     </row>
     <row r="2" spans="1:32" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
@@ -4790,30 +4806,30 @@
     </row>
     <row r="4" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="32"/>
+      <c r="U4" s="33"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -4828,35 +4844,35 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="35" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="33" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="33" t="s">
+      <c r="Q5" s="37"/>
+      <c r="R5" s="34" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="10"/>
@@ -4881,7 +4897,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
@@ -4918,21 +4934,21 @@
       <c r="N6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="34"/>
+      <c r="O6" s="35"/>
       <c r="P6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="34"/>
+      <c r="R6" s="35"/>
       <c r="S6" s="10"/>
       <c r="T6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="U6" s="7">
         <f>I10+N10+O10</f>
-        <v>1305591</v>
+        <v>1310091</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>32</v>
@@ -5034,7 +5050,7 @@
       </c>
       <c r="E8" s="7">
         <f>'1월'!C12</f>
-        <v>246349</v>
+        <v>250849</v>
       </c>
       <c r="F8" s="7">
         <f>+SUMIF($L$16:$L$33,F$6,$J$16:$J$33)</f>
@@ -5116,7 +5132,7 @@
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
-        <v>53651</v>
+        <v>49151</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -5170,7 +5186,7 @@
       </c>
       <c r="U9" s="7">
         <f>U5-(U6+U7+U8)</f>
-        <v>-3405591</v>
+        <v>-3410091</v>
       </c>
       <c r="V9" s="13" t="s">
         <v>30</v>
@@ -5200,7 +5216,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="18">
         <f>SUM(E8:I8)</f>
-        <v>246349</v>
+        <v>250849</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -5368,23 +5384,23 @@
     </row>
     <row r="14" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -6719,19 +6735,19 @@
     </row>
     <row r="2" spans="1:26" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -6777,28 +6793,28 @@
     </row>
     <row r="4" spans="1:26" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="Q4" s="32" t="s">
+      <c r="O4" s="33"/>
+      <c r="Q4" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="R4" s="32"/>
+      <c r="R4" s="33"/>
       <c r="S4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
@@ -6808,29 +6824,29 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="35" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="35" t="s">
+      <c r="J5" s="37"/>
+      <c r="K5" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="37"/>
+      <c r="L5" s="38"/>
       <c r="M5" s="10"/>
       <c r="N5" s="8" t="s">
         <v>101</v>
@@ -6855,23 +6871,23 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="44" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="42" t="s">
+      <c r="H6" s="43"/>
+      <c r="I6" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="43"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="26" t="s">
         <v>103</v>
       </c>
@@ -6901,10 +6917,10 @@
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="38">
-        <v>0</v>
-      </c>
-      <c r="D7" s="38"/>
+      <c r="C7" s="41">
+        <v>0</v>
+      </c>
+      <c r="D7" s="41"/>
       <c r="E7" s="39">
         <v>0</v>
       </c>
@@ -6913,10 +6929,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="40"/>
-      <c r="I7" s="38">
-        <v>0</v>
-      </c>
-      <c r="J7" s="38"/>
+      <c r="I7" s="41">
+        <v>0</v>
+      </c>
+      <c r="J7" s="41"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -6943,10 +6959,10 @@
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="38">
-        <v>0</v>
-      </c>
-      <c r="D8" s="38"/>
+      <c r="C8" s="41">
+        <v>0</v>
+      </c>
+      <c r="D8" s="41"/>
       <c r="E8" s="39">
         <v>0</v>
       </c>
@@ -6955,10 +6971,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="40"/>
-      <c r="I8" s="38">
-        <v>0</v>
-      </c>
-      <c r="J8" s="38"/>
+      <c r="I8" s="41">
+        <v>0</v>
+      </c>
+      <c r="J8" s="41"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -6985,26 +7001,26 @@
       <c r="B9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="41">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41">
         <f t="shared" ref="E9" si="0">E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38">
+      <c r="F9" s="41"/>
+      <c r="G9" s="41">
         <f t="shared" ref="G9" si="1">G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38">
+      <c r="H9" s="41"/>
+      <c r="I9" s="41">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="38"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -7033,26 +7049,26 @@
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="41">
         <f>C8-C7</f>
         <v>0</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38">
-        <f t="shared" ref="E10:H10" si="2">E8-E7</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38">
-        <f t="shared" ref="G10:H10" si="3">G8-G7</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41">
+        <f t="shared" ref="E10" si="2">E8-E7</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41">
+        <f t="shared" ref="G10" si="3">G8-G7</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41">
         <f>I8-I7</f>
         <v>0</v>
       </c>
-      <c r="J10" s="38"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="7">
         <f>K7-K8</f>
         <v>0</v>
@@ -7108,6 +7124,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="C10:D10"/>
@@ -7124,23 +7154,9 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C10 K10:L10 I10 E10 G10">
+  <conditionalFormatting sqref="C10 E10 G10 I10 K10:L10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\github\sharebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201EC851-4757-45E8-B573-34373D350A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E09DC3-43A0-410B-A0EC-BE7F7B4777F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="124">
   <si>
     <t>계획</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -501,6 +501,34 @@
   </si>
   <si>
     <t>해든마트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁(치킨)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>택시비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해든마트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -625,7 +653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,9 +991,6 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,12 +1030,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,7 +1045,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1511,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C54BB4D-E324-4A99-BBF5-A16B01E6D104}">
-  <dimension ref="A1:AF60"/>
+  <dimension ref="A1:AF68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="15" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2:U2"/>
@@ -1574,28 +1602,28 @@
     </row>
     <row r="2" spans="1:32" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
@@ -1644,30 +1672,30 @@
     </row>
     <row r="4" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="33"/>
+      <c r="U4" s="32"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -1682,35 +1710,35 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="36" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="34" t="s">
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="34" t="s">
+      <c r="Q5" s="36"/>
+      <c r="R5" s="33" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="10"/>
@@ -1735,7 +1763,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="35"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
@@ -1772,21 +1800,21 @@
       <c r="N6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="35"/>
+      <c r="O6" s="34"/>
       <c r="P6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="35"/>
+      <c r="R6" s="34"/>
       <c r="S6" s="10"/>
       <c r="T6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="U6" s="7">
         <f>I10+N10+O10</f>
-        <v>2010925</v>
+        <v>2063315</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>32</v>
@@ -1890,19 +1918,19 @@
         <v>468220</v>
       </c>
       <c r="F8" s="7">
-        <f>+SUMIF($L$16:$L$44,F$6,$J$16:$J$44)</f>
+        <f>+SUMIF($L$16:$L$52,F$6,$J$16:$J$52)</f>
         <v>82320</v>
       </c>
       <c r="G8" s="7">
-        <f>SUMIF($L$16:$L$44,G$6,$J$16:$J$44)</f>
-        <v>449964</v>
+        <f>SUMIF($L$16:$L$52,G$6,$J$16:$J$52)</f>
+        <v>502354</v>
       </c>
       <c r="H8" s="7">
-        <f>SUMIF($L$16:$L$44,H$6,$J$16:$J$44)</f>
+        <f>SUMIF($L$16:$L$52,H$6,$J$16:$J$52)</f>
         <v>0</v>
       </c>
       <c r="I8" s="7">
-        <f>SUMIF($L$16:$L$44,I$6,$J$16:$J$44)</f>
+        <f>SUMIF($L$16:$L$52,I$6,$J$16:$J$52)</f>
         <v>112200</v>
       </c>
       <c r="J8" s="6">
@@ -1932,7 +1960,7 @@
         <v>100000</v>
       </c>
       <c r="R8" s="7">
-        <f>SUMIF($E$16:$E$44,R$5,$C$16:$C$44)+SUMIF($L$16:$L$44,R$5,$J$16:$J$44)</f>
+        <f>SUMIF($E$16:$E$52,R$5,$C$16:$C$52)+SUMIF($L$16:$L$52,R$5,$J$16:$J$52)</f>
         <v>0</v>
       </c>
       <c r="S8" s="10"/>
@@ -1975,9 +2003,9 @@
         <f t="shared" si="0"/>
         <v>37680</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <f t="shared" si="0"/>
-        <v>-49964</v>
+        <v>-102354</v>
       </c>
       <c r="H9" s="7">
         <f>H8</f>
@@ -2029,7 +2057,7 @@
       </c>
       <c r="U9" s="7">
         <f>U5-(U6+U7+U8)</f>
-        <v>818622</v>
+        <v>766232</v>
       </c>
       <c r="V9" s="13" t="s">
         <v>30</v>
@@ -2059,7 +2087,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="18">
         <f>SUM(E8:I8)</f>
-        <v>1112704</v>
+        <v>1165094</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -2088,7 +2116,7 @@
       </c>
       <c r="U10" s="23">
         <f>U6/U5</f>
-        <v>0.48696019200168927</v>
+        <v>0.49964681356090634</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>31</v>
@@ -2151,8 +2179,8 @@
         <v>62</v>
       </c>
       <c r="C12" s="7">
-        <f>SUM(C16:C44)</f>
-        <v>250849</v>
+        <f>SUM(C16:C52)</f>
+        <v>255349</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="10"/>
@@ -2227,23 +2255,23 @@
     </row>
     <row r="14" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -2324,7 +2352,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
-      <c r="B16" s="27">
+      <c r="B16" s="26">
         <v>45293</v>
       </c>
       <c r="C16" s="15">
@@ -2339,7 +2367,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <v>45292</v>
       </c>
       <c r="J16" s="3">
@@ -2374,7 +2402,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <v>45294</v>
       </c>
       <c r="C17" s="15">
@@ -2389,7 +2417,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="27">
+      <c r="I17" s="26">
         <v>45292</v>
       </c>
       <c r="J17" s="15">
@@ -2424,7 +2452,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
-      <c r="B18" s="27">
+      <c r="B18" s="26">
         <v>45295</v>
       </c>
       <c r="C18" s="15">
@@ -2439,7 +2467,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="27">
+      <c r="I18" s="26">
         <v>45293</v>
       </c>
       <c r="J18" s="15">
@@ -2474,7 +2502,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <v>45295</v>
       </c>
       <c r="C19" s="15">
@@ -2489,7 +2517,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="27">
+      <c r="I19" s="26">
         <v>45294</v>
       </c>
       <c r="J19" s="15">
@@ -2524,7 +2552,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
-      <c r="B20" s="27">
+      <c r="B20" s="26">
         <v>45295</v>
       </c>
       <c r="C20" s="15">
@@ -2539,7 +2567,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="27">
+      <c r="I20" s="26">
         <v>45295</v>
       </c>
       <c r="J20" s="15">
@@ -2574,7 +2602,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
-      <c r="B21" s="27">
+      <c r="B21" s="26">
         <v>45295</v>
       </c>
       <c r="C21" s="15">
@@ -2589,7 +2617,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="27">
+      <c r="I21" s="26">
         <v>45296</v>
       </c>
       <c r="J21" s="15">
@@ -2624,13 +2652,13 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
-      <c r="B22" s="27">
+      <c r="B22" s="26">
         <v>45295</v>
       </c>
       <c r="C22" s="15">
         <v>23219</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="46" t="s">
         <v>56</v>
       </c>
       <c r="E22" s="16" t="s">
@@ -2639,7 +2667,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="27">
+      <c r="I22" s="26">
         <v>45296</v>
       </c>
       <c r="J22" s="15">
@@ -2674,7 +2702,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
-      <c r="B23" s="27">
+      <c r="B23" s="26">
         <v>45296</v>
       </c>
       <c r="C23" s="15">
@@ -2689,7 +2717,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="27">
+      <c r="I23" s="26">
         <v>45298</v>
       </c>
       <c r="J23" s="15">
@@ -2724,7 +2752,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
-      <c r="B24" s="27">
+      <c r="B24" s="26">
         <v>45297</v>
       </c>
       <c r="C24" s="15">
@@ -2739,7 +2767,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="27">
+      <c r="I24" s="26">
         <v>45298</v>
       </c>
       <c r="J24" s="15">
@@ -2774,7 +2802,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
-      <c r="B25" s="27">
+      <c r="B25" s="26">
         <v>45299</v>
       </c>
       <c r="C25" s="15">
@@ -2789,7 +2817,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="27">
+      <c r="I25" s="26">
         <v>45298</v>
       </c>
       <c r="J25" s="15">
@@ -2824,7 +2852,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
-      <c r="B26" s="27">
+      <c r="B26" s="26">
         <v>45300</v>
       </c>
       <c r="C26" s="15">
@@ -2839,7 +2867,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="27">
+      <c r="I26" s="26">
         <v>45299</v>
       </c>
       <c r="J26" s="15">
@@ -2874,7 +2902,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="27">
+      <c r="B27" s="26">
         <v>45301</v>
       </c>
       <c r="C27" s="15">
@@ -2889,14 +2917,14 @@
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="27">
+      <c r="I27" s="26">
         <v>45300</v>
       </c>
       <c r="J27" s="15">
         <f>7700+13200+20500</f>
         <v>41400</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="46" t="s">
         <v>74</v>
       </c>
       <c r="L27" s="16" t="s">
@@ -2925,7 +2953,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
-      <c r="B28" s="27">
+      <c r="B28" s="26">
         <v>45302</v>
       </c>
       <c r="C28" s="15">
@@ -2940,7 +2968,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="27">
+      <c r="I28" s="26">
         <v>45302</v>
       </c>
       <c r="J28" s="15">
@@ -2975,7 +3003,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
-      <c r="B29" s="27">
+      <c r="B29" s="26">
         <v>45303</v>
       </c>
       <c r="C29" s="15">
@@ -2990,7 +3018,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="27">
+      <c r="I29" s="26">
         <v>45302</v>
       </c>
       <c r="J29" s="15">
@@ -3025,7 +3053,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
-      <c r="B30" s="27">
+      <c r="B30" s="26">
         <v>45303</v>
       </c>
       <c r="C30" s="15">
@@ -3040,7 +3068,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="27">
+      <c r="I30" s="26">
         <v>45303</v>
       </c>
       <c r="J30" s="15">
@@ -3075,7 +3103,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
-      <c r="B31" s="27">
+      <c r="B31" s="26">
         <v>45304</v>
       </c>
       <c r="C31" s="15">
@@ -3090,7 +3118,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="27">
+      <c r="I31" s="26">
         <v>45303</v>
       </c>
       <c r="J31" s="15">
@@ -3125,7 +3153,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
-      <c r="B32" s="27">
+      <c r="B32" s="26">
         <v>45306</v>
       </c>
       <c r="C32" s="15">
@@ -3140,7 +3168,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="27">
+      <c r="I32" s="26">
         <v>45303</v>
       </c>
       <c r="J32" s="15">
@@ -3175,14 +3203,22 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="B33" s="26">
+        <v>45307</v>
+      </c>
+      <c r="C33" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="27">
+      <c r="I33" s="26">
         <v>45303</v>
       </c>
       <c r="J33" s="15">
@@ -3217,14 +3253,14 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
-      <c r="B34" s="27"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="27">
+      <c r="I34" s="26">
         <v>45304</v>
       </c>
       <c r="J34" s="15">
@@ -3259,14 +3295,14 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
-      <c r="B35" s="27"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="10"/>
-      <c r="I35" s="27">
+      <c r="I35" s="26">
         <v>45304</v>
       </c>
       <c r="J35" s="15">
@@ -3301,14 +3337,14 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
-      <c r="B36" s="27"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="27">
+      <c r="I36" s="26">
         <v>45305</v>
       </c>
       <c r="J36" s="15">
@@ -3343,14 +3379,14 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
-      <c r="B37" s="27"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="10"/>
-      <c r="I37" s="27">
+      <c r="I37" s="26">
         <v>45305</v>
       </c>
       <c r="J37" s="15">
@@ -3385,14 +3421,14 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
-      <c r="B38" s="27"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="27">
+      <c r="I38" s="26">
         <v>45305</v>
       </c>
       <c r="J38" s="15">
@@ -3427,14 +3463,14 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
-      <c r="B39" s="27"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="27">
+      <c r="I39" s="26">
         <v>45306</v>
       </c>
       <c r="J39" s="15">
@@ -3470,17 +3506,25 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
-      <c r="B40" s="27"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="10"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
+      <c r="I40" s="26">
+        <v>45307</v>
+      </c>
+      <c r="J40" s="15">
+        <v>27700</v>
+      </c>
+      <c r="K40" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
       <c r="O40" s="10"/>
@@ -3504,17 +3548,25 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
-      <c r="B41" s="27"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
+      <c r="I41" s="26">
+        <v>45308</v>
+      </c>
+      <c r="J41" s="15">
+        <v>11400</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
       <c r="O41" s="10"/>
@@ -3538,17 +3590,25 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
-      <c r="B42" s="27"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="10"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
+      <c r="I42" s="26">
+        <v>45309</v>
+      </c>
+      <c r="J42" s="15">
+        <v>7300</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
       <c r="O42" s="10"/>
@@ -3572,17 +3632,25 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
-      <c r="B43" s="27"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="10"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
+      <c r="I43" s="26">
+        <v>45309</v>
+      </c>
+      <c r="J43" s="15">
+        <v>5990</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
       <c r="O43" s="10"/>
@@ -3606,17 +3674,23 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
-      <c r="B44" s="27"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="10"/>
-      <c r="I44" s="27"/>
+      <c r="I44" s="26">
+        <v>45309</v>
+      </c>
       <c r="J44" s="15"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
+      <c r="K44" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
       <c r="O44" s="10"/>
@@ -3640,19 +3714,19 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
@@ -3674,19 +3748,19 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
       <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
@@ -3708,19 +3782,19 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
       <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
@@ -3742,19 +3816,19 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
@@ -3776,19 +3850,19 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
       <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
@@ -3810,19 +3884,19 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
       <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
@@ -3844,19 +3918,19 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
       <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
@@ -3878,19 +3952,19 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
       <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
@@ -4181,6 +4255,278 @@
       <c r="AD60" s="10"/>
       <c r="AE60" s="10"/>
       <c r="AF60" s="10"/>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="10"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="10"/>
+      <c r="AD62" s="10"/>
+      <c r="AE62" s="10"/>
+      <c r="AF62" s="10"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="10"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="10"/>
+      <c r="AC64" s="10"/>
+      <c r="AD64" s="10"/>
+      <c r="AE64" s="10"/>
+      <c r="AF64" s="10"/>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10"/>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="10"/>
+      <c r="AB66" s="10"/>
+      <c r="AC66" s="10"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="10"/>
+      <c r="AF66" s="10"/>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="10"/>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="10"/>
+      <c r="AC68" s="10"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="10"/>
+      <c r="AF68" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4234,7 +4580,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L2"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4276,19 +4622,19 @@
     </row>
     <row r="2" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -4320,58 +4666,58 @@
     </row>
     <row r="4" spans="1:22" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="N4" s="33" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="N4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="33"/>
+      <c r="O4" s="32"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="S4" s="33"/>
+      <c r="S4" s="32"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36" t="s">
+      <c r="F5" s="36"/>
+      <c r="G5" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="36" t="s">
+      <c r="J5" s="36"/>
+      <c r="K5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="38"/>
+      <c r="L5" s="37"/>
       <c r="N5" s="8" t="s">
         <v>101</v>
       </c>
@@ -4393,27 +4739,27 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="42" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="42" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44" t="s">
+      <c r="H6" s="40"/>
+      <c r="I6" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="26" t="s">
+      <c r="J6" s="42"/>
+      <c r="K6" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="25" t="s">
         <v>104</v>
       </c>
       <c r="N6" s="8" t="s">
@@ -4436,22 +4782,22 @@
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="38">
         <v>39000000</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="39">
-        <v>0</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="39">
+      <c r="D7" s="38"/>
+      <c r="E7" s="43">
+        <v>0</v>
+      </c>
+      <c r="F7" s="44"/>
+      <c r="G7" s="43">
         <v>6900000</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41">
+      <c r="H7" s="44"/>
+      <c r="I7" s="38">
         <v>1000000</v>
       </c>
-      <c r="J7" s="41"/>
+      <c r="J7" s="38"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -4474,22 +4820,22 @@
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="38">
         <v>39000000</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="39">
-        <v>0</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="39">
+      <c r="D8" s="38"/>
+      <c r="E8" s="43">
+        <v>0</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="43">
         <v>6900000</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41">
+      <c r="H8" s="44"/>
+      <c r="I8" s="38">
         <v>1000000</v>
       </c>
-      <c r="J8" s="41"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -4512,26 +4858,26 @@
       <c r="B9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="38">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41">
+      <c r="D9" s="38"/>
+      <c r="E9" s="38">
         <f t="shared" ref="E9" si="0">E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41">
+      <c r="F9" s="38"/>
+      <c r="G9" s="38">
         <f t="shared" ref="G9" si="1">G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41">
+      <c r="H9" s="38"/>
+      <c r="I9" s="38">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="41"/>
+      <c r="J9" s="38"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -4556,26 +4902,26 @@
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="38">
         <f>C8-C7</f>
         <v>0</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41">
+      <c r="D10" s="38"/>
+      <c r="E10" s="38">
         <f t="shared" ref="E10" si="2">E8-E7</f>
         <v>0</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41">
+      <c r="F10" s="38"/>
+      <c r="G10" s="38">
         <f t="shared" ref="G10" si="3">G8-G7</f>
         <v>0</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41">
+      <c r="H10" s="38"/>
+      <c r="I10" s="38">
         <f>I8-I7</f>
         <v>0</v>
       </c>
-      <c r="J10" s="41"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="7">
         <f>K7-K8</f>
         <v>0</v>
@@ -4632,16 +4978,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
@@ -4656,12 +4998,16 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C10 E10 G10 I10 K10:L10">
@@ -4682,7 +5028,7 @@
       <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:U2"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4736,28 +5082,28 @@
     </row>
     <row r="2" spans="1:32" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
@@ -4806,30 +5152,30 @@
     </row>
     <row r="4" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="33"/>
+      <c r="U4" s="32"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -4844,35 +5190,35 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="36" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="34" t="s">
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="34" t="s">
+      <c r="Q5" s="36"/>
+      <c r="R5" s="33" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="10"/>
@@ -4897,7 +5243,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="35"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
@@ -4934,21 +5280,21 @@
       <c r="N6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="35"/>
+      <c r="O6" s="34"/>
       <c r="P6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="35"/>
+      <c r="R6" s="34"/>
       <c r="S6" s="10"/>
       <c r="T6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="U6" s="7">
         <f>I10+N10+O10</f>
-        <v>1310091</v>
+        <v>1314591</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>32</v>
@@ -5050,7 +5396,7 @@
       </c>
       <c r="E8" s="7">
         <f>'1월'!C12</f>
-        <v>250849</v>
+        <v>255349</v>
       </c>
       <c r="F8" s="7">
         <f>+SUMIF($L$16:$L$33,F$6,$J$16:$J$33)</f>
@@ -5132,7 +5478,7 @@
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
-        <v>49151</v>
+        <v>44651</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -5186,7 +5532,7 @@
       </c>
       <c r="U9" s="7">
         <f>U5-(U6+U7+U8)</f>
-        <v>-3410091</v>
+        <v>-3414591</v>
       </c>
       <c r="V9" s="13" t="s">
         <v>30</v>
@@ -5216,7 +5562,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="18">
         <f>SUM(E8:I8)</f>
-        <v>250849</v>
+        <v>255349</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -5384,23 +5730,23 @@
     </row>
     <row r="14" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -6735,19 +7081,19 @@
     </row>
     <row r="2" spans="1:26" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -6793,28 +7139,28 @@
     </row>
     <row r="4" spans="1:26" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="33"/>
-      <c r="Q4" s="33" t="s">
+      <c r="O4" s="32"/>
+      <c r="Q4" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="R4" s="33"/>
+      <c r="R4" s="32"/>
       <c r="S4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
@@ -6824,29 +7170,29 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36" t="s">
+      <c r="F5" s="36"/>
+      <c r="G5" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="36" t="s">
+      <c r="J5" s="36"/>
+      <c r="K5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="38"/>
+      <c r="L5" s="37"/>
       <c r="M5" s="10"/>
       <c r="N5" s="8" t="s">
         <v>101</v>
@@ -6871,27 +7217,27 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="42" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="42" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44" t="s">
+      <c r="H6" s="40"/>
+      <c r="I6" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="26" t="s">
+      <c r="J6" s="42"/>
+      <c r="K6" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="25" t="s">
         <v>104</v>
       </c>
       <c r="M6" s="10"/>
@@ -6917,22 +7263,22 @@
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="41">
-        <v>0</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="39">
-        <v>0</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="39">
-        <v>0</v>
-      </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41">
-        <v>0</v>
-      </c>
-      <c r="J7" s="41"/>
+      <c r="C7" s="38">
+        <v>0</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="43">
+        <v>0</v>
+      </c>
+      <c r="F7" s="44"/>
+      <c r="G7" s="43">
+        <v>0</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="38">
+        <v>0</v>
+      </c>
+      <c r="J7" s="38"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -6959,22 +7305,22 @@
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="41">
-        <v>0</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="39">
-        <v>0</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="39">
-        <v>0</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41">
-        <v>0</v>
-      </c>
-      <c r="J8" s="41"/>
+      <c r="C8" s="38">
+        <v>0</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="43">
+        <v>0</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="43">
+        <v>0</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="38">
+        <v>0</v>
+      </c>
+      <c r="J8" s="38"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -7001,26 +7347,26 @@
       <c r="B9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="38">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41">
+      <c r="D9" s="38"/>
+      <c r="E9" s="38">
         <f t="shared" ref="E9" si="0">E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41">
+      <c r="F9" s="38"/>
+      <c r="G9" s="38">
         <f t="shared" ref="G9" si="1">G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41">
+      <c r="H9" s="38"/>
+      <c r="I9" s="38">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="41"/>
+      <c r="J9" s="38"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -7049,26 +7395,26 @@
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="38">
         <f>C8-C7</f>
         <v>0</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41">
+      <c r="D10" s="38"/>
+      <c r="E10" s="38">
         <f t="shared" ref="E10" si="2">E8-E7</f>
         <v>0</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41">
+      <c r="F10" s="38"/>
+      <c r="G10" s="38">
         <f t="shared" ref="G10" si="3">G8-G7</f>
         <v>0</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41">
+      <c r="H10" s="38"/>
+      <c r="I10" s="38">
         <f>I8-I7</f>
         <v>0</v>
       </c>
-      <c r="J10" s="41"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="7">
         <f>K7-K8</f>
         <v>0</v>
@@ -7124,20 +7470,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="C10:D10"/>
@@ -7154,6 +7486,20 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C10 E10 G10 I10 K10:L10">

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\github\sharebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E09DC3-43A0-410B-A0EC-BE7F7B4777F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56948C1E-E3D7-4808-9EB0-CD862568565D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
   </bookViews>
   <sheets>
     <sheet name="1월" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="132">
   <si>
     <t>계획</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -212,10 +212,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2024년 1월 송민영의 가계부(현대차 주식 18만원 이하일 때 구매)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>점심</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -529,6 +525,42 @@
   </si>
   <si>
     <t>식비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심(데이트)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뽀미약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁(데이트)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년 1월 송민영의 가계부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1000,6 +1032,9 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1030,7 +1065,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1043,18 +1087,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1541,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C54BB4D-E324-4A99-BBF5-A16B01E6D104}">
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2:U2"/>
@@ -1602,28 +1634,28 @@
     </row>
     <row r="2" spans="1:32" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="31"/>
+      <c r="B2" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
@@ -1672,30 +1704,30 @@
     </row>
     <row r="4" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="32"/>
+      <c r="U4" s="33"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -1710,35 +1742,35 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="35" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="33" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="33" t="s">
+      <c r="Q5" s="37"/>
+      <c r="R5" s="34" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="10"/>
@@ -1763,7 +1795,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
@@ -1771,19 +1803,19 @@
         <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>36</v>
@@ -1800,21 +1832,21 @@
       <c r="N6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="34"/>
+      <c r="O6" s="35"/>
       <c r="P6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="34"/>
+      <c r="R6" s="35"/>
       <c r="S6" s="10"/>
       <c r="T6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="U6" s="7">
         <f>I10+N10+O10</f>
-        <v>2063315</v>
+        <v>2207075</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>32</v>
@@ -1857,7 +1889,7 @@
         <v>100000</v>
       </c>
       <c r="J7" s="6">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="K7" s="6">
         <f>34100+24500</f>
@@ -1919,11 +1951,11 @@
       </c>
       <c r="F8" s="7">
         <f>+SUMIF($L$16:$L$52,F$6,$J$16:$J$52)</f>
-        <v>82320</v>
+        <v>98430</v>
       </c>
       <c r="G8" s="7">
         <f>SUMIF($L$16:$L$52,G$6,$J$16:$J$52)</f>
-        <v>502354</v>
+        <v>730004</v>
       </c>
       <c r="H8" s="7">
         <f>SUMIF($L$16:$L$52,H$6,$J$16:$J$52)</f>
@@ -1934,7 +1966,7 @@
         <v>112200</v>
       </c>
       <c r="J8" s="6">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="K8" s="6">
         <f>34100+24500</f>
@@ -2001,11 +2033,11 @@
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>37680</v>
+        <v>21570</v>
       </c>
       <c r="G9" s="27">
         <f t="shared" si="0"/>
-        <v>-102354</v>
+        <v>-330004</v>
       </c>
       <c r="H9" s="7">
         <f>H8</f>
@@ -2057,7 +2089,7 @@
       </c>
       <c r="U9" s="7">
         <f>U5-(U6+U7+U8)</f>
-        <v>766232</v>
+        <v>622472</v>
       </c>
       <c r="V9" s="13" t="s">
         <v>30</v>
@@ -2087,7 +2119,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="18">
         <f>SUM(E8:I8)</f>
-        <v>1165094</v>
+        <v>1408854</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -2095,7 +2127,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18">
         <f>SUM(J8:N8)</f>
-        <v>838221</v>
+        <v>738221</v>
       </c>
       <c r="O10" s="18">
         <f>O8</f>
@@ -2116,7 +2148,7 @@
       </c>
       <c r="U10" s="23">
         <f>U6/U5</f>
-        <v>0.49964681356090634</v>
+        <v>0.53445934868885137</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>31</v>
@@ -2153,14 +2185,14 @@
       <c r="R11" s="12"/>
       <c r="S11" s="10"/>
       <c r="T11" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U11" s="23">
         <f>U7/U5</f>
         <v>0.26637304285433727</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
@@ -2176,7 +2208,7 @@
     <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="B12" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="7">
         <f>SUM(C16:C52)</f>
@@ -2233,14 +2265,14 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U13" s="19">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="V13" s="7">
         <f>U5*U13</f>
-        <v>1858296.1500000001</v>
+        <v>2064773.5</v>
       </c>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
@@ -2255,23 +2287,23 @@
     </row>
     <row r="14" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -2359,7 +2391,7 @@
         <v>4500</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>3</v>
@@ -2377,7 +2409,7 @@
         <v>38</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
@@ -2409,7 +2441,7 @@
         <v>4500</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>3</v>
@@ -2427,7 +2459,7 @@
         <v>39</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
@@ -2459,7 +2491,7 @@
         <v>19920</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>3</v>
@@ -2474,10 +2506,10 @@
         <v>10580</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
@@ -2509,7 +2541,7 @@
         <v>5400</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>3</v>
@@ -2524,10 +2556,10 @@
         <v>4500</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
@@ -2559,7 +2591,7 @@
         <v>50000</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>4</v>
@@ -2574,10 +2606,10 @@
         <v>6990</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
@@ -2609,7 +2641,7 @@
         <v>22000</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>5</v>
@@ -2624,10 +2656,10 @@
         <v>30919</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
@@ -2658,8 +2690,8 @@
       <c r="C22" s="15">
         <v>23219</v>
       </c>
-      <c r="D22" s="46" t="s">
-        <v>56</v>
+      <c r="D22" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>3</v>
@@ -2674,7 +2706,7 @@
         <v>82320</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>40</v>
@@ -2709,7 +2741,7 @@
         <v>4500</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>3</v>
@@ -2724,10 +2756,10 @@
         <v>4000</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
@@ -2759,7 +2791,7 @@
         <v>30900</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>3</v>
@@ -2774,10 +2806,10 @@
         <v>10000</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
@@ -2809,10 +2841,10 @@
         <v>4500</v>
       </c>
       <c r="D25" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -2824,10 +2856,10 @@
         <v>39535</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
@@ -2859,10 +2891,10 @@
         <v>4500</v>
       </c>
       <c r="D26" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -2874,10 +2906,10 @@
         <v>3150</v>
       </c>
       <c r="K26" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>70</v>
       </c>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
@@ -2909,10 +2941,10 @@
         <v>4500</v>
       </c>
       <c r="D27" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -2924,11 +2956,11 @@
         <f>7700+13200+20500</f>
         <v>41400</v>
       </c>
-      <c r="K27" s="46" t="s">
-        <v>74</v>
+      <c r="K27" s="28" t="s">
+        <v>73</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
@@ -2960,10 +2992,10 @@
         <v>4500</v>
       </c>
       <c r="D28" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -2975,10 +3007,10 @@
         <v>5400</v>
       </c>
       <c r="K28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
@@ -3010,10 +3042,10 @@
         <v>4500</v>
       </c>
       <c r="D29" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -3025,10 +3057,10 @@
         <v>11500</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
@@ -3060,10 +3092,10 @@
         <v>8910</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -3075,10 +3107,10 @@
         <v>2980</v>
       </c>
       <c r="K30" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L30" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
@@ -3110,10 +3142,10 @@
         <v>50000</v>
       </c>
       <c r="D31" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -3125,10 +3157,10 @@
         <v>50100</v>
       </c>
       <c r="K31" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>87</v>
       </c>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
@@ -3160,10 +3192,10 @@
         <v>4500</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -3175,10 +3207,10 @@
         <v>62100</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
@@ -3210,10 +3242,10 @@
         <v>4500</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -3225,10 +3257,10 @@
         <v>35560</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
@@ -3267,10 +3299,10 @@
         <v>36000</v>
       </c>
       <c r="K34" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="L34" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>93</v>
       </c>
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
@@ -3309,10 +3341,10 @@
         <v>50000</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
@@ -3351,10 +3383,10 @@
         <v>6600</v>
       </c>
       <c r="K36" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>93</v>
       </c>
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
@@ -3393,10 +3425,10 @@
         <v>33000</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
@@ -3435,10 +3467,10 @@
         <v>82000</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
@@ -3478,10 +3510,10 @@
         <v>11850</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
@@ -3519,11 +3551,11 @@
       <c r="J40" s="15">
         <v>27700</v>
       </c>
-      <c r="K40" s="46" t="s">
+      <c r="K40" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="L40" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="L40" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
@@ -3562,10 +3594,10 @@
         <v>11400</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
@@ -3604,10 +3636,10 @@
         <v>7300</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
@@ -3646,10 +3678,10 @@
         <v>5990</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
@@ -3684,12 +3716,14 @@
       <c r="I44" s="26">
         <v>45309</v>
       </c>
-      <c r="J44" s="15"/>
+      <c r="J44" s="15">
+        <v>8450</v>
+      </c>
       <c r="K44" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
@@ -3721,10 +3755,18 @@
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
+      <c r="I45" s="26">
+        <v>45310</v>
+      </c>
+      <c r="J45" s="15">
+        <v>26600</v>
+      </c>
+      <c r="K45" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="10"/>
@@ -3755,10 +3797,19 @@
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="10"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
+      <c r="I46" s="26">
+        <v>45310</v>
+      </c>
+      <c r="J46" s="15">
+        <f>87900+12300</f>
+        <v>100200</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
       <c r="O46" s="10"/>
@@ -3789,10 +3840,18 @@
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="10"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
+      <c r="I47" s="26">
+        <v>45311</v>
+      </c>
+      <c r="J47" s="15">
+        <v>40000</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
       <c r="O47" s="10"/>
@@ -3823,10 +3882,18 @@
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
+      <c r="I48" s="26">
+        <v>45311</v>
+      </c>
+      <c r="J48" s="15">
+        <v>26000</v>
+      </c>
+      <c r="K48" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
       <c r="O48" s="10"/>
@@ -3857,10 +3924,18 @@
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="10"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
+      <c r="I49" s="26">
+        <v>45311</v>
+      </c>
+      <c r="J49" s="15">
+        <v>26400</v>
+      </c>
+      <c r="K49" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
       <c r="O49" s="10"/>
@@ -3891,10 +3966,18 @@
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
       <c r="H50" s="10"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
+      <c r="I50" s="26">
+        <v>45311</v>
+      </c>
+      <c r="J50" s="15">
+        <v>16110</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
       <c r="O50" s="10"/>
@@ -4622,19 +4705,19 @@
     </row>
     <row r="2" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
+      <c r="B2" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -4666,60 +4749,60 @@
     </row>
     <row r="4" spans="1:22" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="N4" s="32" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="N4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="32"/>
+      <c r="O4" s="33"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
-      <c r="R4" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="S4" s="32"/>
+      <c r="R4" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="S4" s="33"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="35" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="38"/>
       <c r="N5" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O5" s="7">
         <f>SUM(C8:L8)</f>
@@ -4728,7 +4811,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S5" s="7">
         <v>0</v>
@@ -4739,31 +4822,31 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="G6" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="42"/>
+      <c r="J6" s="46"/>
       <c r="K6" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="25" t="s">
-        <v>104</v>
-      </c>
       <c r="N6" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O6" s="7">
         <f>SUM(C9:H9)</f>
@@ -4782,22 +4865,22 @@
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="41">
         <v>39000000</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="43">
-        <v>0</v>
-      </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="43">
+      <c r="D7" s="41"/>
+      <c r="E7" s="39">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39">
         <v>6900000</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="38">
+      <c r="H7" s="40"/>
+      <c r="I7" s="41">
         <v>1000000</v>
       </c>
-      <c r="J7" s="38"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -4820,22 +4903,22 @@
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="41">
         <v>39000000</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="43">
-        <v>0</v>
-      </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="43">
+      <c r="D8" s="41"/>
+      <c r="E8" s="39">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="39">
         <v>6900000</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="38">
+      <c r="H8" s="40"/>
+      <c r="I8" s="41">
         <v>1000000</v>
       </c>
-      <c r="J8" s="38"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -4856,28 +4939,28 @@
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="38">
+        <v>105</v>
+      </c>
+      <c r="C9" s="41">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41">
         <f t="shared" ref="E9" si="0">E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38">
+      <c r="F9" s="41"/>
+      <c r="G9" s="41">
         <f t="shared" ref="G9" si="1">G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38">
+      <c r="H9" s="41"/>
+      <c r="I9" s="41">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="38"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -4902,26 +4985,26 @@
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="41">
         <f>C8-C7</f>
         <v>0</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41">
         <f t="shared" ref="E10" si="2">E8-E7</f>
         <v>0</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38">
+      <c r="F10" s="41"/>
+      <c r="G10" s="41">
         <f t="shared" ref="G10" si="3">G8-G7</f>
         <v>0</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38">
+      <c r="H10" s="41"/>
+      <c r="I10" s="41">
         <f>I8-I7</f>
         <v>0</v>
       </c>
-      <c r="J10" s="38"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="7">
         <f>K7-K8</f>
         <v>0</v>
@@ -4978,12 +5061,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
@@ -4998,16 +5085,12 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C10 E10 G10 I10 K10:L10">
@@ -5024,11 +5107,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD05D24-AA82-4C1F-B69C-8DBF4B15B831}">
   <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5082,28 +5165,28 @@
     </row>
     <row r="2" spans="1:32" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="31"/>
+      <c r="B2" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
@@ -5152,30 +5235,30 @@
     </row>
     <row r="4" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="32"/>
+      <c r="U4" s="33"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -5190,35 +5273,35 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="35" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="33" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="33" t="s">
+      <c r="Q5" s="37"/>
+      <c r="R5" s="34" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="10"/>
@@ -5243,7 +5326,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
@@ -5251,19 +5334,19 @@
         <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>36</v>
@@ -5280,14 +5363,14 @@
       <c r="N6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="34"/>
+      <c r="O6" s="35"/>
       <c r="P6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="34"/>
+      <c r="R6" s="35"/>
       <c r="S6" s="10"/>
       <c r="T6" s="8" t="s">
         <v>28</v>
@@ -5628,14 +5711,14 @@
       <c r="R11" s="12"/>
       <c r="S11" s="10"/>
       <c r="T11" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U11" s="23" t="e">
         <f>U7/U5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
@@ -5651,7 +5734,7 @@
     <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="B12" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="7">
         <f>SUM(C16:C33)</f>
@@ -5708,10 +5791,10 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U13" s="19">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="V13" s="7">
         <f>U5*U13</f>
@@ -5730,23 +5813,23 @@
     </row>
     <row r="14" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -7033,7 +7116,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L2"/>
+      <selection activeCell="I7" sqref="I7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7081,19 +7164,19 @@
     </row>
     <row r="2" spans="1:26" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
+      <c r="B2" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -7139,28 +7222,28 @@
     </row>
     <row r="4" spans="1:26" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="Q4" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="R4" s="32"/>
+      <c r="O4" s="33"/>
+      <c r="Q4" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="33"/>
       <c r="S4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
@@ -7170,39 +7253,39 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="35" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="38"/>
       <c r="M5" s="10"/>
       <c r="N5" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O5" s="7">
         <f>R5+SUM(C8:L8)</f>
         <v>46900000</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R5" s="7">
         <f>'1월(자산)'!O5</f>
@@ -7217,32 +7300,32 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="G6" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="42"/>
+      <c r="J6" s="46"/>
       <c r="K6" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="25" t="s">
         <v>103</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>104</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O6" s="7">
         <f>SUM(C9:L9)</f>
@@ -7263,22 +7346,22 @@
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="38">
-        <v>0</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="43">
-        <v>0</v>
-      </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="43">
-        <v>0</v>
-      </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="38">
-        <v>0</v>
-      </c>
-      <c r="J7" s="38"/>
+      <c r="C7" s="41">
+        <v>0</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="39">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39">
+        <v>0</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41">
+        <v>0</v>
+      </c>
+      <c r="J7" s="41"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -7305,22 +7388,22 @@
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="38">
-        <v>0</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="43">
-        <v>0</v>
-      </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="43">
-        <v>0</v>
-      </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="38">
-        <v>0</v>
-      </c>
-      <c r="J8" s="38"/>
+      <c r="C8" s="41">
+        <v>0</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="39">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="39">
+        <v>0</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41">
+        <v>0</v>
+      </c>
+      <c r="J8" s="41"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -7345,28 +7428,28 @@
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="38">
+        <v>105</v>
+      </c>
+      <c r="C9" s="41">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41">
         <f t="shared" ref="E9" si="0">E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38">
+      <c r="F9" s="41"/>
+      <c r="G9" s="41">
         <f t="shared" ref="G9" si="1">G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38">
+      <c r="H9" s="41"/>
+      <c r="I9" s="41">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="38"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -7395,26 +7478,26 @@
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="41">
         <f>C8-C7</f>
         <v>0</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41">
         <f t="shared" ref="E10" si="2">E8-E7</f>
         <v>0</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38">
+      <c r="F10" s="41"/>
+      <c r="G10" s="41">
         <f t="shared" ref="G10" si="3">G8-G7</f>
         <v>0</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38">
+      <c r="H10" s="41"/>
+      <c r="I10" s="41">
         <f>I8-I7</f>
         <v>0</v>
       </c>
-      <c r="J10" s="38"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="7">
         <f>K7-K8</f>
         <v>0</v>
@@ -7470,6 +7553,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="C10:D10"/>
@@ -7486,20 +7583,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C10 E10 G10 I10 K10:L10">

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\github\sharebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56948C1E-E3D7-4808-9EB0-CD862568565D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F11B5A1-CFA7-4A17-8888-0FDEAFB81014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
   </bookViews>
   <sheets>
     <sheet name="1월" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="134">
   <si>
     <t>계획</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -561,6 +561,14 @@
   </si>
   <si>
     <t>2024년 1월 송민영의 가계부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해든마트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1065,16 +1073,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,6 +1086,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1571,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C54BB4D-E324-4A99-BBF5-A16B01E6D104}">
-  <dimension ref="A1:AF68"/>
+  <dimension ref="A1:AF73"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="15" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2:U2"/>
@@ -1846,7 +1854,7 @@
       </c>
       <c r="U6" s="7">
         <f>I10+N10+O10</f>
-        <v>2207075</v>
+        <v>2218575</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>32</v>
@@ -1950,19 +1958,19 @@
         <v>468220</v>
       </c>
       <c r="F8" s="7">
-        <f>+SUMIF($L$16:$L$52,F$6,$J$16:$J$52)</f>
+        <f>+SUMIF($L$16:$L$57,F$6,$J$16:$J$57)</f>
         <v>98430</v>
       </c>
       <c r="G8" s="7">
-        <f>SUMIF($L$16:$L$52,G$6,$J$16:$J$52)</f>
-        <v>730004</v>
+        <f>SUMIF($L$16:$L$57,G$6,$J$16:$J$57)</f>
+        <v>741504</v>
       </c>
       <c r="H8" s="7">
-        <f>SUMIF($L$16:$L$52,H$6,$J$16:$J$52)</f>
+        <f>SUMIF($L$16:$L$57,H$6,$J$16:$J$57)</f>
         <v>0</v>
       </c>
       <c r="I8" s="7">
-        <f>SUMIF($L$16:$L$52,I$6,$J$16:$J$52)</f>
+        <f>SUMIF($L$16:$L$57,I$6,$J$16:$J$57)</f>
         <v>112200</v>
       </c>
       <c r="J8" s="6">
@@ -1992,7 +2000,7 @@
         <v>100000</v>
       </c>
       <c r="R8" s="7">
-        <f>SUMIF($E$16:$E$52,R$5,$C$16:$C$52)+SUMIF($L$16:$L$52,R$5,$J$16:$J$52)</f>
+        <f>SUMIF($E$16:$E$57,R$5,$C$16:$C$57)+SUMIF($L$16:$L$57,R$5,$J$16:$J$57)</f>
         <v>0</v>
       </c>
       <c r="S8" s="10"/>
@@ -2037,7 +2045,7 @@
       </c>
       <c r="G9" s="27">
         <f t="shared" si="0"/>
-        <v>-330004</v>
+        <v>-341504</v>
       </c>
       <c r="H9" s="7">
         <f>H8</f>
@@ -2089,7 +2097,7 @@
       </c>
       <c r="U9" s="7">
         <f>U5-(U6+U7+U8)</f>
-        <v>622472</v>
+        <v>610972</v>
       </c>
       <c r="V9" s="13" t="s">
         <v>30</v>
@@ -2119,7 +2127,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="18">
         <f>SUM(E8:I8)</f>
-        <v>1408854</v>
+        <v>1420354</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -2148,7 +2156,7 @@
       </c>
       <c r="U10" s="23">
         <f>U6/U5</f>
-        <v>0.53445934868885137</v>
+        <v>0.53724415777323764</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>31</v>
@@ -2211,7 +2219,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="7">
-        <f>SUM(C16:C52)</f>
+        <f>SUM(C16:C57)</f>
         <v>255349</v>
       </c>
       <c r="D12" s="18"/>
@@ -4008,10 +4016,18 @@
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="10"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
+      <c r="I51" s="26">
+        <v>45312</v>
+      </c>
+      <c r="J51" s="15">
+        <v>11500</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>133</v>
+      </c>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
       <c r="O51" s="10"/>
@@ -4069,19 +4085,19 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
       <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
@@ -4103,19 +4119,19 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
       <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
@@ -4137,19 +4153,19 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
       <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
@@ -4171,19 +4187,19 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
       <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
@@ -4205,19 +4221,19 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
       <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
@@ -4610,6 +4626,176 @@
       <c r="AD68" s="10"/>
       <c r="AE68" s="10"/>
       <c r="AF68" s="10"/>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="10"/>
+      <c r="AC70" s="10"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="10"/>
+      <c r="AF70" s="10"/>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="10"/>
+      <c r="AB71" s="10"/>
+      <c r="AC71" s="10"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="10"/>
+      <c r="AF71" s="10"/>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10"/>
+      <c r="AA72" s="10"/>
+      <c r="AB72" s="10"/>
+      <c r="AC72" s="10"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="10"/>
+      <c r="AF72" s="10"/>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="10"/>
+      <c r="AB73" s="10"/>
+      <c r="AC73" s="10"/>
+      <c r="AD73" s="10"/>
+      <c r="AE73" s="10"/>
+      <c r="AF73" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4822,23 +5008,23 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="43" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="43" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="45" t="s">
+      <c r="H6" s="41"/>
+      <c r="I6" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="46"/>
+      <c r="J6" s="43"/>
       <c r="K6" s="25" t="s">
         <v>102</v>
       </c>
@@ -4865,22 +5051,22 @@
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="39">
         <v>39000000</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="39">
-        <v>0</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="39">
+      <c r="D7" s="39"/>
+      <c r="E7" s="44">
+        <v>0</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="44">
         <v>6900000</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41">
+      <c r="H7" s="45"/>
+      <c r="I7" s="39">
         <v>1000000</v>
       </c>
-      <c r="J7" s="41"/>
+      <c r="J7" s="39"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -4903,22 +5089,22 @@
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="39">
         <v>39000000</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="39">
-        <v>0</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="39">
+      <c r="D8" s="39"/>
+      <c r="E8" s="44">
+        <v>0</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="44">
         <v>6900000</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41">
+      <c r="H8" s="45"/>
+      <c r="I8" s="39">
         <v>1000000</v>
       </c>
-      <c r="J8" s="41"/>
+      <c r="J8" s="39"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -4941,26 +5127,26 @@
       <c r="B9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="39">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39">
         <f t="shared" ref="E9" si="0">E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39">
         <f t="shared" ref="G9" si="1">G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41">
+      <c r="H9" s="39"/>
+      <c r="I9" s="39">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="41"/>
+      <c r="J9" s="39"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -4985,26 +5171,26 @@
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="39">
         <f>C8-C7</f>
         <v>0</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41">
+      <c r="D10" s="39"/>
+      <c r="E10" s="39">
         <f t="shared" ref="E10" si="2">E8-E7</f>
         <v>0</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41">
+      <c r="F10" s="39"/>
+      <c r="G10" s="39">
         <f t="shared" ref="G10" si="3">G8-G7</f>
         <v>0</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41">
+      <c r="H10" s="39"/>
+      <c r="I10" s="39">
         <f>I8-I7</f>
         <v>0</v>
       </c>
-      <c r="J10" s="41"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="7">
         <f>K7-K8</f>
         <v>0</v>
@@ -5061,16 +5247,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
@@ -5085,12 +5267,16 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C10 E10 G10 I10 K10:L10">
@@ -5107,7 +5293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD05D24-AA82-4C1F-B69C-8DBF4B15B831}">
   <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -7300,23 +7486,23 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="43" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="43" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="45" t="s">
+      <c r="H6" s="41"/>
+      <c r="I6" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="46"/>
+      <c r="J6" s="43"/>
       <c r="K6" s="25" t="s">
         <v>102</v>
       </c>
@@ -7346,22 +7532,22 @@
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="41">
-        <v>0</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="39">
-        <v>0</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="39">
-        <v>0</v>
-      </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41">
-        <v>0</v>
-      </c>
-      <c r="J7" s="41"/>
+      <c r="C7" s="39">
+        <v>0</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="44">
+        <v>0</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="44">
+        <v>0</v>
+      </c>
+      <c r="H7" s="45"/>
+      <c r="I7" s="39">
+        <v>0</v>
+      </c>
+      <c r="J7" s="39"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -7388,22 +7574,22 @@
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="41">
-        <v>0</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="39">
-        <v>0</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="39">
-        <v>0</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41">
-        <v>0</v>
-      </c>
-      <c r="J8" s="41"/>
+      <c r="C8" s="39">
+        <v>0</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="44">
+        <v>0</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="44">
+        <v>0</v>
+      </c>
+      <c r="H8" s="45"/>
+      <c r="I8" s="39">
+        <v>0</v>
+      </c>
+      <c r="J8" s="39"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -7430,26 +7616,26 @@
       <c r="B9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="39">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39">
         <f t="shared" ref="E9" si="0">E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39">
         <f t="shared" ref="G9" si="1">G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41">
+      <c r="H9" s="39"/>
+      <c r="I9" s="39">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="41"/>
+      <c r="J9" s="39"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -7478,26 +7664,26 @@
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="39">
         <f>C8-C7</f>
         <v>0</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41">
+      <c r="D10" s="39"/>
+      <c r="E10" s="39">
         <f t="shared" ref="E10" si="2">E8-E7</f>
         <v>0</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41">
+      <c r="F10" s="39"/>
+      <c r="G10" s="39">
         <f t="shared" ref="G10" si="3">G8-G7</f>
         <v>0</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41">
+      <c r="H10" s="39"/>
+      <c r="I10" s="39">
         <f>I8-I7</f>
         <v>0</v>
       </c>
-      <c r="J10" s="41"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="7">
         <f>K7-K8</f>
         <v>0</v>
@@ -7553,20 +7739,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="C10:D10"/>
@@ -7583,6 +7755,20 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C10 E10 G10 I10 K10:L10">

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\github\sharebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F11B5A1-CFA7-4A17-8888-0FDEAFB81014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBA0353-9B09-457D-913D-1AEBFC0946A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
   </bookViews>
@@ -955,7 +955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1073,7 +1073,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1088,13 +1097,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1582,7 +1585,7 @@
   <dimension ref="A1:AF73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2:U2"/>
@@ -1854,7 +1857,7 @@
       </c>
       <c r="U6" s="7">
         <f>I10+N10+O10</f>
-        <v>2218575</v>
+        <v>2224575</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>32</v>
@@ -1963,7 +1966,7 @@
       </c>
       <c r="G8" s="7">
         <f>SUMIF($L$16:$L$57,G$6,$J$16:$J$57)</f>
-        <v>741504</v>
+        <v>747504</v>
       </c>
       <c r="H8" s="7">
         <f>SUMIF($L$16:$L$57,H$6,$J$16:$J$57)</f>
@@ -2045,7 +2048,7 @@
       </c>
       <c r="G9" s="27">
         <f t="shared" si="0"/>
-        <v>-341504</v>
+        <v>-347504</v>
       </c>
       <c r="H9" s="7">
         <f>H8</f>
@@ -2097,7 +2100,7 @@
       </c>
       <c r="U9" s="7">
         <f>U5-(U6+U7+U8)</f>
-        <v>610972</v>
+        <v>604972</v>
       </c>
       <c r="V9" s="13" t="s">
         <v>30</v>
@@ -2127,7 +2130,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="18">
         <f>SUM(E8:I8)</f>
-        <v>1420354</v>
+        <v>1426354</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -2156,7 +2159,7 @@
       </c>
       <c r="U10" s="23">
         <f>U6/U5</f>
-        <v>0.53724415777323764</v>
+        <v>0.53869710164335216</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>31</v>
@@ -3020,7 +3023,7 @@
       <c r="L28" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="M28" s="17"/>
+      <c r="M28" s="47"/>
       <c r="N28" s="17"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
@@ -4020,7 +4023,7 @@
         <v>45312</v>
       </c>
       <c r="J51" s="15">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="K51" s="16" t="s">
         <v>132</v>
@@ -4849,7 +4852,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5008,23 +5011,23 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="42" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="40" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42" t="s">
+      <c r="H6" s="44"/>
+      <c r="I6" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="43"/>
+      <c r="J6" s="46"/>
       <c r="K6" s="25" t="s">
         <v>102</v>
       </c>
@@ -5051,22 +5054,20 @@
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41">
         <v>39000000</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="44">
-        <v>0</v>
-      </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="44">
+      <c r="F7" s="41"/>
+      <c r="G7" s="39">
         <v>6900000</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="39">
+      <c r="H7" s="40"/>
+      <c r="I7" s="41">
         <v>1000000</v>
       </c>
-      <c r="J7" s="39"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -5089,22 +5090,20 @@
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41">
         <v>39000000</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="44">
-        <v>0</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="44">
+      <c r="F8" s="41"/>
+      <c r="G8" s="39">
         <v>6900000</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="39">
+      <c r="H8" s="40"/>
+      <c r="I8" s="41">
         <v>1000000</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -5127,26 +5126,26 @@
       <c r="B9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="41">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41">
         <f t="shared" ref="E9" si="0">E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39">
+      <c r="F9" s="41"/>
+      <c r="G9" s="41">
         <f t="shared" ref="G9" si="1">G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39">
+      <c r="H9" s="41"/>
+      <c r="I9" s="41">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="39"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -5171,26 +5170,26 @@
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="41">
         <f>C8-C7</f>
         <v>0</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41">
         <f t="shared" ref="E10" si="2">E8-E7</f>
         <v>0</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39">
+      <c r="F10" s="41"/>
+      <c r="G10" s="41">
         <f t="shared" ref="G10" si="3">G8-G7</f>
         <v>0</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39">
+      <c r="H10" s="41"/>
+      <c r="I10" s="41">
         <f>I8-I7</f>
         <v>0</v>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="7">
         <f>K7-K8</f>
         <v>0</v>
@@ -5247,12 +5246,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
@@ -5267,16 +5270,12 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C10 E10 G10 I10 K10:L10">
@@ -5297,7 +5296,7 @@
       <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:U2"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5563,7 +5562,7 @@
       </c>
       <c r="U6" s="7">
         <f>I10+N10+O10</f>
-        <v>1314591</v>
+        <v>1193570</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>32</v>
@@ -5801,7 +5800,7 @@
       </c>
       <c r="U9" s="7">
         <f>U5-(U6+U7+U8)</f>
-        <v>-3414591</v>
+        <v>-3293570</v>
       </c>
       <c r="V9" s="13" t="s">
         <v>30</v>
@@ -5838,8 +5837,8 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18">
-        <f>SUM(L6:N8)</f>
-        <v>959242</v>
+        <f>SUM(J8:N8)</f>
+        <v>838221</v>
       </c>
       <c r="O10" s="18">
         <f>O8</f>
@@ -7302,7 +7301,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:J7"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7486,23 +7485,23 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="42" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="40" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42" t="s">
+      <c r="H6" s="44"/>
+      <c r="I6" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="43"/>
+      <c r="J6" s="46"/>
       <c r="K6" s="25" t="s">
         <v>102</v>
       </c>
@@ -7532,22 +7531,22 @@
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="39">
-        <v>0</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="44">
-        <v>0</v>
-      </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="44">
-        <v>0</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="39">
-        <v>0</v>
-      </c>
-      <c r="J7" s="39"/>
+      <c r="C7" s="41">
+        <v>0</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="39">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39">
+        <v>0</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41">
+        <v>0</v>
+      </c>
+      <c r="J7" s="41"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -7574,22 +7573,22 @@
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="39">
-        <v>0</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="44">
-        <v>0</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="44">
-        <v>0</v>
-      </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="39">
-        <v>0</v>
-      </c>
-      <c r="J8" s="39"/>
+      <c r="C8" s="41">
+        <v>0</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="39">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="39">
+        <v>0</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41">
+        <v>0</v>
+      </c>
+      <c r="J8" s="41"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -7616,26 +7615,26 @@
       <c r="B9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="41">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41">
         <f t="shared" ref="E9" si="0">E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39">
+      <c r="F9" s="41"/>
+      <c r="G9" s="41">
         <f t="shared" ref="G9" si="1">G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39">
+      <c r="H9" s="41"/>
+      <c r="I9" s="41">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="39"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -7664,26 +7663,26 @@
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="41">
         <f>C8-C7</f>
         <v>0</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41">
         <f t="shared" ref="E10" si="2">E8-E7</f>
         <v>0</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39">
+      <c r="F10" s="41"/>
+      <c r="G10" s="41">
         <f t="shared" ref="G10" si="3">G8-G7</f>
         <v>0</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39">
+      <c r="H10" s="41"/>
+      <c r="I10" s="41">
         <f>I8-I7</f>
         <v>0</v>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="7">
         <f>K7-K8</f>
         <v>0</v>
@@ -7739,6 +7738,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="C10:D10"/>
@@ -7755,20 +7768,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C10 E10 G10 I10 K10:L10">

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\github\sharebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBA0353-9B09-457D-913D-1AEBFC0946A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606C36A9-ABBF-4675-B8A8-E6E01262E979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="143">
   <si>
     <t>계획</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -324,23 +324,207 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>저녁(치킨)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드결제료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>생활비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>다이소 및 마트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액조정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의류구입비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC마트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올리브영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이마트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년 1월 송민영의 자본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채권</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년 2월 송민영의 자본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기예금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청약통장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년 2월 송민영의 가계부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>역귀성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해든마트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>저녁(치킨)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>생활비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>택시비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>점심</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>저녁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해든마트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>식비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>카드결제료</t>
+    <t>수영</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -348,19 +532,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>다이소 및 마트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>점심</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>점심(데이트)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뽀미약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁(데이트)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년 1월 송민영의 가계부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해든마트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>식비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>금액조정</t>
+    <t>점심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈플러스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해든마트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수영비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강검진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시가스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -368,207 +600,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>마트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생활비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스타501</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>의류구입비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABC마트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>올리브영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교통비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생활비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이마트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리은행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나은행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024년 1월 송민영의 자본</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채권</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수익</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수익률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024년 2월 송민영의 자본</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정기예금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>청약통장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국민은행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024년 2월 송민영의 가계부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>식비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생활비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>역귀성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해든마트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁(치킨)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생활비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>택시비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해든마트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>식비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생활비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심(데이트)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뽀미약</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁(데이트)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024년 1월 송민영의 가계부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해든마트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생활비</t>
+    <t>가용자산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활비(식비)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1043,6 +1079,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,16 +1112,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,7 +1127,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,19 +1142,7 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1157,18 +1181,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1582,13 +1594,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C54BB4D-E324-4A99-BBF5-A16B01E6D104}">
-  <dimension ref="A1:AF73"/>
+  <dimension ref="A1:AG88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="15" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:U2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1596,20 +1608,20 @@
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.8984375" customWidth="1"/>
     <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.8984375" customWidth="1"/>
-    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.8984375" customWidth="1"/>
-    <col min="11" max="11" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.8984375" customWidth="1"/>
-    <col min="14" max="14" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.8984375" customWidth="1"/>
-    <col min="18" max="18" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.8984375" customWidth="1"/>
+    <col min="12" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.8984375" customWidth="1"/>
+    <col min="15" max="15" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.8984375" customWidth="1"/>
+    <col min="19" max="19" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1642,32 +1654,33 @@
       <c r="AD1" s="10"/>
       <c r="AE1" s="10"/>
       <c r="AF1" s="10"/>
-    </row>
-    <row r="2" spans="1:32" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AG1" s="10"/>
+    </row>
+    <row r="2" spans="1:33" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="B2" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="32"/>
-      <c r="V2" s="10"/>
+      <c r="V2" s="33"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
@@ -1678,8 +1691,9 @@
       <c r="AD2" s="10"/>
       <c r="AE2" s="10"/>
       <c r="AF2" s="10"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG2" s="10"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1712,34 +1726,35 @@
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
-    </row>
-    <row r="4" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="AG3" s="10"/>
+    </row>
+    <row r="4" spans="1:33" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="33" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="33"/>
-      <c r="V4" s="11"/>
+      <c r="V4" s="34"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
@@ -1750,49 +1765,50 @@
       <c r="AD4" s="11"/>
       <c r="AE4" s="11"/>
       <c r="AF4" s="11"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG4" s="11"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="36" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="34" t="s">
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="Q5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="34" t="s">
+      <c r="R5" s="38"/>
+      <c r="S5" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="10"/>
+      <c r="U5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="7">
+      <c r="V5" s="7">
         <f>D10</f>
-        <v>4129547</v>
-      </c>
-      <c r="V5" s="10"/>
+        <v>4163947</v>
+      </c>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
@@ -1803,10 +1819,11 @@
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG5" s="10"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
@@ -1820,49 +1837,51 @@
         <v>40</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="M6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="N6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="O6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="36"/>
+      <c r="Q6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="R6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="35"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="8" t="s">
+      <c r="S6" s="36"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="7">
-        <f>I10+N10+O10</f>
-        <v>2224575</v>
-      </c>
-      <c r="V6" s="10" t="s">
+      <c r="V6" s="7">
+        <f>J10+O10+P10</f>
+        <v>2312145</v>
+      </c>
+      <c r="W6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="W6" s="10"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
@@ -1872,8 +1891,9 @@
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG6" s="10"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>0</v>
@@ -1893,48 +1913,50 @@
       <c r="G7" s="6">
         <v>400000</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="6">
+        <v>400000</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>100000</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>200000</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <f>34100+24500</f>
         <v>58600</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>135931</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>300000</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <f>35000+8690</f>
         <v>43690</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <v>50000</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <v>1000000</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <v>100000</v>
       </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="8" t="s">
+      <c r="S7" s="6"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="7">
-        <f>Q10</f>
+      <c r="V7" s="7">
+        <f>R10</f>
         <v>1100000</v>
       </c>
-      <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
@@ -1945,14 +1967,16 @@
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG7" s="10"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>4129547</v>
+        <f>4129547+34400</f>
+        <v>4163947</v>
       </c>
       <c r="D8" s="7">
         <v>0</v>
@@ -1961,59 +1985,62 @@
         <v>468220</v>
       </c>
       <c r="F8" s="7">
-        <f>+SUMIF($L$16:$L$57,F$6,$J$16:$J$57)</f>
+        <f>+SUMIF($M$16:$M$72,F$6,$K$16:$K$72)</f>
         <v>98430</v>
       </c>
       <c r="G8" s="7">
-        <f>SUMIF($L$16:$L$57,G$6,$J$16:$J$57)</f>
-        <v>747504</v>
+        <f>SUMIF($M$16:$M$72,G$6,$K$16:$K$72)</f>
+        <v>383275</v>
       </c>
       <c r="H8" s="7">
-        <f>SUMIF($L$16:$L$57,H$6,$J$16:$J$57)</f>
+        <f>SUMIF($M$16:$M$72,H$6,$K$16:$K$72)</f>
+        <v>451799</v>
+      </c>
+      <c r="I8" s="7">
+        <f>SUMIF($M$16:$M$72,I$6,$K$16:$K$72)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="7">
-        <f>SUMIF($L$16:$L$57,I$6,$J$16:$J$57)</f>
+      <c r="J8" s="7">
+        <f>SUMIF($M$16:$M$72,J$6,$K$16:$K$72)</f>
         <v>112200</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <v>200000</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <f>34100+24500</f>
         <v>58600</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <v>135931</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <v>300000</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8" s="6">
         <f>35000+8690</f>
         <v>43690</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P8" s="7">
         <v>60000</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q8" s="7">
         <v>1000000</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="R8" s="7">
         <v>100000</v>
       </c>
-      <c r="R8" s="7">
-        <f>SUMIF($E$16:$E$57,R$5,$C$16:$C$57)+SUMIF($L$16:$L$57,R$5,$J$16:$J$57)</f>
+      <c r="S8" s="7">
+        <f>SUMIF($E$16:$E$72,S$5,$C$16:$C$72)+SUMIF($M$16:$M$72,S$5,$K$16:$K$72)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="8" t="s">
+      <c r="T8" s="10"/>
+      <c r="U8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="7">
+      <c r="V8" s="7">
         <v>200000</v>
       </c>
-      <c r="V8" s="10"/>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
@@ -2024,18 +2051,19 @@
       <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG8" s="10"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="7">
         <f>C8-C7</f>
-        <v>129547</v>
+        <v>163947</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" ref="D9:R9" si="0">D7-D8</f>
+        <f t="shared" ref="D9:S9" si="0">D7-D8</f>
         <v>0</v>
       </c>
       <c r="E9" s="7">
@@ -2048,19 +2076,19 @@
       </c>
       <c r="G9" s="27">
         <f t="shared" si="0"/>
-        <v>-347504</v>
-      </c>
-      <c r="H9" s="7">
-        <f>H8</f>
+        <v>16725</v>
+      </c>
+      <c r="H9" s="27">
+        <f t="shared" ref="H9" si="1">H7-H8</f>
+        <v>-51799</v>
+      </c>
+      <c r="I9" s="7">
+        <f>I8</f>
         <v>0</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <f t="shared" si="0"/>
         <v>-12200</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="0"/>
@@ -2080,11 +2108,11 @@
       </c>
       <c r="O9" s="7">
         <f t="shared" si="0"/>
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="7">
         <f t="shared" si="0"/>
@@ -2094,18 +2122,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="10"/>
-      <c r="T9" s="8" t="s">
+      <c r="S9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="7">
-        <f>U5-(U6+U7+U8)</f>
-        <v>604972</v>
-      </c>
-      <c r="V9" s="13" t="s">
+      <c r="V9" s="7">
+        <f>V5-(V6+V7+V8)</f>
+        <v>551802</v>
+      </c>
+      <c r="W9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="W9" s="10"/>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
@@ -2115,56 +2146,57 @@
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG9" s="10"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18">
         <f>C8+D8</f>
-        <v>4129547</v>
+        <v>4163947</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="18">
-        <f>SUM(E8:I8)</f>
-        <v>1426354</v>
-      </c>
-      <c r="J10" s="17"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="18">
+        <f>SUM(E8:J8)</f>
+        <v>1513924</v>
+      </c>
       <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="18">
-        <f>SUM(J8:N8)</f>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18">
+        <f>SUM(K8:O8)</f>
         <v>738221</v>
       </c>
-      <c r="O10" s="18">
-        <f>O8</f>
+      <c r="P10" s="18">
+        <f>P8</f>
         <v>60000</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="18">
-        <f>P8+Q8</f>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="18">
+        <f>Q8+R8</f>
         <v>1100000</v>
       </c>
-      <c r="R10" s="12">
-        <f>R8</f>
+      <c r="S10" s="12">
+        <f>S8</f>
         <v>0</v>
       </c>
-      <c r="S10" s="10"/>
-      <c r="T10" s="8" t="s">
+      <c r="T10" s="10"/>
+      <c r="U10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="U10" s="23">
-        <f>U6/U5</f>
-        <v>0.53869710164335216</v>
-      </c>
-      <c r="V10" s="10" t="s">
+      <c r="V10" s="23">
+        <f>V6/V5</f>
+        <v>0.55527724056045857</v>
+      </c>
+      <c r="W10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="10"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
@@ -2174,8 +2206,9 @@
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG10" s="10"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="17"/>
@@ -2184,28 +2217,28 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="17"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="21" t="s">
+      <c r="P11" s="18"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="23">
-        <f>U7/U5</f>
-        <v>0.26637304285433727</v>
-      </c>
-      <c r="V11" s="10" t="s">
+      <c r="V11" s="23">
+        <f>V7/V5</f>
+        <v>0.2641724306289201</v>
+      </c>
+      <c r="W11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
@@ -2215,32 +2248,33 @@
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG11" s="10"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="B12" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="7">
-        <f>SUM(C16:C57)</f>
-        <v>255349</v>
+        <f>SUM(C16:C72)</f>
+        <v>314689</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
+      <c r="L12" s="17"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="10"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="12"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
@@ -2254,8 +2288,9 @@
       <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
-    </row>
-    <row r="13" spans="1:32" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="AG12" s="10"/>
+    </row>
+    <row r="13" spans="1:33" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2275,17 +2310,17 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
-      <c r="T13" s="8" t="s">
+      <c r="T13" s="10"/>
+      <c r="U13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="U13" s="19">
+      <c r="V13" s="19">
         <v>0.5</v>
       </c>
-      <c r="V13" s="7">
-        <f>U5*U13</f>
-        <v>2064773.5</v>
-      </c>
-      <c r="W13" s="10"/>
+      <c r="W13" s="7">
+        <f>V5*V13</f>
+        <v>2081973.5</v>
+      </c>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
@@ -2295,44 +2330,45 @@
       <c r="AD13" s="10"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
-    </row>
-    <row r="14" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="AG13" s="10"/>
+    </row>
+    <row r="14" spans="1:33" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="17"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="29" t="s">
+      <c r="H14" s="17"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="11"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
-      <c r="T14" s="8" t="s">
+      <c r="T14" s="11"/>
+      <c r="U14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="19">
+      <c r="V14" s="19">
         <v>0.5</v>
       </c>
-      <c r="V14" s="7">
-        <f>U5*U14</f>
-        <v>2064773.5</v>
-      </c>
-      <c r="W14" s="11"/>
+      <c r="W14" s="7">
+        <f>V5*V14</f>
+        <v>2081973.5</v>
+      </c>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
@@ -2342,8 +2378,9 @@
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG14" s="11"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
         <v>16</v>
@@ -2359,20 +2396,20 @@
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="8" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="K15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -2392,8 +2429,9 @@
       <c r="AD15" s="10"/>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG15" s="10"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="26">
         <v>45293</v>
@@ -2409,22 +2447,22 @@
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="26">
+      <c r="H16" s="22"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="26">
         <v>45292</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>22500</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="22"/>
       <c r="N16" s="22"/>
-      <c r="O16" s="10"/>
+      <c r="O16" s="22"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -2442,8 +2480,9 @@
       <c r="AD16" s="10"/>
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG16" s="10"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="26">
         <v>45294</v>
@@ -2459,22 +2498,22 @@
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="26">
+      <c r="H17" s="17"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="26">
         <v>45292</v>
       </c>
-      <c r="J17" s="15">
+      <c r="K17" s="15">
         <v>1500</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="L17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" s="17"/>
+      <c r="M17" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="10"/>
+      <c r="O17" s="17"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
@@ -2492,8 +2531,9 @@
       <c r="AD17" s="10"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG17" s="10"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" s="26">
         <v>45295</v>
@@ -2509,22 +2549,22 @@
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="26">
+      <c r="H18" s="17"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="26">
         <v>45293</v>
       </c>
-      <c r="J18" s="15">
+      <c r="K18" s="15">
         <v>10580</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="L18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" s="17"/>
+      <c r="M18" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="10"/>
+      <c r="O18" s="17"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -2542,8 +2582,9 @@
       <c r="AD18" s="10"/>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG18" s="10"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="26">
         <v>45295</v>
@@ -2559,22 +2600,22 @@
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="26">
+      <c r="H19" s="17"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="26">
         <v>45294</v>
       </c>
-      <c r="J19" s="15">
+      <c r="K19" s="15">
         <v>4500</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="L19" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="17"/>
+      <c r="M19" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N19" s="17"/>
-      <c r="O19" s="10"/>
+      <c r="O19" s="17"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
@@ -2592,8 +2633,9 @@
       <c r="AD19" s="10"/>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG19" s="10"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="26">
         <v>45295</v>
@@ -2609,22 +2651,22 @@
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="26">
+      <c r="H20" s="17"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="26">
         <v>45295</v>
       </c>
-      <c r="J20" s="15">
+      <c r="K20" s="15">
         <v>6990</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="L20" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="M20" s="17"/>
+      <c r="M20" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N20" s="17"/>
-      <c r="O20" s="10"/>
+      <c r="O20" s="17"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
@@ -2642,8 +2684,9 @@
       <c r="AD20" s="10"/>
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG20" s="10"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
       <c r="B21" s="26">
         <v>45295</v>
@@ -2659,22 +2702,22 @@
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="26">
+      <c r="H21" s="17"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="26">
         <v>45296</v>
       </c>
-      <c r="J21" s="15">
+      <c r="K21" s="15">
         <v>30919</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="L21" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="M21" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="17"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="10"/>
+      <c r="O21" s="17"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
@@ -2692,8 +2735,9 @@
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG21" s="10"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="26">
         <v>45295</v>
@@ -2709,22 +2753,22 @@
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="26">
+      <c r="H22" s="17"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="26">
         <v>45296</v>
       </c>
-      <c r="J22" s="15">
+      <c r="K22" s="15">
         <v>82320</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="L22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="M22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="17"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="10"/>
+      <c r="O22" s="17"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -2742,8 +2786,9 @@
       <c r="AD22" s="10"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG22" s="10"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="26">
         <v>45296</v>
@@ -2759,22 +2804,22 @@
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="26">
+      <c r="H23" s="17"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="26">
         <v>45298</v>
       </c>
-      <c r="J23" s="15">
+      <c r="K23" s="15">
         <v>4000</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="L23" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="M23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="10"/>
+      <c r="O23" s="17"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
@@ -2792,8 +2837,9 @@
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG23" s="10"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="B24" s="26">
         <v>45297</v>
@@ -2809,22 +2855,22 @@
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="26">
+      <c r="H24" s="17"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="26">
         <v>45298</v>
       </c>
-      <c r="J24" s="15">
+      <c r="K24" s="15">
         <v>10000</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="L24" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="M24" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="M24" s="17"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="10"/>
+      <c r="O24" s="17"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -2842,8 +2888,9 @@
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG24" s="10"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="26">
         <v>45299</v>
@@ -2859,22 +2906,22 @@
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="26">
+      <c r="H25" s="17"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="26">
         <v>45298</v>
       </c>
-      <c r="J25" s="15">
+      <c r="K25" s="15">
         <v>39535</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="L25" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="M25" s="17"/>
+      <c r="M25" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N25" s="17"/>
-      <c r="O25" s="10"/>
+      <c r="O25" s="17"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
@@ -2892,8 +2939,9 @@
       <c r="AD25" s="10"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG25" s="10"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="26">
         <v>45300</v>
@@ -2902,29 +2950,29 @@
         <v>4500</v>
       </c>
       <c r="D26" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="26">
+      <c r="H26" s="17"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="26">
         <v>45299</v>
       </c>
-      <c r="J26" s="15">
+      <c r="K26" s="15">
         <v>3150</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="L26" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="L26" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="M26" s="17"/>
+      <c r="M26" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N26" s="17"/>
-      <c r="O26" s="10"/>
+      <c r="O26" s="17"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
@@ -2942,8 +2990,9 @@
       <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG26" s="10"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
       <c r="B27" s="26">
         <v>45301</v>
@@ -2952,30 +3001,30 @@
         <v>4500</v>
       </c>
       <c r="D27" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="26">
+      <c r="H27" s="17"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="26">
         <v>45300</v>
       </c>
-      <c r="J27" s="15">
+      <c r="K27" s="15">
         <f>7700+13200+20500</f>
         <v>41400</v>
       </c>
-      <c r="K27" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="M27" s="17"/>
+      <c r="M27" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N27" s="17"/>
-      <c r="O27" s="10"/>
+      <c r="O27" s="17"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
@@ -2993,8 +3042,9 @@
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG27" s="10"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
       <c r="B28" s="26">
         <v>45302</v>
@@ -3003,29 +3053,29 @@
         <v>4500</v>
       </c>
       <c r="D28" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="26">
+      <c r="H28" s="17"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="26">
         <v>45302</v>
       </c>
-      <c r="J28" s="15">
+      <c r="K28" s="15">
         <v>5400</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="L28" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="L28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M28" s="47"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="10"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="17"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -3043,8 +3093,9 @@
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG28" s="10"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
       <c r="B29" s="26">
         <v>45303</v>
@@ -3053,29 +3104,29 @@
         <v>4500</v>
       </c>
       <c r="D29" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="26">
+      <c r="H29" s="17"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="26">
         <v>45302</v>
       </c>
-      <c r="J29" s="15">
+      <c r="K29" s="15">
         <v>11500</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="M29" s="17"/>
+      <c r="M29" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N29" s="17"/>
-      <c r="O29" s="10"/>
+      <c r="O29" s="17"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
@@ -3093,8 +3144,9 @@
       <c r="AD29" s="10"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG29" s="10"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
       <c r="B30" s="26">
         <v>45303</v>
@@ -3103,29 +3155,29 @@
         <v>8910</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="26">
+      <c r="H30" s="17"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="26">
         <v>45303</v>
       </c>
-      <c r="J30" s="15">
+      <c r="K30" s="15">
         <v>2980</v>
       </c>
-      <c r="K30" s="16" t="s">
-        <v>83</v>
-      </c>
       <c r="L30" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="M30" s="17"/>
+        <v>82</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N30" s="17"/>
-      <c r="O30" s="10"/>
+      <c r="O30" s="17"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
@@ -3143,8 +3195,9 @@
       <c r="AD30" s="10"/>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG30" s="10"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="26">
         <v>45304</v>
@@ -3153,29 +3206,29 @@
         <v>50000</v>
       </c>
       <c r="D31" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>90</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="26">
+      <c r="H31" s="17"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="26">
         <v>45303</v>
       </c>
-      <c r="J31" s="15">
+      <c r="K31" s="15">
         <v>50100</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="L31" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L31" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M31" s="17"/>
       <c r="N31" s="17"/>
-      <c r="O31" s="10"/>
+      <c r="O31" s="17"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
@@ -3193,8 +3246,9 @@
       <c r="AD31" s="10"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG31" s="10"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
       <c r="B32" s="26">
         <v>45306</v>
@@ -3203,29 +3257,29 @@
         <v>4500</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="26">
+      <c r="H32" s="17"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="26">
         <v>45303</v>
       </c>
-      <c r="J32" s="15">
+      <c r="K32" s="15">
         <v>62100</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>87</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="M32" s="17"/>
+      <c r="M32" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="N32" s="17"/>
-      <c r="O32" s="10"/>
+      <c r="O32" s="17"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
@@ -3243,8 +3297,9 @@
       <c r="AD32" s="10"/>
       <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG32" s="10"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
       <c r="B33" s="26">
         <v>45307</v>
@@ -3253,29 +3308,29 @@
         <v>4500</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="26">
+      <c r="H33" s="17"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="26">
         <v>45303</v>
       </c>
-      <c r="J33" s="15">
+      <c r="K33" s="15">
         <v>35560</v>
       </c>
-      <c r="K33" s="16" t="s">
-        <v>88</v>
-      </c>
       <c r="L33" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="M33" s="17"/>
+        <v>87</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="N33" s="17"/>
-      <c r="O33" s="10"/>
+      <c r="O33" s="17"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
@@ -3293,31 +3348,40 @@
       <c r="AD33" s="10"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG33" s="10"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="B34" s="26">
+        <v>45314</v>
+      </c>
+      <c r="C34" s="15">
+        <v>2500</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="26">
+      <c r="H34" s="17"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="26">
         <v>45304</v>
       </c>
-      <c r="J34" s="15">
+      <c r="K34" s="15">
         <v>36000</v>
       </c>
-      <c r="K34" s="16" t="s">
-        <v>91</v>
-      </c>
       <c r="L34" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="M34" s="17"/>
+        <v>90</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N34" s="17"/>
-      <c r="O34" s="10"/>
+      <c r="O34" s="17"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
@@ -3335,31 +3399,40 @@
       <c r="AD34" s="10"/>
       <c r="AE34" s="10"/>
       <c r="AF34" s="10"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG34" s="10"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+      <c r="B35" s="26">
+        <v>45315</v>
+      </c>
+      <c r="C35" s="15">
+        <v>36860</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="26">
+      <c r="H35" s="17"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="26">
         <v>45304</v>
       </c>
-      <c r="J35" s="15">
+      <c r="K35" s="15">
         <v>50000</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>93</v>
       </c>
       <c r="L35" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="M35" s="17"/>
+      <c r="M35" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N35" s="17"/>
-      <c r="O35" s="10"/>
+      <c r="O35" s="17"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
@@ -3377,31 +3450,40 @@
       <c r="AD35" s="10"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG35" s="10"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="B36" s="26">
+        <v>45315</v>
+      </c>
+      <c r="C36" s="15">
+        <v>10980</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="26">
+      <c r="H36" s="17"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="26">
         <v>45305</v>
       </c>
-      <c r="J36" s="15">
+      <c r="K36" s="15">
         <v>6600</v>
       </c>
-      <c r="K36" s="16" t="s">
-        <v>91</v>
-      </c>
       <c r="L36" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="M36" s="17"/>
+        <v>90</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N36" s="17"/>
-      <c r="O36" s="10"/>
+      <c r="O36" s="17"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
@@ -3419,31 +3501,40 @@
       <c r="AD36" s="10"/>
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG36" s="10"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
+      <c r="B37" s="26">
+        <v>45316</v>
+      </c>
+      <c r="C37" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="26">
+      <c r="H37" s="17"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="26">
         <v>45305</v>
       </c>
-      <c r="J37" s="15">
+      <c r="K37" s="15">
         <v>33000</v>
       </c>
-      <c r="K37" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="L37" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="M37" s="17"/>
+        <v>93</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="N37" s="17"/>
-      <c r="O37" s="10"/>
+      <c r="O37" s="17"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
@@ -3461,31 +3552,40 @@
       <c r="AD37" s="10"/>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG37" s="10"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
+      <c r="B38" s="26">
+        <v>45317</v>
+      </c>
+      <c r="C38" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="26">
+      <c r="H38" s="17"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="26">
         <v>45305</v>
       </c>
-      <c r="J38" s="15">
+      <c r="K38" s="15">
         <v>82000</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="L38" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="M38" s="17"/>
+      <c r="M38" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="N38" s="17"/>
-      <c r="O38" s="10"/>
+      <c r="O38" s="17"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
@@ -3503,8 +3603,9 @@
       <c r="AD38" s="10"/>
       <c r="AE38" s="10"/>
       <c r="AF38" s="10"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG38" s="10"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
       <c r="B39" s="26"/>
       <c r="C39" s="15"/>
@@ -3512,23 +3613,23 @@
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="26">
+      <c r="H39" s="17"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="26">
         <v>45306</v>
       </c>
-      <c r="J39" s="15">
+      <c r="K39" s="15">
         <f>3800+8050</f>
         <v>11850</v>
       </c>
-      <c r="K39" s="16" t="s">
-        <v>115</v>
-      </c>
       <c r="L39" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="M39" s="17"/>
+        <v>114</v>
+      </c>
+      <c r="M39" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N39" s="17"/>
-      <c r="O39" s="10"/>
+      <c r="O39" s="17"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
@@ -3546,8 +3647,9 @@
       <c r="AD39" s="10"/>
       <c r="AE39" s="10"/>
       <c r="AF39" s="10"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG39" s="10"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
       <c r="B40" s="26"/>
       <c r="C40" s="15"/>
@@ -3555,22 +3657,22 @@
       <c r="E40" s="16"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="26">
+      <c r="H40" s="17"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="26">
         <v>45307</v>
       </c>
-      <c r="J40" s="15">
+      <c r="K40" s="15">
         <v>27700</v>
       </c>
-      <c r="K40" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="L40" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="M40" s="17"/>
+      <c r="L40" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N40" s="17"/>
-      <c r="O40" s="10"/>
+      <c r="O40" s="17"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
@@ -3588,8 +3690,9 @@
       <c r="AD40" s="10"/>
       <c r="AE40" s="10"/>
       <c r="AF40" s="10"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG40" s="10"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
       <c r="B41" s="26"/>
       <c r="C41" s="15"/>
@@ -3597,22 +3700,22 @@
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="26">
+      <c r="H41" s="17"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="26">
         <v>45308</v>
       </c>
-      <c r="J41" s="15">
+      <c r="K41" s="15">
         <v>11400</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="L41" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="M41" s="17"/>
+      <c r="M41" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="N41" s="17"/>
-      <c r="O41" s="10"/>
+      <c r="O41" s="17"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
@@ -3630,8 +3733,9 @@
       <c r="AD41" s="10"/>
       <c r="AE41" s="10"/>
       <c r="AF41" s="10"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG41" s="10"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
       <c r="B42" s="26"/>
       <c r="C42" s="15"/>
@@ -3639,22 +3743,22 @@
       <c r="E42" s="16"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="26">
+      <c r="H42" s="17"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="26">
         <v>45309</v>
       </c>
-      <c r="J42" s="15">
+      <c r="K42" s="15">
         <v>7300</v>
       </c>
-      <c r="K42" s="16" t="s">
-        <v>119</v>
-      </c>
       <c r="L42" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="M42" s="17"/>
+        <v>118</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N42" s="17"/>
-      <c r="O42" s="10"/>
+      <c r="O42" s="17"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
@@ -3672,8 +3776,9 @@
       <c r="AD42" s="10"/>
       <c r="AE42" s="10"/>
       <c r="AF42" s="10"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG42" s="10"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
       <c r="B43" s="26"/>
       <c r="C43" s="15"/>
@@ -3681,22 +3786,22 @@
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="26">
+      <c r="H43" s="17"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="26">
         <v>45309</v>
       </c>
-      <c r="J43" s="15">
+      <c r="K43" s="15">
         <v>5990</v>
       </c>
-      <c r="K43" s="16" t="s">
-        <v>120</v>
-      </c>
       <c r="L43" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="M43" s="17"/>
+        <v>119</v>
+      </c>
+      <c r="M43" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N43" s="17"/>
-      <c r="O43" s="10"/>
+      <c r="O43" s="17"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
@@ -3714,8 +3819,9 @@
       <c r="AD43" s="10"/>
       <c r="AE43" s="10"/>
       <c r="AF43" s="10"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG43" s="10"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
       <c r="B44" s="26"/>
       <c r="C44" s="15"/>
@@ -3723,22 +3829,22 @@
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="26">
+      <c r="H44" s="17"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="26">
         <v>45309</v>
       </c>
-      <c r="J44" s="15">
+      <c r="K44" s="15">
         <v>8450</v>
       </c>
-      <c r="K44" s="16" t="s">
-        <v>121</v>
-      </c>
       <c r="L44" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="M44" s="17"/>
+        <v>120</v>
+      </c>
+      <c r="M44" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N44" s="17"/>
-      <c r="O44" s="10"/>
+      <c r="O44" s="17"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
@@ -3756,8 +3862,9 @@
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
       <c r="AF44" s="10"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG44" s="10"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="B45" s="26"/>
       <c r="C45" s="15"/>
@@ -3765,22 +3872,22 @@
       <c r="E45" s="16"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="26">
+      <c r="H45" s="17"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="26">
         <v>45310</v>
       </c>
-      <c r="J45" s="15">
+      <c r="K45" s="15">
         <v>26600</v>
       </c>
-      <c r="K45" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="L45" s="16" t="s">
+      <c r="L45" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="M45" s="17"/>
+      <c r="M45" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N45" s="17"/>
-      <c r="O45" s="10"/>
+      <c r="O45" s="17"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
@@ -3798,8 +3905,9 @@
       <c r="AD45" s="10"/>
       <c r="AE45" s="10"/>
       <c r="AF45" s="10"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG45" s="10"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
       <c r="B46" s="26"/>
       <c r="C46" s="15"/>
@@ -3807,23 +3915,23 @@
       <c r="E46" s="16"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="26">
+      <c r="H46" s="17"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="26">
         <v>45310</v>
       </c>
-      <c r="J46" s="15">
+      <c r="K46" s="15">
         <f>87900+12300</f>
         <v>100200</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="L46" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="M46" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="L46" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="M46" s="17"/>
       <c r="N46" s="17"/>
-      <c r="O46" s="10"/>
+      <c r="O46" s="17"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
@@ -3841,8 +3949,9 @@
       <c r="AD46" s="10"/>
       <c r="AE46" s="10"/>
       <c r="AF46" s="10"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG46" s="10"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
       <c r="B47" s="26"/>
       <c r="C47" s="15"/>
@@ -3850,22 +3959,22 @@
       <c r="E47" s="16"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="26">
+      <c r="H47" s="17"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="26">
         <v>45311</v>
       </c>
-      <c r="J47" s="15">
+      <c r="K47" s="15">
         <v>40000</v>
       </c>
-      <c r="K47" s="16" t="s">
-        <v>127</v>
-      </c>
       <c r="L47" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="M47" s="17"/>
+        <v>126</v>
+      </c>
+      <c r="M47" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="N47" s="17"/>
-      <c r="O47" s="10"/>
+      <c r="O47" s="17"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
@@ -3883,8 +3992,9 @@
       <c r="AD47" s="10"/>
       <c r="AE47" s="10"/>
       <c r="AF47" s="10"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG47" s="10"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="26"/>
       <c r="C48" s="15"/>
@@ -3892,22 +4002,22 @@
       <c r="E48" s="16"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="26">
+      <c r="H48" s="17"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="26">
         <v>45311</v>
       </c>
-      <c r="J48" s="15">
+      <c r="K48" s="15">
         <v>26000</v>
       </c>
-      <c r="K48" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="L48" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="M48" s="17"/>
+      <c r="L48" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="M48" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N48" s="17"/>
-      <c r="O48" s="10"/>
+      <c r="O48" s="17"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
@@ -3925,8 +4035,9 @@
       <c r="AD48" s="10"/>
       <c r="AE48" s="10"/>
       <c r="AF48" s="10"/>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG48" s="10"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
       <c r="B49" s="26"/>
       <c r="C49" s="15"/>
@@ -3934,22 +4045,22 @@
       <c r="E49" s="16"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="26">
+      <c r="H49" s="17"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="26">
         <v>45311</v>
       </c>
-      <c r="J49" s="15">
+      <c r="K49" s="15">
         <v>26400</v>
       </c>
-      <c r="K49" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="L49" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="M49" s="17"/>
+      <c r="L49" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="M49" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N49" s="17"/>
-      <c r="O49" s="10"/>
+      <c r="O49" s="17"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
@@ -3967,8 +4078,9 @@
       <c r="AD49" s="10"/>
       <c r="AE49" s="10"/>
       <c r="AF49" s="10"/>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG49" s="10"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="26"/>
       <c r="C50" s="15"/>
@@ -3976,22 +4088,22 @@
       <c r="E50" s="16"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="26">
+      <c r="H50" s="17"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="26">
         <v>45311</v>
       </c>
-      <c r="J50" s="15">
+      <c r="K50" s="15">
         <v>16110</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="L50" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="M50" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="L50" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="M50" s="17"/>
       <c r="N50" s="17"/>
-      <c r="O50" s="10"/>
+      <c r="O50" s="17"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
@@ -4009,8 +4121,9 @@
       <c r="AD50" s="10"/>
       <c r="AE50" s="10"/>
       <c r="AF50" s="10"/>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG50" s="10"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="26"/>
       <c r="C51" s="15"/>
@@ -4018,22 +4131,22 @@
       <c r="E51" s="16"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="26">
+      <c r="H51" s="17"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="26">
         <v>45312</v>
       </c>
-      <c r="J51" s="15">
+      <c r="K51" s="15">
         <v>17500</v>
       </c>
-      <c r="K51" s="16" t="s">
-        <v>132</v>
-      </c>
       <c r="L51" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="M51" s="17"/>
+        <v>131</v>
+      </c>
+      <c r="M51" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N51" s="17"/>
-      <c r="O51" s="10"/>
+      <c r="O51" s="17"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
@@ -4051,8 +4164,9 @@
       <c r="AD51" s="10"/>
       <c r="AE51" s="10"/>
       <c r="AF51" s="10"/>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG51" s="10"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A52" s="10"/>
       <c r="B52" s="26"/>
       <c r="C52" s="15"/>
@@ -4060,14 +4174,22 @@
       <c r="E52" s="16"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="26">
+        <v>45313</v>
+      </c>
+      <c r="K52" s="15">
+        <v>6750</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M52" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N52" s="17"/>
-      <c r="O52" s="10"/>
+      <c r="O52" s="17"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
@@ -4085,8 +4207,9 @@
       <c r="AD52" s="10"/>
       <c r="AE52" s="10"/>
       <c r="AF52" s="10"/>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG52" s="10"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
       <c r="B53" s="26"/>
       <c r="C53" s="15"/>
@@ -4094,14 +4217,22 @@
       <c r="E53" s="16"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="26">
+        <v>45315</v>
+      </c>
+      <c r="K53" s="15">
+        <v>62000</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M53" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="N53" s="17"/>
-      <c r="O53" s="10"/>
+      <c r="O53" s="17"/>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
@@ -4119,8 +4250,9 @@
       <c r="AD53" s="10"/>
       <c r="AE53" s="10"/>
       <c r="AF53" s="10"/>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG53" s="10"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A54" s="10"/>
       <c r="B54" s="26"/>
       <c r="C54" s="15"/>
@@ -4128,14 +4260,22 @@
       <c r="E54" s="16"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="26">
+        <v>45315</v>
+      </c>
+      <c r="K54" s="15">
+        <v>14820</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M54" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="N54" s="17"/>
-      <c r="O54" s="10"/>
+      <c r="O54" s="17"/>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
@@ -4153,8 +4293,9 @@
       <c r="AD54" s="10"/>
       <c r="AE54" s="10"/>
       <c r="AF54" s="10"/>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG54" s="10"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="26"/>
       <c r="C55" s="15"/>
@@ -4162,14 +4303,22 @@
       <c r="E55" s="16"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="26">
+        <v>45315</v>
+      </c>
+      <c r="K55" s="15">
+        <v>4000</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M55" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N55" s="17"/>
-      <c r="O55" s="10"/>
+      <c r="O55" s="17"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
@@ -4187,8 +4336,9 @@
       <c r="AD55" s="10"/>
       <c r="AE55" s="10"/>
       <c r="AF55" s="10"/>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG55" s="10"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="26"/>
       <c r="C56" s="15"/>
@@ -4196,14 +4346,14 @@
       <c r="E56" s="16"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="16"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="15"/>
       <c r="L56" s="16"/>
-      <c r="M56" s="17"/>
+      <c r="M56" s="16"/>
       <c r="N56" s="17"/>
-      <c r="O56" s="10"/>
+      <c r="O56" s="17"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
@@ -4221,8 +4371,9 @@
       <c r="AD56" s="10"/>
       <c r="AE56" s="10"/>
       <c r="AF56" s="10"/>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG56" s="10"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
       <c r="B57" s="26"/>
       <c r="C57" s="15"/>
@@ -4230,14 +4381,14 @@
       <c r="E57" s="16"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="16"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="15"/>
       <c r="L57" s="16"/>
-      <c r="M57" s="17"/>
+      <c r="M57" s="16"/>
       <c r="N57" s="17"/>
-      <c r="O57" s="10"/>
+      <c r="O57" s="17"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
@@ -4255,23 +4406,24 @@
       <c r="AD57" s="10"/>
       <c r="AE57" s="10"/>
       <c r="AF57" s="10"/>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG57" s="10"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
       <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
@@ -4289,23 +4441,24 @@
       <c r="AD58" s="10"/>
       <c r="AE58" s="10"/>
       <c r="AF58" s="10"/>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG58" s="10"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
       <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
@@ -4323,23 +4476,24 @@
       <c r="AD59" s="10"/>
       <c r="AE59" s="10"/>
       <c r="AF59" s="10"/>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG59" s="10"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
       <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
@@ -4357,23 +4511,24 @@
       <c r="AD60" s="10"/>
       <c r="AE60" s="10"/>
       <c r="AF60" s="10"/>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG60" s="10"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
       <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
@@ -4391,23 +4546,24 @@
       <c r="AD61" s="10"/>
       <c r="AE61" s="10"/>
       <c r="AF61" s="10"/>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG61" s="10"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
       <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
@@ -4425,23 +4581,24 @@
       <c r="AD62" s="10"/>
       <c r="AE62" s="10"/>
       <c r="AF62" s="10"/>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG62" s="10"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
       <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
@@ -4459,23 +4616,24 @@
       <c r="AD63" s="10"/>
       <c r="AE63" s="10"/>
       <c r="AF63" s="10"/>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG63" s="10"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
       <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
@@ -4493,23 +4651,24 @@
       <c r="AD64" s="10"/>
       <c r="AE64" s="10"/>
       <c r="AF64" s="10"/>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG64" s="10"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
       <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
@@ -4527,23 +4686,24 @@
       <c r="AD65" s="10"/>
       <c r="AE65" s="10"/>
       <c r="AF65" s="10"/>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG65" s="10"/>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
       <c r="R66" s="10"/>
@@ -4561,23 +4721,32 @@
       <c r="AD66" s="10"/>
       <c r="AE66" s="10"/>
       <c r="AF66" s="10"/>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG66" s="10"/>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
       <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
+      <c r="J67" s="26">
+        <v>45327</v>
+      </c>
+      <c r="K67" s="15">
+        <v>82360</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M67" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
@@ -4595,23 +4764,24 @@
       <c r="AD67" s="10"/>
       <c r="AE67" s="10"/>
       <c r="AF67" s="10"/>
-    </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG67" s="10"/>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
@@ -4629,23 +4799,24 @@
       <c r="AD68" s="10"/>
       <c r="AE68" s="10"/>
       <c r="AF68" s="10"/>
-    </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG68" s="10"/>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
       <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
@@ -4663,23 +4834,24 @@
       <c r="AD69" s="10"/>
       <c r="AE69" s="10"/>
       <c r="AF69" s="10"/>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG69" s="10"/>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
       <c r="R70" s="10"/>
@@ -4697,23 +4869,24 @@
       <c r="AD70" s="10"/>
       <c r="AE70" s="10"/>
       <c r="AF70" s="10"/>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG70" s="10"/>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
       <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
       <c r="R71" s="10"/>
@@ -4731,23 +4904,24 @@
       <c r="AD71" s="10"/>
       <c r="AE71" s="10"/>
       <c r="AF71" s="10"/>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG71" s="10"/>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
       <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
       <c r="R72" s="10"/>
@@ -4765,8 +4939,9 @@
       <c r="AD72" s="10"/>
       <c r="AE72" s="10"/>
       <c r="AF72" s="10"/>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG72" s="10"/>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -4799,47 +4974,573 @@
       <c r="AD73" s="10"/>
       <c r="AE73" s="10"/>
       <c r="AF73" s="10"/>
+      <c r="AG73" s="10"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="10"/>
+      <c r="AG74" s="10"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
+      <c r="AG75" s="10"/>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
+      <c r="AB76" s="10"/>
+      <c r="AC76" s="10"/>
+      <c r="AD76" s="10"/>
+      <c r="AE76" s="10"/>
+      <c r="AF76" s="10"/>
+      <c r="AG76" s="10"/>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="10"/>
+      <c r="AC77" s="10"/>
+      <c r="AD77" s="10"/>
+      <c r="AE77" s="10"/>
+      <c r="AF77" s="10"/>
+      <c r="AG77" s="10"/>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="10"/>
+      <c r="Z78" s="10"/>
+      <c r="AA78" s="10"/>
+      <c r="AB78" s="10"/>
+      <c r="AC78" s="10"/>
+      <c r="AD78" s="10"/>
+      <c r="AE78" s="10"/>
+      <c r="AF78" s="10"/>
+      <c r="AG78" s="10"/>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="10"/>
+      <c r="Z79" s="10"/>
+      <c r="AA79" s="10"/>
+      <c r="AB79" s="10"/>
+      <c r="AC79" s="10"/>
+      <c r="AD79" s="10"/>
+      <c r="AE79" s="10"/>
+      <c r="AF79" s="10"/>
+      <c r="AG79" s="10"/>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="10"/>
+      <c r="AB80" s="10"/>
+      <c r="AC80" s="10"/>
+      <c r="AD80" s="10"/>
+      <c r="AE80" s="10"/>
+      <c r="AF80" s="10"/>
+      <c r="AG80" s="10"/>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="10"/>
+      <c r="Z81" s="10"/>
+      <c r="AA81" s="10"/>
+      <c r="AB81" s="10"/>
+      <c r="AC81" s="10"/>
+      <c r="AD81" s="10"/>
+      <c r="AE81" s="10"/>
+      <c r="AF81" s="10"/>
+      <c r="AG81" s="10"/>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="10"/>
+      <c r="Z82" s="10"/>
+      <c r="AA82" s="10"/>
+      <c r="AB82" s="10"/>
+      <c r="AC82" s="10"/>
+      <c r="AD82" s="10"/>
+      <c r="AE82" s="10"/>
+      <c r="AF82" s="10"/>
+      <c r="AG82" s="10"/>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+      <c r="V83" s="10"/>
+      <c r="W83" s="10"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="10"/>
+      <c r="Z83" s="10"/>
+      <c r="AA83" s="10"/>
+      <c r="AB83" s="10"/>
+      <c r="AC83" s="10"/>
+      <c r="AD83" s="10"/>
+      <c r="AE83" s="10"/>
+      <c r="AF83" s="10"/>
+      <c r="AG83" s="10"/>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+      <c r="Z84" s="10"/>
+      <c r="AA84" s="10"/>
+      <c r="AB84" s="10"/>
+      <c r="AC84" s="10"/>
+      <c r="AD84" s="10"/>
+      <c r="AE84" s="10"/>
+      <c r="AF84" s="10"/>
+      <c r="AG84" s="10"/>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+      <c r="Z85" s="10"/>
+      <c r="AA85" s="10"/>
+      <c r="AB85" s="10"/>
+      <c r="AC85" s="10"/>
+      <c r="AD85" s="10"/>
+      <c r="AE85" s="10"/>
+      <c r="AF85" s="10"/>
+      <c r="AG85" s="10"/>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="10"/>
+      <c r="Z86" s="10"/>
+      <c r="AA86" s="10"/>
+      <c r="AB86" s="10"/>
+      <c r="AC86" s="10"/>
+      <c r="AD86" s="10"/>
+      <c r="AE86" s="10"/>
+      <c r="AF86" s="10"/>
+      <c r="AG86" s="10"/>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+      <c r="Z87" s="10"/>
+      <c r="AA87" s="10"/>
+      <c r="AB87" s="10"/>
+      <c r="AC87" s="10"/>
+      <c r="AD87" s="10"/>
+      <c r="AE87" s="10"/>
+      <c r="AF87" s="10"/>
+      <c r="AG87" s="10"/>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="10"/>
+      <c r="T88" s="10"/>
+      <c r="U88" s="10"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="10"/>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="10"/>
+      <c r="Z88" s="10"/>
+      <c r="AA88" s="10"/>
+      <c r="AB88" s="10"/>
+      <c r="AC88" s="10"/>
+      <c r="AD88" s="10"/>
+      <c r="AE88" s="10"/>
+      <c r="AF88" s="10"/>
+      <c r="AG88" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="B2:U2"/>
-    <mergeCell ref="B4:R4"/>
-    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B4:S4"/>
+    <mergeCell ref="U4:V4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:R9">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="lessThan">
+  <conditionalFormatting sqref="C9:S9">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThan">
-      <formula>$U$14</formula>
+  <conditionalFormatting sqref="V10">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+      <formula>$V$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
-      <formula>$U$14</formula>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+      <formula>$V$14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
-      <formula>$U$13</formula>
+  <conditionalFormatting sqref="V11">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+      <formula>$V$13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
-      <formula>$U$13</formula>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+      <formula>$V$13</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4849,10 +5550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5234ECD1-E558-42B2-9B8B-4E13141F41E7}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B2" sqref="B2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4868,7 +5569,7 @@
     <col min="15" max="15" width="12.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4892,21 +5593,21 @@
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:22" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="B2" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -4918,7 +5619,7 @@
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -4936,71 +5637,71 @@
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
     </row>
-    <row r="4" spans="1:22" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="N4" s="33" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="N4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="33"/>
+      <c r="O4" s="34"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
-      <c r="R4" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="S4" s="33"/>
+      <c r="R4" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="S4" s="34"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="38"/>
+      <c r="I5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="39"/>
       <c r="N5" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O5" s="7">
-        <f>SUM(C8:L8)</f>
+        <f>SUM(C7:L7)</f>
         <v>46900000</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S5" s="7">
         <v>0</v>
@@ -5009,33 +5710,33 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="46"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="L6" s="25" t="s">
-        <v>103</v>
-      </c>
       <c r="N6" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O6" s="7">
         <f>SUM(C9:H9)</f>
@@ -5049,25 +5750,25 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41">
+        <v>17</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40">
         <v>39000000</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="39">
+      <c r="F7" s="40"/>
+      <c r="G7" s="45">
         <v>6900000</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41">
+      <c r="H7" s="46"/>
+      <c r="I7" s="40">
         <v>1000000</v>
       </c>
-      <c r="J7" s="41"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -5085,25 +5786,25 @@
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41">
-        <v>39000000</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="39">
-        <v>6900000</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41">
-        <v>1000000</v>
-      </c>
-      <c r="J8" s="41"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="45">
+        <v>0</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="40">
+        <v>0</v>
+      </c>
+      <c r="J8" s="40"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -5111,8 +5812,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="N8" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="O8" s="34"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
@@ -5121,31 +5824,31 @@
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="41">
+        <v>104</v>
+      </c>
+      <c r="C9" s="40">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40">
         <f t="shared" ref="E9" si="0">E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41">
+      <c r="F9" s="40"/>
+      <c r="G9" s="40">
         <f t="shared" ref="G9" si="1">G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41">
+      <c r="H9" s="40"/>
+      <c r="I9" s="40">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="41"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -5155,8 +5858,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="N9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="7">
+        <f>O5-G7</f>
+        <v>40000000</v>
+      </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
@@ -5165,97 +5873,25 @@
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="41">
-        <f>C8-C7</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41">
-        <f t="shared" ref="E10" si="2">E8-E7</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41">
-        <f t="shared" ref="G10" si="3">G8-G7</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41">
-        <f>I8-I7</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="41"/>
-      <c r="K10" s="7">
-        <f>K7-K8</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <f>L7-L8</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O12" s="13"/>
-    </row>
-    <row r="17" spans="18:23" x14ac:dyDescent="0.4">
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="O10" s="13"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
+  <mergeCells count="27">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
@@ -5270,19 +5906,15 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C10 E10 G10 I10 K10:L10">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5290,31 +5922,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD05D24-AA82-4C1F-B69C-8DBF4B15B831}">
-  <dimension ref="A1:AF49"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="4" width="10.8984375" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.8984375" customWidth="1"/>
     <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="10.8984375" customWidth="1"/>
-    <col min="11" max="11" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.8984375" customWidth="1"/>
-    <col min="14" max="14" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.8984375" customWidth="1"/>
-    <col min="18" max="18" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.8984375" customWidth="1"/>
+    <col min="12" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.8984375" customWidth="1"/>
+    <col min="15" max="15" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.8984375" customWidth="1"/>
+    <col min="19" max="19" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5347,32 +5982,33 @@
       <c r="AD1" s="10"/>
       <c r="AE1" s="10"/>
       <c r="AF1" s="10"/>
-    </row>
-    <row r="2" spans="1:32" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AG1" s="10"/>
+    </row>
+    <row r="2" spans="1:33" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="B2" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="32"/>
-      <c r="V2" s="10"/>
+      <c r="V2" s="33"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
@@ -5383,8 +6019,9 @@
       <c r="AD2" s="10"/>
       <c r="AE2" s="10"/>
       <c r="AF2" s="10"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG2" s="10"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -5417,34 +6054,35 @@
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
-    </row>
-    <row r="4" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="AG3" s="10"/>
+    </row>
+    <row r="4" spans="1:33" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="33" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="33"/>
-      <c r="V4" s="11"/>
+      <c r="V4" s="34"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
@@ -5455,49 +6093,50 @@
       <c r="AD4" s="11"/>
       <c r="AE4" s="11"/>
       <c r="AF4" s="11"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG4" s="11"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="36" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="34" t="s">
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="Q5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="34" t="s">
+      <c r="R5" s="38"/>
+      <c r="S5" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="10"/>
+      <c r="U5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="7">
+      <c r="V5" s="7">
         <f>D10</f>
         <v>0</v>
       </c>
-      <c r="V5" s="10"/>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
@@ -5508,10 +6147,11 @@
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG5" s="10"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
@@ -5525,49 +6165,51 @@
         <v>40</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="M6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="N6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="O6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="36"/>
+      <c r="Q6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="R6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="35"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="8" t="s">
+      <c r="S6" s="36"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="7">
-        <f>I10+N10+O10</f>
-        <v>1193570</v>
-      </c>
-      <c r="V6" s="10" t="s">
+      <c r="V6" s="7">
+        <f>J10+O10+P10</f>
+        <v>1252910</v>
+      </c>
+      <c r="W6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="W6" s="10"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
@@ -5577,8 +6219,9 @@
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG6" s="10"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>0</v>
@@ -5598,48 +6241,50 @@
       <c r="G7" s="6">
         <v>400000</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="6">
+        <v>400000</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>100000</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>300000</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <f>34100+24500</f>
         <v>58600</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>135931</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>300000</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <f>35000+8690</f>
         <v>43690</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <v>100000</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <v>1800000</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <v>100000</v>
       </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="8" t="s">
+      <c r="S7" s="6"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="7">
-        <f>Q10</f>
+      <c r="V7" s="7">
+        <f>R10</f>
         <v>1900000</v>
       </c>
-      <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
@@ -5650,8 +6295,9 @@
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG7" s="10"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="5" t="s">
         <v>1</v>
@@ -5664,62 +6310,65 @@
       </c>
       <c r="E8" s="7">
         <f>'1월'!C12</f>
-        <v>255349</v>
+        <v>314689</v>
       </c>
       <c r="F8" s="7">
-        <f>+SUMIF($L$16:$L$33,F$6,$J$16:$J$33)</f>
+        <f>+SUMIF($M$16:$M$33,F$6,$K$16:$K$33)</f>
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <f>SUMIF($L$16:$L$33,G$6,$J$16:$J$33)</f>
+        <f>SUMIF($M$16:$M$33,G$6,$K$16:$K$33)</f>
         <v>0</v>
       </c>
       <c r="H8" s="7">
-        <f>SUMIF($L$16:$L$33,H$6,$J$16:$J$33)</f>
+        <f>SUMIF($M$16:$M$33,H$6,$K$16:$K$33)</f>
         <v>0</v>
       </c>
       <c r="I8" s="7">
-        <f>SUMIF($L$16:$L$33,I$6,$J$16:$J$33)</f>
+        <f>SUMIF($M$16:$M$33,I$6,$K$16:$K$33)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="7">
+        <f>SUMIF($M$16:$M$33,J$6,$K$16:$K$33)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
         <v>300000</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <f>34100+24500</f>
         <v>58600</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <v>135931</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <v>300000</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8" s="6">
         <f>35000+8690</f>
         <v>43690</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P8" s="7">
         <v>100000</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q8" s="7">
         <v>1800000</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="R8" s="7">
         <v>100000</v>
       </c>
-      <c r="R8" s="7">
-        <f>SUMIF($E$16:$E$33,R$5,$C$16:$C$33)+SUMIF($L$16:$L$33,R$5,$J$16:$J$33)</f>
+      <c r="S8" s="7">
+        <f>SUMIF($E$16:$E$33,S$5,$C$16:$C$33)+SUMIF($M$16:$M$33,S$5,$K$16:$K$33)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="8" t="s">
+      <c r="T8" s="10"/>
+      <c r="U8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="7">
+      <c r="V8" s="7">
         <v>200000</v>
       </c>
-      <c r="V8" s="10"/>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
@@ -5730,14 +6379,15 @@
       <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG8" s="10"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" ref="C9:R9" si="0">C7-C8</f>
+        <f t="shared" ref="C9:S9" si="0">C7-C8</f>
         <v>0</v>
       </c>
       <c r="D9" s="7">
@@ -5746,21 +6396,18 @@
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
-        <v>44651</v>
+        <v>-14689</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7">
-        <f>H8</f>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7">
+        <f>I8</f>
         <v>0</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <f t="shared" si="0"/>
         <v>100000</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="0"/>
@@ -5794,18 +6441,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="10"/>
-      <c r="T9" s="8" t="s">
+      <c r="S9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="7">
-        <f>U5-(U6+U7+U8)</f>
-        <v>-3293570</v>
-      </c>
-      <c r="V9" s="13" t="s">
+      <c r="V9" s="7">
+        <f>V5-(V6+V7+V8)</f>
+        <v>-3352910</v>
+      </c>
+      <c r="W9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="W9" s="10"/>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
@@ -5815,8 +6465,9 @@
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG9" s="10"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="17"/>
@@ -5828,43 +6479,43 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="18">
-        <f>SUM(E8:I8)</f>
-        <v>255349</v>
-      </c>
-      <c r="J10" s="17"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="18">
+        <f>SUM(E8:J8)</f>
+        <v>314689</v>
+      </c>
       <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="18">
-        <f>SUM(J8:N8)</f>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18">
+        <f>SUM(K8:O8)</f>
         <v>838221</v>
       </c>
-      <c r="O10" s="18">
-        <f>O8</f>
+      <c r="P10" s="18">
+        <f>P8</f>
         <v>100000</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="18">
-        <f>P8+Q8</f>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="18">
+        <f>Q8+R8</f>
         <v>1900000</v>
       </c>
-      <c r="R10" s="12">
-        <f>R8</f>
+      <c r="S10" s="12">
+        <f>S8</f>
         <v>0</v>
       </c>
-      <c r="S10" s="10"/>
-      <c r="T10" s="8" t="s">
+      <c r="T10" s="10"/>
+      <c r="U10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="U10" s="23" t="e">
-        <f>U6/U5</f>
+      <c r="V10" s="23" t="e">
+        <f>V6/V5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V10" s="10" t="s">
+      <c r="W10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="10"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
@@ -5874,8 +6525,9 @@
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG10" s="10"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="17"/>
@@ -5884,28 +6536,28 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="17"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="21" t="s">
+      <c r="P11" s="18"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="23" t="e">
-        <f>U7/U5</f>
+      <c r="V11" s="23" t="e">
+        <f>V7/V5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="W11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
@@ -5915,8 +6567,9 @@
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG11" s="10"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="B12" s="8" t="s">
         <v>61</v>
@@ -5930,17 +6583,17 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
+      <c r="L12" s="17"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="10"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="12"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
@@ -5954,8 +6607,9 @@
       <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
-    </row>
-    <row r="13" spans="1:32" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="AG12" s="10"/>
+    </row>
+    <row r="13" spans="1:33" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -5975,17 +6629,17 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
-      <c r="T13" s="8" t="s">
+      <c r="T13" s="10"/>
+      <c r="U13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="U13" s="19">
+      <c r="V13" s="19">
         <v>0.5</v>
       </c>
-      <c r="V13" s="7">
-        <f>U5*U13</f>
+      <c r="W13" s="7">
+        <f>V5*V13</f>
         <v>0</v>
       </c>
-      <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
@@ -5995,44 +6649,45 @@
       <c r="AD13" s="10"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
-    </row>
-    <row r="14" spans="1:32" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="AG13" s="10"/>
+    </row>
+    <row r="14" spans="1:33" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="17"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="29" t="s">
+      <c r="H14" s="17"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="11"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
-      <c r="T14" s="8" t="s">
+      <c r="T14" s="11"/>
+      <c r="U14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="19">
+      <c r="V14" s="19">
         <v>0.5</v>
       </c>
-      <c r="V14" s="7">
-        <f>U5*U14</f>
+      <c r="W14" s="7">
+        <f>V5*V14</f>
         <v>0</v>
       </c>
-      <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
@@ -6042,8 +6697,9 @@
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG14" s="11"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
         <v>16</v>
@@ -6059,20 +6715,20 @@
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="8" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="K15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -6092,23 +6748,28 @@
       <c r="AD15" s="10"/>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG15" s="10"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="26">
+        <v>45319</v>
+      </c>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="1"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="26">
+        <v>45330</v>
+      </c>
+      <c r="K16" s="3"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="22"/>
+      <c r="M16" s="1"/>
       <c r="N16" s="22"/>
-      <c r="O16" s="10"/>
+      <c r="O16" s="22"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -6126,8 +6787,9 @@
       <c r="AD16" s="10"/>
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG16" s="10"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="2"/>
       <c r="C17" s="15"/>
@@ -6135,14 +6797,14 @@
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="17"/>
+      <c r="M17" s="16"/>
       <c r="N17" s="17"/>
-      <c r="O17" s="10"/>
+      <c r="O17" s="17"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
@@ -6160,8 +6822,9 @@
       <c r="AD17" s="10"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG17" s="10"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" s="2"/>
       <c r="C18" s="15"/>
@@ -6169,14 +6832,14 @@
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
+      <c r="M18" s="16"/>
       <c r="N18" s="17"/>
-      <c r="O18" s="10"/>
+      <c r="O18" s="17"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -6194,8 +6857,9 @@
       <c r="AD18" s="10"/>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG18" s="10"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="2"/>
       <c r="C19" s="15"/>
@@ -6203,14 +6867,14 @@
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="15"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="17"/>
+      <c r="M19" s="16"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="10"/>
+      <c r="O19" s="17"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
@@ -6228,8 +6892,9 @@
       <c r="AD19" s="10"/>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG19" s="10"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="2"/>
       <c r="C20" s="15"/>
@@ -6237,14 +6902,14 @@
       <c r="E20" s="16"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="15"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="17"/>
+      <c r="M20" s="16"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="10"/>
+      <c r="O20" s="17"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
@@ -6262,8 +6927,9 @@
       <c r="AD20" s="10"/>
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG20" s="10"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
       <c r="B21" s="2"/>
       <c r="C21" s="15"/>
@@ -6271,14 +6937,14 @@
       <c r="E21" s="16"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="15"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="17"/>
+      <c r="M21" s="16"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="10"/>
+      <c r="O21" s="17"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
@@ -6296,8 +6962,9 @@
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG21" s="10"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="2"/>
       <c r="C22" s="15"/>
@@ -6305,14 +6972,14 @@
       <c r="E22" s="16"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="15"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="17"/>
+      <c r="M22" s="16"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="10"/>
+      <c r="O22" s="17"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -6330,8 +6997,9 @@
       <c r="AD22" s="10"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG22" s="10"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="2"/>
       <c r="C23" s="15"/>
@@ -6339,14 +7007,14 @@
       <c r="E23" s="16"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="15"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="17"/>
+      <c r="M23" s="16"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="10"/>
+      <c r="O23" s="17"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
@@ -6364,8 +7032,9 @@
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG23" s="10"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="B24" s="2"/>
       <c r="C24" s="15"/>
@@ -6373,14 +7042,14 @@
       <c r="E24" s="16"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="15"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="17"/>
+      <c r="M24" s="16"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="10"/>
+      <c r="O24" s="17"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -6398,8 +7067,9 @@
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG24" s="10"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="2"/>
       <c r="C25" s="15"/>
@@ -6407,14 +7077,14 @@
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="15"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="17"/>
+      <c r="M25" s="16"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="10"/>
+      <c r="O25" s="17"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
@@ -6432,8 +7102,9 @@
       <c r="AD25" s="10"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG25" s="10"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
@@ -6441,14 +7112,14 @@
       <c r="E26" s="16"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="15"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="17"/>
+      <c r="M26" s="16"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="10"/>
+      <c r="O26" s="17"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
@@ -6466,8 +7137,9 @@
       <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG26" s="10"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
@@ -6475,14 +7147,14 @@
       <c r="E27" s="16"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="15"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="17"/>
+      <c r="M27" s="16"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="10"/>
+      <c r="O27" s="17"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
@@ -6500,8 +7172,9 @@
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG27" s="10"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
@@ -6509,14 +7182,14 @@
       <c r="E28" s="16"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="15"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="17"/>
+      <c r="M28" s="16"/>
       <c r="N28" s="17"/>
-      <c r="O28" s="10"/>
+      <c r="O28" s="17"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -6534,8 +7207,9 @@
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG28" s="10"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
@@ -6543,14 +7217,14 @@
       <c r="E29" s="16"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="15"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="17"/>
+      <c r="M29" s="16"/>
       <c r="N29" s="17"/>
-      <c r="O29" s="10"/>
+      <c r="O29" s="17"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
@@ -6568,8 +7242,9 @@
       <c r="AD29" s="10"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG29" s="10"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
@@ -6577,14 +7252,14 @@
       <c r="E30" s="16"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="17"/>
+      <c r="M30" s="16"/>
       <c r="N30" s="17"/>
-      <c r="O30" s="10"/>
+      <c r="O30" s="17"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
@@ -6602,8 +7277,9 @@
       <c r="AD30" s="10"/>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG30" s="10"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -6611,14 +7287,14 @@
       <c r="E31" s="16"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="15"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="17"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="17"/>
-      <c r="O31" s="10"/>
+      <c r="O31" s="17"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
@@ -6636,8 +7312,9 @@
       <c r="AD31" s="10"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG31" s="10"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
@@ -6645,14 +7322,14 @@
       <c r="E32" s="16"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="15"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="17"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="17"/>
-      <c r="O32" s="10"/>
+      <c r="O32" s="17"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
@@ -6670,8 +7347,9 @@
       <c r="AD32" s="10"/>
       <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG32" s="10"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
@@ -6679,14 +7357,14 @@
       <c r="E33" s="16"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="16"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="15"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="17"/>
+      <c r="M33" s="16"/>
       <c r="N33" s="17"/>
-      <c r="O33" s="10"/>
+      <c r="O33" s="17"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
@@ -6704,8 +7382,9 @@
       <c r="AD33" s="10"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG33" s="10"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -6738,8 +7417,9 @@
       <c r="AD34" s="10"/>
       <c r="AE34" s="10"/>
       <c r="AF34" s="10"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG34" s="10"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -6772,8 +7452,9 @@
       <c r="AD35" s="10"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG35" s="10"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -6806,8 +7487,9 @@
       <c r="AD36" s="10"/>
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG36" s="10"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -6840,8 +7522,9 @@
       <c r="AD37" s="10"/>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG37" s="10"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -6874,8 +7557,9 @@
       <c r="AD38" s="10"/>
       <c r="AE38" s="10"/>
       <c r="AF38" s="10"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG38" s="10"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -6908,8 +7592,9 @@
       <c r="AD39" s="10"/>
       <c r="AE39" s="10"/>
       <c r="AF39" s="10"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG39" s="10"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -6942,8 +7627,9 @@
       <c r="AD40" s="10"/>
       <c r="AE40" s="10"/>
       <c r="AF40" s="10"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG40" s="10"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -6976,8 +7662,9 @@
       <c r="AD41" s="10"/>
       <c r="AE41" s="10"/>
       <c r="AF41" s="10"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG41" s="10"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -7010,8 +7697,9 @@
       <c r="AD42" s="10"/>
       <c r="AE42" s="10"/>
       <c r="AF42" s="10"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG42" s="10"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -7044,8 +7732,9 @@
       <c r="AD43" s="10"/>
       <c r="AE43" s="10"/>
       <c r="AF43" s="10"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG43" s="10"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -7078,8 +7767,9 @@
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
       <c r="AF44" s="10"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG44" s="10"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -7112,8 +7802,9 @@
       <c r="AD45" s="10"/>
       <c r="AE45" s="10"/>
       <c r="AF45" s="10"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG45" s="10"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -7146,8 +7837,9 @@
       <c r="AD46" s="10"/>
       <c r="AE46" s="10"/>
       <c r="AF46" s="10"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG46" s="10"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -7180,8 +7872,9 @@
       <c r="AD47" s="10"/>
       <c r="AE47" s="10"/>
       <c r="AF47" s="10"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG47" s="10"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -7214,8 +7907,9 @@
       <c r="AD48" s="10"/>
       <c r="AE48" s="10"/>
       <c r="AF48" s="10"/>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG48" s="10"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -7248,47 +7942,48 @@
       <c r="AD49" s="10"/>
       <c r="AE49" s="10"/>
       <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="B2:U2"/>
-    <mergeCell ref="B4:R4"/>
-    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B4:S4"/>
+    <mergeCell ref="U4:V4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:R9">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="C9:S9">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
-      <formula>$U$14</formula>
+  <conditionalFormatting sqref="V10">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+      <formula>$V$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
-      <formula>$U$14</formula>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
+      <formula>$V$14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
-      <formula>$U$13</formula>
+  <conditionalFormatting sqref="V11">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>$V$13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>$U$13</formula>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>$V$13</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7298,10 +7993,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBFE98F-838B-439D-B4B6-641D7CF90CC3}">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="B2" sqref="B2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7349,19 +8044,19 @@
     </row>
     <row r="2" spans="1:26" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="B2" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -7407,28 +8102,28 @@
     </row>
     <row r="4" spans="1:26" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="33"/>
-      <c r="Q4" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="R4" s="33"/>
+      <c r="O4" s="34"/>
+      <c r="Q4" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="R4" s="34"/>
       <c r="S4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
@@ -7438,39 +8133,39 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="38"/>
+      <c r="I5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="39"/>
       <c r="M5" s="10"/>
       <c r="N5" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O5" s="7">
         <f>R5+SUM(C8:L8)</f>
-        <v>46900000</v>
+        <v>48800000</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R5" s="7">
         <f>'1월(자산)'!O5</f>
@@ -7485,32 +8180,32 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="46"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="25" t="s">
         <v>102</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>103</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O6" s="7">
         <f>SUM(C9:L9)</f>
@@ -7529,24 +8224,27 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="40">
         <v>0</v>
       </c>
-      <c r="C7" s="41">
-        <v>0</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="39">
-        <v>0</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="39">
-        <v>0</v>
-      </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41">
-        <v>0</v>
-      </c>
-      <c r="J7" s="41"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="45">
+        <f>SUM('1월(자산)'!E7:F8)</f>
+        <v>39000000</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="45">
+        <f>SUM('1월(자산)'!G7:H8)</f>
+        <v>6900000</v>
+      </c>
+      <c r="H7" s="46"/>
+      <c r="I7" s="40">
+        <f>SUM('1월(자산)'!I7:J8)</f>
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="40"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -7568,27 +8266,27 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="40">
         <v>0</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="39">
+      <c r="D8" s="40"/>
+      <c r="E8" s="45">
         <v>0</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="39">
-        <v>0</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41">
-        <v>0</v>
-      </c>
-      <c r="J8" s="41"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="45">
+        <v>100000</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="40">
+        <v>1800000</v>
+      </c>
+      <c r="J8" s="40"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -7596,8 +8294,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="N8" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="O8" s="34"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
@@ -7613,28 +8313,28 @@
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="41">
+        <v>104</v>
+      </c>
+      <c r="C9" s="40">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40">
         <f t="shared" ref="E9" si="0">E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41">
+      <c r="F9" s="40"/>
+      <c r="G9" s="40">
         <f t="shared" ref="G9" si="1">G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41">
+      <c r="H9" s="40"/>
+      <c r="I9" s="40">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="41"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -7644,8 +8344,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="N9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="7">
+        <f>O5-G7</f>
+        <v>41900000</v>
+      </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
@@ -7660,40 +8365,21 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="41">
-        <f>C8-C7</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41">
-        <f t="shared" ref="E10" si="2">E8-E7</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41">
-        <f t="shared" ref="G10" si="3">G8-G7</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41">
-        <f>I8-I7</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="41"/>
-      <c r="K10" s="7">
-        <f>K7-K8</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <f>L7-L8</f>
-        <v>0</v>
-      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -7706,38 +8392,28 @@
       <c r="Z10" s="10"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="S12" s="13"/>
+      <c r="S11" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="27">
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="Q4:R4"/>
@@ -7747,34 +8423,8 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C10 E10 G10 I10 K10:L10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\github\sharebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606C36A9-ABBF-4675-B8A8-E6E01262E979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BD2BB1-1E13-41E3-ABE9-4F53C9570ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="152">
   <si>
     <t>계획</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -592,19 +592,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>도시가스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>가용자산</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>생활비(식비)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해든마트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활비(식비)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본죽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셍활비(식비)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨래</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주택관리비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈까스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1112,7 +1148,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,15 +1170,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1597,7 +1633,7 @@
   <dimension ref="A1:AG88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2:V2"/>
@@ -1837,7 +1873,7 @@
         <v>40</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>69</v>
@@ -1877,7 +1913,7 @@
       </c>
       <c r="V6" s="7">
         <f>J10+O10+P10</f>
-        <v>2312145</v>
+        <v>2425245</v>
       </c>
       <c r="W6" s="10" t="s">
         <v>32</v>
@@ -1986,15 +2022,15 @@
       </c>
       <c r="F8" s="7">
         <f>+SUMIF($M$16:$M$72,F$6,$K$16:$K$72)</f>
-        <v>98430</v>
+        <v>124930</v>
       </c>
       <c r="G8" s="7">
         <f>SUMIF($M$16:$M$72,G$6,$K$16:$K$72)</f>
-        <v>383275</v>
+        <v>444875</v>
       </c>
       <c r="H8" s="7">
         <f>SUMIF($M$16:$M$72,H$6,$K$16:$K$72)</f>
-        <v>451799</v>
+        <v>476799</v>
       </c>
       <c r="I8" s="7">
         <f>SUMIF($M$16:$M$72,I$6,$K$16:$K$72)</f>
@@ -2072,15 +2108,15 @@
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>21570</v>
+        <v>-4930</v>
       </c>
       <c r="G9" s="27">
         <f t="shared" si="0"/>
-        <v>16725</v>
+        <v>-44875</v>
       </c>
       <c r="H9" s="27">
         <f t="shared" ref="H9" si="1">H7-H8</f>
-        <v>-51799</v>
+        <v>-76799</v>
       </c>
       <c r="I9" s="7">
         <f>I8</f>
@@ -2132,7 +2168,7 @@
       </c>
       <c r="V9" s="7">
         <f>V5-(V6+V7+V8)</f>
-        <v>551802</v>
+        <v>438702</v>
       </c>
       <c r="W9" s="13" t="s">
         <v>30</v>
@@ -2163,7 +2199,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="18">
         <f>SUM(E8:J8)</f>
-        <v>1513924</v>
+        <v>1627024</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -2192,7 +2228,7 @@
       </c>
       <c r="V10" s="23">
         <f>V6/V5</f>
-        <v>0.55527724056045857</v>
+        <v>0.58243896956421393</v>
       </c>
       <c r="W10" s="10" t="s">
         <v>31</v>
@@ -2510,7 +2546,7 @@
         <v>39</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
@@ -2561,7 +2597,7 @@
         <v>50</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -2612,7 +2648,7 @@
         <v>49</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
@@ -2663,7 +2699,7 @@
         <v>56</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
@@ -2918,7 +2954,7 @@
         <v>67</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
@@ -2969,7 +3005,7 @@
         <v>68</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
@@ -3021,7 +3057,7 @@
         <v>72</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
@@ -3123,7 +3159,7 @@
         <v>77</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N29" s="17"/>
       <c r="O29" s="17"/>
@@ -3174,7 +3210,7 @@
         <v>82</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
@@ -3378,7 +3414,7 @@
         <v>90</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
@@ -3429,7 +3465,7 @@
         <v>92</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N35" s="17"/>
       <c r="O35" s="17"/>
@@ -3480,7 +3516,7 @@
         <v>90</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N36" s="17"/>
       <c r="O36" s="17"/>
@@ -3626,7 +3662,7 @@
         <v>114</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N39" s="17"/>
       <c r="O39" s="17"/>
@@ -3669,7 +3705,7 @@
         <v>115</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N40" s="17"/>
       <c r="O40" s="17"/>
@@ -3755,7 +3791,7 @@
         <v>118</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
@@ -3798,7 +3834,7 @@
         <v>119</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N43" s="17"/>
       <c r="O43" s="17"/>
@@ -3841,7 +3877,7 @@
         <v>120</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
@@ -3884,7 +3920,7 @@
         <v>124</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N45" s="17"/>
       <c r="O45" s="17"/>
@@ -4014,7 +4050,7 @@
         <v>125</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N48" s="17"/>
       <c r="O48" s="17"/>
@@ -4057,7 +4093,7 @@
         <v>127</v>
       </c>
       <c r="M49" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N49" s="17"/>
       <c r="O49" s="17"/>
@@ -4143,7 +4179,7 @@
         <v>131</v>
       </c>
       <c r="M51" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N51" s="17"/>
       <c r="O51" s="17"/>
@@ -4186,7 +4222,7 @@
         <v>135</v>
       </c>
       <c r="M52" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N52" s="17"/>
       <c r="O52" s="17"/>
@@ -4315,7 +4351,7 @@
         <v>135</v>
       </c>
       <c r="M55" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N55" s="17"/>
       <c r="O55" s="17"/>
@@ -4348,10 +4384,18 @@
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="10"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
+      <c r="J56" s="26">
+        <v>45317</v>
+      </c>
+      <c r="K56" s="15">
+        <v>16650</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M56" s="16" t="s">
+        <v>143</v>
+      </c>
       <c r="N56" s="17"/>
       <c r="O56" s="17"/>
       <c r="P56" s="10"/>
@@ -4383,10 +4427,19 @@
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="10"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
+      <c r="J57" s="26">
+        <v>45318</v>
+      </c>
+      <c r="K57" s="15">
+        <f>123800-108800</f>
+        <v>15000</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M57" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N57" s="17"/>
       <c r="O57" s="17"/>
       <c r="P57" s="10"/>
@@ -4418,10 +4471,18 @@
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
       <c r="I58" s="10"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
+      <c r="J58" s="26">
+        <v>45318</v>
+      </c>
+      <c r="K58" s="15">
+        <v>15000</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M58" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="N58" s="17"/>
       <c r="O58" s="17"/>
       <c r="P58" s="10"/>
@@ -4453,10 +4514,18 @@
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
       <c r="I59" s="10"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
+      <c r="J59" s="26">
+        <v>45318</v>
+      </c>
+      <c r="K59" s="15">
+        <v>6950</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M59" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="N59" s="17"/>
       <c r="O59" s="17"/>
       <c r="P59" s="10"/>
@@ -4488,10 +4557,18 @@
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
       <c r="I60" s="10"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
+      <c r="J60" s="26">
+        <v>45318</v>
+      </c>
+      <c r="K60" s="15">
+        <v>21700</v>
+      </c>
+      <c r="L60" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="M60" s="16" t="s">
+        <v>143</v>
+      </c>
       <c r="N60" s="17"/>
       <c r="O60" s="17"/>
       <c r="P60" s="10"/>
@@ -4523,10 +4600,18 @@
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
       <c r="I61" s="10"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
+      <c r="J61" s="26">
+        <v>45319</v>
+      </c>
+      <c r="K61" s="15">
+        <v>18900</v>
+      </c>
+      <c r="L61" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="M61" s="16" t="s">
+        <v>143</v>
+      </c>
       <c r="N61" s="17"/>
       <c r="O61" s="17"/>
       <c r="P61" s="10"/>
@@ -4558,10 +4643,18 @@
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
       <c r="I62" s="10"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
+      <c r="J62" s="26">
+        <v>45320</v>
+      </c>
+      <c r="K62" s="15">
+        <v>10000</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M62" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="N62" s="17"/>
       <c r="O62" s="17"/>
       <c r="P62" s="10"/>
@@ -4593,10 +4686,18 @@
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
       <c r="I63" s="10"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
+      <c r="J63" s="26">
+        <v>45320</v>
+      </c>
+      <c r="K63" s="15">
+        <v>4350</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M63" s="16" t="s">
+        <v>143</v>
+      </c>
       <c r="N63" s="17"/>
       <c r="O63" s="17"/>
       <c r="P63" s="10"/>
@@ -4628,10 +4729,18 @@
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
       <c r="I64" s="10"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
+      <c r="J64" s="26">
+        <v>45321</v>
+      </c>
+      <c r="K64" s="15">
+        <v>26500</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M64" s="16" t="s">
+        <v>150</v>
+      </c>
       <c r="N64" s="17"/>
       <c r="O64" s="17"/>
       <c r="P64" s="10"/>
@@ -4733,18 +4842,10 @@
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="10"/>
-      <c r="J67" s="26">
-        <v>45327</v>
-      </c>
-      <c r="K67" s="15">
-        <v>82360</v>
-      </c>
-      <c r="L67" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M67" s="16" t="s">
-        <v>140</v>
-      </c>
+      <c r="J67" s="26"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
       <c r="P67" s="10"/>
@@ -4951,10 +5052,18 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
+      <c r="J73" s="26">
+        <v>45327</v>
+      </c>
+      <c r="K73" s="15">
+        <v>82360</v>
+      </c>
+      <c r="L73" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M73" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
@@ -5712,23 +5821,23 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="43" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="41" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="41" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43" t="s">
+      <c r="H6" s="45"/>
+      <c r="I6" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="44"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="25" t="s">
         <v>101</v>
       </c>
@@ -5755,20 +5864,20 @@
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42">
         <v>39000000</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="45">
+      <c r="F7" s="42"/>
+      <c r="G7" s="40">
         <v>6900000</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="40">
+      <c r="H7" s="41"/>
+      <c r="I7" s="42">
         <v>1000000</v>
       </c>
-      <c r="J7" s="40"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -5791,20 +5900,20 @@
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40">
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42">
         <v>0</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="45">
+      <c r="F8" s="42"/>
+      <c r="G8" s="40">
         <v>0</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="40">
+      <c r="H8" s="41"/>
+      <c r="I8" s="42">
         <v>0</v>
       </c>
-      <c r="J8" s="40"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -5813,7 +5922,7 @@
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O8" s="34"/>
       <c r="P8" s="10"/>
@@ -5829,26 +5938,26 @@
       <c r="B9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="42">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40">
+      <c r="D9" s="42"/>
+      <c r="E9" s="42">
         <f t="shared" ref="E9" si="0">E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40">
+      <c r="F9" s="42"/>
+      <c r="G9" s="42">
         <f t="shared" ref="G9" si="1">G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40">
+      <c r="H9" s="42"/>
+      <c r="I9" s="42">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="40"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -5886,12 +5995,10 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
@@ -5908,11 +6015,13 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6165,7 +6274,7 @@
         <v>40</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>69</v>
@@ -8180,23 +8289,23 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="43" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="41" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="41" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43" t="s">
+      <c r="H6" s="45"/>
+      <c r="I6" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="44"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="25" t="s">
         <v>101</v>
       </c>
@@ -8226,25 +8335,25 @@
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="42">
         <v>0</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="45">
+      <c r="D7" s="42"/>
+      <c r="E7" s="40">
         <f>SUM('1월(자산)'!E7:F8)</f>
         <v>39000000</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="45">
+      <c r="F7" s="41"/>
+      <c r="G7" s="40">
         <f>SUM('1월(자산)'!G7:H8)</f>
         <v>6900000</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="40">
+      <c r="H7" s="41"/>
+      <c r="I7" s="42">
         <f>SUM('1월(자산)'!I7:J8)</f>
         <v>1000000</v>
       </c>
-      <c r="J7" s="40"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -8271,22 +8380,22 @@
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="42">
         <v>0</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="45">
+      <c r="D8" s="42"/>
+      <c r="E8" s="40">
         <v>0</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="45">
+      <c r="F8" s="41"/>
+      <c r="G8" s="40">
         <v>100000</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="40">
+      <c r="H8" s="41"/>
+      <c r="I8" s="42">
         <v>1800000</v>
       </c>
-      <c r="J8" s="40"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -8295,7 +8404,7 @@
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O8" s="34"/>
       <c r="P8" s="10"/>
@@ -8315,26 +8424,26 @@
       <c r="B9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="42">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40">
+      <c r="D9" s="42"/>
+      <c r="E9" s="42">
         <f t="shared" ref="E9" si="0">E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40">
+      <c r="F9" s="42"/>
+      <c r="G9" s="42">
         <f t="shared" ref="G9" si="1">G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40">
+      <c r="H9" s="42"/>
+      <c r="I9" s="42">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="40"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -8396,14 +8505,13 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="I7:J7"/>
@@ -8414,15 +8522,16 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\github\sharebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BD2BB1-1E13-41E3-ABE9-4F53C9570ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2049F65-A7D0-4CA3-A972-BEA3D328DDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="162">
   <si>
     <t>계획</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -641,6 +641,46 @@
   </si>
   <si>
     <t>돈까스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주유소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈모약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명절선물비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1148,16 +1188,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,6 +1201,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1913,7 +1953,7 @@
       </c>
       <c r="V6" s="7">
         <f>J10+O10+P10</f>
-        <v>2425245</v>
+        <v>2639990</v>
       </c>
       <c r="W6" s="10" t="s">
         <v>32</v>
@@ -2030,7 +2070,7 @@
       </c>
       <c r="H8" s="7">
         <f>SUMIF($M$16:$M$72,H$6,$K$16:$K$72)</f>
-        <v>476799</v>
+        <v>691544</v>
       </c>
       <c r="I8" s="7">
         <f>SUMIF($M$16:$M$72,I$6,$K$16:$K$72)</f>
@@ -2116,7 +2156,7 @@
       </c>
       <c r="H9" s="27">
         <f t="shared" ref="H9" si="1">H7-H8</f>
-        <v>-76799</v>
+        <v>-291544</v>
       </c>
       <c r="I9" s="7">
         <f>I8</f>
@@ -2168,7 +2208,7 @@
       </c>
       <c r="V9" s="7">
         <f>V5-(V6+V7+V8)</f>
-        <v>438702</v>
+        <v>223957</v>
       </c>
       <c r="W9" s="13" t="s">
         <v>30</v>
@@ -2199,7 +2239,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="18">
         <f>SUM(E8:J8)</f>
-        <v>1627024</v>
+        <v>1841769</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -2228,7 +2268,7 @@
       </c>
       <c r="V10" s="23">
         <f>V6/V5</f>
-        <v>0.58243896956421393</v>
+        <v>0.63401143194185705</v>
       </c>
       <c r="W10" s="10" t="s">
         <v>31</v>
@@ -4772,10 +4812,18 @@
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
       <c r="I65" s="10"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
+      <c r="J65" s="26">
+        <v>45321</v>
+      </c>
+      <c r="K65" s="15">
+        <v>10900</v>
+      </c>
+      <c r="L65" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M65" s="16" t="s">
+        <v>157</v>
+      </c>
       <c r="N65" s="17"/>
       <c r="O65" s="17"/>
       <c r="P65" s="10"/>
@@ -4807,10 +4855,18 @@
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
+      <c r="J66" s="26">
+        <v>45323</v>
+      </c>
+      <c r="K66" s="15">
+        <v>2985</v>
+      </c>
+      <c r="L66" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M66" s="16" t="s">
+        <v>159</v>
+      </c>
       <c r="N66" s="17"/>
       <c r="O66" s="17"/>
       <c r="P66" s="10"/>
@@ -4842,10 +4898,18 @@
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="10"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
+      <c r="J67" s="26">
+        <v>45324</v>
+      </c>
+      <c r="K67" s="15">
+        <v>104960</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M67" s="16" t="s">
+        <v>159</v>
+      </c>
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
       <c r="P67" s="10"/>
@@ -4877,10 +4941,18 @@
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
+      <c r="J68" s="26">
+        <v>45324</v>
+      </c>
+      <c r="K68" s="15">
+        <v>106800</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M68" s="16" t="s">
+        <v>159</v>
+      </c>
       <c r="N68" s="17"/>
       <c r="O68" s="17"/>
       <c r="P68" s="10"/>
@@ -4912,10 +4984,18 @@
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
       <c r="I69" s="10"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
+      <c r="J69" s="26">
+        <v>45324</v>
+      </c>
+      <c r="K69" s="15">
+        <v>8000</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M69" s="16" t="s">
+        <v>157</v>
+      </c>
       <c r="N69" s="17"/>
       <c r="O69" s="17"/>
       <c r="P69" s="10"/>
@@ -5821,23 +5901,23 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="44" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="44" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46" t="s">
+      <c r="H6" s="42"/>
+      <c r="I6" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="47"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="25" t="s">
         <v>101</v>
       </c>
@@ -5864,20 +5944,20 @@
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40">
         <v>39000000</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="40">
+      <c r="F7" s="40"/>
+      <c r="G7" s="45">
         <v>6900000</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42">
+      <c r="H7" s="46"/>
+      <c r="I7" s="40">
         <v>1000000</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -5900,20 +5980,20 @@
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42">
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40">
         <v>0</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="40">
+      <c r="F8" s="40"/>
+      <c r="G8" s="45">
         <v>0</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42">
+      <c r="H8" s="46"/>
+      <c r="I8" s="40">
         <v>0</v>
       </c>
-      <c r="J8" s="42"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -5938,26 +6018,26 @@
       <c r="B9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="40">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40">
         <f t="shared" ref="E9" si="0">E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42">
+      <c r="F9" s="40"/>
+      <c r="G9" s="40">
         <f t="shared" ref="G9" si="1">G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42">
+      <c r="H9" s="40"/>
+      <c r="I9" s="40">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="42"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -5995,11 +6075,13 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="B4:L4"/>
@@ -6013,15 +6095,13 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R4:S4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6037,7 +6117,7 @@
       <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:V2"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6685,7 +6765,7 @@
       </c>
       <c r="C12" s="7">
         <f>SUM(C16:C33)</f>
-        <v>0</v>
+        <v>68700</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="10"/>
@@ -6862,11 +6942,17 @@
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="26">
-        <v>45319</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+        <v>45321</v>
+      </c>
+      <c r="C16" s="15">
+        <v>50000</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>153</v>
+      </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
@@ -6900,10 +6986,18 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="B17" s="26">
+        <v>45321</v>
+      </c>
+      <c r="C17" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>157</v>
+      </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -6935,10 +7029,18 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="26">
+        <v>45322</v>
+      </c>
+      <c r="C18" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>157</v>
+      </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
@@ -6970,10 +7072,18 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="26">
+        <v>45322</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1200</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>153</v>
+      </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -7005,10 +7115,18 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="26">
+        <v>45323</v>
+      </c>
+      <c r="C20" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>157</v>
+      </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -7040,10 +7158,18 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="26">
+        <v>45323</v>
+      </c>
+      <c r="C21" s="15">
+        <v>4000</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>157</v>
+      </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
@@ -8289,23 +8415,23 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="44" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="44" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46" t="s">
+      <c r="H6" s="42"/>
+      <c r="I6" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="47"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="25" t="s">
         <v>101</v>
       </c>
@@ -8335,25 +8461,25 @@
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="40">
         <v>0</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="40">
+      <c r="D7" s="40"/>
+      <c r="E7" s="45">
         <f>SUM('1월(자산)'!E7:F8)</f>
         <v>39000000</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="40">
+      <c r="F7" s="46"/>
+      <c r="G7" s="45">
         <f>SUM('1월(자산)'!G7:H8)</f>
         <v>6900000</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42">
+      <c r="H7" s="46"/>
+      <c r="I7" s="40">
         <f>SUM('1월(자산)'!I7:J8)</f>
         <v>1000000</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -8380,22 +8506,22 @@
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="40">
         <v>0</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="40">
+      <c r="D8" s="40"/>
+      <c r="E8" s="45">
         <v>0</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="40">
+      <c r="F8" s="46"/>
+      <c r="G8" s="45">
         <v>100000</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42">
+      <c r="H8" s="46"/>
+      <c r="I8" s="40">
         <v>1800000</v>
       </c>
-      <c r="J8" s="42"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -8424,26 +8550,26 @@
       <c r="B9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="40">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40">
         <f t="shared" ref="E9" si="0">E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42">
+      <c r="F9" s="40"/>
+      <c r="G9" s="40">
         <f t="shared" ref="G9" si="1">G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42">
+      <c r="H9" s="40"/>
+      <c r="I9" s="40">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="42"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -8505,13 +8631,16 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="I7:J7"/>
@@ -8522,16 +8651,13 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -3,11 +3,6 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.65535"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url=""/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </x:bookViews>
@@ -28,345 +23,351 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="113">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="115">
+  <x:si>
+    <x:t>피트니스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현금사용실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>역귀성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소득계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(데이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류구입비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 2월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액조정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이스크림점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드결제료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생활비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단백질바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변동지출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주거비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노래방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주택관리비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국민은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채권</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교통비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본죽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해든마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드사용실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돈까스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈플러스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커피</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축목표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점심(데이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현금 흐름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>셍활비(식비)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변동수입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>닭가슴살</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고정수입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잔액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김밥천국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명절선물비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시가스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소득</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통신비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건강검진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월 결산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>`</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드값(금월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고정지출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가용자산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타(데이트통장+유투브 구독)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(치킨)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점심</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출목표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>택시비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이소 및 마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올리브영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정기예금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비상금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출률 = 지출계/소득계*100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빨래</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드값(전월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 1월 송민영의 가계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뽀미약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청약통장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생활비(식비)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피부과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잔액 = 소득계 - (지출계+저축계+투자계)</x:t>
+  </x:si>
   <x:si>
     <x:t>기타</x:t>
   </x:si>
   <x:si>
-    <x:t>고정수입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고정지출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노래방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>역귀성</x:t>
+    <x:t>우리은행</x:t>
   </x:si>
   <x:si>
     <x:t>하나은행</x:t>
   </x:si>
   <x:si>
+    <x:t>지출계 = 변동지출 + 고정지출 + 비상금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용돈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 2월 송민영의 가계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈모약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 1월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축률 = 저축계/소득계*100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교통후불</x:t>
+  </x:si>
+  <x:si>
     <x:t>적금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본죽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비상금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가용자산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청약통장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 1월 송민영의 가계부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빨래</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(치킨)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수영비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피트니스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현금 흐름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변동수입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>닭가슴살</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잔액 = 소득계 - (지출계+저축계+투자계)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변동지출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드값(전월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점심</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국민은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(데이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 1월 송민영의 자본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월 결산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명절선물비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류구입비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>커트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현금사용실적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>택시비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드사용실적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생활비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 2월 송민영의 자본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교통비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈플러스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해든마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>`</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈모약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시가스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>셍활비(식비)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 2월 송민영의 가계부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뽀미약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABC마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드결제료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건강검진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단백질바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잔액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이소 및 마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채권</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올리브영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김밥천국</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소득</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액조정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드값(금월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주거비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생활비(식비)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이스크림점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정기예금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점심(데이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소득계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돈까스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출계 = 변동지출 + 고정지출 + 비상금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출률 = 지출계/소득계*100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주택관리비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피부과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>용돈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통신비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주차비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타(데이트통장+유투브 구독)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축률 = 저축계/소득계*100</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -379,36 +380,126 @@
     <x:numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </x:numFmts>
   <x:fonts count="12">
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -540,7 +631,7 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="7">
+  <x:fills count="8">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -577,8 +668,14 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffffff"/>
+        <x:bgColor rgb="ffffffff"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="20">
+  <x:borders count="23">
     <x:border>
       <x:left>
         <x:color rgb="ff000000"/>
@@ -859,8 +956,50 @@
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -870,9 +1009,12 @@
     <x:xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="48">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+  <x:cellXfs count="53">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1396,8 +1538,43 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="41" fontId="0" fillId="7" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="3">
+  <x:cellStyles count="4">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
     <x:cellStyle name="백분율" xfId="1" builtinId="5"/>
     <x:cellStyle name="쉼표 [0]" xfId="2" builtinId="6"/>
@@ -1783,7 +1960,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1816,7 +1992,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1847,7 +2022,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1878,7 +2052,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1911,7 +2084,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1946,7 +2118,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1979,7 +2150,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2012,7 +2182,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2043,7 +2212,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2074,7 +2242,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2107,7 +2274,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2142,7 +2308,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2490,9 +2655,9 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:AG88"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <x:pane xSplit="2" ySplit="15" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
-      <x:selection pane="bottomRight" activeCell="J69" activeCellId="0" sqref="J69:J69"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <x:pane xSplit="2" ySplit="15" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <x:selection pane="bottomRight" activeCell="I74" activeCellId="0" sqref="I74:I74"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="17.39999999999999857891"/>
@@ -2551,7 +2716,7 @@
     <x:row r="2" spans="1:33" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
       <x:c r="B2" s="31" t="s">
-        <x:v>15</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C2" s="32"/>
       <x:c r="D2" s="32"/>
@@ -2623,7 +2788,7 @@
     <x:row r="4" spans="1:33" s="9" customFormat="1" ht="19.19999999999999928946">
       <x:c r="A4" s="11"/>
       <x:c r="B4" s="30" t="s">
-        <x:v>27</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C4" s="30"/>
       <x:c r="D4" s="30"/>
@@ -2644,7 +2809,7 @@
       <x:c r="S4" s="30"/>
       <x:c r="T4" s="11"/>
       <x:c r="U4" s="34" t="s">
-        <x:v>41</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="V4" s="34"/>
       <x:c r="W4" s="11"/>
@@ -2662,14 +2827,14 @@
     <x:row r="5" spans="1:33">
       <x:c r="A5" s="10"/>
       <x:c r="B5" s="35" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C5" s="37" t="s">
-        <x:v>76</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D5" s="38"/>
       <x:c r="E5" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F5" s="39"/>
       <x:c r="G5" s="39"/>
@@ -2677,29 +2842,29 @@
       <x:c r="I5" s="39"/>
       <x:c r="J5" s="38"/>
       <x:c r="K5" s="37" t="s">
-        <x:v>2</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="L5" s="39"/>
       <x:c r="M5" s="39"/>
       <x:c r="N5" s="39"/>
       <x:c r="O5" s="38"/>
       <x:c r="P5" s="35" t="s">
-        <x:v>11</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q5" s="37" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="R5" s="38"/>
       <x:c r="S5" s="35" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T5" s="10"/>
       <x:c r="U5" s="8" t="s">
-        <x:v>94</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="V5" s="7">
         <x:f>D10</x:f>
-        <x:v>4163947</x:v>
+        <x:v>4562347</x:v>
       </x:c>
       <x:c r="W5" s="10"/>
       <x:c r="X5" s="10"/>
@@ -2717,62 +2882,62 @@
       <x:c r="A6" s="10"/>
       <x:c r="B6" s="36"/>
       <x:c r="C6" s="8" t="s">
-        <x:v>1</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E6" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F6" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G6" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H6" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I6" s="8" t="s">
-        <x:v>50</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J6" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K6" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L6" s="8" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="M6" s="20" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="N6" s="20" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="M6" s="20" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="N6" s="20" t="s">
-        <x:v>104</x:v>
-      </x:c>
       <x:c r="O6" s="20" t="s">
-        <x:v>111</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P6" s="36"/>
       <x:c r="Q6" s="8" t="s">
-        <x:v>6</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="R6" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="S6" s="36"/>
       <x:c r="T6" s="10"/>
       <x:c r="U6" s="8" t="s">
-        <x:v>101</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="V6" s="7">
         <x:f>J10+O10+P10</x:f>
-        <x:v>2639990</x:v>
+        <x:v>2826520</x:v>
       </x:c>
       <x:c r="W6" s="10" t="s">
-        <x:v>98</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="X6" s="10"/>
       <x:c r="Y6" s="10"/>
@@ -2788,7 +2953,7 @@
     <x:row r="7" spans="1:33">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C7" s="6">
         <x:v>4000000</x:v>
@@ -2809,7 +2974,7 @@
         <x:v>400000</x:v>
       </x:c>
       <x:c r="I7" s="24" t="s">
-        <x:v>109</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J7" s="6">
         <x:v>100000</x:v>
@@ -2843,7 +3008,7 @@
       <x:c r="S7" s="6"/>
       <x:c r="T7" s="10"/>
       <x:c r="U7" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="V7" s="7">
         <x:f>R10</x:f>
@@ -2861,14 +3026,14 @@
       <x:c r="AF7" s="10"/>
       <x:c r="AG7" s="10"/>
     </x:row>
-    <x:row r="8" spans="1:33">
+    <x:row r="8" spans="1:33" ht="16.39999999999999857891">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C8" s="7">
-        <x:f>4129547+34400</x:f>
-        <x:v>4163947</x:v>
+        <x:f>4129547+34400+298400+100000</x:f>
+        <x:v>4562347</x:v>
       </x:c>
       <x:c r="D8" s="7">
         <x:v>0</x:v>
@@ -2877,23 +3042,23 @@
         <x:v>468220</x:v>
       </x:c>
       <x:c r="F8" s="7">
-        <x:f>+SUMIF($M$16:$M$72,F$6,$K$16:$K$72)</x:f>
+        <x:f>+SUMIF($M$16:$M$74,F$6,$K$16:$K$74)</x:f>
         <x:v>124930</x:v>
       </x:c>
       <x:c r="G8" s="7">
-        <x:f>SUMIF($M$16:$M$72,G$6,$K$16:$K$72)</x:f>
-        <x:v>444875</x:v>
+        <x:f>SUMIF($M$16:$M$74,G$6,$K$16:$K$74)</x:f>
+        <x:v>511655</x:v>
       </x:c>
       <x:c r="H8" s="7">
-        <x:f>SUMIF($M$16:$M$72,H$6,$K$16:$K$72)</x:f>
-        <x:v>691544</x:v>
+        <x:f>SUMIF($M$16:$M$74,H$6,$K$16:$K$74)</x:f>
+        <x:v>711294</x:v>
       </x:c>
       <x:c r="I8" s="7">
         <x:f>SUMIF($M$16:$M$72,I$6,$K$16:$K$72)</x:f>
         <x:v>0</x:v>
       </x:c>
       <x:c r="J8" s="7">
-        <x:f>SUMIF($M$16:$M$72,J$6,$K$16:$K$72)</x:f>
+        <x:f>SUMIF($M$16:$M$74,J$6,$K$16:$K$74)</x:f>
         <x:v>112200</x:v>
       </x:c>
       <x:c r="K8" s="6">
@@ -2907,7 +3072,7 @@
         <x:v>135931</x:v>
       </x:c>
       <x:c r="N8" s="6">
-        <x:v>300000</x:v>
+        <x:v>400000</x:v>
       </x:c>
       <x:c r="O8" s="6">
         <x:f>35000+8690</x:f>
@@ -2928,7 +3093,7 @@
       </x:c>
       <x:c r="T8" s="10"/>
       <x:c r="U8" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="V8" s="7">
         <x:v>200000</x:v>
@@ -2948,11 +3113,11 @@
     <x:row r="9" spans="1:33">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:f>C8-C7</x:f>
-        <x:v>163947</x:v>
+        <x:v>562347</x:v>
       </x:c>
       <x:c r="D9" s="7">
         <x:f t="shared" ref="D9:S9" si="0">D7-D8</x:f>
@@ -2968,11 +3133,11 @@
       </x:c>
       <x:c r="G9" s="27">
         <x:f t="shared" si="0"/>
-        <x:v>-44875</x:v>
+        <x:v>-111655</x:v>
       </x:c>
       <x:c r="H9" s="27">
         <x:f>H7-H8</x:f>
-        <x:v>-291544</x:v>
+        <x:v>-311294</x:v>
       </x:c>
       <x:c r="I9" s="7">
         <x:f>I8</x:f>
@@ -2996,7 +3161,7 @@
       </x:c>
       <x:c r="N9" s="7">
         <x:f t="shared" si="0"/>
-        <x:v>0</x:v>
+        <x:v>-100000</x:v>
       </x:c>
       <x:c r="O9" s="7">
         <x:f t="shared" si="0"/>
@@ -3020,14 +3185,14 @@
       </x:c>
       <x:c r="T9" s="10"/>
       <x:c r="U9" s="8" t="s">
-        <x:v>69</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V9" s="7">
         <x:f>V5-(V6+V7+V8)</x:f>
-        <x:v>223957</x:v>
+        <x:v>435827</x:v>
       </x:c>
       <x:c r="W9" s="13" t="s">
-        <x:v>30</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="X9" s="10"/>
       <x:c r="Y9" s="10"/>
@@ -3046,7 +3211,7 @@
       <x:c r="C10" s="17"/>
       <x:c r="D10" s="18">
         <x:f>C8+D8</x:f>
-        <x:v>4163947</x:v>
+        <x:v>4562347</x:v>
       </x:c>
       <x:c r="E10" s="10"/>
       <x:c r="F10" s="10"/>
@@ -3055,7 +3220,7 @@
       <x:c r="I10" s="10"/>
       <x:c r="J10" s="18">
         <x:f>SUM(E8:J8)</x:f>
-        <x:v>1841769</x:v>
+        <x:v>1928299</x:v>
       </x:c>
       <x:c r="K10" s="17"/>
       <x:c r="L10" s="17"/>
@@ -3063,7 +3228,7 @@
       <x:c r="N10" s="18"/>
       <x:c r="O10" s="18">
         <x:f>SUM(K8:O8)</x:f>
-        <x:v>738221</x:v>
+        <x:v>838221</x:v>
       </x:c>
       <x:c r="P10" s="18">
         <x:f>P8</x:f>
@@ -3080,14 +3245,14 @@
       </x:c>
       <x:c r="T10" s="10"/>
       <x:c r="U10" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="V10" s="23">
         <x:f>V6/V5</x:f>
-        <x:v>0.63401143194185705</x:v>
+        <x:v>0.61953200841584388</x:v>
       </x:c>
       <x:c r="W10" s="10" t="s">
-        <x:v>100</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="X10" s="10"/>
       <x:c r="Y10" s="10"/>
@@ -3122,11 +3287,11 @@
       <x:c r="S11" s="12"/>
       <x:c r="T11" s="10"/>
       <x:c r="U11" s="21" t="s">
-        <x:v>89</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="V11" s="23">
         <x:f>V7/V5</x:f>
-        <x:v>0.2641724306289201</x:v>
+        <x:v>0.24110397565112868</x:v>
       </x:c>
       <x:c r="W11" s="10" t="s">
         <x:v>112</x:v>
@@ -3145,7 +3310,7 @@
     <x:row r="12" spans="1:33">
       <x:c r="A12" s="10"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>83</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C12" s="7">
         <x:f>SUM(C16:C72)</x:f>
@@ -3204,14 +3369,14 @@
       <x:c r="S13" s="10"/>
       <x:c r="T13" s="10"/>
       <x:c r="U13" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="V13" s="19">
         <x:v>0.5</x:v>
       </x:c>
       <x:c r="W13" s="7">
         <x:f>V5*V13</x:f>
-        <x:v>2081973.5</x:v>
+        <x:v>2281173.5</x:v>
       </x:c>
       <x:c r="X13" s="10"/>
       <x:c r="Y13" s="10"/>
@@ -3227,19 +3392,19 @@
     <x:row r="14" spans="1:33" s="9" customFormat="1" ht="19.19999999999999928946">
       <x:c r="A14" s="11"/>
       <x:c r="B14" s="30" t="s">
-        <x:v>47</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C14" s="30"/>
       <x:c r="D14" s="30"/>
       <x:c r="E14" s="30"/>
       <x:c r="F14" s="17" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G14" s="17"/>
       <x:c r="H14" s="17"/>
       <x:c r="I14" s="11"/>
       <x:c r="J14" s="30" t="s">
-        <x:v>45</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K14" s="30"/>
       <x:c r="L14" s="30"/>
@@ -3252,14 +3417,14 @@
       <x:c r="S14" s="11"/>
       <x:c r="T14" s="11"/>
       <x:c r="U14" s="8" t="s">
-        <x:v>64</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="V14" s="19">
         <x:v>0.5</x:v>
       </x:c>
       <x:c r="W14" s="7">
         <x:f>V5*V14</x:f>
-        <x:v>2081973.5</x:v>
+        <x:v>2281173.5</x:v>
       </x:c>
       <x:c r="X14" s="11"/>
       <x:c r="Y14" s="11"/>
@@ -3275,32 +3440,32 @@
     <x:row r="15" spans="1:33">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>110</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F15" s="17"/>
       <x:c r="G15" s="17"/>
       <x:c r="H15" s="17"/>
       <x:c r="I15" s="10"/>
       <x:c r="J15" s="8" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="K15" s="8" t="s">
-        <x:v>110</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="L15" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="M15" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N15" s="10"/>
       <x:c r="O15" s="10"/>
@@ -3332,10 +3497,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="22"/>
@@ -3348,10 +3513,10 @@
         <x:v>22500</x:v>
       </x:c>
       <x:c r="L16" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M16" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N16" s="22"/>
       <x:c r="O16" s="22"/>
@@ -3383,10 +3548,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F17" s="17"/>
       <x:c r="G17" s="17"/>
@@ -3399,10 +3564,10 @@
         <x:v>1500</x:v>
       </x:c>
       <x:c r="L17" s="16" t="s">
-        <x:v>90</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M17" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N17" s="17"/>
       <x:c r="O17" s="17"/>
@@ -3434,10 +3599,10 @@
         <x:v>19920</x:v>
       </x:c>
       <x:c r="D18" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F18" s="17"/>
       <x:c r="G18" s="17"/>
@@ -3450,10 +3615,10 @@
         <x:v>10580</x:v>
       </x:c>
       <x:c r="L18" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M18" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N18" s="17"/>
       <x:c r="O18" s="17"/>
@@ -3485,10 +3650,10 @@
         <x:v>5400</x:v>
       </x:c>
       <x:c r="D19" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F19" s="17"/>
       <x:c r="G19" s="17"/>
@@ -3501,10 +3666,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="L19" s="16" t="s">
-        <x:v>74</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="M19" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N19" s="17"/>
       <x:c r="O19" s="17"/>
@@ -3536,10 +3701,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>58</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F20" s="17"/>
       <x:c r="G20" s="17"/>
@@ -3552,10 +3717,10 @@
         <x:v>6990</x:v>
       </x:c>
       <x:c r="L20" s="16" t="s">
-        <x:v>52</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M20" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N20" s="17"/>
       <x:c r="O20" s="17"/>
@@ -3587,10 +3752,10 @@
         <x:v>22000</x:v>
       </x:c>
       <x:c r="D21" s="16" t="s">
-        <x:v>103</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s">
-        <x:v>0</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F21" s="17"/>
       <x:c r="G21" s="17"/>
@@ -3603,10 +3768,10 @@
         <x:v>30919</x:v>
       </x:c>
       <x:c r="L21" s="16" t="s">
-        <x:v>72</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M21" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N21" s="17"/>
       <x:c r="O21" s="17"/>
@@ -3638,10 +3803,10 @@
         <x:v>23219</x:v>
       </x:c>
       <x:c r="D22" s="28" t="s">
-        <x:v>20</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E22" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F22" s="17"/>
       <x:c r="G22" s="17"/>
@@ -3657,7 +3822,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="M22" s="16" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N22" s="17"/>
       <x:c r="O22" s="17"/>
@@ -3689,10 +3854,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D23" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E23" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F23" s="17"/>
       <x:c r="G23" s="17"/>
@@ -3705,10 +3870,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="L23" s="16" t="s">
-        <x:v>3</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M23" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N23" s="17"/>
       <x:c r="O23" s="17"/>
@@ -3740,10 +3905,10 @@
         <x:v>30900</x:v>
       </x:c>
       <x:c r="D24" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E24" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F24" s="17"/>
       <x:c r="G24" s="17"/>
@@ -3756,10 +3921,10 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="L24" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="M24" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N24" s="17"/>
       <x:c r="O24" s="17"/>
@@ -3791,10 +3956,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D25" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F25" s="17"/>
       <x:c r="G25" s="17"/>
@@ -3807,10 +3972,10 @@
         <x:v>39535</x:v>
       </x:c>
       <x:c r="L25" s="16" t="s">
-        <x:v>29</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M25" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N25" s="17"/>
       <x:c r="O25" s="17"/>
@@ -3842,10 +4007,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D26" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F26" s="17"/>
       <x:c r="G26" s="17"/>
@@ -3858,10 +4023,10 @@
         <x:v>3150</x:v>
       </x:c>
       <x:c r="L26" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="M26" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N26" s="17"/>
       <x:c r="O26" s="17"/>
@@ -3893,10 +4058,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D27" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E27" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F27" s="17"/>
       <x:c r="G27" s="17"/>
@@ -3910,10 +4075,10 @@
         <x:v>41400</x:v>
       </x:c>
       <x:c r="L27" s="28" t="s">
-        <x:v>20</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M27" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N27" s="17"/>
       <x:c r="O27" s="17"/>
@@ -3945,10 +4110,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D28" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E28" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F28" s="17"/>
       <x:c r="G28" s="17"/>
@@ -3961,10 +4126,10 @@
         <x:v>5400</x:v>
       </x:c>
       <x:c r="L28" s="16" t="s">
-        <x:v>63</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M28" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N28" s="29"/>
       <x:c r="O28" s="17"/>
@@ -3996,10 +4161,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D29" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E29" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F29" s="17"/>
       <x:c r="G29" s="17"/>
@@ -4012,10 +4177,10 @@
         <x:v>11500</x:v>
       </x:c>
       <x:c r="L29" s="16" t="s">
-        <x:v>70</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="M29" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N29" s="17"/>
       <x:c r="O29" s="17"/>
@@ -4047,10 +4212,10 @@
         <x:v>8910</x:v>
       </x:c>
       <x:c r="D30" s="16" t="s">
-        <x:v>109</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E30" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F30" s="17"/>
       <x:c r="G30" s="17"/>
@@ -4063,10 +4228,10 @@
         <x:v>2980</x:v>
       </x:c>
       <x:c r="L30" s="16" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M30" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N30" s="17"/>
       <x:c r="O30" s="17"/>
@@ -4098,10 +4263,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D31" s="16" t="s">
-        <x:v>58</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E31" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F31" s="17"/>
       <x:c r="G31" s="17"/>
@@ -4114,10 +4279,10 @@
         <x:v>50100</x:v>
       </x:c>
       <x:c r="L31" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M31" s="16" t="s">
-        <x:v>43</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N31" s="17"/>
       <x:c r="O31" s="17"/>
@@ -4149,10 +4314,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D32" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E32" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F32" s="17"/>
       <x:c r="G32" s="17"/>
@@ -4165,10 +4330,10 @@
         <x:v>62100</x:v>
       </x:c>
       <x:c r="L32" s="16" t="s">
-        <x:v>62</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M32" s="16" t="s">
-        <x:v>43</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N32" s="17"/>
       <x:c r="O32" s="17"/>
@@ -4200,10 +4365,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D33" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E33" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F33" s="17"/>
       <x:c r="G33" s="17"/>
@@ -4216,10 +4381,10 @@
         <x:v>35560</x:v>
       </x:c>
       <x:c r="L33" s="16" t="s">
-        <x:v>72</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M33" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N33" s="17"/>
       <x:c r="O33" s="17"/>
@@ -4251,10 +4416,10 @@
         <x:v>2500</x:v>
       </x:c>
       <x:c r="D34" s="16" t="s">
-        <x:v>84</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E34" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F34" s="17"/>
       <x:c r="G34" s="17"/>
@@ -4267,10 +4432,10 @@
         <x:v>36000</x:v>
       </x:c>
       <x:c r="L34" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M34" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N34" s="17"/>
       <x:c r="O34" s="17"/>
@@ -4302,10 +4467,10 @@
         <x:v>36860</x:v>
       </x:c>
       <x:c r="D35" s="28" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E35" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F35" s="17"/>
       <x:c r="G35" s="17"/>
@@ -4318,10 +4483,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="L35" s="16" t="s">
-        <x:v>66</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="M35" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N35" s="17"/>
       <x:c r="O35" s="17"/>
@@ -4353,10 +4518,10 @@
         <x:v>10980</x:v>
       </x:c>
       <x:c r="D36" s="16" t="s">
-        <x:v>52</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E36" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F36" s="17"/>
       <x:c r="G36" s="17"/>
@@ -4369,10 +4534,10 @@
         <x:v>6600</x:v>
       </x:c>
       <x:c r="L36" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M36" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N36" s="17"/>
       <x:c r="O36" s="17"/>
@@ -4404,10 +4569,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D37" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E37" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F37" s="17"/>
       <x:c r="G37" s="17"/>
@@ -4420,10 +4585,10 @@
         <x:v>33000</x:v>
       </x:c>
       <x:c r="L37" s="16" t="s">
-        <x:v>44</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="M37" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N37" s="17"/>
       <x:c r="O37" s="17"/>
@@ -4455,10 +4620,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D38" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E38" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F38" s="17"/>
       <x:c r="G38" s="17"/>
@@ -4471,10 +4636,10 @@
         <x:v>82000</x:v>
       </x:c>
       <x:c r="L38" s="16" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M38" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N38" s="17"/>
       <x:c r="O38" s="17"/>
@@ -4515,10 +4680,10 @@
         <x:v>11850</x:v>
       </x:c>
       <x:c r="L39" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M39" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N39" s="17"/>
       <x:c r="O39" s="17"/>
@@ -4558,10 +4723,10 @@
         <x:v>27700</x:v>
       </x:c>
       <x:c r="L40" s="28" t="s">
-        <x:v>20</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M40" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N40" s="17"/>
       <x:c r="O40" s="17"/>
@@ -4601,10 +4766,10 @@
         <x:v>11400</x:v>
       </x:c>
       <x:c r="L41" s="16" t="s">
-        <x:v>46</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M41" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N41" s="17"/>
       <x:c r="O41" s="17"/>
@@ -4644,10 +4809,10 @@
         <x:v>7300</x:v>
       </x:c>
       <x:c r="L42" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M42" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N42" s="17"/>
       <x:c r="O42" s="17"/>
@@ -4687,10 +4852,10 @@
         <x:v>5990</x:v>
       </x:c>
       <x:c r="L43" s="16" t="s">
-        <x:v>84</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M43" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N43" s="17"/>
       <x:c r="O43" s="17"/>
@@ -4730,10 +4895,10 @@
         <x:v>8450</x:v>
       </x:c>
       <x:c r="L44" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M44" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N44" s="17"/>
       <x:c r="O44" s="17"/>
@@ -4773,10 +4938,10 @@
         <x:v>26600</x:v>
       </x:c>
       <x:c r="L45" s="28" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M45" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N45" s="17"/>
       <x:c r="O45" s="17"/>
@@ -4817,10 +4982,10 @@
         <x:v>100200</x:v>
       </x:c>
       <x:c r="L46" s="16" t="s">
-        <x:v>86</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="M46" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N46" s="17"/>
       <x:c r="O46" s="17"/>
@@ -4860,10 +5025,10 @@
         <x:v>40000</x:v>
       </x:c>
       <x:c r="L47" s="16" t="s">
-        <x:v>61</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="M47" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N47" s="17"/>
       <x:c r="O47" s="17"/>
@@ -4903,10 +5068,10 @@
         <x:v>26000</x:v>
       </x:c>
       <x:c r="L48" s="28" t="s">
-        <x:v>93</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M48" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N48" s="17"/>
       <x:c r="O48" s="17"/>
@@ -4946,10 +5111,10 @@
         <x:v>26400</x:v>
       </x:c>
       <x:c r="L49" s="28" t="s">
-        <x:v>39</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M49" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N49" s="17"/>
       <x:c r="O49" s="17"/>
@@ -4989,10 +5154,10 @@
         <x:v>16110</x:v>
       </x:c>
       <x:c r="L50" s="16" t="s">
-        <x:v>19</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M50" s="16" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N50" s="17"/>
       <x:c r="O50" s="17"/>
@@ -5032,10 +5197,10 @@
         <x:v>17500</x:v>
       </x:c>
       <x:c r="L51" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M51" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N51" s="17"/>
       <x:c r="O51" s="17"/>
@@ -5075,10 +5240,10 @@
         <x:v>6750</x:v>
       </x:c>
       <x:c r="L52" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M52" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N52" s="17"/>
       <x:c r="O52" s="17"/>
@@ -5118,10 +5283,10 @@
         <x:v>62000</x:v>
       </x:c>
       <x:c r="L53" s="16" t="s">
-        <x:v>24</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M53" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N53" s="17"/>
       <x:c r="O53" s="17"/>
@@ -5161,10 +5326,10 @@
         <x:v>14820</x:v>
       </x:c>
       <x:c r="L54" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="M54" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N54" s="17"/>
       <x:c r="O54" s="17"/>
@@ -5204,10 +5369,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="L55" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M55" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N55" s="17"/>
       <x:c r="O55" s="17"/>
@@ -5247,10 +5412,10 @@
         <x:v>16650</x:v>
       </x:c>
       <x:c r="L56" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M56" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N56" s="17"/>
       <x:c r="O56" s="17"/>
@@ -5291,10 +5456,10 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="L57" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="M57" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N57" s="17"/>
       <x:c r="O57" s="17"/>
@@ -5334,10 +5499,10 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="L58" s="16" t="s">
-        <x:v>8</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M58" s="16" t="s">
-        <x:v>57</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N58" s="17"/>
       <x:c r="O58" s="17"/>
@@ -5377,10 +5542,10 @@
         <x:v>6950</x:v>
       </x:c>
       <x:c r="L59" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M59" s="16" t="s">
-        <x:v>57</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N59" s="17"/>
       <x:c r="O59" s="17"/>
@@ -5420,10 +5585,10 @@
         <x:v>21700</x:v>
       </x:c>
       <x:c r="L60" s="28" t="s">
-        <x:v>96</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M60" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N60" s="17"/>
       <x:c r="O60" s="17"/>
@@ -5463,10 +5628,10 @@
         <x:v>18900</x:v>
       </x:c>
       <x:c r="L61" s="28" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M61" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N61" s="17"/>
       <x:c r="O61" s="17"/>
@@ -5506,10 +5671,10 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="L62" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M62" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N62" s="17"/>
       <x:c r="O62" s="17"/>
@@ -5549,10 +5714,10 @@
         <x:v>4350</x:v>
       </x:c>
       <x:c r="L63" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M63" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N63" s="17"/>
       <x:c r="O63" s="17"/>
@@ -5592,10 +5757,10 @@
         <x:v>26500</x:v>
       </x:c>
       <x:c r="L64" s="16" t="s">
-        <x:v>102</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M64" s="16" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N64" s="17"/>
       <x:c r="O64" s="17"/>
@@ -5618,7 +5783,7 @@
       <x:c r="AF64" s="10"/>
       <x:c r="AG64" s="10"/>
     </x:row>
-    <x:row r="65" spans="1:33">
+    <x:row r="65" spans="1:33" ht="16.39999999999999857891">
       <x:c r="A65" s="10"/>
       <x:c r="B65" s="26"/>
       <x:c r="C65" s="15"/>
@@ -5635,10 +5800,10 @@
         <x:v>10900</x:v>
       </x:c>
       <x:c r="L65" s="16" t="s">
-        <x:v>84</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M65" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N65" s="17"/>
       <x:c r="O65" s="17"/>
@@ -5678,10 +5843,10 @@
         <x:v>2985</x:v>
       </x:c>
       <x:c r="L66" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="M66" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N66" s="17"/>
       <x:c r="O66" s="17"/>
@@ -5721,10 +5886,10 @@
         <x:v>104960</x:v>
       </x:c>
       <x:c r="L67" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="M67" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N67" s="17"/>
       <x:c r="O67" s="17"/>
@@ -5764,10 +5929,10 @@
         <x:v>106800</x:v>
       </x:c>
       <x:c r="L68" s="16" t="s">
-        <x:v>42</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="M68" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N68" s="17"/>
       <x:c r="O68" s="17"/>
@@ -5790,7 +5955,7 @@
       <x:c r="AF68" s="10"/>
       <x:c r="AG68" s="10"/>
     </x:row>
-    <x:row r="69" spans="1:33">
+    <x:row r="69" spans="1:33" ht="16.39999999999999857891">
       <x:c r="A69" s="10"/>
       <x:c r="B69" s="26"/>
       <x:c r="C69" s="15"/>
@@ -5807,10 +5972,10 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="L69" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M69" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N69" s="17"/>
       <x:c r="O69" s="17"/>
@@ -5843,12 +6008,18 @@
       <x:c r="G70" s="17"/>
       <x:c r="H70" s="17"/>
       <x:c r="I70" s="10"/>
-      <x:c r="J70" s="26"/>
-      <x:c r="K70" s="15">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L70" s="16"/>
-      <x:c r="M70" s="16"/>
+      <x:c r="J70" s="48">
+        <x:v>45325</x:v>
+      </x:c>
+      <x:c r="K70" s="49">
+        <x:v>21500</x:v>
+      </x:c>
+      <x:c r="L70" s="16" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M70" s="16" t="s">
+        <x:v>99</x:v>
+      </x:c>
       <x:c r="N70" s="17"/>
       <x:c r="O70" s="17"/>
       <x:c r="P70" s="10"/>
@@ -5870,7 +6041,7 @@
       <x:c r="AF70" s="10"/>
       <x:c r="AG70" s="10"/>
     </x:row>
-    <x:row r="71" spans="1:33">
+    <x:row r="71" spans="1:33" ht="16.39999999999999857891">
       <x:c r="A71" s="10"/>
       <x:c r="B71" s="26"/>
       <x:c r="C71" s="15"/>
@@ -5880,10 +6051,19 @@
       <x:c r="G71" s="17"/>
       <x:c r="H71" s="17"/>
       <x:c r="I71" s="10"/>
-      <x:c r="J71" s="26"/>
-      <x:c r="K71" s="15"/>
-      <x:c r="L71" s="16"/>
-      <x:c r="M71" s="16"/>
+      <x:c r="J71" s="48">
+        <x:v>45325</x:v>
+      </x:c>
+      <x:c r="K71" s="49">
+        <x:f>17400+8980</x:f>
+        <x:v>26380</x:v>
+      </x:c>
+      <x:c r="L71" s="50" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="M71" s="51" t="s">
+        <x:v>99</x:v>
+      </x:c>
       <x:c r="N71" s="17"/>
       <x:c r="O71" s="17"/>
       <x:c r="P71" s="10"/>
@@ -5905,7 +6085,7 @@
       <x:c r="AF71" s="10"/>
       <x:c r="AG71" s="10"/>
     </x:row>
-    <x:row r="72" spans="1:33">
+    <x:row r="72" spans="1:33" ht="16.39999999999999857891">
       <x:c r="A72" s="10"/>
       <x:c r="B72" s="26"/>
       <x:c r="C72" s="15"/>
@@ -5915,10 +6095,18 @@
       <x:c r="G72" s="17"/>
       <x:c r="H72" s="17"/>
       <x:c r="I72" s="10"/>
-      <x:c r="J72" s="26"/>
-      <x:c r="K72" s="15"/>
-      <x:c r="L72" s="16"/>
-      <x:c r="M72" s="16"/>
+      <x:c r="J72" s="48">
+        <x:v>45326</x:v>
+      </x:c>
+      <x:c r="K72" s="49">
+        <x:v>6250</x:v>
+      </x:c>
+      <x:c r="L72" s="16" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="M72" s="16" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="N72" s="17"/>
       <x:c r="O72" s="17"/>
       <x:c r="P72" s="10"/>
@@ -5960,7 +6148,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="M73" s="16" t="s">
-        <x:v>109</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N73" s="10"/>
       <x:c r="O73" s="10"/>
@@ -5983,7 +6171,7 @@
       <x:c r="AF73" s="10"/>
       <x:c r="AG73" s="10"/>
     </x:row>
-    <x:row r="74" spans="1:33">
+    <x:row r="74" spans="1:33" ht="16.39999999999999857891">
       <x:c r="A74" s="10"/>
       <x:c r="B74" s="10"/>
       <x:c r="C74" s="10"/>
@@ -5993,10 +6181,18 @@
       <x:c r="G74" s="10"/>
       <x:c r="H74" s="10"/>
       <x:c r="I74" s="10"/>
-      <x:c r="J74" s="10"/>
-      <x:c r="K74" s="10"/>
-      <x:c r="L74" s="10"/>
-      <x:c r="M74" s="10"/>
+      <x:c r="J74" s="48">
+        <x:v>45327</x:v>
+      </x:c>
+      <x:c r="K74" s="52">
+        <x:v>13500</x:v>
+      </x:c>
+      <x:c r="L74" s="51" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="M74" s="51" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="N74" s="10"/>
       <x:c r="O74" s="10"/>
       <x:c r="P74" s="10"/>
@@ -6549,7 +6745,7 @@
       <x:formula>$V$13</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -6559,7 +6755,7 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:W15"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <x:selection activeCell="B2" activeCellId="0" sqref="B2:L2"/>
     </x:sheetView>
   </x:sheetViews>
@@ -6603,7 +6799,7 @@
     <x:row r="2" spans="1:22" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
       <x:c r="B2" s="31" t="s">
-        <x:v>40</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C2" s="32"/>
       <x:c r="D2" s="32"/>
@@ -6647,7 +6843,7 @@
     <x:row r="4" spans="1:22" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
       <x:c r="B4" s="30" t="s">
-        <x:v>27</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C4" s="30"/>
       <x:c r="D4" s="30"/>
@@ -6660,13 +6856,13 @@
       <x:c r="K4" s="30"/>
       <x:c r="L4" s="30"/>
       <x:c r="N4" s="34" t="s">
-        <x:v>41</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="O4" s="34"/>
       <x:c r="P4" s="11"/>
       <x:c r="Q4" s="11"/>
       <x:c r="R4" s="34" t="s">
-        <x:v>105</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="S4" s="34"/>
       <x:c r="T4" s="11"/>
@@ -6676,30 +6872,30 @@
     <x:row r="5" spans="1:22">
       <x:c r="A5" s="10"/>
       <x:c r="B5" s="35" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C5" s="37" t="s">
-        <x:v>91</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D5" s="38"/>
       <x:c r="E5" s="37" t="s">
-        <x:v>99</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F5" s="38"/>
       <x:c r="G5" s="37" t="s">
-        <x:v>13</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H5" s="38"/>
       <x:c r="I5" s="37" t="s">
-        <x:v>6</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="J5" s="38"/>
       <x:c r="K5" s="37" t="s">
-        <x:v>92</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="L5" s="39"/>
       <x:c r="N5" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O5" s="7">
         <x:f>SUM(C7:L7)</x:f>
@@ -6708,7 +6904,7 @@
       <x:c r="P5" s="10"/>
       <x:c r="Q5" s="10"/>
       <x:c r="R5" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="S5" s="7">
         <x:v>0</x:v>
@@ -6721,29 +6917,29 @@
       <x:c r="A6" s="10"/>
       <x:c r="B6" s="43"/>
       <x:c r="C6" s="46" t="s">
-        <x:v>79</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D6" s="47"/>
       <x:c r="E6" s="44" t="s">
-        <x:v>79</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F6" s="45"/>
       <x:c r="G6" s="44" t="s">
-        <x:v>38</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H6" s="45"/>
       <x:c r="I6" s="46" t="s">
-        <x:v>5</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J6" s="47"/>
       <x:c r="K6" s="25" t="s">
-        <x:v>68</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L6" s="25" t="s">
-        <x:v>71</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="N6" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O6" s="7">
         <x:f>SUM(C9:H9)</x:f>
@@ -6760,7 +6956,7 @@
     <x:row r="7" spans="1:22">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>110</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C7" s="40"/>
       <x:c r="D7" s="40"/>
@@ -6796,7 +6992,7 @@
     <x:row r="8" spans="1:22" ht="17.80000000000000071054">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C8" s="40"/>
       <x:c r="D8" s="40"/>
@@ -6820,7 +7016,7 @@
       </x:c>
       <x:c r="M8" s="10"/>
       <x:c r="N8" s="34" t="s">
-        <x:v>12</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="O8" s="34"/>
       <x:c r="P8" s="10"/>
@@ -6834,7 +7030,7 @@
     <x:row r="9" spans="1:22">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C9" s="40">
         <x:f>C8*0</x:f>
@@ -6866,7 +7062,7 @@
       </x:c>
       <x:c r="M9" s="10"/>
       <x:c r="N9" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O9" s="7">
         <x:f>O5-G7</x:f>
@@ -6921,7 +7117,7 @@
     <x:mergeCell ref="G5:H5"/>
     <x:mergeCell ref="R4:S4"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -6992,7 +7188,7 @@
     <x:row r="2" spans="1:33" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
       <x:c r="B2" s="31" t="s">
-        <x:v>60</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C2" s="32"/>
       <x:c r="D2" s="32"/>
@@ -7064,7 +7260,7 @@
     <x:row r="4" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
       <x:c r="B4" s="30" t="s">
-        <x:v>27</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C4" s="30"/>
       <x:c r="D4" s="30"/>
@@ -7085,7 +7281,7 @@
       <x:c r="S4" s="30"/>
       <x:c r="T4" s="11"/>
       <x:c r="U4" s="34" t="s">
-        <x:v>41</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="V4" s="34"/>
       <x:c r="W4" s="11"/>
@@ -7103,14 +7299,14 @@
     <x:row r="5" spans="1:33">
       <x:c r="A5" s="10"/>
       <x:c r="B5" s="35" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C5" s="37" t="s">
-        <x:v>76</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D5" s="38"/>
       <x:c r="E5" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F5" s="39"/>
       <x:c r="G5" s="39"/>
@@ -7118,25 +7314,25 @@
       <x:c r="I5" s="39"/>
       <x:c r="J5" s="38"/>
       <x:c r="K5" s="37" t="s">
-        <x:v>2</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="L5" s="39"/>
       <x:c r="M5" s="39"/>
       <x:c r="N5" s="39"/>
       <x:c r="O5" s="38"/>
       <x:c r="P5" s="35" t="s">
-        <x:v>11</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q5" s="37" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="R5" s="38"/>
       <x:c r="S5" s="35" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T5" s="10"/>
       <x:c r="U5" s="8" t="s">
-        <x:v>94</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="V5" s="7">
         <x:f>D10</x:f>
@@ -7158,62 +7354,62 @@
       <x:c r="A6" s="10"/>
       <x:c r="B6" s="36"/>
       <x:c r="C6" s="8" t="s">
-        <x:v>1</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E6" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F6" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G6" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H6" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I6" s="8" t="s">
-        <x:v>50</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J6" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K6" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L6" s="8" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="M6" s="20" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="N6" s="20" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="M6" s="20" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="N6" s="20" t="s">
-        <x:v>104</x:v>
-      </x:c>
       <x:c r="O6" s="20" t="s">
-        <x:v>111</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P6" s="36"/>
       <x:c r="Q6" s="8" t="s">
-        <x:v>6</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="R6" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="S6" s="36"/>
       <x:c r="T6" s="10"/>
       <x:c r="U6" s="8" t="s">
-        <x:v>101</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="V6" s="7">
         <x:f>J10+O10+P10</x:f>
         <x:v>1252910</x:v>
       </x:c>
       <x:c r="W6" s="10" t="s">
-        <x:v>98</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="X6" s="10"/>
       <x:c r="Y6" s="10"/>
@@ -7229,7 +7425,7 @@
     <x:row r="7" spans="1:33">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C7" s="6">
         <x:v>0</x:v>
@@ -7250,7 +7446,7 @@
         <x:v>400000</x:v>
       </x:c>
       <x:c r="I7" s="24" t="s">
-        <x:v>109</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J7" s="6">
         <x:v>100000</x:v>
@@ -7284,7 +7480,7 @@
       <x:c r="S7" s="6"/>
       <x:c r="T7" s="10"/>
       <x:c r="U7" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="V7" s="7">
         <x:f>R10</x:f>
@@ -7305,7 +7501,7 @@
     <x:row r="8" spans="1:33">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C8" s="7">
         <x:v>0</x:v>
@@ -7369,7 +7565,7 @@
       </x:c>
       <x:c r="T8" s="10"/>
       <x:c r="U8" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="V8" s="7">
         <x:v>200000</x:v>
@@ -7389,7 +7585,7 @@
     <x:row r="9" spans="1:33">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:f t="shared" ref="C9:S9" si="0">C7-C8</x:f>
@@ -7452,14 +7648,14 @@
       </x:c>
       <x:c r="T9" s="10"/>
       <x:c r="U9" s="8" t="s">
-        <x:v>69</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V9" s="7">
         <x:f>V5-(V6+V7+V8)</x:f>
         <x:v>-3352910</x:v>
       </x:c>
       <x:c r="W9" s="13" t="s">
-        <x:v>30</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="X9" s="10"/>
       <x:c r="Y9" s="10"/>
@@ -7512,14 +7708,14 @@
       </x:c>
       <x:c r="T10" s="10"/>
       <x:c r="U10" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="V10" s="23" t="e">
         <x:f>V6/V5</x:f>
         <x:v>#DIV/0!</x:v>
       </x:c>
       <x:c r="W10" s="10" t="s">
-        <x:v>100</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="X10" s="10"/>
       <x:c r="Y10" s="10"/>
@@ -7554,7 +7750,7 @@
       <x:c r="S11" s="12"/>
       <x:c r="T11" s="10"/>
       <x:c r="U11" s="21" t="s">
-        <x:v>89</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="V11" s="23" t="e">
         <x:f>V7/V5</x:f>
@@ -7577,7 +7773,7 @@
     <x:row r="12" spans="1:33">
       <x:c r="A12" s="10"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>83</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C12" s="7">
         <x:f>SUM(C16:C33)</x:f>
@@ -7636,7 +7832,7 @@
       <x:c r="S13" s="10"/>
       <x:c r="T13" s="10"/>
       <x:c r="U13" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="V13" s="19">
         <x:v>0.5</x:v>
@@ -7659,19 +7855,19 @@
     <x:row r="14" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A14" s="11"/>
       <x:c r="B14" s="30" t="s">
-        <x:v>47</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C14" s="30"/>
       <x:c r="D14" s="30"/>
       <x:c r="E14" s="30"/>
       <x:c r="F14" s="17" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G14" s="17"/>
       <x:c r="H14" s="17"/>
       <x:c r="I14" s="11"/>
       <x:c r="J14" s="30" t="s">
-        <x:v>45</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K14" s="30"/>
       <x:c r="L14" s="30"/>
@@ -7684,7 +7880,7 @@
       <x:c r="S14" s="11"/>
       <x:c r="T14" s="11"/>
       <x:c r="U14" s="8" t="s">
-        <x:v>64</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="V14" s="19">
         <x:v>0.5</x:v>
@@ -7707,32 +7903,32 @@
     <x:row r="15" spans="1:33">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>110</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F15" s="17"/>
       <x:c r="G15" s="17"/>
       <x:c r="H15" s="17"/>
       <x:c r="I15" s="10"/>
       <x:c r="J15" s="8" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="K15" s="8" t="s">
-        <x:v>110</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="L15" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="M15" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N15" s="10"/>
       <x:c r="O15" s="10"/>
@@ -7764,10 +7960,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="22"/>
@@ -7809,10 +8005,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F17" s="17"/>
       <x:c r="G17" s="17"/>
@@ -7852,10 +8048,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D18" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F18" s="17"/>
       <x:c r="G18" s="17"/>
@@ -7895,10 +8091,10 @@
         <x:v>1200</x:v>
       </x:c>
       <x:c r="D19" s="16" t="s">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F19" s="17"/>
       <x:c r="G19" s="17"/>
@@ -7938,10 +8134,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F20" s="17"/>
       <x:c r="G20" s="17"/>
@@ -7981,10 +8177,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="D21" s="16" t="s">
-        <x:v>84</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F21" s="17"/>
       <x:c r="G21" s="17"/>
@@ -9036,7 +9232,7 @@
       <x:formula>$V$13</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -9046,7 +9242,7 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:Z11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <x:selection activeCell="B2" activeCellId="0" sqref="B2:L2"/>
     </x:sheetView>
   </x:sheetViews>
@@ -9096,7 +9292,7 @@
     <x:row r="2" spans="1:26" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
       <x:c r="B2" s="31" t="s">
-        <x:v>49</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="32"/>
       <x:c r="D2" s="32"/>
@@ -9154,7 +9350,7 @@
     <x:row r="4" spans="1:26" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
       <x:c r="B4" s="30" t="s">
-        <x:v>27</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C4" s="30"/>
       <x:c r="D4" s="30"/>
@@ -9168,11 +9364,11 @@
       <x:c r="L4" s="30"/>
       <x:c r="M4" s="11"/>
       <x:c r="N4" s="34" t="s">
-        <x:v>41</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="O4" s="34"/>
       <x:c r="Q4" s="34" t="s">
-        <x:v>105</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="R4" s="34"/>
       <x:c r="S4" s="11"/>
@@ -9185,38 +9381,38 @@
     <x:row r="5" spans="1:26">
       <x:c r="A5" s="10"/>
       <x:c r="B5" s="35" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C5" s="37" t="s">
-        <x:v>91</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D5" s="38"/>
       <x:c r="E5" s="37" t="s">
-        <x:v>99</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F5" s="38"/>
       <x:c r="G5" s="37" t="s">
-        <x:v>13</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H5" s="38"/>
       <x:c r="I5" s="37" t="s">
-        <x:v>6</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="J5" s="38"/>
       <x:c r="K5" s="37" t="s">
-        <x:v>92</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="L5" s="39"/>
       <x:c r="M5" s="10"/>
       <x:c r="N5" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O5" s="7">
         <x:f>R5+SUM(C8:L8)</x:f>
         <x:v>48800000</x:v>
       </x:c>
       <x:c r="Q5" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="R5" s="7">
         <x:f>'1월(자산)'!O5</x:f>
@@ -9233,30 +9429,30 @@
       <x:c r="A6" s="10"/>
       <x:c r="B6" s="43"/>
       <x:c r="C6" s="46" t="s">
-        <x:v>79</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D6" s="47"/>
       <x:c r="E6" s="44" t="s">
-        <x:v>79</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F6" s="45"/>
       <x:c r="G6" s="44" t="s">
-        <x:v>38</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H6" s="45"/>
       <x:c r="I6" s="46" t="s">
-        <x:v>5</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J6" s="47"/>
       <x:c r="K6" s="25" t="s">
-        <x:v>68</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L6" s="25" t="s">
-        <x:v>71</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M6" s="10"/>
       <x:c r="N6" s="8" t="s">
-        <x:v>7</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="O6" s="7">
         <x:f>SUM(C9:L9)</x:f>
@@ -9275,7 +9471,7 @@
     <x:row r="7" spans="1:26">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>110</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C7" s="40">
         <x:v>0</x:v>
@@ -9320,7 +9516,7 @@
     <x:row r="8" spans="1:26" ht="17.80000000000000071054">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C8" s="40">
         <x:v>0</x:v>
@@ -9346,7 +9542,7 @@
       </x:c>
       <x:c r="M8" s="10"/>
       <x:c r="N8" s="34" t="s">
-        <x:v>12</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="O8" s="34"/>
       <x:c r="P8" s="10"/>
@@ -9364,7 +9560,7 @@
     <x:row r="9" spans="1:26">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C9" s="40">
         <x:f>C8*0</x:f>
@@ -9396,7 +9592,7 @@
       </x:c>
       <x:c r="M9" s="10"/>
       <x:c r="N9" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O9" s="7">
         <x:f>O5-G7</x:f>
@@ -9475,7 +9671,7 @@
     <x:mergeCell ref="C6:D6"/>
     <x:mergeCell ref="I6:J6"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.65535"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="1월" sheetId="1" r:id="rId4"/>
@@ -23,351 +23,354 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="115">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="116">
+  <x:si>
+    <x:t>수익률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명절선물비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김밥천국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채권</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점심</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 2월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 2월 송민영의 가계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통신비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점심(데이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가슴패치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시가스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본죽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출계 = 변동지출 + 고정지출 + 비상금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이스크림점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>닭가슴살</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용돈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교통후불</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노래방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출목표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청약통장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주거비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고정수입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월 결산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축률 = 저축계/소득계*100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건강검진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커피</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈플러스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뽀미약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생활비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교통비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가용자산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빨래</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소득</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잔액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액조정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변동지출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피부과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축목표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현금사용실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드값(전월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류구입비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(치킨)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(데이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올리브영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈모약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정기예금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출률 = 지출계/소득계*100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소득계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이소 및 마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 1월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현금 흐름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타(데이트통장+유투브 구독)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해든마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비상금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>택시비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단백질바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고정지출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드값(금월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주택관리비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 1월 송민영의 가계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>`</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변동수입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생활비(식비)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잔액 = 소득계 - (지출계+저축계+투자계)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국민은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드결제료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돈까스</x:t>
+  </x:si>
   <x:si>
     <x:t>피트니스</x:t>
   </x:si>
   <x:si>
-    <x:t>수익률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현금사용실적</x:t>
+    <x:t>카드사용실적</x:t>
   </x:si>
   <x:si>
     <x:t>역귀성</x:t>
   </x:si>
   <x:si>
-    <x:t>주유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소득계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(데이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류구입비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 2월 송민영의 자본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액조정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이스크림점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드결제료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생활비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단백질바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변동지출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>커트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주거비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노래방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주차비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주택관리비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국민은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채권</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABC마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교통비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본죽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해든마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드사용실적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돈까스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈플러스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>커피</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점심(데이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현금 흐름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출률</x:t>
-  </x:si>
-  <x:si>
     <x:t>셍활비(식비)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변동수입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>닭가슴살</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고정수입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잔액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김밥천국</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명절선물비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시가스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소득</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통신비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건강검진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월 결산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>`</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드값(금월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고정지출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가용자산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수영비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타(데이트통장+유투브 구독)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(치킨)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점심</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>택시비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이소 및 마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올리브영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정기예금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비상금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출률 = 지출계/소득계*100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빨래</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드값(전월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 1월 송민영의 가계부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뽀미약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청약통장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생활비(식비)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피부과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잔액 = 소득계 - (지출계+저축계+투자계)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출계 = 변동지출 + 고정지출 + 비상금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>용돈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 2월 송민영의 가계부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈모약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 1월 송민영의 자본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축률 = 저축계/소득계*100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교통후불</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적금</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -380,148 +383,42 @@
     <x:numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </x:numFmts>
   <x:fonts count="12">
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -664,18 +561,18 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffffff"/>
+        <x:bgColor rgb="ffffffff"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
         <x:fgColor rgb="ff000000"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffffffff"/>
-        <x:bgColor rgb="ffffffff"/>
-      </x:patternFill>
-    </x:fill>
   </x:fills>
-  <x:borders count="23">
+  <x:borders count="24">
     <x:border>
       <x:left>
         <x:color rgb="ff000000"/>
@@ -757,6 +654,48 @@
         <x:color rgb="ffd9d9d9"/>
       </x:top>
       <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -957,7 +896,7 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="thin">
+      <x:left>
         <x:color rgb="ff000000"/>
       </x:left>
       <x:right style="thin">
@@ -968,34 +907,6 @@
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color auto="1"/>
       </x:bottom>
     </x:border>
   </x:borders>
@@ -1013,7 +924,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="53">
+  <x:cellXfs count="60">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1306,65 +1217,117 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="41" fontId="0" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="41" fontId="0" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1397,39 +1360,39 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1449,65 +1412,26 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1538,39 +1462,67 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="41" fontId="0" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="41" fontId="0" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="7" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="41" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="41" fontId="0" fillId="6" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="41" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -1960,6 +1912,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1992,6 +1945,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2022,6 +1976,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2052,6 +2007,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2084,6 +2040,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2118,6 +2075,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2150,6 +2108,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2182,6 +2141,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2212,6 +2172,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2242,6 +2203,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2274,6 +2236,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2308,6 +2271,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2653,11 +2617,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:AG88"/>
+  <x:dimension ref="A1:AG92"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <x:pane xSplit="2" ySplit="15" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
-      <x:selection pane="bottomRight" activeCell="I74" activeCellId="0" sqref="I74:I74"/>
+    <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <x:pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <x:selection pane="bottomRight" activeCell="I32" activeCellId="0" sqref="I32:I32"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="17.39999999999999857891"/>
@@ -2715,29 +2679,29 @@
     </x:row>
     <x:row r="2" spans="1:33" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="31" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C2" s="32"/>
-      <x:c r="D2" s="32"/>
-      <x:c r="E2" s="32"/>
-      <x:c r="F2" s="32"/>
-      <x:c r="G2" s="32"/>
-      <x:c r="H2" s="32"/>
-      <x:c r="I2" s="32"/>
-      <x:c r="J2" s="32"/>
-      <x:c r="K2" s="32"/>
-      <x:c r="L2" s="32"/>
-      <x:c r="M2" s="32"/>
-      <x:c r="N2" s="32"/>
-      <x:c r="O2" s="32"/>
-      <x:c r="P2" s="32"/>
-      <x:c r="Q2" s="32"/>
-      <x:c r="R2" s="32"/>
-      <x:c r="S2" s="32"/>
-      <x:c r="T2" s="32"/>
-      <x:c r="U2" s="32"/>
-      <x:c r="V2" s="33"/>
+      <x:c r="B2" s="35" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C2" s="36"/>
+      <x:c r="D2" s="36"/>
+      <x:c r="E2" s="36"/>
+      <x:c r="F2" s="36"/>
+      <x:c r="G2" s="36"/>
+      <x:c r="H2" s="36"/>
+      <x:c r="I2" s="36"/>
+      <x:c r="J2" s="36"/>
+      <x:c r="K2" s="36"/>
+      <x:c r="L2" s="36"/>
+      <x:c r="M2" s="36"/>
+      <x:c r="N2" s="36"/>
+      <x:c r="O2" s="36"/>
+      <x:c r="P2" s="36"/>
+      <x:c r="Q2" s="36"/>
+      <x:c r="R2" s="36"/>
+      <x:c r="S2" s="36"/>
+      <x:c r="T2" s="36"/>
+      <x:c r="U2" s="36"/>
+      <x:c r="V2" s="37"/>
       <x:c r="W2" s="10"/>
       <x:c r="X2" s="10"/>
       <x:c r="Y2" s="10"/>
@@ -2787,31 +2751,31 @@
     </x:row>
     <x:row r="4" spans="1:33" s="9" customFormat="1" ht="19.19999999999999928946">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="30" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C4" s="30"/>
-      <x:c r="D4" s="30"/>
-      <x:c r="E4" s="30"/>
-      <x:c r="F4" s="30"/>
-      <x:c r="G4" s="30"/>
-      <x:c r="H4" s="30"/>
-      <x:c r="I4" s="30"/>
-      <x:c r="J4" s="30"/>
-      <x:c r="K4" s="30"/>
-      <x:c r="L4" s="30"/>
-      <x:c r="M4" s="30"/>
-      <x:c r="N4" s="30"/>
-      <x:c r="O4" s="30"/>
-      <x:c r="P4" s="30"/>
-      <x:c r="Q4" s="30"/>
-      <x:c r="R4" s="30"/>
-      <x:c r="S4" s="30"/>
+      <x:c r="B4" s="34" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C4" s="34"/>
+      <x:c r="D4" s="34"/>
+      <x:c r="E4" s="34"/>
+      <x:c r="F4" s="34"/>
+      <x:c r="G4" s="34"/>
+      <x:c r="H4" s="34"/>
+      <x:c r="I4" s="34"/>
+      <x:c r="J4" s="34"/>
+      <x:c r="K4" s="34"/>
+      <x:c r="L4" s="34"/>
+      <x:c r="M4" s="34"/>
+      <x:c r="N4" s="34"/>
+      <x:c r="O4" s="34"/>
+      <x:c r="P4" s="34"/>
+      <x:c r="Q4" s="34"/>
+      <x:c r="R4" s="34"/>
+      <x:c r="S4" s="34"/>
       <x:c r="T4" s="11"/>
-      <x:c r="U4" s="34" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="V4" s="34"/>
+      <x:c r="U4" s="38" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="V4" s="38"/>
       <x:c r="W4" s="11"/>
       <x:c r="X4" s="11"/>
       <x:c r="Y4" s="11"/>
@@ -2826,41 +2790,41 @@
     </x:row>
     <x:row r="5" spans="1:33">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="35" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C5" s="37" t="s">
+      <x:c r="B5" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C5" s="41" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="D5" s="38"/>
-      <x:c r="E5" s="37" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F5" s="39"/>
-      <x:c r="G5" s="39"/>
-      <x:c r="H5" s="39"/>
-      <x:c r="I5" s="39"/>
-      <x:c r="J5" s="38"/>
-      <x:c r="K5" s="37" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="L5" s="39"/>
-      <x:c r="M5" s="39"/>
-      <x:c r="N5" s="39"/>
-      <x:c r="O5" s="38"/>
-      <x:c r="P5" s="35" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="Q5" s="37" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="R5" s="38"/>
-      <x:c r="S5" s="35" t="s">
-        <x:v>34</x:v>
+      <x:c r="D5" s="42"/>
+      <x:c r="E5" s="41" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F5" s="43"/>
+      <x:c r="G5" s="43"/>
+      <x:c r="H5" s="43"/>
+      <x:c r="I5" s="43"/>
+      <x:c r="J5" s="42"/>
+      <x:c r="K5" s="41" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="L5" s="43"/>
+      <x:c r="M5" s="43"/>
+      <x:c r="N5" s="43"/>
+      <x:c r="O5" s="42"/>
+      <x:c r="P5" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="Q5" s="41" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R5" s="42"/>
+      <x:c r="S5" s="39" t="s">
+        <x:v>67</x:v>
       </x:c>
       <x:c r="T5" s="10"/>
       <x:c r="U5" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="V5" s="7">
         <x:f>D10</x:f>
@@ -2880,64 +2844,64 @@
     </x:row>
     <x:row r="6" spans="1:33">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="36"/>
+      <x:c r="B6" s="40"/>
       <x:c r="C6" s="8" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D6" s="8" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E6" s="8" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F6" s="8" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G6" s="8" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H6" s="8" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D6" s="8" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="E6" s="8" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="F6" s="8" t="s">
+      <x:c r="I6" s="8" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J6" s="8" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="K6" s="8" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="G6" s="8" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="H6" s="8" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I6" s="8" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="J6" s="8" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="K6" s="8" t="s">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="L6" s="8" t="s">
-        <x:v>60</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M6" s="20" t="s">
-        <x:v>7</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N6" s="20" t="s">
-        <x:v>106</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="O6" s="20" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="P6" s="36"/>
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="P6" s="40"/>
       <x:c r="Q6" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="R6" s="8" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="S6" s="36"/>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="S6" s="40"/>
       <x:c r="T6" s="10"/>
       <x:c r="U6" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="V6" s="7">
         <x:f>J10+O10+P10</x:f>
-        <x:v>2826520</x:v>
+        <x:v>2889406</x:v>
       </x:c>
       <x:c r="W6" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="X6" s="10"/>
       <x:c r="Y6" s="10"/>
@@ -2950,10 +2914,10 @@
       <x:c r="AF6" s="10"/>
       <x:c r="AG6" s="10"/>
     </x:row>
-    <x:row r="7" spans="1:33">
+    <x:row r="7" spans="1:33" ht="16.39999999999999857891">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C7" s="6">
         <x:v>4000000</x:v>
@@ -2974,7 +2938,7 @@
         <x:v>400000</x:v>
       </x:c>
       <x:c r="I7" s="24" t="s">
-        <x:v>40</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J7" s="6">
         <x:v>100000</x:v>
@@ -3008,7 +2972,7 @@
       <x:c r="S7" s="6"/>
       <x:c r="T7" s="10"/>
       <x:c r="U7" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="V7" s="7">
         <x:f>R10</x:f>
@@ -3029,7 +2993,7 @@
     <x:row r="8" spans="1:33" ht="16.39999999999999857891">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>89</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C8" s="7">
         <x:f>4129547+34400+298400+100000</x:f>
@@ -3042,23 +3006,23 @@
         <x:v>468220</x:v>
       </x:c>
       <x:c r="F8" s="7">
-        <x:f>+SUMIF($M$16:$M$74,F$6,$K$16:$K$74)</x:f>
+        <x:f>+SUMIF($M$16:$M$78,F$6,$K$16:$K$78)</x:f>
         <x:v>124930</x:v>
       </x:c>
       <x:c r="G8" s="7">
-        <x:f>SUMIF($M$16:$M$74,G$6,$K$16:$K$74)</x:f>
-        <x:v>511655</x:v>
+        <x:f>SUMIF($M$16:$M$78,G$6,$K$16:$K$78)</x:f>
+        <x:v>558615</x:v>
       </x:c>
       <x:c r="H8" s="7">
-        <x:f>SUMIF($M$16:$M$74,H$6,$K$16:$K$74)</x:f>
-        <x:v>711294</x:v>
+        <x:f>SUMIF($M$16:$M$78,H$6,$K$16:$K$78)</x:f>
+        <x:v>727220</x:v>
       </x:c>
       <x:c r="I8" s="7">
         <x:f>SUMIF($M$16:$M$72,I$6,$K$16:$K$72)</x:f>
         <x:v>0</x:v>
       </x:c>
       <x:c r="J8" s="7">
-        <x:f>SUMIF($M$16:$M$74,J$6,$K$16:$K$74)</x:f>
+        <x:f>SUMIF($M$16:$M$78,J$6,$K$16:$K$78)</x:f>
         <x:v>112200</x:v>
       </x:c>
       <x:c r="K8" s="6">
@@ -3088,15 +3052,15 @@
         <x:v>100000</x:v>
       </x:c>
       <x:c r="S8" s="7">
-        <x:f>SUMIF($E$16:$E$72,S$5,$C$16:$C$72)+SUMIF($M$16:$M$72,S$5,$K$16:$K$72)</x:f>
-        <x:v>0</x:v>
+        <x:v>660000</x:v>
       </x:c>
       <x:c r="T8" s="10"/>
       <x:c r="U8" s="8" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="V8" s="7">
-        <x:v>200000</x:v>
+        <x:f>S8</x:f>
+        <x:v>660000</x:v>
       </x:c>
       <x:c r="W8" s="10"/>
       <x:c r="X8" s="10"/>
@@ -3110,17 +3074,17 @@
       <x:c r="AF8" s="10"/>
       <x:c r="AG8" s="10"/>
     </x:row>
-    <x:row r="9" spans="1:33">
+    <x:row r="9" spans="1:33" ht="16.39999999999999857891">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:f>C8-C7</x:f>
         <x:v>562347</x:v>
       </x:c>
       <x:c r="D9" s="7">
-        <x:f t="shared" ref="D9:S9" si="0">D7-D8</x:f>
+        <x:f t="shared" ref="D9:R9" si="0">D7-D8</x:f>
         <x:v>0</x:v>
       </x:c>
       <x:c r="E9" s="7">
@@ -3133,11 +3097,11 @@
       </x:c>
       <x:c r="G9" s="27">
         <x:f t="shared" si="0"/>
-        <x:v>-111655</x:v>
+        <x:v>-158615</x:v>
       </x:c>
       <x:c r="H9" s="27">
         <x:f>H7-H8</x:f>
-        <x:v>-311294</x:v>
+        <x:v>-327220</x:v>
       </x:c>
       <x:c r="I9" s="7">
         <x:f>I8</x:f>
@@ -3179,20 +3143,17 @@
         <x:f t="shared" si="0"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="S9" s="7">
-        <x:f t="shared" si="0"/>
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="S9" s="7"/>
       <x:c r="T9" s="10"/>
       <x:c r="U9" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="V9" s="7">
         <x:f>V5-(V6+V7+V8)</x:f>
-        <x:v>435827</x:v>
+        <x:v>-87059</x:v>
       </x:c>
       <x:c r="W9" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="X9" s="10"/>
       <x:c r="Y9" s="10"/>
@@ -3220,7 +3181,7 @@
       <x:c r="I10" s="10"/>
       <x:c r="J10" s="18">
         <x:f>SUM(E8:J8)</x:f>
-        <x:v>1928299</x:v>
+        <x:v>1991185</x:v>
       </x:c>
       <x:c r="K10" s="17"/>
       <x:c r="L10" s="17"/>
@@ -3241,18 +3202,18 @@
       </x:c>
       <x:c r="S10" s="12">
         <x:f>S8</x:f>
-        <x:v>0</x:v>
+        <x:v>660000</x:v>
       </x:c>
       <x:c r="T10" s="10"/>
       <x:c r="U10" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V10" s="23">
         <x:f>V6/V5</x:f>
-        <x:v>0.61953200841584388</x:v>
+        <x:v>0.63331570351838651</x:v>
       </x:c>
       <x:c r="W10" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="X10" s="10"/>
       <x:c r="Y10" s="10"/>
@@ -3287,14 +3248,14 @@
       <x:c r="S11" s="12"/>
       <x:c r="T11" s="10"/>
       <x:c r="U11" s="21" t="s">
-        <x:v>49</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="V11" s="23">
         <x:f>V7/V5</x:f>
         <x:v>0.24110397565112868</x:v>
       </x:c>
       <x:c r="W11" s="10" t="s">
-        <x:v>112</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="X11" s="10"/>
       <x:c r="Y11" s="10"/>
@@ -3310,7 +3271,7 @@
     <x:row r="12" spans="1:33">
       <x:c r="A12" s="10"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>67</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C12" s="7">
         <x:f>SUM(C16:C72)</x:f>
@@ -3369,7 +3330,7 @@
       <x:c r="S13" s="10"/>
       <x:c r="T13" s="10"/>
       <x:c r="U13" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="V13" s="19">
         <x:v>0.5</x:v>
@@ -3391,24 +3352,24 @@
     </x:row>
     <x:row r="14" spans="1:33" s="9" customFormat="1" ht="19.19999999999999928946">
       <x:c r="A14" s="11"/>
-      <x:c r="B14" s="30" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C14" s="30"/>
-      <x:c r="D14" s="30"/>
-      <x:c r="E14" s="30"/>
+      <x:c r="B14" s="34" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C14" s="34"/>
+      <x:c r="D14" s="34"/>
+      <x:c r="E14" s="34"/>
       <x:c r="F14" s="17" t="s">
-        <x:v>66</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G14" s="17"/>
       <x:c r="H14" s="17"/>
       <x:c r="I14" s="11"/>
-      <x:c r="J14" s="30" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K14" s="30"/>
-      <x:c r="L14" s="30"/>
-      <x:c r="M14" s="30"/>
+      <x:c r="J14" s="34" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="K14" s="34"/>
+      <x:c r="L14" s="34"/>
+      <x:c r="M14" s="34"/>
       <x:c r="N14" s="11"/>
       <x:c r="O14" s="11"/>
       <x:c r="P14" s="11"/>
@@ -3417,7 +3378,7 @@
       <x:c r="S14" s="11"/>
       <x:c r="T14" s="11"/>
       <x:c r="U14" s="8" t="s">
-        <x:v>77</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V14" s="19">
         <x:v>0.5</x:v>
@@ -3440,32 +3401,32 @@
     <x:row r="15" spans="1:33">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>79</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>55</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F15" s="17"/>
       <x:c r="G15" s="17"/>
       <x:c r="H15" s="17"/>
       <x:c r="I15" s="10"/>
       <x:c r="J15" s="8" t="s">
-        <x:v>79</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="K15" s="8" t="s">
-        <x:v>55</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="L15" s="8" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="M15" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N15" s="10"/>
       <x:c r="O15" s="10"/>
@@ -3497,10 +3458,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="22"/>
@@ -3513,10 +3474,10 @@
         <x:v>22500</x:v>
       </x:c>
       <x:c r="L16" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M16" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N16" s="22"/>
       <x:c r="O16" s="22"/>
@@ -3548,10 +3509,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F17" s="17"/>
       <x:c r="G17" s="17"/>
@@ -3564,10 +3525,10 @@
         <x:v>1500</x:v>
       </x:c>
       <x:c r="L17" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M17" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N17" s="17"/>
       <x:c r="O17" s="17"/>
@@ -3599,10 +3560,10 @@
         <x:v>19920</x:v>
       </x:c>
       <x:c r="D18" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F18" s="17"/>
       <x:c r="G18" s="17"/>
@@ -3615,10 +3576,10 @@
         <x:v>10580</x:v>
       </x:c>
       <x:c r="L18" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M18" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N18" s="17"/>
       <x:c r="O18" s="17"/>
@@ -3650,10 +3611,10 @@
         <x:v>5400</x:v>
       </x:c>
       <x:c r="D19" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F19" s="17"/>
       <x:c r="G19" s="17"/>
@@ -3666,10 +3627,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="L19" s="16" t="s">
-        <x:v>52</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M19" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N19" s="17"/>
       <x:c r="O19" s="17"/>
@@ -3701,10 +3662,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>4</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>31</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F20" s="17"/>
       <x:c r="G20" s="17"/>
@@ -3717,10 +3678,10 @@
         <x:v>6990</x:v>
       </x:c>
       <x:c r="L20" s="16" t="s">
-        <x:v>39</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="M20" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N20" s="17"/>
       <x:c r="O20" s="17"/>
@@ -3752,10 +3713,10 @@
         <x:v>22000</x:v>
       </x:c>
       <x:c r="D21" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s">
-        <x:v>102</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F21" s="17"/>
       <x:c r="G21" s="17"/>
@@ -3771,7 +3732,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="M21" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N21" s="17"/>
       <x:c r="O21" s="17"/>
@@ -3803,10 +3764,10 @@
         <x:v>23219</x:v>
       </x:c>
       <x:c r="D22" s="28" t="s">
-        <x:v>75</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E22" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F22" s="17"/>
       <x:c r="G22" s="17"/>
@@ -3819,10 +3780,10 @@
         <x:v>82320</x:v>
       </x:c>
       <x:c r="L22" s="16" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M22" s="16" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="M22" s="16" t="s">
-        <x:v>35</x:v>
       </x:c>
       <x:c r="N22" s="17"/>
       <x:c r="O22" s="17"/>
@@ -3854,10 +3815,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D23" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E23" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F23" s="17"/>
       <x:c r="G23" s="17"/>
@@ -3870,10 +3831,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="L23" s="16" t="s">
-        <x:v>21</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M23" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N23" s="17"/>
       <x:c r="O23" s="17"/>
@@ -3905,10 +3866,10 @@
         <x:v>30900</x:v>
       </x:c>
       <x:c r="D24" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E24" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F24" s="17"/>
       <x:c r="G24" s="17"/>
@@ -3921,10 +3882,10 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="L24" s="16" t="s">
-        <x:v>14</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M24" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N24" s="17"/>
       <x:c r="O24" s="17"/>
@@ -3956,10 +3917,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D25" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E25" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F25" s="17"/>
       <x:c r="G25" s="17"/>
@@ -3972,10 +3933,10 @@
         <x:v>39535</x:v>
       </x:c>
       <x:c r="L25" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M25" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N25" s="17"/>
       <x:c r="O25" s="17"/>
@@ -4007,10 +3968,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D26" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E26" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F26" s="17"/>
       <x:c r="G26" s="17"/>
@@ -4023,10 +3984,10 @@
         <x:v>3150</x:v>
       </x:c>
       <x:c r="L26" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="M26" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N26" s="17"/>
       <x:c r="O26" s="17"/>
@@ -4058,10 +4019,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D27" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E27" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F27" s="17"/>
       <x:c r="G27" s="17"/>
@@ -4075,10 +4036,10 @@
         <x:v>41400</x:v>
       </x:c>
       <x:c r="L27" s="28" t="s">
-        <x:v>75</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="M27" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N27" s="17"/>
       <x:c r="O27" s="17"/>
@@ -4110,10 +4071,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D28" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E28" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F28" s="17"/>
       <x:c r="G28" s="17"/>
@@ -4126,10 +4087,10 @@
         <x:v>5400</x:v>
       </x:c>
       <x:c r="L28" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="M28" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N28" s="29"/>
       <x:c r="O28" s="17"/>
@@ -4161,10 +4122,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D29" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E29" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F29" s="17"/>
       <x:c r="G29" s="17"/>
@@ -4177,10 +4138,10 @@
         <x:v>11500</x:v>
       </x:c>
       <x:c r="L29" s="16" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="M29" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N29" s="17"/>
       <x:c r="O29" s="17"/>
@@ -4212,10 +4173,10 @@
         <x:v>8910</x:v>
       </x:c>
       <x:c r="D30" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E30" s="16" t="s">
-        <x:v>11</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F30" s="17"/>
       <x:c r="G30" s="17"/>
@@ -4228,10 +4189,10 @@
         <x:v>2980</x:v>
       </x:c>
       <x:c r="L30" s="16" t="s">
-        <x:v>30</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="M30" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N30" s="17"/>
       <x:c r="O30" s="17"/>
@@ -4263,10 +4224,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D31" s="16" t="s">
-        <x:v>4</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E31" s="16" t="s">
-        <x:v>31</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F31" s="17"/>
       <x:c r="G31" s="17"/>
@@ -4279,10 +4240,10 @@
         <x:v>50100</x:v>
       </x:c>
       <x:c r="L31" s="16" t="s">
-        <x:v>74</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="M31" s="16" t="s">
-        <x:v>8</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="N31" s="17"/>
       <x:c r="O31" s="17"/>
@@ -4314,10 +4275,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D32" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E32" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F32" s="17"/>
       <x:c r="G32" s="17"/>
@@ -4330,10 +4291,10 @@
         <x:v>62100</x:v>
       </x:c>
       <x:c r="L32" s="16" t="s">
-        <x:v>29</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M32" s="16" t="s">
-        <x:v>8</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="N32" s="17"/>
       <x:c r="O32" s="17"/>
@@ -4365,10 +4326,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D33" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E33" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F33" s="17"/>
       <x:c r="G33" s="17"/>
@@ -4384,7 +4345,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="M33" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N33" s="17"/>
       <x:c r="O33" s="17"/>
@@ -4416,10 +4377,10 @@
         <x:v>2500</x:v>
       </x:c>
       <x:c r="D34" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E34" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F34" s="17"/>
       <x:c r="G34" s="17"/>
@@ -4432,10 +4393,10 @@
         <x:v>36000</x:v>
       </x:c>
       <x:c r="L34" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M34" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N34" s="17"/>
       <x:c r="O34" s="17"/>
@@ -4467,10 +4428,10 @@
         <x:v>36860</x:v>
       </x:c>
       <x:c r="D35" s="28" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E35" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F35" s="17"/>
       <x:c r="G35" s="17"/>
@@ -4483,10 +4444,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="L35" s="16" t="s">
-        <x:v>61</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="M35" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N35" s="17"/>
       <x:c r="O35" s="17"/>
@@ -4518,10 +4479,10 @@
         <x:v>10980</x:v>
       </x:c>
       <x:c r="D36" s="16" t="s">
-        <x:v>39</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E36" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F36" s="17"/>
       <x:c r="G36" s="17"/>
@@ -4534,10 +4495,10 @@
         <x:v>6600</x:v>
       </x:c>
       <x:c r="L36" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M36" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N36" s="17"/>
       <x:c r="O36" s="17"/>
@@ -4569,10 +4530,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D37" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E37" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F37" s="17"/>
       <x:c r="G37" s="17"/>
@@ -4585,10 +4546,10 @@
         <x:v>33000</x:v>
       </x:c>
       <x:c r="L37" s="16" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="M37" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N37" s="17"/>
       <x:c r="O37" s="17"/>
@@ -4620,10 +4581,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D38" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E38" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F38" s="17"/>
       <x:c r="G38" s="17"/>
@@ -4636,10 +4597,10 @@
         <x:v>82000</x:v>
       </x:c>
       <x:c r="L38" s="16" t="s">
-        <x:v>3</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="M38" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N38" s="17"/>
       <x:c r="O38" s="17"/>
@@ -4680,10 +4641,10 @@
         <x:v>11850</x:v>
       </x:c>
       <x:c r="L39" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M39" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N39" s="17"/>
       <x:c r="O39" s="17"/>
@@ -4723,10 +4684,10 @@
         <x:v>27700</x:v>
       </x:c>
       <x:c r="L40" s="28" t="s">
-        <x:v>75</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="M40" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N40" s="17"/>
       <x:c r="O40" s="17"/>
@@ -4766,10 +4727,10 @@
         <x:v>11400</x:v>
       </x:c>
       <x:c r="L41" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="M41" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N41" s="17"/>
       <x:c r="O41" s="17"/>
@@ -4809,10 +4770,10 @@
         <x:v>7300</x:v>
       </x:c>
       <x:c r="L42" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M42" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N42" s="17"/>
       <x:c r="O42" s="17"/>
@@ -4852,10 +4813,10 @@
         <x:v>5990</x:v>
       </x:c>
       <x:c r="L43" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M43" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N43" s="17"/>
       <x:c r="O43" s="17"/>
@@ -4895,10 +4856,10 @@
         <x:v>8450</x:v>
       </x:c>
       <x:c r="L44" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M44" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N44" s="17"/>
       <x:c r="O44" s="17"/>
@@ -4938,10 +4899,10 @@
         <x:v>26600</x:v>
       </x:c>
       <x:c r="L45" s="28" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M45" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N45" s="17"/>
       <x:c r="O45" s="17"/>
@@ -4982,10 +4943,10 @@
         <x:v>100200</x:v>
       </x:c>
       <x:c r="L46" s="16" t="s">
-        <x:v>62</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M46" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N46" s="17"/>
       <x:c r="O46" s="17"/>
@@ -5025,10 +4986,10 @@
         <x:v>40000</x:v>
       </x:c>
       <x:c r="L47" s="16" t="s">
-        <x:v>95</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M47" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N47" s="17"/>
       <x:c r="O47" s="17"/>
@@ -5068,10 +5029,10 @@
         <x:v>26000</x:v>
       </x:c>
       <x:c r="L48" s="28" t="s">
-        <x:v>43</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M48" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N48" s="17"/>
       <x:c r="O48" s="17"/>
@@ -5111,10 +5072,10 @@
         <x:v>26400</x:v>
       </x:c>
       <x:c r="L49" s="28" t="s">
-        <x:v>6</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M49" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N49" s="17"/>
       <x:c r="O49" s="17"/>
@@ -5154,10 +5115,10 @@
         <x:v>16110</x:v>
       </x:c>
       <x:c r="L50" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="M50" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N50" s="17"/>
       <x:c r="O50" s="17"/>
@@ -5197,10 +5158,10 @@
         <x:v>17500</x:v>
       </x:c>
       <x:c r="L51" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M51" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N51" s="17"/>
       <x:c r="O51" s="17"/>
@@ -5240,10 +5201,10 @@
         <x:v>6750</x:v>
       </x:c>
       <x:c r="L52" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M52" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N52" s="17"/>
       <x:c r="O52" s="17"/>
@@ -5283,10 +5244,10 @@
         <x:v>62000</x:v>
       </x:c>
       <x:c r="L53" s="16" t="s">
-        <x:v>71</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M53" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N53" s="17"/>
       <x:c r="O53" s="17"/>
@@ -5326,10 +5287,10 @@
         <x:v>14820</x:v>
       </x:c>
       <x:c r="L54" s="16" t="s">
-        <x:v>63</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M54" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N54" s="17"/>
       <x:c r="O54" s="17"/>
@@ -5369,10 +5330,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="L55" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M55" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N55" s="17"/>
       <x:c r="O55" s="17"/>
@@ -5412,10 +5373,10 @@
         <x:v>16650</x:v>
       </x:c>
       <x:c r="L56" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M56" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N56" s="17"/>
       <x:c r="O56" s="17"/>
@@ -5456,10 +5417,10 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="L57" s="16" t="s">
-        <x:v>108</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M57" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N57" s="17"/>
       <x:c r="O57" s="17"/>
@@ -5499,10 +5460,10 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="L58" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M58" s="16" t="s">
-        <x:v>46</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N58" s="17"/>
       <x:c r="O58" s="17"/>
@@ -5542,10 +5503,10 @@
         <x:v>6950</x:v>
       </x:c>
       <x:c r="L59" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M59" s="16" t="s">
-        <x:v>46</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N59" s="17"/>
       <x:c r="O59" s="17"/>
@@ -5585,10 +5546,10 @@
         <x:v>21700</x:v>
       </x:c>
       <x:c r="L60" s="28" t="s">
-        <x:v>37</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M60" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N60" s="17"/>
       <x:c r="O60" s="17"/>
@@ -5628,10 +5589,10 @@
         <x:v>18900</x:v>
       </x:c>
       <x:c r="L61" s="28" t="s">
-        <x:v>38</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M61" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N61" s="17"/>
       <x:c r="O61" s="17"/>
@@ -5671,10 +5632,10 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="L62" s="16" t="s">
-        <x:v>92</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="M62" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N62" s="17"/>
       <x:c r="O62" s="17"/>
@@ -5714,10 +5675,10 @@
         <x:v>4350</x:v>
       </x:c>
       <x:c r="L63" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M63" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N63" s="17"/>
       <x:c r="O63" s="17"/>
@@ -5757,10 +5718,10 @@
         <x:v>26500</x:v>
       </x:c>
       <x:c r="L64" s="16" t="s">
-        <x:v>24</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="M64" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N64" s="17"/>
       <x:c r="O64" s="17"/>
@@ -5800,10 +5761,10 @@
         <x:v>10900</x:v>
       </x:c>
       <x:c r="L65" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M65" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N65" s="17"/>
       <x:c r="O65" s="17"/>
@@ -5843,10 +5804,10 @@
         <x:v>2985</x:v>
       </x:c>
       <x:c r="L66" s="16" t="s">
-        <x:v>14</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M66" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N66" s="17"/>
       <x:c r="O66" s="17"/>
@@ -5886,10 +5847,10 @@
         <x:v>104960</x:v>
       </x:c>
       <x:c r="L67" s="16" t="s">
-        <x:v>109</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="M67" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N67" s="17"/>
       <x:c r="O67" s="17"/>
@@ -5929,10 +5890,10 @@
         <x:v>106800</x:v>
       </x:c>
       <x:c r="L68" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M68" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N68" s="17"/>
       <x:c r="O68" s="17"/>
@@ -5972,10 +5933,10 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="L69" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M69" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N69" s="17"/>
       <x:c r="O69" s="17"/>
@@ -6008,17 +5969,17 @@
       <x:c r="G70" s="17"/>
       <x:c r="H70" s="17"/>
       <x:c r="I70" s="10"/>
-      <x:c r="J70" s="48">
+      <x:c r="J70" s="30">
         <x:v>45325</x:v>
       </x:c>
-      <x:c r="K70" s="49">
+      <x:c r="K70" s="31">
         <x:v>21500</x:v>
       </x:c>
       <x:c r="L70" s="16" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M70" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N70" s="17"/>
       <x:c r="O70" s="17"/>
@@ -6051,18 +6012,18 @@
       <x:c r="G71" s="17"/>
       <x:c r="H71" s="17"/>
       <x:c r="I71" s="10"/>
-      <x:c r="J71" s="48">
+      <x:c r="J71" s="30">
         <x:v>45325</x:v>
       </x:c>
-      <x:c r="K71" s="49">
+      <x:c r="K71" s="31">
         <x:f>17400+8980</x:f>
         <x:v>26380</x:v>
       </x:c>
-      <x:c r="L71" s="50" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="M71" s="51" t="s">
-        <x:v>99</x:v>
+      <x:c r="L71" s="32" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="M71" s="33" t="s">
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N71" s="17"/>
       <x:c r="O71" s="17"/>
@@ -6095,17 +6056,17 @@
       <x:c r="G72" s="17"/>
       <x:c r="H72" s="17"/>
       <x:c r="I72" s="10"/>
-      <x:c r="J72" s="48">
+      <x:c r="J72" s="30">
         <x:v>45326</x:v>
       </x:c>
-      <x:c r="K72" s="49">
+      <x:c r="K72" s="31">
         <x:v>6250</x:v>
       </x:c>
       <x:c r="L72" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M72" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N72" s="17"/>
       <x:c r="O72" s="17"/>
@@ -6128,163 +6089,179 @@
       <x:c r="AF72" s="10"/>
       <x:c r="AG72" s="10"/>
     </x:row>
-    <x:row r="73" spans="1:33">
-      <x:c r="A73" s="10"/>
-      <x:c r="B73" s="10"/>
-      <x:c r="C73" s="10"/>
-      <x:c r="D73" s="10"/>
-      <x:c r="E73" s="10"/>
-      <x:c r="F73" s="10"/>
-      <x:c r="G73" s="10"/>
-      <x:c r="H73" s="10"/>
-      <x:c r="I73" s="10"/>
-      <x:c r="J73" s="26">
+    <x:row r="73" spans="1:33" ht="16.39999999999999857891">
+      <x:c r="A73" s="52"/>
+      <x:c r="B73" s="53"/>
+      <x:c r="C73" s="54"/>
+      <x:c r="D73" s="55"/>
+      <x:c r="E73" s="55"/>
+      <x:c r="F73" s="55"/>
+      <x:c r="G73" s="55"/>
+      <x:c r="H73" s="55"/>
+      <x:c r="I73" s="52"/>
+      <x:c r="J73" s="56">
         <x:v>45327</x:v>
       </x:c>
-      <x:c r="K73" s="15">
+      <x:c r="K73" s="59">
         <x:v>82360</x:v>
       </x:c>
-      <x:c r="L73" s="16" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="M73" s="16" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="N73" s="10"/>
-      <x:c r="O73" s="10"/>
-      <x:c r="P73" s="10"/>
-      <x:c r="Q73" s="10"/>
-      <x:c r="R73" s="10"/>
-      <x:c r="S73" s="10"/>
-      <x:c r="T73" s="10"/>
-      <x:c r="U73" s="10"/>
-      <x:c r="V73" s="10"/>
-      <x:c r="W73" s="10"/>
-      <x:c r="X73" s="10"/>
-      <x:c r="Y73" s="10"/>
-      <x:c r="Z73" s="10"/>
-      <x:c r="AA73" s="10"/>
-      <x:c r="AB73" s="10"/>
-      <x:c r="AC73" s="10"/>
-      <x:c r="AD73" s="10"/>
-      <x:c r="AE73" s="10"/>
-      <x:c r="AF73" s="10"/>
-      <x:c r="AG73" s="10"/>
+      <x:c r="L73" s="58" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M73" s="58" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N73" s="55"/>
+      <x:c r="O73" s="55"/>
+      <x:c r="P73" s="52"/>
+      <x:c r="Q73" s="52"/>
+      <x:c r="R73" s="52"/>
+      <x:c r="S73" s="52"/>
+      <x:c r="T73" s="52"/>
+      <x:c r="U73" s="52"/>
+      <x:c r="V73" s="52"/>
+      <x:c r="W73" s="52"/>
+      <x:c r="X73" s="52"/>
+      <x:c r="Y73" s="52"/>
+      <x:c r="Z73" s="52"/>
+      <x:c r="AA73" s="52"/>
+      <x:c r="AB73" s="52"/>
+      <x:c r="AC73" s="52"/>
+      <x:c r="AD73" s="52"/>
+      <x:c r="AE73" s="52"/>
+      <x:c r="AF73" s="52"/>
+      <x:c r="AG73" s="52"/>
     </x:row>
     <x:row r="74" spans="1:33" ht="16.39999999999999857891">
-      <x:c r="A74" s="10"/>
-      <x:c r="B74" s="10"/>
-      <x:c r="C74" s="10"/>
-      <x:c r="D74" s="10"/>
-      <x:c r="E74" s="10"/>
-      <x:c r="F74" s="10"/>
-      <x:c r="G74" s="10"/>
-      <x:c r="H74" s="10"/>
-      <x:c r="I74" s="10"/>
-      <x:c r="J74" s="48">
+      <x:c r="A74" s="52"/>
+      <x:c r="B74" s="53"/>
+      <x:c r="C74" s="54"/>
+      <x:c r="D74" s="55"/>
+      <x:c r="E74" s="55"/>
+      <x:c r="F74" s="55"/>
+      <x:c r="G74" s="55"/>
+      <x:c r="H74" s="55"/>
+      <x:c r="I74" s="52"/>
+      <x:c r="J74" s="56">
         <x:v>45327</x:v>
       </x:c>
-      <x:c r="K74" s="52">
+      <x:c r="K74" s="59">
         <x:v>13500</x:v>
       </x:c>
-      <x:c r="L74" s="51" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="M74" s="51" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="N74" s="10"/>
-      <x:c r="O74" s="10"/>
-      <x:c r="P74" s="10"/>
-      <x:c r="Q74" s="10"/>
-      <x:c r="R74" s="10"/>
-      <x:c r="S74" s="10"/>
-      <x:c r="T74" s="10"/>
-      <x:c r="U74" s="10"/>
-      <x:c r="V74" s="10"/>
-      <x:c r="W74" s="10"/>
-      <x:c r="X74" s="10"/>
-      <x:c r="Y74" s="10"/>
-      <x:c r="Z74" s="10"/>
-      <x:c r="AA74" s="10"/>
-      <x:c r="AB74" s="10"/>
-      <x:c r="AC74" s="10"/>
-      <x:c r="AD74" s="10"/>
-      <x:c r="AE74" s="10"/>
-      <x:c r="AF74" s="10"/>
-      <x:c r="AG74" s="10"/>
-    </x:row>
-    <x:row r="75" spans="1:33">
-      <x:c r="A75" s="10"/>
-      <x:c r="B75" s="10"/>
-      <x:c r="C75" s="10"/>
-      <x:c r="D75" s="10"/>
-      <x:c r="E75" s="10"/>
-      <x:c r="F75" s="10"/>
-      <x:c r="G75" s="10"/>
-      <x:c r="H75" s="10"/>
-      <x:c r="I75" s="10"/>
-      <x:c r="J75" s="10"/>
-      <x:c r="K75" s="10"/>
-      <x:c r="L75" s="10"/>
-      <x:c r="M75" s="10"/>
-      <x:c r="N75" s="10"/>
-      <x:c r="O75" s="10"/>
-      <x:c r="P75" s="10"/>
-      <x:c r="Q75" s="10"/>
-      <x:c r="R75" s="10"/>
-      <x:c r="S75" s="10"/>
-      <x:c r="T75" s="10"/>
-      <x:c r="U75" s="10"/>
-      <x:c r="V75" s="10"/>
-      <x:c r="W75" s="10"/>
-      <x:c r="X75" s="10"/>
-      <x:c r="Y75" s="10"/>
-      <x:c r="Z75" s="10"/>
-      <x:c r="AA75" s="10"/>
-      <x:c r="AB75" s="10"/>
-      <x:c r="AC75" s="10"/>
-      <x:c r="AD75" s="10"/>
-      <x:c r="AE75" s="10"/>
-      <x:c r="AF75" s="10"/>
-      <x:c r="AG75" s="10"/>
-    </x:row>
-    <x:row r="76" spans="1:33">
-      <x:c r="A76" s="10"/>
-      <x:c r="B76" s="10"/>
-      <x:c r="C76" s="10"/>
-      <x:c r="D76" s="10"/>
-      <x:c r="E76" s="10"/>
-      <x:c r="F76" s="10"/>
-      <x:c r="G76" s="10"/>
-      <x:c r="H76" s="10"/>
-      <x:c r="I76" s="10"/>
-      <x:c r="J76" s="10"/>
-      <x:c r="K76" s="10"/>
-      <x:c r="L76" s="10"/>
-      <x:c r="M76" s="10"/>
-      <x:c r="N76" s="10"/>
-      <x:c r="O76" s="10"/>
-      <x:c r="P76" s="10"/>
-      <x:c r="Q76" s="10"/>
-      <x:c r="R76" s="10"/>
-      <x:c r="S76" s="10"/>
-      <x:c r="T76" s="10"/>
-      <x:c r="U76" s="10"/>
-      <x:c r="V76" s="10"/>
-      <x:c r="W76" s="10"/>
-      <x:c r="X76" s="10"/>
-      <x:c r="Y76" s="10"/>
-      <x:c r="Z76" s="10"/>
-      <x:c r="AA76" s="10"/>
-      <x:c r="AB76" s="10"/>
-      <x:c r="AC76" s="10"/>
-      <x:c r="AD76" s="10"/>
-      <x:c r="AE76" s="10"/>
-      <x:c r="AF76" s="10"/>
-      <x:c r="AG76" s="10"/>
-    </x:row>
-    <x:row r="77" spans="1:33">
+      <x:c r="L74" s="58" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="M74" s="58" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="N74" s="55"/>
+      <x:c r="O74" s="55"/>
+      <x:c r="P74" s="52"/>
+      <x:c r="Q74" s="52"/>
+      <x:c r="R74" s="52"/>
+      <x:c r="S74" s="52"/>
+      <x:c r="T74" s="52"/>
+      <x:c r="U74" s="52"/>
+      <x:c r="V74" s="52"/>
+      <x:c r="W74" s="52"/>
+      <x:c r="X74" s="52"/>
+      <x:c r="Y74" s="52"/>
+      <x:c r="Z74" s="52"/>
+      <x:c r="AA74" s="52"/>
+      <x:c r="AB74" s="52"/>
+      <x:c r="AC74" s="52"/>
+      <x:c r="AD74" s="52"/>
+      <x:c r="AE74" s="52"/>
+      <x:c r="AF74" s="52"/>
+      <x:c r="AG74" s="52"/>
+    </x:row>
+    <x:row r="75" spans="1:33" ht="16.39999999999999857891">
+      <x:c r="A75" s="52"/>
+      <x:c r="B75" s="53"/>
+      <x:c r="C75" s="54"/>
+      <x:c r="D75" s="55"/>
+      <x:c r="E75" s="55"/>
+      <x:c r="F75" s="55"/>
+      <x:c r="G75" s="55"/>
+      <x:c r="H75" s="55"/>
+      <x:c r="I75" s="52"/>
+      <x:c r="J75" s="56">
+        <x:v>45328</x:v>
+      </x:c>
+      <x:c r="K75" s="57">
+        <x:v>42460</x:v>
+      </x:c>
+      <x:c r="L75" s="58" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M75" s="58" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="N75" s="55"/>
+      <x:c r="O75" s="55"/>
+      <x:c r="P75" s="52"/>
+      <x:c r="Q75" s="52"/>
+      <x:c r="R75" s="52"/>
+      <x:c r="S75" s="52"/>
+      <x:c r="T75" s="52"/>
+      <x:c r="U75" s="52"/>
+      <x:c r="V75" s="52"/>
+      <x:c r="W75" s="52"/>
+      <x:c r="X75" s="52"/>
+      <x:c r="Y75" s="52"/>
+      <x:c r="Z75" s="52"/>
+      <x:c r="AA75" s="52"/>
+      <x:c r="AB75" s="52"/>
+      <x:c r="AC75" s="52"/>
+      <x:c r="AD75" s="52"/>
+      <x:c r="AE75" s="52"/>
+      <x:c r="AF75" s="52"/>
+      <x:c r="AG75" s="52"/>
+    </x:row>
+    <x:row r="76" spans="1:33" ht="16.39999999999999857891">
+      <x:c r="A76" s="52"/>
+      <x:c r="B76" s="53"/>
+      <x:c r="C76" s="54"/>
+      <x:c r="D76" s="55"/>
+      <x:c r="E76" s="55"/>
+      <x:c r="F76" s="55"/>
+      <x:c r="G76" s="55"/>
+      <x:c r="H76" s="55"/>
+      <x:c r="I76" s="52"/>
+      <x:c r="J76" s="56">
+        <x:v>45328</x:v>
+      </x:c>
+      <x:c r="K76" s="57">
+        <x:v>6776</x:v>
+      </x:c>
+      <x:c r="L76" s="58" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M76" s="58" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="N76" s="55"/>
+      <x:c r="O76" s="55"/>
+      <x:c r="P76" s="52"/>
+      <x:c r="Q76" s="52"/>
+      <x:c r="R76" s="52"/>
+      <x:c r="S76" s="52"/>
+      <x:c r="T76" s="52"/>
+      <x:c r="U76" s="52"/>
+      <x:c r="V76" s="52"/>
+      <x:c r="W76" s="52"/>
+      <x:c r="X76" s="52"/>
+      <x:c r="Y76" s="52"/>
+      <x:c r="Z76" s="52"/>
+      <x:c r="AA76" s="52"/>
+      <x:c r="AB76" s="52"/>
+      <x:c r="AC76" s="52"/>
+      <x:c r="AD76" s="52"/>
+      <x:c r="AE76" s="52"/>
+      <x:c r="AF76" s="52"/>
+      <x:c r="AG76" s="52"/>
+    </x:row>
+    <x:row r="77" spans="1:33" ht="16.39999999999999857891">
       <x:c r="A77" s="10"/>
       <x:c r="B77" s="10"/>
       <x:c r="C77" s="10"/>
@@ -6294,10 +6271,18 @@
       <x:c r="G77" s="10"/>
       <x:c r="H77" s="10"/>
       <x:c r="I77" s="10"/>
-      <x:c r="J77" s="10"/>
-      <x:c r="K77" s="10"/>
-      <x:c r="L77" s="10"/>
-      <x:c r="M77" s="10"/>
+      <x:c r="J77" s="56">
+        <x:v>45329</x:v>
+      </x:c>
+      <x:c r="K77" s="59">
+        <x:v>4500</x:v>
+      </x:c>
+      <x:c r="L77" s="58" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="M77" s="58" t="s">
+        <x:v>105</x:v>
+      </x:c>
       <x:c r="N77" s="10"/>
       <x:c r="O77" s="10"/>
       <x:c r="P77" s="10"/>
@@ -6319,7 +6304,7 @@
       <x:c r="AF77" s="10"/>
       <x:c r="AG77" s="10"/>
     </x:row>
-    <x:row r="78" spans="1:33">
+    <x:row r="78" spans="1:33" ht="16.39999999999999857891">
       <x:c r="A78" s="10"/>
       <x:c r="B78" s="10"/>
       <x:c r="C78" s="10"/>
@@ -6329,10 +6314,18 @@
       <x:c r="G78" s="10"/>
       <x:c r="H78" s="10"/>
       <x:c r="I78" s="10"/>
-      <x:c r="J78" s="10"/>
-      <x:c r="K78" s="10"/>
-      <x:c r="L78" s="10"/>
-      <x:c r="M78" s="10"/>
+      <x:c r="J78" s="56">
+        <x:v>45329</x:v>
+      </x:c>
+      <x:c r="K78" s="59">
+        <x:v>9150</x:v>
+      </x:c>
+      <x:c r="L78" s="58" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="M78" s="58" t="s">
+        <x:v>50</x:v>
+      </x:c>
       <x:c r="N78" s="10"/>
       <x:c r="O78" s="10"/>
       <x:c r="P78" s="10"/>
@@ -6703,6 +6696,146 @@
       <x:c r="AE88" s="10"/>
       <x:c r="AF88" s="10"/>
       <x:c r="AG88" s="10"/>
+    </x:row>
+    <x:row r="89" spans="1:33">
+      <x:c r="A89" s="10"/>
+      <x:c r="B89" s="10"/>
+      <x:c r="C89" s="10"/>
+      <x:c r="D89" s="10"/>
+      <x:c r="E89" s="10"/>
+      <x:c r="F89" s="10"/>
+      <x:c r="G89" s="10"/>
+      <x:c r="H89" s="10"/>
+      <x:c r="I89" s="10"/>
+      <x:c r="J89" s="10"/>
+      <x:c r="K89" s="10"/>
+      <x:c r="L89" s="10"/>
+      <x:c r="M89" s="10"/>
+      <x:c r="N89" s="10"/>
+      <x:c r="O89" s="10"/>
+      <x:c r="P89" s="10"/>
+      <x:c r="Q89" s="10"/>
+      <x:c r="R89" s="10"/>
+      <x:c r="S89" s="10"/>
+      <x:c r="T89" s="10"/>
+      <x:c r="U89" s="10"/>
+      <x:c r="V89" s="10"/>
+      <x:c r="W89" s="10"/>
+      <x:c r="X89" s="10"/>
+      <x:c r="Y89" s="10"/>
+      <x:c r="Z89" s="10"/>
+      <x:c r="AA89" s="10"/>
+      <x:c r="AB89" s="10"/>
+      <x:c r="AC89" s="10"/>
+      <x:c r="AD89" s="10"/>
+      <x:c r="AE89" s="10"/>
+      <x:c r="AF89" s="10"/>
+      <x:c r="AG89" s="10"/>
+    </x:row>
+    <x:row r="90" spans="1:33">
+      <x:c r="A90" s="10"/>
+      <x:c r="B90" s="10"/>
+      <x:c r="C90" s="10"/>
+      <x:c r="D90" s="10"/>
+      <x:c r="E90" s="10"/>
+      <x:c r="F90" s="10"/>
+      <x:c r="G90" s="10"/>
+      <x:c r="H90" s="10"/>
+      <x:c r="I90" s="10"/>
+      <x:c r="J90" s="10"/>
+      <x:c r="K90" s="10"/>
+      <x:c r="L90" s="10"/>
+      <x:c r="M90" s="10"/>
+      <x:c r="N90" s="10"/>
+      <x:c r="O90" s="10"/>
+      <x:c r="P90" s="10"/>
+      <x:c r="Q90" s="10"/>
+      <x:c r="R90" s="10"/>
+      <x:c r="S90" s="10"/>
+      <x:c r="T90" s="10"/>
+      <x:c r="U90" s="10"/>
+      <x:c r="V90" s="10"/>
+      <x:c r="W90" s="10"/>
+      <x:c r="X90" s="10"/>
+      <x:c r="Y90" s="10"/>
+      <x:c r="Z90" s="10"/>
+      <x:c r="AA90" s="10"/>
+      <x:c r="AB90" s="10"/>
+      <x:c r="AC90" s="10"/>
+      <x:c r="AD90" s="10"/>
+      <x:c r="AE90" s="10"/>
+      <x:c r="AF90" s="10"/>
+      <x:c r="AG90" s="10"/>
+    </x:row>
+    <x:row r="91" spans="1:33">
+      <x:c r="A91" s="10"/>
+      <x:c r="B91" s="10"/>
+      <x:c r="C91" s="10"/>
+      <x:c r="D91" s="10"/>
+      <x:c r="E91" s="10"/>
+      <x:c r="F91" s="10"/>
+      <x:c r="G91" s="10"/>
+      <x:c r="H91" s="10"/>
+      <x:c r="I91" s="10"/>
+      <x:c r="J91" s="10"/>
+      <x:c r="K91" s="10"/>
+      <x:c r="L91" s="10"/>
+      <x:c r="M91" s="10"/>
+      <x:c r="N91" s="10"/>
+      <x:c r="O91" s="10"/>
+      <x:c r="P91" s="10"/>
+      <x:c r="Q91" s="10"/>
+      <x:c r="R91" s="10"/>
+      <x:c r="S91" s="10"/>
+      <x:c r="T91" s="10"/>
+      <x:c r="U91" s="10"/>
+      <x:c r="V91" s="10"/>
+      <x:c r="W91" s="10"/>
+      <x:c r="X91" s="10"/>
+      <x:c r="Y91" s="10"/>
+      <x:c r="Z91" s="10"/>
+      <x:c r="AA91" s="10"/>
+      <x:c r="AB91" s="10"/>
+      <x:c r="AC91" s="10"/>
+      <x:c r="AD91" s="10"/>
+      <x:c r="AE91" s="10"/>
+      <x:c r="AF91" s="10"/>
+      <x:c r="AG91" s="10"/>
+    </x:row>
+    <x:row r="92" spans="1:33">
+      <x:c r="A92" s="10"/>
+      <x:c r="B92" s="10"/>
+      <x:c r="C92" s="10"/>
+      <x:c r="D92" s="10"/>
+      <x:c r="E92" s="10"/>
+      <x:c r="F92" s="10"/>
+      <x:c r="G92" s="10"/>
+      <x:c r="H92" s="10"/>
+      <x:c r="I92" s="10"/>
+      <x:c r="J92" s="10"/>
+      <x:c r="K92" s="10"/>
+      <x:c r="L92" s="10"/>
+      <x:c r="M92" s="10"/>
+      <x:c r="N92" s="10"/>
+      <x:c r="O92" s="10"/>
+      <x:c r="P92" s="10"/>
+      <x:c r="Q92" s="10"/>
+      <x:c r="R92" s="10"/>
+      <x:c r="S92" s="10"/>
+      <x:c r="T92" s="10"/>
+      <x:c r="U92" s="10"/>
+      <x:c r="V92" s="10"/>
+      <x:c r="W92" s="10"/>
+      <x:c r="X92" s="10"/>
+      <x:c r="Y92" s="10"/>
+      <x:c r="Z92" s="10"/>
+      <x:c r="AA92" s="10"/>
+      <x:c r="AB92" s="10"/>
+      <x:c r="AC92" s="10"/>
+      <x:c r="AD92" s="10"/>
+      <x:c r="AE92" s="10"/>
+      <x:c r="AF92" s="10"/>
+      <x:c r="AG92" s="10"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="12">
@@ -6745,7 +6878,7 @@
       <x:formula>$V$13</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -6798,19 +6931,19 @@
     </x:row>
     <x:row r="2" spans="1:22" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="31" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="C2" s="32"/>
-      <x:c r="D2" s="32"/>
-      <x:c r="E2" s="32"/>
-      <x:c r="F2" s="32"/>
-      <x:c r="G2" s="32"/>
-      <x:c r="H2" s="32"/>
-      <x:c r="I2" s="32"/>
-      <x:c r="J2" s="32"/>
-      <x:c r="K2" s="32"/>
-      <x:c r="L2" s="33"/>
+      <x:c r="B2" s="35" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C2" s="36"/>
+      <x:c r="D2" s="36"/>
+      <x:c r="E2" s="36"/>
+      <x:c r="F2" s="36"/>
+      <x:c r="G2" s="36"/>
+      <x:c r="H2" s="36"/>
+      <x:c r="I2" s="36"/>
+      <x:c r="J2" s="36"/>
+      <x:c r="K2" s="36"/>
+      <x:c r="L2" s="37"/>
       <x:c r="M2" s="10"/>
       <x:c r="N2" s="10"/>
       <x:c r="O2" s="10"/>
@@ -6842,60 +6975,60 @@
     </x:row>
     <x:row r="4" spans="1:22" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="30" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C4" s="30"/>
-      <x:c r="D4" s="30"/>
-      <x:c r="E4" s="30"/>
-      <x:c r="F4" s="30"/>
-      <x:c r="G4" s="30"/>
-      <x:c r="H4" s="30"/>
-      <x:c r="I4" s="30"/>
-      <x:c r="J4" s="30"/>
-      <x:c r="K4" s="30"/>
-      <x:c r="L4" s="30"/>
-      <x:c r="N4" s="34" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="O4" s="34"/>
+      <x:c r="B4" s="34" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C4" s="34"/>
+      <x:c r="D4" s="34"/>
+      <x:c r="E4" s="34"/>
+      <x:c r="F4" s="34"/>
+      <x:c r="G4" s="34"/>
+      <x:c r="H4" s="34"/>
+      <x:c r="I4" s="34"/>
+      <x:c r="J4" s="34"/>
+      <x:c r="K4" s="34"/>
+      <x:c r="L4" s="34"/>
+      <x:c r="N4" s="38" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O4" s="38"/>
       <x:c r="P4" s="11"/>
       <x:c r="Q4" s="11"/>
-      <x:c r="R4" s="34" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="S4" s="34"/>
+      <x:c r="R4" s="38" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="S4" s="38"/>
       <x:c r="T4" s="11"/>
       <x:c r="U4" s="11"/>
       <x:c r="V4" s="11"/>
     </x:row>
     <x:row r="5" spans="1:22">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="35" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C5" s="37" t="s">
+      <x:c r="B5" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C5" s="41" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D5" s="38"/>
-      <x:c r="E5" s="37" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F5" s="38"/>
-      <x:c r="G5" s="37" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="H5" s="38"/>
-      <x:c r="I5" s="37" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="J5" s="38"/>
-      <x:c r="K5" s="37" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="L5" s="39"/>
+      <x:c r="D5" s="42"/>
+      <x:c r="E5" s="41" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F5" s="42"/>
+      <x:c r="G5" s="41" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H5" s="42"/>
+      <x:c r="I5" s="41" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="J5" s="42"/>
+      <x:c r="K5" s="41" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="L5" s="43"/>
       <x:c r="N5" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O5" s="7">
         <x:f>SUM(C7:L7)</x:f>
@@ -6904,7 +7037,7 @@
       <x:c r="P5" s="10"/>
       <x:c r="Q5" s="10"/>
       <x:c r="R5" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="S5" s="7">
         <x:v>0</x:v>
@@ -6915,31 +7048,31 @@
     </x:row>
     <x:row r="6" spans="1:22">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="43"/>
-      <x:c r="C6" s="46" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="D6" s="47"/>
-      <x:c r="E6" s="44" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F6" s="45"/>
-      <x:c r="G6" s="44" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H6" s="45"/>
-      <x:c r="I6" s="46" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="J6" s="47"/>
+      <x:c r="B6" s="47"/>
+      <x:c r="C6" s="50" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D6" s="51"/>
+      <x:c r="E6" s="48" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F6" s="49"/>
+      <x:c r="G6" s="48" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="H6" s="49"/>
+      <x:c r="I6" s="50" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J6" s="51"/>
       <x:c r="K6" s="25" t="s">
-        <x:v>73</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="L6" s="25" t="s">
-        <x:v>26</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N6" s="8" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O6" s="7">
         <x:f>SUM(C9:H9)</x:f>
@@ -6956,22 +7089,22 @@
     <x:row r="7" spans="1:22">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C7" s="40"/>
-      <x:c r="D7" s="40"/>
-      <x:c r="E7" s="40">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C7" s="44"/>
+      <x:c r="D7" s="44"/>
+      <x:c r="E7" s="44">
         <x:v>39000000</x:v>
       </x:c>
-      <x:c r="F7" s="40"/>
-      <x:c r="G7" s="41">
+      <x:c r="F7" s="44"/>
+      <x:c r="G7" s="45">
         <x:v>6900000</x:v>
       </x:c>
-      <x:c r="H7" s="42"/>
-      <x:c r="I7" s="40">
+      <x:c r="H7" s="46"/>
+      <x:c r="I7" s="44">
         <x:v>1000000</x:v>
       </x:c>
-      <x:c r="J7" s="40"/>
+      <x:c r="J7" s="44"/>
       <x:c r="K7" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -6992,22 +7125,22 @@
     <x:row r="8" spans="1:22" ht="17.80000000000000071054">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C8" s="40"/>
-      <x:c r="D8" s="40"/>
-      <x:c r="E8" s="40">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C8" s="44"/>
+      <x:c r="D8" s="44"/>
+      <x:c r="E8" s="44">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F8" s="40"/>
-      <x:c r="G8" s="41">
+      <x:c r="F8" s="44"/>
+      <x:c r="G8" s="45">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H8" s="42"/>
-      <x:c r="I8" s="40">
+      <x:c r="H8" s="46"/>
+      <x:c r="I8" s="44">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J8" s="40"/>
+      <x:c r="J8" s="44"/>
       <x:c r="K8" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -7015,10 +7148,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="10"/>
-      <x:c r="N8" s="34" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="O8" s="34"/>
+      <x:c r="N8" s="38" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="O8" s="38"/>
       <x:c r="P8" s="10"/>
       <x:c r="Q8" s="10"/>
       <x:c r="R8" s="10"/>
@@ -7030,28 +7163,28 @@
     <x:row r="9" spans="1:22">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C9" s="40">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C9" s="44">
         <x:f>C8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D9" s="40"/>
-      <x:c r="E9" s="40">
+      <x:c r="D9" s="44"/>
+      <x:c r="E9" s="44">
         <x:f>E8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F9" s="40"/>
-      <x:c r="G9" s="40">
+      <x:c r="F9" s="44"/>
+      <x:c r="G9" s="44">
         <x:f>G8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H9" s="40"/>
-      <x:c r="I9" s="40">
+      <x:c r="H9" s="44"/>
+      <x:c r="I9" s="44">
         <x:f>I8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J9" s="40"/>
+      <x:c r="J9" s="44"/>
       <x:c r="K9" s="7">
         <x:f>K8*0</x:f>
         <x:v>0</x:v>
@@ -7062,7 +7195,7 @@
       </x:c>
       <x:c r="M9" s="10"/>
       <x:c r="N9" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O9" s="7">
         <x:f>O5-G7</x:f>
@@ -7117,7 +7250,7 @@
     <x:mergeCell ref="G5:H5"/>
     <x:mergeCell ref="R4:S4"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -7127,9 +7260,9 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:AG49"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <x:pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
-      <x:selection pane="bottomRight" activeCell="E19" activeCellId="0" sqref="E19:E19"/>
+      <x:selection pane="bottomRight" activeCell="J16" activeCellId="0" sqref="J16:J16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -7187,29 +7320,29 @@
     </x:row>
     <x:row r="2" spans="1:33" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="31" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C2" s="32"/>
-      <x:c r="D2" s="32"/>
-      <x:c r="E2" s="32"/>
-      <x:c r="F2" s="32"/>
-      <x:c r="G2" s="32"/>
-      <x:c r="H2" s="32"/>
-      <x:c r="I2" s="32"/>
-      <x:c r="J2" s="32"/>
-      <x:c r="K2" s="32"/>
-      <x:c r="L2" s="32"/>
-      <x:c r="M2" s="32"/>
-      <x:c r="N2" s="32"/>
-      <x:c r="O2" s="32"/>
-      <x:c r="P2" s="32"/>
-      <x:c r="Q2" s="32"/>
-      <x:c r="R2" s="32"/>
-      <x:c r="S2" s="32"/>
-      <x:c r="T2" s="32"/>
-      <x:c r="U2" s="32"/>
-      <x:c r="V2" s="33"/>
+      <x:c r="B2" s="35" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="36"/>
+      <x:c r="D2" s="36"/>
+      <x:c r="E2" s="36"/>
+      <x:c r="F2" s="36"/>
+      <x:c r="G2" s="36"/>
+      <x:c r="H2" s="36"/>
+      <x:c r="I2" s="36"/>
+      <x:c r="J2" s="36"/>
+      <x:c r="K2" s="36"/>
+      <x:c r="L2" s="36"/>
+      <x:c r="M2" s="36"/>
+      <x:c r="N2" s="36"/>
+      <x:c r="O2" s="36"/>
+      <x:c r="P2" s="36"/>
+      <x:c r="Q2" s="36"/>
+      <x:c r="R2" s="36"/>
+      <x:c r="S2" s="36"/>
+      <x:c r="T2" s="36"/>
+      <x:c r="U2" s="36"/>
+      <x:c r="V2" s="37"/>
       <x:c r="W2" s="10"/>
       <x:c r="X2" s="10"/>
       <x:c r="Y2" s="10"/>
@@ -7259,31 +7392,31 @@
     </x:row>
     <x:row r="4" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="30" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C4" s="30"/>
-      <x:c r="D4" s="30"/>
-      <x:c r="E4" s="30"/>
-      <x:c r="F4" s="30"/>
-      <x:c r="G4" s="30"/>
-      <x:c r="H4" s="30"/>
-      <x:c r="I4" s="30"/>
-      <x:c r="J4" s="30"/>
-      <x:c r="K4" s="30"/>
-      <x:c r="L4" s="30"/>
-      <x:c r="M4" s="30"/>
-      <x:c r="N4" s="30"/>
-      <x:c r="O4" s="30"/>
-      <x:c r="P4" s="30"/>
-      <x:c r="Q4" s="30"/>
-      <x:c r="R4" s="30"/>
-      <x:c r="S4" s="30"/>
+      <x:c r="B4" s="34" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C4" s="34"/>
+      <x:c r="D4" s="34"/>
+      <x:c r="E4" s="34"/>
+      <x:c r="F4" s="34"/>
+      <x:c r="G4" s="34"/>
+      <x:c r="H4" s="34"/>
+      <x:c r="I4" s="34"/>
+      <x:c r="J4" s="34"/>
+      <x:c r="K4" s="34"/>
+      <x:c r="L4" s="34"/>
+      <x:c r="M4" s="34"/>
+      <x:c r="N4" s="34"/>
+      <x:c r="O4" s="34"/>
+      <x:c r="P4" s="34"/>
+      <x:c r="Q4" s="34"/>
+      <x:c r="R4" s="34"/>
+      <x:c r="S4" s="34"/>
       <x:c r="T4" s="11"/>
-      <x:c r="U4" s="34" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="V4" s="34"/>
+      <x:c r="U4" s="38" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="V4" s="38"/>
       <x:c r="W4" s="11"/>
       <x:c r="X4" s="11"/>
       <x:c r="Y4" s="11"/>
@@ -7298,41 +7431,41 @@
     </x:row>
     <x:row r="5" spans="1:33">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="35" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C5" s="37" t="s">
+      <x:c r="B5" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C5" s="41" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="D5" s="38"/>
-      <x:c r="E5" s="37" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F5" s="39"/>
-      <x:c r="G5" s="39"/>
-      <x:c r="H5" s="39"/>
-      <x:c r="I5" s="39"/>
-      <x:c r="J5" s="38"/>
-      <x:c r="K5" s="37" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="L5" s="39"/>
-      <x:c r="M5" s="39"/>
-      <x:c r="N5" s="39"/>
-      <x:c r="O5" s="38"/>
-      <x:c r="P5" s="35" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="Q5" s="37" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="R5" s="38"/>
-      <x:c r="S5" s="35" t="s">
-        <x:v>34</x:v>
+      <x:c r="D5" s="42"/>
+      <x:c r="E5" s="41" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F5" s="43"/>
+      <x:c r="G5" s="43"/>
+      <x:c r="H5" s="43"/>
+      <x:c r="I5" s="43"/>
+      <x:c r="J5" s="42"/>
+      <x:c r="K5" s="41" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="L5" s="43"/>
+      <x:c r="M5" s="43"/>
+      <x:c r="N5" s="43"/>
+      <x:c r="O5" s="42"/>
+      <x:c r="P5" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="Q5" s="41" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R5" s="42"/>
+      <x:c r="S5" s="39" t="s">
+        <x:v>67</x:v>
       </x:c>
       <x:c r="T5" s="10"/>
       <x:c r="U5" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="V5" s="7">
         <x:f>D10</x:f>
@@ -7352,64 +7485,64 @@
     </x:row>
     <x:row r="6" spans="1:33">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="36"/>
+      <x:c r="B6" s="40"/>
       <x:c r="C6" s="8" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D6" s="8" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E6" s="8" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F6" s="8" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G6" s="8" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H6" s="8" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D6" s="8" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="E6" s="8" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="F6" s="8" t="s">
+      <x:c r="I6" s="8" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J6" s="8" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="K6" s="8" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="G6" s="8" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="H6" s="8" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I6" s="8" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="J6" s="8" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="K6" s="8" t="s">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="L6" s="8" t="s">
-        <x:v>60</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M6" s="20" t="s">
-        <x:v>7</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N6" s="20" t="s">
-        <x:v>106</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="O6" s="20" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="P6" s="36"/>
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="P6" s="40"/>
       <x:c r="Q6" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="R6" s="8" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="S6" s="36"/>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="S6" s="40"/>
       <x:c r="T6" s="10"/>
       <x:c r="U6" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="V6" s="7">
         <x:f>J10+O10+P10</x:f>
         <x:v>1252910</x:v>
       </x:c>
       <x:c r="W6" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="X6" s="10"/>
       <x:c r="Y6" s="10"/>
@@ -7425,7 +7558,7 @@
     <x:row r="7" spans="1:33">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C7" s="6">
         <x:v>0</x:v>
@@ -7446,7 +7579,7 @@
         <x:v>400000</x:v>
       </x:c>
       <x:c r="I7" s="24" t="s">
-        <x:v>40</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J7" s="6">
         <x:v>100000</x:v>
@@ -7480,7 +7613,7 @@
       <x:c r="S7" s="6"/>
       <x:c r="T7" s="10"/>
       <x:c r="U7" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="V7" s="7">
         <x:f>R10</x:f>
@@ -7501,7 +7634,7 @@
     <x:row r="8" spans="1:33">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>89</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C8" s="7">
         <x:v>0</x:v>
@@ -7565,7 +7698,7 @@
       </x:c>
       <x:c r="T8" s="10"/>
       <x:c r="U8" s="8" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="V8" s="7">
         <x:v>200000</x:v>
@@ -7585,7 +7718,7 @@
     <x:row r="9" spans="1:33">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:f t="shared" ref="C9:S9" si="0">C7-C8</x:f>
@@ -7648,14 +7781,14 @@
       </x:c>
       <x:c r="T9" s="10"/>
       <x:c r="U9" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="V9" s="7">
         <x:f>V5-(V6+V7+V8)</x:f>
         <x:v>-3352910</x:v>
       </x:c>
       <x:c r="W9" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="X9" s="10"/>
       <x:c r="Y9" s="10"/>
@@ -7708,14 +7841,14 @@
       </x:c>
       <x:c r="T10" s="10"/>
       <x:c r="U10" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V10" s="23" t="e">
         <x:f>V6/V5</x:f>
         <x:v>#DIV/0!</x:v>
       </x:c>
       <x:c r="W10" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="X10" s="10"/>
       <x:c r="Y10" s="10"/>
@@ -7750,14 +7883,14 @@
       <x:c r="S11" s="12"/>
       <x:c r="T11" s="10"/>
       <x:c r="U11" s="21" t="s">
-        <x:v>49</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="V11" s="23" t="e">
         <x:f>V7/V5</x:f>
         <x:v>#DIV/0!</x:v>
       </x:c>
       <x:c r="W11" s="10" t="s">
-        <x:v>112</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="X11" s="10"/>
       <x:c r="Y11" s="10"/>
@@ -7773,7 +7906,7 @@
     <x:row r="12" spans="1:33">
       <x:c r="A12" s="10"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>67</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C12" s="7">
         <x:f>SUM(C16:C33)</x:f>
@@ -7832,7 +7965,7 @@
       <x:c r="S13" s="10"/>
       <x:c r="T13" s="10"/>
       <x:c r="U13" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="V13" s="19">
         <x:v>0.5</x:v>
@@ -7854,24 +7987,24 @@
     </x:row>
     <x:row r="14" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A14" s="11"/>
-      <x:c r="B14" s="30" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C14" s="30"/>
-      <x:c r="D14" s="30"/>
-      <x:c r="E14" s="30"/>
+      <x:c r="B14" s="34" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C14" s="34"/>
+      <x:c r="D14" s="34"/>
+      <x:c r="E14" s="34"/>
       <x:c r="F14" s="17" t="s">
-        <x:v>66</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G14" s="17"/>
       <x:c r="H14" s="17"/>
       <x:c r="I14" s="11"/>
-      <x:c r="J14" s="30" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K14" s="30"/>
-      <x:c r="L14" s="30"/>
-      <x:c r="M14" s="30"/>
+      <x:c r="J14" s="34" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="K14" s="34"/>
+      <x:c r="L14" s="34"/>
+      <x:c r="M14" s="34"/>
       <x:c r="N14" s="11"/>
       <x:c r="O14" s="11"/>
       <x:c r="P14" s="11"/>
@@ -7880,7 +8013,7 @@
       <x:c r="S14" s="11"/>
       <x:c r="T14" s="11"/>
       <x:c r="U14" s="8" t="s">
-        <x:v>77</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V14" s="19">
         <x:v>0.5</x:v>
@@ -7903,32 +8036,32 @@
     <x:row r="15" spans="1:33">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>79</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>55</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F15" s="17"/>
       <x:c r="G15" s="17"/>
       <x:c r="H15" s="17"/>
       <x:c r="I15" s="10"/>
       <x:c r="J15" s="8" t="s">
-        <x:v>79</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="K15" s="8" t="s">
-        <x:v>55</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="L15" s="8" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="M15" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N15" s="10"/>
       <x:c r="O15" s="10"/>
@@ -7960,10 +8093,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>31</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="22"/>
@@ -8005,10 +8138,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F17" s="17"/>
       <x:c r="G17" s="17"/>
@@ -8048,10 +8181,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D18" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F18" s="17"/>
       <x:c r="G18" s="17"/>
@@ -8091,10 +8224,10 @@
         <x:v>1200</x:v>
       </x:c>
       <x:c r="D19" s="16" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s">
-        <x:v>31</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F19" s="17"/>
       <x:c r="G19" s="17"/>
@@ -8134,10 +8267,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F20" s="17"/>
       <x:c r="G20" s="17"/>
@@ -8177,10 +8310,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="D21" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F21" s="17"/>
       <x:c r="G21" s="17"/>
@@ -9232,7 +9365,7 @@
       <x:formula>$V$13</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -9291,19 +9424,19 @@
     </x:row>
     <x:row r="2" spans="1:26" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="31" t="s">
+      <x:c r="B2" s="35" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C2" s="32"/>
-      <x:c r="D2" s="32"/>
-      <x:c r="E2" s="32"/>
-      <x:c r="F2" s="32"/>
-      <x:c r="G2" s="32"/>
-      <x:c r="H2" s="32"/>
-      <x:c r="I2" s="32"/>
-      <x:c r="J2" s="32"/>
-      <x:c r="K2" s="32"/>
-      <x:c r="L2" s="33"/>
+      <x:c r="C2" s="36"/>
+      <x:c r="D2" s="36"/>
+      <x:c r="E2" s="36"/>
+      <x:c r="F2" s="36"/>
+      <x:c r="G2" s="36"/>
+      <x:c r="H2" s="36"/>
+      <x:c r="I2" s="36"/>
+      <x:c r="J2" s="36"/>
+      <x:c r="K2" s="36"/>
+      <x:c r="L2" s="37"/>
       <x:c r="M2" s="10"/>
       <x:c r="N2" s="10"/>
       <x:c r="O2" s="10"/>
@@ -9349,28 +9482,28 @@
     </x:row>
     <x:row r="4" spans="1:26" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="30" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C4" s="30"/>
-      <x:c r="D4" s="30"/>
-      <x:c r="E4" s="30"/>
-      <x:c r="F4" s="30"/>
-      <x:c r="G4" s="30"/>
-      <x:c r="H4" s="30"/>
-      <x:c r="I4" s="30"/>
-      <x:c r="J4" s="30"/>
-      <x:c r="K4" s="30"/>
-      <x:c r="L4" s="30"/>
+      <x:c r="B4" s="34" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C4" s="34"/>
+      <x:c r="D4" s="34"/>
+      <x:c r="E4" s="34"/>
+      <x:c r="F4" s="34"/>
+      <x:c r="G4" s="34"/>
+      <x:c r="H4" s="34"/>
+      <x:c r="I4" s="34"/>
+      <x:c r="J4" s="34"/>
+      <x:c r="K4" s="34"/>
+      <x:c r="L4" s="34"/>
       <x:c r="M4" s="11"/>
-      <x:c r="N4" s="34" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="O4" s="34"/>
-      <x:c r="Q4" s="34" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="R4" s="34"/>
+      <x:c r="N4" s="38" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O4" s="38"/>
+      <x:c r="Q4" s="38" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R4" s="38"/>
       <x:c r="S4" s="11"/>
       <x:c r="V4" s="11"/>
       <x:c r="W4" s="11"/>
@@ -9380,39 +9513,39 @@
     </x:row>
     <x:row r="5" spans="1:26">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="35" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C5" s="37" t="s">
+      <x:c r="B5" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C5" s="41" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D5" s="38"/>
-      <x:c r="E5" s="37" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F5" s="38"/>
-      <x:c r="G5" s="37" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="H5" s="38"/>
-      <x:c r="I5" s="37" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="J5" s="38"/>
-      <x:c r="K5" s="37" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="L5" s="39"/>
+      <x:c r="D5" s="42"/>
+      <x:c r="E5" s="41" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F5" s="42"/>
+      <x:c r="G5" s="41" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H5" s="42"/>
+      <x:c r="I5" s="41" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="J5" s="42"/>
+      <x:c r="K5" s="41" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="L5" s="43"/>
       <x:c r="M5" s="10"/>
       <x:c r="N5" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O5" s="7">
         <x:f>R5+SUM(C8:L8)</x:f>
         <x:v>48800000</x:v>
       </x:c>
       <x:c r="Q5" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="R5" s="7">
         <x:f>'1월(자산)'!O5</x:f>
@@ -9427,32 +9560,32 @@
     </x:row>
     <x:row r="6" spans="1:26">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="43"/>
-      <x:c r="C6" s="46" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="D6" s="47"/>
-      <x:c r="E6" s="44" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F6" s="45"/>
-      <x:c r="G6" s="44" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H6" s="45"/>
-      <x:c r="I6" s="46" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="J6" s="47"/>
+      <x:c r="B6" s="47"/>
+      <x:c r="C6" s="50" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D6" s="51"/>
+      <x:c r="E6" s="48" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F6" s="49"/>
+      <x:c r="G6" s="48" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="H6" s="49"/>
+      <x:c r="I6" s="50" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J6" s="51"/>
       <x:c r="K6" s="25" t="s">
-        <x:v>73</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="L6" s="25" t="s">
-        <x:v>26</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M6" s="10"/>
       <x:c r="N6" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O6" s="7">
         <x:f>SUM(C9:L9)</x:f>
@@ -9471,27 +9604,27 @@
     <x:row r="7" spans="1:26">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C7" s="40">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C7" s="44">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D7" s="40"/>
-      <x:c r="E7" s="41">
+      <x:c r="D7" s="44"/>
+      <x:c r="E7" s="45">
         <x:f>SUM('1월(자산)'!E7:F8)</x:f>
         <x:v>39000000</x:v>
       </x:c>
-      <x:c r="F7" s="42"/>
-      <x:c r="G7" s="41">
+      <x:c r="F7" s="46"/>
+      <x:c r="G7" s="45">
         <x:f>SUM('1월(자산)'!G7:H8)</x:f>
         <x:v>6900000</x:v>
       </x:c>
-      <x:c r="H7" s="42"/>
-      <x:c r="I7" s="40">
+      <x:c r="H7" s="46"/>
+      <x:c r="I7" s="44">
         <x:f>SUM('1월(자산)'!I7:J8)</x:f>
         <x:v>1000000</x:v>
       </x:c>
-      <x:c r="J7" s="40"/>
+      <x:c r="J7" s="44"/>
       <x:c r="K7" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -9516,24 +9649,24 @@
     <x:row r="8" spans="1:26" ht="17.80000000000000071054">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C8" s="40">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C8" s="44">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D8" s="40"/>
-      <x:c r="E8" s="41">
+      <x:c r="D8" s="44"/>
+      <x:c r="E8" s="45">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F8" s="42"/>
-      <x:c r="G8" s="41">
+      <x:c r="F8" s="46"/>
+      <x:c r="G8" s="45">
         <x:v>100000</x:v>
       </x:c>
-      <x:c r="H8" s="42"/>
-      <x:c r="I8" s="40">
+      <x:c r="H8" s="46"/>
+      <x:c r="I8" s="44">
         <x:v>1800000</x:v>
       </x:c>
-      <x:c r="J8" s="40"/>
+      <x:c r="J8" s="44"/>
       <x:c r="K8" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -9541,10 +9674,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="10"/>
-      <x:c r="N8" s="34" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="O8" s="34"/>
+      <x:c r="N8" s="38" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="O8" s="38"/>
       <x:c r="P8" s="10"/>
       <x:c r="Q8" s="10"/>
       <x:c r="R8" s="10"/>
@@ -9560,28 +9693,28 @@
     <x:row r="9" spans="1:26">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C9" s="40">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C9" s="44">
         <x:f>C8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D9" s="40"/>
-      <x:c r="E9" s="40">
+      <x:c r="D9" s="44"/>
+      <x:c r="E9" s="44">
         <x:f>E8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F9" s="40"/>
-      <x:c r="G9" s="40">
+      <x:c r="F9" s="44"/>
+      <x:c r="G9" s="44">
         <x:f>G8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H9" s="40"/>
-      <x:c r="I9" s="40">
+      <x:c r="H9" s="44"/>
+      <x:c r="I9" s="44">
         <x:f>I8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J9" s="40"/>
+      <x:c r="J9" s="44"/>
       <x:c r="K9" s="7">
         <x:f>K8*0</x:f>
         <x:v>0</x:v>
@@ -9592,7 +9725,7 @@
       </x:c>
       <x:c r="M9" s="10"/>
       <x:c r="N9" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O9" s="7">
         <x:f>O5-G7</x:f>
@@ -9671,7 +9804,7 @@
     <x:mergeCell ref="C6:D6"/>
     <x:mergeCell ref="I6:J6"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -23,354 +23,357 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="116">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="117">
+  <x:si>
+    <x:t>변동지출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교통비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국민은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>역귀성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피부과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채권</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>택시비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주거비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교통후불</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잔액 = 소득계 - (지출계+저축계+투자계)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생활비(식비)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뽀미약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가용자산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청약통장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주택관리비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출률 = 지출계/소득계*100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점심(데이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가슴패치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소득계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변동수입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빨래</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잔액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>셍활비(식비)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점심</x:t>
+  </x:si>
   <x:si>
     <x:t>수익률</x:t>
   </x:si>
   <x:si>
+    <x:t>금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해든마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>닭가슴살</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현금 흐름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노래방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고정수입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올리브영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소득</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이소 및 마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드결제료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비상금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>`</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통신비</x:t>
+  </x:si>
+  <x:si>
     <x:t>명절선물비</x:t>
   </x:si>
   <x:si>
+    <x:t>기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈모약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월 결산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류구입비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현금사용실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 1월 송민영의 가계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈플러스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 1월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(치킨)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액조정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용돈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시가스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 2월 송민영의 가계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본죽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생활비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주식</x:t>
+  </x:si>
+  <x:si>
     <x:t>김밥천국</x:t>
   </x:si>
   <x:si>
-    <x:t>채권</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리은행</x:t>
+    <x:t>관리비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드사용실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드값(전월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출계 = 변동지출 + 고정지출 + 비상금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건강검진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이스크림점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드값(금월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피트니스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돈까스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 2월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축목표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고정지출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(데이트)</x:t>
   </x:si>
   <x:si>
     <x:t>수영비</x:t>
   </x:si>
   <x:si>
-    <x:t>청약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점심</x:t>
+    <x:t>기타(데이트통장+유투브 구독)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출목표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설 명절 음식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단백질바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정기예금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축률 = 저축계/소득계*100</x:t>
   </x:si>
   <x:si>
     <x:t>지출계</x:t>
   </x:si>
   <x:si>
-    <x:t>2024년 2월 송민영의 자본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 2월 송민영의 가계부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통신비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점심(데이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>커트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가슴패치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시가스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본죽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출계 = 변동지출 + 고정지출 + 비상금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이스크림점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>닭가슴살</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주차비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>용돈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교통후불</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노래방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청약통장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주거비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고정수입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월 결산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축률 = 저축계/소득계*100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건강검진</x:t>
-  </x:si>
-  <x:si>
     <x:t>커피</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈플러스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뽀미약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생활비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교통비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가용자산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빨래</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소득</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잔액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액조정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변동지출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피부과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABC마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현금사용실적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드값(전월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류구입비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(치킨)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(데이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올리브영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈모약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정기예금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출률 = 지출계/소득계*100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소득계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이소 및 마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 1월 송민영의 자본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현금 흐름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타(데이트통장+유투브 구독)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해든마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비상금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>택시비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단백질바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고정지출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드값(금월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주택관리비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 1월 송민영의 가계부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>`</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변동수입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생활비(식비)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잔액 = 소득계 - (지출계+저축계+투자계)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국민은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드결제료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돈까스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피트니스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드사용실적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>역귀성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>셍활비(식비)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -383,42 +386,148 @@
     <x:numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </x:numFmts>
   <x:fonts count="12">
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -441,26 +550,11 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="12"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -528,7 +622,7 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="8">
+  <x:fills count="9">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -568,6 +662,12 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="ff000000"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffd700"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -697,6 +797,20 @@
       </x:top>
       <x:bottom style="thin">
         <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -895,20 +1009,6 @@
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
-    <x:border>
-      <x:left>
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
   </x:borders>
   <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -924,7 +1024,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="60">
+  <x:cellXfs count="62">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1267,28 +1367,109 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="41" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="41" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="6" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="6" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1315,6 +1496,19 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1360,19 +1554,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1399,6 +1580,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1406,19 +1600,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1438,13 +1619,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1501,30 +1682,35 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="6" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="4">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1912,7 +2098,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1945,7 +2130,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1976,7 +2160,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2007,7 +2190,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2040,7 +2222,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2075,7 +2256,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2108,7 +2288,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2141,7 +2320,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2172,7 +2350,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2203,7 +2380,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2236,7 +2412,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2271,7 +2446,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2624,7 +2798,7 @@
       <x:selection pane="bottomRight" activeCell="I32" activeCellId="0" sqref="I32:I32"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="17.39999999999999857891"/>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <x:col min="3" max="4" width="10.8984375" customWidth="1"/>
@@ -2642,7 +2816,7 @@
     <x:col min="23" max="23" width="13.296875" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:33" ht="18">
+    <x:row r="1" spans="1:33">
       <x:c r="A1" s="10"/>
       <x:c r="B1" s="10"/>
       <x:c r="C1" s="10"/>
@@ -2679,29 +2853,29 @@
     </x:row>
     <x:row r="2" spans="1:33" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="35" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C2" s="36"/>
-      <x:c r="D2" s="36"/>
-      <x:c r="E2" s="36"/>
-      <x:c r="F2" s="36"/>
-      <x:c r="G2" s="36"/>
-      <x:c r="H2" s="36"/>
-      <x:c r="I2" s="36"/>
-      <x:c r="J2" s="36"/>
-      <x:c r="K2" s="36"/>
-      <x:c r="L2" s="36"/>
-      <x:c r="M2" s="36"/>
-      <x:c r="N2" s="36"/>
-      <x:c r="O2" s="36"/>
-      <x:c r="P2" s="36"/>
-      <x:c r="Q2" s="36"/>
-      <x:c r="R2" s="36"/>
-      <x:c r="S2" s="36"/>
-      <x:c r="T2" s="36"/>
-      <x:c r="U2" s="36"/>
-      <x:c r="V2" s="37"/>
+      <x:c r="B2" s="43" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C2" s="44"/>
+      <x:c r="D2" s="44"/>
+      <x:c r="E2" s="44"/>
+      <x:c r="F2" s="44"/>
+      <x:c r="G2" s="44"/>
+      <x:c r="H2" s="44"/>
+      <x:c r="I2" s="44"/>
+      <x:c r="J2" s="44"/>
+      <x:c r="K2" s="44"/>
+      <x:c r="L2" s="44"/>
+      <x:c r="M2" s="44"/>
+      <x:c r="N2" s="44"/>
+      <x:c r="O2" s="44"/>
+      <x:c r="P2" s="44"/>
+      <x:c r="Q2" s="44"/>
+      <x:c r="R2" s="44"/>
+      <x:c r="S2" s="44"/>
+      <x:c r="T2" s="44"/>
+      <x:c r="U2" s="44"/>
+      <x:c r="V2" s="45"/>
       <x:c r="W2" s="10"/>
       <x:c r="X2" s="10"/>
       <x:c r="Y2" s="10"/>
@@ -2749,33 +2923,33 @@
       <x:c r="AF3" s="10"/>
       <x:c r="AG3" s="10"/>
     </x:row>
-    <x:row r="4" spans="1:33" s="9" customFormat="1" ht="19.19999999999999928946">
+    <x:row r="4" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="34" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C4" s="34"/>
-      <x:c r="D4" s="34"/>
-      <x:c r="E4" s="34"/>
-      <x:c r="F4" s="34"/>
-      <x:c r="G4" s="34"/>
-      <x:c r="H4" s="34"/>
-      <x:c r="I4" s="34"/>
-      <x:c r="J4" s="34"/>
-      <x:c r="K4" s="34"/>
-      <x:c r="L4" s="34"/>
-      <x:c r="M4" s="34"/>
-      <x:c r="N4" s="34"/>
-      <x:c r="O4" s="34"/>
-      <x:c r="P4" s="34"/>
-      <x:c r="Q4" s="34"/>
-      <x:c r="R4" s="34"/>
-      <x:c r="S4" s="34"/>
+      <x:c r="B4" s="42" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C4" s="42"/>
+      <x:c r="D4" s="42"/>
+      <x:c r="E4" s="42"/>
+      <x:c r="F4" s="42"/>
+      <x:c r="G4" s="42"/>
+      <x:c r="H4" s="42"/>
+      <x:c r="I4" s="42"/>
+      <x:c r="J4" s="42"/>
+      <x:c r="K4" s="42"/>
+      <x:c r="L4" s="42"/>
+      <x:c r="M4" s="42"/>
+      <x:c r="N4" s="42"/>
+      <x:c r="O4" s="42"/>
+      <x:c r="P4" s="42"/>
+      <x:c r="Q4" s="42"/>
+      <x:c r="R4" s="42"/>
+      <x:c r="S4" s="42"/>
       <x:c r="T4" s="11"/>
-      <x:c r="U4" s="38" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="V4" s="38"/>
+      <x:c r="U4" s="46" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="V4" s="46"/>
       <x:c r="W4" s="11"/>
       <x:c r="X4" s="11"/>
       <x:c r="Y4" s="11"/>
@@ -2790,41 +2964,41 @@
     </x:row>
     <x:row r="5" spans="1:33">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="39" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C5" s="41" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D5" s="42"/>
-      <x:c r="E5" s="41" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="F5" s="43"/>
-      <x:c r="G5" s="43"/>
-      <x:c r="H5" s="43"/>
-      <x:c r="I5" s="43"/>
-      <x:c r="J5" s="42"/>
-      <x:c r="K5" s="41" t="s">
+      <x:c r="B5" s="47" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="49" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D5" s="50"/>
+      <x:c r="E5" s="49" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F5" s="51"/>
+      <x:c r="G5" s="51"/>
+      <x:c r="H5" s="51"/>
+      <x:c r="I5" s="51"/>
+      <x:c r="J5" s="50"/>
+      <x:c r="K5" s="49" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="L5" s="51"/>
+      <x:c r="M5" s="51"/>
+      <x:c r="N5" s="51"/>
+      <x:c r="O5" s="50"/>
+      <x:c r="P5" s="47" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Q5" s="49" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="L5" s="43"/>
-      <x:c r="M5" s="43"/>
-      <x:c r="N5" s="43"/>
-      <x:c r="O5" s="42"/>
-      <x:c r="P5" s="39" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="Q5" s="41" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="R5" s="42"/>
-      <x:c r="S5" s="39" t="s">
-        <x:v>67</x:v>
+      <x:c r="R5" s="50"/>
+      <x:c r="S5" s="47" t="s">
+        <x:v>83</x:v>
       </x:c>
       <x:c r="T5" s="10"/>
       <x:c r="U5" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="V5" s="7">
         <x:f>D10</x:f>
@@ -2844,64 +3018,64 @@
     </x:row>
     <x:row r="6" spans="1:33">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="40"/>
+      <x:c r="B6" s="48"/>
       <x:c r="C6" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E6" s="8" t="s">
-        <x:v>76</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F6" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G6" s="8" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H6" s="8" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I6" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J6" s="8" t="s">
-        <x:v>77</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K6" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="L6" s="8" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M6" s="20" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="N6" s="20" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O6" s="20" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="P6" s="48"/>
+      <x:c r="Q6" s="8" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="R6" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="M6" s="20" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N6" s="20" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="O6" s="20" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="P6" s="40"/>
-      <x:c r="Q6" s="8" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="R6" s="8" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="S6" s="40"/>
+      <x:c r="S6" s="48"/>
       <x:c r="T6" s="10"/>
       <x:c r="U6" s="8" t="s">
-        <x:v>8</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="V6" s="7">
         <x:f>J10+O10+P10</x:f>
         <x:v>2889406</x:v>
       </x:c>
       <x:c r="W6" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="X6" s="10"/>
       <x:c r="Y6" s="10"/>
@@ -2914,10 +3088,10 @@
       <x:c r="AF6" s="10"/>
       <x:c r="AG6" s="10"/>
     </x:row>
-    <x:row r="7" spans="1:33" ht="16.39999999999999857891">
+    <x:row r="7" spans="1:33">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C7" s="6">
         <x:v>4000000</x:v>
@@ -2938,7 +3112,7 @@
         <x:v>400000</x:v>
       </x:c>
       <x:c r="I7" s="24" t="s">
-        <x:v>65</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J7" s="6">
         <x:v>100000</x:v>
@@ -2972,7 +3146,7 @@
       <x:c r="S7" s="6"/>
       <x:c r="T7" s="10"/>
       <x:c r="U7" s="8" t="s">
-        <x:v>62</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="V7" s="7">
         <x:f>R10</x:f>
@@ -2990,10 +3164,10 @@
       <x:c r="AF7" s="10"/>
       <x:c r="AG7" s="10"/>
     </x:row>
-    <x:row r="8" spans="1:33" ht="16.39999999999999857891">
+    <x:row r="8" spans="1:33">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="7">
         <x:f>4129547+34400+298400+100000</x:f>
@@ -3056,7 +3230,7 @@
       </x:c>
       <x:c r="T8" s="10"/>
       <x:c r="U8" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="V8" s="7">
         <x:f>S8</x:f>
@@ -3074,10 +3248,10 @@
       <x:c r="AF8" s="10"/>
       <x:c r="AG8" s="10"/>
     </x:row>
-    <x:row r="9" spans="1:33" ht="16.39999999999999857891">
+    <x:row r="9" spans="1:33">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:f>C8-C7</x:f>
@@ -3146,14 +3320,14 @@
       <x:c r="S9" s="7"/>
       <x:c r="T9" s="10"/>
       <x:c r="U9" s="8" t="s">
-        <x:v>63</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V9" s="7">
         <x:f>V5-(V6+V7+V8)</x:f>
         <x:v>-87059</x:v>
       </x:c>
       <x:c r="W9" s="13" t="s">
-        <x:v>108</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="X9" s="10"/>
       <x:c r="Y9" s="10"/>
@@ -3206,14 +3380,14 @@
       </x:c>
       <x:c r="T10" s="10"/>
       <x:c r="U10" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="V10" s="23">
         <x:f>V6/V5</x:f>
         <x:v>0.63331570351838651</x:v>
       </x:c>
       <x:c r="W10" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="X10" s="10"/>
       <x:c r="Y10" s="10"/>
@@ -3248,14 +3422,14 @@
       <x:c r="S11" s="12"/>
       <x:c r="T11" s="10"/>
       <x:c r="U11" s="21" t="s">
-        <x:v>78</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="V11" s="23">
         <x:f>V7/V5</x:f>
         <x:v>0.24110397565112868</x:v>
       </x:c>
       <x:c r="W11" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="X11" s="10"/>
       <x:c r="Y11" s="10"/>
@@ -3271,7 +3445,7 @@
     <x:row r="12" spans="1:33">
       <x:c r="A12" s="10"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C12" s="7">
         <x:f>SUM(C16:C72)</x:f>
@@ -3308,7 +3482,7 @@
       <x:c r="AF12" s="10"/>
       <x:c r="AG12" s="10"/>
     </x:row>
-    <x:row r="13" spans="1:33" ht="19.19999999999999928946">
+    <x:row r="13" spans="1:33" ht="17.80000000000000071054">
       <x:c r="A13" s="10"/>
       <x:c r="B13" s="10"/>
       <x:c r="C13" s="10"/>
@@ -3330,7 +3504,7 @@
       <x:c r="S13" s="10"/>
       <x:c r="T13" s="10"/>
       <x:c r="U13" s="8" t="s">
-        <x:v>73</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="V13" s="19">
         <x:v>0.5</x:v>
@@ -3350,26 +3524,26 @@
       <x:c r="AF13" s="10"/>
       <x:c r="AG13" s="10"/>
     </x:row>
-    <x:row r="14" spans="1:33" s="9" customFormat="1" ht="19.19999999999999928946">
+    <x:row r="14" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A14" s="11"/>
-      <x:c r="B14" s="34" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C14" s="34"/>
-      <x:c r="D14" s="34"/>
-      <x:c r="E14" s="34"/>
+      <x:c r="B14" s="42" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C14" s="42"/>
+      <x:c r="D14" s="42"/>
+      <x:c r="E14" s="42"/>
       <x:c r="F14" s="17" t="s">
-        <x:v>102</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G14" s="17"/>
       <x:c r="H14" s="17"/>
       <x:c r="I14" s="11"/>
-      <x:c r="J14" s="34" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="K14" s="34"/>
-      <x:c r="L14" s="34"/>
-      <x:c r="M14" s="34"/>
+      <x:c r="J14" s="42" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="K14" s="42"/>
+      <x:c r="L14" s="42"/>
+      <x:c r="M14" s="42"/>
       <x:c r="N14" s="11"/>
       <x:c r="O14" s="11"/>
       <x:c r="P14" s="11"/>
@@ -3378,7 +3552,7 @@
       <x:c r="S14" s="11"/>
       <x:c r="T14" s="11"/>
       <x:c r="U14" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="V14" s="19">
         <x:v>0.5</x:v>
@@ -3401,32 +3575,32 @@
     <x:row r="15" spans="1:33">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>106</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>49</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F15" s="17"/>
       <x:c r="G15" s="17"/>
       <x:c r="H15" s="17"/>
       <x:c r="I15" s="10"/>
       <x:c r="J15" s="8" t="s">
-        <x:v>106</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K15" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L15" s="8" t="s">
-        <x:v>49</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M15" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N15" s="10"/>
       <x:c r="O15" s="10"/>
@@ -3458,10 +3632,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="22"/>
@@ -3474,10 +3648,10 @@
         <x:v>22500</x:v>
       </x:c>
       <x:c r="L16" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="M16" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N16" s="22"/>
       <x:c r="O16" s="22"/>
@@ -3509,10 +3683,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F17" s="17"/>
       <x:c r="G17" s="17"/>
@@ -3525,10 +3699,10 @@
         <x:v>1500</x:v>
       </x:c>
       <x:c r="L17" s="16" t="s">
-        <x:v>23</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M17" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N17" s="17"/>
       <x:c r="O17" s="17"/>
@@ -3560,10 +3734,10 @@
         <x:v>19920</x:v>
       </x:c>
       <x:c r="D18" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F18" s="17"/>
       <x:c r="G18" s="17"/>
@@ -3576,10 +3750,10 @@
         <x:v>10580</x:v>
       </x:c>
       <x:c r="L18" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M18" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N18" s="17"/>
       <x:c r="O18" s="17"/>
@@ -3611,10 +3785,10 @@
         <x:v>5400</x:v>
       </x:c>
       <x:c r="D19" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F19" s="17"/>
       <x:c r="G19" s="17"/>
@@ -3627,10 +3801,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="L19" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="M19" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N19" s="17"/>
       <x:c r="O19" s="17"/>
@@ -3662,10 +3836,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>52</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F20" s="17"/>
       <x:c r="G20" s="17"/>
@@ -3678,10 +3852,10 @@
         <x:v>6990</x:v>
       </x:c>
       <x:c r="L20" s="16" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="M20" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N20" s="17"/>
       <x:c r="O20" s="17"/>
@@ -3713,10 +3887,10 @@
         <x:v>22000</x:v>
       </x:c>
       <x:c r="D21" s="16" t="s">
-        <x:v>71</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s">
-        <x:v>14</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F21" s="17"/>
       <x:c r="G21" s="17"/>
@@ -3729,10 +3903,10 @@
         <x:v>30919</x:v>
       </x:c>
       <x:c r="L21" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="M21" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N21" s="17"/>
       <x:c r="O21" s="17"/>
@@ -3764,10 +3938,10 @@
         <x:v>23219</x:v>
       </x:c>
       <x:c r="D22" s="28" t="s">
-        <x:v>80</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E22" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F22" s="17"/>
       <x:c r="G22" s="17"/>
@@ -3780,10 +3954,10 @@
         <x:v>82320</x:v>
       </x:c>
       <x:c r="L22" s="16" t="s">
-        <x:v>19</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M22" s="16" t="s">
-        <x:v>56</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N22" s="17"/>
       <x:c r="O22" s="17"/>
@@ -3815,10 +3989,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D23" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E23" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F23" s="17"/>
       <x:c r="G23" s="17"/>
@@ -3831,10 +4005,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="L23" s="16" t="s">
-        <x:v>30</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M23" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N23" s="17"/>
       <x:c r="O23" s="17"/>
@@ -3866,10 +4040,10 @@
         <x:v>30900</x:v>
       </x:c>
       <x:c r="D24" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E24" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F24" s="17"/>
       <x:c r="G24" s="17"/>
@@ -3882,10 +4056,10 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="L24" s="16" t="s">
-        <x:v>107</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="M24" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N24" s="17"/>
       <x:c r="O24" s="17"/>
@@ -3917,10 +4091,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D25" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E25" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F25" s="17"/>
       <x:c r="G25" s="17"/>
@@ -3933,10 +4107,10 @@
         <x:v>39535</x:v>
       </x:c>
       <x:c r="L25" s="16" t="s">
-        <x:v>24</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M25" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N25" s="17"/>
       <x:c r="O25" s="17"/>
@@ -3968,10 +4142,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D26" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E26" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F26" s="17"/>
       <x:c r="G26" s="17"/>
@@ -3984,10 +4158,10 @@
         <x:v>3150</x:v>
       </x:c>
       <x:c r="L26" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M26" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N26" s="17"/>
       <x:c r="O26" s="17"/>
@@ -4019,10 +4193,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D27" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E27" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F27" s="17"/>
       <x:c r="G27" s="17"/>
@@ -4036,10 +4210,10 @@
         <x:v>41400</x:v>
       </x:c>
       <x:c r="L27" s="28" t="s">
-        <x:v>80</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M27" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N27" s="17"/>
       <x:c r="O27" s="17"/>
@@ -4071,10 +4245,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D28" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E28" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F28" s="17"/>
       <x:c r="G28" s="17"/>
@@ -4087,10 +4261,10 @@
         <x:v>5400</x:v>
       </x:c>
       <x:c r="L28" s="16" t="s">
-        <x:v>110</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M28" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N28" s="29"/>
       <x:c r="O28" s="17"/>
@@ -4122,10 +4296,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D29" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E29" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F29" s="17"/>
       <x:c r="G29" s="17"/>
@@ -4138,10 +4312,10 @@
         <x:v>11500</x:v>
       </x:c>
       <x:c r="L29" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="M29" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N29" s="17"/>
       <x:c r="O29" s="17"/>
@@ -4173,10 +4347,10 @@
         <x:v>8910</x:v>
       </x:c>
       <x:c r="D30" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E30" s="16" t="s">
-        <x:v>64</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F30" s="17"/>
       <x:c r="G30" s="17"/>
@@ -4189,10 +4363,10 @@
         <x:v>2980</x:v>
       </x:c>
       <x:c r="L30" s="16" t="s">
-        <x:v>79</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="M30" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N30" s="17"/>
       <x:c r="O30" s="17"/>
@@ -4224,10 +4398,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D31" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E31" s="16" t="s">
-        <x:v>52</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F31" s="17"/>
       <x:c r="G31" s="17"/>
@@ -4240,10 +4414,10 @@
         <x:v>50100</x:v>
       </x:c>
       <x:c r="L31" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="M31" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="N31" s="17"/>
       <x:c r="O31" s="17"/>
@@ -4275,10 +4449,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D32" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E32" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F32" s="17"/>
       <x:c r="G32" s="17"/>
@@ -4291,10 +4465,10 @@
         <x:v>62100</x:v>
       </x:c>
       <x:c r="L32" s="16" t="s">
-        <x:v>72</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M32" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="N32" s="17"/>
       <x:c r="O32" s="17"/>
@@ -4326,10 +4500,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D33" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E33" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F33" s="17"/>
       <x:c r="G33" s="17"/>
@@ -4342,10 +4516,10 @@
         <x:v>35560</x:v>
       </x:c>
       <x:c r="L33" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="M33" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N33" s="17"/>
       <x:c r="O33" s="17"/>
@@ -4377,10 +4551,10 @@
         <x:v>2500</x:v>
       </x:c>
       <x:c r="D34" s="16" t="s">
-        <x:v>59</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E34" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F34" s="17"/>
       <x:c r="G34" s="17"/>
@@ -4393,10 +4567,10 @@
         <x:v>36000</x:v>
       </x:c>
       <x:c r="L34" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M34" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N34" s="17"/>
       <x:c r="O34" s="17"/>
@@ -4428,10 +4602,10 @@
         <x:v>36860</x:v>
       </x:c>
       <x:c r="D35" s="28" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E35" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F35" s="17"/>
       <x:c r="G35" s="17"/>
@@ -4444,10 +4618,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="L35" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="M35" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N35" s="17"/>
       <x:c r="O35" s="17"/>
@@ -4479,10 +4653,10 @@
         <x:v>10980</x:v>
       </x:c>
       <x:c r="D36" s="16" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E36" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F36" s="17"/>
       <x:c r="G36" s="17"/>
@@ -4495,10 +4669,10 @@
         <x:v>6600</x:v>
       </x:c>
       <x:c r="L36" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M36" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N36" s="17"/>
       <x:c r="O36" s="17"/>
@@ -4530,10 +4704,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D37" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E37" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F37" s="17"/>
       <x:c r="G37" s="17"/>
@@ -4546,10 +4720,10 @@
         <x:v>33000</x:v>
       </x:c>
       <x:c r="L37" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="M37" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N37" s="17"/>
       <x:c r="O37" s="17"/>
@@ -4581,10 +4755,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D38" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E38" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F38" s="17"/>
       <x:c r="G38" s="17"/>
@@ -4597,10 +4771,10 @@
         <x:v>82000</x:v>
       </x:c>
       <x:c r="L38" s="16" t="s">
-        <x:v>114</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M38" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N38" s="17"/>
       <x:c r="O38" s="17"/>
@@ -4641,10 +4815,10 @@
         <x:v>11850</x:v>
       </x:c>
       <x:c r="L39" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M39" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N39" s="17"/>
       <x:c r="O39" s="17"/>
@@ -4684,10 +4858,10 @@
         <x:v>27700</x:v>
       </x:c>
       <x:c r="L40" s="28" t="s">
-        <x:v>80</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M40" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N40" s="17"/>
       <x:c r="O40" s="17"/>
@@ -4727,10 +4901,10 @@
         <x:v>11400</x:v>
       </x:c>
       <x:c r="L41" s="16" t="s">
-        <x:v>95</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M41" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N41" s="17"/>
       <x:c r="O41" s="17"/>
@@ -4770,10 +4944,10 @@
         <x:v>7300</x:v>
       </x:c>
       <x:c r="L42" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M42" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N42" s="17"/>
       <x:c r="O42" s="17"/>
@@ -4813,10 +4987,10 @@
         <x:v>5990</x:v>
       </x:c>
       <x:c r="L43" s="16" t="s">
-        <x:v>59</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M43" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N43" s="17"/>
       <x:c r="O43" s="17"/>
@@ -4856,10 +5030,10 @@
         <x:v>8450</x:v>
       </x:c>
       <x:c r="L44" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M44" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N44" s="17"/>
       <x:c r="O44" s="17"/>
@@ -4899,10 +5073,10 @@
         <x:v>26600</x:v>
       </x:c>
       <x:c r="L45" s="28" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M45" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N45" s="17"/>
       <x:c r="O45" s="17"/>
@@ -4943,10 +5117,10 @@
         <x:v>100200</x:v>
       </x:c>
       <x:c r="L46" s="16" t="s">
-        <x:v>37</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M46" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N46" s="17"/>
       <x:c r="O46" s="17"/>
@@ -4986,10 +5160,10 @@
         <x:v>40000</x:v>
       </x:c>
       <x:c r="L47" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M47" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N47" s="17"/>
       <x:c r="O47" s="17"/>
@@ -5029,10 +5203,10 @@
         <x:v>26000</x:v>
       </x:c>
       <x:c r="L48" s="28" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M48" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N48" s="17"/>
       <x:c r="O48" s="17"/>
@@ -5072,10 +5246,10 @@
         <x:v>26400</x:v>
       </x:c>
       <x:c r="L49" s="28" t="s">
-        <x:v>82</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M49" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N49" s="17"/>
       <x:c r="O49" s="17"/>
@@ -5115,10 +5289,10 @@
         <x:v>16110</x:v>
       </x:c>
       <x:c r="L50" s="16" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="M50" s="16" t="s">
-        <x:v>56</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N50" s="17"/>
       <x:c r="O50" s="17"/>
@@ -5158,10 +5332,10 @@
         <x:v>17500</x:v>
       </x:c>
       <x:c r="L51" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M51" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N51" s="17"/>
       <x:c r="O51" s="17"/>
@@ -5201,10 +5375,10 @@
         <x:v>6750</x:v>
       </x:c>
       <x:c r="L52" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M52" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N52" s="17"/>
       <x:c r="O52" s="17"/>
@@ -5244,10 +5418,10 @@
         <x:v>62000</x:v>
       </x:c>
       <x:c r="L53" s="16" t="s">
-        <x:v>5</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="M53" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N53" s="17"/>
       <x:c r="O53" s="17"/>
@@ -5287,10 +5461,10 @@
         <x:v>14820</x:v>
       </x:c>
       <x:c r="L54" s="16" t="s">
-        <x:v>45</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="M54" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N54" s="17"/>
       <x:c r="O54" s="17"/>
@@ -5330,10 +5504,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="L55" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M55" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N55" s="17"/>
       <x:c r="O55" s="17"/>
@@ -5373,10 +5547,10 @@
         <x:v>16650</x:v>
       </x:c>
       <x:c r="L56" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M56" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N56" s="17"/>
       <x:c r="O56" s="17"/>
@@ -5417,10 +5591,10 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="L57" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M57" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N57" s="17"/>
       <x:c r="O57" s="17"/>
@@ -5460,10 +5634,10 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="L58" s="16" t="s">
-        <x:v>21</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="M58" s="16" t="s">
-        <x:v>115</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N58" s="17"/>
       <x:c r="O58" s="17"/>
@@ -5503,10 +5677,10 @@
         <x:v>6950</x:v>
       </x:c>
       <x:c r="L59" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M59" s="16" t="s">
-        <x:v>115</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N59" s="17"/>
       <x:c r="O59" s="17"/>
@@ -5546,10 +5720,10 @@
         <x:v>21700</x:v>
       </x:c>
       <x:c r="L60" s="28" t="s">
-        <x:v>111</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="M60" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N60" s="17"/>
       <x:c r="O60" s="17"/>
@@ -5589,10 +5763,10 @@
         <x:v>18900</x:v>
       </x:c>
       <x:c r="L61" s="28" t="s">
-        <x:v>51</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M61" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N61" s="17"/>
       <x:c r="O61" s="17"/>
@@ -5632,10 +5806,10 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="L62" s="16" t="s">
-        <x:v>57</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M62" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N62" s="17"/>
       <x:c r="O62" s="17"/>
@@ -5675,10 +5849,10 @@
         <x:v>4350</x:v>
       </x:c>
       <x:c r="L63" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M63" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N63" s="17"/>
       <x:c r="O63" s="17"/>
@@ -5718,10 +5892,10 @@
         <x:v>26500</x:v>
       </x:c>
       <x:c r="L64" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M64" s="16" t="s">
-        <x:v>56</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N64" s="17"/>
       <x:c r="O64" s="17"/>
@@ -5744,7 +5918,7 @@
       <x:c r="AF64" s="10"/>
       <x:c r="AG64" s="10"/>
     </x:row>
-    <x:row r="65" spans="1:33" ht="16.39999999999999857891">
+    <x:row r="65" spans="1:33">
       <x:c r="A65" s="10"/>
       <x:c r="B65" s="26"/>
       <x:c r="C65" s="15"/>
@@ -5761,10 +5935,10 @@
         <x:v>10900</x:v>
       </x:c>
       <x:c r="L65" s="16" t="s">
-        <x:v>59</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M65" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N65" s="17"/>
       <x:c r="O65" s="17"/>
@@ -5804,10 +5978,10 @@
         <x:v>2985</x:v>
       </x:c>
       <x:c r="L66" s="16" t="s">
-        <x:v>107</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="M66" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N66" s="17"/>
       <x:c r="O66" s="17"/>
@@ -5847,10 +6021,10 @@
         <x:v>104960</x:v>
       </x:c>
       <x:c r="L67" s="16" t="s">
-        <x:v>84</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="M67" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N67" s="17"/>
       <x:c r="O67" s="17"/>
@@ -5890,10 +6064,10 @@
         <x:v>106800</x:v>
       </x:c>
       <x:c r="L68" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="M68" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N68" s="17"/>
       <x:c r="O68" s="17"/>
@@ -5916,7 +6090,7 @@
       <x:c r="AF68" s="10"/>
       <x:c r="AG68" s="10"/>
     </x:row>
-    <x:row r="69" spans="1:33" ht="16.39999999999999857891">
+    <x:row r="69" spans="1:33">
       <x:c r="A69" s="10"/>
       <x:c r="B69" s="26"/>
       <x:c r="C69" s="15"/>
@@ -5933,10 +6107,10 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="L69" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M69" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N69" s="17"/>
       <x:c r="O69" s="17"/>
@@ -5959,7 +6133,7 @@
       <x:c r="AF69" s="10"/>
       <x:c r="AG69" s="10"/>
     </x:row>
-    <x:row r="70" spans="1:33" ht="16.39999999999999857891">
+    <x:row r="70" spans="1:33">
       <x:c r="A70" s="10"/>
       <x:c r="B70" s="26"/>
       <x:c r="C70" s="15"/>
@@ -5976,10 +6150,10 @@
         <x:v>21500</x:v>
       </x:c>
       <x:c r="L70" s="16" t="s">
-        <x:v>46</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="M70" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N70" s="17"/>
       <x:c r="O70" s="17"/>
@@ -6002,7 +6176,7 @@
       <x:c r="AF70" s="10"/>
       <x:c r="AG70" s="10"/>
     </x:row>
-    <x:row r="71" spans="1:33" ht="16.39999999999999857891">
+    <x:row r="71" spans="1:33">
       <x:c r="A71" s="10"/>
       <x:c r="B71" s="26"/>
       <x:c r="C71" s="15"/>
@@ -6020,10 +6194,10 @@
         <x:v>26380</x:v>
       </x:c>
       <x:c r="L71" s="32" t="s">
-        <x:v>59</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M71" s="33" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N71" s="17"/>
       <x:c r="O71" s="17"/>
@@ -6046,7 +6220,7 @@
       <x:c r="AF71" s="10"/>
       <x:c r="AG71" s="10"/>
     </x:row>
-    <x:row r="72" spans="1:33" ht="16.39999999999999857891">
+    <x:row r="72" spans="1:33">
       <x:c r="A72" s="10"/>
       <x:c r="B72" s="26"/>
       <x:c r="C72" s="15"/>
@@ -6063,10 +6237,10 @@
         <x:v>6250</x:v>
       </x:c>
       <x:c r="L72" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M72" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N72" s="17"/>
       <x:c r="O72" s="17"/>
@@ -6089,179 +6263,179 @@
       <x:c r="AF72" s="10"/>
       <x:c r="AG72" s="10"/>
     </x:row>
-    <x:row r="73" spans="1:33" ht="16.39999999999999857891">
-      <x:c r="A73" s="52"/>
-      <x:c r="B73" s="53"/>
-      <x:c r="C73" s="54"/>
-      <x:c r="D73" s="55"/>
-      <x:c r="E73" s="55"/>
-      <x:c r="F73" s="55"/>
-      <x:c r="G73" s="55"/>
-      <x:c r="H73" s="55"/>
-      <x:c r="I73" s="52"/>
-      <x:c r="J73" s="56">
+    <x:row r="73" spans="1:33">
+      <x:c r="A73" s="34"/>
+      <x:c r="B73" s="35"/>
+      <x:c r="C73" s="36"/>
+      <x:c r="D73" s="37"/>
+      <x:c r="E73" s="37"/>
+      <x:c r="F73" s="37"/>
+      <x:c r="G73" s="37"/>
+      <x:c r="H73" s="37"/>
+      <x:c r="I73" s="34"/>
+      <x:c r="J73" s="38">
         <x:v>45327</x:v>
       </x:c>
-      <x:c r="K73" s="59">
+      <x:c r="K73" s="41">
         <x:v>82360</x:v>
       </x:c>
-      <x:c r="L73" s="58" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="M73" s="58" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="N73" s="55"/>
-      <x:c r="O73" s="55"/>
-      <x:c r="P73" s="52"/>
-      <x:c r="Q73" s="52"/>
-      <x:c r="R73" s="52"/>
-      <x:c r="S73" s="52"/>
-      <x:c r="T73" s="52"/>
-      <x:c r="U73" s="52"/>
-      <x:c r="V73" s="52"/>
-      <x:c r="W73" s="52"/>
-      <x:c r="X73" s="52"/>
-      <x:c r="Y73" s="52"/>
-      <x:c r="Z73" s="52"/>
-      <x:c r="AA73" s="52"/>
-      <x:c r="AB73" s="52"/>
-      <x:c r="AC73" s="52"/>
-      <x:c r="AD73" s="52"/>
-      <x:c r="AE73" s="52"/>
-      <x:c r="AF73" s="52"/>
-      <x:c r="AG73" s="52"/>
-    </x:row>
-    <x:row r="74" spans="1:33" ht="16.39999999999999857891">
-      <x:c r="A74" s="52"/>
-      <x:c r="B74" s="53"/>
-      <x:c r="C74" s="54"/>
-      <x:c r="D74" s="55"/>
-      <x:c r="E74" s="55"/>
-      <x:c r="F74" s="55"/>
-      <x:c r="G74" s="55"/>
-      <x:c r="H74" s="55"/>
-      <x:c r="I74" s="52"/>
-      <x:c r="J74" s="56">
+      <x:c r="L73" s="40" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="M73" s="40" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N73" s="37"/>
+      <x:c r="O73" s="37"/>
+      <x:c r="P73" s="34"/>
+      <x:c r="Q73" s="34"/>
+      <x:c r="R73" s="34"/>
+      <x:c r="S73" s="34"/>
+      <x:c r="T73" s="34"/>
+      <x:c r="U73" s="34"/>
+      <x:c r="V73" s="34"/>
+      <x:c r="W73" s="34"/>
+      <x:c r="X73" s="34"/>
+      <x:c r="Y73" s="34"/>
+      <x:c r="Z73" s="34"/>
+      <x:c r="AA73" s="34"/>
+      <x:c r="AB73" s="34"/>
+      <x:c r="AC73" s="34"/>
+      <x:c r="AD73" s="34"/>
+      <x:c r="AE73" s="34"/>
+      <x:c r="AF73" s="34"/>
+      <x:c r="AG73" s="34"/>
+    </x:row>
+    <x:row r="74" spans="1:33">
+      <x:c r="A74" s="34"/>
+      <x:c r="B74" s="35"/>
+      <x:c r="C74" s="36"/>
+      <x:c r="D74" s="37"/>
+      <x:c r="E74" s="37"/>
+      <x:c r="F74" s="37"/>
+      <x:c r="G74" s="37"/>
+      <x:c r="H74" s="37"/>
+      <x:c r="I74" s="34"/>
+      <x:c r="J74" s="38">
         <x:v>45327</x:v>
       </x:c>
-      <x:c r="K74" s="59">
+      <x:c r="K74" s="41">
         <x:v>13500</x:v>
       </x:c>
-      <x:c r="L74" s="58" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="M74" s="58" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="N74" s="55"/>
-      <x:c r="O74" s="55"/>
-      <x:c r="P74" s="52"/>
-      <x:c r="Q74" s="52"/>
-      <x:c r="R74" s="52"/>
-      <x:c r="S74" s="52"/>
-      <x:c r="T74" s="52"/>
-      <x:c r="U74" s="52"/>
-      <x:c r="V74" s="52"/>
-      <x:c r="W74" s="52"/>
-      <x:c r="X74" s="52"/>
-      <x:c r="Y74" s="52"/>
-      <x:c r="Z74" s="52"/>
-      <x:c r="AA74" s="52"/>
-      <x:c r="AB74" s="52"/>
-      <x:c r="AC74" s="52"/>
-      <x:c r="AD74" s="52"/>
-      <x:c r="AE74" s="52"/>
-      <x:c r="AF74" s="52"/>
-      <x:c r="AG74" s="52"/>
-    </x:row>
-    <x:row r="75" spans="1:33" ht="16.39999999999999857891">
-      <x:c r="A75" s="52"/>
-      <x:c r="B75" s="53"/>
-      <x:c r="C75" s="54"/>
-      <x:c r="D75" s="55"/>
-      <x:c r="E75" s="55"/>
-      <x:c r="F75" s="55"/>
-      <x:c r="G75" s="55"/>
-      <x:c r="H75" s="55"/>
-      <x:c r="I75" s="52"/>
-      <x:c r="J75" s="56">
+      <x:c r="L74" s="40" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="M74" s="40" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="N74" s="37"/>
+      <x:c r="O74" s="37"/>
+      <x:c r="P74" s="34"/>
+      <x:c r="Q74" s="34"/>
+      <x:c r="R74" s="34"/>
+      <x:c r="S74" s="34"/>
+      <x:c r="T74" s="34"/>
+      <x:c r="U74" s="34"/>
+      <x:c r="V74" s="34"/>
+      <x:c r="W74" s="34"/>
+      <x:c r="X74" s="34"/>
+      <x:c r="Y74" s="34"/>
+      <x:c r="Z74" s="34"/>
+      <x:c r="AA74" s="34"/>
+      <x:c r="AB74" s="34"/>
+      <x:c r="AC74" s="34"/>
+      <x:c r="AD74" s="34"/>
+      <x:c r="AE74" s="34"/>
+      <x:c r="AF74" s="34"/>
+      <x:c r="AG74" s="34"/>
+    </x:row>
+    <x:row r="75" spans="1:33">
+      <x:c r="A75" s="34"/>
+      <x:c r="B75" s="35"/>
+      <x:c r="C75" s="36"/>
+      <x:c r="D75" s="37"/>
+      <x:c r="E75" s="37"/>
+      <x:c r="F75" s="37"/>
+      <x:c r="G75" s="37"/>
+      <x:c r="H75" s="37"/>
+      <x:c r="I75" s="34"/>
+      <x:c r="J75" s="38">
         <x:v>45328</x:v>
       </x:c>
-      <x:c r="K75" s="57">
+      <x:c r="K75" s="39">
         <x:v>42460</x:v>
       </x:c>
-      <x:c r="L75" s="58" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="M75" s="58" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="N75" s="55"/>
-      <x:c r="O75" s="55"/>
-      <x:c r="P75" s="52"/>
-      <x:c r="Q75" s="52"/>
-      <x:c r="R75" s="52"/>
-      <x:c r="S75" s="52"/>
-      <x:c r="T75" s="52"/>
-      <x:c r="U75" s="52"/>
-      <x:c r="V75" s="52"/>
-      <x:c r="W75" s="52"/>
-      <x:c r="X75" s="52"/>
-      <x:c r="Y75" s="52"/>
-      <x:c r="Z75" s="52"/>
-      <x:c r="AA75" s="52"/>
-      <x:c r="AB75" s="52"/>
-      <x:c r="AC75" s="52"/>
-      <x:c r="AD75" s="52"/>
-      <x:c r="AE75" s="52"/>
-      <x:c r="AF75" s="52"/>
-      <x:c r="AG75" s="52"/>
-    </x:row>
-    <x:row r="76" spans="1:33" ht="16.39999999999999857891">
-      <x:c r="A76" s="52"/>
-      <x:c r="B76" s="53"/>
-      <x:c r="C76" s="54"/>
-      <x:c r="D76" s="55"/>
-      <x:c r="E76" s="55"/>
-      <x:c r="F76" s="55"/>
-      <x:c r="G76" s="55"/>
-      <x:c r="H76" s="55"/>
-      <x:c r="I76" s="52"/>
-      <x:c r="J76" s="56">
+      <x:c r="L75" s="40" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M75" s="40" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="N75" s="37"/>
+      <x:c r="O75" s="37"/>
+      <x:c r="P75" s="34"/>
+      <x:c r="Q75" s="34"/>
+      <x:c r="R75" s="34"/>
+      <x:c r="S75" s="34"/>
+      <x:c r="T75" s="34"/>
+      <x:c r="U75" s="34"/>
+      <x:c r="V75" s="34"/>
+      <x:c r="W75" s="34"/>
+      <x:c r="X75" s="34"/>
+      <x:c r="Y75" s="34"/>
+      <x:c r="Z75" s="34"/>
+      <x:c r="AA75" s="34"/>
+      <x:c r="AB75" s="34"/>
+      <x:c r="AC75" s="34"/>
+      <x:c r="AD75" s="34"/>
+      <x:c r="AE75" s="34"/>
+      <x:c r="AF75" s="34"/>
+      <x:c r="AG75" s="34"/>
+    </x:row>
+    <x:row r="76" spans="1:33">
+      <x:c r="A76" s="34"/>
+      <x:c r="B76" s="35"/>
+      <x:c r="C76" s="36"/>
+      <x:c r="D76" s="37"/>
+      <x:c r="E76" s="37"/>
+      <x:c r="F76" s="37"/>
+      <x:c r="G76" s="37"/>
+      <x:c r="H76" s="37"/>
+      <x:c r="I76" s="34"/>
+      <x:c r="J76" s="38">
         <x:v>45328</x:v>
       </x:c>
-      <x:c r="K76" s="57">
+      <x:c r="K76" s="39">
         <x:v>6776</x:v>
       </x:c>
-      <x:c r="L76" s="58" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="M76" s="58" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="N76" s="55"/>
-      <x:c r="O76" s="55"/>
-      <x:c r="P76" s="52"/>
-      <x:c r="Q76" s="52"/>
-      <x:c r="R76" s="52"/>
-      <x:c r="S76" s="52"/>
-      <x:c r="T76" s="52"/>
-      <x:c r="U76" s="52"/>
-      <x:c r="V76" s="52"/>
-      <x:c r="W76" s="52"/>
-      <x:c r="X76" s="52"/>
-      <x:c r="Y76" s="52"/>
-      <x:c r="Z76" s="52"/>
-      <x:c r="AA76" s="52"/>
-      <x:c r="AB76" s="52"/>
-      <x:c r="AC76" s="52"/>
-      <x:c r="AD76" s="52"/>
-      <x:c r="AE76" s="52"/>
-      <x:c r="AF76" s="52"/>
-      <x:c r="AG76" s="52"/>
-    </x:row>
-    <x:row r="77" spans="1:33" ht="16.39999999999999857891">
+      <x:c r="L76" s="40" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="M76" s="40" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="N76" s="37"/>
+      <x:c r="O76" s="37"/>
+      <x:c r="P76" s="34"/>
+      <x:c r="Q76" s="34"/>
+      <x:c r="R76" s="34"/>
+      <x:c r="S76" s="34"/>
+      <x:c r="T76" s="34"/>
+      <x:c r="U76" s="34"/>
+      <x:c r="V76" s="34"/>
+      <x:c r="W76" s="34"/>
+      <x:c r="X76" s="34"/>
+      <x:c r="Y76" s="34"/>
+      <x:c r="Z76" s="34"/>
+      <x:c r="AA76" s="34"/>
+      <x:c r="AB76" s="34"/>
+      <x:c r="AC76" s="34"/>
+      <x:c r="AD76" s="34"/>
+      <x:c r="AE76" s="34"/>
+      <x:c r="AF76" s="34"/>
+      <x:c r="AG76" s="34"/>
+    </x:row>
+    <x:row r="77" spans="1:33">
       <x:c r="A77" s="10"/>
       <x:c r="B77" s="10"/>
       <x:c r="C77" s="10"/>
@@ -6271,17 +6445,17 @@
       <x:c r="G77" s="10"/>
       <x:c r="H77" s="10"/>
       <x:c r="I77" s="10"/>
-      <x:c r="J77" s="56">
+      <x:c r="J77" s="38">
         <x:v>45329</x:v>
       </x:c>
-      <x:c r="K77" s="59">
+      <x:c r="K77" s="41">
         <x:v>4500</x:v>
       </x:c>
-      <x:c r="L77" s="58" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="M77" s="58" t="s">
-        <x:v>105</x:v>
+      <x:c r="L77" s="40" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="M77" s="40" t="s">
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N77" s="10"/>
       <x:c r="O77" s="10"/>
@@ -6304,7 +6478,7 @@
       <x:c r="AF77" s="10"/>
       <x:c r="AG77" s="10"/>
     </x:row>
-    <x:row r="78" spans="1:33" ht="16.39999999999999857891">
+    <x:row r="78" spans="1:33">
       <x:c r="A78" s="10"/>
       <x:c r="B78" s="10"/>
       <x:c r="C78" s="10"/>
@@ -6314,17 +6488,17 @@
       <x:c r="G78" s="10"/>
       <x:c r="H78" s="10"/>
       <x:c r="I78" s="10"/>
-      <x:c r="J78" s="56">
+      <x:c r="J78" s="38">
         <x:v>45329</x:v>
       </x:c>
-      <x:c r="K78" s="59">
+      <x:c r="K78" s="41">
         <x:v>9150</x:v>
       </x:c>
-      <x:c r="L78" s="58" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="M78" s="58" t="s">
-        <x:v>50</x:v>
+      <x:c r="L78" s="40" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="M78" s="40" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N78" s="10"/>
       <x:c r="O78" s="10"/>
@@ -6931,19 +7105,19 @@
     </x:row>
     <x:row r="2" spans="1:22" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="35" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="C2" s="36"/>
-      <x:c r="D2" s="36"/>
-      <x:c r="E2" s="36"/>
-      <x:c r="F2" s="36"/>
-      <x:c r="G2" s="36"/>
-      <x:c r="H2" s="36"/>
-      <x:c r="I2" s="36"/>
-      <x:c r="J2" s="36"/>
-      <x:c r="K2" s="36"/>
-      <x:c r="L2" s="37"/>
+      <x:c r="B2" s="43" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C2" s="44"/>
+      <x:c r="D2" s="44"/>
+      <x:c r="E2" s="44"/>
+      <x:c r="F2" s="44"/>
+      <x:c r="G2" s="44"/>
+      <x:c r="H2" s="44"/>
+      <x:c r="I2" s="44"/>
+      <x:c r="J2" s="44"/>
+      <x:c r="K2" s="44"/>
+      <x:c r="L2" s="45"/>
       <x:c r="M2" s="10"/>
       <x:c r="N2" s="10"/>
       <x:c r="O2" s="10"/>
@@ -6975,60 +7149,60 @@
     </x:row>
     <x:row r="4" spans="1:22" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="34" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C4" s="34"/>
-      <x:c r="D4" s="34"/>
-      <x:c r="E4" s="34"/>
-      <x:c r="F4" s="34"/>
-      <x:c r="G4" s="34"/>
-      <x:c r="H4" s="34"/>
-      <x:c r="I4" s="34"/>
-      <x:c r="J4" s="34"/>
-      <x:c r="K4" s="34"/>
-      <x:c r="L4" s="34"/>
-      <x:c r="N4" s="38" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="O4" s="38"/>
+      <x:c r="B4" s="42" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C4" s="42"/>
+      <x:c r="D4" s="42"/>
+      <x:c r="E4" s="42"/>
+      <x:c r="F4" s="42"/>
+      <x:c r="G4" s="42"/>
+      <x:c r="H4" s="42"/>
+      <x:c r="I4" s="42"/>
+      <x:c r="J4" s="42"/>
+      <x:c r="K4" s="42"/>
+      <x:c r="L4" s="42"/>
+      <x:c r="N4" s="46" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="O4" s="46"/>
       <x:c r="P4" s="11"/>
       <x:c r="Q4" s="11"/>
-      <x:c r="R4" s="38" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="S4" s="38"/>
+      <x:c r="R4" s="46" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="S4" s="46"/>
       <x:c r="T4" s="11"/>
       <x:c r="U4" s="11"/>
       <x:c r="V4" s="11"/>
     </x:row>
     <x:row r="5" spans="1:22">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="39" t="s">
+      <x:c r="B5" s="47" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="49" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D5" s="50"/>
+      <x:c r="E5" s="49" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F5" s="50"/>
+      <x:c r="G5" s="49" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C5" s="41" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D5" s="42"/>
-      <x:c r="E5" s="41" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F5" s="42"/>
-      <x:c r="G5" s="41" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="H5" s="42"/>
-      <x:c r="I5" s="41" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="J5" s="42"/>
-      <x:c r="K5" s="41" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="L5" s="43"/>
+      <x:c r="H5" s="50"/>
+      <x:c r="I5" s="49" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="J5" s="50"/>
+      <x:c r="K5" s="49" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L5" s="51"/>
       <x:c r="N5" s="8" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O5" s="7">
         <x:f>SUM(C7:L7)</x:f>
@@ -7037,7 +7211,7 @@
       <x:c r="P5" s="10"/>
       <x:c r="Q5" s="10"/>
       <x:c r="R5" s="8" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="S5" s="7">
         <x:v>0</x:v>
@@ -7048,31 +7222,31 @@
     </x:row>
     <x:row r="6" spans="1:22">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="47"/>
-      <x:c r="C6" s="50" t="s">
+      <x:c r="B6" s="55"/>
+      <x:c r="C6" s="58" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D6" s="59"/>
+      <x:c r="E6" s="56" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F6" s="57"/>
+      <x:c r="G6" s="56" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D6" s="51"/>
-      <x:c r="E6" s="48" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F6" s="49"/>
-      <x:c r="G6" s="48" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="H6" s="49"/>
-      <x:c r="I6" s="50" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J6" s="51"/>
+      <x:c r="H6" s="57"/>
+      <x:c r="I6" s="58" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="J6" s="59"/>
       <x:c r="K6" s="25" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L6" s="25" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N6" s="8" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="O6" s="7">
         <x:f>SUM(C9:H9)</x:f>
@@ -7089,22 +7263,22 @@
     <x:row r="7" spans="1:22">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C7" s="44"/>
-      <x:c r="D7" s="44"/>
-      <x:c r="E7" s="44">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C7" s="52"/>
+      <x:c r="D7" s="52"/>
+      <x:c r="E7" s="52">
         <x:v>39000000</x:v>
       </x:c>
-      <x:c r="F7" s="44"/>
-      <x:c r="G7" s="45">
+      <x:c r="F7" s="52"/>
+      <x:c r="G7" s="53">
         <x:v>6900000</x:v>
       </x:c>
-      <x:c r="H7" s="46"/>
-      <x:c r="I7" s="44">
+      <x:c r="H7" s="54"/>
+      <x:c r="I7" s="52">
         <x:v>1000000</x:v>
       </x:c>
-      <x:c r="J7" s="44"/>
+      <x:c r="J7" s="52"/>
       <x:c r="K7" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -7125,22 +7299,22 @@
     <x:row r="8" spans="1:22" ht="17.80000000000000071054">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C8" s="44"/>
-      <x:c r="D8" s="44"/>
-      <x:c r="E8" s="44">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C8" s="52"/>
+      <x:c r="D8" s="52"/>
+      <x:c r="E8" s="52">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F8" s="44"/>
-      <x:c r="G8" s="45">
+      <x:c r="F8" s="52"/>
+      <x:c r="G8" s="53">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H8" s="46"/>
-      <x:c r="I8" s="44">
+      <x:c r="H8" s="54"/>
+      <x:c r="I8" s="52">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J8" s="44"/>
+      <x:c r="J8" s="52"/>
       <x:c r="K8" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -7148,10 +7322,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="10"/>
-      <x:c r="N8" s="38" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="O8" s="38"/>
+      <x:c r="N8" s="46" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O8" s="46"/>
       <x:c r="P8" s="10"/>
       <x:c r="Q8" s="10"/>
       <x:c r="R8" s="10"/>
@@ -7163,28 +7337,28 @@
     <x:row r="9" spans="1:22">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C9" s="44">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C9" s="52">
         <x:f>C8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D9" s="44"/>
-      <x:c r="E9" s="44">
+      <x:c r="D9" s="52"/>
+      <x:c r="E9" s="52">
         <x:f>E8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F9" s="44"/>
-      <x:c r="G9" s="44">
+      <x:c r="F9" s="52"/>
+      <x:c r="G9" s="52">
         <x:f>G8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H9" s="44"/>
-      <x:c r="I9" s="44">
+      <x:c r="H9" s="52"/>
+      <x:c r="I9" s="52">
         <x:f>I8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J9" s="44"/>
+      <x:c r="J9" s="52"/>
       <x:c r="K9" s="7">
         <x:f>K8*0</x:f>
         <x:v>0</x:v>
@@ -7195,7 +7369,7 @@
       </x:c>
       <x:c r="M9" s="10"/>
       <x:c r="N9" s="8" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O9" s="7">
         <x:f>O5-G7</x:f>
@@ -7262,7 +7436,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <x:pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
-      <x:selection pane="bottomRight" activeCell="J16" activeCellId="0" sqref="J16:J16"/>
+      <x:selection pane="bottomRight" activeCell="K10" activeCellId="0" sqref="K10:K10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -7320,29 +7494,29 @@
     </x:row>
     <x:row r="2" spans="1:33" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="35" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C2" s="36"/>
-      <x:c r="D2" s="36"/>
-      <x:c r="E2" s="36"/>
-      <x:c r="F2" s="36"/>
-      <x:c r="G2" s="36"/>
-      <x:c r="H2" s="36"/>
-      <x:c r="I2" s="36"/>
-      <x:c r="J2" s="36"/>
-      <x:c r="K2" s="36"/>
-      <x:c r="L2" s="36"/>
-      <x:c r="M2" s="36"/>
-      <x:c r="N2" s="36"/>
-      <x:c r="O2" s="36"/>
-      <x:c r="P2" s="36"/>
-      <x:c r="Q2" s="36"/>
-      <x:c r="R2" s="36"/>
-      <x:c r="S2" s="36"/>
-      <x:c r="T2" s="36"/>
-      <x:c r="U2" s="36"/>
-      <x:c r="V2" s="37"/>
+      <x:c r="B2" s="43" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C2" s="44"/>
+      <x:c r="D2" s="44"/>
+      <x:c r="E2" s="44"/>
+      <x:c r="F2" s="44"/>
+      <x:c r="G2" s="44"/>
+      <x:c r="H2" s="44"/>
+      <x:c r="I2" s="44"/>
+      <x:c r="J2" s="44"/>
+      <x:c r="K2" s="44"/>
+      <x:c r="L2" s="44"/>
+      <x:c r="M2" s="44"/>
+      <x:c r="N2" s="44"/>
+      <x:c r="O2" s="44"/>
+      <x:c r="P2" s="44"/>
+      <x:c r="Q2" s="44"/>
+      <x:c r="R2" s="44"/>
+      <x:c r="S2" s="44"/>
+      <x:c r="T2" s="44"/>
+      <x:c r="U2" s="44"/>
+      <x:c r="V2" s="45"/>
       <x:c r="W2" s="10"/>
       <x:c r="X2" s="10"/>
       <x:c r="Y2" s="10"/>
@@ -7392,31 +7566,31 @@
     </x:row>
     <x:row r="4" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="34" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C4" s="34"/>
-      <x:c r="D4" s="34"/>
-      <x:c r="E4" s="34"/>
-      <x:c r="F4" s="34"/>
-      <x:c r="G4" s="34"/>
-      <x:c r="H4" s="34"/>
-      <x:c r="I4" s="34"/>
-      <x:c r="J4" s="34"/>
-      <x:c r="K4" s="34"/>
-      <x:c r="L4" s="34"/>
-      <x:c r="M4" s="34"/>
-      <x:c r="N4" s="34"/>
-      <x:c r="O4" s="34"/>
-      <x:c r="P4" s="34"/>
-      <x:c r="Q4" s="34"/>
-      <x:c r="R4" s="34"/>
-      <x:c r="S4" s="34"/>
+      <x:c r="B4" s="42" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C4" s="42"/>
+      <x:c r="D4" s="42"/>
+      <x:c r="E4" s="42"/>
+      <x:c r="F4" s="42"/>
+      <x:c r="G4" s="42"/>
+      <x:c r="H4" s="42"/>
+      <x:c r="I4" s="42"/>
+      <x:c r="J4" s="42"/>
+      <x:c r="K4" s="42"/>
+      <x:c r="L4" s="42"/>
+      <x:c r="M4" s="42"/>
+      <x:c r="N4" s="42"/>
+      <x:c r="O4" s="42"/>
+      <x:c r="P4" s="42"/>
+      <x:c r="Q4" s="42"/>
+      <x:c r="R4" s="42"/>
+      <x:c r="S4" s="42"/>
       <x:c r="T4" s="11"/>
-      <x:c r="U4" s="38" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="V4" s="38"/>
+      <x:c r="U4" s="46" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="V4" s="46"/>
       <x:c r="W4" s="11"/>
       <x:c r="X4" s="11"/>
       <x:c r="Y4" s="11"/>
@@ -7431,45 +7605,45 @@
     </x:row>
     <x:row r="5" spans="1:33">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="39" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C5" s="41" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D5" s="42"/>
-      <x:c r="E5" s="41" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="F5" s="43"/>
-      <x:c r="G5" s="43"/>
-      <x:c r="H5" s="43"/>
-      <x:c r="I5" s="43"/>
-      <x:c r="J5" s="42"/>
-      <x:c r="K5" s="41" t="s">
+      <x:c r="B5" s="47" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="49" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D5" s="50"/>
+      <x:c r="E5" s="49" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F5" s="51"/>
+      <x:c r="G5" s="51"/>
+      <x:c r="H5" s="51"/>
+      <x:c r="I5" s="51"/>
+      <x:c r="J5" s="50"/>
+      <x:c r="K5" s="49" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="L5" s="51"/>
+      <x:c r="M5" s="51"/>
+      <x:c r="N5" s="51"/>
+      <x:c r="O5" s="50"/>
+      <x:c r="P5" s="47" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Q5" s="49" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="L5" s="43"/>
-      <x:c r="M5" s="43"/>
-      <x:c r="N5" s="43"/>
-      <x:c r="O5" s="42"/>
-      <x:c r="P5" s="39" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="Q5" s="41" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="R5" s="42"/>
-      <x:c r="S5" s="39" t="s">
-        <x:v>67</x:v>
+      <x:c r="R5" s="50"/>
+      <x:c r="S5" s="47" t="s">
+        <x:v>83</x:v>
       </x:c>
       <x:c r="T5" s="10"/>
       <x:c r="U5" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="V5" s="7">
         <x:f>D10</x:f>
-        <x:v>0</x:v>
+        <x:v>4650214</x:v>
       </x:c>
       <x:c r="W5" s="10"/>
       <x:c r="X5" s="10"/>
@@ -7485,64 +7659,64 @@
     </x:row>
     <x:row r="6" spans="1:33">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="40"/>
+      <x:c r="B6" s="48"/>
       <x:c r="C6" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E6" s="8" t="s">
-        <x:v>76</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F6" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G6" s="8" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H6" s="8" t="s">
-        <x:v>50</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I6" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J6" s="8" t="s">
-        <x:v>77</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K6" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="L6" s="8" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M6" s="20" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="N6" s="20" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O6" s="20" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="P6" s="48"/>
+      <x:c r="Q6" s="8" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="R6" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="M6" s="20" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N6" s="20" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="O6" s="20" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="P6" s="40"/>
-      <x:c r="Q6" s="8" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="R6" s="8" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="S6" s="40"/>
+      <x:c r="S6" s="48"/>
       <x:c r="T6" s="10"/>
       <x:c r="U6" s="8" t="s">
-        <x:v>8</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="V6" s="7">
         <x:f>J10+O10+P10</x:f>
-        <x:v>1252910</x:v>
+        <x:v>1397220</x:v>
       </x:c>
       <x:c r="W6" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="X6" s="10"/>
       <x:c r="Y6" s="10"/>
@@ -7558,10 +7732,10 @@
     <x:row r="7" spans="1:33">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C7" s="6">
-        <x:v>0</x:v>
+        <x:v>4650214</x:v>
       </x:c>
       <x:c r="D7" s="6">
         <x:v>0</x:v>
@@ -7579,7 +7753,7 @@
         <x:v>400000</x:v>
       </x:c>
       <x:c r="I7" s="24" t="s">
-        <x:v>65</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J7" s="6">
         <x:v>100000</x:v>
@@ -7613,7 +7787,7 @@
       <x:c r="S7" s="6"/>
       <x:c r="T7" s="10"/>
       <x:c r="U7" s="8" t="s">
-        <x:v>62</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="V7" s="7">
         <x:f>R10</x:f>
@@ -7634,10 +7808,10 @@
     <x:row r="8" spans="1:33">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="7">
-        <x:v>0</x:v>
+        <x:v>4650214</x:v>
       </x:c>
       <x:c r="D8" s="7">
         <x:v>0</x:v>
@@ -7652,11 +7826,11 @@
       </x:c>
       <x:c r="G8" s="7">
         <x:f>SUMIF($M$16:$M$33,G$6,$K$16:$K$33)</x:f>
-        <x:v>0</x:v>
+        <x:v>54630</x:v>
       </x:c>
       <x:c r="H8" s="7">
         <x:f>SUMIF($M$16:$M$33,H$6,$K$16:$K$33)</x:f>
-        <x:v>0</x:v>
+        <x:v>89680</x:v>
       </x:c>
       <x:c r="I8" s="7">
         <x:f>SUMIF($M$16:$M$33,I$6,$K$16:$K$33)</x:f>
@@ -7698,7 +7872,7 @@
       </x:c>
       <x:c r="T8" s="10"/>
       <x:c r="U8" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="V8" s="7">
         <x:v>200000</x:v>
@@ -7718,7 +7892,7 @@
     <x:row r="9" spans="1:33">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:f t="shared" ref="C9:S9" si="0">C7-C8</x:f>
@@ -7781,14 +7955,14 @@
       </x:c>
       <x:c r="T9" s="10"/>
       <x:c r="U9" s="8" t="s">
-        <x:v>63</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V9" s="7">
         <x:f>V5-(V6+V7+V8)</x:f>
-        <x:v>-3352910</x:v>
+        <x:v>1152994</x:v>
       </x:c>
       <x:c r="W9" s="13" t="s">
-        <x:v>108</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="X9" s="10"/>
       <x:c r="Y9" s="10"/>
@@ -7807,7 +7981,7 @@
       <x:c r="C10" s="17"/>
       <x:c r="D10" s="18">
         <x:f>C8+D8</x:f>
-        <x:v>0</x:v>
+        <x:v>4650214</x:v>
       </x:c>
       <x:c r="E10" s="10"/>
       <x:c r="F10" s="10"/>
@@ -7816,7 +7990,7 @@
       <x:c r="I10" s="10"/>
       <x:c r="J10" s="18">
         <x:f>SUM(E8:J8)</x:f>
-        <x:v>314689</x:v>
+        <x:v>458999</x:v>
       </x:c>
       <x:c r="K10" s="17"/>
       <x:c r="L10" s="17"/>
@@ -7841,14 +8015,14 @@
       </x:c>
       <x:c r="T10" s="10"/>
       <x:c r="U10" s="8" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="V10" s="23" t="e">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="V10" s="23">
         <x:f>V6/V5</x:f>
-        <x:v>#DIV/0!</x:v>
+        <x:v>0.30046359156804398</x:v>
       </x:c>
       <x:c r="W10" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="X10" s="10"/>
       <x:c r="Y10" s="10"/>
@@ -7883,14 +8057,14 @@
       <x:c r="S11" s="12"/>
       <x:c r="T11" s="10"/>
       <x:c r="U11" s="21" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="V11" s="23" t="e">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="V11" s="23">
         <x:f>V7/V5</x:f>
-        <x:v>#DIV/0!</x:v>
+        <x:v>0.4085833469169376</x:v>
       </x:c>
       <x:c r="W11" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="X11" s="10"/>
       <x:c r="Y11" s="10"/>
@@ -7906,7 +8080,7 @@
     <x:row r="12" spans="1:33">
       <x:c r="A12" s="10"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C12" s="7">
         <x:f>SUM(C16:C33)</x:f>
@@ -7965,14 +8139,14 @@
       <x:c r="S13" s="10"/>
       <x:c r="T13" s="10"/>
       <x:c r="U13" s="8" t="s">
-        <x:v>73</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="V13" s="19">
         <x:v>0.5</x:v>
       </x:c>
       <x:c r="W13" s="7">
         <x:f>V5*V13</x:f>
-        <x:v>0</x:v>
+        <x:v>2325107</x:v>
       </x:c>
       <x:c r="X13" s="10"/>
       <x:c r="Y13" s="10"/>
@@ -7987,24 +8161,24 @@
     </x:row>
     <x:row r="14" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A14" s="11"/>
-      <x:c r="B14" s="34" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C14" s="34"/>
-      <x:c r="D14" s="34"/>
-      <x:c r="E14" s="34"/>
+      <x:c r="B14" s="42" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C14" s="42"/>
+      <x:c r="D14" s="42"/>
+      <x:c r="E14" s="42"/>
       <x:c r="F14" s="17" t="s">
-        <x:v>102</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G14" s="17"/>
       <x:c r="H14" s="17"/>
       <x:c r="I14" s="11"/>
-      <x:c r="J14" s="34" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="K14" s="34"/>
-      <x:c r="L14" s="34"/>
-      <x:c r="M14" s="34"/>
+      <x:c r="J14" s="42" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="K14" s="42"/>
+      <x:c r="L14" s="42"/>
+      <x:c r="M14" s="42"/>
       <x:c r="N14" s="11"/>
       <x:c r="O14" s="11"/>
       <x:c r="P14" s="11"/>
@@ -8013,14 +8187,14 @@
       <x:c r="S14" s="11"/>
       <x:c r="T14" s="11"/>
       <x:c r="U14" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="V14" s="19">
         <x:v>0.5</x:v>
       </x:c>
       <x:c r="W14" s="7">
         <x:f>V5*V14</x:f>
-        <x:v>0</x:v>
+        <x:v>2325107</x:v>
       </x:c>
       <x:c r="X14" s="11"/>
       <x:c r="Y14" s="11"/>
@@ -8036,32 +8210,32 @@
     <x:row r="15" spans="1:33">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>106</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>49</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F15" s="17"/>
       <x:c r="G15" s="17"/>
       <x:c r="H15" s="17"/>
       <x:c r="I15" s="10"/>
       <x:c r="J15" s="8" t="s">
-        <x:v>106</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K15" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L15" s="8" t="s">
-        <x:v>49</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M15" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N15" s="10"/>
       <x:c r="O15" s="10"/>
@@ -8093,10 +8267,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>103</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>52</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="22"/>
@@ -8105,9 +8279,15 @@
       <x:c r="J16" s="26">
         <x:v>45330</x:v>
       </x:c>
-      <x:c r="K16" s="3"/>
-      <x:c r="L16" s="1"/>
-      <x:c r="M16" s="1"/>
+      <x:c r="K16" s="3">
+        <x:v>89680</x:v>
+      </x:c>
+      <x:c r="L16" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="M16" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
       <x:c r="N16" s="22"/>
       <x:c r="O16" s="22"/>
       <x:c r="P16" s="10"/>
@@ -8138,19 +8318,27 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F17" s="17"/>
       <x:c r="G17" s="17"/>
       <x:c r="H17" s="17"/>
       <x:c r="I17" s="10"/>
-      <x:c r="J17" s="2"/>
-      <x:c r="K17" s="15"/>
-      <x:c r="L17" s="16"/>
-      <x:c r="M17" s="16"/>
+      <x:c r="J17" s="60">
+        <x:v>45330</x:v>
+      </x:c>
+      <x:c r="K17" s="31">
+        <x:v>54630</x:v>
+      </x:c>
+      <x:c r="L17" s="61" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="M17" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="N17" s="17"/>
       <x:c r="O17" s="17"/>
       <x:c r="P17" s="10"/>
@@ -8181,17 +8369,17 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D18" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F18" s="17"/>
       <x:c r="G18" s="17"/>
       <x:c r="H18" s="17"/>
       <x:c r="I18" s="10"/>
-      <x:c r="J18" s="2"/>
-      <x:c r="K18" s="15"/>
+      <x:c r="J18" s="60"/>
+      <x:c r="K18" s="31"/>
       <x:c r="L18" s="16"/>
       <x:c r="M18" s="16"/>
       <x:c r="N18" s="17"/>
@@ -8224,10 +8412,10 @@
         <x:v>1200</x:v>
       </x:c>
       <x:c r="D19" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s">
-        <x:v>52</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F19" s="17"/>
       <x:c r="G19" s="17"/>
@@ -8267,10 +8455,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F20" s="17"/>
       <x:c r="G20" s="17"/>
@@ -8310,10 +8498,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="D21" s="16" t="s">
-        <x:v>59</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F21" s="17"/>
       <x:c r="G21" s="17"/>
@@ -9424,19 +9612,19 @@
     </x:row>
     <x:row r="2" spans="1:26" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="35" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C2" s="36"/>
-      <x:c r="D2" s="36"/>
-      <x:c r="E2" s="36"/>
-      <x:c r="F2" s="36"/>
-      <x:c r="G2" s="36"/>
-      <x:c r="H2" s="36"/>
-      <x:c r="I2" s="36"/>
-      <x:c r="J2" s="36"/>
-      <x:c r="K2" s="36"/>
-      <x:c r="L2" s="37"/>
+      <x:c r="B2" s="43" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C2" s="44"/>
+      <x:c r="D2" s="44"/>
+      <x:c r="E2" s="44"/>
+      <x:c r="F2" s="44"/>
+      <x:c r="G2" s="44"/>
+      <x:c r="H2" s="44"/>
+      <x:c r="I2" s="44"/>
+      <x:c r="J2" s="44"/>
+      <x:c r="K2" s="44"/>
+      <x:c r="L2" s="45"/>
       <x:c r="M2" s="10"/>
       <x:c r="N2" s="10"/>
       <x:c r="O2" s="10"/>
@@ -9482,28 +9670,28 @@
     </x:row>
     <x:row r="4" spans="1:26" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="34" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C4" s="34"/>
-      <x:c r="D4" s="34"/>
-      <x:c r="E4" s="34"/>
-      <x:c r="F4" s="34"/>
-      <x:c r="G4" s="34"/>
-      <x:c r="H4" s="34"/>
-      <x:c r="I4" s="34"/>
-      <x:c r="J4" s="34"/>
-      <x:c r="K4" s="34"/>
-      <x:c r="L4" s="34"/>
+      <x:c r="B4" s="42" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C4" s="42"/>
+      <x:c r="D4" s="42"/>
+      <x:c r="E4" s="42"/>
+      <x:c r="F4" s="42"/>
+      <x:c r="G4" s="42"/>
+      <x:c r="H4" s="42"/>
+      <x:c r="I4" s="42"/>
+      <x:c r="J4" s="42"/>
+      <x:c r="K4" s="42"/>
+      <x:c r="L4" s="42"/>
       <x:c r="M4" s="11"/>
-      <x:c r="N4" s="38" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="O4" s="38"/>
-      <x:c r="Q4" s="38" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="R4" s="38"/>
+      <x:c r="N4" s="46" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="O4" s="46"/>
+      <x:c r="Q4" s="46" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="R4" s="46"/>
       <x:c r="S4" s="11"/>
       <x:c r="V4" s="11"/>
       <x:c r="W4" s="11"/>
@@ -9513,39 +9701,39 @@
     </x:row>
     <x:row r="5" spans="1:26">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="39" t="s">
+      <x:c r="B5" s="47" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="49" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D5" s="50"/>
+      <x:c r="E5" s="49" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F5" s="50"/>
+      <x:c r="G5" s="49" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C5" s="41" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D5" s="42"/>
-      <x:c r="E5" s="41" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F5" s="42"/>
-      <x:c r="G5" s="41" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="H5" s="42"/>
-      <x:c r="I5" s="41" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="J5" s="42"/>
-      <x:c r="K5" s="41" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="L5" s="43"/>
+      <x:c r="H5" s="50"/>
+      <x:c r="I5" s="49" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="J5" s="50"/>
+      <x:c r="K5" s="49" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L5" s="51"/>
       <x:c r="M5" s="10"/>
       <x:c r="N5" s="8" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O5" s="7">
         <x:f>R5+SUM(C8:L8)</x:f>
         <x:v>48800000</x:v>
       </x:c>
       <x:c r="Q5" s="8" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="R5" s="7">
         <x:f>'1월(자산)'!O5</x:f>
@@ -9560,32 +9748,32 @@
     </x:row>
     <x:row r="6" spans="1:26">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="47"/>
-      <x:c r="C6" s="50" t="s">
+      <x:c r="B6" s="55"/>
+      <x:c r="C6" s="58" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D6" s="59"/>
+      <x:c r="E6" s="56" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F6" s="57"/>
+      <x:c r="G6" s="56" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D6" s="51"/>
-      <x:c r="E6" s="48" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F6" s="49"/>
-      <x:c r="G6" s="48" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="H6" s="49"/>
-      <x:c r="I6" s="50" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J6" s="51"/>
+      <x:c r="H6" s="57"/>
+      <x:c r="I6" s="58" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="J6" s="59"/>
       <x:c r="K6" s="25" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L6" s="25" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M6" s="10"/>
       <x:c r="N6" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O6" s="7">
         <x:f>SUM(C9:L9)</x:f>
@@ -9604,27 +9792,27 @@
     <x:row r="7" spans="1:26">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C7" s="44">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C7" s="52">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D7" s="44"/>
-      <x:c r="E7" s="45">
+      <x:c r="D7" s="52"/>
+      <x:c r="E7" s="53">
         <x:f>SUM('1월(자산)'!E7:F8)</x:f>
         <x:v>39000000</x:v>
       </x:c>
-      <x:c r="F7" s="46"/>
-      <x:c r="G7" s="45">
+      <x:c r="F7" s="54"/>
+      <x:c r="G7" s="53">
         <x:f>SUM('1월(자산)'!G7:H8)</x:f>
         <x:v>6900000</x:v>
       </x:c>
-      <x:c r="H7" s="46"/>
-      <x:c r="I7" s="44">
+      <x:c r="H7" s="54"/>
+      <x:c r="I7" s="52">
         <x:f>SUM('1월(자산)'!I7:J8)</x:f>
         <x:v>1000000</x:v>
       </x:c>
-      <x:c r="J7" s="44"/>
+      <x:c r="J7" s="52"/>
       <x:c r="K7" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -9649,24 +9837,24 @@
     <x:row r="8" spans="1:26" ht="17.80000000000000071054">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C8" s="44">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C8" s="52">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D8" s="44"/>
-      <x:c r="E8" s="45">
+      <x:c r="D8" s="52"/>
+      <x:c r="E8" s="53">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F8" s="46"/>
-      <x:c r="G8" s="45">
+      <x:c r="F8" s="54"/>
+      <x:c r="G8" s="53">
         <x:v>100000</x:v>
       </x:c>
-      <x:c r="H8" s="46"/>
-      <x:c r="I8" s="44">
+      <x:c r="H8" s="54"/>
+      <x:c r="I8" s="52">
         <x:v>1800000</x:v>
       </x:c>
-      <x:c r="J8" s="44"/>
+      <x:c r="J8" s="52"/>
       <x:c r="K8" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -9674,10 +9862,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="10"/>
-      <x:c r="N8" s="38" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="O8" s="38"/>
+      <x:c r="N8" s="46" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O8" s="46"/>
       <x:c r="P8" s="10"/>
       <x:c r="Q8" s="10"/>
       <x:c r="R8" s="10"/>
@@ -9693,28 +9881,28 @@
     <x:row r="9" spans="1:26">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C9" s="44">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C9" s="52">
         <x:f>C8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D9" s="44"/>
-      <x:c r="E9" s="44">
+      <x:c r="D9" s="52"/>
+      <x:c r="E9" s="52">
         <x:f>E8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F9" s="44"/>
-      <x:c r="G9" s="44">
+      <x:c r="F9" s="52"/>
+      <x:c r="G9" s="52">
         <x:f>G8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H9" s="44"/>
-      <x:c r="I9" s="44">
+      <x:c r="H9" s="52"/>
+      <x:c r="I9" s="52">
         <x:f>I8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J9" s="44"/>
+      <x:c r="J9" s="52"/>
       <x:c r="K9" s="7">
         <x:f>K8*0</x:f>
         <x:v>0</x:v>
@@ -9725,7 +9913,7 @@
       </x:c>
       <x:c r="M9" s="10"/>
       <x:c r="N9" s="8" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O9" s="7">
         <x:f>O5-G7</x:f>

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -23,354 +23,354 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="117">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="117">
+  <x:si>
+    <x:t>자산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축률 = 저축계/소득계*100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피트니스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국민은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잔액 = 소득계 - (지출계+저축계+투자계)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타(데이트통장+유투브 구독)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 1월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가용자산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단백질바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잔액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생활비(식비)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점심(데이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 2월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고정수입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출계 = 변동지출 + 고정지출 + 비상금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해든마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용돈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피부과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명절선물비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주거비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노래방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변동수입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월 결산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점심</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김밥천국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통신비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈플러스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생활비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건강검진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드사용실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올리브영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류구입비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교통후불</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정기예금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출률 = 지출계/소득계*100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 1월 송민영의 가계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본죽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드값(전월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>`</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주택관리비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교통비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>택시비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드결제료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축목표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>셍활비(식비)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소득계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채권</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가슴패치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청약통장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이소 및 마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비상금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>닭가슴살</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈모약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액조정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시가스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(치킨)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돈까스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 2월 송민영의 가계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이스크림점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>역귀성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현금 흐름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설 명절 음식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소득</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뽀미약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빨래</x:t>
+  </x:si>
   <x:si>
     <x:t>변동지출</x:t>
   </x:si>
   <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABC마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교통비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국민은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>역귀성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피부과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채권</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>택시비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주거비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교통후불</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잔액 = 소득계 - (지출계+저축계+투자계)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생활비(식비)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뽀미약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가용자산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청약통장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주택관리비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출률 = 지출계/소득계*100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점심(데이트)</x:t>
+    <x:t>저축계</x:t>
   </x:si>
   <x:si>
     <x:t>병원</x:t>
   </x:si>
   <x:si>
-    <x:t>식비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가슴패치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소득계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변동수입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빨래</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잔액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>셍활비(식비)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점심</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해든마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>닭가슴살</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현금 흐름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노래방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고정수입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올리브영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소득</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이소 및 마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드결제료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비상금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>`</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통신비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명절선물비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈모약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월 결산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류구입비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마트</x:t>
-  </x:si>
-  <x:si>
     <x:t>현금사용실적</x:t>
   </x:si>
   <x:si>
-    <x:t>2024년 1월 송민영의 가계부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈플러스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 1월 송민영의 자본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(치킨)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액조정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>용돈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시가스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 2월 송민영의 가계부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본죽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생활비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김밥천국</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>커트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드사용실적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드값(전월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주차비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출계 = 변동지출 + 고정지출 + 비상금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건강검진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이스크림점</x:t>
+    <x:t>고정지출</x:t>
   </x:si>
   <x:si>
     <x:t>카드값(금월)</x:t>
   </x:si>
   <x:si>
-    <x:t>피트니스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돈까스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 2월 송민영의 자본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고정지출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나은행</x:t>
-  </x:si>
-  <x:si>
     <x:t>저녁(데이트)</x:t>
   </x:si>
   <x:si>
-    <x:t>수영비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타(데이트통장+유투브 구독)</x:t>
-  </x:si>
-  <x:si>
     <x:t>지출목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설 명절 음식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단백질바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정기예금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축률 = 저축계/소득계*100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출계</x:t>
   </x:si>
   <x:si>
     <x:t>커피</x:t>
@@ -386,126 +386,36 @@
     <x:numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </x:numFmts>
   <x:fonts count="12">
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -550,11 +460,26 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="12"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -622,7 +547,7 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="9">
+  <x:fills count="8">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -662,12 +587,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="ff000000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffffd700"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -1024,7 +943,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="62">
+  <x:cellXfs count="61">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1698,19 +1617,6 @@
     <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="4">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2098,6 +2004,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2130,6 +2037,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2160,6 +2068,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2190,6 +2099,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2222,6 +2132,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2256,6 +2167,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2288,6 +2200,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2320,6 +2233,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2350,6 +2264,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2380,6 +2295,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2412,6 +2328,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2446,6 +2363,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2854,7 +2772,7 @@
     <x:row r="2" spans="1:33" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
       <x:c r="B2" s="43" t="s">
-        <x:v>65</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C2" s="44"/>
       <x:c r="D2" s="44"/>
@@ -2926,7 +2844,7 @@
     <x:row r="4" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
       <x:c r="B4" s="42" t="s">
-        <x:v>42</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C4" s="42"/>
       <x:c r="D4" s="42"/>
@@ -2947,7 +2865,7 @@
       <x:c r="S4" s="42"/>
       <x:c r="T4" s="11"/>
       <x:c r="U4" s="46" t="s">
-        <x:v>61</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="V4" s="46"/>
       <x:c r="W4" s="11"/>
@@ -2965,14 +2883,14 @@
     <x:row r="5" spans="1:33">
       <x:c r="A5" s="10"/>
       <x:c r="B5" s="47" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C5" s="49" t="s">
-        <x:v>48</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D5" s="50"/>
       <x:c r="E5" s="49" t="s">
-        <x:v>0</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F5" s="51"/>
       <x:c r="G5" s="51"/>
@@ -2980,25 +2898,25 @@
       <x:c r="I5" s="51"/>
       <x:c r="J5" s="50"/>
       <x:c r="K5" s="49" t="s">
-        <x:v>105</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="L5" s="51"/>
       <x:c r="M5" s="51"/>
       <x:c r="N5" s="51"/>
       <x:c r="O5" s="50"/>
       <x:c r="P5" s="47" t="s">
-        <x:v>51</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="Q5" s="49" t="s">
-        <x:v>98</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="R5" s="50"/>
       <x:c r="S5" s="47" t="s">
-        <x:v>83</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="T5" s="10"/>
       <x:c r="U5" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="V5" s="7">
         <x:f>D10</x:f>
@@ -3020,62 +2938,62 @@
       <x:c r="A6" s="10"/>
       <x:c r="B6" s="48"/>
       <x:c r="C6" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E6" s="8" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F6" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G6" s="8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H6" s="8" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I6" s="8" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="J6" s="8" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="K6" s="8" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="E6" s="8" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F6" s="8" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G6" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H6" s="8" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="I6" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J6" s="8" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="K6" s="8" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="L6" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M6" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N6" s="20" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="O6" s="20" t="s">
-        <x:v>109</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P6" s="48"/>
       <x:c r="Q6" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="R6" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="S6" s="48"/>
       <x:c r="T6" s="10"/>
       <x:c r="U6" s="8" t="s">
-        <x:v>115</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="V6" s="7">
         <x:f>J10+O10+P10</x:f>
         <x:v>2889406</x:v>
       </x:c>
       <x:c r="W6" s="10" t="s">
-        <x:v>90</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="X6" s="10"/>
       <x:c r="Y6" s="10"/>
@@ -3091,7 +3009,7 @@
     <x:row r="7" spans="1:33">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C7" s="6">
         <x:v>4000000</x:v>
@@ -3112,7 +3030,7 @@
         <x:v>400000</x:v>
       </x:c>
       <x:c r="I7" s="24" t="s">
-        <x:v>1</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="J7" s="6">
         <x:v>100000</x:v>
@@ -3146,7 +3064,7 @@
       <x:c r="S7" s="6"/>
       <x:c r="T7" s="10"/>
       <x:c r="U7" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="V7" s="7">
         <x:f>R10</x:f>
@@ -3167,7 +3085,7 @@
     <x:row r="8" spans="1:33">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="7">
         <x:f>4129547+34400+298400+100000</x:f>
@@ -3230,7 +3148,7 @@
       </x:c>
       <x:c r="T8" s="10"/>
       <x:c r="U8" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="V8" s="7">
         <x:f>S8</x:f>
@@ -3251,7 +3169,7 @@
     <x:row r="9" spans="1:33">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>82</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:f>C8-C7</x:f>
@@ -3320,14 +3238,14 @@
       <x:c r="S9" s="7"/>
       <x:c r="T9" s="10"/>
       <x:c r="U9" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="V9" s="7">
         <x:f>V5-(V6+V7+V8)</x:f>
         <x:v>-87059</x:v>
       </x:c>
       <x:c r="W9" s="13" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="X9" s="10"/>
       <x:c r="Y9" s="10"/>
@@ -3380,14 +3298,14 @@
       </x:c>
       <x:c r="T10" s="10"/>
       <x:c r="U10" s="8" t="s">
-        <x:v>58</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="V10" s="23">
         <x:f>V6/V5</x:f>
         <x:v>0.63331570351838651</x:v>
       </x:c>
       <x:c r="W10" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="X10" s="10"/>
       <x:c r="Y10" s="10"/>
@@ -3422,14 +3340,14 @@
       <x:c r="S11" s="12"/>
       <x:c r="T11" s="10"/>
       <x:c r="U11" s="21" t="s">
-        <x:v>56</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="V11" s="23">
         <x:f>V7/V5</x:f>
         <x:v>0.24110397565112868</x:v>
       </x:c>
       <x:c r="W11" s="10" t="s">
-        <x:v>114</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="X11" s="10"/>
       <x:c r="Y11" s="10"/>
@@ -3445,7 +3363,7 @@
     <x:row r="12" spans="1:33">
       <x:c r="A12" s="10"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>94</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C12" s="7">
         <x:f>SUM(C16:C72)</x:f>
@@ -3504,7 +3422,7 @@
       <x:c r="S13" s="10"/>
       <x:c r="T13" s="10"/>
       <x:c r="U13" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="V13" s="19">
         <x:v>0.5</x:v>
@@ -3527,19 +3445,19 @@
     <x:row r="14" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A14" s="11"/>
       <x:c r="B14" s="42" t="s">
-        <x:v>86</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C14" s="42"/>
       <x:c r="D14" s="42"/>
       <x:c r="E14" s="42"/>
       <x:c r="F14" s="17" t="s">
-        <x:v>52</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G14" s="17"/>
       <x:c r="H14" s="17"/>
       <x:c r="I14" s="11"/>
       <x:c r="J14" s="42" t="s">
-        <x:v>64</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K14" s="42"/>
       <x:c r="L14" s="42"/>
@@ -3552,7 +3470,7 @@
       <x:c r="S14" s="11"/>
       <x:c r="T14" s="11"/>
       <x:c r="U14" s="8" t="s">
-        <x:v>110</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="V14" s="19">
         <x:v>0.5</x:v>
@@ -3575,32 +3493,32 @@
     <x:row r="15" spans="1:33">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F15" s="17"/>
       <x:c r="G15" s="17"/>
       <x:c r="H15" s="17"/>
       <x:c r="I15" s="10"/>
       <x:c r="J15" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K15" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="L15" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M15" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N15" s="10"/>
       <x:c r="O15" s="10"/>
@@ -3632,10 +3550,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="22"/>
@@ -3648,10 +3566,10 @@
         <x:v>22500</x:v>
       </x:c>
       <x:c r="L16" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M16" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N16" s="22"/>
       <x:c r="O16" s="22"/>
@@ -3683,10 +3601,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F17" s="17"/>
       <x:c r="G17" s="17"/>
@@ -3699,10 +3617,10 @@
         <x:v>1500</x:v>
       </x:c>
       <x:c r="L17" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="M17" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N17" s="17"/>
       <x:c r="O17" s="17"/>
@@ -3734,10 +3652,10 @@
         <x:v>19920</x:v>
       </x:c>
       <x:c r="D18" s="16" t="s">
-        <x:v>112</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F18" s="17"/>
       <x:c r="G18" s="17"/>
@@ -3750,10 +3668,10 @@
         <x:v>10580</x:v>
       </x:c>
       <x:c r="L18" s="16" t="s">
-        <x:v>38</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M18" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N18" s="17"/>
       <x:c r="O18" s="17"/>
@@ -3785,10 +3703,10 @@
         <x:v>5400</x:v>
       </x:c>
       <x:c r="D19" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F19" s="17"/>
       <x:c r="G19" s="17"/>
@@ -3801,10 +3719,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="L19" s="16" t="s">
-        <x:v>80</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="M19" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N19" s="17"/>
       <x:c r="O19" s="17"/>
@@ -3836,10 +3754,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>29</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>3</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F20" s="17"/>
       <x:c r="G20" s="17"/>
@@ -3852,10 +3770,10 @@
         <x:v>6990</x:v>
       </x:c>
       <x:c r="L20" s="16" t="s">
-        <x:v>66</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="M20" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N20" s="17"/>
       <x:c r="O20" s="17"/>
@@ -3887,10 +3805,10 @@
         <x:v>22000</x:v>
       </x:c>
       <x:c r="D21" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F21" s="17"/>
       <x:c r="G21" s="17"/>
@@ -3903,10 +3821,10 @@
         <x:v>30919</x:v>
       </x:c>
       <x:c r="L21" s="16" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M21" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N21" s="17"/>
       <x:c r="O21" s="17"/>
@@ -3938,10 +3856,10 @@
         <x:v>23219</x:v>
       </x:c>
       <x:c r="D22" s="28" t="s">
-        <x:v>72</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E22" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F22" s="17"/>
       <x:c r="G22" s="17"/>
@@ -3954,10 +3872,10 @@
         <x:v>82320</x:v>
       </x:c>
       <x:c r="L22" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="M22" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N22" s="17"/>
       <x:c r="O22" s="17"/>
@@ -3989,10 +3907,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D23" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E23" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F23" s="17"/>
       <x:c r="G23" s="17"/>
@@ -4005,10 +3923,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="L23" s="16" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="M23" s="16" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="M23" s="16" t="s">
-        <x:v>78</x:v>
       </x:c>
       <x:c r="N23" s="17"/>
       <x:c r="O23" s="17"/>
@@ -4040,10 +3958,10 @@
         <x:v>30900</x:v>
       </x:c>
       <x:c r="D24" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E24" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F24" s="17"/>
       <x:c r="G24" s="17"/>
@@ -4056,10 +3974,10 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="L24" s="16" t="s">
-        <x:v>84</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M24" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N24" s="17"/>
       <x:c r="O24" s="17"/>
@@ -4091,10 +4009,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D25" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E25" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F25" s="17"/>
       <x:c r="G25" s="17"/>
@@ -4107,10 +4025,10 @@
         <x:v>39535</x:v>
       </x:c>
       <x:c r="L25" s="16" t="s">
-        <x:v>39</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="M25" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N25" s="17"/>
       <x:c r="O25" s="17"/>
@@ -4142,10 +4060,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D26" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E26" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F26" s="17"/>
       <x:c r="G26" s="17"/>
@@ -4158,10 +4076,10 @@
         <x:v>3150</x:v>
       </x:c>
       <x:c r="L26" s="16" t="s">
-        <x:v>71</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M26" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N26" s="17"/>
       <x:c r="O26" s="17"/>
@@ -4193,10 +4111,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D27" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E27" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F27" s="17"/>
       <x:c r="G27" s="17"/>
@@ -4210,10 +4128,10 @@
         <x:v>41400</x:v>
       </x:c>
       <x:c r="L27" s="28" t="s">
-        <x:v>72</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="M27" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N27" s="17"/>
       <x:c r="O27" s="17"/>
@@ -4245,10 +4163,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D28" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E28" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F28" s="17"/>
       <x:c r="G28" s="17"/>
@@ -4261,10 +4179,10 @@
         <x:v>5400</x:v>
       </x:c>
       <x:c r="L28" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M28" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N28" s="29"/>
       <x:c r="O28" s="17"/>
@@ -4296,10 +4214,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D29" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E29" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F29" s="17"/>
       <x:c r="G29" s="17"/>
@@ -4312,10 +4230,10 @@
         <x:v>11500</x:v>
       </x:c>
       <x:c r="L29" s="16" t="s">
-        <x:v>49</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M29" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N29" s="17"/>
       <x:c r="O29" s="17"/>
@@ -4347,10 +4265,10 @@
         <x:v>8910</x:v>
       </x:c>
       <x:c r="D30" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E30" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F30" s="17"/>
       <x:c r="G30" s="17"/>
@@ -4363,10 +4281,10 @@
         <x:v>2980</x:v>
       </x:c>
       <x:c r="L30" s="16" t="s">
-        <x:v>63</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M30" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N30" s="17"/>
       <x:c r="O30" s="17"/>
@@ -4398,10 +4316,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D31" s="16" t="s">
-        <x:v>29</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E31" s="16" t="s">
-        <x:v>3</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F31" s="17"/>
       <x:c r="G31" s="17"/>
@@ -4414,10 +4332,10 @@
         <x:v>50100</x:v>
       </x:c>
       <x:c r="L31" s="16" t="s">
-        <x:v>69</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="M31" s="16" t="s">
-        <x:v>62</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N31" s="17"/>
       <x:c r="O31" s="17"/>
@@ -4449,10 +4367,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D32" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E32" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F32" s="17"/>
       <x:c r="G32" s="17"/>
@@ -4465,10 +4383,10 @@
         <x:v>62100</x:v>
       </x:c>
       <x:c r="L32" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="M32" s="16" t="s">
-        <x:v>62</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N32" s="17"/>
       <x:c r="O32" s="17"/>
@@ -4500,10 +4418,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D33" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E33" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F33" s="17"/>
       <x:c r="G33" s="17"/>
@@ -4516,10 +4434,10 @@
         <x:v>35560</x:v>
       </x:c>
       <x:c r="L33" s="16" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M33" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N33" s="17"/>
       <x:c r="O33" s="17"/>
@@ -4551,10 +4469,10 @@
         <x:v>2500</x:v>
       </x:c>
       <x:c r="D34" s="16" t="s">
-        <x:v>87</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E34" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F34" s="17"/>
       <x:c r="G34" s="17"/>
@@ -4567,10 +4485,10 @@
         <x:v>36000</x:v>
       </x:c>
       <x:c r="L34" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M34" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N34" s="17"/>
       <x:c r="O34" s="17"/>
@@ -4602,10 +4520,10 @@
         <x:v>36860</x:v>
       </x:c>
       <x:c r="D35" s="28" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E35" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F35" s="17"/>
       <x:c r="G35" s="17"/>
@@ -4621,7 +4539,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="M35" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N35" s="17"/>
       <x:c r="O35" s="17"/>
@@ -4653,10 +4571,10 @@
         <x:v>10980</x:v>
       </x:c>
       <x:c r="D36" s="16" t="s">
-        <x:v>66</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E36" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F36" s="17"/>
       <x:c r="G36" s="17"/>
@@ -4669,10 +4587,10 @@
         <x:v>6600</x:v>
       </x:c>
       <x:c r="L36" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M36" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N36" s="17"/>
       <x:c r="O36" s="17"/>
@@ -4704,10 +4622,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D37" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E37" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F37" s="17"/>
       <x:c r="G37" s="17"/>
@@ -4720,10 +4638,10 @@
         <x:v>33000</x:v>
       </x:c>
       <x:c r="L37" s="16" t="s">
-        <x:v>85</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M37" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N37" s="17"/>
       <x:c r="O37" s="17"/>
@@ -4755,10 +4673,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D38" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E38" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F38" s="17"/>
       <x:c r="G38" s="17"/>
@@ -4771,10 +4689,10 @@
         <x:v>82000</x:v>
       </x:c>
       <x:c r="L38" s="16" t="s">
-        <x:v>6</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="M38" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N38" s="17"/>
       <x:c r="O38" s="17"/>
@@ -4815,10 +4733,10 @@
         <x:v>11850</x:v>
       </x:c>
       <x:c r="L39" s="16" t="s">
-        <x:v>38</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M39" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N39" s="17"/>
       <x:c r="O39" s="17"/>
@@ -4858,10 +4776,10 @@
         <x:v>27700</x:v>
       </x:c>
       <x:c r="L40" s="28" t="s">
-        <x:v>72</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="M40" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N40" s="17"/>
       <x:c r="O40" s="17"/>
@@ -4901,10 +4819,10 @@
         <x:v>11400</x:v>
       </x:c>
       <x:c r="L41" s="16" t="s">
-        <x:v>11</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="M41" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N41" s="17"/>
       <x:c r="O41" s="17"/>
@@ -4944,10 +4862,10 @@
         <x:v>7300</x:v>
       </x:c>
       <x:c r="L42" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M42" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N42" s="17"/>
       <x:c r="O42" s="17"/>
@@ -4987,10 +4905,10 @@
         <x:v>5990</x:v>
       </x:c>
       <x:c r="L43" s="16" t="s">
-        <x:v>87</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M43" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N43" s="17"/>
       <x:c r="O43" s="17"/>
@@ -5030,10 +4948,10 @@
         <x:v>8450</x:v>
       </x:c>
       <x:c r="L44" s="16" t="s">
-        <x:v>38</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M44" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N44" s="17"/>
       <x:c r="O44" s="17"/>
@@ -5073,10 +4991,10 @@
         <x:v>26600</x:v>
       </x:c>
       <x:c r="L45" s="28" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M45" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N45" s="17"/>
       <x:c r="O45" s="17"/>
@@ -5120,7 +5038,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="M46" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N46" s="17"/>
       <x:c r="O46" s="17"/>
@@ -5160,10 +5078,10 @@
         <x:v>40000</x:v>
       </x:c>
       <x:c r="L47" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M47" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N47" s="17"/>
       <x:c r="O47" s="17"/>
@@ -5203,10 +5121,10 @@
         <x:v>26000</x:v>
       </x:c>
       <x:c r="L48" s="28" t="s">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M48" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N48" s="17"/>
       <x:c r="O48" s="17"/>
@@ -5246,10 +5164,10 @@
         <x:v>26400</x:v>
       </x:c>
       <x:c r="L49" s="28" t="s">
-        <x:v>107</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="M49" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N49" s="17"/>
       <x:c r="O49" s="17"/>
@@ -5292,7 +5210,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="M50" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N50" s="17"/>
       <x:c r="O50" s="17"/>
@@ -5332,10 +5250,10 @@
         <x:v>17500</x:v>
       </x:c>
       <x:c r="L51" s="16" t="s">
-        <x:v>38</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M51" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N51" s="17"/>
       <x:c r="O51" s="17"/>
@@ -5375,10 +5293,10 @@
         <x:v>6750</x:v>
       </x:c>
       <x:c r="L52" s="16" t="s">
-        <x:v>38</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M52" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N52" s="17"/>
       <x:c r="O52" s="17"/>
@@ -5418,10 +5336,10 @@
         <x:v>62000</x:v>
       </x:c>
       <x:c r="L53" s="16" t="s">
-        <x:v>108</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M53" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N53" s="17"/>
       <x:c r="O53" s="17"/>
@@ -5461,10 +5379,10 @@
         <x:v>14820</x:v>
       </x:c>
       <x:c r="L54" s="16" t="s">
-        <x:v>91</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="M54" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N54" s="17"/>
       <x:c r="O54" s="17"/>
@@ -5504,10 +5422,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="L55" s="16" t="s">
-        <x:v>38</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M55" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N55" s="17"/>
       <x:c r="O55" s="17"/>
@@ -5547,10 +5465,10 @@
         <x:v>16650</x:v>
       </x:c>
       <x:c r="L56" s="16" t="s">
-        <x:v>38</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M56" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N56" s="17"/>
       <x:c r="O56" s="17"/>
@@ -5591,10 +5509,10 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="L57" s="16" t="s">
-        <x:v>24</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="M57" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N57" s="17"/>
       <x:c r="O57" s="17"/>
@@ -5634,10 +5552,10 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="L58" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M58" s="16" t="s">
-        <x:v>34</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N58" s="17"/>
       <x:c r="O58" s="17"/>
@@ -5677,10 +5595,10 @@
         <x:v>6950</x:v>
       </x:c>
       <x:c r="L59" s="16" t="s">
-        <x:v>38</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M59" s="16" t="s">
-        <x:v>34</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N59" s="17"/>
       <x:c r="O59" s="17"/>
@@ -5720,10 +5638,10 @@
         <x:v>21700</x:v>
       </x:c>
       <x:c r="L60" s="28" t="s">
-        <x:v>96</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M60" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N60" s="17"/>
       <x:c r="O60" s="17"/>
@@ -5763,10 +5681,10 @@
         <x:v>18900</x:v>
       </x:c>
       <x:c r="L61" s="28" t="s">
-        <x:v>68</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="M61" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N61" s="17"/>
       <x:c r="O61" s="17"/>
@@ -5806,10 +5724,10 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="L62" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M62" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N62" s="17"/>
       <x:c r="O62" s="17"/>
@@ -5849,10 +5767,10 @@
         <x:v>4350</x:v>
       </x:c>
       <x:c r="L63" s="16" t="s">
-        <x:v>38</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M63" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N63" s="17"/>
       <x:c r="O63" s="17"/>
@@ -5892,10 +5810,10 @@
         <x:v>26500</x:v>
       </x:c>
       <x:c r="L64" s="16" t="s">
-        <x:v>21</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M64" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N64" s="17"/>
       <x:c r="O64" s="17"/>
@@ -5935,10 +5853,10 @@
         <x:v>10900</x:v>
       </x:c>
       <x:c r="L65" s="16" t="s">
-        <x:v>87</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M65" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N65" s="17"/>
       <x:c r="O65" s="17"/>
@@ -5978,10 +5896,10 @@
         <x:v>2985</x:v>
       </x:c>
       <x:c r="L66" s="16" t="s">
-        <x:v>84</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M66" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N66" s="17"/>
       <x:c r="O66" s="17"/>
@@ -6021,10 +5939,10 @@
         <x:v>104960</x:v>
       </x:c>
       <x:c r="L67" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="M67" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N67" s="17"/>
       <x:c r="O67" s="17"/>
@@ -6064,10 +5982,10 @@
         <x:v>106800</x:v>
       </x:c>
       <x:c r="L68" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M68" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N68" s="17"/>
       <x:c r="O68" s="17"/>
@@ -6107,10 +6025,10 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="L69" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M69" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N69" s="17"/>
       <x:c r="O69" s="17"/>
@@ -6153,7 +6071,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="M70" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N70" s="17"/>
       <x:c r="O70" s="17"/>
@@ -6194,10 +6112,10 @@
         <x:v>26380</x:v>
       </x:c>
       <x:c r="L71" s="32" t="s">
-        <x:v>87</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M71" s="33" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N71" s="17"/>
       <x:c r="O71" s="17"/>
@@ -6237,10 +6155,10 @@
         <x:v>6250</x:v>
       </x:c>
       <x:c r="L72" s="16" t="s">
-        <x:v>38</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M72" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N72" s="17"/>
       <x:c r="O72" s="17"/>
@@ -6280,10 +6198,10 @@
         <x:v>82360</x:v>
       </x:c>
       <x:c r="L73" s="40" t="s">
-        <x:v>75</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="M73" s="40" t="s">
-        <x:v>1</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="N73" s="37"/>
       <x:c r="O73" s="37"/>
@@ -6323,10 +6241,10 @@
         <x:v>13500</x:v>
       </x:c>
       <x:c r="L74" s="40" t="s">
-        <x:v>15</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="M74" s="40" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N74" s="37"/>
       <x:c r="O74" s="37"/>
@@ -6366,10 +6284,10 @@
         <x:v>42460</x:v>
       </x:c>
       <x:c r="L75" s="40" t="s">
-        <x:v>39</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="M75" s="40" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N75" s="37"/>
       <x:c r="O75" s="37"/>
@@ -6409,10 +6327,10 @@
         <x:v>6776</x:v>
       </x:c>
       <x:c r="L76" s="40" t="s">
-        <x:v>26</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="M76" s="40" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N76" s="37"/>
       <x:c r="O76" s="37"/>
@@ -6452,10 +6370,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="L77" s="40" t="s">
-        <x:v>87</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M77" s="40" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N77" s="10"/>
       <x:c r="O77" s="10"/>
@@ -6495,10 +6413,10 @@
         <x:v>9150</x:v>
       </x:c>
       <x:c r="L78" s="40" t="s">
-        <x:v>38</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M78" s="40" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N78" s="10"/>
       <x:c r="O78" s="10"/>
@@ -7106,7 +7024,7 @@
     <x:row r="2" spans="1:22" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
       <x:c r="B2" s="43" t="s">
-        <x:v>70</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="44"/>
       <x:c r="D2" s="44"/>
@@ -7150,7 +7068,7 @@
     <x:row r="4" spans="1:22" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
       <x:c r="B4" s="42" t="s">
-        <x:v>42</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C4" s="42"/>
       <x:c r="D4" s="42"/>
@@ -7163,13 +7081,13 @@
       <x:c r="K4" s="42"/>
       <x:c r="L4" s="42"/>
       <x:c r="N4" s="46" t="s">
-        <x:v>61</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="O4" s="46"/>
       <x:c r="P4" s="11"/>
       <x:c r="Q4" s="11"/>
       <x:c r="R4" s="46" t="s">
-        <x:v>30</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="S4" s="46"/>
       <x:c r="T4" s="11"/>
@@ -7179,30 +7097,30 @@
     <x:row r="5" spans="1:22">
       <x:c r="A5" s="10"/>
       <x:c r="B5" s="47" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C5" s="49" t="s">
-        <x:v>113</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D5" s="50"/>
       <x:c r="E5" s="49" t="s">
-        <x:v>57</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F5" s="50"/>
       <x:c r="G5" s="49" t="s">
-        <x:v>20</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H5" s="50"/>
       <x:c r="I5" s="49" t="s">
-        <x:v>103</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J5" s="50"/>
       <x:c r="K5" s="49" t="s">
-        <x:v>40</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L5" s="51"/>
       <x:c r="N5" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O5" s="7">
         <x:f>SUM(C7:L7)</x:f>
@@ -7211,7 +7129,7 @@
       <x:c r="P5" s="10"/>
       <x:c r="Q5" s="10"/>
       <x:c r="R5" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S5" s="7">
         <x:v>0</x:v>
@@ -7224,11 +7142,11 @@
       <x:c r="A6" s="10"/>
       <x:c r="B6" s="55"/>
       <x:c r="C6" s="58" t="s">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D6" s="59"/>
       <x:c r="E6" s="56" t="s">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F6" s="57"/>
       <x:c r="G6" s="56" t="s">
@@ -7236,17 +7154,17 @@
       </x:c>
       <x:c r="H6" s="57"/>
       <x:c r="I6" s="58" t="s">
-        <x:v>106</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="J6" s="59"/>
       <x:c r="K6" s="25" t="s">
-        <x:v>79</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L6" s="25" t="s">
-        <x:v>8</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N6" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O6" s="7">
         <x:f>SUM(C9:H9)</x:f>
@@ -7263,7 +7181,7 @@
     <x:row r="7" spans="1:22">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C7" s="52"/>
       <x:c r="D7" s="52"/>
@@ -7299,7 +7217,7 @@
     <x:row r="8" spans="1:22" ht="17.80000000000000071054">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="52"/>
       <x:c r="D8" s="52"/>
@@ -7323,7 +7241,7 @@
       </x:c>
       <x:c r="M8" s="10"/>
       <x:c r="N8" s="46" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O8" s="46"/>
       <x:c r="P8" s="10"/>
@@ -7337,7 +7255,7 @@
     <x:row r="9" spans="1:22">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C9" s="52">
         <x:f>C8*0</x:f>
@@ -7369,7 +7287,7 @@
       </x:c>
       <x:c r="M9" s="10"/>
       <x:c r="N9" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O9" s="7">
         <x:f>O5-G7</x:f>
@@ -7436,7 +7354,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <x:pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
-      <x:selection pane="bottomRight" activeCell="K10" activeCellId="0" sqref="K10:K10"/>
+      <x:selection pane="bottomRight" activeCell="H11" activeCellId="0" sqref="H11:H11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -7495,7 +7413,7 @@
     <x:row r="2" spans="1:33" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
       <x:c r="B2" s="43" t="s">
-        <x:v>76</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C2" s="44"/>
       <x:c r="D2" s="44"/>
@@ -7567,7 +7485,7 @@
     <x:row r="4" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
       <x:c r="B4" s="42" t="s">
-        <x:v>42</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C4" s="42"/>
       <x:c r="D4" s="42"/>
@@ -7588,7 +7506,7 @@
       <x:c r="S4" s="42"/>
       <x:c r="T4" s="11"/>
       <x:c r="U4" s="46" t="s">
-        <x:v>61</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="V4" s="46"/>
       <x:c r="W4" s="11"/>
@@ -7606,14 +7524,14 @@
     <x:row r="5" spans="1:33">
       <x:c r="A5" s="10"/>
       <x:c r="B5" s="47" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C5" s="49" t="s">
-        <x:v>48</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D5" s="50"/>
       <x:c r="E5" s="49" t="s">
-        <x:v>0</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F5" s="51"/>
       <x:c r="G5" s="51"/>
@@ -7621,25 +7539,25 @@
       <x:c r="I5" s="51"/>
       <x:c r="J5" s="50"/>
       <x:c r="K5" s="49" t="s">
-        <x:v>105</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="L5" s="51"/>
       <x:c r="M5" s="51"/>
       <x:c r="N5" s="51"/>
       <x:c r="O5" s="50"/>
       <x:c r="P5" s="47" t="s">
-        <x:v>51</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="Q5" s="49" t="s">
-        <x:v>98</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="R5" s="50"/>
       <x:c r="S5" s="47" t="s">
-        <x:v>83</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="T5" s="10"/>
       <x:c r="U5" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="V5" s="7">
         <x:f>D10</x:f>
@@ -7661,62 +7579,62 @@
       <x:c r="A6" s="10"/>
       <x:c r="B6" s="48"/>
       <x:c r="C6" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E6" s="8" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F6" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G6" s="8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H6" s="8" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I6" s="8" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="J6" s="8" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="K6" s="8" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="E6" s="8" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F6" s="8" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G6" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H6" s="8" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="I6" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J6" s="8" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="K6" s="8" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="L6" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M6" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N6" s="20" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="O6" s="20" t="s">
-        <x:v>109</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P6" s="48"/>
       <x:c r="Q6" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="R6" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="S6" s="48"/>
       <x:c r="T6" s="10"/>
       <x:c r="U6" s="8" t="s">
-        <x:v>115</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="V6" s="7">
         <x:f>J10+O10+P10</x:f>
-        <x:v>1397220</x:v>
+        <x:v>1734820</x:v>
       </x:c>
       <x:c r="W6" s="10" t="s">
-        <x:v>90</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="X6" s="10"/>
       <x:c r="Y6" s="10"/>
@@ -7732,7 +7650,7 @@
     <x:row r="7" spans="1:33">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C7" s="6">
         <x:v>4650214</x:v>
@@ -7753,7 +7671,7 @@
         <x:v>400000</x:v>
       </x:c>
       <x:c r="I7" s="24" t="s">
-        <x:v>1</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="J7" s="6">
         <x:v>100000</x:v>
@@ -7787,7 +7705,7 @@
       <x:c r="S7" s="6"/>
       <x:c r="T7" s="10"/>
       <x:c r="U7" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="V7" s="7">
         <x:f>R10</x:f>
@@ -7808,7 +7726,7 @@
     <x:row r="8" spans="1:33">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="7">
         <x:v>4650214</x:v>
@@ -7817,8 +7735,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E8" s="7">
-        <x:f>'1월'!C12</x:f>
-        <x:v>314689</x:v>
+        <x:v>310189</x:v>
       </x:c>
       <x:c r="F8" s="7">
         <x:f>+SUMIF($M$16:$M$33,F$6,$K$16:$K$33)</x:f>
@@ -7826,11 +7743,11 @@
       </x:c>
       <x:c r="G8" s="7">
         <x:f>SUMIF($M$16:$M$33,G$6,$K$16:$K$33)</x:f>
-        <x:v>54630</x:v>
+        <x:v>104780</x:v>
       </x:c>
       <x:c r="H8" s="7">
         <x:f>SUMIF($M$16:$M$33,H$6,$K$16:$K$33)</x:f>
-        <x:v>89680</x:v>
+        <x:v>181630</x:v>
       </x:c>
       <x:c r="I8" s="7">
         <x:f>SUMIF($M$16:$M$33,I$6,$K$16:$K$33)</x:f>
@@ -7851,7 +7768,7 @@
         <x:v>135931</x:v>
       </x:c>
       <x:c r="N8" s="6">
-        <x:v>300000</x:v>
+        <x:v>500000</x:v>
       </x:c>
       <x:c r="O8" s="6">
         <x:f>35000+8690</x:f>
@@ -7872,7 +7789,7 @@
       </x:c>
       <x:c r="T8" s="10"/>
       <x:c r="U8" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="V8" s="7">
         <x:v>200000</x:v>
@@ -7892,7 +7809,7 @@
     <x:row r="9" spans="1:33">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>82</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:f t="shared" ref="C9:S9" si="0">C7-C8</x:f>
@@ -7904,7 +7821,7 @@
       </x:c>
       <x:c r="E9" s="7">
         <x:f t="shared" si="0"/>
-        <x:v>-14689</x:v>
+        <x:v>-10189</x:v>
       </x:c>
       <x:c r="F9" s="7"/>
       <x:c r="G9" s="7"/>
@@ -7931,7 +7848,7 @@
       </x:c>
       <x:c r="N9" s="7">
         <x:f t="shared" si="0"/>
-        <x:v>0</x:v>
+        <x:v>-200000</x:v>
       </x:c>
       <x:c r="O9" s="7">
         <x:f t="shared" si="0"/>
@@ -7955,14 +7872,14 @@
       </x:c>
       <x:c r="T9" s="10"/>
       <x:c r="U9" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="V9" s="7">
         <x:f>V5-(V6+V7+V8)</x:f>
-        <x:v>1152994</x:v>
+        <x:v>815394</x:v>
       </x:c>
       <x:c r="W9" s="13" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="X9" s="10"/>
       <x:c r="Y9" s="10"/>
@@ -7990,7 +7907,7 @@
       <x:c r="I10" s="10"/>
       <x:c r="J10" s="18">
         <x:f>SUM(E8:J8)</x:f>
-        <x:v>458999</x:v>
+        <x:v>596599</x:v>
       </x:c>
       <x:c r="K10" s="17"/>
       <x:c r="L10" s="17"/>
@@ -7998,7 +7915,7 @@
       <x:c r="N10" s="18"/>
       <x:c r="O10" s="18">
         <x:f>SUM(K8:O8)</x:f>
-        <x:v>838221</x:v>
+        <x:v>1038221</x:v>
       </x:c>
       <x:c r="P10" s="18">
         <x:f>P8</x:f>
@@ -8015,14 +7932,14 @@
       </x:c>
       <x:c r="T10" s="10"/>
       <x:c r="U10" s="8" t="s">
-        <x:v>58</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="V10" s="23">
         <x:f>V6/V5</x:f>
-        <x:v>0.30046359156804398</x:v>
+        <x:v>0.37306240099917981</x:v>
       </x:c>
       <x:c r="W10" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="X10" s="10"/>
       <x:c r="Y10" s="10"/>
@@ -8057,14 +7974,14 @@
       <x:c r="S11" s="12"/>
       <x:c r="T11" s="10"/>
       <x:c r="U11" s="21" t="s">
-        <x:v>56</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="V11" s="23">
         <x:f>V7/V5</x:f>
         <x:v>0.4085833469169376</x:v>
       </x:c>
       <x:c r="W11" s="10" t="s">
-        <x:v>114</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="X11" s="10"/>
       <x:c r="Y11" s="10"/>
@@ -8080,7 +7997,7 @@
     <x:row r="12" spans="1:33">
       <x:c r="A12" s="10"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>94</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C12" s="7">
         <x:f>SUM(C16:C33)</x:f>
@@ -8139,7 +8056,7 @@
       <x:c r="S13" s="10"/>
       <x:c r="T13" s="10"/>
       <x:c r="U13" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="V13" s="19">
         <x:v>0.5</x:v>
@@ -8162,19 +8079,19 @@
     <x:row r="14" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A14" s="11"/>
       <x:c r="B14" s="42" t="s">
-        <x:v>86</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C14" s="42"/>
       <x:c r="D14" s="42"/>
       <x:c r="E14" s="42"/>
       <x:c r="F14" s="17" t="s">
-        <x:v>52</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G14" s="17"/>
       <x:c r="H14" s="17"/>
       <x:c r="I14" s="11"/>
       <x:c r="J14" s="42" t="s">
-        <x:v>64</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K14" s="42"/>
       <x:c r="L14" s="42"/>
@@ -8187,7 +8104,7 @@
       <x:c r="S14" s="11"/>
       <x:c r="T14" s="11"/>
       <x:c r="U14" s="8" t="s">
-        <x:v>110</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="V14" s="19">
         <x:v>0.5</x:v>
@@ -8210,32 +8127,32 @@
     <x:row r="15" spans="1:33">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F15" s="17"/>
       <x:c r="G15" s="17"/>
       <x:c r="H15" s="17"/>
       <x:c r="I15" s="10"/>
       <x:c r="J15" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K15" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="L15" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M15" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N15" s="10"/>
       <x:c r="O15" s="10"/>
@@ -8267,10 +8184,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>41</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>3</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="22"/>
@@ -8283,10 +8200,10 @@
         <x:v>89680</x:v>
       </x:c>
       <x:c r="L16" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="M16" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N16" s="22"/>
       <x:c r="O16" s="22"/>
@@ -8318,26 +8235,26 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F17" s="17"/>
       <x:c r="G17" s="17"/>
       <x:c r="H17" s="17"/>
       <x:c r="I17" s="10"/>
-      <x:c r="J17" s="60">
+      <x:c r="J17" s="30">
         <x:v>45330</x:v>
       </x:c>
       <x:c r="K17" s="31">
         <x:v>54630</x:v>
       </x:c>
-      <x:c r="L17" s="61" t="s">
-        <x:v>87</x:v>
+      <x:c r="L17" s="28" t="s">
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M17" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N17" s="17"/>
       <x:c r="O17" s="17"/>
@@ -8369,19 +8286,27 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D18" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F18" s="17"/>
       <x:c r="G18" s="17"/>
       <x:c r="H18" s="17"/>
       <x:c r="I18" s="10"/>
-      <x:c r="J18" s="60"/>
-      <x:c r="K18" s="31"/>
-      <x:c r="L18" s="16"/>
-      <x:c r="M18" s="16"/>
+      <x:c r="J18" s="60">
+        <x:v>45331</x:v>
+      </x:c>
+      <x:c r="K18" s="31">
+        <x:v>22300</x:v>
+      </x:c>
+      <x:c r="L18" s="16" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M18" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="N18" s="17"/>
       <x:c r="O18" s="17"/>
       <x:c r="P18" s="10"/>
@@ -8412,19 +8337,27 @@
         <x:v>1200</x:v>
       </x:c>
       <x:c r="D19" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s">
-        <x:v>3</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F19" s="17"/>
       <x:c r="G19" s="17"/>
       <x:c r="H19" s="17"/>
       <x:c r="I19" s="10"/>
-      <x:c r="J19" s="2"/>
-      <x:c r="K19" s="15"/>
-      <x:c r="L19" s="16"/>
-      <x:c r="M19" s="16"/>
+      <x:c r="J19" s="60">
+        <x:v>45331</x:v>
+      </x:c>
+      <x:c r="K19" s="31">
+        <x:v>77300</x:v>
+      </x:c>
+      <x:c r="L19" s="28" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="M19" s="16" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="N19" s="17"/>
       <x:c r="O19" s="17"/>
       <x:c r="P19" s="10"/>
@@ -8455,19 +8388,27 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F20" s="17"/>
       <x:c r="G20" s="17"/>
       <x:c r="H20" s="17"/>
       <x:c r="I20" s="10"/>
-      <x:c r="J20" s="2"/>
-      <x:c r="K20" s="15"/>
-      <x:c r="L20" s="16"/>
-      <x:c r="M20" s="16"/>
+      <x:c r="J20" s="60">
+        <x:v>45332</x:v>
+      </x:c>
+      <x:c r="K20" s="31">
+        <x:v>7550</x:v>
+      </x:c>
+      <x:c r="L20" s="16" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M20" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="N20" s="17"/>
       <x:c r="O20" s="17"/>
       <x:c r="P20" s="10"/>
@@ -8498,19 +8439,28 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="D21" s="16" t="s">
-        <x:v>87</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F21" s="17"/>
       <x:c r="G21" s="17"/>
       <x:c r="H21" s="17"/>
       <x:c r="I21" s="10"/>
-      <x:c r="J21" s="2"/>
-      <x:c r="K21" s="15"/>
-      <x:c r="L21" s="16"/>
-      <x:c r="M21" s="16"/>
+      <x:c r="J21" s="60">
+        <x:v>45334</x:v>
+      </x:c>
+      <x:c r="K21" s="31">
+        <x:f>13900+5800+600</x:f>
+        <x:v>20300</x:v>
+      </x:c>
+      <x:c r="L21" s="28" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="M21" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="N21" s="17"/>
       <x:c r="O21" s="17"/>
       <x:c r="P21" s="10"/>
@@ -8542,10 +8492,18 @@
       <x:c r="G22" s="17"/>
       <x:c r="H22" s="17"/>
       <x:c r="I22" s="10"/>
-      <x:c r="J22" s="2"/>
-      <x:c r="K22" s="15"/>
-      <x:c r="L22" s="16"/>
-      <x:c r="M22" s="16"/>
+      <x:c r="J22" s="60">
+        <x:v>45334</x:v>
+      </x:c>
+      <x:c r="K22" s="31">
+        <x:v>11900</x:v>
+      </x:c>
+      <x:c r="L22" s="16" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M22" s="16" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="N22" s="17"/>
       <x:c r="O22" s="17"/>
       <x:c r="P22" s="10"/>
@@ -8577,10 +8535,18 @@
       <x:c r="G23" s="17"/>
       <x:c r="H23" s="17"/>
       <x:c r="I23" s="10"/>
-      <x:c r="J23" s="2"/>
-      <x:c r="K23" s="15"/>
-      <x:c r="L23" s="16"/>
-      <x:c r="M23" s="16"/>
+      <x:c r="J23" s="60">
+        <x:v>45335</x:v>
+      </x:c>
+      <x:c r="K23" s="31">
+        <x:v>2750</x:v>
+      </x:c>
+      <x:c r="L23" s="16" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M23" s="16" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="N23" s="17"/>
       <x:c r="O23" s="17"/>
       <x:c r="P23" s="10"/>
@@ -9613,7 +9579,7 @@
     <x:row r="2" spans="1:26" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
       <x:c r="B2" s="43" t="s">
-        <x:v>97</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="44"/>
       <x:c r="D2" s="44"/>
@@ -9671,7 +9637,7 @@
     <x:row r="4" spans="1:26" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
       <x:c r="B4" s="42" t="s">
-        <x:v>42</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C4" s="42"/>
       <x:c r="D4" s="42"/>
@@ -9685,11 +9651,11 @@
       <x:c r="L4" s="42"/>
       <x:c r="M4" s="11"/>
       <x:c r="N4" s="46" t="s">
-        <x:v>61</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="O4" s="46"/>
       <x:c r="Q4" s="46" t="s">
-        <x:v>30</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="R4" s="46"/>
       <x:c r="S4" s="11"/>
@@ -9702,38 +9668,38 @@
     <x:row r="5" spans="1:26">
       <x:c r="A5" s="10"/>
       <x:c r="B5" s="47" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C5" s="49" t="s">
-        <x:v>113</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D5" s="50"/>
       <x:c r="E5" s="49" t="s">
-        <x:v>57</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F5" s="50"/>
       <x:c r="G5" s="49" t="s">
-        <x:v>20</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H5" s="50"/>
       <x:c r="I5" s="49" t="s">
-        <x:v>103</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J5" s="50"/>
       <x:c r="K5" s="49" t="s">
-        <x:v>40</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L5" s="51"/>
       <x:c r="M5" s="10"/>
       <x:c r="N5" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O5" s="7">
         <x:f>R5+SUM(C8:L8)</x:f>
         <x:v>48800000</x:v>
       </x:c>
       <x:c r="Q5" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R5" s="7">
         <x:f>'1월(자산)'!O5</x:f>
@@ -9750,11 +9716,11 @@
       <x:c r="A6" s="10"/>
       <x:c r="B6" s="55"/>
       <x:c r="C6" s="58" t="s">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D6" s="59"/>
       <x:c r="E6" s="56" t="s">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F6" s="57"/>
       <x:c r="G6" s="56" t="s">
@@ -9762,18 +9728,18 @@
       </x:c>
       <x:c r="H6" s="57"/>
       <x:c r="I6" s="58" t="s">
-        <x:v>106</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="J6" s="59"/>
       <x:c r="K6" s="25" t="s">
-        <x:v>79</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L6" s="25" t="s">
-        <x:v>8</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M6" s="10"/>
       <x:c r="N6" s="8" t="s">
-        <x:v>102</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O6" s="7">
         <x:f>SUM(C9:L9)</x:f>
@@ -9792,7 +9758,7 @@
     <x:row r="7" spans="1:26">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C7" s="52">
         <x:v>0</x:v>
@@ -9837,7 +9803,7 @@
     <x:row r="8" spans="1:26" ht="17.80000000000000071054">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="52">
         <x:v>0</x:v>
@@ -9863,7 +9829,7 @@
       </x:c>
       <x:c r="M8" s="10"/>
       <x:c r="N8" s="46" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O8" s="46"/>
       <x:c r="P8" s="10"/>
@@ -9881,7 +9847,7 @@
     <x:row r="9" spans="1:26">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C9" s="52">
         <x:f>C8*0</x:f>
@@ -9913,7 +9879,7 @@
       </x:c>
       <x:c r="M9" s="10"/>
       <x:c r="N9" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O9" s="7">
         <x:f>O5-G7</x:f>

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -8,32 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\github\sharebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FDC9AD-2663-4475-AB83-782A8D75C8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07050183-60F5-4AAB-81AF-1ADEACBD32F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1월" sheetId="1" r:id="rId1"/>
-    <sheet name="1월(자산)" sheetId="2" r:id="rId2"/>
+    <sheet name="3월" sheetId="6" r:id="rId1"/>
+    <sheet name="3월(자산)" sheetId="7" r:id="rId2"/>
     <sheet name="2월" sheetId="3" r:id="rId3"/>
     <sheet name="2월(자산)" sheetId="4" r:id="rId4"/>
-    <sheet name="3월" sheetId="6" r:id="rId5"/>
-    <sheet name="3월(자산)" sheetId="7" r:id="rId6"/>
+    <sheet name="1월" sheetId="1" r:id="rId5"/>
+    <sheet name="1월(자산)" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1월'!$B$15:$E$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1월(자산)'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1월'!$B$15:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'1월(자산)'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2월'!$B$15:$E$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2월(자산)'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3월'!$B$15:$E$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'3월(자산)'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3월'!$B$15:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'3월(자산)'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="126">
   <si>
     <t>자산</t>
   </si>
@@ -299,9 +299,6 @@
     <t>금액조정</t>
   </si>
   <si>
-    <t>수영비</t>
-  </si>
-  <si>
     <t>도시가스</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
     <t>아이스크림점</t>
   </si>
   <si>
-    <t>역귀성</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -333,9 +327,6 @@
   </si>
   <si>
     <t>이마트</t>
-  </si>
-  <si>
-    <t>수영</t>
   </si>
   <si>
     <t>주식</t>
@@ -416,6 +407,22 @@
   </si>
   <si>
     <t>2024년 3월 송민영의 자본</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀성비</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통비</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>수영복</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>수영강습</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +554,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -667,15 +674,6 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,11 +847,11 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,7 +942,7 @@
     <xf numFmtId="41" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,34 +951,40 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="6" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -992,22 +996,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,18 +1027,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1414,7 +1409,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="31"/>
       <tableStyleElement type="headerRow" dxfId="30"/>
       <tableStyleElement type="totalRow" dxfId="29"/>
@@ -1423,7 +1418,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="26"/>
       <tableStyleElement type="firstColumnStripe" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="24"/>
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="totalRow" dxfId="22"/>
@@ -1735,24 +1730,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED636F10-E58F-44BC-ABF3-CC091EF0B8A9}">
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.8984375" customWidth="1"/>
     <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="10.8984375" customWidth="1"/>
-    <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.8984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.8984375" customWidth="1"/>
     <col min="12" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.8984375" customWidth="1"/>
@@ -1764,7 +1758,7 @@
     <col min="23" max="23" width="13.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1799,31 +1793,31 @@
       <c r="AF1" s="10"/>
       <c r="AG1" s="10"/>
     </row>
-    <row r="2" spans="1:33" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="42"/>
+      <c r="B2" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="44"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
@@ -1874,7 +1868,7 @@
     <row r="4" spans="1:33" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1894,10 +1888,10 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="43" t="s">
+      <c r="U4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="43"/>
+      <c r="V4" s="45"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
@@ -1912,36 +1906,36 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="44" t="s">
+      <c r="C5" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="Q5" s="46" t="s">
+      <c r="Q5" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="47"/>
-      <c r="S5" s="44" t="s">
+      <c r="R5" s="49"/>
+      <c r="S5" s="46" t="s">
         <v>47</v>
       </c>
       <c r="T5" s="10"/>
@@ -1950,7 +1944,7 @@
       </c>
       <c r="V5" s="7">
         <f>D10</f>
-        <v>4562347</v>
+        <v>4650214</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
@@ -1966,7 +1960,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="45"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
@@ -2006,21 +2000,21 @@
       <c r="O6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="45"/>
+      <c r="P6" s="47"/>
       <c r="Q6" s="8" t="s">
         <v>58</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="45"/>
+      <c r="S6" s="47"/>
       <c r="T6" s="10"/>
       <c r="U6" s="8" t="s">
         <v>52</v>
       </c>
       <c r="V6" s="7">
         <f>J10+O10+P10</f>
-        <v>2861506</v>
+        <v>1840523</v>
       </c>
       <c r="W6" s="10" t="s">
         <v>22</v>
@@ -2042,13 +2036,13 @@
         <v>19</v>
       </c>
       <c r="C7" s="6">
-        <v>4000000</v>
+        <v>4650214</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>468220</v>
+        <v>300000</v>
       </c>
       <c r="F7" s="6">
         <v>120000</v>
@@ -2060,13 +2054,13 @@
         <v>400000</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J7" s="6">
         <v>100000</v>
       </c>
       <c r="K7" s="6">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="L7" s="6">
         <f>34100+24500</f>
@@ -2083,10 +2077,10 @@
         <v>43690</v>
       </c>
       <c r="P7" s="6">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="Q7" s="6">
-        <v>1000000</v>
+        <v>1800000</v>
       </c>
       <c r="R7" s="6">
         <v>100000</v>
@@ -2094,11 +2088,11 @@
       <c r="S7" s="6"/>
       <c r="T7" s="10"/>
       <c r="U7" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="V7" s="7">
         <f>R10</f>
-        <v>1100000</v>
+        <v>1900000</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
@@ -2118,37 +2112,36 @@
         <v>39</v>
       </c>
       <c r="C8" s="7">
-        <f>4129547+34400+298400+100000</f>
-        <v>4562347</v>
+        <v>4650214</v>
       </c>
       <c r="D8" s="7">
         <v>0</v>
       </c>
       <c r="E8" s="7">
-        <v>468220</v>
+        <v>310189</v>
       </c>
       <c r="F8" s="7">
-        <f>+SUMIF($M$16:$M$78,F$6,$K$16:$K$78)</f>
-        <v>124930</v>
+        <f>+SUMIF($M$16:$M$32,F$6,$K$16:$K$32)</f>
+        <v>0</v>
       </c>
       <c r="G8" s="7">
-        <f>SUMIF($M$16:$M$78,G$6,$K$16:$K$78)</f>
-        <v>530715</v>
+        <f>SUMIF($M$16:$M$32,G$6,$K$16:$K$32)</f>
+        <v>203690</v>
       </c>
       <c r="H8" s="7">
-        <f>SUMIF($M$16:$M$78,H$6,$K$16:$K$78)</f>
-        <v>727220</v>
+        <f>SUMIF($M$16:$M$32,H$6,$K$16:$K$32)</f>
+        <v>188423</v>
       </c>
       <c r="I8" s="7">
-        <f>SUMIF($M$16:$M$72,I$6,$K$16:$K$72)</f>
+        <f>SUMIF($M$16:$M$32,I$6,$K$16:$K$32)</f>
         <v>0</v>
       </c>
       <c r="J8" s="7">
-        <f>SUMIF($M$16:$M$78,J$6,$K$16:$K$78)</f>
-        <v>112200</v>
+        <f>SUMIF($M$16:$M$32,J$6,$K$16:$K$32)</f>
+        <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="L8" s="6">
         <f>34100+24500</f>
@@ -2158,31 +2151,31 @@
         <v>135931</v>
       </c>
       <c r="N8" s="6">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="O8" s="6">
         <f>35000+8690</f>
         <v>43690</v>
       </c>
       <c r="P8" s="7">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="Q8" s="7">
-        <v>1000000</v>
+        <v>1800000</v>
       </c>
       <c r="R8" s="7">
         <v>100000</v>
       </c>
       <c r="S8" s="7">
-        <v>660000</v>
+        <f>SUMIF($E$16:$E$32,S$5,$C$16:$C$32)+SUMIF($M$16:$M$32,S$5,$K$16:$K$32)</f>
+        <v>0</v>
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="8" t="s">
         <v>71</v>
       </c>
       <c r="V8" s="7">
-        <f>S8</f>
-        <v>660000</v>
+        <v>200000</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
@@ -2202,36 +2195,27 @@
         <v>64</v>
       </c>
       <c r="C9" s="7">
-        <f>C8-C7</f>
-        <v>562347</v>
+        <f t="shared" ref="C9:S9" si="0">C7-C8</f>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" ref="D9:R9" si="0">D7-D8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>-4930</v>
-      </c>
-      <c r="G9" s="27">
-        <f t="shared" si="0"/>
-        <v>-130715</v>
-      </c>
-      <c r="H9" s="27">
-        <f>H7-H8</f>
-        <v>-327220</v>
-      </c>
+        <v>-10189</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="7">
         <f>I8</f>
         <v>0</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="0"/>
-        <v>-12200</v>
+        <v>100000</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="0"/>
@@ -2247,7 +2231,7 @@
       </c>
       <c r="N9" s="7">
         <f t="shared" si="0"/>
-        <v>-100000</v>
+        <v>-200000</v>
       </c>
       <c r="O9" s="7">
         <f t="shared" si="0"/>
@@ -2255,7 +2239,7 @@
       </c>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="7">
         <f t="shared" si="0"/>
@@ -2265,14 +2249,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="7"/>
+      <c r="S9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="T9" s="10"/>
       <c r="U9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="V9" s="7">
         <f>V5-(V6+V7+V8)</f>
-        <v>-59159</v>
+        <v>709691</v>
       </c>
       <c r="W9" s="13" t="s">
         <v>7</v>
@@ -2294,7 +2281,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="18">
         <f>C8+D8</f>
-        <v>4562347</v>
+        <v>4650214</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -2303,7 +2290,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="18">
         <f>SUM(E8:J8)</f>
-        <v>1963285</v>
+        <v>702302</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -2311,20 +2298,20 @@
       <c r="N10" s="18"/>
       <c r="O10" s="18">
         <f>SUM(K8:O8)</f>
-        <v>838221</v>
+        <v>1038221</v>
       </c>
       <c r="P10" s="18">
         <f>P8</f>
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="Q10" s="17"/>
       <c r="R10" s="18">
         <f>Q8+R8</f>
-        <v>1100000</v>
+        <v>1900000</v>
       </c>
       <c r="S10" s="12">
         <f>S8</f>
-        <v>660000</v>
+        <v>0</v>
       </c>
       <c r="T10" s="10"/>
       <c r="U10" s="8" t="s">
@@ -2332,7 +2319,7 @@
       </c>
       <c r="V10" s="23">
         <f>V6/V5</f>
-        <v>0.62720042995414427</v>
+        <v>0.39579318285136983</v>
       </c>
       <c r="W10" s="10" t="s">
         <v>54</v>
@@ -2374,7 +2361,7 @@
       </c>
       <c r="V11" s="23">
         <f>V7/V5</f>
-        <v>0.24110397565112868</v>
+        <v>0.4085833469169376</v>
       </c>
       <c r="W11" s="10" t="s">
         <v>2</v>
@@ -2393,11 +2380,11 @@
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="B12" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C12" s="7">
-        <f>SUM(C16:C72)</f>
-        <v>314689</v>
+        <f>SUM(C16:C32)</f>
+        <v>68700</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="10"/>
@@ -2459,7 +2446,7 @@
       </c>
       <c r="W13" s="7">
         <f>V5*V13</f>
-        <v>2281173.5</v>
+        <v>2325107</v>
       </c>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
@@ -2487,7 +2474,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="11"/>
       <c r="J14" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2500,14 +2487,14 @@
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
       <c r="U14" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="V14" s="19">
         <v>0.5</v>
       </c>
       <c r="W14" s="7">
         <f>V5*V14</f>
-        <v>2281173.5</v>
+        <v>2325107</v>
       </c>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
@@ -2526,7 +2513,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>6</v>
@@ -2542,7 +2529,7 @@
         <v>61</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>6</v>
@@ -2574,29 +2561,29 @@
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="26">
-        <v>45293</v>
+        <v>45321</v>
       </c>
       <c r="C16" s="15">
-        <v>4500</v>
+        <v>50000</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="10"/>
       <c r="J16" s="26">
-        <v>45292</v>
+        <v>45330</v>
       </c>
       <c r="K16" s="3">
-        <v>22500</v>
+        <v>89680</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>43</v>
@@ -2625,7 +2612,7 @@
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="26">
-        <v>45294</v>
+        <v>45321</v>
       </c>
       <c r="C17" s="15">
         <v>4500</v>
@@ -2634,20 +2621,20 @@
         <v>37</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="26">
-        <v>45292</v>
-      </c>
-      <c r="K17" s="15">
-        <v>1500</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>94</v>
+      <c r="J17" s="30">
+        <v>45330</v>
+      </c>
+      <c r="K17" s="31">
+        <v>54630</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="M17" s="16" t="s">
         <v>14</v>
@@ -2676,29 +2663,29 @@
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" s="26">
-        <v>45295</v>
+        <v>45322</v>
       </c>
       <c r="C18" s="15">
-        <v>19920</v>
+        <v>4500</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="26">
-        <v>45293</v>
-      </c>
-      <c r="K18" s="15">
-        <v>10580</v>
+      <c r="J18" s="30">
+        <v>45331</v>
+      </c>
+      <c r="K18" s="31">
+        <v>22300</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M18" s="16" t="s">
         <v>14</v>
@@ -2727,32 +2714,32 @@
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="26">
-        <v>45295</v>
+        <v>45322</v>
       </c>
       <c r="C19" s="15">
-        <v>5400</v>
+        <v>1200</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="26">
-        <v>45294</v>
-      </c>
-      <c r="K19" s="15">
-        <v>4500</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>40</v>
+      <c r="J19" s="30">
+        <v>45331</v>
+      </c>
+      <c r="K19" s="31">
+        <v>77300</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
@@ -2778,29 +2765,29 @@
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="26">
-        <v>45295</v>
+        <v>45323</v>
       </c>
       <c r="C20" s="15">
-        <v>50000</v>
+        <v>4500</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="26">
-        <v>45295</v>
-      </c>
-      <c r="K20" s="15">
-        <v>6990</v>
+      <c r="J20" s="30">
+        <v>45332</v>
+      </c>
+      <c r="K20" s="31">
+        <v>7550</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>14</v>
@@ -2829,32 +2816,33 @@
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
       <c r="B21" s="26">
-        <v>45295</v>
+        <v>45323</v>
       </c>
       <c r="C21" s="15">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="26">
-        <v>45296</v>
-      </c>
-      <c r="K21" s="15">
-        <v>30919</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>46</v>
+      <c r="J21" s="30">
+        <v>45334</v>
+      </c>
+      <c r="K21" s="31">
+        <f>13900+5800+600</f>
+        <v>20300</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
@@ -2879,33 +2867,25 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
-      <c r="B22" s="26">
-        <v>45295</v>
-      </c>
-      <c r="C22" s="15">
-        <v>23219</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>97</v>
-      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="26">
-        <v>45296</v>
-      </c>
-      <c r="K22" s="15">
-        <v>82320</v>
+      <c r="J22" s="30">
+        <v>45334</v>
+      </c>
+      <c r="K22" s="31">
+        <v>11900</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
@@ -2930,30 +2910,22 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
-      <c r="B23" s="26">
-        <v>45296</v>
-      </c>
-      <c r="C23" s="15">
-        <v>4500</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>97</v>
-      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="26">
-        <v>45298</v>
-      </c>
-      <c r="K23" s="15">
-        <v>4000</v>
+      <c r="J23" s="30">
+        <v>45335</v>
+      </c>
+      <c r="K23" s="31">
+        <v>2750</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M23" s="16" t="s">
         <v>43</v>
@@ -2981,33 +2953,25 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
-      <c r="B24" s="26">
-        <v>45297</v>
-      </c>
-      <c r="C24" s="15">
-        <v>30900</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>97</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="26">
-        <v>45298</v>
+      <c r="J24" s="30">
+        <v>45336</v>
       </c>
       <c r="K24" s="15">
-        <v>10000</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>43</v>
+        <v>1600</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
@@ -3032,33 +2996,25 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
-      <c r="B25" s="26">
-        <v>45299</v>
-      </c>
-      <c r="C25" s="15">
-        <v>4500</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>97</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="26">
-        <v>45298</v>
+      <c r="J25" s="30">
+        <v>45336</v>
       </c>
       <c r="K25" s="15">
-        <v>39535</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>14</v>
+        <v>4500</v>
+      </c>
+      <c r="L25" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
@@ -3083,33 +3039,26 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
-      <c r="B26" s="26">
-        <v>45300</v>
-      </c>
-      <c r="C26" s="15">
-        <v>4500</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>97</v>
-      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="26">
-        <v>45299</v>
+      <c r="J26" s="30">
+        <v>45337</v>
       </c>
       <c r="K26" s="15">
-        <v>3150</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>14</v>
+        <f>2900+45000+7660</f>
+        <v>55560</v>
+      </c>
+      <c r="L26" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
@@ -3134,33 +3083,25 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="26">
-        <v>45301</v>
-      </c>
-      <c r="C27" s="15">
-        <v>4500</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>97</v>
-      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="26">
-        <v>45300</v>
+      <c r="J27" s="30">
+        <v>45338</v>
       </c>
       <c r="K27" s="15">
-        <v>13500</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="M27" s="16" t="s">
-        <v>14</v>
+        <v>6793</v>
+      </c>
+      <c r="L27" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>117</v>
       </c>
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
@@ -3185,35 +3126,27 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
-      <c r="B28" s="26">
-        <v>45302</v>
-      </c>
-      <c r="C28" s="15">
-        <v>4500</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>97</v>
-      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="26">
-        <v>45302</v>
+      <c r="J28" s="30">
+        <v>45338</v>
       </c>
       <c r="K28" s="15">
-        <v>5400</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="M28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N28" s="29"/>
+        <v>6250</v>
+      </c>
+      <c r="L28" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="N28" s="17"/>
       <c r="O28" s="17"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
@@ -3236,33 +3169,25 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
-      <c r="B29" s="26">
-        <v>45303</v>
-      </c>
-      <c r="C29" s="15">
-        <v>4500</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>97</v>
-      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="26">
-        <v>45302</v>
+      <c r="J29" s="30">
+        <v>45339</v>
       </c>
       <c r="K29" s="15">
-        <v>11500</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M29" s="16" t="s">
-        <v>14</v>
+        <v>31000</v>
+      </c>
+      <c r="L29" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="N29" s="17"/>
       <c r="O29" s="17"/>
@@ -3287,34 +3212,18 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
-      <c r="B30" s="26">
-        <v>45303</v>
-      </c>
-      <c r="C30" s="15">
-        <v>8910</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>87</v>
-      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="26">
-        <v>45303</v>
-      </c>
-      <c r="K30" s="15">
-        <v>2980</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="M30" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
       <c r="P30" s="10"/>
@@ -3338,34 +3247,18 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
-      <c r="B31" s="26">
-        <v>45304</v>
-      </c>
-      <c r="C31" s="15">
-        <v>50000</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>69</v>
-      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="26">
-        <v>45303</v>
-      </c>
-      <c r="K31" s="15">
-        <v>50100</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M31" s="16" t="s">
-        <v>48</v>
-      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="17"/>
       <c r="O31" s="17"/>
       <c r="P31" s="10"/>
@@ -3389,34 +3282,18 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
-      <c r="B32" s="26">
-        <v>45306</v>
-      </c>
-      <c r="C32" s="15">
-        <v>4500</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>97</v>
-      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="26">
-        <v>45303</v>
-      </c>
-      <c r="K32" s="15">
-        <v>62100</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="M32" s="16" t="s">
-        <v>48</v>
-      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
       <c r="P32" s="10"/>
@@ -3440,36 +3317,20 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
-      <c r="B33" s="26">
-        <v>45307</v>
-      </c>
-      <c r="C33" s="15">
-        <v>4500</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="26">
-        <v>45303</v>
-      </c>
-      <c r="K33" s="15">
-        <v>35560</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="M33" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
@@ -3491,36 +3352,20 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
-      <c r="B34" s="26">
-        <v>45314</v>
-      </c>
-      <c r="C34" s="15">
-        <v>2500</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="26">
-        <v>45304</v>
-      </c>
-      <c r="K34" s="15">
-        <v>36000</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M34" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
@@ -3542,36 +3387,20 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
-      <c r="B35" s="26">
-        <v>45315</v>
-      </c>
-      <c r="C35" s="15">
-        <v>36860</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="26">
-        <v>45304</v>
-      </c>
-      <c r="K35" s="15">
-        <v>50000</v>
-      </c>
-      <c r="L35" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="M35" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
@@ -3593,36 +3422,20 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
-      <c r="B36" s="26">
-        <v>45315</v>
-      </c>
-      <c r="C36" s="15">
-        <v>10980</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
       <c r="I36" s="10"/>
-      <c r="J36" s="26">
-        <v>45305</v>
-      </c>
-      <c r="K36" s="15">
-        <v>6600</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M36" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
@@ -3644,36 +3457,20 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
-      <c r="B37" s="26">
-        <v>45316</v>
-      </c>
-      <c r="C37" s="15">
-        <v>4500</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
       <c r="I37" s="10"/>
-      <c r="J37" s="26">
-        <v>45305</v>
-      </c>
-      <c r="K37" s="15">
-        <v>33000</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M37" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
@@ -3695,36 +3492,20 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
-      <c r="B38" s="26">
-        <v>45317</v>
-      </c>
-      <c r="C38" s="15">
-        <v>4500</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="10"/>
-      <c r="J38" s="26">
-        <v>45305</v>
-      </c>
-      <c r="K38" s="15">
-        <v>82000</v>
-      </c>
-      <c r="L38" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="M38" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
@@ -3746,29 +3527,20 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="10"/>
-      <c r="J39" s="26">
-        <v>45306</v>
-      </c>
-      <c r="K39" s="15">
-        <f>3800+8050</f>
-        <v>11850</v>
-      </c>
-      <c r="L39" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
@@ -3790,28 +3562,20 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
       <c r="I40" s="10"/>
-      <c r="J40" s="26">
-        <v>45307</v>
-      </c>
-      <c r="K40" s="15">
-        <v>27700</v>
-      </c>
-      <c r="L40" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="M40" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
@@ -3833,28 +3597,20 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
       <c r="I41" s="10"/>
-      <c r="J41" s="26">
-        <v>45308</v>
-      </c>
-      <c r="K41" s="15">
-        <v>11400</v>
-      </c>
-      <c r="L41" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="M41" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
@@ -3876,28 +3632,20 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
       <c r="I42" s="10"/>
-      <c r="J42" s="26">
-        <v>45309</v>
-      </c>
-      <c r="K42" s="15">
-        <v>7300</v>
-      </c>
-      <c r="L42" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M42" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
@@ -3919,28 +3667,20 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="10"/>
-      <c r="J43" s="26">
-        <v>45309</v>
-      </c>
-      <c r="K43" s="15">
-        <v>5990</v>
-      </c>
-      <c r="L43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M43" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
@@ -3962,28 +3702,20 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="10"/>
-      <c r="J44" s="26">
-        <v>45309</v>
-      </c>
-      <c r="K44" s="15">
-        <v>8450</v>
-      </c>
-      <c r="L44" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M44" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
@@ -4005,28 +3737,20 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="10"/>
-      <c r="J45" s="26">
-        <v>45310</v>
-      </c>
-      <c r="K45" s="15">
-        <v>26600</v>
-      </c>
-      <c r="L45" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="M45" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
@@ -4048,29 +3772,20 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
       <c r="I46" s="10"/>
-      <c r="J46" s="26">
-        <v>45310</v>
-      </c>
-      <c r="K46" s="15">
-        <f>87900+12300</f>
-        <v>100200</v>
-      </c>
-      <c r="L46" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="M46" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
@@ -4092,28 +3807,20 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="10"/>
-      <c r="J47" s="26">
-        <v>45311</v>
-      </c>
-      <c r="K47" s="15">
-        <v>40000</v>
-      </c>
-      <c r="L47" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="M47" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
@@ -4135,28 +3842,20 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
       <c r="I48" s="10"/>
-      <c r="J48" s="26">
-        <v>45311</v>
-      </c>
-      <c r="K48" s="15">
-        <v>26000</v>
-      </c>
-      <c r="L48" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M48" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
@@ -4176,1788 +3875,6 @@
       <c r="AF48" s="10"/>
       <c r="AG48" s="10"/>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A49" s="10"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="26">
-        <v>45311</v>
-      </c>
-      <c r="K49" s="15">
-        <v>26400</v>
-      </c>
-      <c r="L49" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="M49" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10"/>
-      <c r="AD49" s="10"/>
-      <c r="AE49" s="10"/>
-      <c r="AF49" s="10"/>
-      <c r="AG49" s="10"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A50" s="10"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="26">
-        <v>45311</v>
-      </c>
-      <c r="K50" s="15">
-        <v>16110</v>
-      </c>
-      <c r="L50" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M50" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
-      <c r="AD50" s="10"/>
-      <c r="AE50" s="10"/>
-      <c r="AF50" s="10"/>
-      <c r="AG50" s="10"/>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A51" s="10"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="26">
-        <v>45312</v>
-      </c>
-      <c r="K51" s="15">
-        <v>17500</v>
-      </c>
-      <c r="L51" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M51" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
-      <c r="AB51" s="10"/>
-      <c r="AC51" s="10"/>
-      <c r="AD51" s="10"/>
-      <c r="AE51" s="10"/>
-      <c r="AF51" s="10"/>
-      <c r="AG51" s="10"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A52" s="10"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="26">
-        <v>45313</v>
-      </c>
-      <c r="K52" s="15">
-        <v>6750</v>
-      </c>
-      <c r="L52" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M52" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
-      <c r="X52" s="10"/>
-      <c r="Y52" s="10"/>
-      <c r="Z52" s="10"/>
-      <c r="AA52" s="10"/>
-      <c r="AB52" s="10"/>
-      <c r="AC52" s="10"/>
-      <c r="AD52" s="10"/>
-      <c r="AE52" s="10"/>
-      <c r="AF52" s="10"/>
-      <c r="AG52" s="10"/>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A53" s="10"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="26">
-        <v>45315</v>
-      </c>
-      <c r="K53" s="15">
-        <v>62000</v>
-      </c>
-      <c r="L53" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="M53" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
-      <c r="X53" s="10"/>
-      <c r="Y53" s="10"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="10"/>
-      <c r="AB53" s="10"/>
-      <c r="AC53" s="10"/>
-      <c r="AD53" s="10"/>
-      <c r="AE53" s="10"/>
-      <c r="AF53" s="10"/>
-      <c r="AG53" s="10"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A54" s="10"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="26">
-        <v>45315</v>
-      </c>
-      <c r="K54" s="15">
-        <v>14820</v>
-      </c>
-      <c r="L54" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="M54" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="10"/>
-      <c r="AB54" s="10"/>
-      <c r="AC54" s="10"/>
-      <c r="AD54" s="10"/>
-      <c r="AE54" s="10"/>
-      <c r="AF54" s="10"/>
-      <c r="AG54" s="10"/>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A55" s="10"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="26">
-        <v>45315</v>
-      </c>
-      <c r="K55" s="15">
-        <v>4000</v>
-      </c>
-      <c r="L55" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M55" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="10"/>
-      <c r="AB55" s="10"/>
-      <c r="AC55" s="10"/>
-      <c r="AD55" s="10"/>
-      <c r="AE55" s="10"/>
-      <c r="AF55" s="10"/>
-      <c r="AG55" s="10"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A56" s="10"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="26">
-        <v>45317</v>
-      </c>
-      <c r="K56" s="15">
-        <v>16650</v>
-      </c>
-      <c r="L56" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M56" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="10"/>
-      <c r="AD56" s="10"/>
-      <c r="AE56" s="10"/>
-      <c r="AF56" s="10"/>
-      <c r="AG56" s="10"/>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A57" s="10"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="26">
-        <v>45318</v>
-      </c>
-      <c r="K57" s="15">
-        <f>123800-108800</f>
-        <v>15000</v>
-      </c>
-      <c r="L57" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="M57" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="10"/>
-      <c r="AB57" s="10"/>
-      <c r="AC57" s="10"/>
-      <c r="AD57" s="10"/>
-      <c r="AE57" s="10"/>
-      <c r="AF57" s="10"/>
-      <c r="AG57" s="10"/>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A58" s="10"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="26">
-        <v>45318</v>
-      </c>
-      <c r="K58" s="15">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M58" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-      <c r="AB58" s="10"/>
-      <c r="AC58" s="10"/>
-      <c r="AD58" s="10"/>
-      <c r="AE58" s="10"/>
-      <c r="AF58" s="10"/>
-      <c r="AG58" s="10"/>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A59" s="10"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="26">
-        <v>45318</v>
-      </c>
-      <c r="K59" s="15">
-        <v>6950</v>
-      </c>
-      <c r="L59" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M59" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
-      <c r="Z59" s="10"/>
-      <c r="AA59" s="10"/>
-      <c r="AB59" s="10"/>
-      <c r="AC59" s="10"/>
-      <c r="AD59" s="10"/>
-      <c r="AE59" s="10"/>
-      <c r="AF59" s="10"/>
-      <c r="AG59" s="10"/>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A60" s="10"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="26">
-        <v>45318</v>
-      </c>
-      <c r="K60" s="15">
-        <v>21700</v>
-      </c>
-      <c r="L60" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="M60" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
-      <c r="Z60" s="10"/>
-      <c r="AA60" s="10"/>
-      <c r="AB60" s="10"/>
-      <c r="AC60" s="10"/>
-      <c r="AD60" s="10"/>
-      <c r="AE60" s="10"/>
-      <c r="AF60" s="10"/>
-      <c r="AG60" s="10"/>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A61" s="10"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="26">
-        <v>45319</v>
-      </c>
-      <c r="K61" s="15">
-        <v>18900</v>
-      </c>
-      <c r="L61" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="M61" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10"/>
-      <c r="Y61" s="10"/>
-      <c r="Z61" s="10"/>
-      <c r="AA61" s="10"/>
-      <c r="AB61" s="10"/>
-      <c r="AC61" s="10"/>
-      <c r="AD61" s="10"/>
-      <c r="AE61" s="10"/>
-      <c r="AF61" s="10"/>
-      <c r="AG61" s="10"/>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A62" s="10"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="26">
-        <v>45320</v>
-      </c>
-      <c r="K62" s="15">
-        <v>10000</v>
-      </c>
-      <c r="L62" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="M62" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="10"/>
-      <c r="W62" s="10"/>
-      <c r="X62" s="10"/>
-      <c r="Y62" s="10"/>
-      <c r="Z62" s="10"/>
-      <c r="AA62" s="10"/>
-      <c r="AB62" s="10"/>
-      <c r="AC62" s="10"/>
-      <c r="AD62" s="10"/>
-      <c r="AE62" s="10"/>
-      <c r="AF62" s="10"/>
-      <c r="AG62" s="10"/>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A63" s="10"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="26">
-        <v>45320</v>
-      </c>
-      <c r="K63" s="15">
-        <v>4350</v>
-      </c>
-      <c r="L63" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M63" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="10"/>
-      <c r="W63" s="10"/>
-      <c r="X63" s="10"/>
-      <c r="Y63" s="10"/>
-      <c r="Z63" s="10"/>
-      <c r="AA63" s="10"/>
-      <c r="AB63" s="10"/>
-      <c r="AC63" s="10"/>
-      <c r="AD63" s="10"/>
-      <c r="AE63" s="10"/>
-      <c r="AF63" s="10"/>
-      <c r="AG63" s="10"/>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A64" s="10"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="26">
-        <v>45321</v>
-      </c>
-      <c r="K64" s="15">
-        <v>26500</v>
-      </c>
-      <c r="L64" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M64" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="10"/>
-      <c r="Y64" s="10"/>
-      <c r="Z64" s="10"/>
-      <c r="AA64" s="10"/>
-      <c r="AB64" s="10"/>
-      <c r="AC64" s="10"/>
-      <c r="AD64" s="10"/>
-      <c r="AE64" s="10"/>
-      <c r="AF64" s="10"/>
-      <c r="AG64" s="10"/>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A65" s="10"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="26">
-        <v>45321</v>
-      </c>
-      <c r="K65" s="15">
-        <v>10900</v>
-      </c>
-      <c r="L65" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M65" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10"/>
-      <c r="Y65" s="10"/>
-      <c r="Z65" s="10"/>
-      <c r="AA65" s="10"/>
-      <c r="AB65" s="10"/>
-      <c r="AC65" s="10"/>
-      <c r="AD65" s="10"/>
-      <c r="AE65" s="10"/>
-      <c r="AF65" s="10"/>
-      <c r="AG65" s="10"/>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A66" s="10"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="26">
-        <v>45323</v>
-      </c>
-      <c r="K66" s="15">
-        <v>2985</v>
-      </c>
-      <c r="L66" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="M66" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
-      <c r="W66" s="10"/>
-      <c r="X66" s="10"/>
-      <c r="Y66" s="10"/>
-      <c r="Z66" s="10"/>
-      <c r="AA66" s="10"/>
-      <c r="AB66" s="10"/>
-      <c r="AC66" s="10"/>
-      <c r="AD66" s="10"/>
-      <c r="AE66" s="10"/>
-      <c r="AF66" s="10"/>
-      <c r="AG66" s="10"/>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A67" s="10"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="26">
-        <v>45324</v>
-      </c>
-      <c r="K67" s="15">
-        <v>104960</v>
-      </c>
-      <c r="L67" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M67" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
-      <c r="X67" s="10"/>
-      <c r="Y67" s="10"/>
-      <c r="Z67" s="10"/>
-      <c r="AA67" s="10"/>
-      <c r="AB67" s="10"/>
-      <c r="AC67" s="10"/>
-      <c r="AD67" s="10"/>
-      <c r="AE67" s="10"/>
-      <c r="AF67" s="10"/>
-      <c r="AG67" s="10"/>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A68" s="10"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="26">
-        <v>45324</v>
-      </c>
-      <c r="K68" s="15">
-        <v>106800</v>
-      </c>
-      <c r="L68" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M68" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
-      <c r="AD68" s="10"/>
-      <c r="AE68" s="10"/>
-      <c r="AF68" s="10"/>
-      <c r="AG68" s="10"/>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A69" s="10"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="26">
-        <v>45324</v>
-      </c>
-      <c r="K69" s="15">
-        <v>8000</v>
-      </c>
-      <c r="L69" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M69" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="10"/>
-      <c r="X69" s="10"/>
-      <c r="Y69" s="10"/>
-      <c r="Z69" s="10"/>
-      <c r="AA69" s="10"/>
-      <c r="AB69" s="10"/>
-      <c r="AC69" s="10"/>
-      <c r="AD69" s="10"/>
-      <c r="AE69" s="10"/>
-      <c r="AF69" s="10"/>
-      <c r="AG69" s="10"/>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A70" s="10"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="30">
-        <v>45325</v>
-      </c>
-      <c r="K70" s="31">
-        <v>21500</v>
-      </c>
-      <c r="L70" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="M70" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="10"/>
-      <c r="W70" s="10"/>
-      <c r="X70" s="10"/>
-      <c r="Y70" s="10"/>
-      <c r="Z70" s="10"/>
-      <c r="AA70" s="10"/>
-      <c r="AB70" s="10"/>
-      <c r="AC70" s="10"/>
-      <c r="AD70" s="10"/>
-      <c r="AE70" s="10"/>
-      <c r="AF70" s="10"/>
-      <c r="AG70" s="10"/>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A71" s="10"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="30">
-        <v>45325</v>
-      </c>
-      <c r="K71" s="31">
-        <f>17400+8980</f>
-        <v>26380</v>
-      </c>
-      <c r="L71" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="M71" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
-      <c r="W71" s="10"/>
-      <c r="X71" s="10"/>
-      <c r="Y71" s="10"/>
-      <c r="Z71" s="10"/>
-      <c r="AA71" s="10"/>
-      <c r="AB71" s="10"/>
-      <c r="AC71" s="10"/>
-      <c r="AD71" s="10"/>
-      <c r="AE71" s="10"/>
-      <c r="AF71" s="10"/>
-      <c r="AG71" s="10"/>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A72" s="10"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="30">
-        <v>45326</v>
-      </c>
-      <c r="K72" s="31">
-        <v>6250</v>
-      </c>
-      <c r="L72" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M72" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
-      <c r="W72" s="10"/>
-      <c r="X72" s="10"/>
-      <c r="Y72" s="10"/>
-      <c r="Z72" s="10"/>
-      <c r="AA72" s="10"/>
-      <c r="AB72" s="10"/>
-      <c r="AC72" s="10"/>
-      <c r="AD72" s="10"/>
-      <c r="AE72" s="10"/>
-      <c r="AF72" s="10"/>
-      <c r="AG72" s="10"/>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A73" s="34"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="30">
-        <v>45327</v>
-      </c>
-      <c r="K73" s="39">
-        <v>82360</v>
-      </c>
-      <c r="L73" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="M73" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="34"/>
-      <c r="Q73" s="34"/>
-      <c r="R73" s="34"/>
-      <c r="S73" s="34"/>
-      <c r="T73" s="34"/>
-      <c r="U73" s="34"/>
-      <c r="V73" s="34"/>
-      <c r="W73" s="34"/>
-      <c r="X73" s="34"/>
-      <c r="Y73" s="34"/>
-      <c r="Z73" s="34"/>
-      <c r="AA73" s="34"/>
-      <c r="AB73" s="34"/>
-      <c r="AC73" s="34"/>
-      <c r="AD73" s="34"/>
-      <c r="AE73" s="34"/>
-      <c r="AF73" s="34"/>
-      <c r="AG73" s="34"/>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A74" s="34"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="30">
-        <v>45327</v>
-      </c>
-      <c r="K74" s="39">
-        <v>13500</v>
-      </c>
-      <c r="L74" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="M74" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="34"/>
-      <c r="Q74" s="34"/>
-      <c r="R74" s="34"/>
-      <c r="S74" s="34"/>
-      <c r="T74" s="34"/>
-      <c r="U74" s="34"/>
-      <c r="V74" s="34"/>
-      <c r="W74" s="34"/>
-      <c r="X74" s="34"/>
-      <c r="Y74" s="34"/>
-      <c r="Z74" s="34"/>
-      <c r="AA74" s="34"/>
-      <c r="AB74" s="34"/>
-      <c r="AC74" s="34"/>
-      <c r="AD74" s="34"/>
-      <c r="AE74" s="34"/>
-      <c r="AF74" s="34"/>
-      <c r="AG74" s="34"/>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A75" s="34"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="30">
-        <v>45328</v>
-      </c>
-      <c r="K75" s="38">
-        <v>42460</v>
-      </c>
-      <c r="L75" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="M75" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="34"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="34"/>
-      <c r="S75" s="34"/>
-      <c r="T75" s="34"/>
-      <c r="U75" s="34"/>
-      <c r="V75" s="34"/>
-      <c r="W75" s="34"/>
-      <c r="X75" s="34"/>
-      <c r="Y75" s="34"/>
-      <c r="Z75" s="34"/>
-      <c r="AA75" s="34"/>
-      <c r="AB75" s="34"/>
-      <c r="AC75" s="34"/>
-      <c r="AD75" s="34"/>
-      <c r="AE75" s="34"/>
-      <c r="AF75" s="34"/>
-      <c r="AG75" s="34"/>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A76" s="34"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="30">
-        <v>45328</v>
-      </c>
-      <c r="K76" s="38">
-        <v>6776</v>
-      </c>
-      <c r="L76" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="M76" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="34"/>
-      <c r="Q76" s="34"/>
-      <c r="R76" s="34"/>
-      <c r="S76" s="34"/>
-      <c r="T76" s="34"/>
-      <c r="U76" s="34"/>
-      <c r="V76" s="34"/>
-      <c r="W76" s="34"/>
-      <c r="X76" s="34"/>
-      <c r="Y76" s="34"/>
-      <c r="Z76" s="34"/>
-      <c r="AA76" s="34"/>
-      <c r="AB76" s="34"/>
-      <c r="AC76" s="34"/>
-      <c r="AD76" s="34"/>
-      <c r="AE76" s="34"/>
-      <c r="AF76" s="34"/>
-      <c r="AG76" s="34"/>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="30">
-        <v>45329</v>
-      </c>
-      <c r="K77" s="39">
-        <v>4500</v>
-      </c>
-      <c r="L77" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="M77" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="10"/>
-      <c r="W77" s="10"/>
-      <c r="X77" s="10"/>
-      <c r="Y77" s="10"/>
-      <c r="Z77" s="10"/>
-      <c r="AA77" s="10"/>
-      <c r="AB77" s="10"/>
-      <c r="AC77" s="10"/>
-      <c r="AD77" s="10"/>
-      <c r="AE77" s="10"/>
-      <c r="AF77" s="10"/>
-      <c r="AG77" s="10"/>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="30">
-        <v>45329</v>
-      </c>
-      <c r="K78" s="39">
-        <v>9150</v>
-      </c>
-      <c r="L78" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="M78" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="10"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="10"/>
-      <c r="V78" s="10"/>
-      <c r="W78" s="10"/>
-      <c r="X78" s="10"/>
-      <c r="Y78" s="10"/>
-      <c r="Z78" s="10"/>
-      <c r="AA78" s="10"/>
-      <c r="AB78" s="10"/>
-      <c r="AC78" s="10"/>
-      <c r="AD78" s="10"/>
-      <c r="AE78" s="10"/>
-      <c r="AF78" s="10"/>
-      <c r="AG78" s="10"/>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="10"/>
-      <c r="S79" s="10"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
-      <c r="V79" s="10"/>
-      <c r="W79" s="10"/>
-      <c r="X79" s="10"/>
-      <c r="Y79" s="10"/>
-      <c r="Z79" s="10"/>
-      <c r="AA79" s="10"/>
-      <c r="AB79" s="10"/>
-      <c r="AC79" s="10"/>
-      <c r="AD79" s="10"/>
-      <c r="AE79" s="10"/>
-      <c r="AF79" s="10"/>
-      <c r="AG79" s="10"/>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="10"/>
-      <c r="S80" s="10"/>
-      <c r="T80" s="10"/>
-      <c r="U80" s="10"/>
-      <c r="V80" s="10"/>
-      <c r="W80" s="10"/>
-      <c r="X80" s="10"/>
-      <c r="Y80" s="10"/>
-      <c r="Z80" s="10"/>
-      <c r="AA80" s="10"/>
-      <c r="AB80" s="10"/>
-      <c r="AC80" s="10"/>
-      <c r="AD80" s="10"/>
-      <c r="AE80" s="10"/>
-      <c r="AF80" s="10"/>
-      <c r="AG80" s="10"/>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="10"/>
-      <c r="S81" s="10"/>
-      <c r="T81" s="10"/>
-      <c r="U81" s="10"/>
-      <c r="V81" s="10"/>
-      <c r="W81" s="10"/>
-      <c r="X81" s="10"/>
-      <c r="Y81" s="10"/>
-      <c r="Z81" s="10"/>
-      <c r="AA81" s="10"/>
-      <c r="AB81" s="10"/>
-      <c r="AC81" s="10"/>
-      <c r="AD81" s="10"/>
-      <c r="AE81" s="10"/>
-      <c r="AF81" s="10"/>
-      <c r="AG81" s="10"/>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="10"/>
-      <c r="S82" s="10"/>
-      <c r="T82" s="10"/>
-      <c r="U82" s="10"/>
-      <c r="V82" s="10"/>
-      <c r="W82" s="10"/>
-      <c r="X82" s="10"/>
-      <c r="Y82" s="10"/>
-      <c r="Z82" s="10"/>
-      <c r="AA82" s="10"/>
-      <c r="AB82" s="10"/>
-      <c r="AC82" s="10"/>
-      <c r="AD82" s="10"/>
-      <c r="AE82" s="10"/>
-      <c r="AF82" s="10"/>
-      <c r="AG82" s="10"/>
-    </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="10"/>
-      <c r="R83" s="10"/>
-      <c r="S83" s="10"/>
-      <c r="T83" s="10"/>
-      <c r="U83" s="10"/>
-      <c r="V83" s="10"/>
-      <c r="W83" s="10"/>
-      <c r="X83" s="10"/>
-      <c r="Y83" s="10"/>
-      <c r="Z83" s="10"/>
-      <c r="AA83" s="10"/>
-      <c r="AB83" s="10"/>
-      <c r="AC83" s="10"/>
-      <c r="AD83" s="10"/>
-      <c r="AE83" s="10"/>
-      <c r="AF83" s="10"/>
-      <c r="AG83" s="10"/>
-    </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="10"/>
-      <c r="R84" s="10"/>
-      <c r="S84" s="10"/>
-      <c r="T84" s="10"/>
-      <c r="U84" s="10"/>
-      <c r="V84" s="10"/>
-      <c r="W84" s="10"/>
-      <c r="X84" s="10"/>
-      <c r="Y84" s="10"/>
-      <c r="Z84" s="10"/>
-      <c r="AA84" s="10"/>
-      <c r="AB84" s="10"/>
-      <c r="AC84" s="10"/>
-      <c r="AD84" s="10"/>
-      <c r="AE84" s="10"/>
-      <c r="AF84" s="10"/>
-      <c r="AG84" s="10"/>
-    </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="10"/>
-      <c r="S85" s="10"/>
-      <c r="T85" s="10"/>
-      <c r="U85" s="10"/>
-      <c r="V85" s="10"/>
-      <c r="W85" s="10"/>
-      <c r="X85" s="10"/>
-      <c r="Y85" s="10"/>
-      <c r="Z85" s="10"/>
-      <c r="AA85" s="10"/>
-      <c r="AB85" s="10"/>
-      <c r="AC85" s="10"/>
-      <c r="AD85" s="10"/>
-      <c r="AE85" s="10"/>
-      <c r="AF85" s="10"/>
-      <c r="AG85" s="10"/>
-    </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="10"/>
-      <c r="R86" s="10"/>
-      <c r="S86" s="10"/>
-      <c r="T86" s="10"/>
-      <c r="U86" s="10"/>
-      <c r="V86" s="10"/>
-      <c r="W86" s="10"/>
-      <c r="X86" s="10"/>
-      <c r="Y86" s="10"/>
-      <c r="Z86" s="10"/>
-      <c r="AA86" s="10"/>
-      <c r="AB86" s="10"/>
-      <c r="AC86" s="10"/>
-      <c r="AD86" s="10"/>
-      <c r="AE86" s="10"/>
-      <c r="AF86" s="10"/>
-      <c r="AG86" s="10"/>
-    </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-      <c r="Q87" s="10"/>
-      <c r="R87" s="10"/>
-      <c r="S87" s="10"/>
-      <c r="T87" s="10"/>
-      <c r="U87" s="10"/>
-      <c r="V87" s="10"/>
-      <c r="W87" s="10"/>
-      <c r="X87" s="10"/>
-      <c r="Y87" s="10"/>
-      <c r="Z87" s="10"/>
-      <c r="AA87" s="10"/>
-      <c r="AB87" s="10"/>
-      <c r="AC87" s="10"/>
-      <c r="AD87" s="10"/>
-      <c r="AE87" s="10"/>
-      <c r="AF87" s="10"/>
-      <c r="AG87" s="10"/>
-    </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="10"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="10"/>
-      <c r="R88" s="10"/>
-      <c r="S88" s="10"/>
-      <c r="T88" s="10"/>
-      <c r="U88" s="10"/>
-      <c r="V88" s="10"/>
-      <c r="W88" s="10"/>
-      <c r="X88" s="10"/>
-      <c r="Y88" s="10"/>
-      <c r="Z88" s="10"/>
-      <c r="AA88" s="10"/>
-      <c r="AB88" s="10"/>
-      <c r="AC88" s="10"/>
-      <c r="AD88" s="10"/>
-      <c r="AE88" s="10"/>
-      <c r="AF88" s="10"/>
-      <c r="AG88" s="10"/>
-    </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-      <c r="O89" s="10"/>
-      <c r="P89" s="10"/>
-      <c r="Q89" s="10"/>
-      <c r="R89" s="10"/>
-      <c r="S89" s="10"/>
-      <c r="T89" s="10"/>
-      <c r="U89" s="10"/>
-      <c r="V89" s="10"/>
-      <c r="W89" s="10"/>
-      <c r="X89" s="10"/>
-      <c r="Y89" s="10"/>
-      <c r="Z89" s="10"/>
-      <c r="AA89" s="10"/>
-      <c r="AB89" s="10"/>
-      <c r="AC89" s="10"/>
-      <c r="AD89" s="10"/>
-      <c r="AE89" s="10"/>
-      <c r="AF89" s="10"/>
-      <c r="AG89" s="10"/>
-    </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
-      <c r="O90" s="10"/>
-      <c r="P90" s="10"/>
-      <c r="Q90" s="10"/>
-      <c r="R90" s="10"/>
-      <c r="S90" s="10"/>
-      <c r="T90" s="10"/>
-      <c r="U90" s="10"/>
-      <c r="V90" s="10"/>
-      <c r="W90" s="10"/>
-      <c r="X90" s="10"/>
-      <c r="Y90" s="10"/>
-      <c r="Z90" s="10"/>
-      <c r="AA90" s="10"/>
-      <c r="AB90" s="10"/>
-      <c r="AC90" s="10"/>
-      <c r="AD90" s="10"/>
-      <c r="AE90" s="10"/>
-      <c r="AF90" s="10"/>
-      <c r="AG90" s="10"/>
-    </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="10"/>
-      <c r="Q91" s="10"/>
-      <c r="R91" s="10"/>
-      <c r="S91" s="10"/>
-      <c r="T91" s="10"/>
-      <c r="U91" s="10"/>
-      <c r="V91" s="10"/>
-      <c r="W91" s="10"/>
-      <c r="X91" s="10"/>
-      <c r="Y91" s="10"/>
-      <c r="Z91" s="10"/>
-      <c r="AA91" s="10"/>
-      <c r="AB91" s="10"/>
-      <c r="AC91" s="10"/>
-      <c r="AD91" s="10"/>
-      <c r="AE91" s="10"/>
-      <c r="AF91" s="10"/>
-      <c r="AG91" s="10"/>
-    </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
-      <c r="O92" s="10"/>
-      <c r="P92" s="10"/>
-      <c r="Q92" s="10"/>
-      <c r="R92" s="10"/>
-      <c r="S92" s="10"/>
-      <c r="T92" s="10"/>
-      <c r="U92" s="10"/>
-      <c r="V92" s="10"/>
-      <c r="W92" s="10"/>
-      <c r="X92" s="10"/>
-      <c r="Y92" s="10"/>
-      <c r="Z92" s="10"/>
-      <c r="AA92" s="10"/>
-      <c r="AB92" s="10"/>
-      <c r="AC92" s="10"/>
-      <c r="AD92" s="10"/>
-      <c r="AE92" s="10"/>
-      <c r="AF92" s="10"/>
-      <c r="AG92" s="10"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B14:E14"/>
@@ -5975,28 +3892,28 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:S9">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
       <formula>$V$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
       <formula>$V$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>$V$13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>$V$13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6006,28 +3923,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:W15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8381B7-8755-4759-8310-AD5B1FF4B1A1}">
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F9"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="7.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.59765625" customWidth="1"/>
-    <col min="7" max="8" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="10.8984375" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.59765625" customWidth="1"/>
+    <col min="11" max="12" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.296875" customWidth="1"/>
+    <col min="17" max="18" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -6050,22 +3968,26 @@
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
-    </row>
-    <row r="2" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+    </row>
+    <row r="2" spans="1:26" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
+      <c r="B2" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -6076,8 +3998,12 @@
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -6089,16 +4015,26 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
-    </row>
-    <row r="4" spans="1:23" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+    </row>
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -6110,123 +4046,136 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="N4" s="43" t="s">
+      <c r="M4" s="11"/>
+      <c r="N4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="43" t="s">
+      <c r="O4" s="45"/>
+      <c r="Q4" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="11"/>
       <c r="V4" s="11"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="46" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="46" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="46" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="48"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="10"/>
       <c r="N5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="7">
-        <f>SUM(C7:L7)</f>
-        <v>46900000</v>
-      </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="8" t="s">
+        <f>R5+SUM(C8:L8)</f>
+        <v>48800000</v>
+      </c>
+      <c r="Q5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
+      <c r="R5" s="7">
+        <f>'2월(자산)'!O5</f>
+        <v>48800000</v>
+      </c>
+      <c r="S5" s="10"/>
       <c r="V5" s="10"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="53" t="s">
+      <c r="F6" s="56"/>
+      <c r="G6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55" t="s">
+      <c r="H6" s="56"/>
+      <c r="I6" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="56"/>
+      <c r="J6" s="58"/>
       <c r="K6" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L6" s="25" t="s">
         <v>78</v>
       </c>
+      <c r="M6" s="10"/>
       <c r="N6" s="8" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="O6" s="7">
-        <f>SUM(C9:H9)</f>
+        <f>SUM(C9:L9)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49">
-        <v>39000000</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50">
-        <v>6900000</v>
-      </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="49">
-        <v>1000000</v>
-      </c>
-      <c r="J7" s="49"/>
+        <v>102</v>
+      </c>
+      <c r="C7" s="51">
+        <v>0</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52">
+        <f>SUM('2월(자산)'!E7:F8)</f>
+        <v>39279849</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="52">
+        <f>SUM('2월(자산)'!G7:H8)</f>
+        <v>7000000</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="51">
+        <f>SUM('2월(자산)'!I7:J8)</f>
+        <v>2800000</v>
+      </c>
+      <c r="J7" s="51"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -6243,26 +4192,32 @@
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
-    </row>
-    <row r="8" spans="1:23" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+    </row>
+    <row r="8" spans="1:26" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49">
-        <v>279849</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50">
+      <c r="C8" s="51">
         <v>0</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="49">
+      <c r="D8" s="51"/>
+      <c r="E8" s="52">
         <v>0</v>
       </c>
-      <c r="J8" s="49"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="52">
+        <v>0</v>
+      </c>
+      <c r="H8" s="53"/>
+      <c r="I8" s="52">
+        <v>0</v>
+      </c>
+      <c r="J8" s="53"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -6270,10 +4225,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="43" t="s">
+      <c r="N8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="43"/>
+      <c r="O8" s="45"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
@@ -6281,32 +4236,36 @@
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="51">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51">
         <f>E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49">
+      <c r="F9" s="51"/>
+      <c r="G9" s="51">
         <f>G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49">
+      <c r="H9" s="51"/>
+      <c r="I9" s="51">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -6321,7 +4280,7 @@
       </c>
       <c r="O9" s="7">
         <f>O5-G7</f>
-        <v>40000000</v>
+        <v>41800000</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -6330,47 +4289,71 @@
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="O10" s="13"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="S11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B2:L2"/>
     <mergeCell ref="B4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -6445,29 +4428,29 @@
     </row>
     <row r="2" spans="1:33" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
-      <c r="B2" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="42"/>
+      <c r="B2" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="44"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
@@ -6518,7 +4501,7 @@
     <row r="4" spans="1:33" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -6538,10 +4521,10 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="43" t="s">
+      <c r="U4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="43"/>
+      <c r="V4" s="45"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
@@ -6556,36 +4539,36 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="44" t="s">
+      <c r="C5" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="Q5" s="46" t="s">
+      <c r="Q5" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="47"/>
-      <c r="S5" s="44" t="s">
+      <c r="R5" s="49"/>
+      <c r="S5" s="46" t="s">
         <v>47</v>
       </c>
       <c r="T5" s="10"/>
@@ -6610,7 +4593,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="45"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
@@ -6650,14 +4633,14 @@
       <c r="O6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="45"/>
+      <c r="P6" s="47"/>
       <c r="Q6" s="8" t="s">
         <v>58</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="45"/>
+      <c r="S6" s="47"/>
       <c r="T6" s="10"/>
       <c r="U6" s="8" t="s">
         <v>52</v>
@@ -6704,7 +4687,7 @@
         <v>400000</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J7" s="6">
         <v>100000</v>
@@ -6738,7 +4721,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="10"/>
       <c r="U7" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="V7" s="7">
         <f>R10</f>
@@ -7030,7 +5013,7 @@
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="B12" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C12" s="7">
         <f>SUM(C16:C32)</f>
@@ -7124,7 +5107,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="11"/>
       <c r="J14" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -7137,7 +5120,7 @@
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
       <c r="U14" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="V14" s="19">
         <v>0.5</v>
@@ -7163,7 +5146,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>6</v>
@@ -7179,7 +5162,7 @@
         <v>61</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>6</v>
@@ -7233,7 +5216,7 @@
         <v>89680</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>43</v>
@@ -7271,7 +5254,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -7322,7 +5305,7 @@
         <v>37</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -7424,7 +5407,7 @@
         <v>37</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -7475,7 +5458,7 @@
         <v>82</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -7611,17 +5594,17 @@
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="57">
+      <c r="J24" s="30">
         <v>45336</v>
       </c>
       <c r="K24" s="15">
         <v>1600</v>
       </c>
-      <c r="L24" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="M24" s="58" t="s">
-        <v>117</v>
+      <c r="L24" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
@@ -7654,17 +5637,17 @@
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="57">
+      <c r="J25" s="30">
         <v>45336</v>
       </c>
       <c r="K25" s="15">
         <v>4500</v>
       </c>
-      <c r="L25" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="M25" s="58" t="s">
-        <v>117</v>
+      <c r="L25" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
@@ -7697,18 +5680,18 @@
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="57">
+      <c r="J26" s="30">
         <v>45337</v>
       </c>
       <c r="K26" s="15">
         <f>2900+45000+7660</f>
         <v>55560</v>
       </c>
-      <c r="L26" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="M26" s="58" t="s">
-        <v>117</v>
+      <c r="L26" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
@@ -7741,17 +5724,17 @@
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="57">
+      <c r="J27" s="30">
         <v>45338</v>
       </c>
       <c r="K27" s="15">
         <v>6793</v>
       </c>
-      <c r="L27" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="M27" s="58" t="s">
-        <v>120</v>
+      <c r="L27" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>117</v>
       </c>
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
@@ -7784,17 +5767,17 @@
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="57">
+      <c r="J28" s="30">
         <v>45338</v>
       </c>
       <c r="K28" s="15">
         <v>6250</v>
       </c>
-      <c r="L28" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="M28" s="58" t="s">
-        <v>117</v>
+      <c r="L28" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
@@ -7827,17 +5810,17 @@
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="57">
+      <c r="J29" s="30">
         <v>45339</v>
       </c>
       <c r="K29" s="15">
         <v>31000</v>
       </c>
-      <c r="L29" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="M29" s="58" t="s">
-        <v>117</v>
+      <c r="L29" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="N29" s="17"/>
       <c r="O29" s="17"/>
@@ -8578,7 +6561,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8626,19 +6609,19 @@
     </row>
     <row r="2" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -8685,7 +6668,7 @@
     <row r="4" spans="1:26" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -8698,14 +6681,14 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="Q4" s="43" t="s">
+      <c r="O4" s="45"/>
+      <c r="Q4" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="R4" s="43"/>
+      <c r="R4" s="45"/>
       <c r="S4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
@@ -8715,29 +6698,29 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="46" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="46" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="46" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="48"/>
+      <c r="L5" s="50"/>
       <c r="M5" s="10"/>
       <c r="N5" s="8" t="s">
         <v>0</v>
@@ -8762,25 +6745,25 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="53" t="s">
+      <c r="F6" s="56"/>
+      <c r="G6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55" t="s">
+      <c r="H6" s="56"/>
+      <c r="I6" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="56"/>
+      <c r="J6" s="58"/>
       <c r="K6" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L6" s="25" t="s">
         <v>78</v>
@@ -8806,27 +6789,27 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="49">
+        <v>102</v>
+      </c>
+      <c r="C7" s="51">
         <v>0</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50">
+      <c r="D7" s="51"/>
+      <c r="E7" s="52">
         <f>SUM('1월(자산)'!E7:F8)</f>
         <v>39279849</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="50">
+      <c r="F7" s="53"/>
+      <c r="G7" s="52">
         <f>SUM('1월(자산)'!G7:H8)</f>
         <v>6900000</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="49">
+      <c r="H7" s="53"/>
+      <c r="I7" s="51">
         <f>SUM('1월(자산)'!I7:J8)</f>
         <v>1000000</v>
       </c>
-      <c r="J7" s="49"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -8853,22 +6836,22 @@
       <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="51">
         <v>0</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50">
+      <c r="D8" s="51"/>
+      <c r="E8" s="52">
         <v>0</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="50">
+      <c r="F8" s="53"/>
+      <c r="G8" s="52">
         <v>100000</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="49">
+      <c r="H8" s="53"/>
+      <c r="I8" s="51">
         <v>1800000</v>
       </c>
-      <c r="J8" s="49"/>
+      <c r="J8" s="51"/>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -8876,10 +6859,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="43" t="s">
+      <c r="N8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="43"/>
+      <c r="O8" s="45"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
@@ -8897,26 +6880,26 @@
       <c r="B9" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="51">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51">
         <f>E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49">
+      <c r="F9" s="51"/>
+      <c r="G9" s="51">
         <f>G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49">
+      <c r="H9" s="51"/>
+      <c r="I9" s="51">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -9013,23 +6996,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED636F10-E58F-44BC-ABF3-CC091EF0B8A9}">
-  <dimension ref="A1:AG48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AG92"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="15" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:V2"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.8984375" customWidth="1"/>
     <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="10.8984375" customWidth="1"/>
-    <col min="10" max="10" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.8984375" customWidth="1"/>
     <col min="12" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.8984375" customWidth="1"/>
@@ -9041,7 +7025,7 @@
     <col min="23" max="23" width="13.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -9076,31 +7060,31 @@
       <c r="AF1" s="10"/>
       <c r="AG1" s="10"/>
     </row>
-    <row r="2" spans="1:33" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
-      <c r="B2" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="42"/>
+      <c r="B2" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="44"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
@@ -9151,7 +7135,7 @@
     <row r="4" spans="1:33" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -9171,10 +7155,10 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="43" t="s">
+      <c r="U4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="43"/>
+      <c r="V4" s="45"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
@@ -9189,36 +7173,36 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="44" t="s">
+      <c r="C5" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="Q5" s="46" t="s">
+      <c r="Q5" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="47"/>
-      <c r="S5" s="44" t="s">
+      <c r="R5" s="49"/>
+      <c r="S5" s="46" t="s">
         <v>47</v>
       </c>
       <c r="T5" s="10"/>
@@ -9227,7 +7211,7 @@
       </c>
       <c r="V5" s="7">
         <f>D10</f>
-        <v>4650214</v>
+        <v>4562347</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
@@ -9243,7 +7227,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="45"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
@@ -9283,21 +7267,21 @@
       <c r="O6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="45"/>
+      <c r="P6" s="47"/>
       <c r="Q6" s="8" t="s">
         <v>58</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="45"/>
+      <c r="S6" s="47"/>
       <c r="T6" s="10"/>
       <c r="U6" s="8" t="s">
         <v>52</v>
       </c>
       <c r="V6" s="7">
         <f>J10+O10+P10</f>
-        <v>1840523</v>
+        <v>2861506</v>
       </c>
       <c r="W6" s="10" t="s">
         <v>22</v>
@@ -9319,13 +7303,13 @@
         <v>19</v>
       </c>
       <c r="C7" s="6">
-        <v>4650214</v>
+        <v>4000000</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>300000</v>
+        <v>468220</v>
       </c>
       <c r="F7" s="6">
         <v>120000</v>
@@ -9337,13 +7321,13 @@
         <v>400000</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J7" s="6">
         <v>100000</v>
       </c>
       <c r="K7" s="6">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="L7" s="6">
         <f>34100+24500</f>
@@ -9360,10 +7344,10 @@
         <v>43690</v>
       </c>
       <c r="P7" s="6">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="Q7" s="6">
-        <v>1800000</v>
+        <v>1000000</v>
       </c>
       <c r="R7" s="6">
         <v>100000</v>
@@ -9371,11 +7355,11 @@
       <c r="S7" s="6"/>
       <c r="T7" s="10"/>
       <c r="U7" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="V7" s="7">
         <f>R10</f>
-        <v>1900000</v>
+        <v>1100000</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
@@ -9395,36 +7379,37 @@
         <v>39</v>
       </c>
       <c r="C8" s="7">
-        <v>4650214</v>
+        <f>4129547+34400+298400+100000</f>
+        <v>4562347</v>
       </c>
       <c r="D8" s="7">
         <v>0</v>
       </c>
       <c r="E8" s="7">
-        <v>310189</v>
+        <v>468220</v>
       </c>
       <c r="F8" s="7">
-        <f>+SUMIF($M$16:$M$32,F$6,$K$16:$K$32)</f>
-        <v>0</v>
+        <f>+SUMIF($M$16:$M$78,F$6,$K$16:$K$78)</f>
+        <v>124930</v>
       </c>
       <c r="G8" s="7">
-        <f>SUMIF($M$16:$M$32,G$6,$K$16:$K$32)</f>
-        <v>203690</v>
+        <f>SUMIF($M$16:$M$78,G$6,$K$16:$K$78)</f>
+        <v>530715</v>
       </c>
       <c r="H8" s="7">
-        <f>SUMIF($M$16:$M$32,H$6,$K$16:$K$32)</f>
-        <v>188423</v>
+        <f>SUMIF($M$16:$M$78,H$6,$K$16:$K$78)</f>
+        <v>645220</v>
       </c>
       <c r="I8" s="7">
-        <f>SUMIF($M$16:$M$32,I$6,$K$16:$K$32)</f>
-        <v>0</v>
+        <f>SUMIF($M$16:$M$72,I$6,$K$16:$K$72)</f>
+        <v>82000</v>
       </c>
       <c r="J8" s="7">
-        <f>SUMIF($M$16:$M$32,J$6,$K$16:$K$32)</f>
-        <v>0</v>
+        <f>SUMIF($M$16:$M$78,J$6,$K$16:$K$78)</f>
+        <v>112200</v>
       </c>
       <c r="K8" s="6">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="L8" s="6">
         <f>34100+24500</f>
@@ -9434,31 +7419,31 @@
         <v>135931</v>
       </c>
       <c r="N8" s="6">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="O8" s="6">
         <f>35000+8690</f>
         <v>43690</v>
       </c>
       <c r="P8" s="7">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="Q8" s="7">
-        <v>1800000</v>
+        <v>1000000</v>
       </c>
       <c r="R8" s="7">
         <v>100000</v>
       </c>
       <c r="S8" s="7">
-        <f>SUMIF($E$16:$E$32,S$5,$C$16:$C$32)+SUMIF($M$16:$M$32,S$5,$K$16:$K$32)</f>
-        <v>0</v>
+        <v>660000</v>
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="8" t="s">
         <v>71</v>
       </c>
       <c r="V8" s="7">
-        <v>200000</v>
+        <f>S8</f>
+        <v>660000</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
@@ -9478,27 +7463,36 @@
         <v>64</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" ref="C9:S9" si="0">C7-C8</f>
+        <f>C8-C7</f>
+        <v>562347</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" ref="D9:R9" si="0">D7-D8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>-10189</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+        <v>-4930</v>
+      </c>
+      <c r="G9" s="27">
+        <f t="shared" si="0"/>
+        <v>-130715</v>
+      </c>
+      <c r="H9" s="27">
+        <f>H7-H8</f>
+        <v>-245220</v>
+      </c>
       <c r="I9" s="7">
         <f>I8</f>
-        <v>0</v>
+        <v>82000</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>-12200</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="0"/>
@@ -9514,7 +7508,7 @@
       </c>
       <c r="N9" s="7">
         <f t="shared" si="0"/>
-        <v>-200000</v>
+        <v>-100000</v>
       </c>
       <c r="O9" s="7">
         <f t="shared" si="0"/>
@@ -9522,7 +7516,7 @@
       </c>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="7">
         <f t="shared" si="0"/>
@@ -9532,17 +7526,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="S9" s="7"/>
       <c r="T9" s="10"/>
       <c r="U9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="V9" s="7">
         <f>V5-(V6+V7+V8)</f>
-        <v>709691</v>
+        <v>-59159</v>
       </c>
       <c r="W9" s="13" t="s">
         <v>7</v>
@@ -9564,7 +7555,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="18">
         <f>C8+D8</f>
-        <v>4650214</v>
+        <v>4562347</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -9573,7 +7564,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="18">
         <f>SUM(E8:J8)</f>
-        <v>702302</v>
+        <v>1963285</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -9581,20 +7572,20 @@
       <c r="N10" s="18"/>
       <c r="O10" s="18">
         <f>SUM(K8:O8)</f>
-        <v>1038221</v>
+        <v>838221</v>
       </c>
       <c r="P10" s="18">
         <f>P8</f>
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="Q10" s="17"/>
       <c r="R10" s="18">
         <f>Q8+R8</f>
-        <v>1900000</v>
+        <v>1100000</v>
       </c>
       <c r="S10" s="12">
         <f>S8</f>
-        <v>0</v>
+        <v>660000</v>
       </c>
       <c r="T10" s="10"/>
       <c r="U10" s="8" t="s">
@@ -9602,7 +7593,7 @@
       </c>
       <c r="V10" s="23">
         <f>V6/V5</f>
-        <v>0.39579318285136983</v>
+        <v>0.62720042995414427</v>
       </c>
       <c r="W10" s="10" t="s">
         <v>54</v>
@@ -9644,7 +7635,7 @@
       </c>
       <c r="V11" s="23">
         <f>V7/V5</f>
-        <v>0.4085833469169376</v>
+        <v>0.24110397565112868</v>
       </c>
       <c r="W11" s="10" t="s">
         <v>2</v>
@@ -9663,11 +7654,11 @@
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="B12" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C12" s="7">
-        <f>SUM(C16:C32)</f>
-        <v>68700</v>
+        <f>SUM(C16:C72)</f>
+        <v>314689</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="10"/>
@@ -9729,7 +7720,7 @@
       </c>
       <c r="W13" s="7">
         <f>V5*V13</f>
-        <v>2325107</v>
+        <v>2281173.5</v>
       </c>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
@@ -9757,7 +7748,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="11"/>
       <c r="J14" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -9770,14 +7761,14 @@
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
       <c r="U14" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="V14" s="19">
         <v>0.5</v>
       </c>
       <c r="W14" s="7">
         <f>V5*V14</f>
-        <v>2325107</v>
+        <v>2281173.5</v>
       </c>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
@@ -9796,7 +7787,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>6</v>
@@ -9812,7 +7803,7 @@
         <v>61</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>6</v>
@@ -9844,29 +7835,29 @@
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="26">
-        <v>45321</v>
+        <v>45293</v>
       </c>
       <c r="C16" s="15">
-        <v>50000</v>
+        <v>4500</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="10"/>
       <c r="J16" s="26">
-        <v>45330</v>
+        <v>45292</v>
       </c>
       <c r="K16" s="3">
-        <v>89680</v>
+        <v>22500</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>43</v>
@@ -9895,7 +7886,7 @@
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="26">
-        <v>45321</v>
+        <v>45294</v>
       </c>
       <c r="C17" s="15">
         <v>4500</v>
@@ -9904,20 +7895,20 @@
         <v>37</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="57">
-        <v>45330</v>
-      </c>
-      <c r="K17" s="31">
-        <v>54630</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>82</v>
+      <c r="J17" s="26">
+        <v>45292</v>
+      </c>
+      <c r="K17" s="15">
+        <v>1500</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="M17" s="16" t="s">
         <v>14</v>
@@ -9946,29 +7937,29 @@
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" s="26">
-        <v>45322</v>
+        <v>45295</v>
       </c>
       <c r="C18" s="15">
-        <v>4500</v>
+        <v>19920</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="57">
-        <v>45331</v>
-      </c>
-      <c r="K18" s="31">
-        <v>22300</v>
+      <c r="J18" s="26">
+        <v>45293</v>
+      </c>
+      <c r="K18" s="15">
+        <v>10580</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M18" s="16" t="s">
         <v>14</v>
@@ -9997,32 +7988,32 @@
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="26">
-        <v>45322</v>
+        <v>45295</v>
       </c>
       <c r="C19" s="15">
-        <v>1200</v>
+        <v>5400</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="57">
-        <v>45331</v>
-      </c>
-      <c r="K19" s="31">
-        <v>77300</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>82</v>
+      <c r="J19" s="26">
+        <v>45294</v>
+      </c>
+      <c r="K19" s="15">
+        <v>4500</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
@@ -10048,29 +8039,29 @@
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="26">
-        <v>45323</v>
+        <v>45295</v>
       </c>
       <c r="C20" s="15">
-        <v>4500</v>
+        <v>50000</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="57">
-        <v>45332</v>
-      </c>
-      <c r="K20" s="31">
-        <v>7550</v>
+      <c r="J20" s="26">
+        <v>45295</v>
+      </c>
+      <c r="K20" s="15">
+        <v>6990</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>14</v>
@@ -10099,33 +8090,32 @@
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
       <c r="B21" s="26">
-        <v>45323</v>
+        <v>45295</v>
       </c>
       <c r="C21" s="15">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="57">
-        <v>45334</v>
-      </c>
-      <c r="K21" s="31">
-        <f>13900+5800+600</f>
-        <v>20300</v>
-      </c>
-      <c r="L21" s="28" t="s">
-        <v>82</v>
+      <c r="J21" s="26">
+        <v>45296</v>
+      </c>
+      <c r="K21" s="15">
+        <v>30919</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
@@ -10150,25 +8140,33 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="26">
+        <v>45295</v>
+      </c>
+      <c r="C22" s="15">
+        <v>23219</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="57">
-        <v>45334</v>
-      </c>
-      <c r="K22" s="31">
-        <v>11900</v>
+      <c r="J22" s="26">
+        <v>45296</v>
+      </c>
+      <c r="K22" s="15">
+        <v>82320</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
@@ -10193,22 +8191,30 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="B23" s="26">
+        <v>45296</v>
+      </c>
+      <c r="C23" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="57">
-        <v>45335</v>
-      </c>
-      <c r="K23" s="31">
-        <v>2750</v>
+      <c r="J23" s="26">
+        <v>45298</v>
+      </c>
+      <c r="K23" s="15">
+        <v>4000</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M23" s="16" t="s">
         <v>43</v>
@@ -10236,25 +8242,33 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="B24" s="26">
+        <v>45297</v>
+      </c>
+      <c r="C24" s="15">
+        <v>30900</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="57">
-        <v>45336</v>
+      <c r="J24" s="26">
+        <v>45298</v>
       </c>
       <c r="K24" s="15">
-        <v>1600</v>
-      </c>
-      <c r="L24" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="M24" s="58" t="s">
-        <v>117</v>
+        <v>10000</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
@@ -10279,25 +8293,33 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="B25" s="26">
+        <v>45299</v>
+      </c>
+      <c r="C25" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="57">
-        <v>45336</v>
+      <c r="J25" s="26">
+        <v>45298</v>
       </c>
       <c r="K25" s="15">
-        <v>4500</v>
-      </c>
-      <c r="L25" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="M25" s="58" t="s">
-        <v>117</v>
+        <v>39535</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
@@ -10322,26 +8344,33 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="B26" s="26">
+        <v>45300</v>
+      </c>
+      <c r="C26" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="57">
-        <v>45337</v>
+      <c r="J26" s="26">
+        <v>45299</v>
       </c>
       <c r="K26" s="15">
-        <f>2900+45000+7660</f>
-        <v>55560</v>
-      </c>
-      <c r="L26" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="M26" s="58" t="s">
-        <v>117</v>
+        <v>3150</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
@@ -10366,25 +8395,33 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="B27" s="26">
+        <v>45301</v>
+      </c>
+      <c r="C27" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="57">
-        <v>45338</v>
+      <c r="J27" s="26">
+        <v>45300</v>
       </c>
       <c r="K27" s="15">
-        <v>6793</v>
-      </c>
-      <c r="L27" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="M27" s="58" t="s">
-        <v>120</v>
+        <v>13500</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
@@ -10409,27 +8446,35 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="B28" s="26">
+        <v>45302</v>
+      </c>
+      <c r="C28" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="57">
-        <v>45338</v>
+      <c r="J28" s="26">
+        <v>45302</v>
       </c>
       <c r="K28" s="15">
-        <v>6250</v>
-      </c>
-      <c r="L28" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="M28" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="N28" s="17"/>
+        <v>5400</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" s="29"/>
       <c r="O28" s="17"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
@@ -10452,25 +8497,33 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="B29" s="26">
+        <v>45303</v>
+      </c>
+      <c r="C29" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="57">
-        <v>45339</v>
+      <c r="J29" s="26">
+        <v>45302</v>
       </c>
       <c r="K29" s="15">
-        <v>31000</v>
-      </c>
-      <c r="L29" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="M29" s="58" t="s">
-        <v>117</v>
+        <v>11500</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="N29" s="17"/>
       <c r="O29" s="17"/>
@@ -10495,18 +8548,34 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="B30" s="26">
+        <v>45303</v>
+      </c>
+      <c r="C30" s="15">
+        <v>8910</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
+      <c r="J30" s="26">
+        <v>45303</v>
+      </c>
+      <c r="K30" s="15">
+        <v>2980</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
       <c r="P30" s="10"/>
@@ -10530,18 +8599,34 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="B31" s="26">
+        <v>45304</v>
+      </c>
+      <c r="C31" s="15">
+        <v>50000</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
+      <c r="J31" s="26">
+        <v>45303</v>
+      </c>
+      <c r="K31" s="15">
+        <v>50100</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="N31" s="17"/>
       <c r="O31" s="17"/>
       <c r="P31" s="10"/>
@@ -10565,18 +8650,34 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="B32" s="26">
+        <v>45306</v>
+      </c>
+      <c r="C32" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
+      <c r="J32" s="26">
+        <v>45303</v>
+      </c>
+      <c r="K32" s="15">
+        <v>62100</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
       <c r="P32" s="10"/>
@@ -10600,20 +8701,36 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="B33" s="26">
+        <v>45307</v>
+      </c>
+      <c r="C33" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
+      <c r="J33" s="26">
+        <v>45303</v>
+      </c>
+      <c r="K33" s="15">
+        <v>35560</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
@@ -10635,20 +8752,36 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="B34" s="26">
+        <v>45314</v>
+      </c>
+      <c r="C34" s="15">
+        <v>2500</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
+      <c r="J34" s="26">
+        <v>45304</v>
+      </c>
+      <c r="K34" s="15">
+        <v>36000</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
@@ -10670,20 +8803,36 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="B35" s="26">
+        <v>45315</v>
+      </c>
+      <c r="C35" s="15">
+        <v>36860</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
+      <c r="J35" s="26">
+        <v>45304</v>
+      </c>
+      <c r="K35" s="15">
+        <v>50000</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
@@ -10705,20 +8854,36 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="B36" s="26">
+        <v>45315</v>
+      </c>
+      <c r="C36" s="15">
+        <v>10980</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
       <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
+      <c r="J36" s="26">
+        <v>45305</v>
+      </c>
+      <c r="K36" s="15">
+        <v>6600</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
@@ -10740,20 +8905,36 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="B37" s="26">
+        <v>45316</v>
+      </c>
+      <c r="C37" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
+      <c r="J37" s="26">
+        <v>45305</v>
+      </c>
+      <c r="K37" s="15">
+        <v>33000</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
@@ -10775,20 +8956,36 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="B38" s="26">
+        <v>45317</v>
+      </c>
+      <c r="C38" s="15">
+        <v>4500</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
       <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
+      <c r="J38" s="26">
+        <v>45305</v>
+      </c>
+      <c r="K38" s="15">
+        <v>82000</v>
+      </c>
+      <c r="L38" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="M38" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
@@ -10810,20 +9007,29 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
       <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
+      <c r="J39" s="26">
+        <v>45306</v>
+      </c>
+      <c r="K39" s="15">
+        <f>3800+8050</f>
+        <v>11850</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
@@ -10845,20 +9051,28 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
       <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
+      <c r="J40" s="26">
+        <v>45307</v>
+      </c>
+      <c r="K40" s="15">
+        <v>27700</v>
+      </c>
+      <c r="L40" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
@@ -10880,20 +9094,28 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
       <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
+      <c r="J41" s="26">
+        <v>45308</v>
+      </c>
+      <c r="K41" s="15">
+        <v>11400</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
@@ -10915,20 +9137,28 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
       <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
+      <c r="J42" s="26">
+        <v>45309</v>
+      </c>
+      <c r="K42" s="15">
+        <v>7300</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
@@ -10950,20 +9180,28 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
       <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
+      <c r="J43" s="26">
+        <v>45309</v>
+      </c>
+      <c r="K43" s="15">
+        <v>5990</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M43" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
@@ -10985,20 +9223,28 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
       <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
+      <c r="J44" s="26">
+        <v>45309</v>
+      </c>
+      <c r="K44" s="15">
+        <v>8450</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
@@ -11020,20 +9266,28 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
       <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
+      <c r="J45" s="26">
+        <v>45310</v>
+      </c>
+      <c r="K45" s="15">
+        <v>26600</v>
+      </c>
+      <c r="L45" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M45" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
@@ -11055,20 +9309,29 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
       <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
+      <c r="J46" s="26">
+        <v>45310</v>
+      </c>
+      <c r="K46" s="15">
+        <f>87900+12300</f>
+        <v>100200</v>
+      </c>
+      <c r="L46" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="M46" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
@@ -11090,20 +9353,28 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
       <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
+      <c r="J47" s="26">
+        <v>45311</v>
+      </c>
+      <c r="K47" s="15">
+        <v>40000</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="M47" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
@@ -11125,20 +9396,28 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
       <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
+      <c r="J48" s="26">
+        <v>45311</v>
+      </c>
+      <c r="K48" s="15">
+        <v>26000</v>
+      </c>
+      <c r="L48" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
@@ -11158,6 +9437,1788 @@
       <c r="AF48" s="10"/>
       <c r="AG48" s="10"/>
     </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A49" s="10"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="26">
+        <v>45311</v>
+      </c>
+      <c r="K49" s="15">
+        <v>26400</v>
+      </c>
+      <c r="L49" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="M49" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A50" s="10"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="26">
+        <v>45311</v>
+      </c>
+      <c r="K50" s="15">
+        <v>16110</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M50" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A51" s="10"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="26">
+        <v>45312</v>
+      </c>
+      <c r="K51" s="15">
+        <v>17500</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A52" s="10"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="26">
+        <v>45313</v>
+      </c>
+      <c r="K52" s="15">
+        <v>6750</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A53" s="10"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="26">
+        <v>45315</v>
+      </c>
+      <c r="K53" s="15">
+        <v>62000</v>
+      </c>
+      <c r="L53" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="M53" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A54" s="10"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="26">
+        <v>45315</v>
+      </c>
+      <c r="K54" s="15">
+        <v>14820</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M54" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="10"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A55" s="10"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="26">
+        <v>45315</v>
+      </c>
+      <c r="K55" s="15">
+        <v>4000</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M55" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="10"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A56" s="10"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="26">
+        <v>45317</v>
+      </c>
+      <c r="K56" s="15">
+        <v>16650</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M56" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="10"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A57" s="10"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="26">
+        <v>45318</v>
+      </c>
+      <c r="K57" s="15">
+        <f>123800-108800</f>
+        <v>15000</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="M57" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="10"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A58" s="10"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="26">
+        <v>45318</v>
+      </c>
+      <c r="K58" s="15">
+        <v>15000</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M58" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A59" s="10"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="26">
+        <v>45318</v>
+      </c>
+      <c r="K59" s="15">
+        <v>6950</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M59" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="10"/>
+      <c r="AG59" s="10"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A60" s="10"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="26">
+        <v>45318</v>
+      </c>
+      <c r="K60" s="15">
+        <v>21700</v>
+      </c>
+      <c r="L60" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="M60" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="10"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A61" s="10"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="26">
+        <v>45319</v>
+      </c>
+      <c r="K61" s="15">
+        <v>18900</v>
+      </c>
+      <c r="L61" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="M61" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="10"/>
+      <c r="AG61" s="10"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A62" s="10"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="26">
+        <v>45320</v>
+      </c>
+      <c r="K62" s="15">
+        <v>10000</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M62" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="10"/>
+      <c r="AD62" s="10"/>
+      <c r="AE62" s="10"/>
+      <c r="AF62" s="10"/>
+      <c r="AG62" s="10"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A63" s="10"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="26">
+        <v>45320</v>
+      </c>
+      <c r="K63" s="15">
+        <v>4350</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M63" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="10"/>
+      <c r="AG63" s="10"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A64" s="10"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="26">
+        <v>45321</v>
+      </c>
+      <c r="K64" s="15">
+        <v>26500</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M64" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="10"/>
+      <c r="AC64" s="10"/>
+      <c r="AD64" s="10"/>
+      <c r="AE64" s="10"/>
+      <c r="AF64" s="10"/>
+      <c r="AG64" s="10"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A65" s="10"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="26">
+        <v>45321</v>
+      </c>
+      <c r="K65" s="15">
+        <v>10900</v>
+      </c>
+      <c r="L65" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M65" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10"/>
+      <c r="AG65" s="10"/>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A66" s="10"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="26">
+        <v>45323</v>
+      </c>
+      <c r="K66" s="15">
+        <v>2985</v>
+      </c>
+      <c r="L66" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M66" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="10"/>
+      <c r="AB66" s="10"/>
+      <c r="AC66" s="10"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="10"/>
+      <c r="AF66" s="10"/>
+      <c r="AG66" s="10"/>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A67" s="10"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="26">
+        <v>45324</v>
+      </c>
+      <c r="K67" s="15">
+        <v>104960</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M67" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="10"/>
+      <c r="AG67" s="10"/>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A68" s="10"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="26">
+        <v>45324</v>
+      </c>
+      <c r="K68" s="15">
+        <v>106800</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M68" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="10"/>
+      <c r="AC68" s="10"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="10"/>
+      <c r="AF68" s="10"/>
+      <c r="AG68" s="10"/>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A69" s="10"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="26">
+        <v>45324</v>
+      </c>
+      <c r="K69" s="15">
+        <v>8000</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M69" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
+      <c r="AG69" s="10"/>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A70" s="10"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="30">
+        <v>45325</v>
+      </c>
+      <c r="K70" s="31">
+        <v>21500</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="M70" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="10"/>
+      <c r="AC70" s="10"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="10"/>
+      <c r="AF70" s="10"/>
+      <c r="AG70" s="10"/>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A71" s="10"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="30">
+        <v>45325</v>
+      </c>
+      <c r="K71" s="31">
+        <f>17400+8980</f>
+        <v>26380</v>
+      </c>
+      <c r="L71" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M71" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="10"/>
+      <c r="AB71" s="10"/>
+      <c r="AC71" s="10"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="10"/>
+      <c r="AF71" s="10"/>
+      <c r="AG71" s="10"/>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A72" s="10"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="30">
+        <v>45326</v>
+      </c>
+      <c r="K72" s="31">
+        <v>6250</v>
+      </c>
+      <c r="L72" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M72" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10"/>
+      <c r="AA72" s="10"/>
+      <c r="AB72" s="10"/>
+      <c r="AC72" s="10"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="10"/>
+      <c r="AF72" s="10"/>
+      <c r="AG72" s="10"/>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A73" s="34"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="30">
+        <v>45327</v>
+      </c>
+      <c r="K73" s="39">
+        <v>82360</v>
+      </c>
+      <c r="L73" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="M73" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="34"/>
+      <c r="S73" s="34"/>
+      <c r="T73" s="34"/>
+      <c r="U73" s="34"/>
+      <c r="V73" s="34"/>
+      <c r="W73" s="34"/>
+      <c r="X73" s="34"/>
+      <c r="Y73" s="34"/>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="34"/>
+      <c r="AB73" s="34"/>
+      <c r="AC73" s="34"/>
+      <c r="AD73" s="34"/>
+      <c r="AE73" s="34"/>
+      <c r="AF73" s="34"/>
+      <c r="AG73" s="34"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A74" s="34"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="30">
+        <v>45327</v>
+      </c>
+      <c r="K74" s="39">
+        <v>13500</v>
+      </c>
+      <c r="L74" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="M74" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="34"/>
+      <c r="S74" s="34"/>
+      <c r="T74" s="34"/>
+      <c r="U74" s="34"/>
+      <c r="V74" s="34"/>
+      <c r="W74" s="34"/>
+      <c r="X74" s="34"/>
+      <c r="Y74" s="34"/>
+      <c r="Z74" s="34"/>
+      <c r="AA74" s="34"/>
+      <c r="AB74" s="34"/>
+      <c r="AC74" s="34"/>
+      <c r="AD74" s="34"/>
+      <c r="AE74" s="34"/>
+      <c r="AF74" s="34"/>
+      <c r="AG74" s="34"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A75" s="34"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="30">
+        <v>45328</v>
+      </c>
+      <c r="K75" s="38">
+        <v>42460</v>
+      </c>
+      <c r="L75" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M75" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="34"/>
+      <c r="S75" s="34"/>
+      <c r="T75" s="34"/>
+      <c r="U75" s="34"/>
+      <c r="V75" s="34"/>
+      <c r="W75" s="34"/>
+      <c r="X75" s="34"/>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="34"/>
+      <c r="AB75" s="34"/>
+      <c r="AC75" s="34"/>
+      <c r="AD75" s="34"/>
+      <c r="AE75" s="34"/>
+      <c r="AF75" s="34"/>
+      <c r="AG75" s="34"/>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A76" s="34"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="30">
+        <v>45328</v>
+      </c>
+      <c r="K76" s="38">
+        <v>6776</v>
+      </c>
+      <c r="L76" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="M76" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="34"/>
+      <c r="Q76" s="34"/>
+      <c r="R76" s="34"/>
+      <c r="S76" s="34"/>
+      <c r="T76" s="34"/>
+      <c r="U76" s="34"/>
+      <c r="V76" s="34"/>
+      <c r="W76" s="34"/>
+      <c r="X76" s="34"/>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="34"/>
+      <c r="AB76" s="34"/>
+      <c r="AC76" s="34"/>
+      <c r="AD76" s="34"/>
+      <c r="AE76" s="34"/>
+      <c r="AF76" s="34"/>
+      <c r="AG76" s="34"/>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="30">
+        <v>45329</v>
+      </c>
+      <c r="K77" s="39">
+        <v>4500</v>
+      </c>
+      <c r="L77" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M77" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="10"/>
+      <c r="AC77" s="10"/>
+      <c r="AD77" s="10"/>
+      <c r="AE77" s="10"/>
+      <c r="AF77" s="10"/>
+      <c r="AG77" s="10"/>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="30">
+        <v>45329</v>
+      </c>
+      <c r="K78" s="39">
+        <v>9150</v>
+      </c>
+      <c r="L78" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M78" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="10"/>
+      <c r="Z78" s="10"/>
+      <c r="AA78" s="10"/>
+      <c r="AB78" s="10"/>
+      <c r="AC78" s="10"/>
+      <c r="AD78" s="10"/>
+      <c r="AE78" s="10"/>
+      <c r="AF78" s="10"/>
+      <c r="AG78" s="10"/>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="10"/>
+      <c r="Z79" s="10"/>
+      <c r="AA79" s="10"/>
+      <c r="AB79" s="10"/>
+      <c r="AC79" s="10"/>
+      <c r="AD79" s="10"/>
+      <c r="AE79" s="10"/>
+      <c r="AF79" s="10"/>
+      <c r="AG79" s="10"/>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="10"/>
+      <c r="AB80" s="10"/>
+      <c r="AC80" s="10"/>
+      <c r="AD80" s="10"/>
+      <c r="AE80" s="10"/>
+      <c r="AF80" s="10"/>
+      <c r="AG80" s="10"/>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="10"/>
+      <c r="Z81" s="10"/>
+      <c r="AA81" s="10"/>
+      <c r="AB81" s="10"/>
+      <c r="AC81" s="10"/>
+      <c r="AD81" s="10"/>
+      <c r="AE81" s="10"/>
+      <c r="AF81" s="10"/>
+      <c r="AG81" s="10"/>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="10"/>
+      <c r="Z82" s="10"/>
+      <c r="AA82" s="10"/>
+      <c r="AB82" s="10"/>
+      <c r="AC82" s="10"/>
+      <c r="AD82" s="10"/>
+      <c r="AE82" s="10"/>
+      <c r="AF82" s="10"/>
+      <c r="AG82" s="10"/>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+      <c r="V83" s="10"/>
+      <c r="W83" s="10"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="10"/>
+      <c r="Z83" s="10"/>
+      <c r="AA83" s="10"/>
+      <c r="AB83" s="10"/>
+      <c r="AC83" s="10"/>
+      <c r="AD83" s="10"/>
+      <c r="AE83" s="10"/>
+      <c r="AF83" s="10"/>
+      <c r="AG83" s="10"/>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+      <c r="Z84" s="10"/>
+      <c r="AA84" s="10"/>
+      <c r="AB84" s="10"/>
+      <c r="AC84" s="10"/>
+      <c r="AD84" s="10"/>
+      <c r="AE84" s="10"/>
+      <c r="AF84" s="10"/>
+      <c r="AG84" s="10"/>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+      <c r="Z85" s="10"/>
+      <c r="AA85" s="10"/>
+      <c r="AB85" s="10"/>
+      <c r="AC85" s="10"/>
+      <c r="AD85" s="10"/>
+      <c r="AE85" s="10"/>
+      <c r="AF85" s="10"/>
+      <c r="AG85" s="10"/>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="10"/>
+      <c r="Z86" s="10"/>
+      <c r="AA86" s="10"/>
+      <c r="AB86" s="10"/>
+      <c r="AC86" s="10"/>
+      <c r="AD86" s="10"/>
+      <c r="AE86" s="10"/>
+      <c r="AF86" s="10"/>
+      <c r="AG86" s="10"/>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+      <c r="Z87" s="10"/>
+      <c r="AA87" s="10"/>
+      <c r="AB87" s="10"/>
+      <c r="AC87" s="10"/>
+      <c r="AD87" s="10"/>
+      <c r="AE87" s="10"/>
+      <c r="AF87" s="10"/>
+      <c r="AG87" s="10"/>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="10"/>
+      <c r="T88" s="10"/>
+      <c r="U88" s="10"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="10"/>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="10"/>
+      <c r="Z88" s="10"/>
+      <c r="AA88" s="10"/>
+      <c r="AB88" s="10"/>
+      <c r="AC88" s="10"/>
+      <c r="AD88" s="10"/>
+      <c r="AE88" s="10"/>
+      <c r="AF88" s="10"/>
+      <c r="AG88" s="10"/>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
+      <c r="T89" s="10"/>
+      <c r="U89" s="10"/>
+      <c r="V89" s="10"/>
+      <c r="W89" s="10"/>
+      <c r="X89" s="10"/>
+      <c r="Y89" s="10"/>
+      <c r="Z89" s="10"/>
+      <c r="AA89" s="10"/>
+      <c r="AB89" s="10"/>
+      <c r="AC89" s="10"/>
+      <c r="AD89" s="10"/>
+      <c r="AE89" s="10"/>
+      <c r="AF89" s="10"/>
+      <c r="AG89" s="10"/>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="10"/>
+      <c r="V90" s="10"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="10"/>
+      <c r="Z90" s="10"/>
+      <c r="AA90" s="10"/>
+      <c r="AB90" s="10"/>
+      <c r="AC90" s="10"/>
+      <c r="AD90" s="10"/>
+      <c r="AE90" s="10"/>
+      <c r="AF90" s="10"/>
+      <c r="AG90" s="10"/>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="10"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="10"/>
+      <c r="Z91" s="10"/>
+      <c r="AA91" s="10"/>
+      <c r="AB91" s="10"/>
+      <c r="AC91" s="10"/>
+      <c r="AD91" s="10"/>
+      <c r="AE91" s="10"/>
+      <c r="AF91" s="10"/>
+      <c r="AG91" s="10"/>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10"/>
+      <c r="S92" s="10"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="10"/>
+      <c r="V92" s="10"/>
+      <c r="W92" s="10"/>
+      <c r="X92" s="10"/>
+      <c r="Y92" s="10"/>
+      <c r="Z92" s="10"/>
+      <c r="AA92" s="10"/>
+      <c r="AB92" s="10"/>
+      <c r="AC92" s="10"/>
+      <c r="AD92" s="10"/>
+      <c r="AE92" s="10"/>
+      <c r="AF92" s="10"/>
+      <c r="AG92" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B14:E14"/>
@@ -11175,28 +11236,28 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:S9">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="lessThan">
       <formula>$V$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
       <formula>$V$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>$V$13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>$V$13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11206,29 +11267,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8381B7-8755-4759-8310-AD5B1FF4B1A1}">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L2"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="7.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="10.8984375" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.59765625" customWidth="1"/>
-    <col min="11" max="12" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.59765625" customWidth="1"/>
+    <col min="7" max="8" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.296875" customWidth="1"/>
-    <col min="17" max="18" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -11251,26 +11311,22 @@
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-    </row>
-    <row r="2" spans="1:26" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
-      <c r="B2" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
+      <c r="B2" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -11281,12 +11337,8 @@
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -11298,26 +11350,16 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-    </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:23" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -11329,136 +11371,123 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="Q4" s="43" t="s">
+      <c r="O4" s="45"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="R4" s="43"/>
-      <c r="S4" s="11"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
       <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="46" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="46" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="46" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="10"/>
+      <c r="L5" s="50"/>
       <c r="N5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="7">
-        <f>R5+SUM(C8:L8)</f>
-        <v>48800000</v>
-      </c>
-      <c r="Q5" s="8" t="s">
+        <f>SUM(C7:L7)</f>
+        <v>46900000</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="R5" s="7">
-        <f>'2월(자산)'!O5</f>
-        <v>48800000</v>
-      </c>
-      <c r="S5" s="10"/>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
       <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="53" t="s">
+      <c r="F6" s="56"/>
+      <c r="G6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55" t="s">
+      <c r="H6" s="56"/>
+      <c r="I6" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="56"/>
+      <c r="J6" s="58"/>
       <c r="K6" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L6" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="10"/>
       <c r="N6" s="8" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="O6" s="7">
-        <f>SUM(C9:L9)</f>
+        <f>SUM(C9:H9)</f>
         <v>0</v>
       </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="49">
-        <v>0</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50">
-        <f>SUM('2월(자산)'!E7:F8)</f>
-        <v>39279849</v>
+        <v>102</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51">
+        <v>39000000</v>
       </c>
       <c r="F7" s="51"/>
-      <c r="G7" s="50">
-        <f>SUM('2월(자산)'!G7:H8)</f>
-        <v>7000000</v>
-      </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="49">
-        <f>SUM('2월(자산)'!I7:J8)</f>
-        <v>2800000</v>
-      </c>
-      <c r="J7" s="49"/>
+      <c r="G7" s="52">
+        <v>6900000</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="51">
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="51"/>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -11475,29 +11504,23 @@
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-    </row>
-    <row r="8" spans="1:26" ht="19.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:23" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51">
+        <v>279849</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52">
         <v>0</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50">
-        <v>0</v>
-      </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="50">
-        <v>0</v>
-      </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="50">
+      <c r="H8" s="53"/>
+      <c r="I8" s="51">
         <v>0</v>
       </c>
       <c r="J8" s="51"/>
@@ -11508,10 +11531,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="43" t="s">
+      <c r="N8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="43"/>
+      <c r="O8" s="45"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
@@ -11519,36 +11542,32 @@
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="51">
         <f>C8*0</f>
         <v>0</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51">
         <f>E8*0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49">
+      <c r="F9" s="51"/>
+      <c r="G9" s="51">
         <f>G8*0</f>
         <v>0</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49">
+      <c r="H9" s="51"/>
+      <c r="I9" s="51">
         <f>I8*0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="7">
         <f>K8*0</f>
         <v>0</v>
@@ -11563,7 +11582,7 @@
       </c>
       <c r="O9" s="7">
         <f>O5-G7</f>
-        <v>41800000</v>
+        <v>40000000</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -11572,71 +11591,47 @@
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="S11" s="13"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="O10" s="13"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B2:L2"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -3,13 +3,8 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.65535"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url=""/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="3월" sheetId="1" r:id="rId4"/>
@@ -32,369 +27,378 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="121">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="124">
   <x:si>
-    <x:t>본죽</x:t>
+    <x:t>귀성비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>택시비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 2월 송민영의 가계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현금사용실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축률 = 저축계/소득계*100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈플러스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교통후불</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생활비(식비)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뽀미약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점심</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(데이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잔액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돈까스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고정수입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주택관리비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 1월 송민영의 가계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고정지출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건강검진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영 이어폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
   </x:si>
   <x:si>
     <x:t>실적</x:t>
   </x:si>
   <x:si>
-    <x:t>돈까스</x:t>
+    <x:t>병원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 3월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이스크림점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드결제료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커피</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올리브영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현금 흐름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본죽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국민은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통신비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마트(쌀구매)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단백질바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소득</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비상금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이소 및 마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축목표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액조정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(모임)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변동수입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노래방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드사용실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아침</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점심(데이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가슴패치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류구입비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드값(금월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청약통장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시가스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명절선물비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설 명절 음식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타(데이트통장+유투브 구독)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주거비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올리브영(치실)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월 결산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소득계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드값(전월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미용(커트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김밥천국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출계 = 변동지출 + 고정지출 + 비상금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>닭가슴살</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가용자산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈모약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변동지출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채권</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빨래</x:t>
   </x:si>
   <x:si>
     <x:t>용돈</x:t>
   </x:si>
   <x:si>
-    <x:t>관리비</x:t>
+    <x:t>피트니스</x:t>
   </x:si>
   <x:si>
-    <x:t>통신비</x:t>
+    <x:t>`</x:t>
   </x:si>
   <x:si>
-    <x:t>홈플러스</x:t>
+    <x:t>교통비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해든마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출목표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잔액 = 소득계 - (지출계+저축계+투자계)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영강습</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출률 = 지출계/소득계*100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>셍활비(식비)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 1월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 2월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(치킨)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피부과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정기예금</x:t>
   </x:si>
   <x:si>
     <x:t>생활비</x:t>
   </x:si>
   <x:si>
-    <x:t>커트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변동수입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김밥천국</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빨래</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변동지출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건강검진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현금사용실적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고정지출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드값(금월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축률 = 저축계/소득계*100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>셍활비(식비)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현금 흐름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이소 및 마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주거비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올리브영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월 결산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주택관리비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드결제료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드사용실적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피부과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 2월 송민영의 자본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이스크림점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청약통장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수영복</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국민은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피트니스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용처</x:t>
+    <x:t>투자계</x:t>
   </x:si>
   <x:si>
     <x:t>기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABC마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 1월 송민영의 가계부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명절선물비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정기예금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점심</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생활비(식비)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(모임)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시가스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교통후불</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(치킨)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잔액 = 소득계 - (지출계+저축계+투자계)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주차비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해든마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점심(데이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>닭가슴살</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수영 이어폰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 2월 송민영의 가계부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 3월 송민영의 자본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수영강습</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타(데이트통장+유투브 구독)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비상금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(데이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>커피</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아침</x:t>
-  </x:si>
-  <x:si>
-    <x:t>귀성비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소득</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출계 = 변동지출 + 고정지출 + 비상금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액조정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드값(전월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교통비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 1월 송민영의 자본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈모약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류구입비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고정수입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뽀미약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>`</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가슴패치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출률 = 지출계/소득계*100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설 명절 음식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노래방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단백질바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잔액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소득계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채권</x:t>
-  </x:si>
-  <x:si>
-    <x:t>택시비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가용자산</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -465,11 +469,26 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="12"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -932,7 +951,7 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </x:cellStyleXfs>
-  <x:cellXfs count="61">
+  <x:cellXfs count="68">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1371,6 +1390,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1604,6 +1636,24 @@
       </mc:Fallback>
     </mc:AlternateContent>
     <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="41" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="41" fontId="0" fillId="6" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -1993,7 +2043,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2026,7 +2075,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2057,7 +2105,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2088,7 +2135,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2121,7 +2167,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2156,7 +2201,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2189,7 +2233,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2222,7 +2265,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2253,7 +2295,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2284,7 +2325,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2317,7 +2357,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2352,7 +2391,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2385,7 +2423,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2418,7 +2455,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2449,7 +2485,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2480,7 +2515,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2513,7 +2547,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2548,7 +2581,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2893,7 +2925,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet5"/>
+  <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:AG48"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
@@ -2956,29 +2988,29 @@
     </x:row>
     <x:row r="2" spans="1:33" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="43" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C2" s="44"/>
-      <x:c r="D2" s="44"/>
-      <x:c r="E2" s="44"/>
-      <x:c r="F2" s="44"/>
-      <x:c r="G2" s="44"/>
-      <x:c r="H2" s="44"/>
-      <x:c r="I2" s="44"/>
-      <x:c r="J2" s="44"/>
-      <x:c r="K2" s="44"/>
-      <x:c r="L2" s="44"/>
-      <x:c r="M2" s="44"/>
-      <x:c r="N2" s="44"/>
-      <x:c r="O2" s="44"/>
-      <x:c r="P2" s="44"/>
-      <x:c r="Q2" s="44"/>
-      <x:c r="R2" s="44"/>
-      <x:c r="S2" s="44"/>
-      <x:c r="T2" s="44"/>
-      <x:c r="U2" s="44"/>
-      <x:c r="V2" s="45"/>
+      <x:c r="B2" s="44" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C2" s="45"/>
+      <x:c r="D2" s="45"/>
+      <x:c r="E2" s="45"/>
+      <x:c r="F2" s="45"/>
+      <x:c r="G2" s="45"/>
+      <x:c r="H2" s="45"/>
+      <x:c r="I2" s="45"/>
+      <x:c r="J2" s="45"/>
+      <x:c r="K2" s="45"/>
+      <x:c r="L2" s="45"/>
+      <x:c r="M2" s="45"/>
+      <x:c r="N2" s="45"/>
+      <x:c r="O2" s="45"/>
+      <x:c r="P2" s="45"/>
+      <x:c r="Q2" s="45"/>
+      <x:c r="R2" s="45"/>
+      <x:c r="S2" s="45"/>
+      <x:c r="T2" s="45"/>
+      <x:c r="U2" s="45"/>
+      <x:c r="V2" s="46"/>
       <x:c r="W2" s="10"/>
       <x:c r="X2" s="10"/>
       <x:c r="Y2" s="10"/>
@@ -3028,31 +3060,31 @@
     </x:row>
     <x:row r="4" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="42" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C4" s="42"/>
-      <x:c r="D4" s="42"/>
-      <x:c r="E4" s="42"/>
-      <x:c r="F4" s="42"/>
-      <x:c r="G4" s="42"/>
-      <x:c r="H4" s="42"/>
-      <x:c r="I4" s="42"/>
-      <x:c r="J4" s="42"/>
-      <x:c r="K4" s="42"/>
-      <x:c r="L4" s="42"/>
-      <x:c r="M4" s="42"/>
-      <x:c r="N4" s="42"/>
-      <x:c r="O4" s="42"/>
-      <x:c r="P4" s="42"/>
-      <x:c r="Q4" s="42"/>
-      <x:c r="R4" s="42"/>
-      <x:c r="S4" s="42"/>
+      <x:c r="B4" s="43" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C4" s="43"/>
+      <x:c r="D4" s="43"/>
+      <x:c r="E4" s="43"/>
+      <x:c r="F4" s="43"/>
+      <x:c r="G4" s="43"/>
+      <x:c r="H4" s="43"/>
+      <x:c r="I4" s="43"/>
+      <x:c r="J4" s="43"/>
+      <x:c r="K4" s="43"/>
+      <x:c r="L4" s="43"/>
+      <x:c r="M4" s="43"/>
+      <x:c r="N4" s="43"/>
+      <x:c r="O4" s="43"/>
+      <x:c r="P4" s="43"/>
+      <x:c r="Q4" s="43"/>
+      <x:c r="R4" s="43"/>
+      <x:c r="S4" s="43"/>
       <x:c r="T4" s="11"/>
-      <x:c r="U4" s="46" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="V4" s="46"/>
+      <x:c r="U4" s="47" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="V4" s="47"/>
       <x:c r="W4" s="11"/>
       <x:c r="X4" s="11"/>
       <x:c r="Y4" s="11"/>
@@ -3067,41 +3099,41 @@
     </x:row>
     <x:row r="5" spans="1:33">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="47" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C5" s="49" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D5" s="50"/>
-      <x:c r="E5" s="49" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F5" s="51"/>
-      <x:c r="G5" s="51"/>
-      <x:c r="H5" s="51"/>
-      <x:c r="I5" s="51"/>
-      <x:c r="J5" s="50"/>
-      <x:c r="K5" s="49" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="L5" s="51"/>
-      <x:c r="M5" s="51"/>
-      <x:c r="N5" s="51"/>
-      <x:c r="O5" s="50"/>
-      <x:c r="P5" s="47" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="Q5" s="49" t="s">
+      <x:c r="B5" s="48" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C5" s="50" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D5" s="51"/>
+      <x:c r="E5" s="50" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F5" s="52"/>
+      <x:c r="G5" s="52"/>
+      <x:c r="H5" s="52"/>
+      <x:c r="I5" s="52"/>
+      <x:c r="J5" s="51"/>
+      <x:c r="K5" s="50" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L5" s="52"/>
+      <x:c r="M5" s="52"/>
+      <x:c r="N5" s="52"/>
+      <x:c r="O5" s="51"/>
+      <x:c r="P5" s="48" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="Q5" s="50" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="R5" s="51"/>
+      <x:c r="S5" s="48" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="R5" s="50"/>
-      <x:c r="S5" s="47" t="s">
-        <x:v>15</x:v>
       </x:c>
       <x:c r="T5" s="10"/>
       <x:c r="U5" s="8" t="s">
-        <x:v>115</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="V5" s="7">
         <x:f>D10</x:f>
@@ -3121,64 +3153,64 @@
     </x:row>
     <x:row r="6" spans="1:33">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="48"/>
+      <x:c r="B6" s="49"/>
       <x:c r="C6" s="8" t="s">
-        <x:v>100</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E6" s="8" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F6" s="8" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G6" s="8" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E6" s="8" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="F6" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G6" s="8" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="H6" s="8" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I6" s="8" t="s">
-        <x:v>94</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J6" s="8" t="s">
-        <x:v>98</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="K6" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="L6" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M6" s="20" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="N6" s="20" t="s">
-        <x:v>3</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O6" s="20" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P6" s="48"/>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="P6" s="49"/>
       <x:c r="Q6" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="R6" s="8" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="S6" s="48"/>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="S6" s="49"/>
       <x:c r="T6" s="10"/>
       <x:c r="U6" s="8" t="s">
-        <x:v>69</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="V6" s="7">
         <x:f>J10+O10+P10</x:f>
         <x:v>1840523</x:v>
       </x:c>
       <x:c r="W6" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="X6" s="10"/>
       <x:c r="Y6" s="10"/>
@@ -3194,7 +3226,7 @@
     <x:row r="7" spans="1:33">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C7" s="6">
         <x:v>4650214</x:v>
@@ -3215,7 +3247,7 @@
         <x:v>400000</x:v>
       </x:c>
       <x:c r="I7" s="24" t="s">
-        <x:v>41</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J7" s="6">
         <x:v>100000</x:v>
@@ -3249,7 +3281,7 @@
       <x:c r="S7" s="6"/>
       <x:c r="T7" s="10"/>
       <x:c r="U7" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="V7" s="7">
         <x:f>R10</x:f>
@@ -3270,7 +3302,7 @@
     <x:row r="8" spans="1:33">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C8" s="7">
         <x:v>4650214</x:v>
@@ -3333,7 +3365,7 @@
       </x:c>
       <x:c r="T8" s="10"/>
       <x:c r="U8" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="V8" s="7">
         <x:v>200000</x:v>
@@ -3353,7 +3385,7 @@
     <x:row r="9" spans="1:33">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:f t="shared" ref="C9:S9" si="0">C7-C8</x:f>
@@ -3416,14 +3448,14 @@
       </x:c>
       <x:c r="T9" s="10"/>
       <x:c r="U9" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="V9" s="7">
         <x:f>V5-(V6+V7+V8)</x:f>
         <x:v>709691</x:v>
       </x:c>
       <x:c r="W9" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="X9" s="10"/>
       <x:c r="Y9" s="10"/>
@@ -3476,14 +3508,14 @@
       </x:c>
       <x:c r="T10" s="10"/>
       <x:c r="U10" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="V10" s="23">
         <x:f>V6/V5</x:f>
         <x:v>0.39579318285136983</x:v>
       </x:c>
       <x:c r="W10" s="10" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="X10" s="10"/>
       <x:c r="Y10" s="10"/>
@@ -3518,14 +3550,14 @@
       <x:c r="S11" s="12"/>
       <x:c r="T11" s="10"/>
       <x:c r="U11" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="V11" s="23">
         <x:f>V7/V5</x:f>
         <x:v>0.4085833469169376</x:v>
       </x:c>
       <x:c r="W11" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="X11" s="10"/>
       <x:c r="Y11" s="10"/>
@@ -3541,7 +3573,7 @@
     <x:row r="12" spans="1:33">
       <x:c r="A12" s="10"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C12" s="7">
         <x:f>SUM(C16:C32)</x:f>
@@ -3600,7 +3632,7 @@
       <x:c r="S13" s="10"/>
       <x:c r="T13" s="10"/>
       <x:c r="U13" s="8" t="s">
-        <x:v>119</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="V13" s="19">
         <x:v>0.5</x:v>
@@ -3622,24 +3654,24 @@
     </x:row>
     <x:row r="14" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A14" s="11"/>
-      <x:c r="B14" s="42" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C14" s="42"/>
-      <x:c r="D14" s="42"/>
-      <x:c r="E14" s="42"/>
+      <x:c r="B14" s="43" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C14" s="43"/>
+      <x:c r="D14" s="43"/>
+      <x:c r="E14" s="43"/>
       <x:c r="F14" s="17" t="s">
-        <x:v>105</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G14" s="17"/>
       <x:c r="H14" s="17"/>
       <x:c r="I14" s="11"/>
-      <x:c r="J14" s="42" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K14" s="42"/>
-      <x:c r="L14" s="42"/>
-      <x:c r="M14" s="42"/>
+      <x:c r="J14" s="43" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K14" s="43"/>
+      <x:c r="L14" s="43"/>
+      <x:c r="M14" s="43"/>
       <x:c r="N14" s="11"/>
       <x:c r="O14" s="11"/>
       <x:c r="P14" s="11"/>
@@ -3648,7 +3680,7 @@
       <x:c r="S14" s="11"/>
       <x:c r="T14" s="11"/>
       <x:c r="U14" s="8" t="s">
-        <x:v>81</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="V14" s="19">
         <x:v>0.5</x:v>
@@ -3671,32 +3703,32 @@
     <x:row r="15" spans="1:33">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>110</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F15" s="17"/>
       <x:c r="G15" s="17"/>
       <x:c r="H15" s="17"/>
       <x:c r="I15" s="10"/>
       <x:c r="J15" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="K15" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L15" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M15" s="8" t="s">
-        <x:v>110</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N15" s="10"/>
       <x:c r="O15" s="10"/>
@@ -3728,10 +3760,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>63</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>94</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="22"/>
@@ -3744,10 +3776,10 @@
         <x:v>89680</x:v>
       </x:c>
       <x:c r="L16" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M16" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N16" s="22"/>
       <x:c r="O16" s="22"/>
@@ -3779,10 +3811,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F17" s="17"/>
       <x:c r="G17" s="17"/>
@@ -3795,10 +3827,10 @@
         <x:v>54630</x:v>
       </x:c>
       <x:c r="L17" s="28" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M17" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N17" s="17"/>
       <x:c r="O17" s="17"/>
@@ -3830,10 +3862,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D18" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F18" s="17"/>
       <x:c r="G18" s="17"/>
@@ -3846,10 +3878,10 @@
         <x:v>22300</x:v>
       </x:c>
       <x:c r="L18" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M18" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N18" s="17"/>
       <x:c r="O18" s="17"/>
@@ -3881,10 +3913,10 @@
         <x:v>1200</x:v>
       </x:c>
       <x:c r="D19" s="16" t="s">
-        <x:v>62</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s">
-        <x:v>94</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F19" s="17"/>
       <x:c r="G19" s="17"/>
@@ -3897,10 +3929,10 @@
         <x:v>77300</x:v>
       </x:c>
       <x:c r="L19" s="28" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M19" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N19" s="17"/>
       <x:c r="O19" s="17"/>
@@ -3932,10 +3964,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F20" s="17"/>
       <x:c r="G20" s="17"/>
@@ -3948,10 +3980,10 @@
         <x:v>7550</x:v>
       </x:c>
       <x:c r="L20" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M20" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N20" s="17"/>
       <x:c r="O20" s="17"/>
@@ -3983,10 +4015,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="D21" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F21" s="17"/>
       <x:c r="G21" s="17"/>
@@ -4000,10 +4032,10 @@
         <x:v>20300</x:v>
       </x:c>
       <x:c r="L21" s="28" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M21" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N21" s="17"/>
       <x:c r="O21" s="17"/>
@@ -4043,10 +4075,10 @@
         <x:v>11900</x:v>
       </x:c>
       <x:c r="L22" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M22" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N22" s="17"/>
       <x:c r="O22" s="17"/>
@@ -4086,10 +4118,10 @@
         <x:v>2750</x:v>
       </x:c>
       <x:c r="L23" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M23" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N23" s="17"/>
       <x:c r="O23" s="17"/>
@@ -4129,10 +4161,10 @@
         <x:v>1600</x:v>
       </x:c>
       <x:c r="L24" s="40" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M24" s="40" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N24" s="17"/>
       <x:c r="O24" s="17"/>
@@ -4172,10 +4204,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="L25" s="40" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M25" s="40" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N25" s="17"/>
       <x:c r="O25" s="17"/>
@@ -4216,10 +4248,10 @@
         <x:v>55560</x:v>
       </x:c>
       <x:c r="L26" s="41" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M26" s="40" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N26" s="17"/>
       <x:c r="O26" s="17"/>
@@ -4259,10 +4291,10 @@
         <x:v>6793</x:v>
       </x:c>
       <x:c r="L27" s="40" t="s">
-        <x:v>74</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M27" s="40" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N27" s="17"/>
       <x:c r="O27" s="17"/>
@@ -4302,10 +4334,10 @@
         <x:v>6250</x:v>
       </x:c>
       <x:c r="L28" s="40" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M28" s="40" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N28" s="17"/>
       <x:c r="O28" s="17"/>
@@ -4345,10 +4377,10 @@
         <x:v>31000</x:v>
       </x:c>
       <x:c r="L29" s="41" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M29" s="40" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N29" s="17"/>
       <x:c r="O29" s="17"/>
@@ -5084,7 +5116,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet6"/>
+  <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:Z11"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
@@ -5136,19 +5168,19 @@
     </x:row>
     <x:row r="2" spans="1:26" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="43" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C2" s="44"/>
-      <x:c r="D2" s="44"/>
-      <x:c r="E2" s="44"/>
-      <x:c r="F2" s="44"/>
-      <x:c r="G2" s="44"/>
-      <x:c r="H2" s="44"/>
-      <x:c r="I2" s="44"/>
-      <x:c r="J2" s="44"/>
-      <x:c r="K2" s="44"/>
-      <x:c r="L2" s="45"/>
+      <x:c r="B2" s="44" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C2" s="45"/>
+      <x:c r="D2" s="45"/>
+      <x:c r="E2" s="45"/>
+      <x:c r="F2" s="45"/>
+      <x:c r="G2" s="45"/>
+      <x:c r="H2" s="45"/>
+      <x:c r="I2" s="45"/>
+      <x:c r="J2" s="45"/>
+      <x:c r="K2" s="45"/>
+      <x:c r="L2" s="46"/>
       <x:c r="M2" s="10"/>
       <x:c r="N2" s="10"/>
       <x:c r="O2" s="10"/>
@@ -5194,28 +5226,28 @@
     </x:row>
     <x:row r="4" spans="1:26" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="42" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C4" s="42"/>
-      <x:c r="D4" s="42"/>
-      <x:c r="E4" s="42"/>
-      <x:c r="F4" s="42"/>
-      <x:c r="G4" s="42"/>
-      <x:c r="H4" s="42"/>
-      <x:c r="I4" s="42"/>
-      <x:c r="J4" s="42"/>
-      <x:c r="K4" s="42"/>
-      <x:c r="L4" s="42"/>
+      <x:c r="B4" s="43" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C4" s="43"/>
+      <x:c r="D4" s="43"/>
+      <x:c r="E4" s="43"/>
+      <x:c r="F4" s="43"/>
+      <x:c r="G4" s="43"/>
+      <x:c r="H4" s="43"/>
+      <x:c r="I4" s="43"/>
+      <x:c r="J4" s="43"/>
+      <x:c r="K4" s="43"/>
+      <x:c r="L4" s="43"/>
       <x:c r="M4" s="11"/>
-      <x:c r="N4" s="46" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="O4" s="46"/>
-      <x:c r="Q4" s="46" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="R4" s="46"/>
+      <x:c r="N4" s="47" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="O4" s="47"/>
+      <x:c r="Q4" s="47" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="R4" s="47"/>
       <x:c r="S4" s="11"/>
       <x:c r="V4" s="11"/>
       <x:c r="W4" s="11"/>
@@ -5225,39 +5257,39 @@
     </x:row>
     <x:row r="5" spans="1:26">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="47" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C5" s="49" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D5" s="50"/>
-      <x:c r="E5" s="49" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="F5" s="50"/>
-      <x:c r="G5" s="49" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H5" s="50"/>
-      <x:c r="I5" s="49" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="J5" s="50"/>
-      <x:c r="K5" s="49" t="s">
+      <x:c r="B5" s="48" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="L5" s="51"/>
+      <x:c r="C5" s="50" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D5" s="51"/>
+      <x:c r="E5" s="50" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F5" s="51"/>
+      <x:c r="G5" s="50" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H5" s="51"/>
+      <x:c r="I5" s="50" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="J5" s="51"/>
+      <x:c r="K5" s="50" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="L5" s="52"/>
       <x:c r="M5" s="10"/>
       <x:c r="N5" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="O5" s="7">
         <x:f>R5+SUM(C8:L8)</x:f>
         <x:v>48800000</x:v>
       </x:c>
       <x:c r="Q5" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="R5" s="7">
         <x:f>'2월(자산)'!O5</x:f>
@@ -5272,32 +5304,32 @@
     </x:row>
     <x:row r="6" spans="1:26">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="59"/>
-      <x:c r="C6" s="53" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D6" s="54"/>
-      <x:c r="E6" s="55" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F6" s="56"/>
-      <x:c r="G6" s="55" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H6" s="56"/>
-      <x:c r="I6" s="53" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="J6" s="54"/>
+      <x:c r="B6" s="60"/>
+      <x:c r="C6" s="54" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D6" s="55"/>
+      <x:c r="E6" s="56" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F6" s="57"/>
+      <x:c r="G6" s="56" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H6" s="57"/>
+      <x:c r="I6" s="54" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J6" s="55"/>
       <x:c r="K6" s="25" t="s">
-        <x:v>68</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="L6" s="25" t="s">
-        <x:v>116</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M6" s="10"/>
       <x:c r="N6" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="O6" s="7">
         <x:f>SUM(C9:L9)</x:f>
@@ -5316,27 +5348,27 @@
     <x:row r="7" spans="1:26">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C7" s="52">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C7" s="53">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D7" s="52"/>
-      <x:c r="E7" s="57">
+      <x:c r="D7" s="53"/>
+      <x:c r="E7" s="58">
         <x:f>SUM('2월(자산)'!E7:F8)</x:f>
-        <x:v>39279849</x:v>
-      </x:c>
-      <x:c r="F7" s="58"/>
-      <x:c r="G7" s="57">
+        <x:v>39179849</x:v>
+      </x:c>
+      <x:c r="F7" s="59"/>
+      <x:c r="G7" s="58">
         <x:f>SUM('2월(자산)'!G7:H8)</x:f>
         <x:v>7000000</x:v>
       </x:c>
-      <x:c r="H7" s="58"/>
-      <x:c r="I7" s="52">
+      <x:c r="H7" s="59"/>
+      <x:c r="I7" s="53">
         <x:f>SUM('2월(자산)'!I7:J8)</x:f>
         <x:v>2800000</x:v>
       </x:c>
-      <x:c r="J7" s="52"/>
+      <x:c r="J7" s="53"/>
       <x:c r="K7" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -5361,24 +5393,24 @@
     <x:row r="8" spans="1:26" ht="17.80000000000000071054">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C8" s="52">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C8" s="53">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D8" s="52"/>
-      <x:c r="E8" s="57">
+      <x:c r="D8" s="53"/>
+      <x:c r="E8" s="58">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F8" s="58"/>
-      <x:c r="G8" s="57">
+      <x:c r="F8" s="59"/>
+      <x:c r="G8" s="58">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H8" s="58"/>
-      <x:c r="I8" s="57">
+      <x:c r="H8" s="59"/>
+      <x:c r="I8" s="58">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J8" s="58"/>
+      <x:c r="J8" s="59"/>
       <x:c r="K8" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -5386,10 +5418,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="10"/>
-      <x:c r="N8" s="46" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="O8" s="46"/>
+      <x:c r="N8" s="47" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="O8" s="47"/>
       <x:c r="P8" s="10"/>
       <x:c r="Q8" s="10"/>
       <x:c r="R8" s="10"/>
@@ -5405,28 +5437,28 @@
     <x:row r="9" spans="1:26">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C9" s="52">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="53">
         <x:f>C8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D9" s="52"/>
-      <x:c r="E9" s="52">
+      <x:c r="D9" s="53"/>
+      <x:c r="E9" s="53">
         <x:f>E8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F9" s="52"/>
-      <x:c r="G9" s="52">
+      <x:c r="F9" s="53"/>
+      <x:c r="G9" s="53">
         <x:f>G8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H9" s="52"/>
-      <x:c r="I9" s="52">
+      <x:c r="H9" s="53"/>
+      <x:c r="I9" s="53">
         <x:f>I8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J9" s="52"/>
+      <x:c r="J9" s="53"/>
       <x:c r="K9" s="7">
         <x:f>K8*0</x:f>
         <x:v>0</x:v>
@@ -5437,7 +5469,7 @@
       </x:c>
       <x:c r="M9" s="10"/>
       <x:c r="N9" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="O9" s="7">
         <x:f>O5-G7</x:f>
@@ -5523,15 +5555,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet1" filterMode="1"/>
-  <x:dimension ref="A1:AG48"/>
+  <x:sheetPr codeName="Sheet3" filterMode="1"/>
+  <x:dimension ref="A1:AG50"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <x:pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <x:selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2:V2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="17.39999999999999857891"/>
+  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="2" max="2" width="22.8984375" bestFit="1" customWidth="1"/>
     <x:col min="3" max="4" width="10.8984375" customWidth="1"/>
@@ -5586,29 +5618,29 @@
     </x:row>
     <x:row r="2" spans="1:33" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="43" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C2" s="44"/>
-      <x:c r="D2" s="44"/>
-      <x:c r="E2" s="44"/>
-      <x:c r="F2" s="44"/>
-      <x:c r="G2" s="44"/>
-      <x:c r="H2" s="44"/>
-      <x:c r="I2" s="44"/>
-      <x:c r="J2" s="44"/>
-      <x:c r="K2" s="44"/>
-      <x:c r="L2" s="44"/>
-      <x:c r="M2" s="44"/>
-      <x:c r="N2" s="44"/>
-      <x:c r="O2" s="44"/>
-      <x:c r="P2" s="44"/>
-      <x:c r="Q2" s="44"/>
-      <x:c r="R2" s="44"/>
-      <x:c r="S2" s="44"/>
-      <x:c r="T2" s="44"/>
-      <x:c r="U2" s="44"/>
-      <x:c r="V2" s="45"/>
+      <x:c r="B2" s="44" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C2" s="45"/>
+      <x:c r="D2" s="45"/>
+      <x:c r="E2" s="45"/>
+      <x:c r="F2" s="45"/>
+      <x:c r="G2" s="45"/>
+      <x:c r="H2" s="45"/>
+      <x:c r="I2" s="45"/>
+      <x:c r="J2" s="45"/>
+      <x:c r="K2" s="45"/>
+      <x:c r="L2" s="45"/>
+      <x:c r="M2" s="45"/>
+      <x:c r="N2" s="45"/>
+      <x:c r="O2" s="45"/>
+      <x:c r="P2" s="45"/>
+      <x:c r="Q2" s="45"/>
+      <x:c r="R2" s="45"/>
+      <x:c r="S2" s="45"/>
+      <x:c r="T2" s="45"/>
+      <x:c r="U2" s="45"/>
+      <x:c r="V2" s="46"/>
       <x:c r="W2" s="10"/>
       <x:c r="X2" s="10"/>
       <x:c r="Y2" s="10"/>
@@ -5656,33 +5688,33 @@
       <x:c r="AF3" s="10"/>
       <x:c r="AG3" s="10"/>
     </x:row>
-    <x:row r="4" spans="1:33" s="9" customFormat="1" ht="19.19999999999999928946">
+    <x:row r="4" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="42" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C4" s="42"/>
-      <x:c r="D4" s="42"/>
-      <x:c r="E4" s="42"/>
-      <x:c r="F4" s="42"/>
-      <x:c r="G4" s="42"/>
-      <x:c r="H4" s="42"/>
-      <x:c r="I4" s="42"/>
-      <x:c r="J4" s="42"/>
-      <x:c r="K4" s="42"/>
-      <x:c r="L4" s="42"/>
-      <x:c r="M4" s="42"/>
-      <x:c r="N4" s="42"/>
-      <x:c r="O4" s="42"/>
-      <x:c r="P4" s="42"/>
-      <x:c r="Q4" s="42"/>
-      <x:c r="R4" s="42"/>
-      <x:c r="S4" s="42"/>
+      <x:c r="B4" s="43" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C4" s="43"/>
+      <x:c r="D4" s="43"/>
+      <x:c r="E4" s="43"/>
+      <x:c r="F4" s="43"/>
+      <x:c r="G4" s="43"/>
+      <x:c r="H4" s="43"/>
+      <x:c r="I4" s="43"/>
+      <x:c r="J4" s="43"/>
+      <x:c r="K4" s="43"/>
+      <x:c r="L4" s="43"/>
+      <x:c r="M4" s="43"/>
+      <x:c r="N4" s="43"/>
+      <x:c r="O4" s="43"/>
+      <x:c r="P4" s="43"/>
+      <x:c r="Q4" s="43"/>
+      <x:c r="R4" s="43"/>
+      <x:c r="S4" s="43"/>
       <x:c r="T4" s="11"/>
-      <x:c r="U4" s="46" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="V4" s="46"/>
+      <x:c r="U4" s="47" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="V4" s="47"/>
       <x:c r="W4" s="11"/>
       <x:c r="X4" s="11"/>
       <x:c r="Y4" s="11"/>
@@ -5697,41 +5729,41 @@
     </x:row>
     <x:row r="5" spans="1:33">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="47" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C5" s="49" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D5" s="50"/>
-      <x:c r="E5" s="49" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F5" s="51"/>
-      <x:c r="G5" s="51"/>
-      <x:c r="H5" s="51"/>
-      <x:c r="I5" s="51"/>
-      <x:c r="J5" s="50"/>
-      <x:c r="K5" s="49" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="L5" s="51"/>
-      <x:c r="M5" s="51"/>
-      <x:c r="N5" s="51"/>
-      <x:c r="O5" s="50"/>
-      <x:c r="P5" s="47" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="Q5" s="49" t="s">
+      <x:c r="B5" s="48" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C5" s="50" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D5" s="51"/>
+      <x:c r="E5" s="50" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F5" s="52"/>
+      <x:c r="G5" s="52"/>
+      <x:c r="H5" s="52"/>
+      <x:c r="I5" s="52"/>
+      <x:c r="J5" s="51"/>
+      <x:c r="K5" s="50" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L5" s="52"/>
+      <x:c r="M5" s="52"/>
+      <x:c r="N5" s="52"/>
+      <x:c r="O5" s="51"/>
+      <x:c r="P5" s="48" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="Q5" s="50" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="R5" s="51"/>
+      <x:c r="S5" s="48" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="R5" s="50"/>
-      <x:c r="S5" s="47" t="s">
-        <x:v>15</x:v>
       </x:c>
       <x:c r="T5" s="10"/>
       <x:c r="U5" s="8" t="s">
-        <x:v>115</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="V5" s="7">
         <x:f>D10</x:f>
@@ -5751,64 +5783,64 @@
     </x:row>
     <x:row r="6" spans="1:33">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="48"/>
+      <x:c r="B6" s="49"/>
       <x:c r="C6" s="8" t="s">
-        <x:v>100</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E6" s="8" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F6" s="8" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G6" s="8" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E6" s="8" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="F6" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G6" s="8" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="H6" s="8" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I6" s="8" t="s">
-        <x:v>94</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J6" s="8" t="s">
-        <x:v>98</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="K6" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="L6" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M6" s="20" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="N6" s="20" t="s">
-        <x:v>3</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O6" s="20" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P6" s="48"/>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="P6" s="49"/>
       <x:c r="Q6" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="R6" s="8" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="S6" s="48"/>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="S6" s="49"/>
       <x:c r="T6" s="10"/>
       <x:c r="U6" s="8" t="s">
-        <x:v>69</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="V6" s="7">
         <x:f>J10+O10+P10</x:f>
-        <x:v>1848493</x:v>
+        <x:v>1932943</x:v>
       </x:c>
       <x:c r="W6" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="X6" s="10"/>
       <x:c r="Y6" s="10"/>
@@ -5824,7 +5856,7 @@
     <x:row r="7" spans="1:33">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C7" s="6">
         <x:v>4650214</x:v>
@@ -5845,7 +5877,7 @@
         <x:v>400000</x:v>
       </x:c>
       <x:c r="I7" s="24" t="s">
-        <x:v>41</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J7" s="6">
         <x:v>100000</x:v>
@@ -5879,7 +5911,7 @@
       <x:c r="S7" s="6"/>
       <x:c r="T7" s="10"/>
       <x:c r="U7" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="V7" s="7">
         <x:f>R10</x:f>
@@ -5900,7 +5932,7 @@
     <x:row r="8" spans="1:33">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C8" s="7">
         <x:v>4650214</x:v>
@@ -5912,23 +5944,23 @@
         <x:v>310189</x:v>
       </x:c>
       <x:c r="F8" s="7">
-        <x:f>+SUMIF($M$16:$M$32,F$6,$K$16:$K$32)</x:f>
+        <x:f>+SUMIF($M$16:$M$34,F$6,$K$16:$K$34)</x:f>
         <x:v>0</x:v>
       </x:c>
       <x:c r="G8" s="7">
-        <x:f>SUMIF($M$16:$M$32,G$6,$K$16:$K$32)</x:f>
-        <x:v>125100</x:v>
+        <x:f>SUMIF($M$16:$M$34,G$6,$K$16:$K$34)</x:f>
+        <x:v>142800</x:v>
       </x:c>
       <x:c r="H8" s="7">
-        <x:f>SUMIF($M$16:$M$32,H$6,$K$16:$K$32)</x:f>
-        <x:v>274983</x:v>
+        <x:f>SUMIF($M$16:$M$34,H$6,$K$16:$K$34)</x:f>
+        <x:v>341733</x:v>
       </x:c>
       <x:c r="I8" s="7">
-        <x:f>SUMIF($M$16:$M$32,I$6,$K$16:$K$32)</x:f>
+        <x:f>SUMIF($M$16:$M$34,I$6,$K$16:$K$34)</x:f>
         <x:v>0</x:v>
       </x:c>
       <x:c r="J8" s="7">
-        <x:f>SUMIF($M$16:$M$32,J$6,$K$16:$K$32)</x:f>
+        <x:f>SUMIF($M$16:$M$34,J$6,$K$16:$K$34)</x:f>
         <x:v>0</x:v>
       </x:c>
       <x:c r="K8" s="6">
@@ -5958,12 +5990,12 @@
         <x:v>100000</x:v>
       </x:c>
       <x:c r="S8" s="7">
-        <x:f>SUMIF($E$16:$E$32,S$5,$C$16:$C$32)+SUMIF($M$16:$M$32,S$5,$K$16:$K$32)</x:f>
+        <x:f>SUMIF($E$16:$E$34,S$5,$C$16:$C$34)+SUMIF($M$16:$M$34,S$5,$K$16:$K$34)</x:f>
         <x:v>0</x:v>
       </x:c>
       <x:c r="T8" s="10"/>
       <x:c r="U8" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="V8" s="7">
         <x:v>200000</x:v>
@@ -5983,7 +6015,7 @@
     <x:row r="9" spans="1:33">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:f t="shared" ref="C9:S9" si="0">C7-C8</x:f>
@@ -6046,14 +6078,14 @@
       </x:c>
       <x:c r="T9" s="10"/>
       <x:c r="U9" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="V9" s="7">
         <x:f>V5-(V6+V7+V8)</x:f>
-        <x:v>701721</x:v>
+        <x:v>617271</x:v>
       </x:c>
       <x:c r="W9" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="X9" s="10"/>
       <x:c r="Y9" s="10"/>
@@ -6081,7 +6113,7 @@
       <x:c r="I10" s="10"/>
       <x:c r="J10" s="18">
         <x:f>SUM(E8:J8)</x:f>
-        <x:v>710272</x:v>
+        <x:v>794722</x:v>
       </x:c>
       <x:c r="K10" s="17"/>
       <x:c r="L10" s="17"/>
@@ -6106,14 +6138,14 @@
       </x:c>
       <x:c r="T10" s="10"/>
       <x:c r="U10" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="V10" s="23">
         <x:f>V6/V5</x:f>
-        <x:v>0.39750708246975303</x:v>
+        <x:v>0.41566753702087689</x:v>
       </x:c>
       <x:c r="W10" s="10" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="X10" s="10"/>
       <x:c r="Y10" s="10"/>
@@ -6148,14 +6180,14 @@
       <x:c r="S11" s="12"/>
       <x:c r="T11" s="10"/>
       <x:c r="U11" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="V11" s="23">
         <x:f>V7/V5</x:f>
         <x:v>0.4085833469169376</x:v>
       </x:c>
       <x:c r="W11" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="X11" s="10"/>
       <x:c r="Y11" s="10"/>
@@ -6171,10 +6203,10 @@
     <x:row r="12" spans="1:33">
       <x:c r="A12" s="10"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C12" s="7">
-        <x:f>SUM(C16:C32)</x:f>
+        <x:f>SUM(C16:C34)</x:f>
         <x:v>68700</x:v>
       </x:c>
       <x:c r="D12" s="18"/>
@@ -6208,7 +6240,7 @@
       <x:c r="AF12" s="10"/>
       <x:c r="AG12" s="10"/>
     </x:row>
-    <x:row r="13" spans="1:33" ht="19.19999999999999928946">
+    <x:row r="13" spans="1:33" ht="17.80000000000000071054">
       <x:c r="A13" s="10"/>
       <x:c r="B13" s="10"/>
       <x:c r="C13" s="10"/>
@@ -6230,7 +6262,7 @@
       <x:c r="S13" s="10"/>
       <x:c r="T13" s="10"/>
       <x:c r="U13" s="8" t="s">
-        <x:v>119</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="V13" s="19">
         <x:v>0.5</x:v>
@@ -6250,26 +6282,26 @@
       <x:c r="AF13" s="10"/>
       <x:c r="AG13" s="10"/>
     </x:row>
-    <x:row r="14" spans="1:33" s="9" customFormat="1" ht="19.19999999999999928946">
+    <x:row r="14" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A14" s="11"/>
-      <x:c r="B14" s="42" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C14" s="42"/>
-      <x:c r="D14" s="42"/>
-      <x:c r="E14" s="42"/>
+      <x:c r="B14" s="43" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C14" s="43"/>
+      <x:c r="D14" s="43"/>
+      <x:c r="E14" s="43"/>
       <x:c r="F14" s="17" t="s">
-        <x:v>105</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G14" s="17"/>
       <x:c r="H14" s="17"/>
       <x:c r="I14" s="11"/>
-      <x:c r="J14" s="42" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K14" s="42"/>
-      <x:c r="L14" s="42"/>
-      <x:c r="M14" s="42"/>
+      <x:c r="J14" s="43" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K14" s="43"/>
+      <x:c r="L14" s="43"/>
+      <x:c r="M14" s="43"/>
       <x:c r="N14" s="11"/>
       <x:c r="O14" s="11"/>
       <x:c r="P14" s="11"/>
@@ -6278,7 +6310,7 @@
       <x:c r="S14" s="11"/>
       <x:c r="T14" s="11"/>
       <x:c r="U14" s="8" t="s">
-        <x:v>81</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="V14" s="19">
         <x:v>0.5</x:v>
@@ -6301,32 +6333,32 @@
     <x:row r="15" spans="1:33">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>110</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F15" s="17"/>
       <x:c r="G15" s="17"/>
       <x:c r="H15" s="17"/>
       <x:c r="I15" s="10"/>
       <x:c r="J15" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="K15" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L15" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M15" s="8" t="s">
-        <x:v>110</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N15" s="10"/>
       <x:c r="O15" s="10"/>
@@ -6358,10 +6390,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>63</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>94</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="22"/>
@@ -6374,10 +6406,10 @@
         <x:v>89680</x:v>
       </x:c>
       <x:c r="L16" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M16" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N16" s="22"/>
       <x:c r="O16" s="22"/>
@@ -6409,10 +6441,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F17" s="17"/>
       <x:c r="G17" s="17"/>
@@ -6425,10 +6457,10 @@
         <x:v>54630</x:v>
       </x:c>
       <x:c r="L17" s="28" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M17" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N17" s="17"/>
       <x:c r="O17" s="17"/>
@@ -6460,10 +6492,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D18" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F18" s="17"/>
       <x:c r="G18" s="17"/>
@@ -6476,10 +6508,10 @@
         <x:v>22300</x:v>
       </x:c>
       <x:c r="L18" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M18" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N18" s="17"/>
       <x:c r="O18" s="17"/>
@@ -6511,10 +6543,10 @@
         <x:v>1200</x:v>
       </x:c>
       <x:c r="D19" s="16" t="s">
-        <x:v>62</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s">
-        <x:v>94</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F19" s="17"/>
       <x:c r="G19" s="17"/>
@@ -6527,10 +6559,10 @@
         <x:v>77300</x:v>
       </x:c>
       <x:c r="L19" s="28" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M19" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N19" s="17"/>
       <x:c r="O19" s="17"/>
@@ -6562,10 +6594,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F20" s="17"/>
       <x:c r="G20" s="17"/>
@@ -6578,10 +6610,10 @@
         <x:v>7550</x:v>
       </x:c>
       <x:c r="L20" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M20" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N20" s="17"/>
       <x:c r="O20" s="17"/>
@@ -6613,10 +6645,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="D21" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F21" s="17"/>
       <x:c r="G21" s="17"/>
@@ -6630,10 +6662,10 @@
         <x:v>20300</x:v>
       </x:c>
       <x:c r="L21" s="28" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M21" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N21" s="17"/>
       <x:c r="O21" s="17"/>
@@ -6673,10 +6705,10 @@
         <x:v>11900</x:v>
       </x:c>
       <x:c r="L22" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M22" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N22" s="17"/>
       <x:c r="O22" s="17"/>
@@ -6716,10 +6748,10 @@
         <x:v>2750</x:v>
       </x:c>
       <x:c r="L23" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M23" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N23" s="17"/>
       <x:c r="O23" s="17"/>
@@ -6759,10 +6791,10 @@
         <x:v>1600</x:v>
       </x:c>
       <x:c r="L24" s="40" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M24" s="40" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N24" s="17"/>
       <x:c r="O24" s="17"/>
@@ -6802,10 +6834,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="L25" s="40" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M25" s="40" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N25" s="17"/>
       <x:c r="O25" s="17"/>
@@ -6828,7 +6860,7 @@
       <x:c r="AF25" s="10"/>
       <x:c r="AG25" s="10"/>
     </x:row>
-    <x:row r="26" spans="1:33" ht="16.39999999999999857891">
+    <x:row r="26" spans="1:33">
       <x:c r="A26" s="10"/>
       <x:c r="B26" s="14"/>
       <x:c r="C26" s="15"/>
@@ -6846,10 +6878,10 @@
         <x:v>55560</x:v>
       </x:c>
       <x:c r="L26" s="41" t="s">
-        <x:v>57</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M26" s="40" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N26" s="17"/>
       <x:c r="O26" s="17"/>
@@ -6889,10 +6921,10 @@
         <x:v>6793</x:v>
       </x:c>
       <x:c r="L27" s="40" t="s">
-        <x:v>74</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M27" s="40" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N27" s="17"/>
       <x:c r="O27" s="17"/>
@@ -6932,10 +6964,10 @@
         <x:v>6250</x:v>
       </x:c>
       <x:c r="L28" s="40" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M28" s="40" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N28" s="17"/>
       <x:c r="O28" s="17"/>
@@ -6958,7 +6990,7 @@
       <x:c r="AF28" s="10"/>
       <x:c r="AG28" s="10"/>
     </x:row>
-    <x:row r="29" spans="1:33" ht="16.39999999999999857891">
+    <x:row r="29" spans="1:33">
       <x:c r="A29" s="10"/>
       <x:c r="B29" s="14"/>
       <x:c r="C29" s="15"/>
@@ -6975,10 +7007,10 @@
         <x:v>31000</x:v>
       </x:c>
       <x:c r="L29" s="41" t="s">
-        <x:v>67</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="M29" s="40" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N29" s="17"/>
       <x:c r="O29" s="17"/>
@@ -7001,7 +7033,7 @@
       <x:c r="AF29" s="10"/>
       <x:c r="AG29" s="10"/>
     </x:row>
-    <x:row r="30" spans="1:33" ht="16.39999999999999857891">
+    <x:row r="30" spans="1:33">
       <x:c r="A30" s="10"/>
       <x:c r="B30" s="14"/>
       <x:c r="C30" s="15"/>
@@ -7011,17 +7043,17 @@
       <x:c r="G30" s="17"/>
       <x:c r="H30" s="17"/>
       <x:c r="I30" s="10"/>
-      <x:c r="J30" s="60">
+      <x:c r="J30" s="42">
         <x:v>45339</x:v>
       </x:c>
       <x:c r="K30" s="31">
         <x:v>7970</x:v>
       </x:c>
       <x:c r="L30" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M30" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N30" s="17"/>
       <x:c r="O30" s="17"/>
@@ -7045,39 +7077,47 @@
       <x:c r="AG30" s="10"/>
     </x:row>
     <x:row r="31" spans="1:33">
-      <x:c r="A31" s="10"/>
-      <x:c r="B31" s="14"/>
-      <x:c r="C31" s="15"/>
-      <x:c r="D31" s="16"/>
-      <x:c r="E31" s="16"/>
-      <x:c r="F31" s="17"/>
-      <x:c r="G31" s="17"/>
-      <x:c r="H31" s="17"/>
-      <x:c r="I31" s="10"/>
-      <x:c r="J31" s="14"/>
-      <x:c r="K31" s="15"/>
-      <x:c r="L31" s="16"/>
-      <x:c r="M31" s="16"/>
-      <x:c r="N31" s="17"/>
-      <x:c r="O31" s="17"/>
-      <x:c r="P31" s="10"/>
-      <x:c r="Q31" s="10"/>
-      <x:c r="R31" s="10"/>
-      <x:c r="S31" s="10"/>
-      <x:c r="T31" s="10"/>
-      <x:c r="U31" s="10"/>
-      <x:c r="V31" s="10"/>
-      <x:c r="W31" s="10"/>
-      <x:c r="X31" s="10"/>
-      <x:c r="Y31" s="10"/>
-      <x:c r="Z31" s="10"/>
-      <x:c r="AA31" s="10"/>
-      <x:c r="AB31" s="10"/>
-      <x:c r="AC31" s="10"/>
-      <x:c r="AD31" s="10"/>
-      <x:c r="AE31" s="10"/>
-      <x:c r="AF31" s="10"/>
-      <x:c r="AG31" s="10"/>
+      <x:c r="A31" s="62"/>
+      <x:c r="B31" s="64"/>
+      <x:c r="C31" s="65"/>
+      <x:c r="D31" s="66"/>
+      <x:c r="E31" s="66"/>
+      <x:c r="F31" s="63"/>
+      <x:c r="G31" s="63"/>
+      <x:c r="H31" s="63"/>
+      <x:c r="I31" s="62"/>
+      <x:c r="J31" s="61">
+        <x:v>45340</x:v>
+      </x:c>
+      <x:c r="K31" s="67">
+        <x:v>33000</x:v>
+      </x:c>
+      <x:c r="L31" s="66" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M31" s="66" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="N31" s="63"/>
+      <x:c r="O31" s="63"/>
+      <x:c r="P31" s="62"/>
+      <x:c r="Q31" s="62"/>
+      <x:c r="R31" s="62"/>
+      <x:c r="S31" s="62"/>
+      <x:c r="T31" s="62"/>
+      <x:c r="U31" s="62"/>
+      <x:c r="V31" s="62"/>
+      <x:c r="W31" s="62"/>
+      <x:c r="X31" s="62"/>
+      <x:c r="Y31" s="62"/>
+      <x:c r="Z31" s="62"/>
+      <x:c r="AA31" s="62"/>
+      <x:c r="AB31" s="62"/>
+      <x:c r="AC31" s="62"/>
+      <x:c r="AD31" s="62"/>
+      <x:c r="AE31" s="62"/>
+      <x:c r="AF31" s="62"/>
+      <x:c r="AG31" s="62"/>
     </x:row>
     <x:row r="32" spans="1:33">
       <x:c r="A32" s="10"/>
@@ -7089,10 +7129,18 @@
       <x:c r="G32" s="17"/>
       <x:c r="H32" s="17"/>
       <x:c r="I32" s="10"/>
-      <x:c r="J32" s="14"/>
-      <x:c r="K32" s="15"/>
-      <x:c r="L32" s="16"/>
-      <x:c r="M32" s="16"/>
+      <x:c r="J32" s="61">
+        <x:v>45340</x:v>
+      </x:c>
+      <x:c r="K32" s="31">
+        <x:v>23750</x:v>
+      </x:c>
+      <x:c r="L32" s="16" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="M32" s="16" t="s">
+        <x:v>121</x:v>
+      </x:c>
       <x:c r="N32" s="17"/>
       <x:c r="O32" s="17"/>
       <x:c r="P32" s="10"/>
@@ -7115,56 +7163,72 @@
       <x:c r="AG32" s="10"/>
     </x:row>
     <x:row r="33" spans="1:33">
-      <x:c r="A33" s="10"/>
-      <x:c r="B33" s="10"/>
-      <x:c r="C33" s="10"/>
-      <x:c r="D33" s="10"/>
-      <x:c r="E33" s="10"/>
-      <x:c r="F33" s="10"/>
-      <x:c r="G33" s="10"/>
-      <x:c r="H33" s="10"/>
-      <x:c r="I33" s="10"/>
-      <x:c r="J33" s="10"/>
-      <x:c r="K33" s="10"/>
-      <x:c r="L33" s="10"/>
-      <x:c r="M33" s="10"/>
-      <x:c r="N33" s="10"/>
-      <x:c r="O33" s="10"/>
-      <x:c r="P33" s="10"/>
-      <x:c r="Q33" s="10"/>
-      <x:c r="R33" s="10"/>
-      <x:c r="S33" s="10"/>
-      <x:c r="T33" s="10"/>
-      <x:c r="U33" s="10"/>
-      <x:c r="V33" s="10"/>
-      <x:c r="W33" s="10"/>
-      <x:c r="X33" s="10"/>
-      <x:c r="Y33" s="10"/>
-      <x:c r="Z33" s="10"/>
-      <x:c r="AA33" s="10"/>
-      <x:c r="AB33" s="10"/>
-      <x:c r="AC33" s="10"/>
-      <x:c r="AD33" s="10"/>
-      <x:c r="AE33" s="10"/>
-      <x:c r="AF33" s="10"/>
-      <x:c r="AG33" s="10"/>
+      <x:c r="A33" s="62"/>
+      <x:c r="B33" s="64"/>
+      <x:c r="C33" s="65"/>
+      <x:c r="D33" s="66"/>
+      <x:c r="E33" s="66"/>
+      <x:c r="F33" s="63"/>
+      <x:c r="G33" s="63"/>
+      <x:c r="H33" s="63"/>
+      <x:c r="I33" s="62"/>
+      <x:c r="J33" s="61">
+        <x:v>45340</x:v>
+      </x:c>
+      <x:c r="K33" s="65">
+        <x:v>17700</x:v>
+      </x:c>
+      <x:c r="L33" s="66" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="M33" s="66" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="N33" s="63"/>
+      <x:c r="O33" s="63"/>
+      <x:c r="P33" s="62"/>
+      <x:c r="Q33" s="62"/>
+      <x:c r="R33" s="62"/>
+      <x:c r="S33" s="62"/>
+      <x:c r="T33" s="62"/>
+      <x:c r="U33" s="62"/>
+      <x:c r="V33" s="62"/>
+      <x:c r="W33" s="62"/>
+      <x:c r="X33" s="62"/>
+      <x:c r="Y33" s="62"/>
+      <x:c r="Z33" s="62"/>
+      <x:c r="AA33" s="62"/>
+      <x:c r="AB33" s="62"/>
+      <x:c r="AC33" s="62"/>
+      <x:c r="AD33" s="62"/>
+      <x:c r="AE33" s="62"/>
+      <x:c r="AF33" s="62"/>
+      <x:c r="AG33" s="62"/>
     </x:row>
     <x:row r="34" spans="1:33">
       <x:c r="A34" s="10"/>
-      <x:c r="B34" s="10"/>
-      <x:c r="C34" s="10"/>
-      <x:c r="D34" s="10"/>
-      <x:c r="E34" s="10"/>
-      <x:c r="F34" s="10"/>
-      <x:c r="G34" s="10"/>
-      <x:c r="H34" s="10"/>
+      <x:c r="B34" s="14"/>
+      <x:c r="C34" s="15"/>
+      <x:c r="D34" s="16"/>
+      <x:c r="E34" s="16"/>
+      <x:c r="F34" s="17"/>
+      <x:c r="G34" s="17"/>
+      <x:c r="H34" s="17"/>
       <x:c r="I34" s="10"/>
-      <x:c r="J34" s="10"/>
-      <x:c r="K34" s="10"/>
-      <x:c r="L34" s="10"/>
-      <x:c r="M34" s="10"/>
-      <x:c r="N34" s="10"/>
-      <x:c r="O34" s="10"/>
+      <x:c r="J34" s="61">
+        <x:v>45340</x:v>
+      </x:c>
+      <x:c r="K34" s="31">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="L34" s="16" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M34" s="16" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="N34" s="17"/>
+      <x:c r="O34" s="17"/>
       <x:c r="P34" s="10"/>
       <x:c r="Q34" s="10"/>
       <x:c r="R34" s="10"/>
@@ -7673,6 +7737,76 @@
       <x:c r="AE48" s="10"/>
       <x:c r="AF48" s="10"/>
       <x:c r="AG48" s="10"/>
+    </x:row>
+    <x:row r="49" spans="1:33">
+      <x:c r="A49" s="10"/>
+      <x:c r="B49" s="10"/>
+      <x:c r="C49" s="10"/>
+      <x:c r="D49" s="10"/>
+      <x:c r="E49" s="10"/>
+      <x:c r="F49" s="10"/>
+      <x:c r="G49" s="10"/>
+      <x:c r="H49" s="10"/>
+      <x:c r="I49" s="10"/>
+      <x:c r="J49" s="10"/>
+      <x:c r="K49" s="10"/>
+      <x:c r="L49" s="10"/>
+      <x:c r="M49" s="10"/>
+      <x:c r="N49" s="10"/>
+      <x:c r="O49" s="10"/>
+      <x:c r="P49" s="10"/>
+      <x:c r="Q49" s="10"/>
+      <x:c r="R49" s="10"/>
+      <x:c r="S49" s="10"/>
+      <x:c r="T49" s="10"/>
+      <x:c r="U49" s="10"/>
+      <x:c r="V49" s="10"/>
+      <x:c r="W49" s="10"/>
+      <x:c r="X49" s="10"/>
+      <x:c r="Y49" s="10"/>
+      <x:c r="Z49" s="10"/>
+      <x:c r="AA49" s="10"/>
+      <x:c r="AB49" s="10"/>
+      <x:c r="AC49" s="10"/>
+      <x:c r="AD49" s="10"/>
+      <x:c r="AE49" s="10"/>
+      <x:c r="AF49" s="10"/>
+      <x:c r="AG49" s="10"/>
+    </x:row>
+    <x:row r="50" spans="1:33">
+      <x:c r="A50" s="10"/>
+      <x:c r="B50" s="10"/>
+      <x:c r="C50" s="10"/>
+      <x:c r="D50" s="10"/>
+      <x:c r="E50" s="10"/>
+      <x:c r="F50" s="10"/>
+      <x:c r="G50" s="10"/>
+      <x:c r="H50" s="10"/>
+      <x:c r="I50" s="10"/>
+      <x:c r="J50" s="10"/>
+      <x:c r="K50" s="10"/>
+      <x:c r="L50" s="10"/>
+      <x:c r="M50" s="10"/>
+      <x:c r="N50" s="10"/>
+      <x:c r="O50" s="10"/>
+      <x:c r="P50" s="10"/>
+      <x:c r="Q50" s="10"/>
+      <x:c r="R50" s="10"/>
+      <x:c r="S50" s="10"/>
+      <x:c r="T50" s="10"/>
+      <x:c r="U50" s="10"/>
+      <x:c r="V50" s="10"/>
+      <x:c r="W50" s="10"/>
+      <x:c r="X50" s="10"/>
+      <x:c r="Y50" s="10"/>
+      <x:c r="Z50" s="10"/>
+      <x:c r="AA50" s="10"/>
+      <x:c r="AB50" s="10"/>
+      <x:c r="AC50" s="10"/>
+      <x:c r="AD50" s="10"/>
+      <x:c r="AE50" s="10"/>
+      <x:c r="AF50" s="10"/>
+      <x:c r="AG50" s="10"/>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="J15:M29"/>
@@ -7723,11 +7857,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet2"/>
+  <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:Z11"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <x:selection activeCell="B2" activeCellId="0" sqref="B2:L2"/>
+    <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <x:selection activeCell="F22" activeCellId="0" sqref="F22:F22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.39999999999999857891"/>
@@ -7775,19 +7909,19 @@
     </x:row>
     <x:row r="2" spans="1:26" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="43" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C2" s="44"/>
-      <x:c r="D2" s="44"/>
-      <x:c r="E2" s="44"/>
-      <x:c r="F2" s="44"/>
-      <x:c r="G2" s="44"/>
-      <x:c r="H2" s="44"/>
-      <x:c r="I2" s="44"/>
-      <x:c r="J2" s="44"/>
-      <x:c r="K2" s="44"/>
-      <x:c r="L2" s="45"/>
+      <x:c r="B2" s="44" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C2" s="45"/>
+      <x:c r="D2" s="45"/>
+      <x:c r="E2" s="45"/>
+      <x:c r="F2" s="45"/>
+      <x:c r="G2" s="45"/>
+      <x:c r="H2" s="45"/>
+      <x:c r="I2" s="45"/>
+      <x:c r="J2" s="45"/>
+      <x:c r="K2" s="45"/>
+      <x:c r="L2" s="46"/>
       <x:c r="M2" s="10"/>
       <x:c r="N2" s="10"/>
       <x:c r="O2" s="10"/>
@@ -7833,28 +7967,28 @@
     </x:row>
     <x:row r="4" spans="1:26" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="42" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C4" s="42"/>
-      <x:c r="D4" s="42"/>
-      <x:c r="E4" s="42"/>
-      <x:c r="F4" s="42"/>
-      <x:c r="G4" s="42"/>
-      <x:c r="H4" s="42"/>
-      <x:c r="I4" s="42"/>
-      <x:c r="J4" s="42"/>
-      <x:c r="K4" s="42"/>
-      <x:c r="L4" s="42"/>
+      <x:c r="B4" s="43" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C4" s="43"/>
+      <x:c r="D4" s="43"/>
+      <x:c r="E4" s="43"/>
+      <x:c r="F4" s="43"/>
+      <x:c r="G4" s="43"/>
+      <x:c r="H4" s="43"/>
+      <x:c r="I4" s="43"/>
+      <x:c r="J4" s="43"/>
+      <x:c r="K4" s="43"/>
+      <x:c r="L4" s="43"/>
       <x:c r="M4" s="11"/>
-      <x:c r="N4" s="46" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="O4" s="46"/>
-      <x:c r="Q4" s="46" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="R4" s="46"/>
+      <x:c r="N4" s="47" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="O4" s="47"/>
+      <x:c r="Q4" s="47" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="R4" s="47"/>
       <x:c r="S4" s="11"/>
       <x:c r="V4" s="11"/>
       <x:c r="W4" s="11"/>
@@ -7864,39 +7998,39 @@
     </x:row>
     <x:row r="5" spans="1:26">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="47" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C5" s="49" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D5" s="50"/>
-      <x:c r="E5" s="49" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="F5" s="50"/>
-      <x:c r="G5" s="49" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H5" s="50"/>
-      <x:c r="I5" s="49" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="J5" s="50"/>
-      <x:c r="K5" s="49" t="s">
+      <x:c r="B5" s="48" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="L5" s="51"/>
+      <x:c r="C5" s="50" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D5" s="51"/>
+      <x:c r="E5" s="50" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F5" s="51"/>
+      <x:c r="G5" s="50" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H5" s="51"/>
+      <x:c r="I5" s="50" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="J5" s="51"/>
+      <x:c r="K5" s="50" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="L5" s="52"/>
       <x:c r="M5" s="10"/>
       <x:c r="N5" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="O5" s="7">
         <x:f>R5+SUM(C8:L8)</x:f>
         <x:v>48800000</x:v>
       </x:c>
       <x:c r="Q5" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="R5" s="7">
         <x:f>'1월(자산)'!O5</x:f>
@@ -7911,32 +8045,32 @@
     </x:row>
     <x:row r="6" spans="1:26">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="59"/>
-      <x:c r="C6" s="53" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D6" s="54"/>
-      <x:c r="E6" s="55" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F6" s="56"/>
-      <x:c r="G6" s="55" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H6" s="56"/>
-      <x:c r="I6" s="53" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="J6" s="54"/>
+      <x:c r="B6" s="60"/>
+      <x:c r="C6" s="54" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D6" s="55"/>
+      <x:c r="E6" s="56" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F6" s="57"/>
+      <x:c r="G6" s="56" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H6" s="57"/>
+      <x:c r="I6" s="54" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J6" s="55"/>
       <x:c r="K6" s="25" t="s">
-        <x:v>68</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="L6" s="25" t="s">
-        <x:v>116</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M6" s="10"/>
       <x:c r="N6" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="O6" s="7">
         <x:f>SUM(C9:L9)</x:f>
@@ -7955,27 +8089,27 @@
     <x:row r="7" spans="1:26">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C7" s="52">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C7" s="53">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D7" s="52"/>
-      <x:c r="E7" s="57">
+      <x:c r="D7" s="53"/>
+      <x:c r="E7" s="58">
         <x:f>SUM('1월(자산)'!E7:F8)</x:f>
-        <x:v>39279849</x:v>
-      </x:c>
-      <x:c r="F7" s="58"/>
-      <x:c r="G7" s="57">
+        <x:v>39179849</x:v>
+      </x:c>
+      <x:c r="F7" s="59"/>
+      <x:c r="G7" s="58">
         <x:f>SUM('1월(자산)'!G7:H8)</x:f>
         <x:v>6900000</x:v>
       </x:c>
-      <x:c r="H7" s="58"/>
-      <x:c r="I7" s="52">
+      <x:c r="H7" s="59"/>
+      <x:c r="I7" s="53">
         <x:f>SUM('1월(자산)'!I7:J8)</x:f>
         <x:v>1000000</x:v>
       </x:c>
-      <x:c r="J7" s="52"/>
+      <x:c r="J7" s="53"/>
       <x:c r="K7" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -8000,24 +8134,24 @@
     <x:row r="8" spans="1:26" ht="17.80000000000000071054">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C8" s="52">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C8" s="53">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D8" s="52"/>
-      <x:c r="E8" s="57">
+      <x:c r="D8" s="53"/>
+      <x:c r="E8" s="58">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F8" s="58"/>
-      <x:c r="G8" s="57">
+      <x:c r="F8" s="59"/>
+      <x:c r="G8" s="58">
         <x:v>100000</x:v>
       </x:c>
-      <x:c r="H8" s="58"/>
-      <x:c r="I8" s="52">
+      <x:c r="H8" s="59"/>
+      <x:c r="I8" s="53">
         <x:v>1800000</x:v>
       </x:c>
-      <x:c r="J8" s="52"/>
+      <x:c r="J8" s="53"/>
       <x:c r="K8" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -8025,10 +8159,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="10"/>
-      <x:c r="N8" s="46" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="O8" s="46"/>
+      <x:c r="N8" s="47" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="O8" s="47"/>
       <x:c r="P8" s="10"/>
       <x:c r="Q8" s="10"/>
       <x:c r="R8" s="10"/>
@@ -8044,28 +8178,28 @@
     <x:row r="9" spans="1:26">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C9" s="52">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="53">
         <x:f>C8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D9" s="52"/>
-      <x:c r="E9" s="52">
+      <x:c r="D9" s="53"/>
+      <x:c r="E9" s="53">
         <x:f>E8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F9" s="52"/>
-      <x:c r="G9" s="52">
+      <x:c r="F9" s="53"/>
+      <x:c r="G9" s="53">
         <x:f>G8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H9" s="52"/>
-      <x:c r="I9" s="52">
+      <x:c r="H9" s="53"/>
+      <x:c r="I9" s="53">
         <x:f>I8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J9" s="52"/>
+      <x:c r="J9" s="53"/>
       <x:c r="K9" s="7">
         <x:f>K8*0</x:f>
         <x:v>0</x:v>
@@ -8076,7 +8210,7 @@
       </x:c>
       <x:c r="M9" s="10"/>
       <x:c r="N9" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="O9" s="7"/>
       <x:c r="P9" s="10"/>
@@ -8159,7 +8293,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet3"/>
+  <x:sheetPr codeName="Sheet5"/>
   <x:dimension ref="A1:AG92"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
@@ -8222,29 +8356,29 @@
     </x:row>
     <x:row r="2" spans="1:33" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="43" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C2" s="44"/>
-      <x:c r="D2" s="44"/>
-      <x:c r="E2" s="44"/>
-      <x:c r="F2" s="44"/>
-      <x:c r="G2" s="44"/>
-      <x:c r="H2" s="44"/>
-      <x:c r="I2" s="44"/>
-      <x:c r="J2" s="44"/>
-      <x:c r="K2" s="44"/>
-      <x:c r="L2" s="44"/>
-      <x:c r="M2" s="44"/>
-      <x:c r="N2" s="44"/>
-      <x:c r="O2" s="44"/>
-      <x:c r="P2" s="44"/>
-      <x:c r="Q2" s="44"/>
-      <x:c r="R2" s="44"/>
-      <x:c r="S2" s="44"/>
-      <x:c r="T2" s="44"/>
-      <x:c r="U2" s="44"/>
-      <x:c r="V2" s="45"/>
+      <x:c r="B2" s="44" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C2" s="45"/>
+      <x:c r="D2" s="45"/>
+      <x:c r="E2" s="45"/>
+      <x:c r="F2" s="45"/>
+      <x:c r="G2" s="45"/>
+      <x:c r="H2" s="45"/>
+      <x:c r="I2" s="45"/>
+      <x:c r="J2" s="45"/>
+      <x:c r="K2" s="45"/>
+      <x:c r="L2" s="45"/>
+      <x:c r="M2" s="45"/>
+      <x:c r="N2" s="45"/>
+      <x:c r="O2" s="45"/>
+      <x:c r="P2" s="45"/>
+      <x:c r="Q2" s="45"/>
+      <x:c r="R2" s="45"/>
+      <x:c r="S2" s="45"/>
+      <x:c r="T2" s="45"/>
+      <x:c r="U2" s="45"/>
+      <x:c r="V2" s="46"/>
       <x:c r="W2" s="10"/>
       <x:c r="X2" s="10"/>
       <x:c r="Y2" s="10"/>
@@ -8294,31 +8428,31 @@
     </x:row>
     <x:row r="4" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="42" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C4" s="42"/>
-      <x:c r="D4" s="42"/>
-      <x:c r="E4" s="42"/>
-      <x:c r="F4" s="42"/>
-      <x:c r="G4" s="42"/>
-      <x:c r="H4" s="42"/>
-      <x:c r="I4" s="42"/>
-      <x:c r="J4" s="42"/>
-      <x:c r="K4" s="42"/>
-      <x:c r="L4" s="42"/>
-      <x:c r="M4" s="42"/>
-      <x:c r="N4" s="42"/>
-      <x:c r="O4" s="42"/>
-      <x:c r="P4" s="42"/>
-      <x:c r="Q4" s="42"/>
-      <x:c r="R4" s="42"/>
-      <x:c r="S4" s="42"/>
+      <x:c r="B4" s="43" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C4" s="43"/>
+      <x:c r="D4" s="43"/>
+      <x:c r="E4" s="43"/>
+      <x:c r="F4" s="43"/>
+      <x:c r="G4" s="43"/>
+      <x:c r="H4" s="43"/>
+      <x:c r="I4" s="43"/>
+      <x:c r="J4" s="43"/>
+      <x:c r="K4" s="43"/>
+      <x:c r="L4" s="43"/>
+      <x:c r="M4" s="43"/>
+      <x:c r="N4" s="43"/>
+      <x:c r="O4" s="43"/>
+      <x:c r="P4" s="43"/>
+      <x:c r="Q4" s="43"/>
+      <x:c r="R4" s="43"/>
+      <x:c r="S4" s="43"/>
       <x:c r="T4" s="11"/>
-      <x:c r="U4" s="46" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="V4" s="46"/>
+      <x:c r="U4" s="47" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="V4" s="47"/>
       <x:c r="W4" s="11"/>
       <x:c r="X4" s="11"/>
       <x:c r="Y4" s="11"/>
@@ -8333,41 +8467,41 @@
     </x:row>
     <x:row r="5" spans="1:33">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="47" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C5" s="49" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D5" s="50"/>
-      <x:c r="E5" s="49" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F5" s="51"/>
-      <x:c r="G5" s="51"/>
-      <x:c r="H5" s="51"/>
-      <x:c r="I5" s="51"/>
-      <x:c r="J5" s="50"/>
-      <x:c r="K5" s="49" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="L5" s="51"/>
-      <x:c r="M5" s="51"/>
-      <x:c r="N5" s="51"/>
-      <x:c r="O5" s="50"/>
-      <x:c r="P5" s="47" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="Q5" s="49" t="s">
+      <x:c r="B5" s="48" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C5" s="50" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D5" s="51"/>
+      <x:c r="E5" s="50" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F5" s="52"/>
+      <x:c r="G5" s="52"/>
+      <x:c r="H5" s="52"/>
+      <x:c r="I5" s="52"/>
+      <x:c r="J5" s="51"/>
+      <x:c r="K5" s="50" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L5" s="52"/>
+      <x:c r="M5" s="52"/>
+      <x:c r="N5" s="52"/>
+      <x:c r="O5" s="51"/>
+      <x:c r="P5" s="48" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="Q5" s="50" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="R5" s="51"/>
+      <x:c r="S5" s="48" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="R5" s="50"/>
-      <x:c r="S5" s="47" t="s">
-        <x:v>15</x:v>
       </x:c>
       <x:c r="T5" s="10"/>
       <x:c r="U5" s="8" t="s">
-        <x:v>115</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="V5" s="7">
         <x:f>D10</x:f>
@@ -8387,64 +8521,64 @@
     </x:row>
     <x:row r="6" spans="1:33">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="48"/>
+      <x:c r="B6" s="49"/>
       <x:c r="C6" s="8" t="s">
-        <x:v>100</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E6" s="8" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F6" s="8" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G6" s="8" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E6" s="8" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="F6" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G6" s="8" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="H6" s="8" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I6" s="8" t="s">
-        <x:v>94</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J6" s="8" t="s">
-        <x:v>98</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="K6" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="L6" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M6" s="20" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="N6" s="20" t="s">
-        <x:v>3</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O6" s="20" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P6" s="48"/>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="P6" s="49"/>
       <x:c r="Q6" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="R6" s="8" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="S6" s="48"/>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="S6" s="49"/>
       <x:c r="T6" s="10"/>
       <x:c r="U6" s="8" t="s">
-        <x:v>69</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="V6" s="7">
         <x:f>J10+O10+P10</x:f>
         <x:v>2861506</x:v>
       </x:c>
       <x:c r="W6" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="X6" s="10"/>
       <x:c r="Y6" s="10"/>
@@ -8460,7 +8594,7 @@
     <x:row r="7" spans="1:33">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C7" s="6">
         <x:v>4000000</x:v>
@@ -8481,7 +8615,7 @@
         <x:v>400000</x:v>
       </x:c>
       <x:c r="I7" s="24" t="s">
-        <x:v>41</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J7" s="6">
         <x:v>100000</x:v>
@@ -8515,7 +8649,7 @@
       <x:c r="S7" s="6"/>
       <x:c r="T7" s="10"/>
       <x:c r="U7" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="V7" s="7">
         <x:f>R10</x:f>
@@ -8536,7 +8670,7 @@
     <x:row r="8" spans="1:33">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C8" s="7">
         <x:f>4129547+34400+298400+100000</x:f>
@@ -8599,7 +8733,7 @@
       </x:c>
       <x:c r="T8" s="10"/>
       <x:c r="U8" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="V8" s="7">
         <x:f>S8</x:f>
@@ -8620,7 +8754,7 @@
     <x:row r="9" spans="1:33">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:f>C8-C7</x:f>
@@ -8689,14 +8823,14 @@
       <x:c r="S9" s="7"/>
       <x:c r="T9" s="10"/>
       <x:c r="U9" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="V9" s="7">
         <x:f>V5-(V6+V7+V8)</x:f>
         <x:v>-59159</x:v>
       </x:c>
       <x:c r="W9" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="X9" s="10"/>
       <x:c r="Y9" s="10"/>
@@ -8749,14 +8883,14 @@
       </x:c>
       <x:c r="T10" s="10"/>
       <x:c r="U10" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="V10" s="23">
         <x:f>V6/V5</x:f>
         <x:v>0.62720042995414427</x:v>
       </x:c>
       <x:c r="W10" s="10" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="X10" s="10"/>
       <x:c r="Y10" s="10"/>
@@ -8791,14 +8925,14 @@
       <x:c r="S11" s="12"/>
       <x:c r="T11" s="10"/>
       <x:c r="U11" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="V11" s="23">
         <x:f>V7/V5</x:f>
         <x:v>0.24110397565112868</x:v>
       </x:c>
       <x:c r="W11" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="X11" s="10"/>
       <x:c r="Y11" s="10"/>
@@ -8814,7 +8948,7 @@
     <x:row r="12" spans="1:33">
       <x:c r="A12" s="10"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C12" s="7">
         <x:f>SUM(C16:C72)</x:f>
@@ -8873,7 +9007,7 @@
       <x:c r="S13" s="10"/>
       <x:c r="T13" s="10"/>
       <x:c r="U13" s="8" t="s">
-        <x:v>119</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="V13" s="19">
         <x:v>0.5</x:v>
@@ -8895,24 +9029,24 @@
     </x:row>
     <x:row r="14" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A14" s="11"/>
-      <x:c r="B14" s="42" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C14" s="42"/>
-      <x:c r="D14" s="42"/>
-      <x:c r="E14" s="42"/>
+      <x:c r="B14" s="43" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C14" s="43"/>
+      <x:c r="D14" s="43"/>
+      <x:c r="E14" s="43"/>
       <x:c r="F14" s="17" t="s">
-        <x:v>105</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G14" s="17"/>
       <x:c r="H14" s="17"/>
       <x:c r="I14" s="11"/>
-      <x:c r="J14" s="42" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K14" s="42"/>
-      <x:c r="L14" s="42"/>
-      <x:c r="M14" s="42"/>
+      <x:c r="J14" s="43" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K14" s="43"/>
+      <x:c r="L14" s="43"/>
+      <x:c r="M14" s="43"/>
       <x:c r="N14" s="11"/>
       <x:c r="O14" s="11"/>
       <x:c r="P14" s="11"/>
@@ -8921,7 +9055,7 @@
       <x:c r="S14" s="11"/>
       <x:c r="T14" s="11"/>
       <x:c r="U14" s="8" t="s">
-        <x:v>81</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="V14" s="19">
         <x:v>0.5</x:v>
@@ -8944,32 +9078,32 @@
     <x:row r="15" spans="1:33">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>110</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F15" s="17"/>
       <x:c r="G15" s="17"/>
       <x:c r="H15" s="17"/>
       <x:c r="I15" s="10"/>
       <x:c r="J15" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="K15" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L15" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M15" s="8" t="s">
-        <x:v>110</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N15" s="10"/>
       <x:c r="O15" s="10"/>
@@ -9001,10 +9135,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="22"/>
@@ -9017,10 +9151,10 @@
         <x:v>22500</x:v>
       </x:c>
       <x:c r="L16" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M16" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N16" s="22"/>
       <x:c r="O16" s="22"/>
@@ -9052,10 +9186,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F17" s="17"/>
       <x:c r="G17" s="17"/>
@@ -9068,10 +9202,10 @@
         <x:v>1500</x:v>
       </x:c>
       <x:c r="L17" s="16" t="s">
-        <x:v>39</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M17" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N17" s="17"/>
       <x:c r="O17" s="17"/>
@@ -9103,10 +9237,10 @@
         <x:v>19920</x:v>
       </x:c>
       <x:c r="D18" s="16" t="s">
-        <x:v>111</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F18" s="17"/>
       <x:c r="G18" s="17"/>
@@ -9119,10 +9253,10 @@
         <x:v>10580</x:v>
       </x:c>
       <x:c r="L18" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M18" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N18" s="17"/>
       <x:c r="O18" s="17"/>
@@ -9154,10 +9288,10 @@
         <x:v>5400</x:v>
       </x:c>
       <x:c r="D19" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F19" s="17"/>
       <x:c r="G19" s="17"/>
@@ -9170,10 +9304,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="L19" s="16" t="s">
-        <x:v>10</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M19" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N19" s="17"/>
       <x:c r="O19" s="17"/>
@@ -9205,10 +9339,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>64</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>94</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F20" s="17"/>
       <x:c r="G20" s="17"/>
@@ -9221,10 +9355,10 @@
         <x:v>6990</x:v>
       </x:c>
       <x:c r="L20" s="16" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M20" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N20" s="17"/>
       <x:c r="O20" s="17"/>
@@ -9256,10 +9390,10 @@
         <x:v>22000</x:v>
       </x:c>
       <x:c r="D21" s="16" t="s">
-        <x:v>37</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s">
-        <x:v>47</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F21" s="17"/>
       <x:c r="G21" s="17"/>
@@ -9272,10 +9406,10 @@
         <x:v>30919</x:v>
       </x:c>
       <x:c r="L21" s="16" t="s">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M21" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N21" s="17"/>
       <x:c r="O21" s="17"/>
@@ -9307,10 +9441,10 @@
         <x:v>23219</x:v>
       </x:c>
       <x:c r="D22" s="28" t="s">
-        <x:v>60</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E22" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F22" s="17"/>
       <x:c r="G22" s="17"/>
@@ -9323,10 +9457,10 @@
         <x:v>82320</x:v>
       </x:c>
       <x:c r="L22" s="16" t="s">
-        <x:v>58</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="M22" s="16" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N22" s="17"/>
       <x:c r="O22" s="17"/>
@@ -9358,10 +9492,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D23" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E23" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F23" s="17"/>
       <x:c r="G23" s="17"/>
@@ -9374,10 +9508,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="L23" s="16" t="s">
-        <x:v>109</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M23" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N23" s="17"/>
       <x:c r="O23" s="17"/>
@@ -9409,10 +9543,10 @@
         <x:v>30900</x:v>
       </x:c>
       <x:c r="D24" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E24" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F24" s="17"/>
       <x:c r="G24" s="17"/>
@@ -9425,10 +9559,10 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="L24" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="M24" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N24" s="17"/>
       <x:c r="O24" s="17"/>
@@ -9460,10 +9594,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D25" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E25" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F25" s="17"/>
       <x:c r="G25" s="17"/>
@@ -9476,10 +9610,10 @@
         <x:v>39535</x:v>
       </x:c>
       <x:c r="L25" s="16" t="s">
-        <x:v>72</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="M25" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N25" s="17"/>
       <x:c r="O25" s="17"/>
@@ -9511,10 +9645,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D26" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E26" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F26" s="17"/>
       <x:c r="G26" s="17"/>
@@ -9527,10 +9661,10 @@
         <x:v>3150</x:v>
       </x:c>
       <x:c r="L26" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M26" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N26" s="17"/>
       <x:c r="O26" s="17"/>
@@ -9562,10 +9696,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D27" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E27" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F27" s="17"/>
       <x:c r="G27" s="17"/>
@@ -9578,10 +9712,10 @@
         <x:v>13500</x:v>
       </x:c>
       <x:c r="L27" s="28" t="s">
-        <x:v>60</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="M27" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N27" s="17"/>
       <x:c r="O27" s="17"/>
@@ -9613,10 +9747,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D28" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E28" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F28" s="17"/>
       <x:c r="G28" s="17"/>
@@ -9629,10 +9763,10 @@
         <x:v>5400</x:v>
       </x:c>
       <x:c r="L28" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M28" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N28" s="29"/>
       <x:c r="O28" s="17"/>
@@ -9664,10 +9798,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D29" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E29" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F29" s="17"/>
       <x:c r="G29" s="17"/>
@@ -9680,10 +9814,10 @@
         <x:v>11500</x:v>
       </x:c>
       <x:c r="L29" s="16" t="s">
-        <x:v>27</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M29" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N29" s="17"/>
       <x:c r="O29" s="17"/>
@@ -9715,10 +9849,10 @@
         <x:v>8910</x:v>
       </x:c>
       <x:c r="D30" s="16" t="s">
-        <x:v>41</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E30" s="16" t="s">
-        <x:v>87</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F30" s="17"/>
       <x:c r="G30" s="17"/>
@@ -9731,10 +9865,10 @@
         <x:v>2980</x:v>
       </x:c>
       <x:c r="L30" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="M30" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N30" s="17"/>
       <x:c r="O30" s="17"/>
@@ -9766,10 +9900,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D31" s="16" t="s">
-        <x:v>64</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E31" s="16" t="s">
-        <x:v>94</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F31" s="17"/>
       <x:c r="G31" s="17"/>
@@ -9782,10 +9916,10 @@
         <x:v>50100</x:v>
       </x:c>
       <x:c r="L31" s="16" t="s">
-        <x:v>114</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="M31" s="16" t="s">
-        <x:v>98</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N31" s="17"/>
       <x:c r="O31" s="17"/>
@@ -9817,10 +9951,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D32" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E32" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F32" s="17"/>
       <x:c r="G32" s="17"/>
@@ -9833,10 +9967,10 @@
         <x:v>62100</x:v>
       </x:c>
       <x:c r="L32" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M32" s="16" t="s">
-        <x:v>98</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N32" s="17"/>
       <x:c r="O32" s="17"/>
@@ -9868,10 +10002,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D33" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E33" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F33" s="17"/>
       <x:c r="G33" s="17"/>
@@ -9884,10 +10018,10 @@
         <x:v>35560</x:v>
       </x:c>
       <x:c r="L33" s="16" t="s">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M33" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N33" s="17"/>
       <x:c r="O33" s="17"/>
@@ -9919,10 +10053,10 @@
         <x:v>2500</x:v>
       </x:c>
       <x:c r="D34" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F34" s="17"/>
       <x:c r="G34" s="17"/>
@@ -9935,10 +10069,10 @@
         <x:v>36000</x:v>
       </x:c>
       <x:c r="L34" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M34" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N34" s="17"/>
       <x:c r="O34" s="17"/>
@@ -9970,10 +10104,10 @@
         <x:v>36860</x:v>
       </x:c>
       <x:c r="D35" s="28" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E35" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F35" s="17"/>
       <x:c r="G35" s="17"/>
@@ -9986,10 +10120,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="L35" s="16" t="s">
-        <x:v>92</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M35" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N35" s="17"/>
       <x:c r="O35" s="17"/>
@@ -10021,10 +10155,10 @@
         <x:v>10980</x:v>
       </x:c>
       <x:c r="D36" s="16" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E36" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F36" s="17"/>
       <x:c r="G36" s="17"/>
@@ -10037,10 +10171,10 @@
         <x:v>6600</x:v>
       </x:c>
       <x:c r="L36" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M36" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N36" s="17"/>
       <x:c r="O36" s="17"/>
@@ -10072,10 +10206,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D37" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E37" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F37" s="17"/>
       <x:c r="G37" s="17"/>
@@ -10088,10 +10222,10 @@
         <x:v>33000</x:v>
       </x:c>
       <x:c r="L37" s="16" t="s">
-        <x:v>8</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M37" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N37" s="17"/>
       <x:c r="O37" s="17"/>
@@ -10123,10 +10257,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D38" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E38" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F38" s="17"/>
       <x:c r="G38" s="17"/>
@@ -10139,10 +10273,10 @@
         <x:v>82000</x:v>
       </x:c>
       <x:c r="L38" s="40" t="s">
-        <x:v>84</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M38" s="40" t="s">
-        <x:v>94</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="N38" s="17"/>
       <x:c r="O38" s="17"/>
@@ -10183,10 +10317,10 @@
         <x:v>11850</x:v>
       </x:c>
       <x:c r="L39" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M39" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N39" s="17"/>
       <x:c r="O39" s="17"/>
@@ -10226,10 +10360,10 @@
         <x:v>27700</x:v>
       </x:c>
       <x:c r="L40" s="28" t="s">
-        <x:v>60</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="M40" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N40" s="17"/>
       <x:c r="O40" s="17"/>
@@ -10269,10 +10403,10 @@
         <x:v>11400</x:v>
       </x:c>
       <x:c r="L41" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M41" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N41" s="17"/>
       <x:c r="O41" s="17"/>
@@ -10312,10 +10446,10 @@
         <x:v>7300</x:v>
       </x:c>
       <x:c r="L42" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M42" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N42" s="17"/>
       <x:c r="O42" s="17"/>
@@ -10355,10 +10489,10 @@
         <x:v>5990</x:v>
       </x:c>
       <x:c r="L43" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M43" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N43" s="17"/>
       <x:c r="O43" s="17"/>
@@ -10398,10 +10532,10 @@
         <x:v>8450</x:v>
       </x:c>
       <x:c r="L44" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M44" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N44" s="17"/>
       <x:c r="O44" s="17"/>
@@ -10441,10 +10575,10 @@
         <x:v>26600</x:v>
       </x:c>
       <x:c r="L45" s="28" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M45" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N45" s="17"/>
       <x:c r="O45" s="17"/>
@@ -10485,10 +10619,10 @@
         <x:v>100200</x:v>
       </x:c>
       <x:c r="L46" s="40" t="s">
-        <x:v>43</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="M46" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N46" s="17"/>
       <x:c r="O46" s="17"/>
@@ -10528,10 +10662,10 @@
         <x:v>40000</x:v>
       </x:c>
       <x:c r="L47" s="16" t="s">
-        <x:v>102</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M47" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N47" s="17"/>
       <x:c r="O47" s="17"/>
@@ -10571,10 +10705,10 @@
         <x:v>26000</x:v>
       </x:c>
       <x:c r="L48" s="28" t="s">
-        <x:v>67</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="M48" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N48" s="17"/>
       <x:c r="O48" s="17"/>
@@ -10614,10 +10748,10 @@
         <x:v>26400</x:v>
       </x:c>
       <x:c r="L49" s="28" t="s">
-        <x:v>80</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M49" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N49" s="17"/>
       <x:c r="O49" s="17"/>
@@ -10657,10 +10791,10 @@
         <x:v>16110</x:v>
       </x:c>
       <x:c r="L50" s="16" t="s">
-        <x:v>11</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="M50" s="16" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N50" s="17"/>
       <x:c r="O50" s="17"/>
@@ -10700,10 +10834,10 @@
         <x:v>17500</x:v>
       </x:c>
       <x:c r="L51" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M51" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N51" s="17"/>
       <x:c r="O51" s="17"/>
@@ -10743,10 +10877,10 @@
         <x:v>6750</x:v>
       </x:c>
       <x:c r="L52" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M52" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N52" s="17"/>
       <x:c r="O52" s="17"/>
@@ -10786,10 +10920,10 @@
         <x:v>62000</x:v>
       </x:c>
       <x:c r="L53" s="40" t="s">
-        <x:v>77</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="M53" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N53" s="17"/>
       <x:c r="O53" s="17"/>
@@ -10829,10 +10963,10 @@
         <x:v>14820</x:v>
       </x:c>
       <x:c r="L54" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M54" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N54" s="17"/>
       <x:c r="O54" s="17"/>
@@ -10872,10 +11006,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="L55" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M55" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N55" s="17"/>
       <x:c r="O55" s="17"/>
@@ -10915,10 +11049,10 @@
         <x:v>16650</x:v>
       </x:c>
       <x:c r="L56" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M56" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N56" s="17"/>
       <x:c r="O56" s="17"/>
@@ -10959,10 +11093,10 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="L57" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M57" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N57" s="17"/>
       <x:c r="O57" s="17"/>
@@ -11002,10 +11136,10 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="L58" s="16" t="s">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M58" s="16" t="s">
-        <x:v>23</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="N58" s="17"/>
       <x:c r="O58" s="17"/>
@@ -11045,10 +11179,10 @@
         <x:v>6950</x:v>
       </x:c>
       <x:c r="L59" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M59" s="16" t="s">
-        <x:v>23</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="N59" s="17"/>
       <x:c r="O59" s="17"/>
@@ -11088,10 +11222,10 @@
         <x:v>21700</x:v>
       </x:c>
       <x:c r="L60" s="28" t="s">
-        <x:v>2</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="M60" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N60" s="17"/>
       <x:c r="O60" s="17"/>
@@ -11131,10 +11265,10 @@
         <x:v>18900</x:v>
       </x:c>
       <x:c r="L61" s="28" t="s">
-        <x:v>71</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M61" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N61" s="17"/>
       <x:c r="O61" s="17"/>
@@ -11174,10 +11308,10 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="L62" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="M62" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N62" s="17"/>
       <x:c r="O62" s="17"/>
@@ -11217,10 +11351,10 @@
         <x:v>4350</x:v>
       </x:c>
       <x:c r="L63" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M63" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N63" s="17"/>
       <x:c r="O63" s="17"/>
@@ -11260,10 +11394,10 @@
         <x:v>26500</x:v>
       </x:c>
       <x:c r="L64" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="M64" s="16" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N64" s="17"/>
       <x:c r="O64" s="17"/>
@@ -11303,10 +11437,10 @@
         <x:v>10900</x:v>
       </x:c>
       <x:c r="L65" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M65" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N65" s="17"/>
       <x:c r="O65" s="17"/>
@@ -11346,10 +11480,10 @@
         <x:v>2985</x:v>
       </x:c>
       <x:c r="L66" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="M66" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N66" s="17"/>
       <x:c r="O66" s="17"/>
@@ -11389,10 +11523,10 @@
         <x:v>104960</x:v>
       </x:c>
       <x:c r="L67" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="M67" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N67" s="17"/>
       <x:c r="O67" s="17"/>
@@ -11432,10 +11566,10 @@
         <x:v>106800</x:v>
       </x:c>
       <x:c r="L68" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="M68" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N68" s="17"/>
       <x:c r="O68" s="17"/>
@@ -11475,10 +11609,10 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="L69" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M69" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N69" s="17"/>
       <x:c r="O69" s="17"/>
@@ -11518,10 +11652,10 @@
         <x:v>21500</x:v>
       </x:c>
       <x:c r="L70" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M70" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N70" s="17"/>
       <x:c r="O70" s="17"/>
@@ -11562,10 +11696,10 @@
         <x:v>26380</x:v>
       </x:c>
       <x:c r="L71" s="32" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M71" s="33" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N71" s="17"/>
       <x:c r="O71" s="17"/>
@@ -11605,10 +11739,10 @@
         <x:v>6250</x:v>
       </x:c>
       <x:c r="L72" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M72" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N72" s="17"/>
       <x:c r="O72" s="17"/>
@@ -11648,10 +11782,10 @@
         <x:v>82360</x:v>
       </x:c>
       <x:c r="L73" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="M73" s="33" t="s">
-        <x:v>41</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N73" s="37"/>
       <x:c r="O73" s="37"/>
@@ -11691,10 +11825,10 @@
         <x:v>13500</x:v>
       </x:c>
       <x:c r="L74" s="33" t="s">
-        <x:v>59</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M74" s="33" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N74" s="37"/>
       <x:c r="O74" s="37"/>
@@ -11734,10 +11868,10 @@
         <x:v>42460</x:v>
       </x:c>
       <x:c r="L75" s="33" t="s">
-        <x:v>72</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="M75" s="33" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N75" s="37"/>
       <x:c r="O75" s="37"/>
@@ -11777,10 +11911,10 @@
         <x:v>6776</x:v>
       </x:c>
       <x:c r="L76" s="33" t="s">
-        <x:v>106</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="M76" s="33" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N76" s="37"/>
       <x:c r="O76" s="37"/>
@@ -11820,10 +11954,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="L77" s="33" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M77" s="33" t="s">
-        <x:v>55</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N77" s="10"/>
       <x:c r="O77" s="10"/>
@@ -11863,10 +11997,10 @@
         <x:v>9150</x:v>
       </x:c>
       <x:c r="L78" s="33" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M78" s="33" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N78" s="10"/>
       <x:c r="O78" s="10"/>
@@ -12427,11 +12561,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet4"/>
+  <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:W15"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <x:selection activeCell="I27" activeCellId="0" sqref="I27:I27"/>
+      <x:selection activeCell="B2" activeCellId="0" sqref="B2:L2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.39999999999999857891"/>
@@ -12473,19 +12607,19 @@
     </x:row>
     <x:row r="2" spans="1:22" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="43" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C2" s="44"/>
-      <x:c r="D2" s="44"/>
-      <x:c r="E2" s="44"/>
-      <x:c r="F2" s="44"/>
-      <x:c r="G2" s="44"/>
-      <x:c r="H2" s="44"/>
-      <x:c r="I2" s="44"/>
-      <x:c r="J2" s="44"/>
-      <x:c r="K2" s="44"/>
-      <x:c r="L2" s="45"/>
+      <x:c r="B2" s="44" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C2" s="45"/>
+      <x:c r="D2" s="45"/>
+      <x:c r="E2" s="45"/>
+      <x:c r="F2" s="45"/>
+      <x:c r="G2" s="45"/>
+      <x:c r="H2" s="45"/>
+      <x:c r="I2" s="45"/>
+      <x:c r="J2" s="45"/>
+      <x:c r="K2" s="45"/>
+      <x:c r="L2" s="46"/>
       <x:c r="M2" s="10"/>
       <x:c r="N2" s="10"/>
       <x:c r="O2" s="10"/>
@@ -12517,60 +12651,60 @@
     </x:row>
     <x:row r="4" spans="1:22" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="42" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C4" s="42"/>
-      <x:c r="D4" s="42"/>
-      <x:c r="E4" s="42"/>
-      <x:c r="F4" s="42"/>
-      <x:c r="G4" s="42"/>
-      <x:c r="H4" s="42"/>
-      <x:c r="I4" s="42"/>
-      <x:c r="J4" s="42"/>
-      <x:c r="K4" s="42"/>
-      <x:c r="L4" s="42"/>
-      <x:c r="N4" s="46" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="O4" s="46"/>
+      <x:c r="B4" s="43" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C4" s="43"/>
+      <x:c r="D4" s="43"/>
+      <x:c r="E4" s="43"/>
+      <x:c r="F4" s="43"/>
+      <x:c r="G4" s="43"/>
+      <x:c r="H4" s="43"/>
+      <x:c r="I4" s="43"/>
+      <x:c r="J4" s="43"/>
+      <x:c r="K4" s="43"/>
+      <x:c r="L4" s="43"/>
+      <x:c r="N4" s="47" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="O4" s="47"/>
       <x:c r="P4" s="11"/>
       <x:c r="Q4" s="11"/>
-      <x:c r="R4" s="46" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="S4" s="46"/>
+      <x:c r="R4" s="47" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="S4" s="47"/>
       <x:c r="T4" s="11"/>
       <x:c r="U4" s="11"/>
       <x:c r="V4" s="11"/>
     </x:row>
     <x:row r="5" spans="1:22">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="47" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C5" s="49" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D5" s="50"/>
-      <x:c r="E5" s="49" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="F5" s="50"/>
-      <x:c r="G5" s="49" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H5" s="50"/>
-      <x:c r="I5" s="49" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="J5" s="50"/>
-      <x:c r="K5" s="49" t="s">
+      <x:c r="B5" s="48" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="L5" s="51"/>
+      <x:c r="C5" s="50" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D5" s="51"/>
+      <x:c r="E5" s="50" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F5" s="51"/>
+      <x:c r="G5" s="50" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H5" s="51"/>
+      <x:c r="I5" s="50" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="J5" s="51"/>
+      <x:c r="K5" s="50" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="L5" s="52"/>
       <x:c r="N5" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="O5" s="7">
         <x:f>SUM(C7:L7)</x:f>
@@ -12579,7 +12713,7 @@
       <x:c r="P5" s="10"/>
       <x:c r="Q5" s="10"/>
       <x:c r="R5" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="S5" s="7">
         <x:v>0</x:v>
@@ -12590,31 +12724,31 @@
     </x:row>
     <x:row r="6" spans="1:22">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="59"/>
-      <x:c r="C6" s="53" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D6" s="54"/>
-      <x:c r="E6" s="55" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F6" s="56"/>
-      <x:c r="G6" s="55" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H6" s="56"/>
-      <x:c r="I6" s="53" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="J6" s="54"/>
+      <x:c r="B6" s="60"/>
+      <x:c r="C6" s="54" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D6" s="55"/>
+      <x:c r="E6" s="56" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F6" s="57"/>
+      <x:c r="G6" s="56" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H6" s="57"/>
+      <x:c r="I6" s="54" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J6" s="55"/>
       <x:c r="K6" s="25" t="s">
-        <x:v>68</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="L6" s="25" t="s">
-        <x:v>116</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="N6" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O6" s="7">
         <x:f>SUM(C9:H9)</x:f>
@@ -12631,22 +12765,22 @@
     <x:row r="7" spans="1:22">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C7" s="52"/>
-      <x:c r="D7" s="52"/>
-      <x:c r="E7" s="52">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C7" s="53"/>
+      <x:c r="D7" s="53"/>
+      <x:c r="E7" s="53">
         <x:v>39000000</x:v>
       </x:c>
-      <x:c r="F7" s="52"/>
-      <x:c r="G7" s="57">
+      <x:c r="F7" s="53"/>
+      <x:c r="G7" s="58">
         <x:v>6900000</x:v>
       </x:c>
-      <x:c r="H7" s="58"/>
-      <x:c r="I7" s="52">
+      <x:c r="H7" s="59"/>
+      <x:c r="I7" s="53">
         <x:v>1000000</x:v>
       </x:c>
-      <x:c r="J7" s="52"/>
+      <x:c r="J7" s="53"/>
       <x:c r="K7" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -12667,22 +12801,22 @@
     <x:row r="8" spans="1:22" ht="17.80000000000000071054">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C8" s="52"/>
-      <x:c r="D8" s="52"/>
-      <x:c r="E8" s="52">
-        <x:v>279849</x:v>
-      </x:c>
-      <x:c r="F8" s="52"/>
-      <x:c r="G8" s="57">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C8" s="53"/>
+      <x:c r="D8" s="53"/>
+      <x:c r="E8" s="53">
+        <x:v>179849</x:v>
+      </x:c>
+      <x:c r="F8" s="53"/>
+      <x:c r="G8" s="58">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H8" s="58"/>
-      <x:c r="I8" s="52">
+      <x:c r="H8" s="59"/>
+      <x:c r="I8" s="53">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J8" s="52"/>
+      <x:c r="J8" s="53"/>
       <x:c r="K8" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -12690,10 +12824,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="10"/>
-      <x:c r="N8" s="46" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="O8" s="46"/>
+      <x:c r="N8" s="47" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="O8" s="47"/>
       <x:c r="P8" s="10"/>
       <x:c r="Q8" s="10"/>
       <x:c r="R8" s="10"/>
@@ -12705,28 +12839,28 @@
     <x:row r="9" spans="1:22">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C9" s="52">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="53">
         <x:f>C8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D9" s="52"/>
-      <x:c r="E9" s="52">
+      <x:c r="D9" s="53"/>
+      <x:c r="E9" s="53">
         <x:f>E8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F9" s="52"/>
-      <x:c r="G9" s="52">
+      <x:c r="F9" s="53"/>
+      <x:c r="G9" s="53">
         <x:f>G8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H9" s="52"/>
-      <x:c r="I9" s="52">
+      <x:c r="H9" s="53"/>
+      <x:c r="I9" s="53">
         <x:f>I8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J9" s="52"/>
+      <x:c r="J9" s="53"/>
       <x:c r="K9" s="7">
         <x:f>K8*0</x:f>
         <x:v>0</x:v>
@@ -12737,7 +12871,7 @@
       </x:c>
       <x:c r="M9" s="10"/>
       <x:c r="N9" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="O9" s="7">
         <x:f>O5-G7</x:f>

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -27,351 +27,351 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="124">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="125">
+  <x:si>
+    <x:t>본죽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전월</x:t>
+  </x:si>
   <x:si>
     <x:t>귀성비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(치킨)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건강검진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생활비(식비)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소득</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커피</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변동수입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노래방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>`</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돈까스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류구입비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뽀미약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주거비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현금사용실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피트니스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비상금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영 이어폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올리브영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해든마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기세</x:t>
   </x:si>
   <x:si>
     <x:t>택시비</x:t>
   </x:si>
   <x:si>
+    <x:t>카드값(전월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축목표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>셍활비(식비)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드값(금월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가용자산</x:t>
+  </x:si>
+  <x:si>
     <x:t>2024년 2월 송민영의 가계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올리브영(치실)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현금 흐름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈모약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주택관리비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>닭가슴살</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점심(데이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통신비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아침</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월 결산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드결제료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잔액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이스크림점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명절선물비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드사용실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설 명절 음식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생활비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교통비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정기예금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(모임)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시가스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김밥천국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청약통장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빨래</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채권</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변동지출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액조정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 3월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이소 및 마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소득계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(데이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출률 = 지출계/소득계*100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출목표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용돈</x:t>
   </x:si>
   <x:si>
     <x:t>수익률</x:t>
   </x:si>
   <x:si>
-    <x:t>현금사용실적</x:t>
+    <x:t>청약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교통후불</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영강습</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 1월 송민영의 가계부</x:t>
   </x:si>
   <x:si>
     <x:t>저축률 = 저축계/소득계*100</x:t>
   </x:si>
   <x:si>
-    <x:t>관리비</x:t>
+    <x:t>다이소</x:t>
   </x:si>
   <x:si>
     <x:t>홈플러스</x:t>
   </x:si>
   <x:si>
-    <x:t>교통후불</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생활비(식비)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뽀미약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁</x:t>
-  </x:si>
-  <x:si>
     <x:t>점심</x:t>
   </x:si>
   <x:si>
-    <x:t>저녁(데이트)</x:t>
+    <x:t>고정지출</x:t>
   </x:si>
   <x:si>
-    <x:t>잔액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돈까스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축</x:t>
+    <x:t>우리은행</x:t>
   </x:si>
   <x:si>
     <x:t>고정수입</x:t>
   </x:si>
   <x:si>
-    <x:t>주택관리비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 1월 송민영의 가계부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고정지출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건강검진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수영 이어폰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 3월 송민영의 자본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이스크림점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드결제료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>커피</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올리브영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현금 흐름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본죽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국민은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통신비</x:t>
-  </x:si>
-  <x:si>
     <x:t>마트(쌀구매)</x:t>
   </x:si>
   <x:si>
-    <x:t>피자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단백질바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소득</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비상금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이소 및 마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주차비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액조정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(모임)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변동수입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노래방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드사용실적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아침</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점심(데이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가슴패치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류구입비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드값(금월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청약통장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시가스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명절선물비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설 명절 음식</x:t>
+    <x:t>미용(커트)</x:t>
   </x:si>
   <x:si>
     <x:t>기타(데이트통장+유투브 구독)</x:t>
   </x:si>
   <x:si>
-    <x:t>계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>커트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABC마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주거비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올리브영(치실)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월 결산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소득계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드값(전월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미용(커트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김밥천국</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출계 = 변동지출 + 고정지출 + 비상금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수영복</x:t>
-  </x:si>
-  <x:si>
-    <x:t>닭가슴살</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가용자산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈모약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변동지출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채권</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빨래</x:t>
-  </x:si>
-  <x:si>
-    <x:t>용돈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피트니스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>`</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교통비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해든마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잔액 = 소득계 - (지출계+저축계+투자계)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수영강습</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출률 = 지출계/소득계*100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>셍활비(식비)</x:t>
-  </x:si>
-  <x:si>
     <x:t>지출률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 1월 송민영의 자본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
   </x:si>
   <x:si>
     <x:t>적금</x:t>
@@ -380,25 +380,28 @@
     <x:t>2024년 2월 송민영의 자본</x:t>
   </x:si>
   <x:si>
-    <x:t>저녁(치킨)</x:t>
+    <x:t>투자</x:t>
   </x:si>
   <x:si>
-    <x:t>우리은행</x:t>
+    <x:t>국민은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단백질바</x:t>
   </x:si>
   <x:si>
     <x:t>피부과</x:t>
   </x:si>
   <x:si>
-    <x:t>정기예금</x:t>
+    <x:t>잔액 = 소득계 - (지출계+저축계+투자계)</x:t>
   </x:si>
   <x:si>
-    <x:t>생활비</x:t>
+    <x:t>지출계 = 변동지출 + 고정지출 + 비상금</x:t>
   </x:si>
   <x:si>
-    <x:t>투자계</x:t>
+    <x:t>2024년 1월 송민영의 자본</x:t>
   </x:si>
   <x:si>
-    <x:t>기타</x:t>
+    <x:t>가슴패치</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -951,7 +954,7 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </x:cellStyleXfs>
-  <x:cellXfs count="68">
+  <x:cellXfs count="74">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1403,6 +1406,87 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="6" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="6" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1635,12 +1719,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
@@ -1651,6 +1729,9 @@
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="41" fontId="0" fillId="6" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2043,6 +2124,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2075,6 +2157,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2105,6 +2188,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2135,6 +2219,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2167,6 +2252,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2201,6 +2287,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2233,6 +2320,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2265,6 +2353,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2295,6 +2384,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2325,6 +2415,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2357,6 +2448,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2391,6 +2483,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2423,6 +2516,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2455,6 +2549,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2485,6 +2580,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2515,6 +2611,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2547,6 +2644,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2581,6 +2679,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2988,29 +3087,29 @@
     </x:row>
     <x:row r="2" spans="1:33" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="44" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
-      <x:c r="G2" s="45"/>
-      <x:c r="H2" s="45"/>
-      <x:c r="I2" s="45"/>
-      <x:c r="J2" s="45"/>
-      <x:c r="K2" s="45"/>
-      <x:c r="L2" s="45"/>
-      <x:c r="M2" s="45"/>
-      <x:c r="N2" s="45"/>
-      <x:c r="O2" s="45"/>
-      <x:c r="P2" s="45"/>
-      <x:c r="Q2" s="45"/>
-      <x:c r="R2" s="45"/>
-      <x:c r="S2" s="45"/>
-      <x:c r="T2" s="45"/>
-      <x:c r="U2" s="45"/>
-      <x:c r="V2" s="46"/>
+      <x:c r="B2" s="51" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
+      <x:c r="G2" s="52"/>
+      <x:c r="H2" s="52"/>
+      <x:c r="I2" s="52"/>
+      <x:c r="J2" s="52"/>
+      <x:c r="K2" s="52"/>
+      <x:c r="L2" s="52"/>
+      <x:c r="M2" s="52"/>
+      <x:c r="N2" s="52"/>
+      <x:c r="O2" s="52"/>
+      <x:c r="P2" s="52"/>
+      <x:c r="Q2" s="52"/>
+      <x:c r="R2" s="52"/>
+      <x:c r="S2" s="52"/>
+      <x:c r="T2" s="52"/>
+      <x:c r="U2" s="52"/>
+      <x:c r="V2" s="53"/>
       <x:c r="W2" s="10"/>
       <x:c r="X2" s="10"/>
       <x:c r="Y2" s="10"/>
@@ -3060,31 +3159,31 @@
     </x:row>
     <x:row r="4" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="43" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C4" s="43"/>
-      <x:c r="D4" s="43"/>
-      <x:c r="E4" s="43"/>
-      <x:c r="F4" s="43"/>
-      <x:c r="G4" s="43"/>
-      <x:c r="H4" s="43"/>
-      <x:c r="I4" s="43"/>
-      <x:c r="J4" s="43"/>
-      <x:c r="K4" s="43"/>
-      <x:c r="L4" s="43"/>
-      <x:c r="M4" s="43"/>
-      <x:c r="N4" s="43"/>
-      <x:c r="O4" s="43"/>
-      <x:c r="P4" s="43"/>
-      <x:c r="Q4" s="43"/>
-      <x:c r="R4" s="43"/>
-      <x:c r="S4" s="43"/>
+      <x:c r="B4" s="50" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C4" s="50"/>
+      <x:c r="D4" s="50"/>
+      <x:c r="E4" s="50"/>
+      <x:c r="F4" s="50"/>
+      <x:c r="G4" s="50"/>
+      <x:c r="H4" s="50"/>
+      <x:c r="I4" s="50"/>
+      <x:c r="J4" s="50"/>
+      <x:c r="K4" s="50"/>
+      <x:c r="L4" s="50"/>
+      <x:c r="M4" s="50"/>
+      <x:c r="N4" s="50"/>
+      <x:c r="O4" s="50"/>
+      <x:c r="P4" s="50"/>
+      <x:c r="Q4" s="50"/>
+      <x:c r="R4" s="50"/>
+      <x:c r="S4" s="50"/>
       <x:c r="T4" s="11"/>
-      <x:c r="U4" s="47" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="V4" s="47"/>
+      <x:c r="U4" s="54" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="V4" s="54"/>
       <x:c r="W4" s="11"/>
       <x:c r="X4" s="11"/>
       <x:c r="Y4" s="11"/>
@@ -3099,41 +3198,41 @@
     </x:row>
     <x:row r="5" spans="1:33">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="48" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C5" s="50" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D5" s="51"/>
-      <x:c r="E5" s="50" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="F5" s="52"/>
-      <x:c r="G5" s="52"/>
-      <x:c r="H5" s="52"/>
-      <x:c r="I5" s="52"/>
-      <x:c r="J5" s="51"/>
-      <x:c r="K5" s="50" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="L5" s="52"/>
-      <x:c r="M5" s="52"/>
-      <x:c r="N5" s="52"/>
-      <x:c r="O5" s="51"/>
-      <x:c r="P5" s="48" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="Q5" s="50" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="R5" s="51"/>
-      <x:c r="S5" s="48" t="s">
-        <x:v>29</x:v>
+      <x:c r="B5" s="55" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C5" s="57" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D5" s="58"/>
+      <x:c r="E5" s="57" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F5" s="59"/>
+      <x:c r="G5" s="59"/>
+      <x:c r="H5" s="59"/>
+      <x:c r="I5" s="59"/>
+      <x:c r="J5" s="58"/>
+      <x:c r="K5" s="57" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="L5" s="59"/>
+      <x:c r="M5" s="59"/>
+      <x:c r="N5" s="59"/>
+      <x:c r="O5" s="58"/>
+      <x:c r="P5" s="55" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="Q5" s="57" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="R5" s="58"/>
+      <x:c r="S5" s="55" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="T5" s="10"/>
       <x:c r="U5" s="8" t="s">
-        <x:v>82</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="V5" s="7">
         <x:f>D10</x:f>
@@ -3153,64 +3252,64 @@
     </x:row>
     <x:row r="6" spans="1:33">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="49"/>
+      <x:c r="B6" s="56"/>
       <x:c r="C6" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F6" s="8" t="s">
-        <x:v>6</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G6" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H6" s="8" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I6" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J6" s="8" t="s">
-        <x:v>63</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K6" s="8" t="s">
-        <x:v>77</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L6" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="M6" s="20" t="s">
-        <x:v>74</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N6" s="20" t="s">
-        <x:v>101</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="O6" s="20" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="P6" s="49"/>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="P6" s="56"/>
       <x:c r="Q6" s="8" t="s">
         <x:v>115</x:v>
       </x:c>
       <x:c r="R6" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="S6" s="49"/>
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="S6" s="56"/>
       <x:c r="T6" s="10"/>
       <x:c r="U6" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="V6" s="7">
         <x:f>J10+O10+P10</x:f>
         <x:v>1840523</x:v>
       </x:c>
       <x:c r="W6" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="X6" s="10"/>
       <x:c r="Y6" s="10"/>
@@ -3226,7 +3325,7 @@
     <x:row r="7" spans="1:33">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C7" s="6">
         <x:v>4650214</x:v>
@@ -3247,7 +3346,7 @@
         <x:v>400000</x:v>
       </x:c>
       <x:c r="I7" s="24" t="s">
-        <x:v>107</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J7" s="6">
         <x:v>100000</x:v>
@@ -3302,7 +3401,7 @@
     <x:row r="8" spans="1:33">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="7">
         <x:v>4650214</x:v>
@@ -3365,7 +3464,7 @@
       </x:c>
       <x:c r="T8" s="10"/>
       <x:c r="U8" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="V8" s="7">
         <x:v>200000</x:v>
@@ -3385,7 +3484,7 @@
     <x:row r="9" spans="1:33">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:f t="shared" ref="C9:S9" si="0">C7-C8</x:f>
@@ -3448,14 +3547,14 @@
       </x:c>
       <x:c r="T9" s="10"/>
       <x:c r="U9" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="V9" s="7">
         <x:f>V5-(V6+V7+V8)</x:f>
         <x:v>709691</x:v>
       </x:c>
       <x:c r="W9" s="13" t="s">
-        <x:v>108</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="X9" s="10"/>
       <x:c r="Y9" s="10"/>
@@ -3508,14 +3607,14 @@
       </x:c>
       <x:c r="T10" s="10"/>
       <x:c r="U10" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="V10" s="23">
         <x:f>V6/V5</x:f>
         <x:v>0.39579318285136983</x:v>
       </x:c>
       <x:c r="W10" s="10" t="s">
-        <x:v>110</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="X10" s="10"/>
       <x:c r="Y10" s="10"/>
@@ -3550,14 +3649,14 @@
       <x:c r="S11" s="12"/>
       <x:c r="T11" s="10"/>
       <x:c r="U11" s="21" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="V11" s="23">
         <x:f>V7/V5</x:f>
         <x:v>0.4085833469169376</x:v>
       </x:c>
       <x:c r="W11" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="X11" s="10"/>
       <x:c r="Y11" s="10"/>
@@ -3573,7 +3672,7 @@
     <x:row r="12" spans="1:33">
       <x:c r="A12" s="10"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>64</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C12" s="7">
         <x:f>SUM(C16:C32)</x:f>
@@ -3632,7 +3731,7 @@
       <x:c r="S13" s="10"/>
       <x:c r="T13" s="10"/>
       <x:c r="U13" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="V13" s="19">
         <x:v>0.5</x:v>
@@ -3654,24 +3753,24 @@
     </x:row>
     <x:row r="14" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A14" s="11"/>
-      <x:c r="B14" s="43" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C14" s="43"/>
-      <x:c r="D14" s="43"/>
-      <x:c r="E14" s="43"/>
+      <x:c r="B14" s="50" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C14" s="50"/>
+      <x:c r="D14" s="50"/>
+      <x:c r="E14" s="50"/>
       <x:c r="F14" s="17" t="s">
-        <x:v>103</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G14" s="17"/>
       <x:c r="H14" s="17"/>
       <x:c r="I14" s="11"/>
-      <x:c r="J14" s="43" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="K14" s="43"/>
-      <x:c r="L14" s="43"/>
-      <x:c r="M14" s="43"/>
+      <x:c r="J14" s="50" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="K14" s="50"/>
+      <x:c r="L14" s="50"/>
+      <x:c r="M14" s="50"/>
       <x:c r="N14" s="11"/>
       <x:c r="O14" s="11"/>
       <x:c r="P14" s="11"/>
@@ -3680,7 +3779,7 @@
       <x:c r="S14" s="11"/>
       <x:c r="T14" s="11"/>
       <x:c r="U14" s="8" t="s">
-        <x:v>106</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="V14" s="19">
         <x:v>0.5</x:v>
@@ -3703,32 +3802,32 @@
     <x:row r="15" spans="1:33">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F15" s="17"/>
       <x:c r="G15" s="17"/>
       <x:c r="H15" s="17"/>
       <x:c r="I15" s="10"/>
       <x:c r="J15" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K15" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="L15" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M15" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N15" s="10"/>
       <x:c r="O15" s="10"/>
@@ -3760,10 +3859,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="22"/>
@@ -3776,10 +3875,10 @@
         <x:v>89680</x:v>
       </x:c>
       <x:c r="L16" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M16" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N16" s="22"/>
       <x:c r="O16" s="22"/>
@@ -3811,10 +3910,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F17" s="17"/>
       <x:c r="G17" s="17"/>
@@ -3830,7 +3929,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M17" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N17" s="17"/>
       <x:c r="O17" s="17"/>
@@ -3862,10 +3961,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D18" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F18" s="17"/>
       <x:c r="G18" s="17"/>
@@ -3878,10 +3977,10 @@
         <x:v>22300</x:v>
       </x:c>
       <x:c r="L18" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M18" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N18" s="17"/>
       <x:c r="O18" s="17"/>
@@ -3913,10 +4012,10 @@
         <x:v>1200</x:v>
       </x:c>
       <x:c r="D19" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F19" s="17"/>
       <x:c r="G19" s="17"/>
@@ -3932,7 +4031,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M19" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N19" s="17"/>
       <x:c r="O19" s="17"/>
@@ -3964,10 +4063,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F20" s="17"/>
       <x:c r="G20" s="17"/>
@@ -3980,10 +4079,10 @@
         <x:v>7550</x:v>
       </x:c>
       <x:c r="L20" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M20" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N20" s="17"/>
       <x:c r="O20" s="17"/>
@@ -4018,7 +4117,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F21" s="17"/>
       <x:c r="G21" s="17"/>
@@ -4035,7 +4134,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M21" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N21" s="17"/>
       <x:c r="O21" s="17"/>
@@ -4075,10 +4174,10 @@
         <x:v>11900</x:v>
       </x:c>
       <x:c r="L22" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M22" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N22" s="17"/>
       <x:c r="O22" s="17"/>
@@ -4118,10 +4217,10 @@
         <x:v>2750</x:v>
       </x:c>
       <x:c r="L23" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M23" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N23" s="17"/>
       <x:c r="O23" s="17"/>
@@ -4161,10 +4260,10 @@
         <x:v>1600</x:v>
       </x:c>
       <x:c r="L24" s="40" t="s">
-        <x:v>59</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="M24" s="40" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N24" s="17"/>
       <x:c r="O24" s="17"/>
@@ -4207,7 +4306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M25" s="40" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N25" s="17"/>
       <x:c r="O25" s="17"/>
@@ -4251,7 +4350,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M26" s="40" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N26" s="17"/>
       <x:c r="O26" s="17"/>
@@ -4291,10 +4390,10 @@
         <x:v>6793</x:v>
       </x:c>
       <x:c r="L27" s="40" t="s">
-        <x:v>24</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M27" s="40" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N27" s="17"/>
       <x:c r="O27" s="17"/>
@@ -4337,7 +4436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M28" s="40" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N28" s="17"/>
       <x:c r="O28" s="17"/>
@@ -4377,10 +4476,10 @@
         <x:v>31000</x:v>
       </x:c>
       <x:c r="L29" s="41" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M29" s="40" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N29" s="17"/>
       <x:c r="O29" s="17"/>
@@ -5168,19 +5267,19 @@
     </x:row>
     <x:row r="2" spans="1:26" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="44" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
-      <x:c r="G2" s="45"/>
-      <x:c r="H2" s="45"/>
-      <x:c r="I2" s="45"/>
-      <x:c r="J2" s="45"/>
-      <x:c r="K2" s="45"/>
-      <x:c r="L2" s="46"/>
+      <x:c r="B2" s="51" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
+      <x:c r="G2" s="52"/>
+      <x:c r="H2" s="52"/>
+      <x:c r="I2" s="52"/>
+      <x:c r="J2" s="52"/>
+      <x:c r="K2" s="52"/>
+      <x:c r="L2" s="53"/>
       <x:c r="M2" s="10"/>
       <x:c r="N2" s="10"/>
       <x:c r="O2" s="10"/>
@@ -5226,28 +5325,28 @@
     </x:row>
     <x:row r="4" spans="1:26" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="43" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C4" s="43"/>
-      <x:c r="D4" s="43"/>
-      <x:c r="E4" s="43"/>
-      <x:c r="F4" s="43"/>
-      <x:c r="G4" s="43"/>
-      <x:c r="H4" s="43"/>
-      <x:c r="I4" s="43"/>
-      <x:c r="J4" s="43"/>
-      <x:c r="K4" s="43"/>
-      <x:c r="L4" s="43"/>
+      <x:c r="B4" s="50" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C4" s="50"/>
+      <x:c r="D4" s="50"/>
+      <x:c r="E4" s="50"/>
+      <x:c r="F4" s="50"/>
+      <x:c r="G4" s="50"/>
+      <x:c r="H4" s="50"/>
+      <x:c r="I4" s="50"/>
+      <x:c r="J4" s="50"/>
+      <x:c r="K4" s="50"/>
+      <x:c r="L4" s="50"/>
       <x:c r="M4" s="11"/>
-      <x:c r="N4" s="47" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="O4" s="47"/>
-      <x:c r="Q4" s="47" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="R4" s="47"/>
+      <x:c r="N4" s="54" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="O4" s="54"/>
+      <x:c r="Q4" s="54" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R4" s="54"/>
       <x:c r="S4" s="11"/>
       <x:c r="V4" s="11"/>
       <x:c r="W4" s="11"/>
@@ -5257,39 +5356,39 @@
     </x:row>
     <x:row r="5" spans="1:26">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="48" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C5" s="50" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D5" s="51"/>
-      <x:c r="E5" s="50" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="F5" s="51"/>
-      <x:c r="G5" s="50" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H5" s="51"/>
-      <x:c r="I5" s="50" t="s">
+      <x:c r="B5" s="55" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C5" s="57" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D5" s="58"/>
+      <x:c r="E5" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F5" s="58"/>
+      <x:c r="G5" s="57" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H5" s="58"/>
+      <x:c r="I5" s="57" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="J5" s="51"/>
-      <x:c r="K5" s="50" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="L5" s="52"/>
+      <x:c r="J5" s="58"/>
+      <x:c r="K5" s="57" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L5" s="59"/>
       <x:c r="M5" s="10"/>
       <x:c r="N5" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O5" s="7">
         <x:f>R5+SUM(C8:L8)</x:f>
         <x:v>48800000</x:v>
       </x:c>
       <x:c r="Q5" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="R5" s="7">
         <x:f>'2월(자산)'!O5</x:f>
@@ -5304,32 +5403,32 @@
     </x:row>
     <x:row r="6" spans="1:26">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="60"/>
-      <x:c r="C6" s="54" t="s">
+      <x:c r="B6" s="67"/>
+      <x:c r="C6" s="61" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D6" s="62"/>
+      <x:c r="E6" s="63" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F6" s="64"/>
+      <x:c r="G6" s="63" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="D6" s="55"/>
-      <x:c r="E6" s="56" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="F6" s="57"/>
-      <x:c r="G6" s="56" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H6" s="57"/>
-      <x:c r="I6" s="54" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="J6" s="55"/>
+      <x:c r="H6" s="64"/>
+      <x:c r="I6" s="61" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J6" s="62"/>
       <x:c r="K6" s="25" t="s">
-        <x:v>65</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="L6" s="25" t="s">
-        <x:v>98</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M6" s="10"/>
       <x:c r="N6" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O6" s="7">
         <x:f>SUM(C9:L9)</x:f>
@@ -5348,27 +5447,27 @@
     <x:row r="7" spans="1:26">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C7" s="53">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C7" s="60">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D7" s="53"/>
-      <x:c r="E7" s="58">
+      <x:c r="D7" s="60"/>
+      <x:c r="E7" s="65">
         <x:f>SUM('2월(자산)'!E7:F8)</x:f>
         <x:v>39179849</x:v>
       </x:c>
-      <x:c r="F7" s="59"/>
-      <x:c r="G7" s="58">
+      <x:c r="F7" s="66"/>
+      <x:c r="G7" s="65">
         <x:f>SUM('2월(자산)'!G7:H8)</x:f>
         <x:v>7000000</x:v>
       </x:c>
-      <x:c r="H7" s="59"/>
-      <x:c r="I7" s="53">
+      <x:c r="H7" s="66"/>
+      <x:c r="I7" s="60">
         <x:f>SUM('2월(자산)'!I7:J8)</x:f>
         <x:v>2800000</x:v>
       </x:c>
-      <x:c r="J7" s="53"/>
+      <x:c r="J7" s="60"/>
       <x:c r="K7" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -5393,24 +5492,24 @@
     <x:row r="8" spans="1:26" ht="17.80000000000000071054">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C8" s="53">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C8" s="60">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D8" s="53"/>
-      <x:c r="E8" s="58">
+      <x:c r="D8" s="60"/>
+      <x:c r="E8" s="65">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F8" s="59"/>
-      <x:c r="G8" s="58">
+      <x:c r="F8" s="66"/>
+      <x:c r="G8" s="65">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H8" s="59"/>
-      <x:c r="I8" s="58">
+      <x:c r="H8" s="66"/>
+      <x:c r="I8" s="65">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J8" s="59"/>
+      <x:c r="J8" s="66"/>
       <x:c r="K8" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -5418,10 +5517,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="10"/>
-      <x:c r="N8" s="47" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="O8" s="47"/>
+      <x:c r="N8" s="54" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="O8" s="54"/>
       <x:c r="P8" s="10"/>
       <x:c r="Q8" s="10"/>
       <x:c r="R8" s="10"/>
@@ -5437,28 +5536,28 @@
     <x:row r="9" spans="1:26">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C9" s="53">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C9" s="60">
         <x:f>C8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D9" s="53"/>
-      <x:c r="E9" s="53">
+      <x:c r="D9" s="60"/>
+      <x:c r="E9" s="60">
         <x:f>E8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F9" s="53"/>
-      <x:c r="G9" s="53">
+      <x:c r="F9" s="60"/>
+      <x:c r="G9" s="60">
         <x:f>G8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H9" s="53"/>
-      <x:c r="I9" s="53">
+      <x:c r="H9" s="60"/>
+      <x:c r="I9" s="60">
         <x:f>I8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J9" s="53"/>
+      <x:c r="J9" s="60"/>
       <x:c r="K9" s="7">
         <x:f>K8*0</x:f>
         <x:v>0</x:v>
@@ -5469,7 +5568,7 @@
       </x:c>
       <x:c r="M9" s="10"/>
       <x:c r="N9" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O9" s="7">
         <x:f>O5-G7</x:f>
@@ -5556,11 +5655,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet3" filterMode="1"/>
-  <x:dimension ref="A1:AG50"/>
+  <x:dimension ref="A1:AG82"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <x:pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
-      <x:selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2:V2"/>
+      <x:pane xSplit="2" ySplit="15" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <x:selection pane="bottomRight" activeCell="H8" activeCellId="0" sqref="H8:H8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.39999999999999857891"/>
@@ -5618,29 +5717,29 @@
     </x:row>
     <x:row r="2" spans="1:33" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="44" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
-      <x:c r="G2" s="45"/>
-      <x:c r="H2" s="45"/>
-      <x:c r="I2" s="45"/>
-      <x:c r="J2" s="45"/>
-      <x:c r="K2" s="45"/>
-      <x:c r="L2" s="45"/>
-      <x:c r="M2" s="45"/>
-      <x:c r="N2" s="45"/>
-      <x:c r="O2" s="45"/>
-      <x:c r="P2" s="45"/>
-      <x:c r="Q2" s="45"/>
-      <x:c r="R2" s="45"/>
-      <x:c r="S2" s="45"/>
-      <x:c r="T2" s="45"/>
-      <x:c r="U2" s="45"/>
-      <x:c r="V2" s="46"/>
+      <x:c r="B2" s="51" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
+      <x:c r="G2" s="52"/>
+      <x:c r="H2" s="52"/>
+      <x:c r="I2" s="52"/>
+      <x:c r="J2" s="52"/>
+      <x:c r="K2" s="52"/>
+      <x:c r="L2" s="52"/>
+      <x:c r="M2" s="52"/>
+      <x:c r="N2" s="52"/>
+      <x:c r="O2" s="52"/>
+      <x:c r="P2" s="52"/>
+      <x:c r="Q2" s="52"/>
+      <x:c r="R2" s="52"/>
+      <x:c r="S2" s="52"/>
+      <x:c r="T2" s="52"/>
+      <x:c r="U2" s="52"/>
+      <x:c r="V2" s="53"/>
       <x:c r="W2" s="10"/>
       <x:c r="X2" s="10"/>
       <x:c r="Y2" s="10"/>
@@ -5690,31 +5789,31 @@
     </x:row>
     <x:row r="4" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="43" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C4" s="43"/>
-      <x:c r="D4" s="43"/>
-      <x:c r="E4" s="43"/>
-      <x:c r="F4" s="43"/>
-      <x:c r="G4" s="43"/>
-      <x:c r="H4" s="43"/>
-      <x:c r="I4" s="43"/>
-      <x:c r="J4" s="43"/>
-      <x:c r="K4" s="43"/>
-      <x:c r="L4" s="43"/>
-      <x:c r="M4" s="43"/>
-      <x:c r="N4" s="43"/>
-      <x:c r="O4" s="43"/>
-      <x:c r="P4" s="43"/>
-      <x:c r="Q4" s="43"/>
-      <x:c r="R4" s="43"/>
-      <x:c r="S4" s="43"/>
+      <x:c r="B4" s="50" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C4" s="50"/>
+      <x:c r="D4" s="50"/>
+      <x:c r="E4" s="50"/>
+      <x:c r="F4" s="50"/>
+      <x:c r="G4" s="50"/>
+      <x:c r="H4" s="50"/>
+      <x:c r="I4" s="50"/>
+      <x:c r="J4" s="50"/>
+      <x:c r="K4" s="50"/>
+      <x:c r="L4" s="50"/>
+      <x:c r="M4" s="50"/>
+      <x:c r="N4" s="50"/>
+      <x:c r="O4" s="50"/>
+      <x:c r="P4" s="50"/>
+      <x:c r="Q4" s="50"/>
+      <x:c r="R4" s="50"/>
+      <x:c r="S4" s="50"/>
       <x:c r="T4" s="11"/>
-      <x:c r="U4" s="47" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="V4" s="47"/>
+      <x:c r="U4" s="54" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="V4" s="54"/>
       <x:c r="W4" s="11"/>
       <x:c r="X4" s="11"/>
       <x:c r="Y4" s="11"/>
@@ -5729,41 +5828,41 @@
     </x:row>
     <x:row r="5" spans="1:33">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="48" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C5" s="50" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D5" s="51"/>
-      <x:c r="E5" s="50" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="F5" s="52"/>
-      <x:c r="G5" s="52"/>
-      <x:c r="H5" s="52"/>
-      <x:c r="I5" s="52"/>
-      <x:c r="J5" s="51"/>
-      <x:c r="K5" s="50" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="L5" s="52"/>
-      <x:c r="M5" s="52"/>
-      <x:c r="N5" s="52"/>
-      <x:c r="O5" s="51"/>
-      <x:c r="P5" s="48" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="Q5" s="50" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="R5" s="51"/>
-      <x:c r="S5" s="48" t="s">
-        <x:v>29</x:v>
+      <x:c r="B5" s="55" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C5" s="57" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D5" s="58"/>
+      <x:c r="E5" s="57" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F5" s="59"/>
+      <x:c r="G5" s="59"/>
+      <x:c r="H5" s="59"/>
+      <x:c r="I5" s="59"/>
+      <x:c r="J5" s="58"/>
+      <x:c r="K5" s="57" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="L5" s="59"/>
+      <x:c r="M5" s="59"/>
+      <x:c r="N5" s="59"/>
+      <x:c r="O5" s="58"/>
+      <x:c r="P5" s="55" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="Q5" s="57" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="R5" s="58"/>
+      <x:c r="S5" s="55" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="T5" s="10"/>
       <x:c r="U5" s="8" t="s">
-        <x:v>82</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="V5" s="7">
         <x:f>D10</x:f>
@@ -5783,64 +5882,64 @@
     </x:row>
     <x:row r="6" spans="1:33">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="49"/>
+      <x:c r="B6" s="56"/>
       <x:c r="C6" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F6" s="8" t="s">
-        <x:v>6</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G6" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H6" s="8" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I6" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J6" s="8" t="s">
-        <x:v>63</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K6" s="8" t="s">
-        <x:v>77</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L6" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="M6" s="20" t="s">
-        <x:v>74</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N6" s="20" t="s">
-        <x:v>101</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="O6" s="20" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="P6" s="49"/>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="P6" s="56"/>
       <x:c r="Q6" s="8" t="s">
         <x:v>115</x:v>
       </x:c>
       <x:c r="R6" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="S6" s="49"/>
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="S6" s="56"/>
       <x:c r="T6" s="10"/>
       <x:c r="U6" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="V6" s="7">
         <x:f>J10+O10+P10</x:f>
-        <x:v>1932943</x:v>
+        <x:v>1955433</x:v>
       </x:c>
       <x:c r="W6" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="X6" s="10"/>
       <x:c r="Y6" s="10"/>
@@ -5856,7 +5955,7 @@
     <x:row r="7" spans="1:33">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C7" s="6">
         <x:v>4650214</x:v>
@@ -5877,7 +5976,7 @@
         <x:v>400000</x:v>
       </x:c>
       <x:c r="I7" s="24" t="s">
-        <x:v>107</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J7" s="6">
         <x:v>100000</x:v>
@@ -5932,7 +6031,7 @@
     <x:row r="8" spans="1:33">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="7">
         <x:v>4650214</x:v>
@@ -5944,23 +6043,23 @@
         <x:v>310189</x:v>
       </x:c>
       <x:c r="F8" s="7">
-        <x:f>+SUMIF($M$16:$M$34,F$6,$K$16:$K$34)</x:f>
+        <x:f>+SUMIF($M$16:$M$66,F$6,$K$16:$K$66)</x:f>
+        <x:v>18090</x:v>
+      </x:c>
+      <x:c r="G8" s="7">
+        <x:f>SUMIF($M$16:$M$66,G$6,$K$16:$K$66)</x:f>
+        <x:v>147200</x:v>
+      </x:c>
+      <x:c r="H8" s="7">
+        <x:f>SUMIF($M$16:$M$66,H$6,$K$16:$K$66)</x:f>
+        <x:v>341733</x:v>
+      </x:c>
+      <x:c r="I8" s="7">
+        <x:f>SUMIF($M$16:$M$66,I$6,$K$16:$K$66)</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G8" s="7">
-        <x:f>SUMIF($M$16:$M$34,G$6,$K$16:$K$34)</x:f>
-        <x:v>142800</x:v>
-      </x:c>
-      <x:c r="H8" s="7">
-        <x:f>SUMIF($M$16:$M$34,H$6,$K$16:$K$34)</x:f>
-        <x:v>341733</x:v>
-      </x:c>
-      <x:c r="I8" s="7">
-        <x:f>SUMIF($M$16:$M$34,I$6,$K$16:$K$34)</x:f>
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="J8" s="7">
-        <x:f>SUMIF($M$16:$M$34,J$6,$K$16:$K$34)</x:f>
+        <x:f>SUMIF($M$16:$M$66,J$6,$K$16:$K$66)</x:f>
         <x:v>0</x:v>
       </x:c>
       <x:c r="K8" s="6">
@@ -5990,12 +6089,12 @@
         <x:v>100000</x:v>
       </x:c>
       <x:c r="S8" s="7">
-        <x:f>SUMIF($E$16:$E$34,S$5,$C$16:$C$34)+SUMIF($M$16:$M$34,S$5,$K$16:$K$34)</x:f>
+        <x:f>SUMIF($E$16:$E$66,S$5,$C$16:$C$66)+SUMIF($M$16:$M$66,S$5,$K$16:$K$66)</x:f>
         <x:v>0</x:v>
       </x:c>
       <x:c r="T8" s="10"/>
       <x:c r="U8" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="V8" s="7">
         <x:v>200000</x:v>
@@ -6015,7 +6114,7 @@
     <x:row r="9" spans="1:33">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:f t="shared" ref="C9:S9" si="0">C7-C8</x:f>
@@ -6078,14 +6177,14 @@
       </x:c>
       <x:c r="T9" s="10"/>
       <x:c r="U9" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="V9" s="7">
         <x:f>V5-(V6+V7+V8)</x:f>
-        <x:v>617271</x:v>
+        <x:v>594781</x:v>
       </x:c>
       <x:c r="W9" s="13" t="s">
-        <x:v>108</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="X9" s="10"/>
       <x:c r="Y9" s="10"/>
@@ -6113,7 +6212,7 @@
       <x:c r="I10" s="10"/>
       <x:c r="J10" s="18">
         <x:f>SUM(E8:J8)</x:f>
-        <x:v>794722</x:v>
+        <x:v>817212</x:v>
       </x:c>
       <x:c r="K10" s="17"/>
       <x:c r="L10" s="17"/>
@@ -6138,14 +6237,14 @@
       </x:c>
       <x:c r="T10" s="10"/>
       <x:c r="U10" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="V10" s="23">
         <x:f>V6/V5</x:f>
-        <x:v>0.41566753702087689</x:v>
+        <x:v>0.42050387358517266</x:v>
       </x:c>
       <x:c r="W10" s="10" t="s">
-        <x:v>110</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="X10" s="10"/>
       <x:c r="Y10" s="10"/>
@@ -6180,14 +6279,14 @@
       <x:c r="S11" s="12"/>
       <x:c r="T11" s="10"/>
       <x:c r="U11" s="21" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="V11" s="23">
         <x:f>V7/V5</x:f>
         <x:v>0.4085833469169376</x:v>
       </x:c>
       <x:c r="W11" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="X11" s="10"/>
       <x:c r="Y11" s="10"/>
@@ -6203,10 +6302,10 @@
     <x:row r="12" spans="1:33">
       <x:c r="A12" s="10"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>64</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C12" s="7">
-        <x:f>SUM(C16:C34)</x:f>
+        <x:f>SUM(C16:C66)</x:f>
         <x:v>68700</x:v>
       </x:c>
       <x:c r="D12" s="18"/>
@@ -6262,7 +6361,7 @@
       <x:c r="S13" s="10"/>
       <x:c r="T13" s="10"/>
       <x:c r="U13" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="V13" s="19">
         <x:v>0.5</x:v>
@@ -6284,24 +6383,24 @@
     </x:row>
     <x:row r="14" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A14" s="11"/>
-      <x:c r="B14" s="43" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C14" s="43"/>
-      <x:c r="D14" s="43"/>
-      <x:c r="E14" s="43"/>
+      <x:c r="B14" s="50" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C14" s="50"/>
+      <x:c r="D14" s="50"/>
+      <x:c r="E14" s="50"/>
       <x:c r="F14" s="17" t="s">
-        <x:v>103</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G14" s="17"/>
       <x:c r="H14" s="17"/>
       <x:c r="I14" s="11"/>
-      <x:c r="J14" s="43" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="K14" s="43"/>
-      <x:c r="L14" s="43"/>
-      <x:c r="M14" s="43"/>
+      <x:c r="J14" s="50" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="K14" s="50"/>
+      <x:c r="L14" s="50"/>
+      <x:c r="M14" s="50"/>
       <x:c r="N14" s="11"/>
       <x:c r="O14" s="11"/>
       <x:c r="P14" s="11"/>
@@ -6310,7 +6409,7 @@
       <x:c r="S14" s="11"/>
       <x:c r="T14" s="11"/>
       <x:c r="U14" s="8" t="s">
-        <x:v>106</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="V14" s="19">
         <x:v>0.5</x:v>
@@ -6333,32 +6432,32 @@
     <x:row r="15" spans="1:33">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F15" s="17"/>
       <x:c r="G15" s="17"/>
       <x:c r="H15" s="17"/>
       <x:c r="I15" s="10"/>
       <x:c r="J15" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K15" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="L15" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M15" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N15" s="10"/>
       <x:c r="O15" s="10"/>
@@ -6390,10 +6489,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="22"/>
@@ -6406,10 +6505,10 @@
         <x:v>89680</x:v>
       </x:c>
       <x:c r="L16" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M16" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N16" s="22"/>
       <x:c r="O16" s="22"/>
@@ -6441,10 +6540,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F17" s="17"/>
       <x:c r="G17" s="17"/>
@@ -6460,7 +6559,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M17" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N17" s="17"/>
       <x:c r="O17" s="17"/>
@@ -6492,10 +6591,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D18" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F18" s="17"/>
       <x:c r="G18" s="17"/>
@@ -6508,10 +6607,10 @@
         <x:v>22300</x:v>
       </x:c>
       <x:c r="L18" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M18" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N18" s="17"/>
       <x:c r="O18" s="17"/>
@@ -6543,10 +6642,10 @@
         <x:v>1200</x:v>
       </x:c>
       <x:c r="D19" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F19" s="17"/>
       <x:c r="G19" s="17"/>
@@ -6562,7 +6661,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M19" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N19" s="17"/>
       <x:c r="O19" s="17"/>
@@ -6594,10 +6693,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F20" s="17"/>
       <x:c r="G20" s="17"/>
@@ -6610,10 +6709,10 @@
         <x:v>7550</x:v>
       </x:c>
       <x:c r="L20" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M20" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N20" s="17"/>
       <x:c r="O20" s="17"/>
@@ -6648,7 +6747,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F21" s="17"/>
       <x:c r="G21" s="17"/>
@@ -6665,7 +6764,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M21" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N21" s="17"/>
       <x:c r="O21" s="17"/>
@@ -6705,10 +6804,10 @@
         <x:v>11900</x:v>
       </x:c>
       <x:c r="L22" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M22" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N22" s="17"/>
       <x:c r="O22" s="17"/>
@@ -6748,10 +6847,10 @@
         <x:v>2750</x:v>
       </x:c>
       <x:c r="L23" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M23" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N23" s="17"/>
       <x:c r="O23" s="17"/>
@@ -6791,10 +6890,10 @@
         <x:v>1600</x:v>
       </x:c>
       <x:c r="L24" s="40" t="s">
-        <x:v>59</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="M24" s="40" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N24" s="17"/>
       <x:c r="O24" s="17"/>
@@ -6837,7 +6936,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M25" s="40" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N25" s="17"/>
       <x:c r="O25" s="17"/>
@@ -6878,10 +6977,10 @@
         <x:v>55560</x:v>
       </x:c>
       <x:c r="L26" s="41" t="s">
-        <x:v>50</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M26" s="40" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N26" s="17"/>
       <x:c r="O26" s="17"/>
@@ -6921,10 +7020,10 @@
         <x:v>6793</x:v>
       </x:c>
       <x:c r="L27" s="40" t="s">
-        <x:v>24</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M27" s="40" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N27" s="17"/>
       <x:c r="O27" s="17"/>
@@ -6967,7 +7066,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M28" s="40" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N28" s="17"/>
       <x:c r="O28" s="17"/>
@@ -7007,10 +7106,10 @@
         <x:v>31000</x:v>
       </x:c>
       <x:c r="L29" s="41" t="s">
-        <x:v>61</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M29" s="40" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N29" s="17"/>
       <x:c r="O29" s="17"/>
@@ -7053,7 +7152,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M30" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N30" s="17"/>
       <x:c r="O30" s="17"/>
@@ -7077,47 +7176,47 @@
       <x:c r="AG30" s="10"/>
     </x:row>
     <x:row r="31" spans="1:33">
-      <x:c r="A31" s="62"/>
-      <x:c r="B31" s="64"/>
-      <x:c r="C31" s="65"/>
-      <x:c r="D31" s="66"/>
-      <x:c r="E31" s="66"/>
-      <x:c r="F31" s="63"/>
-      <x:c r="G31" s="63"/>
-      <x:c r="H31" s="63"/>
-      <x:c r="I31" s="62"/>
-      <x:c r="J31" s="61">
+      <x:c r="A31" s="44"/>
+      <x:c r="B31" s="46"/>
+      <x:c r="C31" s="47"/>
+      <x:c r="D31" s="48"/>
+      <x:c r="E31" s="48"/>
+      <x:c r="F31" s="45"/>
+      <x:c r="G31" s="45"/>
+      <x:c r="H31" s="45"/>
+      <x:c r="I31" s="44"/>
+      <x:c r="J31" s="43">
         <x:v>45340</x:v>
       </x:c>
-      <x:c r="K31" s="67">
+      <x:c r="K31" s="49">
         <x:v>33000</x:v>
       </x:c>
-      <x:c r="L31" s="66" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="M31" s="66" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="N31" s="63"/>
-      <x:c r="O31" s="63"/>
-      <x:c r="P31" s="62"/>
-      <x:c r="Q31" s="62"/>
-      <x:c r="R31" s="62"/>
-      <x:c r="S31" s="62"/>
-      <x:c r="T31" s="62"/>
-      <x:c r="U31" s="62"/>
-      <x:c r="V31" s="62"/>
-      <x:c r="W31" s="62"/>
-      <x:c r="X31" s="62"/>
-      <x:c r="Y31" s="62"/>
-      <x:c r="Z31" s="62"/>
-      <x:c r="AA31" s="62"/>
-      <x:c r="AB31" s="62"/>
-      <x:c r="AC31" s="62"/>
-      <x:c r="AD31" s="62"/>
-      <x:c r="AE31" s="62"/>
-      <x:c r="AF31" s="62"/>
-      <x:c r="AG31" s="62"/>
+      <x:c r="L31" s="48" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="M31" s="48" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="N31" s="45"/>
+      <x:c r="O31" s="45"/>
+      <x:c r="P31" s="44"/>
+      <x:c r="Q31" s="44"/>
+      <x:c r="R31" s="44"/>
+      <x:c r="S31" s="44"/>
+      <x:c r="T31" s="44"/>
+      <x:c r="U31" s="44"/>
+      <x:c r="V31" s="44"/>
+      <x:c r="W31" s="44"/>
+      <x:c r="X31" s="44"/>
+      <x:c r="Y31" s="44"/>
+      <x:c r="Z31" s="44"/>
+      <x:c r="AA31" s="44"/>
+      <x:c r="AB31" s="44"/>
+      <x:c r="AC31" s="44"/>
+      <x:c r="AD31" s="44"/>
+      <x:c r="AE31" s="44"/>
+      <x:c r="AF31" s="44"/>
+      <x:c r="AG31" s="44"/>
     </x:row>
     <x:row r="32" spans="1:33">
       <x:c r="A32" s="10"/>
@@ -7129,17 +7228,17 @@
       <x:c r="G32" s="17"/>
       <x:c r="H32" s="17"/>
       <x:c r="I32" s="10"/>
-      <x:c r="J32" s="61">
+      <x:c r="J32" s="43">
         <x:v>45340</x:v>
       </x:c>
       <x:c r="K32" s="31">
         <x:v>23750</x:v>
       </x:c>
       <x:c r="L32" s="16" t="s">
-        <x:v>61</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M32" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N32" s="17"/>
       <x:c r="O32" s="17"/>
@@ -7163,650 +7262,1786 @@
       <x:c r="AG32" s="10"/>
     </x:row>
     <x:row r="33" spans="1:33">
-      <x:c r="A33" s="62"/>
-      <x:c r="B33" s="64"/>
-      <x:c r="C33" s="65"/>
-      <x:c r="D33" s="66"/>
-      <x:c r="E33" s="66"/>
-      <x:c r="F33" s="63"/>
-      <x:c r="G33" s="63"/>
-      <x:c r="H33" s="63"/>
-      <x:c r="I33" s="62"/>
-      <x:c r="J33" s="61">
+      <x:c r="A33" s="44"/>
+      <x:c r="B33" s="46"/>
+      <x:c r="C33" s="47"/>
+      <x:c r="D33" s="48"/>
+      <x:c r="E33" s="48"/>
+      <x:c r="F33" s="45"/>
+      <x:c r="G33" s="45"/>
+      <x:c r="H33" s="45"/>
+      <x:c r="I33" s="44"/>
+      <x:c r="J33" s="42">
         <x:v>45340</x:v>
       </x:c>
-      <x:c r="K33" s="65">
+      <x:c r="K33" s="47">
         <x:v>17700</x:v>
       </x:c>
-      <x:c r="L33" s="66" t="s">
+      <x:c r="L33" s="48" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="M33" s="48" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N33" s="45"/>
+      <x:c r="O33" s="45"/>
+      <x:c r="P33" s="44"/>
+      <x:c r="Q33" s="44"/>
+      <x:c r="R33" s="44"/>
+      <x:c r="S33" s="44"/>
+      <x:c r="T33" s="44"/>
+      <x:c r="U33" s="44"/>
+      <x:c r="V33" s="44"/>
+      <x:c r="W33" s="44"/>
+      <x:c r="X33" s="44"/>
+      <x:c r="Y33" s="44"/>
+      <x:c r="Z33" s="44"/>
+      <x:c r="AA33" s="44"/>
+      <x:c r="AB33" s="44"/>
+      <x:c r="AC33" s="44"/>
+      <x:c r="AD33" s="44"/>
+      <x:c r="AE33" s="44"/>
+      <x:c r="AF33" s="44"/>
+      <x:c r="AG33" s="44"/>
+    </x:row>
+    <x:row r="34" spans="1:33">
+      <x:c r="A34" s="44"/>
+      <x:c r="B34" s="69"/>
+      <x:c r="C34" s="70"/>
+      <x:c r="D34" s="71"/>
+      <x:c r="E34" s="71"/>
+      <x:c r="F34" s="68"/>
+      <x:c r="G34" s="68"/>
+      <x:c r="H34" s="68"/>
+      <x:c r="I34" s="44"/>
+      <x:c r="J34" s="72">
+        <x:v>45340</x:v>
+      </x:c>
+      <x:c r="K34" s="73">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="L34" s="71" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="M34" s="71" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="N34" s="68"/>
+      <x:c r="O34" s="68"/>
+      <x:c r="P34" s="44"/>
+      <x:c r="Q34" s="44"/>
+      <x:c r="R34" s="44"/>
+      <x:c r="S34" s="44"/>
+      <x:c r="T34" s="44"/>
+      <x:c r="U34" s="44"/>
+      <x:c r="V34" s="44"/>
+      <x:c r="W34" s="44"/>
+      <x:c r="X34" s="44"/>
+      <x:c r="Y34" s="44"/>
+      <x:c r="Z34" s="44"/>
+      <x:c r="AA34" s="44"/>
+      <x:c r="AB34" s="44"/>
+      <x:c r="AC34" s="44"/>
+      <x:c r="AD34" s="44"/>
+      <x:c r="AE34" s="44"/>
+      <x:c r="AF34" s="44"/>
+      <x:c r="AG34" s="44"/>
+    </x:row>
+    <x:row r="35" spans="1:33">
+      <x:c r="A35" s="44"/>
+      <x:c r="B35" s="69"/>
+      <x:c r="C35" s="70"/>
+      <x:c r="D35" s="71"/>
+      <x:c r="E35" s="71"/>
+      <x:c r="F35" s="68"/>
+      <x:c r="G35" s="68"/>
+      <x:c r="H35" s="68"/>
+      <x:c r="I35" s="44"/>
+      <x:c r="J35" s="72">
+        <x:v>45341</x:v>
+      </x:c>
+      <x:c r="K35" s="73">
+        <x:v>4400</x:v>
+      </x:c>
+      <x:c r="L35" s="71" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M35" s="71" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N35" s="68"/>
+      <x:c r="O35" s="68"/>
+      <x:c r="P35" s="44"/>
+      <x:c r="Q35" s="44"/>
+      <x:c r="R35" s="44"/>
+      <x:c r="S35" s="44"/>
+      <x:c r="T35" s="44"/>
+      <x:c r="U35" s="44"/>
+      <x:c r="V35" s="44"/>
+      <x:c r="W35" s="44"/>
+      <x:c r="X35" s="44"/>
+      <x:c r="Y35" s="44"/>
+      <x:c r="Z35" s="44"/>
+      <x:c r="AA35" s="44"/>
+      <x:c r="AB35" s="44"/>
+      <x:c r="AC35" s="44"/>
+      <x:c r="AD35" s="44"/>
+      <x:c r="AE35" s="44"/>
+      <x:c r="AF35" s="44"/>
+      <x:c r="AG35" s="44"/>
+    </x:row>
+    <x:row r="36" spans="1:33">
+      <x:c r="A36" s="44"/>
+      <x:c r="B36" s="69"/>
+      <x:c r="C36" s="70"/>
+      <x:c r="D36" s="71"/>
+      <x:c r="E36" s="71"/>
+      <x:c r="F36" s="68"/>
+      <x:c r="G36" s="68"/>
+      <x:c r="H36" s="68"/>
+      <x:c r="I36" s="44"/>
+      <x:c r="J36" s="72">
+        <x:v>45341</x:v>
+      </x:c>
+      <x:c r="K36" s="73">
+        <x:v>18090</x:v>
+      </x:c>
+      <x:c r="L36" s="71" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="M33" s="66" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="N33" s="63"/>
-      <x:c r="O33" s="63"/>
-      <x:c r="P33" s="62"/>
-      <x:c r="Q33" s="62"/>
-      <x:c r="R33" s="62"/>
-      <x:c r="S33" s="62"/>
-      <x:c r="T33" s="62"/>
-      <x:c r="U33" s="62"/>
-      <x:c r="V33" s="62"/>
-      <x:c r="W33" s="62"/>
-      <x:c r="X33" s="62"/>
-      <x:c r="Y33" s="62"/>
-      <x:c r="Z33" s="62"/>
-      <x:c r="AA33" s="62"/>
-      <x:c r="AB33" s="62"/>
-      <x:c r="AC33" s="62"/>
-      <x:c r="AD33" s="62"/>
-      <x:c r="AE33" s="62"/>
-      <x:c r="AF33" s="62"/>
-      <x:c r="AG33" s="62"/>
-    </x:row>
-    <x:row r="34" spans="1:33">
-      <x:c r="A34" s="10"/>
-      <x:c r="B34" s="14"/>
-      <x:c r="C34" s="15"/>
-      <x:c r="D34" s="16"/>
-      <x:c r="E34" s="16"/>
-      <x:c r="F34" s="17"/>
-      <x:c r="G34" s="17"/>
-      <x:c r="H34" s="17"/>
-      <x:c r="I34" s="10"/>
-      <x:c r="J34" s="61">
-        <x:v>45340</x:v>
-      </x:c>
-      <x:c r="K34" s="31">
-        <x:v>10000</x:v>
-      </x:c>
-      <x:c r="L34" s="16" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="M34" s="16" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="N34" s="17"/>
-      <x:c r="O34" s="17"/>
-      <x:c r="P34" s="10"/>
-      <x:c r="Q34" s="10"/>
-      <x:c r="R34" s="10"/>
-      <x:c r="S34" s="10"/>
-      <x:c r="T34" s="10"/>
-      <x:c r="U34" s="10"/>
-      <x:c r="V34" s="10"/>
-      <x:c r="W34" s="10"/>
-      <x:c r="X34" s="10"/>
-      <x:c r="Y34" s="10"/>
-      <x:c r="Z34" s="10"/>
-      <x:c r="AA34" s="10"/>
-      <x:c r="AB34" s="10"/>
-      <x:c r="AC34" s="10"/>
-      <x:c r="AD34" s="10"/>
-      <x:c r="AE34" s="10"/>
-      <x:c r="AF34" s="10"/>
-      <x:c r="AG34" s="10"/>
-    </x:row>
-    <x:row r="35" spans="1:33">
-      <x:c r="A35" s="10"/>
-      <x:c r="B35" s="10"/>
-      <x:c r="C35" s="10"/>
-      <x:c r="D35" s="10"/>
-      <x:c r="E35" s="10"/>
-      <x:c r="F35" s="10"/>
-      <x:c r="G35" s="10"/>
-      <x:c r="H35" s="10"/>
-      <x:c r="I35" s="10"/>
-      <x:c r="J35" s="10"/>
-      <x:c r="K35" s="10"/>
-      <x:c r="L35" s="10"/>
-      <x:c r="M35" s="10"/>
-      <x:c r="N35" s="10"/>
-      <x:c r="O35" s="10"/>
-      <x:c r="P35" s="10"/>
-      <x:c r="Q35" s="10"/>
-      <x:c r="R35" s="10"/>
-      <x:c r="S35" s="10"/>
-      <x:c r="T35" s="10"/>
-      <x:c r="U35" s="10"/>
-      <x:c r="V35" s="10"/>
-      <x:c r="W35" s="10"/>
-      <x:c r="X35" s="10"/>
-      <x:c r="Y35" s="10"/>
-      <x:c r="Z35" s="10"/>
-      <x:c r="AA35" s="10"/>
-      <x:c r="AB35" s="10"/>
-      <x:c r="AC35" s="10"/>
-      <x:c r="AD35" s="10"/>
-      <x:c r="AE35" s="10"/>
-      <x:c r="AF35" s="10"/>
-      <x:c r="AG35" s="10"/>
-    </x:row>
-    <x:row r="36" spans="1:33">
-      <x:c r="A36" s="10"/>
-      <x:c r="B36" s="10"/>
-      <x:c r="C36" s="10"/>
-      <x:c r="D36" s="10"/>
-      <x:c r="E36" s="10"/>
-      <x:c r="F36" s="10"/>
-      <x:c r="G36" s="10"/>
-      <x:c r="H36" s="10"/>
-      <x:c r="I36" s="10"/>
-      <x:c r="J36" s="10"/>
-      <x:c r="K36" s="10"/>
-      <x:c r="L36" s="10"/>
-      <x:c r="M36" s="10"/>
-      <x:c r="N36" s="10"/>
-      <x:c r="O36" s="10"/>
-      <x:c r="P36" s="10"/>
-      <x:c r="Q36" s="10"/>
-      <x:c r="R36" s="10"/>
-      <x:c r="S36" s="10"/>
-      <x:c r="T36" s="10"/>
-      <x:c r="U36" s="10"/>
-      <x:c r="V36" s="10"/>
-      <x:c r="W36" s="10"/>
-      <x:c r="X36" s="10"/>
-      <x:c r="Y36" s="10"/>
-      <x:c r="Z36" s="10"/>
-      <x:c r="AA36" s="10"/>
-      <x:c r="AB36" s="10"/>
-      <x:c r="AC36" s="10"/>
-      <x:c r="AD36" s="10"/>
-      <x:c r="AE36" s="10"/>
-      <x:c r="AF36" s="10"/>
-      <x:c r="AG36" s="10"/>
+      <x:c r="M36" s="71" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="N36" s="68"/>
+      <x:c r="O36" s="68"/>
+      <x:c r="P36" s="44"/>
+      <x:c r="Q36" s="44"/>
+      <x:c r="R36" s="44"/>
+      <x:c r="S36" s="44"/>
+      <x:c r="T36" s="44"/>
+      <x:c r="U36" s="44"/>
+      <x:c r="V36" s="44"/>
+      <x:c r="W36" s="44"/>
+      <x:c r="X36" s="44"/>
+      <x:c r="Y36" s="44"/>
+      <x:c r="Z36" s="44"/>
+      <x:c r="AA36" s="44"/>
+      <x:c r="AB36" s="44"/>
+      <x:c r="AC36" s="44"/>
+      <x:c r="AD36" s="44"/>
+      <x:c r="AE36" s="44"/>
+      <x:c r="AF36" s="44"/>
+      <x:c r="AG36" s="44"/>
     </x:row>
     <x:row r="37" spans="1:33">
-      <x:c r="A37" s="10"/>
-      <x:c r="B37" s="10"/>
-      <x:c r="C37" s="10"/>
-      <x:c r="D37" s="10"/>
-      <x:c r="E37" s="10"/>
-      <x:c r="F37" s="10"/>
-      <x:c r="G37" s="10"/>
-      <x:c r="H37" s="10"/>
-      <x:c r="I37" s="10"/>
-      <x:c r="J37" s="10"/>
-      <x:c r="K37" s="10"/>
-      <x:c r="L37" s="10"/>
-      <x:c r="M37" s="10"/>
-      <x:c r="N37" s="10"/>
-      <x:c r="O37" s="10"/>
-      <x:c r="P37" s="10"/>
-      <x:c r="Q37" s="10"/>
-      <x:c r="R37" s="10"/>
-      <x:c r="S37" s="10"/>
-      <x:c r="T37" s="10"/>
-      <x:c r="U37" s="10"/>
-      <x:c r="V37" s="10"/>
-      <x:c r="W37" s="10"/>
-      <x:c r="X37" s="10"/>
-      <x:c r="Y37" s="10"/>
-      <x:c r="Z37" s="10"/>
-      <x:c r="AA37" s="10"/>
-      <x:c r="AB37" s="10"/>
-      <x:c r="AC37" s="10"/>
-      <x:c r="AD37" s="10"/>
-      <x:c r="AE37" s="10"/>
-      <x:c r="AF37" s="10"/>
-      <x:c r="AG37" s="10"/>
+      <x:c r="A37" s="44"/>
+      <x:c r="B37" s="69"/>
+      <x:c r="C37" s="70"/>
+      <x:c r="D37" s="71"/>
+      <x:c r="E37" s="71"/>
+      <x:c r="F37" s="68"/>
+      <x:c r="G37" s="68"/>
+      <x:c r="H37" s="68"/>
+      <x:c r="I37" s="44"/>
+      <x:c r="J37" s="72"/>
+      <x:c r="K37" s="73"/>
+      <x:c r="L37" s="71"/>
+      <x:c r="M37" s="71"/>
+      <x:c r="N37" s="68"/>
+      <x:c r="O37" s="68"/>
+      <x:c r="P37" s="44"/>
+      <x:c r="Q37" s="44"/>
+      <x:c r="R37" s="44"/>
+      <x:c r="S37" s="44"/>
+      <x:c r="T37" s="44"/>
+      <x:c r="U37" s="44"/>
+      <x:c r="V37" s="44"/>
+      <x:c r="W37" s="44"/>
+      <x:c r="X37" s="44"/>
+      <x:c r="Y37" s="44"/>
+      <x:c r="Z37" s="44"/>
+      <x:c r="AA37" s="44"/>
+      <x:c r="AB37" s="44"/>
+      <x:c r="AC37" s="44"/>
+      <x:c r="AD37" s="44"/>
+      <x:c r="AE37" s="44"/>
+      <x:c r="AF37" s="44"/>
+      <x:c r="AG37" s="44"/>
     </x:row>
     <x:row r="38" spans="1:33">
-      <x:c r="A38" s="10"/>
-      <x:c r="B38" s="10"/>
-      <x:c r="C38" s="10"/>
-      <x:c r="D38" s="10"/>
-      <x:c r="E38" s="10"/>
-      <x:c r="F38" s="10"/>
-      <x:c r="G38" s="10"/>
-      <x:c r="H38" s="10"/>
-      <x:c r="I38" s="10"/>
-      <x:c r="J38" s="10"/>
-      <x:c r="K38" s="10"/>
-      <x:c r="L38" s="10"/>
-      <x:c r="M38" s="10"/>
-      <x:c r="N38" s="10"/>
-      <x:c r="O38" s="10"/>
-      <x:c r="P38" s="10"/>
-      <x:c r="Q38" s="10"/>
-      <x:c r="R38" s="10"/>
-      <x:c r="S38" s="10"/>
-      <x:c r="T38" s="10"/>
-      <x:c r="U38" s="10"/>
-      <x:c r="V38" s="10"/>
-      <x:c r="W38" s="10"/>
-      <x:c r="X38" s="10"/>
-      <x:c r="Y38" s="10"/>
-      <x:c r="Z38" s="10"/>
-      <x:c r="AA38" s="10"/>
-      <x:c r="AB38" s="10"/>
-      <x:c r="AC38" s="10"/>
-      <x:c r="AD38" s="10"/>
-      <x:c r="AE38" s="10"/>
-      <x:c r="AF38" s="10"/>
-      <x:c r="AG38" s="10"/>
+      <x:c r="A38" s="44"/>
+      <x:c r="B38" s="69"/>
+      <x:c r="C38" s="70"/>
+      <x:c r="D38" s="71"/>
+      <x:c r="E38" s="71"/>
+      <x:c r="F38" s="68"/>
+      <x:c r="G38" s="68"/>
+      <x:c r="H38" s="68"/>
+      <x:c r="I38" s="44"/>
+      <x:c r="J38" s="72"/>
+      <x:c r="K38" s="73"/>
+      <x:c r="L38" s="71"/>
+      <x:c r="M38" s="71"/>
+      <x:c r="N38" s="68"/>
+      <x:c r="O38" s="68"/>
+      <x:c r="P38" s="44"/>
+      <x:c r="Q38" s="44"/>
+      <x:c r="R38" s="44"/>
+      <x:c r="S38" s="44"/>
+      <x:c r="T38" s="44"/>
+      <x:c r="U38" s="44"/>
+      <x:c r="V38" s="44"/>
+      <x:c r="W38" s="44"/>
+      <x:c r="X38" s="44"/>
+      <x:c r="Y38" s="44"/>
+      <x:c r="Z38" s="44"/>
+      <x:c r="AA38" s="44"/>
+      <x:c r="AB38" s="44"/>
+      <x:c r="AC38" s="44"/>
+      <x:c r="AD38" s="44"/>
+      <x:c r="AE38" s="44"/>
+      <x:c r="AF38" s="44"/>
+      <x:c r="AG38" s="44"/>
     </x:row>
     <x:row r="39" spans="1:33">
-      <x:c r="A39" s="10"/>
-      <x:c r="B39" s="10"/>
-      <x:c r="C39" s="10"/>
-      <x:c r="D39" s="10"/>
-      <x:c r="E39" s="10"/>
-      <x:c r="F39" s="10"/>
-      <x:c r="G39" s="10"/>
-      <x:c r="H39" s="10"/>
-      <x:c r="I39" s="10"/>
-      <x:c r="J39" s="10"/>
-      <x:c r="K39" s="10"/>
-      <x:c r="L39" s="10"/>
-      <x:c r="M39" s="10"/>
-      <x:c r="N39" s="10"/>
-      <x:c r="O39" s="10"/>
-      <x:c r="P39" s="10"/>
-      <x:c r="Q39" s="10"/>
-      <x:c r="R39" s="10"/>
-      <x:c r="S39" s="10"/>
-      <x:c r="T39" s="10"/>
-      <x:c r="U39" s="10"/>
-      <x:c r="V39" s="10"/>
-      <x:c r="W39" s="10"/>
-      <x:c r="X39" s="10"/>
-      <x:c r="Y39" s="10"/>
-      <x:c r="Z39" s="10"/>
-      <x:c r="AA39" s="10"/>
-      <x:c r="AB39" s="10"/>
-      <x:c r="AC39" s="10"/>
-      <x:c r="AD39" s="10"/>
-      <x:c r="AE39" s="10"/>
-      <x:c r="AF39" s="10"/>
-      <x:c r="AG39" s="10"/>
+      <x:c r="A39" s="44"/>
+      <x:c r="B39" s="69"/>
+      <x:c r="C39" s="70"/>
+      <x:c r="D39" s="71"/>
+      <x:c r="E39" s="71"/>
+      <x:c r="F39" s="68"/>
+      <x:c r="G39" s="68"/>
+      <x:c r="H39" s="68"/>
+      <x:c r="I39" s="44"/>
+      <x:c r="J39" s="72"/>
+      <x:c r="K39" s="73"/>
+      <x:c r="L39" s="71"/>
+      <x:c r="M39" s="71"/>
+      <x:c r="N39" s="68"/>
+      <x:c r="O39" s="68"/>
+      <x:c r="P39" s="44"/>
+      <x:c r="Q39" s="44"/>
+      <x:c r="R39" s="44"/>
+      <x:c r="S39" s="44"/>
+      <x:c r="T39" s="44"/>
+      <x:c r="U39" s="44"/>
+      <x:c r="V39" s="44"/>
+      <x:c r="W39" s="44"/>
+      <x:c r="X39" s="44"/>
+      <x:c r="Y39" s="44"/>
+      <x:c r="Z39" s="44"/>
+      <x:c r="AA39" s="44"/>
+      <x:c r="AB39" s="44"/>
+      <x:c r="AC39" s="44"/>
+      <x:c r="AD39" s="44"/>
+      <x:c r="AE39" s="44"/>
+      <x:c r="AF39" s="44"/>
+      <x:c r="AG39" s="44"/>
     </x:row>
     <x:row r="40" spans="1:33">
-      <x:c r="A40" s="10"/>
-      <x:c r="B40" s="10"/>
-      <x:c r="C40" s="10"/>
-      <x:c r="D40" s="10"/>
-      <x:c r="E40" s="10"/>
-      <x:c r="F40" s="10"/>
-      <x:c r="G40" s="10"/>
-      <x:c r="H40" s="10"/>
-      <x:c r="I40" s="10"/>
-      <x:c r="J40" s="10"/>
-      <x:c r="K40" s="10"/>
-      <x:c r="L40" s="10"/>
-      <x:c r="M40" s="10"/>
-      <x:c r="N40" s="10"/>
-      <x:c r="O40" s="10"/>
-      <x:c r="P40" s="10"/>
-      <x:c r="Q40" s="10"/>
-      <x:c r="R40" s="10"/>
-      <x:c r="S40" s="10"/>
-      <x:c r="T40" s="10"/>
-      <x:c r="U40" s="10"/>
-      <x:c r="V40" s="10"/>
-      <x:c r="W40" s="10"/>
-      <x:c r="X40" s="10"/>
-      <x:c r="Y40" s="10"/>
-      <x:c r="Z40" s="10"/>
-      <x:c r="AA40" s="10"/>
-      <x:c r="AB40" s="10"/>
-      <x:c r="AC40" s="10"/>
-      <x:c r="AD40" s="10"/>
-      <x:c r="AE40" s="10"/>
-      <x:c r="AF40" s="10"/>
-      <x:c r="AG40" s="10"/>
+      <x:c r="A40" s="44"/>
+      <x:c r="B40" s="69"/>
+      <x:c r="C40" s="70"/>
+      <x:c r="D40" s="71"/>
+      <x:c r="E40" s="71"/>
+      <x:c r="F40" s="68"/>
+      <x:c r="G40" s="68"/>
+      <x:c r="H40" s="68"/>
+      <x:c r="I40" s="44"/>
+      <x:c r="J40" s="72"/>
+      <x:c r="K40" s="73"/>
+      <x:c r="L40" s="71"/>
+      <x:c r="M40" s="71"/>
+      <x:c r="N40" s="68"/>
+      <x:c r="O40" s="68"/>
+      <x:c r="P40" s="44"/>
+      <x:c r="Q40" s="44"/>
+      <x:c r="R40" s="44"/>
+      <x:c r="S40" s="44"/>
+      <x:c r="T40" s="44"/>
+      <x:c r="U40" s="44"/>
+      <x:c r="V40" s="44"/>
+      <x:c r="W40" s="44"/>
+      <x:c r="X40" s="44"/>
+      <x:c r="Y40" s="44"/>
+      <x:c r="Z40" s="44"/>
+      <x:c r="AA40" s="44"/>
+      <x:c r="AB40" s="44"/>
+      <x:c r="AC40" s="44"/>
+      <x:c r="AD40" s="44"/>
+      <x:c r="AE40" s="44"/>
+      <x:c r="AF40" s="44"/>
+      <x:c r="AG40" s="44"/>
     </x:row>
     <x:row r="41" spans="1:33">
-      <x:c r="A41" s="10"/>
-      <x:c r="B41" s="10"/>
-      <x:c r="C41" s="10"/>
-      <x:c r="D41" s="10"/>
-      <x:c r="E41" s="10"/>
-      <x:c r="F41" s="10"/>
-      <x:c r="G41" s="10"/>
-      <x:c r="H41" s="10"/>
-      <x:c r="I41" s="10"/>
-      <x:c r="J41" s="10"/>
-      <x:c r="K41" s="10"/>
-      <x:c r="L41" s="10"/>
-      <x:c r="M41" s="10"/>
-      <x:c r="N41" s="10"/>
-      <x:c r="O41" s="10"/>
-      <x:c r="P41" s="10"/>
-      <x:c r="Q41" s="10"/>
-      <x:c r="R41" s="10"/>
-      <x:c r="S41" s="10"/>
-      <x:c r="T41" s="10"/>
-      <x:c r="U41" s="10"/>
-      <x:c r="V41" s="10"/>
-      <x:c r="W41" s="10"/>
-      <x:c r="X41" s="10"/>
-      <x:c r="Y41" s="10"/>
-      <x:c r="Z41" s="10"/>
-      <x:c r="AA41" s="10"/>
-      <x:c r="AB41" s="10"/>
-      <x:c r="AC41" s="10"/>
-      <x:c r="AD41" s="10"/>
-      <x:c r="AE41" s="10"/>
-      <x:c r="AF41" s="10"/>
-      <x:c r="AG41" s="10"/>
+      <x:c r="A41" s="44"/>
+      <x:c r="B41" s="69"/>
+      <x:c r="C41" s="70"/>
+      <x:c r="D41" s="71"/>
+      <x:c r="E41" s="71"/>
+      <x:c r="F41" s="68"/>
+      <x:c r="G41" s="68"/>
+      <x:c r="H41" s="68"/>
+      <x:c r="I41" s="44"/>
+      <x:c r="J41" s="72"/>
+      <x:c r="K41" s="73"/>
+      <x:c r="L41" s="71"/>
+      <x:c r="M41" s="71"/>
+      <x:c r="N41" s="68"/>
+      <x:c r="O41" s="68"/>
+      <x:c r="P41" s="44"/>
+      <x:c r="Q41" s="44"/>
+      <x:c r="R41" s="44"/>
+      <x:c r="S41" s="44"/>
+      <x:c r="T41" s="44"/>
+      <x:c r="U41" s="44"/>
+      <x:c r="V41" s="44"/>
+      <x:c r="W41" s="44"/>
+      <x:c r="X41" s="44"/>
+      <x:c r="Y41" s="44"/>
+      <x:c r="Z41" s="44"/>
+      <x:c r="AA41" s="44"/>
+      <x:c r="AB41" s="44"/>
+      <x:c r="AC41" s="44"/>
+      <x:c r="AD41" s="44"/>
+      <x:c r="AE41" s="44"/>
+      <x:c r="AF41" s="44"/>
+      <x:c r="AG41" s="44"/>
     </x:row>
     <x:row r="42" spans="1:33">
-      <x:c r="A42" s="10"/>
-      <x:c r="B42" s="10"/>
-      <x:c r="C42" s="10"/>
-      <x:c r="D42" s="10"/>
-      <x:c r="E42" s="10"/>
-      <x:c r="F42" s="10"/>
-      <x:c r="G42" s="10"/>
-      <x:c r="H42" s="10"/>
-      <x:c r="I42" s="10"/>
-      <x:c r="J42" s="10"/>
-      <x:c r="K42" s="10"/>
-      <x:c r="L42" s="10"/>
-      <x:c r="M42" s="10"/>
-      <x:c r="N42" s="10"/>
-      <x:c r="O42" s="10"/>
-      <x:c r="P42" s="10"/>
-      <x:c r="Q42" s="10"/>
-      <x:c r="R42" s="10"/>
-      <x:c r="S42" s="10"/>
-      <x:c r="T42" s="10"/>
-      <x:c r="U42" s="10"/>
-      <x:c r="V42" s="10"/>
-      <x:c r="W42" s="10"/>
-      <x:c r="X42" s="10"/>
-      <x:c r="Y42" s="10"/>
-      <x:c r="Z42" s="10"/>
-      <x:c r="AA42" s="10"/>
-      <x:c r="AB42" s="10"/>
-      <x:c r="AC42" s="10"/>
-      <x:c r="AD42" s="10"/>
-      <x:c r="AE42" s="10"/>
-      <x:c r="AF42" s="10"/>
-      <x:c r="AG42" s="10"/>
+      <x:c r="A42" s="44"/>
+      <x:c r="B42" s="69"/>
+      <x:c r="C42" s="70"/>
+      <x:c r="D42" s="71"/>
+      <x:c r="E42" s="71"/>
+      <x:c r="F42" s="68"/>
+      <x:c r="G42" s="68"/>
+      <x:c r="H42" s="68"/>
+      <x:c r="I42" s="44"/>
+      <x:c r="J42" s="72"/>
+      <x:c r="K42" s="73"/>
+      <x:c r="L42" s="71"/>
+      <x:c r="M42" s="71"/>
+      <x:c r="N42" s="68"/>
+      <x:c r="O42" s="68"/>
+      <x:c r="P42" s="44"/>
+      <x:c r="Q42" s="44"/>
+      <x:c r="R42" s="44"/>
+      <x:c r="S42" s="44"/>
+      <x:c r="T42" s="44"/>
+      <x:c r="U42" s="44"/>
+      <x:c r="V42" s="44"/>
+      <x:c r="W42" s="44"/>
+      <x:c r="X42" s="44"/>
+      <x:c r="Y42" s="44"/>
+      <x:c r="Z42" s="44"/>
+      <x:c r="AA42" s="44"/>
+      <x:c r="AB42" s="44"/>
+      <x:c r="AC42" s="44"/>
+      <x:c r="AD42" s="44"/>
+      <x:c r="AE42" s="44"/>
+      <x:c r="AF42" s="44"/>
+      <x:c r="AG42" s="44"/>
     </x:row>
     <x:row r="43" spans="1:33">
-      <x:c r="A43" s="10"/>
-      <x:c r="B43" s="10"/>
-      <x:c r="C43" s="10"/>
-      <x:c r="D43" s="10"/>
-      <x:c r="E43" s="10"/>
-      <x:c r="F43" s="10"/>
-      <x:c r="G43" s="10"/>
-      <x:c r="H43" s="10"/>
-      <x:c r="I43" s="10"/>
-      <x:c r="J43" s="10"/>
-      <x:c r="K43" s="10"/>
-      <x:c r="L43" s="10"/>
-      <x:c r="M43" s="10"/>
-      <x:c r="N43" s="10"/>
-      <x:c r="O43" s="10"/>
-      <x:c r="P43" s="10"/>
-      <x:c r="Q43" s="10"/>
-      <x:c r="R43" s="10"/>
-      <x:c r="S43" s="10"/>
-      <x:c r="T43" s="10"/>
-      <x:c r="U43" s="10"/>
-      <x:c r="V43" s="10"/>
-      <x:c r="W43" s="10"/>
-      <x:c r="X43" s="10"/>
-      <x:c r="Y43" s="10"/>
-      <x:c r="Z43" s="10"/>
-      <x:c r="AA43" s="10"/>
-      <x:c r="AB43" s="10"/>
-      <x:c r="AC43" s="10"/>
-      <x:c r="AD43" s="10"/>
-      <x:c r="AE43" s="10"/>
-      <x:c r="AF43" s="10"/>
-      <x:c r="AG43" s="10"/>
+      <x:c r="A43" s="44"/>
+      <x:c r="B43" s="69"/>
+      <x:c r="C43" s="70"/>
+      <x:c r="D43" s="71"/>
+      <x:c r="E43" s="71"/>
+      <x:c r="F43" s="68"/>
+      <x:c r="G43" s="68"/>
+      <x:c r="H43" s="68"/>
+      <x:c r="I43" s="44"/>
+      <x:c r="J43" s="72"/>
+      <x:c r="K43" s="73"/>
+      <x:c r="L43" s="71"/>
+      <x:c r="M43" s="71"/>
+      <x:c r="N43" s="68"/>
+      <x:c r="O43" s="68"/>
+      <x:c r="P43" s="44"/>
+      <x:c r="Q43" s="44"/>
+      <x:c r="R43" s="44"/>
+      <x:c r="S43" s="44"/>
+      <x:c r="T43" s="44"/>
+      <x:c r="U43" s="44"/>
+      <x:c r="V43" s="44"/>
+      <x:c r="W43" s="44"/>
+      <x:c r="X43" s="44"/>
+      <x:c r="Y43" s="44"/>
+      <x:c r="Z43" s="44"/>
+      <x:c r="AA43" s="44"/>
+      <x:c r="AB43" s="44"/>
+      <x:c r="AC43" s="44"/>
+      <x:c r="AD43" s="44"/>
+      <x:c r="AE43" s="44"/>
+      <x:c r="AF43" s="44"/>
+      <x:c r="AG43" s="44"/>
     </x:row>
     <x:row r="44" spans="1:33">
-      <x:c r="A44" s="10"/>
-      <x:c r="B44" s="10"/>
-      <x:c r="C44" s="10"/>
-      <x:c r="D44" s="10"/>
-      <x:c r="E44" s="10"/>
-      <x:c r="F44" s="10"/>
-      <x:c r="G44" s="10"/>
-      <x:c r="H44" s="10"/>
-      <x:c r="I44" s="10"/>
-      <x:c r="J44" s="10"/>
-      <x:c r="K44" s="10"/>
-      <x:c r="L44" s="10"/>
-      <x:c r="M44" s="10"/>
-      <x:c r="N44" s="10"/>
-      <x:c r="O44" s="10"/>
-      <x:c r="P44" s="10"/>
-      <x:c r="Q44" s="10"/>
-      <x:c r="R44" s="10"/>
-      <x:c r="S44" s="10"/>
-      <x:c r="T44" s="10"/>
-      <x:c r="U44" s="10"/>
-      <x:c r="V44" s="10"/>
-      <x:c r="W44" s="10"/>
-      <x:c r="X44" s="10"/>
-      <x:c r="Y44" s="10"/>
-      <x:c r="Z44" s="10"/>
-      <x:c r="AA44" s="10"/>
-      <x:c r="AB44" s="10"/>
-      <x:c r="AC44" s="10"/>
-      <x:c r="AD44" s="10"/>
-      <x:c r="AE44" s="10"/>
-      <x:c r="AF44" s="10"/>
-      <x:c r="AG44" s="10"/>
+      <x:c r="A44" s="44"/>
+      <x:c r="B44" s="69"/>
+      <x:c r="C44" s="70"/>
+      <x:c r="D44" s="71"/>
+      <x:c r="E44" s="71"/>
+      <x:c r="F44" s="68"/>
+      <x:c r="G44" s="68"/>
+      <x:c r="H44" s="68"/>
+      <x:c r="I44" s="44"/>
+      <x:c r="J44" s="72"/>
+      <x:c r="K44" s="73"/>
+      <x:c r="L44" s="71"/>
+      <x:c r="M44" s="71"/>
+      <x:c r="N44" s="68"/>
+      <x:c r="O44" s="68"/>
+      <x:c r="P44" s="44"/>
+      <x:c r="Q44" s="44"/>
+      <x:c r="R44" s="44"/>
+      <x:c r="S44" s="44"/>
+      <x:c r="T44" s="44"/>
+      <x:c r="U44" s="44"/>
+      <x:c r="V44" s="44"/>
+      <x:c r="W44" s="44"/>
+      <x:c r="X44" s="44"/>
+      <x:c r="Y44" s="44"/>
+      <x:c r="Z44" s="44"/>
+      <x:c r="AA44" s="44"/>
+      <x:c r="AB44" s="44"/>
+      <x:c r="AC44" s="44"/>
+      <x:c r="AD44" s="44"/>
+      <x:c r="AE44" s="44"/>
+      <x:c r="AF44" s="44"/>
+      <x:c r="AG44" s="44"/>
     </x:row>
     <x:row r="45" spans="1:33">
-      <x:c r="A45" s="10"/>
-      <x:c r="B45" s="10"/>
-      <x:c r="C45" s="10"/>
-      <x:c r="D45" s="10"/>
-      <x:c r="E45" s="10"/>
-      <x:c r="F45" s="10"/>
-      <x:c r="G45" s="10"/>
-      <x:c r="H45" s="10"/>
-      <x:c r="I45" s="10"/>
-      <x:c r="J45" s="10"/>
-      <x:c r="K45" s="10"/>
-      <x:c r="L45" s="10"/>
-      <x:c r="M45" s="10"/>
-      <x:c r="N45" s="10"/>
-      <x:c r="O45" s="10"/>
-      <x:c r="P45" s="10"/>
-      <x:c r="Q45" s="10"/>
-      <x:c r="R45" s="10"/>
-      <x:c r="S45" s="10"/>
-      <x:c r="T45" s="10"/>
-      <x:c r="U45" s="10"/>
-      <x:c r="V45" s="10"/>
-      <x:c r="W45" s="10"/>
-      <x:c r="X45" s="10"/>
-      <x:c r="Y45" s="10"/>
-      <x:c r="Z45" s="10"/>
-      <x:c r="AA45" s="10"/>
-      <x:c r="AB45" s="10"/>
-      <x:c r="AC45" s="10"/>
-      <x:c r="AD45" s="10"/>
-      <x:c r="AE45" s="10"/>
-      <x:c r="AF45" s="10"/>
-      <x:c r="AG45" s="10"/>
+      <x:c r="A45" s="44"/>
+      <x:c r="B45" s="69"/>
+      <x:c r="C45" s="70"/>
+      <x:c r="D45" s="71"/>
+      <x:c r="E45" s="71"/>
+      <x:c r="F45" s="68"/>
+      <x:c r="G45" s="68"/>
+      <x:c r="H45" s="68"/>
+      <x:c r="I45" s="44"/>
+      <x:c r="J45" s="72"/>
+      <x:c r="K45" s="73"/>
+      <x:c r="L45" s="71"/>
+      <x:c r="M45" s="71"/>
+      <x:c r="N45" s="68"/>
+      <x:c r="O45" s="68"/>
+      <x:c r="P45" s="44"/>
+      <x:c r="Q45" s="44"/>
+      <x:c r="R45" s="44"/>
+      <x:c r="S45" s="44"/>
+      <x:c r="T45" s="44"/>
+      <x:c r="U45" s="44"/>
+      <x:c r="V45" s="44"/>
+      <x:c r="W45" s="44"/>
+      <x:c r="X45" s="44"/>
+      <x:c r="Y45" s="44"/>
+      <x:c r="Z45" s="44"/>
+      <x:c r="AA45" s="44"/>
+      <x:c r="AB45" s="44"/>
+      <x:c r="AC45" s="44"/>
+      <x:c r="AD45" s="44"/>
+      <x:c r="AE45" s="44"/>
+      <x:c r="AF45" s="44"/>
+      <x:c r="AG45" s="44"/>
     </x:row>
     <x:row r="46" spans="1:33">
-      <x:c r="A46" s="10"/>
-      <x:c r="B46" s="10"/>
-      <x:c r="C46" s="10"/>
-      <x:c r="D46" s="10"/>
-      <x:c r="E46" s="10"/>
-      <x:c r="F46" s="10"/>
-      <x:c r="G46" s="10"/>
-      <x:c r="H46" s="10"/>
-      <x:c r="I46" s="10"/>
-      <x:c r="J46" s="10"/>
-      <x:c r="K46" s="10"/>
-      <x:c r="L46" s="10"/>
-      <x:c r="M46" s="10"/>
-      <x:c r="N46" s="10"/>
-      <x:c r="O46" s="10"/>
-      <x:c r="P46" s="10"/>
-      <x:c r="Q46" s="10"/>
-      <x:c r="R46" s="10"/>
-      <x:c r="S46" s="10"/>
-      <x:c r="T46" s="10"/>
-      <x:c r="U46" s="10"/>
-      <x:c r="V46" s="10"/>
-      <x:c r="W46" s="10"/>
-      <x:c r="X46" s="10"/>
-      <x:c r="Y46" s="10"/>
-      <x:c r="Z46" s="10"/>
-      <x:c r="AA46" s="10"/>
-      <x:c r="AB46" s="10"/>
-      <x:c r="AC46" s="10"/>
-      <x:c r="AD46" s="10"/>
-      <x:c r="AE46" s="10"/>
-      <x:c r="AF46" s="10"/>
-      <x:c r="AG46" s="10"/>
+      <x:c r="A46" s="44"/>
+      <x:c r="B46" s="69"/>
+      <x:c r="C46" s="70"/>
+      <x:c r="D46" s="71"/>
+      <x:c r="E46" s="71"/>
+      <x:c r="F46" s="68"/>
+      <x:c r="G46" s="68"/>
+      <x:c r="H46" s="68"/>
+      <x:c r="I46" s="44"/>
+      <x:c r="J46" s="72"/>
+      <x:c r="K46" s="73"/>
+      <x:c r="L46" s="71"/>
+      <x:c r="M46" s="71"/>
+      <x:c r="N46" s="68"/>
+      <x:c r="O46" s="68"/>
+      <x:c r="P46" s="44"/>
+      <x:c r="Q46" s="44"/>
+      <x:c r="R46" s="44"/>
+      <x:c r="S46" s="44"/>
+      <x:c r="T46" s="44"/>
+      <x:c r="U46" s="44"/>
+      <x:c r="V46" s="44"/>
+      <x:c r="W46" s="44"/>
+      <x:c r="X46" s="44"/>
+      <x:c r="Y46" s="44"/>
+      <x:c r="Z46" s="44"/>
+      <x:c r="AA46" s="44"/>
+      <x:c r="AB46" s="44"/>
+      <x:c r="AC46" s="44"/>
+      <x:c r="AD46" s="44"/>
+      <x:c r="AE46" s="44"/>
+      <x:c r="AF46" s="44"/>
+      <x:c r="AG46" s="44"/>
     </x:row>
     <x:row r="47" spans="1:33">
-      <x:c r="A47" s="10"/>
-      <x:c r="B47" s="10"/>
-      <x:c r="C47" s="10"/>
-      <x:c r="D47" s="10"/>
-      <x:c r="E47" s="10"/>
-      <x:c r="F47" s="10"/>
-      <x:c r="G47" s="10"/>
-      <x:c r="H47" s="10"/>
-      <x:c r="I47" s="10"/>
-      <x:c r="J47" s="10"/>
-      <x:c r="K47" s="10"/>
-      <x:c r="L47" s="10"/>
-      <x:c r="M47" s="10"/>
-      <x:c r="N47" s="10"/>
-      <x:c r="O47" s="10"/>
-      <x:c r="P47" s="10"/>
-      <x:c r="Q47" s="10"/>
-      <x:c r="R47" s="10"/>
-      <x:c r="S47" s="10"/>
-      <x:c r="T47" s="10"/>
-      <x:c r="U47" s="10"/>
-      <x:c r="V47" s="10"/>
-      <x:c r="W47" s="10"/>
-      <x:c r="X47" s="10"/>
-      <x:c r="Y47" s="10"/>
-      <x:c r="Z47" s="10"/>
-      <x:c r="AA47" s="10"/>
-      <x:c r="AB47" s="10"/>
-      <x:c r="AC47" s="10"/>
-      <x:c r="AD47" s="10"/>
-      <x:c r="AE47" s="10"/>
-      <x:c r="AF47" s="10"/>
-      <x:c r="AG47" s="10"/>
+      <x:c r="A47" s="44"/>
+      <x:c r="B47" s="69"/>
+      <x:c r="C47" s="70"/>
+      <x:c r="D47" s="71"/>
+      <x:c r="E47" s="71"/>
+      <x:c r="F47" s="68"/>
+      <x:c r="G47" s="68"/>
+      <x:c r="H47" s="68"/>
+      <x:c r="I47" s="44"/>
+      <x:c r="J47" s="72"/>
+      <x:c r="K47" s="73"/>
+      <x:c r="L47" s="71"/>
+      <x:c r="M47" s="71"/>
+      <x:c r="N47" s="68"/>
+      <x:c r="O47" s="68"/>
+      <x:c r="P47" s="44"/>
+      <x:c r="Q47" s="44"/>
+      <x:c r="R47" s="44"/>
+      <x:c r="S47" s="44"/>
+      <x:c r="T47" s="44"/>
+      <x:c r="U47" s="44"/>
+      <x:c r="V47" s="44"/>
+      <x:c r="W47" s="44"/>
+      <x:c r="X47" s="44"/>
+      <x:c r="Y47" s="44"/>
+      <x:c r="Z47" s="44"/>
+      <x:c r="AA47" s="44"/>
+      <x:c r="AB47" s="44"/>
+      <x:c r="AC47" s="44"/>
+      <x:c r="AD47" s="44"/>
+      <x:c r="AE47" s="44"/>
+      <x:c r="AF47" s="44"/>
+      <x:c r="AG47" s="44"/>
     </x:row>
     <x:row r="48" spans="1:33">
-      <x:c r="A48" s="10"/>
-      <x:c r="B48" s="10"/>
-      <x:c r="C48" s="10"/>
-      <x:c r="D48" s="10"/>
-      <x:c r="E48" s="10"/>
-      <x:c r="F48" s="10"/>
-      <x:c r="G48" s="10"/>
-      <x:c r="H48" s="10"/>
-      <x:c r="I48" s="10"/>
-      <x:c r="J48" s="10"/>
-      <x:c r="K48" s="10"/>
-      <x:c r="L48" s="10"/>
-      <x:c r="M48" s="10"/>
-      <x:c r="N48" s="10"/>
-      <x:c r="O48" s="10"/>
-      <x:c r="P48" s="10"/>
-      <x:c r="Q48" s="10"/>
-      <x:c r="R48" s="10"/>
-      <x:c r="S48" s="10"/>
-      <x:c r="T48" s="10"/>
-      <x:c r="U48" s="10"/>
-      <x:c r="V48" s="10"/>
-      <x:c r="W48" s="10"/>
-      <x:c r="X48" s="10"/>
-      <x:c r="Y48" s="10"/>
-      <x:c r="Z48" s="10"/>
-      <x:c r="AA48" s="10"/>
-      <x:c r="AB48" s="10"/>
-      <x:c r="AC48" s="10"/>
-      <x:c r="AD48" s="10"/>
-      <x:c r="AE48" s="10"/>
-      <x:c r="AF48" s="10"/>
-      <x:c r="AG48" s="10"/>
+      <x:c r="A48" s="44"/>
+      <x:c r="B48" s="69"/>
+      <x:c r="C48" s="70"/>
+      <x:c r="D48" s="71"/>
+      <x:c r="E48" s="71"/>
+      <x:c r="F48" s="68"/>
+      <x:c r="G48" s="68"/>
+      <x:c r="H48" s="68"/>
+      <x:c r="I48" s="44"/>
+      <x:c r="J48" s="72"/>
+      <x:c r="K48" s="73"/>
+      <x:c r="L48" s="71"/>
+      <x:c r="M48" s="71"/>
+      <x:c r="N48" s="68"/>
+      <x:c r="O48" s="68"/>
+      <x:c r="P48" s="44"/>
+      <x:c r="Q48" s="44"/>
+      <x:c r="R48" s="44"/>
+      <x:c r="S48" s="44"/>
+      <x:c r="T48" s="44"/>
+      <x:c r="U48" s="44"/>
+      <x:c r="V48" s="44"/>
+      <x:c r="W48" s="44"/>
+      <x:c r="X48" s="44"/>
+      <x:c r="Y48" s="44"/>
+      <x:c r="Z48" s="44"/>
+      <x:c r="AA48" s="44"/>
+      <x:c r="AB48" s="44"/>
+      <x:c r="AC48" s="44"/>
+      <x:c r="AD48" s="44"/>
+      <x:c r="AE48" s="44"/>
+      <x:c r="AF48" s="44"/>
+      <x:c r="AG48" s="44"/>
     </x:row>
     <x:row r="49" spans="1:33">
-      <x:c r="A49" s="10"/>
-      <x:c r="B49" s="10"/>
-      <x:c r="C49" s="10"/>
-      <x:c r="D49" s="10"/>
-      <x:c r="E49" s="10"/>
-      <x:c r="F49" s="10"/>
-      <x:c r="G49" s="10"/>
-      <x:c r="H49" s="10"/>
-      <x:c r="I49" s="10"/>
-      <x:c r="J49" s="10"/>
-      <x:c r="K49" s="10"/>
-      <x:c r="L49" s="10"/>
-      <x:c r="M49" s="10"/>
-      <x:c r="N49" s="10"/>
-      <x:c r="O49" s="10"/>
-      <x:c r="P49" s="10"/>
-      <x:c r="Q49" s="10"/>
-      <x:c r="R49" s="10"/>
-      <x:c r="S49" s="10"/>
-      <x:c r="T49" s="10"/>
-      <x:c r="U49" s="10"/>
-      <x:c r="V49" s="10"/>
-      <x:c r="W49" s="10"/>
-      <x:c r="X49" s="10"/>
-      <x:c r="Y49" s="10"/>
-      <x:c r="Z49" s="10"/>
-      <x:c r="AA49" s="10"/>
-      <x:c r="AB49" s="10"/>
-      <x:c r="AC49" s="10"/>
-      <x:c r="AD49" s="10"/>
-      <x:c r="AE49" s="10"/>
-      <x:c r="AF49" s="10"/>
-      <x:c r="AG49" s="10"/>
+      <x:c r="A49" s="44"/>
+      <x:c r="B49" s="69"/>
+      <x:c r="C49" s="70"/>
+      <x:c r="D49" s="71"/>
+      <x:c r="E49" s="71"/>
+      <x:c r="F49" s="68"/>
+      <x:c r="G49" s="68"/>
+      <x:c r="H49" s="68"/>
+      <x:c r="I49" s="44"/>
+      <x:c r="J49" s="72"/>
+      <x:c r="K49" s="73"/>
+      <x:c r="L49" s="71"/>
+      <x:c r="M49" s="71"/>
+      <x:c r="N49" s="68"/>
+      <x:c r="O49" s="68"/>
+      <x:c r="P49" s="44"/>
+      <x:c r="Q49" s="44"/>
+      <x:c r="R49" s="44"/>
+      <x:c r="S49" s="44"/>
+      <x:c r="T49" s="44"/>
+      <x:c r="U49" s="44"/>
+      <x:c r="V49" s="44"/>
+      <x:c r="W49" s="44"/>
+      <x:c r="X49" s="44"/>
+      <x:c r="Y49" s="44"/>
+      <x:c r="Z49" s="44"/>
+      <x:c r="AA49" s="44"/>
+      <x:c r="AB49" s="44"/>
+      <x:c r="AC49" s="44"/>
+      <x:c r="AD49" s="44"/>
+      <x:c r="AE49" s="44"/>
+      <x:c r="AF49" s="44"/>
+      <x:c r="AG49" s="44"/>
     </x:row>
     <x:row r="50" spans="1:33">
-      <x:c r="A50" s="10"/>
-      <x:c r="B50" s="10"/>
-      <x:c r="C50" s="10"/>
-      <x:c r="D50" s="10"/>
-      <x:c r="E50" s="10"/>
-      <x:c r="F50" s="10"/>
-      <x:c r="G50" s="10"/>
-      <x:c r="H50" s="10"/>
-      <x:c r="I50" s="10"/>
-      <x:c r="J50" s="10"/>
-      <x:c r="K50" s="10"/>
-      <x:c r="L50" s="10"/>
-      <x:c r="M50" s="10"/>
-      <x:c r="N50" s="10"/>
-      <x:c r="O50" s="10"/>
-      <x:c r="P50" s="10"/>
-      <x:c r="Q50" s="10"/>
-      <x:c r="R50" s="10"/>
-      <x:c r="S50" s="10"/>
-      <x:c r="T50" s="10"/>
-      <x:c r="U50" s="10"/>
-      <x:c r="V50" s="10"/>
-      <x:c r="W50" s="10"/>
-      <x:c r="X50" s="10"/>
-      <x:c r="Y50" s="10"/>
-      <x:c r="Z50" s="10"/>
-      <x:c r="AA50" s="10"/>
-      <x:c r="AB50" s="10"/>
-      <x:c r="AC50" s="10"/>
-      <x:c r="AD50" s="10"/>
-      <x:c r="AE50" s="10"/>
-      <x:c r="AF50" s="10"/>
-      <x:c r="AG50" s="10"/>
+      <x:c r="A50" s="44"/>
+      <x:c r="B50" s="69"/>
+      <x:c r="C50" s="70"/>
+      <x:c r="D50" s="71"/>
+      <x:c r="E50" s="71"/>
+      <x:c r="F50" s="68"/>
+      <x:c r="G50" s="68"/>
+      <x:c r="H50" s="68"/>
+      <x:c r="I50" s="44"/>
+      <x:c r="J50" s="72"/>
+      <x:c r="K50" s="73"/>
+      <x:c r="L50" s="71"/>
+      <x:c r="M50" s="71"/>
+      <x:c r="N50" s="68"/>
+      <x:c r="O50" s="68"/>
+      <x:c r="P50" s="44"/>
+      <x:c r="Q50" s="44"/>
+      <x:c r="R50" s="44"/>
+      <x:c r="S50" s="44"/>
+      <x:c r="T50" s="44"/>
+      <x:c r="U50" s="44"/>
+      <x:c r="V50" s="44"/>
+      <x:c r="W50" s="44"/>
+      <x:c r="X50" s="44"/>
+      <x:c r="Y50" s="44"/>
+      <x:c r="Z50" s="44"/>
+      <x:c r="AA50" s="44"/>
+      <x:c r="AB50" s="44"/>
+      <x:c r="AC50" s="44"/>
+      <x:c r="AD50" s="44"/>
+      <x:c r="AE50" s="44"/>
+      <x:c r="AF50" s="44"/>
+      <x:c r="AG50" s="44"/>
+    </x:row>
+    <x:row r="51" spans="1:33">
+      <x:c r="A51" s="44"/>
+      <x:c r="B51" s="69"/>
+      <x:c r="C51" s="70"/>
+      <x:c r="D51" s="71"/>
+      <x:c r="E51" s="71"/>
+      <x:c r="F51" s="68"/>
+      <x:c r="G51" s="68"/>
+      <x:c r="H51" s="68"/>
+      <x:c r="I51" s="44"/>
+      <x:c r="J51" s="72"/>
+      <x:c r="K51" s="73"/>
+      <x:c r="L51" s="71"/>
+      <x:c r="M51" s="71"/>
+      <x:c r="N51" s="68"/>
+      <x:c r="O51" s="68"/>
+      <x:c r="P51" s="44"/>
+      <x:c r="Q51" s="44"/>
+      <x:c r="R51" s="44"/>
+      <x:c r="S51" s="44"/>
+      <x:c r="T51" s="44"/>
+      <x:c r="U51" s="44"/>
+      <x:c r="V51" s="44"/>
+      <x:c r="W51" s="44"/>
+      <x:c r="X51" s="44"/>
+      <x:c r="Y51" s="44"/>
+      <x:c r="Z51" s="44"/>
+      <x:c r="AA51" s="44"/>
+      <x:c r="AB51" s="44"/>
+      <x:c r="AC51" s="44"/>
+      <x:c r="AD51" s="44"/>
+      <x:c r="AE51" s="44"/>
+      <x:c r="AF51" s="44"/>
+      <x:c r="AG51" s="44"/>
+    </x:row>
+    <x:row r="52" spans="1:33">
+      <x:c r="A52" s="44"/>
+      <x:c r="B52" s="69"/>
+      <x:c r="C52" s="70"/>
+      <x:c r="D52" s="71"/>
+      <x:c r="E52" s="71"/>
+      <x:c r="F52" s="68"/>
+      <x:c r="G52" s="68"/>
+      <x:c r="H52" s="68"/>
+      <x:c r="I52" s="44"/>
+      <x:c r="J52" s="72"/>
+      <x:c r="K52" s="73"/>
+      <x:c r="L52" s="71"/>
+      <x:c r="M52" s="71"/>
+      <x:c r="N52" s="68"/>
+      <x:c r="O52" s="68"/>
+      <x:c r="P52" s="44"/>
+      <x:c r="Q52" s="44"/>
+      <x:c r="R52" s="44"/>
+      <x:c r="S52" s="44"/>
+      <x:c r="T52" s="44"/>
+      <x:c r="U52" s="44"/>
+      <x:c r="V52" s="44"/>
+      <x:c r="W52" s="44"/>
+      <x:c r="X52" s="44"/>
+      <x:c r="Y52" s="44"/>
+      <x:c r="Z52" s="44"/>
+      <x:c r="AA52" s="44"/>
+      <x:c r="AB52" s="44"/>
+      <x:c r="AC52" s="44"/>
+      <x:c r="AD52" s="44"/>
+      <x:c r="AE52" s="44"/>
+      <x:c r="AF52" s="44"/>
+      <x:c r="AG52" s="44"/>
+    </x:row>
+    <x:row r="53" spans="1:33">
+      <x:c r="A53" s="44"/>
+      <x:c r="B53" s="69"/>
+      <x:c r="C53" s="70"/>
+      <x:c r="D53" s="71"/>
+      <x:c r="E53" s="71"/>
+      <x:c r="F53" s="68"/>
+      <x:c r="G53" s="68"/>
+      <x:c r="H53" s="68"/>
+      <x:c r="I53" s="44"/>
+      <x:c r="J53" s="72"/>
+      <x:c r="K53" s="73"/>
+      <x:c r="L53" s="71"/>
+      <x:c r="M53" s="71"/>
+      <x:c r="N53" s="68"/>
+      <x:c r="O53" s="68"/>
+      <x:c r="P53" s="44"/>
+      <x:c r="Q53" s="44"/>
+      <x:c r="R53" s="44"/>
+      <x:c r="S53" s="44"/>
+      <x:c r="T53" s="44"/>
+      <x:c r="U53" s="44"/>
+      <x:c r="V53" s="44"/>
+      <x:c r="W53" s="44"/>
+      <x:c r="X53" s="44"/>
+      <x:c r="Y53" s="44"/>
+      <x:c r="Z53" s="44"/>
+      <x:c r="AA53" s="44"/>
+      <x:c r="AB53" s="44"/>
+      <x:c r="AC53" s="44"/>
+      <x:c r="AD53" s="44"/>
+      <x:c r="AE53" s="44"/>
+      <x:c r="AF53" s="44"/>
+      <x:c r="AG53" s="44"/>
+    </x:row>
+    <x:row r="54" spans="1:33">
+      <x:c r="A54" s="44"/>
+      <x:c r="B54" s="69"/>
+      <x:c r="C54" s="70"/>
+      <x:c r="D54" s="71"/>
+      <x:c r="E54" s="71"/>
+      <x:c r="F54" s="68"/>
+      <x:c r="G54" s="68"/>
+      <x:c r="H54" s="68"/>
+      <x:c r="I54" s="44"/>
+      <x:c r="J54" s="72"/>
+      <x:c r="K54" s="73"/>
+      <x:c r="L54" s="71"/>
+      <x:c r="M54" s="71"/>
+      <x:c r="N54" s="68"/>
+      <x:c r="O54" s="68"/>
+      <x:c r="P54" s="44"/>
+      <x:c r="Q54" s="44"/>
+      <x:c r="R54" s="44"/>
+      <x:c r="S54" s="44"/>
+      <x:c r="T54" s="44"/>
+      <x:c r="U54" s="44"/>
+      <x:c r="V54" s="44"/>
+      <x:c r="W54" s="44"/>
+      <x:c r="X54" s="44"/>
+      <x:c r="Y54" s="44"/>
+      <x:c r="Z54" s="44"/>
+      <x:c r="AA54" s="44"/>
+      <x:c r="AB54" s="44"/>
+      <x:c r="AC54" s="44"/>
+      <x:c r="AD54" s="44"/>
+      <x:c r="AE54" s="44"/>
+      <x:c r="AF54" s="44"/>
+      <x:c r="AG54" s="44"/>
+    </x:row>
+    <x:row r="55" spans="1:33">
+      <x:c r="A55" s="44"/>
+      <x:c r="B55" s="69"/>
+      <x:c r="C55" s="70"/>
+      <x:c r="D55" s="71"/>
+      <x:c r="E55" s="71"/>
+      <x:c r="F55" s="68"/>
+      <x:c r="G55" s="68"/>
+      <x:c r="H55" s="68"/>
+      <x:c r="I55" s="44"/>
+      <x:c r="J55" s="72"/>
+      <x:c r="K55" s="73"/>
+      <x:c r="L55" s="71"/>
+      <x:c r="M55" s="71"/>
+      <x:c r="N55" s="68"/>
+      <x:c r="O55" s="68"/>
+      <x:c r="P55" s="44"/>
+      <x:c r="Q55" s="44"/>
+      <x:c r="R55" s="44"/>
+      <x:c r="S55" s="44"/>
+      <x:c r="T55" s="44"/>
+      <x:c r="U55" s="44"/>
+      <x:c r="V55" s="44"/>
+      <x:c r="W55" s="44"/>
+      <x:c r="X55" s="44"/>
+      <x:c r="Y55" s="44"/>
+      <x:c r="Z55" s="44"/>
+      <x:c r="AA55" s="44"/>
+      <x:c r="AB55" s="44"/>
+      <x:c r="AC55" s="44"/>
+      <x:c r="AD55" s="44"/>
+      <x:c r="AE55" s="44"/>
+      <x:c r="AF55" s="44"/>
+      <x:c r="AG55" s="44"/>
+    </x:row>
+    <x:row r="56" spans="1:33">
+      <x:c r="A56" s="44"/>
+      <x:c r="B56" s="69"/>
+      <x:c r="C56" s="70"/>
+      <x:c r="D56" s="71"/>
+      <x:c r="E56" s="71"/>
+      <x:c r="F56" s="68"/>
+      <x:c r="G56" s="68"/>
+      <x:c r="H56" s="68"/>
+      <x:c r="I56" s="44"/>
+      <x:c r="J56" s="72"/>
+      <x:c r="K56" s="73"/>
+      <x:c r="L56" s="71"/>
+      <x:c r="M56" s="71"/>
+      <x:c r="N56" s="68"/>
+      <x:c r="O56" s="68"/>
+      <x:c r="P56" s="44"/>
+      <x:c r="Q56" s="44"/>
+      <x:c r="R56" s="44"/>
+      <x:c r="S56" s="44"/>
+      <x:c r="T56" s="44"/>
+      <x:c r="U56" s="44"/>
+      <x:c r="V56" s="44"/>
+      <x:c r="W56" s="44"/>
+      <x:c r="X56" s="44"/>
+      <x:c r="Y56" s="44"/>
+      <x:c r="Z56" s="44"/>
+      <x:c r="AA56" s="44"/>
+      <x:c r="AB56" s="44"/>
+      <x:c r="AC56" s="44"/>
+      <x:c r="AD56" s="44"/>
+      <x:c r="AE56" s="44"/>
+      <x:c r="AF56" s="44"/>
+      <x:c r="AG56" s="44"/>
+    </x:row>
+    <x:row r="57" spans="1:33">
+      <x:c r="A57" s="44"/>
+      <x:c r="B57" s="69"/>
+      <x:c r="C57" s="70"/>
+      <x:c r="D57" s="71"/>
+      <x:c r="E57" s="71"/>
+      <x:c r="F57" s="68"/>
+      <x:c r="G57" s="68"/>
+      <x:c r="H57" s="68"/>
+      <x:c r="I57" s="44"/>
+      <x:c r="J57" s="72"/>
+      <x:c r="K57" s="73"/>
+      <x:c r="L57" s="71"/>
+      <x:c r="M57" s="71"/>
+      <x:c r="N57" s="68"/>
+      <x:c r="O57" s="68"/>
+      <x:c r="P57" s="44"/>
+      <x:c r="Q57" s="44"/>
+      <x:c r="R57" s="44"/>
+      <x:c r="S57" s="44"/>
+      <x:c r="T57" s="44"/>
+      <x:c r="U57" s="44"/>
+      <x:c r="V57" s="44"/>
+      <x:c r="W57" s="44"/>
+      <x:c r="X57" s="44"/>
+      <x:c r="Y57" s="44"/>
+      <x:c r="Z57" s="44"/>
+      <x:c r="AA57" s="44"/>
+      <x:c r="AB57" s="44"/>
+      <x:c r="AC57" s="44"/>
+      <x:c r="AD57" s="44"/>
+      <x:c r="AE57" s="44"/>
+      <x:c r="AF57" s="44"/>
+      <x:c r="AG57" s="44"/>
+    </x:row>
+    <x:row r="58" spans="1:33">
+      <x:c r="A58" s="44"/>
+      <x:c r="B58" s="69"/>
+      <x:c r="C58" s="70"/>
+      <x:c r="D58" s="71"/>
+      <x:c r="E58" s="71"/>
+      <x:c r="F58" s="68"/>
+      <x:c r="G58" s="68"/>
+      <x:c r="H58" s="68"/>
+      <x:c r="I58" s="44"/>
+      <x:c r="J58" s="72"/>
+      <x:c r="K58" s="73"/>
+      <x:c r="L58" s="71"/>
+      <x:c r="M58" s="71"/>
+      <x:c r="N58" s="68"/>
+      <x:c r="O58" s="68"/>
+      <x:c r="P58" s="44"/>
+      <x:c r="Q58" s="44"/>
+      <x:c r="R58" s="44"/>
+      <x:c r="S58" s="44"/>
+      <x:c r="T58" s="44"/>
+      <x:c r="U58" s="44"/>
+      <x:c r="V58" s="44"/>
+      <x:c r="W58" s="44"/>
+      <x:c r="X58" s="44"/>
+      <x:c r="Y58" s="44"/>
+      <x:c r="Z58" s="44"/>
+      <x:c r="AA58" s="44"/>
+      <x:c r="AB58" s="44"/>
+      <x:c r="AC58" s="44"/>
+      <x:c r="AD58" s="44"/>
+      <x:c r="AE58" s="44"/>
+      <x:c r="AF58" s="44"/>
+      <x:c r="AG58" s="44"/>
+    </x:row>
+    <x:row r="59" spans="1:33">
+      <x:c r="A59" s="44"/>
+      <x:c r="B59" s="69"/>
+      <x:c r="C59" s="70"/>
+      <x:c r="D59" s="71"/>
+      <x:c r="E59" s="71"/>
+      <x:c r="F59" s="68"/>
+      <x:c r="G59" s="68"/>
+      <x:c r="H59" s="68"/>
+      <x:c r="I59" s="44"/>
+      <x:c r="J59" s="72"/>
+      <x:c r="K59" s="73"/>
+      <x:c r="L59" s="71"/>
+      <x:c r="M59" s="71"/>
+      <x:c r="N59" s="68"/>
+      <x:c r="O59" s="68"/>
+      <x:c r="P59" s="44"/>
+      <x:c r="Q59" s="44"/>
+      <x:c r="R59" s="44"/>
+      <x:c r="S59" s="44"/>
+      <x:c r="T59" s="44"/>
+      <x:c r="U59" s="44"/>
+      <x:c r="V59" s="44"/>
+      <x:c r="W59" s="44"/>
+      <x:c r="X59" s="44"/>
+      <x:c r="Y59" s="44"/>
+      <x:c r="Z59" s="44"/>
+      <x:c r="AA59" s="44"/>
+      <x:c r="AB59" s="44"/>
+      <x:c r="AC59" s="44"/>
+      <x:c r="AD59" s="44"/>
+      <x:c r="AE59" s="44"/>
+      <x:c r="AF59" s="44"/>
+      <x:c r="AG59" s="44"/>
+    </x:row>
+    <x:row r="60" spans="1:33">
+      <x:c r="A60" s="44"/>
+      <x:c r="B60" s="69"/>
+      <x:c r="C60" s="70"/>
+      <x:c r="D60" s="71"/>
+      <x:c r="E60" s="71"/>
+      <x:c r="F60" s="68"/>
+      <x:c r="G60" s="68"/>
+      <x:c r="H60" s="68"/>
+      <x:c r="I60" s="44"/>
+      <x:c r="J60" s="72"/>
+      <x:c r="K60" s="73"/>
+      <x:c r="L60" s="71"/>
+      <x:c r="M60" s="71"/>
+      <x:c r="N60" s="68"/>
+      <x:c r="O60" s="68"/>
+      <x:c r="P60" s="44"/>
+      <x:c r="Q60" s="44"/>
+      <x:c r="R60" s="44"/>
+      <x:c r="S60" s="44"/>
+      <x:c r="T60" s="44"/>
+      <x:c r="U60" s="44"/>
+      <x:c r="V60" s="44"/>
+      <x:c r="W60" s="44"/>
+      <x:c r="X60" s="44"/>
+      <x:c r="Y60" s="44"/>
+      <x:c r="Z60" s="44"/>
+      <x:c r="AA60" s="44"/>
+      <x:c r="AB60" s="44"/>
+      <x:c r="AC60" s="44"/>
+      <x:c r="AD60" s="44"/>
+      <x:c r="AE60" s="44"/>
+      <x:c r="AF60" s="44"/>
+      <x:c r="AG60" s="44"/>
+    </x:row>
+    <x:row r="61" spans="1:33">
+      <x:c r="A61" s="44"/>
+      <x:c r="B61" s="69"/>
+      <x:c r="C61" s="70"/>
+      <x:c r="D61" s="71"/>
+      <x:c r="E61" s="71"/>
+      <x:c r="F61" s="68"/>
+      <x:c r="G61" s="68"/>
+      <x:c r="H61" s="68"/>
+      <x:c r="I61" s="44"/>
+      <x:c r="J61" s="72"/>
+      <x:c r="K61" s="73"/>
+      <x:c r="L61" s="71"/>
+      <x:c r="M61" s="71"/>
+      <x:c r="N61" s="68"/>
+      <x:c r="O61" s="68"/>
+      <x:c r="P61" s="44"/>
+      <x:c r="Q61" s="44"/>
+      <x:c r="R61" s="44"/>
+      <x:c r="S61" s="44"/>
+      <x:c r="T61" s="44"/>
+      <x:c r="U61" s="44"/>
+      <x:c r="V61" s="44"/>
+      <x:c r="W61" s="44"/>
+      <x:c r="X61" s="44"/>
+      <x:c r="Y61" s="44"/>
+      <x:c r="Z61" s="44"/>
+      <x:c r="AA61" s="44"/>
+      <x:c r="AB61" s="44"/>
+      <x:c r="AC61" s="44"/>
+      <x:c r="AD61" s="44"/>
+      <x:c r="AE61" s="44"/>
+      <x:c r="AF61" s="44"/>
+      <x:c r="AG61" s="44"/>
+    </x:row>
+    <x:row r="62" spans="1:33">
+      <x:c r="A62" s="44"/>
+      <x:c r="B62" s="69"/>
+      <x:c r="C62" s="70"/>
+      <x:c r="D62" s="71"/>
+      <x:c r="E62" s="71"/>
+      <x:c r="F62" s="68"/>
+      <x:c r="G62" s="68"/>
+      <x:c r="H62" s="68"/>
+      <x:c r="I62" s="44"/>
+      <x:c r="J62" s="72"/>
+      <x:c r="K62" s="73"/>
+      <x:c r="L62" s="71"/>
+      <x:c r="M62" s="71"/>
+      <x:c r="N62" s="68"/>
+      <x:c r="O62" s="68"/>
+      <x:c r="P62" s="44"/>
+      <x:c r="Q62" s="44"/>
+      <x:c r="R62" s="44"/>
+      <x:c r="S62" s="44"/>
+      <x:c r="T62" s="44"/>
+      <x:c r="U62" s="44"/>
+      <x:c r="V62" s="44"/>
+      <x:c r="W62" s="44"/>
+      <x:c r="X62" s="44"/>
+      <x:c r="Y62" s="44"/>
+      <x:c r="Z62" s="44"/>
+      <x:c r="AA62" s="44"/>
+      <x:c r="AB62" s="44"/>
+      <x:c r="AC62" s="44"/>
+      <x:c r="AD62" s="44"/>
+      <x:c r="AE62" s="44"/>
+      <x:c r="AF62" s="44"/>
+      <x:c r="AG62" s="44"/>
+    </x:row>
+    <x:row r="63" spans="1:33">
+      <x:c r="A63" s="44"/>
+      <x:c r="B63" s="69"/>
+      <x:c r="C63" s="70"/>
+      <x:c r="D63" s="71"/>
+      <x:c r="E63" s="71"/>
+      <x:c r="F63" s="68"/>
+      <x:c r="G63" s="68"/>
+      <x:c r="H63" s="68"/>
+      <x:c r="I63" s="44"/>
+      <x:c r="J63" s="72"/>
+      <x:c r="K63" s="73"/>
+      <x:c r="L63" s="71"/>
+      <x:c r="M63" s="71"/>
+      <x:c r="N63" s="68"/>
+      <x:c r="O63" s="68"/>
+      <x:c r="P63" s="44"/>
+      <x:c r="Q63" s="44"/>
+      <x:c r="R63" s="44"/>
+      <x:c r="S63" s="44"/>
+      <x:c r="T63" s="44"/>
+      <x:c r="U63" s="44"/>
+      <x:c r="V63" s="44"/>
+      <x:c r="W63" s="44"/>
+      <x:c r="X63" s="44"/>
+      <x:c r="Y63" s="44"/>
+      <x:c r="Z63" s="44"/>
+      <x:c r="AA63" s="44"/>
+      <x:c r="AB63" s="44"/>
+      <x:c r="AC63" s="44"/>
+      <x:c r="AD63" s="44"/>
+      <x:c r="AE63" s="44"/>
+      <x:c r="AF63" s="44"/>
+      <x:c r="AG63" s="44"/>
+    </x:row>
+    <x:row r="64" spans="1:33">
+      <x:c r="A64" s="44"/>
+      <x:c r="B64" s="69"/>
+      <x:c r="C64" s="70"/>
+      <x:c r="D64" s="71"/>
+      <x:c r="E64" s="71"/>
+      <x:c r="F64" s="68"/>
+      <x:c r="G64" s="68"/>
+      <x:c r="H64" s="68"/>
+      <x:c r="I64" s="44"/>
+      <x:c r="J64" s="72"/>
+      <x:c r="K64" s="73"/>
+      <x:c r="L64" s="71"/>
+      <x:c r="M64" s="71"/>
+      <x:c r="N64" s="68"/>
+      <x:c r="O64" s="68"/>
+      <x:c r="P64" s="44"/>
+      <x:c r="Q64" s="44"/>
+      <x:c r="R64" s="44"/>
+      <x:c r="S64" s="44"/>
+      <x:c r="T64" s="44"/>
+      <x:c r="U64" s="44"/>
+      <x:c r="V64" s="44"/>
+      <x:c r="W64" s="44"/>
+      <x:c r="X64" s="44"/>
+      <x:c r="Y64" s="44"/>
+      <x:c r="Z64" s="44"/>
+      <x:c r="AA64" s="44"/>
+      <x:c r="AB64" s="44"/>
+      <x:c r="AC64" s="44"/>
+      <x:c r="AD64" s="44"/>
+      <x:c r="AE64" s="44"/>
+      <x:c r="AF64" s="44"/>
+      <x:c r="AG64" s="44"/>
+    </x:row>
+    <x:row r="65" spans="1:33">
+      <x:c r="A65" s="44"/>
+      <x:c r="B65" s="69"/>
+      <x:c r="C65" s="70"/>
+      <x:c r="D65" s="71"/>
+      <x:c r="E65" s="71"/>
+      <x:c r="F65" s="68"/>
+      <x:c r="G65" s="68"/>
+      <x:c r="H65" s="68"/>
+      <x:c r="I65" s="44"/>
+      <x:c r="J65" s="72"/>
+      <x:c r="K65" s="73"/>
+      <x:c r="L65" s="71"/>
+      <x:c r="M65" s="71"/>
+      <x:c r="N65" s="68"/>
+      <x:c r="O65" s="68"/>
+      <x:c r="P65" s="44"/>
+      <x:c r="Q65" s="44"/>
+      <x:c r="R65" s="44"/>
+      <x:c r="S65" s="44"/>
+      <x:c r="T65" s="44"/>
+      <x:c r="U65" s="44"/>
+      <x:c r="V65" s="44"/>
+      <x:c r="W65" s="44"/>
+      <x:c r="X65" s="44"/>
+      <x:c r="Y65" s="44"/>
+      <x:c r="Z65" s="44"/>
+      <x:c r="AA65" s="44"/>
+      <x:c r="AB65" s="44"/>
+      <x:c r="AC65" s="44"/>
+      <x:c r="AD65" s="44"/>
+      <x:c r="AE65" s="44"/>
+      <x:c r="AF65" s="44"/>
+      <x:c r="AG65" s="44"/>
+    </x:row>
+    <x:row r="66" spans="1:33">
+      <x:c r="A66" s="10"/>
+      <x:c r="B66" s="14"/>
+      <x:c r="C66" s="15"/>
+      <x:c r="D66" s="16"/>
+      <x:c r="E66" s="16"/>
+      <x:c r="F66" s="17"/>
+      <x:c r="G66" s="17"/>
+      <x:c r="H66" s="17"/>
+      <x:c r="I66" s="10"/>
+      <x:c r="J66" s="42"/>
+      <x:c r="K66" s="31"/>
+      <x:c r="L66" s="16"/>
+      <x:c r="M66" s="16"/>
+      <x:c r="N66" s="17"/>
+      <x:c r="O66" s="17"/>
+      <x:c r="P66" s="10"/>
+      <x:c r="Q66" s="10"/>
+      <x:c r="R66" s="10"/>
+      <x:c r="S66" s="10"/>
+      <x:c r="T66" s="10"/>
+      <x:c r="U66" s="10"/>
+      <x:c r="V66" s="10"/>
+      <x:c r="W66" s="10"/>
+      <x:c r="X66" s="10"/>
+      <x:c r="Y66" s="10"/>
+      <x:c r="Z66" s="10"/>
+      <x:c r="AA66" s="10"/>
+      <x:c r="AB66" s="10"/>
+      <x:c r="AC66" s="10"/>
+      <x:c r="AD66" s="10"/>
+      <x:c r="AE66" s="10"/>
+      <x:c r="AF66" s="10"/>
+      <x:c r="AG66" s="10"/>
+    </x:row>
+    <x:row r="67" spans="1:33">
+      <x:c r="A67" s="10"/>
+      <x:c r="B67" s="10"/>
+      <x:c r="C67" s="10"/>
+      <x:c r="D67" s="10"/>
+      <x:c r="E67" s="10"/>
+      <x:c r="F67" s="10"/>
+      <x:c r="G67" s="10"/>
+      <x:c r="H67" s="10"/>
+      <x:c r="I67" s="10"/>
+      <x:c r="J67" s="10"/>
+      <x:c r="K67" s="10"/>
+      <x:c r="L67" s="10"/>
+      <x:c r="M67" s="10"/>
+      <x:c r="N67" s="10"/>
+      <x:c r="O67" s="10"/>
+      <x:c r="P67" s="10"/>
+      <x:c r="Q67" s="10"/>
+      <x:c r="R67" s="10"/>
+      <x:c r="S67" s="10"/>
+      <x:c r="T67" s="10"/>
+      <x:c r="U67" s="10"/>
+      <x:c r="V67" s="10"/>
+      <x:c r="W67" s="10"/>
+      <x:c r="X67" s="10"/>
+      <x:c r="Y67" s="10"/>
+      <x:c r="Z67" s="10"/>
+      <x:c r="AA67" s="10"/>
+      <x:c r="AB67" s="10"/>
+      <x:c r="AC67" s="10"/>
+      <x:c r="AD67" s="10"/>
+      <x:c r="AE67" s="10"/>
+      <x:c r="AF67" s="10"/>
+      <x:c r="AG67" s="10"/>
+    </x:row>
+    <x:row r="68" spans="1:33">
+      <x:c r="A68" s="10"/>
+      <x:c r="B68" s="10"/>
+      <x:c r="C68" s="10"/>
+      <x:c r="D68" s="10"/>
+      <x:c r="E68" s="10"/>
+      <x:c r="F68" s="10"/>
+      <x:c r="G68" s="10"/>
+      <x:c r="H68" s="10"/>
+      <x:c r="I68" s="10"/>
+      <x:c r="J68" s="10"/>
+      <x:c r="K68" s="10"/>
+      <x:c r="L68" s="10"/>
+      <x:c r="M68" s="10"/>
+      <x:c r="N68" s="10"/>
+      <x:c r="O68" s="10"/>
+      <x:c r="P68" s="10"/>
+      <x:c r="Q68" s="10"/>
+      <x:c r="R68" s="10"/>
+      <x:c r="S68" s="10"/>
+      <x:c r="T68" s="10"/>
+      <x:c r="U68" s="10"/>
+      <x:c r="V68" s="10"/>
+      <x:c r="W68" s="10"/>
+      <x:c r="X68" s="10"/>
+      <x:c r="Y68" s="10"/>
+      <x:c r="Z68" s="10"/>
+      <x:c r="AA68" s="10"/>
+      <x:c r="AB68" s="10"/>
+      <x:c r="AC68" s="10"/>
+      <x:c r="AD68" s="10"/>
+      <x:c r="AE68" s="10"/>
+      <x:c r="AF68" s="10"/>
+      <x:c r="AG68" s="10"/>
+    </x:row>
+    <x:row r="69" spans="1:33">
+      <x:c r="A69" s="10"/>
+      <x:c r="B69" s="10"/>
+      <x:c r="C69" s="10"/>
+      <x:c r="D69" s="10"/>
+      <x:c r="E69" s="10"/>
+      <x:c r="F69" s="10"/>
+      <x:c r="G69" s="10"/>
+      <x:c r="H69" s="10"/>
+      <x:c r="I69" s="10"/>
+      <x:c r="J69" s="10"/>
+      <x:c r="K69" s="10"/>
+      <x:c r="L69" s="10"/>
+      <x:c r="M69" s="10"/>
+      <x:c r="N69" s="10"/>
+      <x:c r="O69" s="10"/>
+      <x:c r="P69" s="10"/>
+      <x:c r="Q69" s="10"/>
+      <x:c r="R69" s="10"/>
+      <x:c r="S69" s="10"/>
+      <x:c r="T69" s="10"/>
+      <x:c r="U69" s="10"/>
+      <x:c r="V69" s="10"/>
+      <x:c r="W69" s="10"/>
+      <x:c r="X69" s="10"/>
+      <x:c r="Y69" s="10"/>
+      <x:c r="Z69" s="10"/>
+      <x:c r="AA69" s="10"/>
+      <x:c r="AB69" s="10"/>
+      <x:c r="AC69" s="10"/>
+      <x:c r="AD69" s="10"/>
+      <x:c r="AE69" s="10"/>
+      <x:c r="AF69" s="10"/>
+      <x:c r="AG69" s="10"/>
+    </x:row>
+    <x:row r="70" spans="1:33">
+      <x:c r="A70" s="10"/>
+      <x:c r="B70" s="10"/>
+      <x:c r="C70" s="10"/>
+      <x:c r="D70" s="10"/>
+      <x:c r="E70" s="10"/>
+      <x:c r="F70" s="10"/>
+      <x:c r="G70" s="10"/>
+      <x:c r="H70" s="10"/>
+      <x:c r="I70" s="10"/>
+      <x:c r="J70" s="10"/>
+      <x:c r="K70" s="10"/>
+      <x:c r="L70" s="10"/>
+      <x:c r="M70" s="10"/>
+      <x:c r="N70" s="10"/>
+      <x:c r="O70" s="10"/>
+      <x:c r="P70" s="10"/>
+      <x:c r="Q70" s="10"/>
+      <x:c r="R70" s="10"/>
+      <x:c r="S70" s="10"/>
+      <x:c r="T70" s="10"/>
+      <x:c r="U70" s="10"/>
+      <x:c r="V70" s="10"/>
+      <x:c r="W70" s="10"/>
+      <x:c r="X70" s="10"/>
+      <x:c r="Y70" s="10"/>
+      <x:c r="Z70" s="10"/>
+      <x:c r="AA70" s="10"/>
+      <x:c r="AB70" s="10"/>
+      <x:c r="AC70" s="10"/>
+      <x:c r="AD70" s="10"/>
+      <x:c r="AE70" s="10"/>
+      <x:c r="AF70" s="10"/>
+      <x:c r="AG70" s="10"/>
+    </x:row>
+    <x:row r="71" spans="1:33">
+      <x:c r="A71" s="10"/>
+      <x:c r="B71" s="10"/>
+      <x:c r="C71" s="10"/>
+      <x:c r="D71" s="10"/>
+      <x:c r="E71" s="10"/>
+      <x:c r="F71" s="10"/>
+      <x:c r="G71" s="10"/>
+      <x:c r="H71" s="10"/>
+      <x:c r="I71" s="10"/>
+      <x:c r="J71" s="10"/>
+      <x:c r="K71" s="10"/>
+      <x:c r="L71" s="10"/>
+      <x:c r="M71" s="10"/>
+      <x:c r="N71" s="10"/>
+      <x:c r="O71" s="10"/>
+      <x:c r="P71" s="10"/>
+      <x:c r="Q71" s="10"/>
+      <x:c r="R71" s="10"/>
+      <x:c r="S71" s="10"/>
+      <x:c r="T71" s="10"/>
+      <x:c r="U71" s="10"/>
+      <x:c r="V71" s="10"/>
+      <x:c r="W71" s="10"/>
+      <x:c r="X71" s="10"/>
+      <x:c r="Y71" s="10"/>
+      <x:c r="Z71" s="10"/>
+      <x:c r="AA71" s="10"/>
+      <x:c r="AB71" s="10"/>
+      <x:c r="AC71" s="10"/>
+      <x:c r="AD71" s="10"/>
+      <x:c r="AE71" s="10"/>
+      <x:c r="AF71" s="10"/>
+      <x:c r="AG71" s="10"/>
+    </x:row>
+    <x:row r="72" spans="1:33">
+      <x:c r="A72" s="10"/>
+      <x:c r="B72" s="10"/>
+      <x:c r="C72" s="10"/>
+      <x:c r="D72" s="10"/>
+      <x:c r="E72" s="10"/>
+      <x:c r="F72" s="10"/>
+      <x:c r="G72" s="10"/>
+      <x:c r="H72" s="10"/>
+      <x:c r="I72" s="10"/>
+      <x:c r="J72" s="10"/>
+      <x:c r="K72" s="10"/>
+      <x:c r="L72" s="10"/>
+      <x:c r="M72" s="10"/>
+      <x:c r="N72" s="10"/>
+      <x:c r="O72" s="10"/>
+      <x:c r="P72" s="10"/>
+      <x:c r="Q72" s="10"/>
+      <x:c r="R72" s="10"/>
+      <x:c r="S72" s="10"/>
+      <x:c r="T72" s="10"/>
+      <x:c r="U72" s="10"/>
+      <x:c r="V72" s="10"/>
+      <x:c r="W72" s="10"/>
+      <x:c r="X72" s="10"/>
+      <x:c r="Y72" s="10"/>
+      <x:c r="Z72" s="10"/>
+      <x:c r="AA72" s="10"/>
+      <x:c r="AB72" s="10"/>
+      <x:c r="AC72" s="10"/>
+      <x:c r="AD72" s="10"/>
+      <x:c r="AE72" s="10"/>
+      <x:c r="AF72" s="10"/>
+      <x:c r="AG72" s="10"/>
+    </x:row>
+    <x:row r="73" spans="1:33">
+      <x:c r="A73" s="10"/>
+      <x:c r="B73" s="10"/>
+      <x:c r="C73" s="10"/>
+      <x:c r="D73" s="10"/>
+      <x:c r="E73" s="10"/>
+      <x:c r="F73" s="10"/>
+      <x:c r="G73" s="10"/>
+      <x:c r="H73" s="10"/>
+      <x:c r="I73" s="10"/>
+      <x:c r="J73" s="10"/>
+      <x:c r="K73" s="10"/>
+      <x:c r="L73" s="10"/>
+      <x:c r="M73" s="10"/>
+      <x:c r="N73" s="10"/>
+      <x:c r="O73" s="10"/>
+      <x:c r="P73" s="10"/>
+      <x:c r="Q73" s="10"/>
+      <x:c r="R73" s="10"/>
+      <x:c r="S73" s="10"/>
+      <x:c r="T73" s="10"/>
+      <x:c r="U73" s="10"/>
+      <x:c r="V73" s="10"/>
+      <x:c r="W73" s="10"/>
+      <x:c r="X73" s="10"/>
+      <x:c r="Y73" s="10"/>
+      <x:c r="Z73" s="10"/>
+      <x:c r="AA73" s="10"/>
+      <x:c r="AB73" s="10"/>
+      <x:c r="AC73" s="10"/>
+      <x:c r="AD73" s="10"/>
+      <x:c r="AE73" s="10"/>
+      <x:c r="AF73" s="10"/>
+      <x:c r="AG73" s="10"/>
+    </x:row>
+    <x:row r="74" spans="1:33">
+      <x:c r="A74" s="10"/>
+      <x:c r="B74" s="10"/>
+      <x:c r="C74" s="10"/>
+      <x:c r="D74" s="10"/>
+      <x:c r="E74" s="10"/>
+      <x:c r="F74" s="10"/>
+      <x:c r="G74" s="10"/>
+      <x:c r="H74" s="10"/>
+      <x:c r="I74" s="10"/>
+      <x:c r="J74" s="10"/>
+      <x:c r="K74" s="10"/>
+      <x:c r="L74" s="10"/>
+      <x:c r="M74" s="10"/>
+      <x:c r="N74" s="10"/>
+      <x:c r="O74" s="10"/>
+      <x:c r="P74" s="10"/>
+      <x:c r="Q74" s="10"/>
+      <x:c r="R74" s="10"/>
+      <x:c r="S74" s="10"/>
+      <x:c r="T74" s="10"/>
+      <x:c r="U74" s="10"/>
+      <x:c r="V74" s="10"/>
+      <x:c r="W74" s="10"/>
+      <x:c r="X74" s="10"/>
+      <x:c r="Y74" s="10"/>
+      <x:c r="Z74" s="10"/>
+      <x:c r="AA74" s="10"/>
+      <x:c r="AB74" s="10"/>
+      <x:c r="AC74" s="10"/>
+      <x:c r="AD74" s="10"/>
+      <x:c r="AE74" s="10"/>
+      <x:c r="AF74" s="10"/>
+      <x:c r="AG74" s="10"/>
+    </x:row>
+    <x:row r="75" spans="1:33">
+      <x:c r="A75" s="10"/>
+      <x:c r="B75" s="10"/>
+      <x:c r="C75" s="10"/>
+      <x:c r="D75" s="10"/>
+      <x:c r="E75" s="10"/>
+      <x:c r="F75" s="10"/>
+      <x:c r="G75" s="10"/>
+      <x:c r="H75" s="10"/>
+      <x:c r="I75" s="10"/>
+      <x:c r="J75" s="10"/>
+      <x:c r="K75" s="10"/>
+      <x:c r="L75" s="10"/>
+      <x:c r="M75" s="10"/>
+      <x:c r="N75" s="10"/>
+      <x:c r="O75" s="10"/>
+      <x:c r="P75" s="10"/>
+      <x:c r="Q75" s="10"/>
+      <x:c r="R75" s="10"/>
+      <x:c r="S75" s="10"/>
+      <x:c r="T75" s="10"/>
+      <x:c r="U75" s="10"/>
+      <x:c r="V75" s="10"/>
+      <x:c r="W75" s="10"/>
+      <x:c r="X75" s="10"/>
+      <x:c r="Y75" s="10"/>
+      <x:c r="Z75" s="10"/>
+      <x:c r="AA75" s="10"/>
+      <x:c r="AB75" s="10"/>
+      <x:c r="AC75" s="10"/>
+      <x:c r="AD75" s="10"/>
+      <x:c r="AE75" s="10"/>
+      <x:c r="AF75" s="10"/>
+      <x:c r="AG75" s="10"/>
+    </x:row>
+    <x:row r="76" spans="1:33">
+      <x:c r="A76" s="10"/>
+      <x:c r="B76" s="10"/>
+      <x:c r="C76" s="10"/>
+      <x:c r="D76" s="10"/>
+      <x:c r="E76" s="10"/>
+      <x:c r="F76" s="10"/>
+      <x:c r="G76" s="10"/>
+      <x:c r="H76" s="10"/>
+      <x:c r="I76" s="10"/>
+      <x:c r="J76" s="10"/>
+      <x:c r="K76" s="10"/>
+      <x:c r="L76" s="10"/>
+      <x:c r="M76" s="10"/>
+      <x:c r="N76" s="10"/>
+      <x:c r="O76" s="10"/>
+      <x:c r="P76" s="10"/>
+      <x:c r="Q76" s="10"/>
+      <x:c r="R76" s="10"/>
+      <x:c r="S76" s="10"/>
+      <x:c r="T76" s="10"/>
+      <x:c r="U76" s="10"/>
+      <x:c r="V76" s="10"/>
+      <x:c r="W76" s="10"/>
+      <x:c r="X76" s="10"/>
+      <x:c r="Y76" s="10"/>
+      <x:c r="Z76" s="10"/>
+      <x:c r="AA76" s="10"/>
+      <x:c r="AB76" s="10"/>
+      <x:c r="AC76" s="10"/>
+      <x:c r="AD76" s="10"/>
+      <x:c r="AE76" s="10"/>
+      <x:c r="AF76" s="10"/>
+      <x:c r="AG76" s="10"/>
+    </x:row>
+    <x:row r="77" spans="1:33">
+      <x:c r="A77" s="10"/>
+      <x:c r="B77" s="10"/>
+      <x:c r="C77" s="10"/>
+      <x:c r="D77" s="10"/>
+      <x:c r="E77" s="10"/>
+      <x:c r="F77" s="10"/>
+      <x:c r="G77" s="10"/>
+      <x:c r="H77" s="10"/>
+      <x:c r="I77" s="10"/>
+      <x:c r="J77" s="10"/>
+      <x:c r="K77" s="10"/>
+      <x:c r="L77" s="10"/>
+      <x:c r="M77" s="10"/>
+      <x:c r="N77" s="10"/>
+      <x:c r="O77" s="10"/>
+      <x:c r="P77" s="10"/>
+      <x:c r="Q77" s="10"/>
+      <x:c r="R77" s="10"/>
+      <x:c r="S77" s="10"/>
+      <x:c r="T77" s="10"/>
+      <x:c r="U77" s="10"/>
+      <x:c r="V77" s="10"/>
+      <x:c r="W77" s="10"/>
+      <x:c r="X77" s="10"/>
+      <x:c r="Y77" s="10"/>
+      <x:c r="Z77" s="10"/>
+      <x:c r="AA77" s="10"/>
+      <x:c r="AB77" s="10"/>
+      <x:c r="AC77" s="10"/>
+      <x:c r="AD77" s="10"/>
+      <x:c r="AE77" s="10"/>
+      <x:c r="AF77" s="10"/>
+      <x:c r="AG77" s="10"/>
+    </x:row>
+    <x:row r="78" spans="1:33">
+      <x:c r="A78" s="10"/>
+      <x:c r="B78" s="10"/>
+      <x:c r="C78" s="10"/>
+      <x:c r="D78" s="10"/>
+      <x:c r="E78" s="10"/>
+      <x:c r="F78" s="10"/>
+      <x:c r="G78" s="10"/>
+      <x:c r="H78" s="10"/>
+      <x:c r="I78" s="10"/>
+      <x:c r="J78" s="10"/>
+      <x:c r="K78" s="10"/>
+      <x:c r="L78" s="10"/>
+      <x:c r="M78" s="10"/>
+      <x:c r="N78" s="10"/>
+      <x:c r="O78" s="10"/>
+      <x:c r="P78" s="10"/>
+      <x:c r="Q78" s="10"/>
+      <x:c r="R78" s="10"/>
+      <x:c r="S78" s="10"/>
+      <x:c r="T78" s="10"/>
+      <x:c r="U78" s="10"/>
+      <x:c r="V78" s="10"/>
+      <x:c r="W78" s="10"/>
+      <x:c r="X78" s="10"/>
+      <x:c r="Y78" s="10"/>
+      <x:c r="Z78" s="10"/>
+      <x:c r="AA78" s="10"/>
+      <x:c r="AB78" s="10"/>
+      <x:c r="AC78" s="10"/>
+      <x:c r="AD78" s="10"/>
+      <x:c r="AE78" s="10"/>
+      <x:c r="AF78" s="10"/>
+      <x:c r="AG78" s="10"/>
+    </x:row>
+    <x:row r="79" spans="1:33">
+      <x:c r="A79" s="10"/>
+      <x:c r="B79" s="10"/>
+      <x:c r="C79" s="10"/>
+      <x:c r="D79" s="10"/>
+      <x:c r="E79" s="10"/>
+      <x:c r="F79" s="10"/>
+      <x:c r="G79" s="10"/>
+      <x:c r="H79" s="10"/>
+      <x:c r="I79" s="10"/>
+      <x:c r="J79" s="10"/>
+      <x:c r="K79" s="10"/>
+      <x:c r="L79" s="10"/>
+      <x:c r="M79" s="10"/>
+      <x:c r="N79" s="10"/>
+      <x:c r="O79" s="10"/>
+      <x:c r="P79" s="10"/>
+      <x:c r="Q79" s="10"/>
+      <x:c r="R79" s="10"/>
+      <x:c r="S79" s="10"/>
+      <x:c r="T79" s="10"/>
+      <x:c r="U79" s="10"/>
+      <x:c r="V79" s="10"/>
+      <x:c r="W79" s="10"/>
+      <x:c r="X79" s="10"/>
+      <x:c r="Y79" s="10"/>
+      <x:c r="Z79" s="10"/>
+      <x:c r="AA79" s="10"/>
+      <x:c r="AB79" s="10"/>
+      <x:c r="AC79" s="10"/>
+      <x:c r="AD79" s="10"/>
+      <x:c r="AE79" s="10"/>
+      <x:c r="AF79" s="10"/>
+      <x:c r="AG79" s="10"/>
+    </x:row>
+    <x:row r="80" spans="1:33">
+      <x:c r="A80" s="10"/>
+      <x:c r="B80" s="10"/>
+      <x:c r="C80" s="10"/>
+      <x:c r="D80" s="10"/>
+      <x:c r="E80" s="10"/>
+      <x:c r="F80" s="10"/>
+      <x:c r="G80" s="10"/>
+      <x:c r="H80" s="10"/>
+      <x:c r="I80" s="10"/>
+      <x:c r="J80" s="10"/>
+      <x:c r="K80" s="10"/>
+      <x:c r="L80" s="10"/>
+      <x:c r="M80" s="10"/>
+      <x:c r="N80" s="10"/>
+      <x:c r="O80" s="10"/>
+      <x:c r="P80" s="10"/>
+      <x:c r="Q80" s="10"/>
+      <x:c r="R80" s="10"/>
+      <x:c r="S80" s="10"/>
+      <x:c r="T80" s="10"/>
+      <x:c r="U80" s="10"/>
+      <x:c r="V80" s="10"/>
+      <x:c r="W80" s="10"/>
+      <x:c r="X80" s="10"/>
+      <x:c r="Y80" s="10"/>
+      <x:c r="Z80" s="10"/>
+      <x:c r="AA80" s="10"/>
+      <x:c r="AB80" s="10"/>
+      <x:c r="AC80" s="10"/>
+      <x:c r="AD80" s="10"/>
+      <x:c r="AE80" s="10"/>
+      <x:c r="AF80" s="10"/>
+      <x:c r="AG80" s="10"/>
+    </x:row>
+    <x:row r="81" spans="1:33">
+      <x:c r="A81" s="10"/>
+      <x:c r="B81" s="10"/>
+      <x:c r="C81" s="10"/>
+      <x:c r="D81" s="10"/>
+      <x:c r="E81" s="10"/>
+      <x:c r="F81" s="10"/>
+      <x:c r="G81" s="10"/>
+      <x:c r="H81" s="10"/>
+      <x:c r="I81" s="10"/>
+      <x:c r="J81" s="10"/>
+      <x:c r="K81" s="10"/>
+      <x:c r="L81" s="10"/>
+      <x:c r="M81" s="10"/>
+      <x:c r="N81" s="10"/>
+      <x:c r="O81" s="10"/>
+      <x:c r="P81" s="10"/>
+      <x:c r="Q81" s="10"/>
+      <x:c r="R81" s="10"/>
+      <x:c r="S81" s="10"/>
+      <x:c r="T81" s="10"/>
+      <x:c r="U81" s="10"/>
+      <x:c r="V81" s="10"/>
+      <x:c r="W81" s="10"/>
+      <x:c r="X81" s="10"/>
+      <x:c r="Y81" s="10"/>
+      <x:c r="Z81" s="10"/>
+      <x:c r="AA81" s="10"/>
+      <x:c r="AB81" s="10"/>
+      <x:c r="AC81" s="10"/>
+      <x:c r="AD81" s="10"/>
+      <x:c r="AE81" s="10"/>
+      <x:c r="AF81" s="10"/>
+      <x:c r="AG81" s="10"/>
+    </x:row>
+    <x:row r="82" spans="1:33">
+      <x:c r="A82" s="10"/>
+      <x:c r="B82" s="10"/>
+      <x:c r="C82" s="10"/>
+      <x:c r="D82" s="10"/>
+      <x:c r="E82" s="10"/>
+      <x:c r="F82" s="10"/>
+      <x:c r="G82" s="10"/>
+      <x:c r="H82" s="10"/>
+      <x:c r="I82" s="10"/>
+      <x:c r="J82" s="10"/>
+      <x:c r="K82" s="10"/>
+      <x:c r="L82" s="10"/>
+      <x:c r="M82" s="10"/>
+      <x:c r="N82" s="10"/>
+      <x:c r="O82" s="10"/>
+      <x:c r="P82" s="10"/>
+      <x:c r="Q82" s="10"/>
+      <x:c r="R82" s="10"/>
+      <x:c r="S82" s="10"/>
+      <x:c r="T82" s="10"/>
+      <x:c r="U82" s="10"/>
+      <x:c r="V82" s="10"/>
+      <x:c r="W82" s="10"/>
+      <x:c r="X82" s="10"/>
+      <x:c r="Y82" s="10"/>
+      <x:c r="Z82" s="10"/>
+      <x:c r="AA82" s="10"/>
+      <x:c r="AB82" s="10"/>
+      <x:c r="AC82" s="10"/>
+      <x:c r="AD82" s="10"/>
+      <x:c r="AE82" s="10"/>
+      <x:c r="AF82" s="10"/>
+      <x:c r="AG82" s="10"/>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="J15:M29"/>
@@ -7909,19 +9144,19 @@
     </x:row>
     <x:row r="2" spans="1:26" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="44" t="s">
+      <x:c r="B2" s="51" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
-      <x:c r="G2" s="45"/>
-      <x:c r="H2" s="45"/>
-      <x:c r="I2" s="45"/>
-      <x:c r="J2" s="45"/>
-      <x:c r="K2" s="45"/>
-      <x:c r="L2" s="46"/>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
+      <x:c r="G2" s="52"/>
+      <x:c r="H2" s="52"/>
+      <x:c r="I2" s="52"/>
+      <x:c r="J2" s="52"/>
+      <x:c r="K2" s="52"/>
+      <x:c r="L2" s="53"/>
       <x:c r="M2" s="10"/>
       <x:c r="N2" s="10"/>
       <x:c r="O2" s="10"/>
@@ -7967,28 +9202,28 @@
     </x:row>
     <x:row r="4" spans="1:26" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="43" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C4" s="43"/>
-      <x:c r="D4" s="43"/>
-      <x:c r="E4" s="43"/>
-      <x:c r="F4" s="43"/>
-      <x:c r="G4" s="43"/>
-      <x:c r="H4" s="43"/>
-      <x:c r="I4" s="43"/>
-      <x:c r="J4" s="43"/>
-      <x:c r="K4" s="43"/>
-      <x:c r="L4" s="43"/>
+      <x:c r="B4" s="50" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C4" s="50"/>
+      <x:c r="D4" s="50"/>
+      <x:c r="E4" s="50"/>
+      <x:c r="F4" s="50"/>
+      <x:c r="G4" s="50"/>
+      <x:c r="H4" s="50"/>
+      <x:c r="I4" s="50"/>
+      <x:c r="J4" s="50"/>
+      <x:c r="K4" s="50"/>
+      <x:c r="L4" s="50"/>
       <x:c r="M4" s="11"/>
-      <x:c r="N4" s="47" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="O4" s="47"/>
-      <x:c r="Q4" s="47" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="R4" s="47"/>
+      <x:c r="N4" s="54" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="O4" s="54"/>
+      <x:c r="Q4" s="54" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R4" s="54"/>
       <x:c r="S4" s="11"/>
       <x:c r="V4" s="11"/>
       <x:c r="W4" s="11"/>
@@ -7998,39 +9233,39 @@
     </x:row>
     <x:row r="5" spans="1:26">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="48" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C5" s="50" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D5" s="51"/>
-      <x:c r="E5" s="50" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="F5" s="51"/>
-      <x:c r="G5" s="50" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H5" s="51"/>
-      <x:c r="I5" s="50" t="s">
+      <x:c r="B5" s="55" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C5" s="57" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D5" s="58"/>
+      <x:c r="E5" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F5" s="58"/>
+      <x:c r="G5" s="57" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H5" s="58"/>
+      <x:c r="I5" s="57" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="J5" s="51"/>
-      <x:c r="K5" s="50" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="L5" s="52"/>
+      <x:c r="J5" s="58"/>
+      <x:c r="K5" s="57" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L5" s="59"/>
       <x:c r="M5" s="10"/>
       <x:c r="N5" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O5" s="7">
         <x:f>R5+SUM(C8:L8)</x:f>
         <x:v>48800000</x:v>
       </x:c>
       <x:c r="Q5" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="R5" s="7">
         <x:f>'1월(자산)'!O5</x:f>
@@ -8045,32 +9280,32 @@
     </x:row>
     <x:row r="6" spans="1:26">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="60"/>
-      <x:c r="C6" s="54" t="s">
+      <x:c r="B6" s="67"/>
+      <x:c r="C6" s="61" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D6" s="62"/>
+      <x:c r="E6" s="63" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F6" s="64"/>
+      <x:c r="G6" s="63" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="D6" s="55"/>
-      <x:c r="E6" s="56" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="F6" s="57"/>
-      <x:c r="G6" s="56" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H6" s="57"/>
-      <x:c r="I6" s="54" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="J6" s="55"/>
+      <x:c r="H6" s="64"/>
+      <x:c r="I6" s="61" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J6" s="62"/>
       <x:c r="K6" s="25" t="s">
-        <x:v>65</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="L6" s="25" t="s">
-        <x:v>98</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M6" s="10"/>
       <x:c r="N6" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O6" s="7">
         <x:f>SUM(C9:L9)</x:f>
@@ -8089,27 +9324,27 @@
     <x:row r="7" spans="1:26">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C7" s="53">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C7" s="60">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D7" s="53"/>
-      <x:c r="E7" s="58">
+      <x:c r="D7" s="60"/>
+      <x:c r="E7" s="65">
         <x:f>SUM('1월(자산)'!E7:F8)</x:f>
         <x:v>39179849</x:v>
       </x:c>
-      <x:c r="F7" s="59"/>
-      <x:c r="G7" s="58">
+      <x:c r="F7" s="66"/>
+      <x:c r="G7" s="65">
         <x:f>SUM('1월(자산)'!G7:H8)</x:f>
         <x:v>6900000</x:v>
       </x:c>
-      <x:c r="H7" s="59"/>
-      <x:c r="I7" s="53">
+      <x:c r="H7" s="66"/>
+      <x:c r="I7" s="60">
         <x:f>SUM('1월(자산)'!I7:J8)</x:f>
         <x:v>1000000</x:v>
       </x:c>
-      <x:c r="J7" s="53"/>
+      <x:c r="J7" s="60"/>
       <x:c r="K7" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -8134,24 +9369,24 @@
     <x:row r="8" spans="1:26" ht="17.80000000000000071054">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C8" s="53">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C8" s="60">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D8" s="53"/>
-      <x:c r="E8" s="58">
+      <x:c r="D8" s="60"/>
+      <x:c r="E8" s="65">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F8" s="59"/>
-      <x:c r="G8" s="58">
+      <x:c r="F8" s="66"/>
+      <x:c r="G8" s="65">
         <x:v>100000</x:v>
       </x:c>
-      <x:c r="H8" s="59"/>
-      <x:c r="I8" s="53">
+      <x:c r="H8" s="66"/>
+      <x:c r="I8" s="60">
         <x:v>1800000</x:v>
       </x:c>
-      <x:c r="J8" s="53"/>
+      <x:c r="J8" s="60"/>
       <x:c r="K8" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -8159,10 +9394,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="10"/>
-      <x:c r="N8" s="47" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="O8" s="47"/>
+      <x:c r="N8" s="54" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="O8" s="54"/>
       <x:c r="P8" s="10"/>
       <x:c r="Q8" s="10"/>
       <x:c r="R8" s="10"/>
@@ -8178,28 +9413,28 @@
     <x:row r="9" spans="1:26">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C9" s="53">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C9" s="60">
         <x:f>C8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D9" s="53"/>
-      <x:c r="E9" s="53">
+      <x:c r="D9" s="60"/>
+      <x:c r="E9" s="60">
         <x:f>E8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F9" s="53"/>
-      <x:c r="G9" s="53">
+      <x:c r="F9" s="60"/>
+      <x:c r="G9" s="60">
         <x:f>G8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H9" s="53"/>
-      <x:c r="I9" s="53">
+      <x:c r="H9" s="60"/>
+      <x:c r="I9" s="60">
         <x:f>I8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J9" s="53"/>
+      <x:c r="J9" s="60"/>
       <x:c r="K9" s="7">
         <x:f>K8*0</x:f>
         <x:v>0</x:v>
@@ -8210,7 +9445,7 @@
       </x:c>
       <x:c r="M9" s="10"/>
       <x:c r="N9" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O9" s="7"/>
       <x:c r="P9" s="10"/>
@@ -8356,29 +9591,29 @@
     </x:row>
     <x:row r="2" spans="1:33" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="44" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
-      <x:c r="G2" s="45"/>
-      <x:c r="H2" s="45"/>
-      <x:c r="I2" s="45"/>
-      <x:c r="J2" s="45"/>
-      <x:c r="K2" s="45"/>
-      <x:c r="L2" s="45"/>
-      <x:c r="M2" s="45"/>
-      <x:c r="N2" s="45"/>
-      <x:c r="O2" s="45"/>
-      <x:c r="P2" s="45"/>
-      <x:c r="Q2" s="45"/>
-      <x:c r="R2" s="45"/>
-      <x:c r="S2" s="45"/>
-      <x:c r="T2" s="45"/>
-      <x:c r="U2" s="45"/>
-      <x:c r="V2" s="46"/>
+      <x:c r="B2" s="51" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
+      <x:c r="G2" s="52"/>
+      <x:c r="H2" s="52"/>
+      <x:c r="I2" s="52"/>
+      <x:c r="J2" s="52"/>
+      <x:c r="K2" s="52"/>
+      <x:c r="L2" s="52"/>
+      <x:c r="M2" s="52"/>
+      <x:c r="N2" s="52"/>
+      <x:c r="O2" s="52"/>
+      <x:c r="P2" s="52"/>
+      <x:c r="Q2" s="52"/>
+      <x:c r="R2" s="52"/>
+      <x:c r="S2" s="52"/>
+      <x:c r="T2" s="52"/>
+      <x:c r="U2" s="52"/>
+      <x:c r="V2" s="53"/>
       <x:c r="W2" s="10"/>
       <x:c r="X2" s="10"/>
       <x:c r="Y2" s="10"/>
@@ -8428,31 +9663,31 @@
     </x:row>
     <x:row r="4" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="43" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C4" s="43"/>
-      <x:c r="D4" s="43"/>
-      <x:c r="E4" s="43"/>
-      <x:c r="F4" s="43"/>
-      <x:c r="G4" s="43"/>
-      <x:c r="H4" s="43"/>
-      <x:c r="I4" s="43"/>
-      <x:c r="J4" s="43"/>
-      <x:c r="K4" s="43"/>
-      <x:c r="L4" s="43"/>
-      <x:c r="M4" s="43"/>
-      <x:c r="N4" s="43"/>
-      <x:c r="O4" s="43"/>
-      <x:c r="P4" s="43"/>
-      <x:c r="Q4" s="43"/>
-      <x:c r="R4" s="43"/>
-      <x:c r="S4" s="43"/>
+      <x:c r="B4" s="50" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C4" s="50"/>
+      <x:c r="D4" s="50"/>
+      <x:c r="E4" s="50"/>
+      <x:c r="F4" s="50"/>
+      <x:c r="G4" s="50"/>
+      <x:c r="H4" s="50"/>
+      <x:c r="I4" s="50"/>
+      <x:c r="J4" s="50"/>
+      <x:c r="K4" s="50"/>
+      <x:c r="L4" s="50"/>
+      <x:c r="M4" s="50"/>
+      <x:c r="N4" s="50"/>
+      <x:c r="O4" s="50"/>
+      <x:c r="P4" s="50"/>
+      <x:c r="Q4" s="50"/>
+      <x:c r="R4" s="50"/>
+      <x:c r="S4" s="50"/>
       <x:c r="T4" s="11"/>
-      <x:c r="U4" s="47" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="V4" s="47"/>
+      <x:c r="U4" s="54" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="V4" s="54"/>
       <x:c r="W4" s="11"/>
       <x:c r="X4" s="11"/>
       <x:c r="Y4" s="11"/>
@@ -8467,41 +9702,41 @@
     </x:row>
     <x:row r="5" spans="1:33">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="48" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C5" s="50" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D5" s="51"/>
-      <x:c r="E5" s="50" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="F5" s="52"/>
-      <x:c r="G5" s="52"/>
-      <x:c r="H5" s="52"/>
-      <x:c r="I5" s="52"/>
-      <x:c r="J5" s="51"/>
-      <x:c r="K5" s="50" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="L5" s="52"/>
-      <x:c r="M5" s="52"/>
-      <x:c r="N5" s="52"/>
-      <x:c r="O5" s="51"/>
-      <x:c r="P5" s="48" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="Q5" s="50" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="R5" s="51"/>
-      <x:c r="S5" s="48" t="s">
-        <x:v>29</x:v>
+      <x:c r="B5" s="55" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C5" s="57" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D5" s="58"/>
+      <x:c r="E5" s="57" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F5" s="59"/>
+      <x:c r="G5" s="59"/>
+      <x:c r="H5" s="59"/>
+      <x:c r="I5" s="59"/>
+      <x:c r="J5" s="58"/>
+      <x:c r="K5" s="57" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="L5" s="59"/>
+      <x:c r="M5" s="59"/>
+      <x:c r="N5" s="59"/>
+      <x:c r="O5" s="58"/>
+      <x:c r="P5" s="55" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="Q5" s="57" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="R5" s="58"/>
+      <x:c r="S5" s="55" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="T5" s="10"/>
       <x:c r="U5" s="8" t="s">
-        <x:v>82</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="V5" s="7">
         <x:f>D10</x:f>
@@ -8521,64 +9756,64 @@
     </x:row>
     <x:row r="6" spans="1:33">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="49"/>
+      <x:c r="B6" s="56"/>
       <x:c r="C6" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F6" s="8" t="s">
-        <x:v>6</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G6" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H6" s="8" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I6" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J6" s="8" t="s">
-        <x:v>63</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K6" s="8" t="s">
-        <x:v>77</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L6" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="M6" s="20" t="s">
-        <x:v>74</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N6" s="20" t="s">
-        <x:v>101</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="O6" s="20" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="P6" s="49"/>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="P6" s="56"/>
       <x:c r="Q6" s="8" t="s">
         <x:v>115</x:v>
       </x:c>
       <x:c r="R6" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="S6" s="49"/>
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="S6" s="56"/>
       <x:c r="T6" s="10"/>
       <x:c r="U6" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="V6" s="7">
         <x:f>J10+O10+P10</x:f>
         <x:v>2861506</x:v>
       </x:c>
       <x:c r="W6" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="X6" s="10"/>
       <x:c r="Y6" s="10"/>
@@ -8594,7 +9829,7 @@
     <x:row r="7" spans="1:33">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C7" s="6">
         <x:v>4000000</x:v>
@@ -8615,7 +9850,7 @@
         <x:v>400000</x:v>
       </x:c>
       <x:c r="I7" s="24" t="s">
-        <x:v>107</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J7" s="6">
         <x:v>100000</x:v>
@@ -8670,7 +9905,7 @@
     <x:row r="8" spans="1:33">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="7">
         <x:f>4129547+34400+298400+100000</x:f>
@@ -8733,7 +9968,7 @@
       </x:c>
       <x:c r="T8" s="10"/>
       <x:c r="U8" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="V8" s="7">
         <x:f>S8</x:f>
@@ -8754,7 +9989,7 @@
     <x:row r="9" spans="1:33">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:f>C8-C7</x:f>
@@ -8823,14 +10058,14 @@
       <x:c r="S9" s="7"/>
       <x:c r="T9" s="10"/>
       <x:c r="U9" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="V9" s="7">
         <x:f>V5-(V6+V7+V8)</x:f>
         <x:v>-59159</x:v>
       </x:c>
       <x:c r="W9" s="13" t="s">
-        <x:v>108</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="X9" s="10"/>
       <x:c r="Y9" s="10"/>
@@ -8883,14 +10118,14 @@
       </x:c>
       <x:c r="T10" s="10"/>
       <x:c r="U10" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="V10" s="23">
         <x:f>V6/V5</x:f>
         <x:v>0.62720042995414427</x:v>
       </x:c>
       <x:c r="W10" s="10" t="s">
-        <x:v>110</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="X10" s="10"/>
       <x:c r="Y10" s="10"/>
@@ -8925,14 +10160,14 @@
       <x:c r="S11" s="12"/>
       <x:c r="T11" s="10"/>
       <x:c r="U11" s="21" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="V11" s="23">
         <x:f>V7/V5</x:f>
         <x:v>0.24110397565112868</x:v>
       </x:c>
       <x:c r="W11" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="X11" s="10"/>
       <x:c r="Y11" s="10"/>
@@ -8948,7 +10183,7 @@
     <x:row r="12" spans="1:33">
       <x:c r="A12" s="10"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>64</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C12" s="7">
         <x:f>SUM(C16:C72)</x:f>
@@ -9007,7 +10242,7 @@
       <x:c r="S13" s="10"/>
       <x:c r="T13" s="10"/>
       <x:c r="U13" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="V13" s="19">
         <x:v>0.5</x:v>
@@ -9029,24 +10264,24 @@
     </x:row>
     <x:row r="14" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A14" s="11"/>
-      <x:c r="B14" s="43" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C14" s="43"/>
-      <x:c r="D14" s="43"/>
-      <x:c r="E14" s="43"/>
+      <x:c r="B14" s="50" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C14" s="50"/>
+      <x:c r="D14" s="50"/>
+      <x:c r="E14" s="50"/>
       <x:c r="F14" s="17" t="s">
-        <x:v>103</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G14" s="17"/>
       <x:c r="H14" s="17"/>
       <x:c r="I14" s="11"/>
-      <x:c r="J14" s="43" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="K14" s="43"/>
-      <x:c r="L14" s="43"/>
-      <x:c r="M14" s="43"/>
+      <x:c r="J14" s="50" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="K14" s="50"/>
+      <x:c r="L14" s="50"/>
+      <x:c r="M14" s="50"/>
       <x:c r="N14" s="11"/>
       <x:c r="O14" s="11"/>
       <x:c r="P14" s="11"/>
@@ -9055,7 +10290,7 @@
       <x:c r="S14" s="11"/>
       <x:c r="T14" s="11"/>
       <x:c r="U14" s="8" t="s">
-        <x:v>106</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="V14" s="19">
         <x:v>0.5</x:v>
@@ -9078,32 +10313,32 @@
     <x:row r="15" spans="1:33">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F15" s="17"/>
       <x:c r="G15" s="17"/>
       <x:c r="H15" s="17"/>
       <x:c r="I15" s="10"/>
       <x:c r="J15" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K15" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="L15" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M15" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N15" s="10"/>
       <x:c r="O15" s="10"/>
@@ -9135,10 +10370,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="22"/>
@@ -9151,10 +10386,10 @@
         <x:v>22500</x:v>
       </x:c>
       <x:c r="L16" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M16" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N16" s="22"/>
       <x:c r="O16" s="22"/>
@@ -9186,10 +10421,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F17" s="17"/>
       <x:c r="G17" s="17"/>
@@ -9202,10 +10437,10 @@
         <x:v>1500</x:v>
       </x:c>
       <x:c r="L17" s="16" t="s">
-        <x:v>30</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="M17" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N17" s="17"/>
       <x:c r="O17" s="17"/>
@@ -9237,10 +10472,10 @@
         <x:v>19920</x:v>
       </x:c>
       <x:c r="D18" s="16" t="s">
-        <x:v>42</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F18" s="17"/>
       <x:c r="G18" s="17"/>
@@ -9253,10 +10488,10 @@
         <x:v>10580</x:v>
       </x:c>
       <x:c r="L18" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M18" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N18" s="17"/>
       <x:c r="O18" s="17"/>
@@ -9288,10 +10523,10 @@
         <x:v>5400</x:v>
       </x:c>
       <x:c r="D19" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F19" s="17"/>
       <x:c r="G19" s="17"/>
@@ -9304,10 +10539,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="L19" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M19" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N19" s="17"/>
       <x:c r="O19" s="17"/>
@@ -9339,10 +10574,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>57</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F20" s="17"/>
       <x:c r="G20" s="17"/>
@@ -9355,10 +10590,10 @@
         <x:v>6990</x:v>
       </x:c>
       <x:c r="L20" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="M20" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N20" s="17"/>
       <x:c r="O20" s="17"/>
@@ -9390,10 +10625,10 @@
         <x:v>22000</x:v>
       </x:c>
       <x:c r="D21" s="16" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s">
-        <x:v>123</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F21" s="17"/>
       <x:c r="G21" s="17"/>
@@ -9406,10 +10641,10 @@
         <x:v>30919</x:v>
       </x:c>
       <x:c r="L21" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M21" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N21" s="17"/>
       <x:c r="O21" s="17"/>
@@ -9441,10 +10676,10 @@
         <x:v>23219</x:v>
       </x:c>
       <x:c r="D22" s="28" t="s">
-        <x:v>117</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E22" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F22" s="17"/>
       <x:c r="G22" s="17"/>
@@ -9457,10 +10692,10 @@
         <x:v>82320</x:v>
       </x:c>
       <x:c r="L22" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M22" s="16" t="s">
-        <x:v>6</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="N22" s="17"/>
       <x:c r="O22" s="17"/>
@@ -9492,10 +10727,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D23" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E23" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F23" s="17"/>
       <x:c r="G23" s="17"/>
@@ -9508,10 +10743,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="L23" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M23" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N23" s="17"/>
       <x:c r="O23" s="17"/>
@@ -9543,10 +10778,10 @@
         <x:v>30900</x:v>
       </x:c>
       <x:c r="D24" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E24" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F24" s="17"/>
       <x:c r="G24" s="17"/>
@@ -9559,10 +10794,10 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="L24" s="16" t="s">
-        <x:v>84</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M24" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N24" s="17"/>
       <x:c r="O24" s="17"/>
@@ -9594,10 +10829,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D25" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E25" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F25" s="17"/>
       <x:c r="G25" s="17"/>
@@ -9610,10 +10845,10 @@
         <x:v>39535</x:v>
       </x:c>
       <x:c r="L25" s="16" t="s">
-        <x:v>91</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="M25" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N25" s="17"/>
       <x:c r="O25" s="17"/>
@@ -9645,10 +10880,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D26" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E26" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F26" s="17"/>
       <x:c r="G26" s="17"/>
@@ -9661,10 +10896,10 @@
         <x:v>3150</x:v>
       </x:c>
       <x:c r="L26" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M26" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N26" s="17"/>
       <x:c r="O26" s="17"/>
@@ -9696,10 +10931,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D27" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E27" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F27" s="17"/>
       <x:c r="G27" s="17"/>
@@ -9712,10 +10947,10 @@
         <x:v>13500</x:v>
       </x:c>
       <x:c r="L27" s="28" t="s">
-        <x:v>117</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M27" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N27" s="17"/>
       <x:c r="O27" s="17"/>
@@ -9747,10 +10982,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D28" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E28" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F28" s="17"/>
       <x:c r="G28" s="17"/>
@@ -9763,10 +10998,10 @@
         <x:v>5400</x:v>
       </x:c>
       <x:c r="L28" s="16" t="s">
-        <x:v>31</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="M28" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N28" s="29"/>
       <x:c r="O28" s="17"/>
@@ -9798,10 +11033,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D29" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E29" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F29" s="17"/>
       <x:c r="G29" s="17"/>
@@ -9814,10 +11049,10 @@
         <x:v>11500</x:v>
       </x:c>
       <x:c r="L29" s="16" t="s">
-        <x:v>46</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="M29" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N29" s="17"/>
       <x:c r="O29" s="17"/>
@@ -9849,10 +11084,10 @@
         <x:v>8910</x:v>
       </x:c>
       <x:c r="D30" s="16" t="s">
-        <x:v>107</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E30" s="16" t="s">
-        <x:v>49</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F30" s="17"/>
       <x:c r="G30" s="17"/>
@@ -9865,10 +11100,10 @@
         <x:v>2980</x:v>
       </x:c>
       <x:c r="L30" s="16" t="s">
-        <x:v>70</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M30" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N30" s="17"/>
       <x:c r="O30" s="17"/>
@@ -9900,10 +11135,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D31" s="16" t="s">
-        <x:v>57</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E31" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F31" s="17"/>
       <x:c r="G31" s="17"/>
@@ -9916,10 +11151,10 @@
         <x:v>50100</x:v>
       </x:c>
       <x:c r="L31" s="16" t="s">
-        <x:v>58</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M31" s="16" t="s">
-        <x:v>63</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="N31" s="17"/>
       <x:c r="O31" s="17"/>
@@ -9951,10 +11186,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D32" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E32" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F32" s="17"/>
       <x:c r="G32" s="17"/>
@@ -9967,10 +11202,10 @@
         <x:v>62100</x:v>
       </x:c>
       <x:c r="L32" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="M32" s="16" t="s">
-        <x:v>63</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="N32" s="17"/>
       <x:c r="O32" s="17"/>
@@ -10002,10 +11237,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D33" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E33" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F33" s="17"/>
       <x:c r="G33" s="17"/>
@@ -10018,10 +11253,10 @@
         <x:v>35560</x:v>
       </x:c>
       <x:c r="L33" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M33" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N33" s="17"/>
       <x:c r="O33" s="17"/>
@@ -10056,7 +11291,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F34" s="17"/>
       <x:c r="G34" s="17"/>
@@ -10069,10 +11304,10 @@
         <x:v>36000</x:v>
       </x:c>
       <x:c r="L34" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M34" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N34" s="17"/>
       <x:c r="O34" s="17"/>
@@ -10104,10 +11339,10 @@
         <x:v>36860</x:v>
       </x:c>
       <x:c r="D35" s="28" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E35" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F35" s="17"/>
       <x:c r="G35" s="17"/>
@@ -10120,10 +11355,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="L35" s="16" t="s">
-        <x:v>43</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M35" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N35" s="17"/>
       <x:c r="O35" s="17"/>
@@ -10155,10 +11390,10 @@
         <x:v>10980</x:v>
       </x:c>
       <x:c r="D36" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F36" s="17"/>
       <x:c r="G36" s="17"/>
@@ -10171,10 +11406,10 @@
         <x:v>6600</x:v>
       </x:c>
       <x:c r="L36" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M36" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N36" s="17"/>
       <x:c r="O36" s="17"/>
@@ -10206,10 +11441,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D37" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E37" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F37" s="17"/>
       <x:c r="G37" s="17"/>
@@ -10222,10 +11457,10 @@
         <x:v>33000</x:v>
       </x:c>
       <x:c r="L37" s="16" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="M37" s="16" t="s">
         <x:v>75</x:v>
-      </x:c>
-      <x:c r="M37" s="16" t="s">
-        <x:v>121</x:v>
       </x:c>
       <x:c r="N37" s="17"/>
       <x:c r="O37" s="17"/>
@@ -10257,10 +11492,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D38" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E38" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F38" s="17"/>
       <x:c r="G38" s="17"/>
@@ -10273,10 +11508,10 @@
         <x:v>82000</x:v>
       </x:c>
       <x:c r="L38" s="40" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M38" s="40" t="s">
-        <x:v>104</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="N38" s="17"/>
       <x:c r="O38" s="17"/>
@@ -10317,10 +11552,10 @@
         <x:v>11850</x:v>
       </x:c>
       <x:c r="L39" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M39" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N39" s="17"/>
       <x:c r="O39" s="17"/>
@@ -10360,10 +11595,10 @@
         <x:v>27700</x:v>
       </x:c>
       <x:c r="L40" s="28" t="s">
-        <x:v>117</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M40" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N40" s="17"/>
       <x:c r="O40" s="17"/>
@@ -10403,10 +11638,10 @@
         <x:v>11400</x:v>
       </x:c>
       <x:c r="L41" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M41" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N41" s="17"/>
       <x:c r="O41" s="17"/>
@@ -10446,10 +11681,10 @@
         <x:v>7300</x:v>
       </x:c>
       <x:c r="L42" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M42" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N42" s="17"/>
       <x:c r="O42" s="17"/>
@@ -10492,7 +11727,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M43" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N43" s="17"/>
       <x:c r="O43" s="17"/>
@@ -10532,10 +11767,10 @@
         <x:v>8450</x:v>
       </x:c>
       <x:c r="L44" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M44" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N44" s="17"/>
       <x:c r="O44" s="17"/>
@@ -10575,10 +11810,10 @@
         <x:v>26600</x:v>
       </x:c>
       <x:c r="L45" s="28" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M45" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N45" s="17"/>
       <x:c r="O45" s="17"/>
@@ -10619,10 +11854,10 @@
         <x:v>100200</x:v>
       </x:c>
       <x:c r="L46" s="40" t="s">
-        <x:v>90</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M46" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N46" s="17"/>
       <x:c r="O46" s="17"/>
@@ -10662,10 +11897,10 @@
         <x:v>40000</x:v>
       </x:c>
       <x:c r="L47" s="16" t="s">
-        <x:v>10</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M47" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N47" s="17"/>
       <x:c r="O47" s="17"/>
@@ -10705,10 +11940,10 @@
         <x:v>26000</x:v>
       </x:c>
       <x:c r="L48" s="28" t="s">
-        <x:v>61</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M48" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N48" s="17"/>
       <x:c r="O48" s="17"/>
@@ -10748,10 +11983,10 @@
         <x:v>26400</x:v>
       </x:c>
       <x:c r="L49" s="28" t="s">
-        <x:v>13</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M49" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N49" s="17"/>
       <x:c r="O49" s="17"/>
@@ -10791,10 +12026,10 @@
         <x:v>16110</x:v>
       </x:c>
       <x:c r="L50" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="M50" s="16" t="s">
-        <x:v>6</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="N50" s="17"/>
       <x:c r="O50" s="17"/>
@@ -10834,10 +12069,10 @@
         <x:v>17500</x:v>
       </x:c>
       <x:c r="L51" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M51" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N51" s="17"/>
       <x:c r="O51" s="17"/>
@@ -10877,10 +12112,10 @@
         <x:v>6750</x:v>
       </x:c>
       <x:c r="L52" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M52" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N52" s="17"/>
       <x:c r="O52" s="17"/>
@@ -10920,10 +12155,10 @@
         <x:v>62000</x:v>
       </x:c>
       <x:c r="L53" s="40" t="s">
-        <x:v>109</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M53" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N53" s="17"/>
       <x:c r="O53" s="17"/>
@@ -10963,10 +12198,10 @@
         <x:v>14820</x:v>
       </x:c>
       <x:c r="L54" s="16" t="s">
-        <x:v>22</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M54" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N54" s="17"/>
       <x:c r="O54" s="17"/>
@@ -11006,10 +12241,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="L55" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M55" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N55" s="17"/>
       <x:c r="O55" s="17"/>
@@ -11049,10 +12284,10 @@
         <x:v>16650</x:v>
       </x:c>
       <x:c r="L56" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M56" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N56" s="17"/>
       <x:c r="O56" s="17"/>
@@ -11093,10 +12328,10 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="L57" s="16" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M57" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N57" s="17"/>
       <x:c r="O57" s="17"/>
@@ -11136,10 +12371,10 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="L58" s="16" t="s">
-        <x:v>37</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M58" s="16" t="s">
-        <x:v>111</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N58" s="17"/>
       <x:c r="O58" s="17"/>
@@ -11179,10 +12414,10 @@
         <x:v>6950</x:v>
       </x:c>
       <x:c r="L59" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M59" s="16" t="s">
-        <x:v>111</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N59" s="17"/>
       <x:c r="O59" s="17"/>
@@ -11222,10 +12457,10 @@
         <x:v>21700</x:v>
       </x:c>
       <x:c r="L60" s="28" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M60" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N60" s="17"/>
       <x:c r="O60" s="17"/>
@@ -11265,10 +12500,10 @@
         <x:v>18900</x:v>
       </x:c>
       <x:c r="L61" s="28" t="s">
-        <x:v>41</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="M61" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N61" s="17"/>
       <x:c r="O61" s="17"/>
@@ -11308,10 +12543,10 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="L62" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="M62" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N62" s="17"/>
       <x:c r="O62" s="17"/>
@@ -11351,10 +12586,10 @@
         <x:v>4350</x:v>
       </x:c>
       <x:c r="L63" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M63" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N63" s="17"/>
       <x:c r="O63" s="17"/>
@@ -11394,10 +12629,10 @@
         <x:v>26500</x:v>
       </x:c>
       <x:c r="L64" s="16" t="s">
-        <x:v>19</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="M64" s="16" t="s">
-        <x:v>6</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="N64" s="17"/>
       <x:c r="O64" s="17"/>
@@ -11440,7 +12675,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M65" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N65" s="17"/>
       <x:c r="O65" s="17"/>
@@ -11480,10 +12715,10 @@
         <x:v>2985</x:v>
       </x:c>
       <x:c r="L66" s="16" t="s">
-        <x:v>84</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M66" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N66" s="17"/>
       <x:c r="O66" s="17"/>
@@ -11523,10 +12758,10 @@
         <x:v>104960</x:v>
       </x:c>
       <x:c r="L67" s="16" t="s">
-        <x:v>94</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="M67" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N67" s="17"/>
       <x:c r="O67" s="17"/>
@@ -11566,10 +12801,10 @@
         <x:v>106800</x:v>
       </x:c>
       <x:c r="L68" s="16" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M68" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N68" s="17"/>
       <x:c r="O68" s="17"/>
@@ -11609,10 +12844,10 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="L69" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M69" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N69" s="17"/>
       <x:c r="O69" s="17"/>
@@ -11652,10 +12887,10 @@
         <x:v>21500</x:v>
       </x:c>
       <x:c r="L70" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M70" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N70" s="17"/>
       <x:c r="O70" s="17"/>
@@ -11699,7 +12934,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M71" s="33" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N71" s="17"/>
       <x:c r="O71" s="17"/>
@@ -11739,10 +12974,10 @@
         <x:v>6250</x:v>
       </x:c>
       <x:c r="L72" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M72" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N72" s="17"/>
       <x:c r="O72" s="17"/>
@@ -11782,10 +13017,10 @@
         <x:v>82360</x:v>
       </x:c>
       <x:c r="L73" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M73" s="33" t="s">
-        <x:v>107</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N73" s="37"/>
       <x:c r="O73" s="37"/>
@@ -11825,10 +13060,10 @@
         <x:v>13500</x:v>
       </x:c>
       <x:c r="L74" s="33" t="s">
-        <x:v>8</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M74" s="33" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N74" s="37"/>
       <x:c r="O74" s="37"/>
@@ -11868,10 +13103,10 @@
         <x:v>42460</x:v>
       </x:c>
       <x:c r="L75" s="33" t="s">
-        <x:v>91</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="M75" s="33" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N75" s="37"/>
       <x:c r="O75" s="37"/>
@@ -11911,10 +13146,10 @@
         <x:v>6776</x:v>
       </x:c>
       <x:c r="L76" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="M76" s="33" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N76" s="37"/>
       <x:c r="O76" s="37"/>
@@ -11957,7 +13192,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M77" s="33" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N77" s="10"/>
       <x:c r="O77" s="10"/>
@@ -11997,10 +13232,10 @@
         <x:v>9150</x:v>
       </x:c>
       <x:c r="L78" s="33" t="s">
-        <x:v>105</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M78" s="33" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N78" s="10"/>
       <x:c r="O78" s="10"/>
@@ -12607,19 +13842,19 @@
     </x:row>
     <x:row r="2" spans="1:22" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="44" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
-      <x:c r="G2" s="45"/>
-      <x:c r="H2" s="45"/>
-      <x:c r="I2" s="45"/>
-      <x:c r="J2" s="45"/>
-      <x:c r="K2" s="45"/>
-      <x:c r="L2" s="46"/>
+      <x:c r="B2" s="51" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
+      <x:c r="G2" s="52"/>
+      <x:c r="H2" s="52"/>
+      <x:c r="I2" s="52"/>
+      <x:c r="J2" s="52"/>
+      <x:c r="K2" s="52"/>
+      <x:c r="L2" s="53"/>
       <x:c r="M2" s="10"/>
       <x:c r="N2" s="10"/>
       <x:c r="O2" s="10"/>
@@ -12651,60 +13886,60 @@
     </x:row>
     <x:row r="4" spans="1:22" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="43" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C4" s="43"/>
-      <x:c r="D4" s="43"/>
-      <x:c r="E4" s="43"/>
-      <x:c r="F4" s="43"/>
-      <x:c r="G4" s="43"/>
-      <x:c r="H4" s="43"/>
-      <x:c r="I4" s="43"/>
-      <x:c r="J4" s="43"/>
-      <x:c r="K4" s="43"/>
-      <x:c r="L4" s="43"/>
-      <x:c r="N4" s="47" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="O4" s="47"/>
+      <x:c r="B4" s="50" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C4" s="50"/>
+      <x:c r="D4" s="50"/>
+      <x:c r="E4" s="50"/>
+      <x:c r="F4" s="50"/>
+      <x:c r="G4" s="50"/>
+      <x:c r="H4" s="50"/>
+      <x:c r="I4" s="50"/>
+      <x:c r="J4" s="50"/>
+      <x:c r="K4" s="50"/>
+      <x:c r="L4" s="50"/>
+      <x:c r="N4" s="54" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="O4" s="54"/>
       <x:c r="P4" s="11"/>
       <x:c r="Q4" s="11"/>
-      <x:c r="R4" s="47" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="S4" s="47"/>
+      <x:c r="R4" s="54" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S4" s="54"/>
       <x:c r="T4" s="11"/>
       <x:c r="U4" s="11"/>
       <x:c r="V4" s="11"/>
     </x:row>
     <x:row r="5" spans="1:22">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="48" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C5" s="50" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D5" s="51"/>
-      <x:c r="E5" s="50" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="F5" s="51"/>
-      <x:c r="G5" s="50" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H5" s="51"/>
-      <x:c r="I5" s="50" t="s">
+      <x:c r="B5" s="55" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C5" s="57" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D5" s="58"/>
+      <x:c r="E5" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F5" s="58"/>
+      <x:c r="G5" s="57" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H5" s="58"/>
+      <x:c r="I5" s="57" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="J5" s="51"/>
-      <x:c r="K5" s="50" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="L5" s="52"/>
+      <x:c r="J5" s="58"/>
+      <x:c r="K5" s="57" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L5" s="59"/>
       <x:c r="N5" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O5" s="7">
         <x:f>SUM(C7:L7)</x:f>
@@ -12713,7 +13948,7 @@
       <x:c r="P5" s="10"/>
       <x:c r="Q5" s="10"/>
       <x:c r="R5" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S5" s="7">
         <x:v>0</x:v>
@@ -12724,31 +13959,31 @@
     </x:row>
     <x:row r="6" spans="1:22">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="60"/>
-      <x:c r="C6" s="54" t="s">
+      <x:c r="B6" s="67"/>
+      <x:c r="C6" s="61" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D6" s="62"/>
+      <x:c r="E6" s="63" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F6" s="64"/>
+      <x:c r="G6" s="63" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="D6" s="55"/>
-      <x:c r="E6" s="56" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="F6" s="57"/>
-      <x:c r="G6" s="56" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H6" s="57"/>
-      <x:c r="I6" s="54" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="J6" s="55"/>
+      <x:c r="H6" s="64"/>
+      <x:c r="I6" s="61" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J6" s="62"/>
       <x:c r="K6" s="25" t="s">
-        <x:v>65</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="L6" s="25" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="N6" s="8" t="s">
         <x:v>98</x:v>
-      </x:c>
-      <x:c r="N6" s="8" t="s">
-        <x:v>3</x:v>
       </x:c>
       <x:c r="O6" s="7">
         <x:f>SUM(C9:H9)</x:f>
@@ -12765,22 +14000,22 @@
     <x:row r="7" spans="1:22">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C7" s="53"/>
-      <x:c r="D7" s="53"/>
-      <x:c r="E7" s="53">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C7" s="60"/>
+      <x:c r="D7" s="60"/>
+      <x:c r="E7" s="60">
         <x:v>39000000</x:v>
       </x:c>
-      <x:c r="F7" s="53"/>
-      <x:c r="G7" s="58">
+      <x:c r="F7" s="60"/>
+      <x:c r="G7" s="65">
         <x:v>6900000</x:v>
       </x:c>
-      <x:c r="H7" s="59"/>
-      <x:c r="I7" s="53">
+      <x:c r="H7" s="66"/>
+      <x:c r="I7" s="60">
         <x:v>1000000</x:v>
       </x:c>
-      <x:c r="J7" s="53"/>
+      <x:c r="J7" s="60"/>
       <x:c r="K7" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -12801,22 +14036,22 @@
     <x:row r="8" spans="1:22" ht="17.80000000000000071054">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C8" s="53"/>
-      <x:c r="D8" s="53"/>
-      <x:c r="E8" s="53">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C8" s="60"/>
+      <x:c r="D8" s="60"/>
+      <x:c r="E8" s="60">
         <x:v>179849</x:v>
       </x:c>
-      <x:c r="F8" s="53"/>
-      <x:c r="G8" s="58">
+      <x:c r="F8" s="60"/>
+      <x:c r="G8" s="65">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H8" s="59"/>
-      <x:c r="I8" s="53">
+      <x:c r="H8" s="66"/>
+      <x:c r="I8" s="60">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J8" s="53"/>
+      <x:c r="J8" s="60"/>
       <x:c r="K8" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -12824,10 +14059,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="10"/>
-      <x:c r="N8" s="47" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="O8" s="47"/>
+      <x:c r="N8" s="54" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="O8" s="54"/>
       <x:c r="P8" s="10"/>
       <x:c r="Q8" s="10"/>
       <x:c r="R8" s="10"/>
@@ -12839,28 +14074,28 @@
     <x:row r="9" spans="1:22">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C9" s="53">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C9" s="60">
         <x:f>C8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D9" s="53"/>
-      <x:c r="E9" s="53">
+      <x:c r="D9" s="60"/>
+      <x:c r="E9" s="60">
         <x:f>E8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F9" s="53"/>
-      <x:c r="G9" s="53">
+      <x:c r="F9" s="60"/>
+      <x:c r="G9" s="60">
         <x:f>G8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H9" s="53"/>
-      <x:c r="I9" s="53">
+      <x:c r="H9" s="60"/>
+      <x:c r="I9" s="60">
         <x:f>I8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J9" s="53"/>
+      <x:c r="J9" s="60"/>
       <x:c r="K9" s="7">
         <x:f>K8*0</x:f>
         <x:v>0</x:v>
@@ -12871,7 +14106,7 @@
       </x:c>
       <x:c r="M9" s="10"/>
       <x:c r="N9" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O9" s="7">
         <x:f>O5-G7</x:f>

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -25,390 +25,402 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="128">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="132">
+  <x:si>
+    <x:t>다이소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타(데이트통장+유투브 구독)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건강검진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가슴패치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용돈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고정지출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드결제료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소득계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>셍활비(식비)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편의점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시가스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피부과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 3월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드값(전월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자금</x:t>
+  </x:si>
   <x:si>
     <x:t>2024년 1월 송민영의 자본</x:t>
   </x:si>
   <x:si>
+    <x:t>아침(편의점)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈모약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>닭가슴살</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고정수입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈플러스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잔액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정기예금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주택관리비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류구입비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청약통장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생활비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출계 = 변동지출 + 고정지출 + 비상금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통신비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피트니스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현금사용실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출률 = 지출계/소득계*100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영강습</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취미</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채권</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(감자탕)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비상금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돈까스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 2월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아침</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명절선물비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영 이어폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뽀미약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교통후불</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세탁비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>귀성비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액조정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가용자산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점심(데이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이소 및 마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(데이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본죽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 1월 송민영의 가계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월 결산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올리브영(치실)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소득</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교통비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이스크림점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생활비(식비)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미용(커트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마트(쌀구매)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빨래</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(모임)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요가 강습</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출목표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설 명절 선물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변동지출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>택시비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드사용실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요가매트 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(치킨)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단백질바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현금 흐름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점심</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드값(금월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출계</x:t>
+  </x:si>
+  <x:si>
     <x:t>국민은행</x:t>
   </x:si>
   <x:si>
-    <x:t>청약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시가스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드값(금월)</x:t>
-  </x:si>
-  <x:si>
     <x:t>변동수입</x:t>
   </x:si>
   <x:si>
-    <x:t>비상금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현금 흐름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드결제료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>커트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점심</x:t>
-  </x:si>
-  <x:si>
-    <x:t>용돈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이스크림점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주택관리비</x:t>
+    <x:t>노래방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축목표</x:t>
   </x:si>
   <x:si>
     <x:t>커피</x:t>
   </x:si>
   <x:si>
+    <x:t>금액</x:t>
+  </x:si>
+  <x:si>
     <x:t>해든마트</x:t>
   </x:si>
   <x:si>
-    <x:t>기타(데이트통장+유투브 구독)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈플러스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABC마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고정수입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실적</x:t>
+    <x:t>적금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김밥천국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올리브영</x:t>
   </x:si>
   <x:si>
     <x:t>주거비</x:t>
   </x:si>
   <x:si>
-    <x:t>카드사용실적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(치킨)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마트(쌀구매)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소득계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단백질바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(감자탕)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류구입비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설 명절 선물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아침(편의점)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 2월 송민영의 자본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채권</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물</x:t>
+    <x:t>`</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축률 = 저축계/소득계*100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 2월 송민영의 가계부</x:t>
   </x:si>
   <x:si>
     <x:t>한전</x:t>
   </x:si>
   <x:si>
-    <x:t>수영 이어폰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(데이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드값(전월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수영복</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노래방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소득</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이소 및 마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 3월 송민영의 자본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액조정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잔액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청약통장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교통후불</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김밥천국</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피트니스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정기예금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명절선물비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돈까스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생활비(식비)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가용자산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피부과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월 결산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미용(커트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 2월 송민영의 가계부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생활비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뽀미약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가슴패치</x:t>
-  </x:si>
-  <x:si>
     <x:t>잔액 = 소득계 - (지출계+저축계+투자계)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올리브영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축률 = 저축계/소득계*100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고정지출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>셍활비(식비)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>닭가슴살</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출률 = 지출계/소득계*100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주차비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점심(데이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취미</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올리브영(치실)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출계 = 변동지출 + 고정지출 + 비상금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변동지출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건강검진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 1월 송민영의 가계부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>택시비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>`</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현금사용실적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈모약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>귀성비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아침</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통신비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본죽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(모임)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빨래</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수영강습</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교통비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -420,7 +432,7 @@
     <x:numFmt numFmtId="165" formatCode="0.0%"/>
     <x:numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </x:numFmts>
-  <x:fonts count="13">
+  <x:fonts count="12">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -451,12 +463,28 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -479,11 +507,26 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="12"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -506,12 +549,6 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="16"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -538,8 +575,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
           <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffffffff"/>
+          <x:sz val="16"/>
+          <x:color rgb="ff000000"/>
           <x:b val="1"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
@@ -550,14 +587,14 @@
       <mc:Fallback>
         <x:font>
           <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffffffff"/>
+          <x:sz val="16"/>
+          <x:color rgb="ff000000"/>
           <x:b val="1"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="9">
+  <x:fills count="10">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -596,14 +633,20 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
+        <x:fgColor rgb="ff404040"/>
+        <x:bgColor rgb="ff404040"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
         <x:fgColor rgb="ff000000"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ff404040"/>
-        <x:bgColor rgb="ff404040"/>
+        <x:fgColor rgb="ffffff00"/>
+        <x:bgColor rgb="ffffffff"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -749,16 +792,44 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="medium">
+      <x:left style="thin">
         <x:color auto="1"/>
       </x:left>
       <x:right>
         <x:color auto="1"/>
       </x:right>
-      <x:top style="medium">
+      <x:top style="thin">
         <x:color auto="1"/>
       </x:top>
-      <x:bottom style="medium">
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -769,53 +840,39 @@
       <x:right>
         <x:color auto="1"/>
       </x:right>
-      <x:top style="medium">
+      <x:top>
         <x:color auto="1"/>
       </x:top>
-      <x:bottom style="medium">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="medium">
+      <x:bottom style="thin">
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="ffd9d9d9"/>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
       </x:left>
       <x:right>
         <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="ffd9d9d9"/>
+        <x:color auto="1"/>
       </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ffd9d9d9"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
+      <x:bottom>
         <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ffd9d9d9"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ffd9d9d9"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ffd9d9d9"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -826,10 +883,10 @@
         <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="ffd9d9d9"/>
+        <x:color auto="1"/>
       </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ffd9d9d9"/>
+      <x:bottom>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -889,16 +946,16 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="thin">
+      <x:left style="medium">
         <x:color auto="1"/>
       </x:left>
       <x:right>
         <x:color auto="1"/>
       </x:right>
-      <x:top style="thin">
+      <x:top style="medium">
         <x:color auto="1"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom style="medium">
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -906,13 +963,27 @@
       <x:left>
         <x:color auto="1"/>
       </x:left>
-      <x:right style="thin">
+      <x:right>
         <x:color auto="1"/>
       </x:right>
-      <x:top style="thin">
+      <x:top style="medium">
         <x:color auto="1"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -928,6 +999,48 @@
       </x:top>
       <x:bottom>
         <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ffd9d9d9"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ffd9d9d9"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ffd9d9d9"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ffd9d9d9"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ffd9d9d9"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ffd9d9d9"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ffd9d9d9"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ffd9d9d9"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -970,6 +1083,34 @@
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -1028,104 +1169,6 @@
         <x:color rgb="ffd9d9d9"/>
       </x:bottom>
     </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
   </x:borders>
   <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1154,7 +1197,7 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </x:cellStyleXfs>
-  <x:cellXfs count="103">
+  <x:cellXfs count="105">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1765,337 +1808,83 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="41" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1">
+    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1">
+    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="right" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="right" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2103,27 +1892,427 @@
     <x:xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="5">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2511,6 +2700,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2543,6 +2733,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2573,6 +2764,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2603,6 +2795,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2635,6 +2828,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2669,6 +2863,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2701,6 +2896,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2733,6 +2929,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2763,6 +2960,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2793,6 +2991,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2825,6 +3024,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2859,6 +3059,7 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2892,7 +3093,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3236,7 +3436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet2"/>
+  <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:Z11"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
@@ -3288,19 +3488,19 @@
     </x:row>
     <x:row r="2" spans="1:26" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="57" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C2" s="58"/>
-      <x:c r="D2" s="58"/>
-      <x:c r="E2" s="58"/>
-      <x:c r="F2" s="58"/>
-      <x:c r="G2" s="58"/>
-      <x:c r="H2" s="58"/>
-      <x:c r="I2" s="58"/>
-      <x:c r="J2" s="58"/>
-      <x:c r="K2" s="58"/>
-      <x:c r="L2" s="59"/>
+      <x:c r="B2" s="83" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C2" s="84"/>
+      <x:c r="D2" s="84"/>
+      <x:c r="E2" s="84"/>
+      <x:c r="F2" s="84"/>
+      <x:c r="G2" s="84"/>
+      <x:c r="H2" s="84"/>
+      <x:c r="I2" s="84"/>
+      <x:c r="J2" s="84"/>
+      <x:c r="K2" s="84"/>
+      <x:c r="L2" s="85"/>
       <x:c r="M2" s="10"/>
       <x:c r="N2" s="10"/>
       <x:c r="O2" s="10"/>
@@ -3346,28 +3546,28 @@
     </x:row>
     <x:row r="4" spans="1:26" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="56" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C4" s="56"/>
-      <x:c r="D4" s="56"/>
-      <x:c r="E4" s="56"/>
-      <x:c r="F4" s="56"/>
-      <x:c r="G4" s="56"/>
-      <x:c r="H4" s="56"/>
-      <x:c r="I4" s="56"/>
-      <x:c r="J4" s="56"/>
-      <x:c r="K4" s="56"/>
-      <x:c r="L4" s="56"/>
+      <x:c r="B4" s="86" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C4" s="86"/>
+      <x:c r="D4" s="86"/>
+      <x:c r="E4" s="86"/>
+      <x:c r="F4" s="86"/>
+      <x:c r="G4" s="86"/>
+      <x:c r="H4" s="86"/>
+      <x:c r="I4" s="86"/>
+      <x:c r="J4" s="86"/>
+      <x:c r="K4" s="86"/>
+      <x:c r="L4" s="86"/>
       <x:c r="M4" s="11"/>
-      <x:c r="N4" s="60" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="O4" s="60"/>
-      <x:c r="Q4" s="60" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="R4" s="60"/>
+      <x:c r="N4" s="75" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="O4" s="75"/>
+      <x:c r="Q4" s="75" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="R4" s="75"/>
       <x:c r="S4" s="11"/>
       <x:c r="V4" s="11"/>
       <x:c r="W4" s="11"/>
@@ -3377,39 +3577,39 @@
     </x:row>
     <x:row r="5" spans="1:26">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="61" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C5" s="63" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D5" s="64"/>
-      <x:c r="E5" s="63" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="F5" s="64"/>
-      <x:c r="G5" s="63" t="s">
+      <x:c r="B5" s="87" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C5" s="89" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D5" s="90"/>
+      <x:c r="E5" s="89" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="H5" s="64"/>
-      <x:c r="I5" s="63" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="J5" s="64"/>
-      <x:c r="K5" s="63" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="L5" s="65"/>
+      <x:c r="F5" s="90"/>
+      <x:c r="G5" s="89" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H5" s="90"/>
+      <x:c r="I5" s="89" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="J5" s="90"/>
+      <x:c r="K5" s="89" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L5" s="91"/>
       <x:c r="M5" s="10"/>
       <x:c r="N5" s="8" t="s">
-        <x:v>109</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="O5" s="7">
         <x:f>R5+SUM(C8:L8)</x:f>
         <x:v>48800000</x:v>
       </x:c>
       <x:c r="Q5" s="8" t="s">
-        <x:v>109</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="R5" s="7">
         <x:f>'2월(자산)'!O5</x:f>
@@ -3424,32 +3624,32 @@
     </x:row>
     <x:row r="6" spans="1:26">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="73"/>
-      <x:c r="C6" s="67" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D6" s="68"/>
-      <x:c r="E6" s="69" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F6" s="70"/>
-      <x:c r="G6" s="69" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H6" s="70"/>
-      <x:c r="I6" s="67" t="s">
+      <x:c r="B6" s="88"/>
+      <x:c r="C6" s="77" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D6" s="78"/>
+      <x:c r="E6" s="79" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F6" s="80"/>
+      <x:c r="G6" s="79" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="H6" s="80"/>
+      <x:c r="I6" s="77" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="J6" s="78"/>
+      <x:c r="K6" s="25" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="J6" s="68"/>
-      <x:c r="K6" s="25" t="s">
-        <x:v>70</x:v>
       </x:c>
       <x:c r="L6" s="25" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="M6" s="10"/>
       <x:c r="N6" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="O6" s="7">
         <x:f>SUM(C9:L9)</x:f>
@@ -3468,27 +3668,27 @@
     <x:row r="7" spans="1:26">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C7" s="66">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C7" s="76">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D7" s="66"/>
-      <x:c r="E7" s="71">
+      <x:c r="D7" s="76"/>
+      <x:c r="E7" s="81">
         <x:f>SUM('2월(자산)'!E7:F8)</x:f>
         <x:v>39179849</x:v>
       </x:c>
-      <x:c r="F7" s="72"/>
-      <x:c r="G7" s="71">
+      <x:c r="F7" s="82"/>
+      <x:c r="G7" s="81">
         <x:f>SUM('2월(자산)'!G7:H8)</x:f>
         <x:v>7000000</x:v>
       </x:c>
-      <x:c r="H7" s="72"/>
-      <x:c r="I7" s="66">
+      <x:c r="H7" s="82"/>
+      <x:c r="I7" s="76">
         <x:f>SUM('2월(자산)'!I7:J8)</x:f>
         <x:v>2800000</x:v>
       </x:c>
-      <x:c r="J7" s="66"/>
+      <x:c r="J7" s="76"/>
       <x:c r="K7" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -3513,24 +3713,24 @@
     <x:row r="8" spans="1:26" ht="17.80000000000000071054">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C8" s="66">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C8" s="76">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D8" s="66"/>
-      <x:c r="E8" s="71">
+      <x:c r="D8" s="76"/>
+      <x:c r="E8" s="81">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F8" s="72"/>
-      <x:c r="G8" s="71">
+      <x:c r="F8" s="82"/>
+      <x:c r="G8" s="81">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H8" s="72"/>
-      <x:c r="I8" s="71">
+      <x:c r="H8" s="82"/>
+      <x:c r="I8" s="81">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J8" s="72"/>
+      <x:c r="J8" s="82"/>
       <x:c r="K8" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -3538,10 +3738,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="10"/>
-      <x:c r="N8" s="60" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O8" s="60"/>
+      <x:c r="N8" s="75" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="O8" s="75"/>
       <x:c r="P8" s="10"/>
       <x:c r="Q8" s="10"/>
       <x:c r="R8" s="10"/>
@@ -3557,28 +3757,28 @@
     <x:row r="9" spans="1:26">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="C9" s="66">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C9" s="76">
         <x:f>C8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D9" s="66"/>
-      <x:c r="E9" s="66">
+      <x:c r="D9" s="76"/>
+      <x:c r="E9" s="76">
         <x:f>E8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F9" s="66"/>
-      <x:c r="G9" s="66">
+      <x:c r="F9" s="76"/>
+      <x:c r="G9" s="76">
         <x:f>G8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H9" s="66"/>
-      <x:c r="I9" s="66">
+      <x:c r="H9" s="76"/>
+      <x:c r="I9" s="76">
         <x:f>I8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J9" s="66"/>
+      <x:c r="J9" s="76"/>
       <x:c r="K9" s="7">
         <x:f>K8*0</x:f>
         <x:v>0</x:v>
@@ -3589,7 +3789,7 @@
       </x:c>
       <x:c r="M9" s="10"/>
       <x:c r="N9" s="8" t="s">
-        <x:v>109</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="O9" s="7">
         <x:f>O5-G7</x:f>
@@ -3675,12 +3875,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet3" filterMode="1"/>
+  <x:sheetPr codeName="Sheet2" filterMode="1"/>
   <x:dimension ref="A1:AI82"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <x:pane xSplit="2" ySplit="15" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
-      <x:selection pane="bottomRight" activeCell="H11" activeCellId="0" sqref="H11:H11"/>
+      <x:pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <x:selection pane="bottomRight" activeCell="L30" activeCellId="0" sqref="L30:L30"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.39999999999999857891"/>
@@ -3743,31 +3943,31 @@
     </x:row>
     <x:row r="2" spans="1:35" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="77" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C2" s="77"/>
-      <x:c r="D2" s="77"/>
-      <x:c r="E2" s="77"/>
-      <x:c r="F2" s="77"/>
-      <x:c r="G2" s="77"/>
-      <x:c r="H2" s="77"/>
-      <x:c r="I2" s="77"/>
-      <x:c r="J2" s="77"/>
-      <x:c r="K2" s="77"/>
-      <x:c r="L2" s="77"/>
-      <x:c r="M2" s="77"/>
-      <x:c r="N2" s="77"/>
-      <x:c r="O2" s="77"/>
-      <x:c r="P2" s="77"/>
-      <x:c r="Q2" s="77"/>
-      <x:c r="R2" s="77"/>
-      <x:c r="S2" s="77"/>
-      <x:c r="T2" s="77"/>
-      <x:c r="U2" s="77"/>
-      <x:c r="V2" s="77"/>
-      <x:c r="W2" s="77"/>
-      <x:c r="X2" s="77"/>
+      <x:c r="B2" s="92" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C2" s="92"/>
+      <x:c r="D2" s="92"/>
+      <x:c r="E2" s="92"/>
+      <x:c r="F2" s="92"/>
+      <x:c r="G2" s="92"/>
+      <x:c r="H2" s="92"/>
+      <x:c r="I2" s="92"/>
+      <x:c r="J2" s="92"/>
+      <x:c r="K2" s="92"/>
+      <x:c r="L2" s="92"/>
+      <x:c r="M2" s="92"/>
+      <x:c r="N2" s="92"/>
+      <x:c r="O2" s="92"/>
+      <x:c r="P2" s="92"/>
+      <x:c r="Q2" s="92"/>
+      <x:c r="R2" s="92"/>
+      <x:c r="S2" s="92"/>
+      <x:c r="T2" s="92"/>
+      <x:c r="U2" s="92"/>
+      <x:c r="V2" s="92"/>
+      <x:c r="W2" s="92"/>
+      <x:c r="X2" s="92"/>
       <x:c r="Y2" s="10"/>
       <x:c r="Z2" s="10"/>
       <x:c r="AA2" s="10"/>
@@ -3819,33 +4019,33 @@
     </x:row>
     <x:row r="4" spans="1:35" s="9" customFormat="1" ht="17.80000000000000071054" customHeight="1">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="78" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C4" s="79"/>
-      <x:c r="D4" s="79"/>
-      <x:c r="E4" s="84"/>
-      <x:c r="F4" s="84"/>
-      <x:c r="G4" s="84"/>
-      <x:c r="H4" s="84"/>
-      <x:c r="I4" s="92"/>
-      <x:c r="J4" s="84"/>
-      <x:c r="K4" s="92"/>
-      <x:c r="L4" s="84"/>
-      <x:c r="M4" s="79"/>
-      <x:c r="N4" s="79"/>
-      <x:c r="O4" s="79"/>
-      <x:c r="P4" s="79"/>
-      <x:c r="Q4" s="79"/>
-      <x:c r="R4" s="79"/>
-      <x:c r="S4" s="79"/>
-      <x:c r="T4" s="79"/>
-      <x:c r="U4" s="80"/>
+      <x:c r="B4" s="93" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C4" s="94"/>
+      <x:c r="D4" s="94"/>
+      <x:c r="E4" s="95"/>
+      <x:c r="F4" s="95"/>
+      <x:c r="G4" s="95"/>
+      <x:c r="H4" s="95"/>
+      <x:c r="I4" s="96"/>
+      <x:c r="J4" s="95"/>
+      <x:c r="K4" s="96"/>
+      <x:c r="L4" s="95"/>
+      <x:c r="M4" s="94"/>
+      <x:c r="N4" s="94"/>
+      <x:c r="O4" s="94"/>
+      <x:c r="P4" s="94"/>
+      <x:c r="Q4" s="94"/>
+      <x:c r="R4" s="94"/>
+      <x:c r="S4" s="94"/>
+      <x:c r="T4" s="94"/>
+      <x:c r="U4" s="97"/>
       <x:c r="V4" s="11"/>
-      <x:c r="W4" s="60" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="X4" s="60"/>
+      <x:c r="W4" s="75" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="X4" s="75"/>
       <x:c r="Y4" s="11"/>
       <x:c r="Z4" s="11"/>
       <x:c r="AA4" s="11"/>
@@ -3860,43 +4060,43 @@
     </x:row>
     <x:row r="5" spans="1:35">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="73" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C5" s="81" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D5" s="82"/>
-      <x:c r="E5" s="85" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F5" s="85"/>
-      <x:c r="G5" s="85"/>
-      <x:c r="H5" s="85"/>
-      <x:c r="I5" s="85"/>
-      <x:c r="J5" s="85"/>
-      <x:c r="K5" s="85"/>
-      <x:c r="L5" s="85"/>
-      <x:c r="M5" s="81" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="N5" s="83"/>
-      <x:c r="O5" s="83"/>
-      <x:c r="P5" s="83"/>
-      <x:c r="Q5" s="82"/>
-      <x:c r="R5" s="73" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="S5" s="81" t="s">
+      <x:c r="B5" s="88" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C5" s="99" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D5" s="100"/>
+      <x:c r="E5" s="101" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F5" s="101"/>
+      <x:c r="G5" s="101"/>
+      <x:c r="H5" s="101"/>
+      <x:c r="I5" s="101"/>
+      <x:c r="J5" s="101"/>
+      <x:c r="K5" s="101"/>
+      <x:c r="L5" s="101"/>
+      <x:c r="M5" s="99" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="N5" s="102"/>
+      <x:c r="O5" s="102"/>
+      <x:c r="P5" s="102"/>
+      <x:c r="Q5" s="100"/>
+      <x:c r="R5" s="88" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="S5" s="99" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="T5" s="82"/>
-      <x:c r="U5" s="73" t="s">
-        <x:v>119</x:v>
+      <x:c r="T5" s="100"/>
+      <x:c r="U5" s="88" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="V5" s="10"/>
       <x:c r="W5" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="X5" s="7">
         <x:f>D10</x:f>
@@ -3916,70 +4116,70 @@
     </x:row>
     <x:row r="6" spans="1:35">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="62"/>
+      <x:c r="B6" s="98"/>
       <x:c r="C6" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
-        <x:v>6</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E6" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F6" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G6" s="8" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H6" s="8" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="I6" s="86" t="s">
-        <x:v>99</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I6" s="59" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J6" s="8" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="K6" s="59" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L6" s="8" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="M6" s="8" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="K6" s="86" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="L6" s="8" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="M6" s="8" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="N6" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="O6" s="20" t="s">
-        <x:v>88</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="P6" s="20" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q6" s="20" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="R6" s="62"/>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="R6" s="98"/>
       <x:c r="S6" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="T6" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="U6" s="62"/>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="U6" s="98"/>
       <x:c r="V6" s="10"/>
       <x:c r="W6" s="8" t="s">
-        <x:v>62</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="X6" s="7">
         <x:f>L10+Q10+R10</x:f>
-        <x:v>1969033</x:v>
+        <x:v>2220033</x:v>
       </x:c>
       <x:c r="Y6" s="10" t="s">
-        <x:v>101</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Z6" s="10"/>
       <x:c r="AA6" s="10"/>
@@ -3995,7 +4195,7 @@
     <x:row r="7" spans="1:35">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C7" s="6">
         <x:f>4650214</x:f>
@@ -4013,22 +4213,20 @@
       <x:c r="G7" s="6">
         <x:v>400000</x:v>
       </x:c>
-      <x:c r="H7" s="87">
+      <x:c r="H7" s="60">
         <x:v>400000</x:v>
       </x:c>
-      <x:c r="I7" s="88">
-        <x:v>6793</x:v>
-      </x:c>
-      <x:c r="J7" s="94" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="K7" s="98">
+      <x:c r="I7" s="61"/>
+      <x:c r="J7" s="66" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K7" s="70">
         <x:v>100000</x:v>
       </x:c>
-      <x:c r="L7" s="98">
+      <x:c r="L7" s="70">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="M7" s="95">
+      <x:c r="M7" s="67">
         <x:v>300000</x:v>
       </x:c>
       <x:c r="N7" s="6">
@@ -4057,7 +4255,7 @@
       <x:c r="U7" s="6"/>
       <x:c r="V7" s="10"/>
       <x:c r="W7" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="X7" s="7">
         <x:f>T10</x:f>
@@ -4078,7 +4276,7 @@
     <x:row r="8" spans="1:35">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="7">
         <x:f>4650214</x:f>
@@ -4090,35 +4288,35 @@
       <x:c r="E8" s="7">
         <x:v>310189</x:v>
       </x:c>
-      <x:c r="F8" s="100">
+      <x:c r="F8" s="72">
         <x:f>+SUMIF($O$16:$O$66,F$6,$M$16:$M$66)</x:f>
         <x:v>18090</x:v>
       </x:c>
-      <x:c r="G8" s="100">
+      <x:c r="G8" s="72">
         <x:f>SUMIF($O$16:$O$66,G$6,$M$16:$M$66)</x:f>
         <x:v>160800</x:v>
       </x:c>
-      <x:c r="H8" s="101">
+      <x:c r="H8" s="73">
         <x:f>SUMIF($O$16:$O$66,H$6,$M$16:$M$66)</x:f>
-        <x:v>245260</x:v>
-      </x:c>
-      <x:c r="I8" s="99">
+        <x:v>350460</x:v>
+      </x:c>
+      <x:c r="I8" s="71">
         <x:f>SUMIF($O$16:$O$66,I$6,$M$16:$M$66)</x:f>
-        <x:v>6793</x:v>
-      </x:c>
-      <x:c r="J8" s="102">
+        <x:v>152593</x:v>
+      </x:c>
+      <x:c r="J8" s="74">
         <x:f>SUMIF($O$16:$O$66,J$6,$M$16:$M$66)</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K8" s="99">
+      <x:c r="K8" s="71">
         <x:f>SUMIF($O$16:$O$66,K$6,$M$16:$M$66)</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="L8" s="99">
+      <x:c r="L8" s="71">
         <x:f>SUMIF($O$16:$O$66,L$6,$M$16:$M$66)</x:f>
         <x:v>89680</x:v>
       </x:c>
-      <x:c r="M8" s="95">
+      <x:c r="M8" s="67">
         <x:v>300000</x:v>
       </x:c>
       <x:c r="N8" s="6">
@@ -4150,7 +4348,7 @@
       </x:c>
       <x:c r="V8" s="10"/>
       <x:c r="W8" s="8" t="s">
-        <x:v>71</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="X8" s="7">
         <x:v>200000</x:v>
@@ -4170,7 +4368,7 @@
     <x:row r="9" spans="1:35">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>59</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:f>C8-C7</x:f>
@@ -4180,39 +4378,35 @@
         <x:f>D8-D7</x:f>
         <x:v>65000</x:v>
       </x:c>
-      <x:c r="E9" s="89">
-        <x:f t="shared" si="0"/>
+      <x:c r="E9" s="62">
         <x:v>-10189</x:v>
       </x:c>
-      <x:c r="F9" s="99">
+      <x:c r="F9" s="71">
         <x:f>F7-F8</x:f>
         <x:v>101910</x:v>
       </x:c>
-      <x:c r="G9" s="99">
+      <x:c r="G9" s="71">
         <x:f>G7-G8</x:f>
         <x:v>239200</x:v>
       </x:c>
-      <x:c r="H9" s="99">
+      <x:c r="H9" s="71">
         <x:f>H7-H8</x:f>
-        <x:v>154740</x:v>
-      </x:c>
-      <x:c r="I9" s="99">
-        <x:f>I7-I8</x:f>
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J9" s="99" t="e">
+        <x:v>49540</x:v>
+      </x:c>
+      <x:c r="I9" s="71"/>
+      <x:c r="J9" s="71" t="e">
         <x:f>J7-J8</x:f>
         <x:v>#VALUE!</x:v>
       </x:c>
-      <x:c r="K9" s="99">
+      <x:c r="K9" s="71">
         <x:f>K7-K8</x:f>
         <x:v>100000</x:v>
       </x:c>
-      <x:c r="L9" s="90">
+      <x:c r="L9" s="63">
         <x:f>L7-L8</x:f>
         <x:v>-89680</x:v>
       </x:c>
-      <x:c r="M9" s="91">
+      <x:c r="M9" s="64">
         <x:f>M7-M8</x:f>
         <x:v>0</x:v>
       </x:c>
@@ -4250,14 +4444,14 @@
       </x:c>
       <x:c r="V9" s="10"/>
       <x:c r="W9" s="8" t="s">
-        <x:v>60</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="X9" s="7">
         <x:f>X5-(X6+X7+X8)</x:f>
-        <x:v>646181</x:v>
+        <x:v>395181</x:v>
       </x:c>
       <x:c r="Y9" s="13" t="s">
-        <x:v>87</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="Z9" s="10"/>
       <x:c r="AA9" s="10"/>
@@ -4284,10 +4478,10 @@
       <x:c r="H10" s="10"/>
       <x:c r="I10" s="44"/>
       <x:c r="J10" s="10"/>
-      <x:c r="K10" s="97"/>
-      <x:c r="L10" s="97">
+      <x:c r="K10" s="69"/>
+      <x:c r="L10" s="69">
         <x:f>SUM(E8:L8)</x:f>
-        <x:v>830812</x:v>
+        <x:v>1081812</x:v>
       </x:c>
       <x:c r="M10" s="17"/>
       <x:c r="N10" s="17"/>
@@ -4312,14 +4506,14 @@
       </x:c>
       <x:c r="V10" s="10"/>
       <x:c r="W10" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="X10" s="23">
         <x:f>X6/X5</x:f>
-        <x:v>0.41759143911601893</x:v>
+        <x:v>0.47082338150505998</x:v>
       </x:c>
       <x:c r="Y10" s="10" t="s">
-        <x:v>95</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="Z10" s="10"/>
       <x:c r="AA10" s="10"/>
@@ -4356,14 +4550,14 @@
       <x:c r="U11" s="12"/>
       <x:c r="V11" s="10"/>
       <x:c r="W11" s="21" t="s">
-        <x:v>76</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="X11" s="23">
         <x:f>X7/X5</x:f>
         <x:v>0.4029509583234186</x:v>
       </x:c>
       <x:c r="Y11" s="10" t="s">
-        <x:v>90</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="Z11" s="10"/>
       <x:c r="AA11" s="10"/>
@@ -4379,7 +4573,7 @@
     <x:row r="12" spans="1:35">
       <x:c r="A12" s="10"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C12" s="7">
         <x:f>SUM(C16:C66)</x:f>
@@ -4442,7 +4636,7 @@
       <x:c r="U13" s="10"/>
       <x:c r="V13" s="10"/>
       <x:c r="W13" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="X13" s="19">
         <x:v>0.5</x:v>
@@ -4464,26 +4658,26 @@
     </x:row>
     <x:row r="14" spans="1:35" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A14" s="11"/>
-      <x:c r="B14" s="56" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C14" s="56"/>
-      <x:c r="D14" s="56"/>
-      <x:c r="E14" s="56"/>
+      <x:c r="B14" s="86" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C14" s="86"/>
+      <x:c r="D14" s="86"/>
+      <x:c r="E14" s="86"/>
       <x:c r="F14" s="17" t="s">
-        <x:v>111</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G14" s="17"/>
       <x:c r="H14" s="17"/>
-      <x:c r="I14" s="74"/>
+      <x:c r="I14" s="56"/>
       <x:c r="J14" s="11"/>
-      <x:c r="K14" s="93"/>
-      <x:c r="L14" s="56" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="M14" s="56"/>
-      <x:c r="N14" s="56"/>
-      <x:c r="O14" s="56"/>
+      <x:c r="K14" s="65"/>
+      <x:c r="L14" s="86" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="M14" s="86"/>
+      <x:c r="N14" s="86"/>
+      <x:c r="O14" s="86"/>
       <x:c r="P14" s="11"/>
       <x:c r="Q14" s="11"/>
       <x:c r="R14" s="11"/>
@@ -4492,7 +4686,7 @@
       <x:c r="U14" s="11"/>
       <x:c r="V14" s="11"/>
       <x:c r="W14" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="X14" s="19">
         <x:v>0.5</x:v>
@@ -4515,34 +4709,34 @@
     <x:row r="15" spans="1:35">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F15" s="17"/>
       <x:c r="G15" s="17"/>
       <x:c r="H15" s="17"/>
-      <x:c r="I15" s="75"/>
+      <x:c r="I15" s="57"/>
       <x:c r="J15" s="10"/>
       <x:c r="K15" s="44"/>
       <x:c r="L15" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="M15" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="N15" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O15" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="P15" s="10"/>
       <x:c r="Q15" s="10"/>
@@ -4574,15 +4768,15 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>43</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>125</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="22"/>
       <x:c r="H16" s="22"/>
-      <x:c r="I16" s="76"/>
+      <x:c r="I16" s="58"/>
       <x:c r="J16" s="10"/>
       <x:c r="K16" s="44"/>
       <x:c r="L16" s="26">
@@ -4592,10 +4786,10 @@
         <x:v>89680</x:v>
       </x:c>
       <x:c r="N16" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="O16" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="P16" s="22"/>
       <x:c r="Q16" s="22"/>
@@ -4627,15 +4821,15 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F17" s="17"/>
       <x:c r="G17" s="17"/>
       <x:c r="H17" s="17"/>
-      <x:c r="I17" s="75"/>
+      <x:c r="I17" s="57"/>
       <x:c r="J17" s="10"/>
       <x:c r="K17" s="44"/>
       <x:c r="L17" s="30">
@@ -4645,10 +4839,10 @@
         <x:v>54630</x:v>
       </x:c>
       <x:c r="N17" s="28" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="O17" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="P17" s="17"/>
       <x:c r="Q17" s="17"/>
@@ -4680,15 +4874,15 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D18" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F18" s="17"/>
       <x:c r="G18" s="17"/>
       <x:c r="H18" s="17"/>
-      <x:c r="I18" s="75"/>
+      <x:c r="I18" s="57"/>
       <x:c r="J18" s="10"/>
       <x:c r="K18" s="44"/>
       <x:c r="L18" s="30">
@@ -4698,10 +4892,10 @@
         <x:v>22300</x:v>
       </x:c>
       <x:c r="N18" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="O18" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="P18" s="17"/>
       <x:c r="Q18" s="17"/>
@@ -4733,15 +4927,15 @@
         <x:v>1200</x:v>
       </x:c>
       <x:c r="D19" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s">
-        <x:v>125</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F19" s="17"/>
       <x:c r="G19" s="17"/>
       <x:c r="H19" s="17"/>
-      <x:c r="I19" s="75"/>
+      <x:c r="I19" s="57"/>
       <x:c r="J19" s="10"/>
       <x:c r="K19" s="44"/>
       <x:c r="L19" s="30">
@@ -4751,10 +4945,10 @@
         <x:v>77300</x:v>
       </x:c>
       <x:c r="N19" s="28" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="O19" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P19" s="17"/>
       <x:c r="Q19" s="17"/>
@@ -4786,15 +4980,15 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F20" s="17"/>
       <x:c r="G20" s="17"/>
       <x:c r="H20" s="17"/>
-      <x:c r="I20" s="75"/>
+      <x:c r="I20" s="57"/>
       <x:c r="J20" s="10"/>
       <x:c r="K20" s="44"/>
       <x:c r="L20" s="30">
@@ -4804,10 +4998,10 @@
         <x:v>7550</x:v>
       </x:c>
       <x:c r="N20" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="O20" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="P20" s="17"/>
       <x:c r="Q20" s="17"/>
@@ -4839,15 +5033,15 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="D21" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F21" s="17"/>
       <x:c r="G21" s="17"/>
       <x:c r="H21" s="17"/>
-      <x:c r="I21" s="75"/>
+      <x:c r="I21" s="57"/>
       <x:c r="J21" s="10"/>
       <x:c r="K21" s="44"/>
       <x:c r="L21" s="30">
@@ -4858,10 +5052,10 @@
         <x:v>20300</x:v>
       </x:c>
       <x:c r="N21" s="28" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="O21" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="P21" s="17"/>
       <x:c r="Q21" s="17"/>
@@ -4893,7 +5087,7 @@
       <x:c r="F22" s="17"/>
       <x:c r="G22" s="17"/>
       <x:c r="H22" s="17"/>
-      <x:c r="I22" s="75"/>
+      <x:c r="I22" s="57"/>
       <x:c r="J22" s="10"/>
       <x:c r="K22" s="44"/>
       <x:c r="L22" s="30">
@@ -4903,10 +5097,10 @@
         <x:v>11900</x:v>
       </x:c>
       <x:c r="N22" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="O22" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P22" s="17"/>
       <x:c r="Q22" s="17"/>
@@ -4938,7 +5132,7 @@
       <x:c r="F23" s="17"/>
       <x:c r="G23" s="17"/>
       <x:c r="H23" s="17"/>
-      <x:c r="I23" s="75"/>
+      <x:c r="I23" s="57"/>
       <x:c r="J23" s="10"/>
       <x:c r="K23" s="44"/>
       <x:c r="L23" s="30">
@@ -4948,10 +5142,10 @@
         <x:v>2750</x:v>
       </x:c>
       <x:c r="N23" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="O23" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P23" s="17"/>
       <x:c r="Q23" s="17"/>
@@ -4983,7 +5177,7 @@
       <x:c r="F24" s="17"/>
       <x:c r="G24" s="17"/>
       <x:c r="H24" s="17"/>
-      <x:c r="I24" s="75"/>
+      <x:c r="I24" s="57"/>
       <x:c r="J24" s="10"/>
       <x:c r="K24" s="44"/>
       <x:c r="L24" s="30">
@@ -4993,10 +5187,10 @@
         <x:v>1600</x:v>
       </x:c>
       <x:c r="N24" s="40" t="s">
-        <x:v>116</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="O24" s="40" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="P24" s="17"/>
       <x:c r="Q24" s="17"/>
@@ -5028,7 +5222,7 @@
       <x:c r="F25" s="17"/>
       <x:c r="G25" s="17"/>
       <x:c r="H25" s="17"/>
-      <x:c r="I25" s="75"/>
+      <x:c r="I25" s="57"/>
       <x:c r="J25" s="10"/>
       <x:c r="K25" s="44"/>
       <x:c r="L25" s="30">
@@ -5038,10 +5232,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="N25" s="40" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="O25" s="40" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="P25" s="17"/>
       <x:c r="Q25" s="17"/>
@@ -5073,7 +5267,7 @@
       <x:c r="F26" s="17"/>
       <x:c r="G26" s="17"/>
       <x:c r="H26" s="17"/>
-      <x:c r="I26" s="75"/>
+      <x:c r="I26" s="57"/>
       <x:c r="J26" s="10"/>
       <x:c r="K26" s="44"/>
       <x:c r="L26" s="30">
@@ -5084,10 +5278,10 @@
         <x:v>55560</x:v>
       </x:c>
       <x:c r="N26" s="41" t="s">
-        <x:v>122</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="O26" s="40" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P26" s="17"/>
       <x:c r="Q26" s="17"/>
@@ -5119,7 +5313,7 @@
       <x:c r="F27" s="17"/>
       <x:c r="G27" s="17"/>
       <x:c r="H27" s="17"/>
-      <x:c r="I27" s="75"/>
+      <x:c r="I27" s="57"/>
       <x:c r="J27" s="10"/>
       <x:c r="K27" s="44"/>
       <x:c r="L27" s="30">
@@ -5129,10 +5323,10 @@
         <x:v>6793</x:v>
       </x:c>
       <x:c r="N27" s="40" t="s">
-        <x:v>49</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O27" s="40" t="s">
-        <x:v>99</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P27" s="17"/>
       <x:c r="Q27" s="17"/>
@@ -5164,7 +5358,7 @@
       <x:c r="F28" s="17"/>
       <x:c r="G28" s="17"/>
       <x:c r="H28" s="17"/>
-      <x:c r="I28" s="75"/>
+      <x:c r="I28" s="57"/>
       <x:c r="J28" s="10"/>
       <x:c r="K28" s="44"/>
       <x:c r="L28" s="30">
@@ -5174,10 +5368,10 @@
         <x:v>6250</x:v>
       </x:c>
       <x:c r="N28" s="40" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="O28" s="40" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="P28" s="17"/>
       <x:c r="Q28" s="17"/>
@@ -5209,7 +5403,7 @@
       <x:c r="F29" s="17"/>
       <x:c r="G29" s="17"/>
       <x:c r="H29" s="17"/>
-      <x:c r="I29" s="75"/>
+      <x:c r="I29" s="57"/>
       <x:c r="J29" s="10"/>
       <x:c r="K29" s="44"/>
       <x:c r="L29" s="30">
@@ -5219,10 +5413,10 @@
         <x:v>31000</x:v>
       </x:c>
       <x:c r="N29" s="41" t="s">
-        <x:v>98</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O29" s="40" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P29" s="17"/>
       <x:c r="Q29" s="17"/>
@@ -5254,7 +5448,7 @@
       <x:c r="F30" s="17"/>
       <x:c r="G30" s="17"/>
       <x:c r="H30" s="17"/>
-      <x:c r="I30" s="75"/>
+      <x:c r="I30" s="57"/>
       <x:c r="J30" s="10"/>
       <x:c r="K30" s="44"/>
       <x:c r="L30" s="42">
@@ -5264,10 +5458,10 @@
         <x:v>7970</x:v>
       </x:c>
       <x:c r="N30" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="O30" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="P30" s="17"/>
       <x:c r="Q30" s="17"/>
@@ -5299,7 +5493,7 @@
       <x:c r="F31" s="45"/>
       <x:c r="G31" s="45"/>
       <x:c r="H31" s="45"/>
-      <x:c r="I31" s="75"/>
+      <x:c r="I31" s="57"/>
       <x:c r="J31" s="44"/>
       <x:c r="K31" s="44"/>
       <x:c r="L31" s="43">
@@ -5309,10 +5503,10 @@
         <x:v>33000</x:v>
       </x:c>
       <x:c r="N31" s="48" t="s">
-        <x:v>79</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="O31" s="48" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P31" s="45"/>
       <x:c r="Q31" s="45"/>
@@ -5344,7 +5538,7 @@
       <x:c r="F32" s="17"/>
       <x:c r="G32" s="17"/>
       <x:c r="H32" s="17"/>
-      <x:c r="I32" s="75"/>
+      <x:c r="I32" s="57"/>
       <x:c r="J32" s="10"/>
       <x:c r="K32" s="44"/>
       <x:c r="L32" s="43">
@@ -5354,10 +5548,10 @@
         <x:v>23750</x:v>
       </x:c>
       <x:c r="N32" s="16" t="s">
-        <x:v>98</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O32" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P32" s="17"/>
       <x:c r="Q32" s="17"/>
@@ -5389,7 +5583,7 @@
       <x:c r="F33" s="45"/>
       <x:c r="G33" s="45"/>
       <x:c r="H33" s="45"/>
-      <x:c r="I33" s="75"/>
+      <x:c r="I33" s="57"/>
       <x:c r="J33" s="44"/>
       <x:c r="K33" s="44"/>
       <x:c r="L33" s="42">
@@ -5399,10 +5593,10 @@
         <x:v>17700</x:v>
       </x:c>
       <x:c r="N33" s="48" t="s">
-        <x:v>31</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="O33" s="48" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="P33" s="45"/>
       <x:c r="Q33" s="45"/>
@@ -5434,7 +5628,7 @@
       <x:c r="F34" s="50"/>
       <x:c r="G34" s="50"/>
       <x:c r="H34" s="50"/>
-      <x:c r="I34" s="75"/>
+      <x:c r="I34" s="57"/>
       <x:c r="J34" s="44"/>
       <x:c r="K34" s="44"/>
       <x:c r="L34" s="54">
@@ -5444,10 +5638,10 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="N34" s="53" t="s">
-        <x:v>100</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O34" s="53" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P34" s="50"/>
       <x:c r="Q34" s="50"/>
@@ -5479,7 +5673,7 @@
       <x:c r="F35" s="50"/>
       <x:c r="G35" s="50"/>
       <x:c r="H35" s="50"/>
-      <x:c r="I35" s="75"/>
+      <x:c r="I35" s="57"/>
       <x:c r="J35" s="44"/>
       <x:c r="K35" s="44"/>
       <x:c r="L35" s="54">
@@ -5489,10 +5683,10 @@
         <x:v>4400</x:v>
       </x:c>
       <x:c r="N35" s="53" t="s">
-        <x:v>18</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="O35" s="53" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="P35" s="50"/>
       <x:c r="Q35" s="50"/>
@@ -5524,7 +5718,7 @@
       <x:c r="F36" s="50"/>
       <x:c r="G36" s="50"/>
       <x:c r="H36" s="50"/>
-      <x:c r="I36" s="75"/>
+      <x:c r="I36" s="57"/>
       <x:c r="J36" s="44"/>
       <x:c r="K36" s="44"/>
       <x:c r="L36" s="42">
@@ -5534,10 +5728,10 @@
         <x:v>18090</x:v>
       </x:c>
       <x:c r="N36" s="53" t="s">
-        <x:v>25</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="O36" s="53" t="s">
-        <x:v>12</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="P36" s="50"/>
       <x:c r="Q36" s="50"/>
@@ -5569,20 +5763,20 @@
       <x:c r="F37" s="50"/>
       <x:c r="G37" s="50"/>
       <x:c r="H37" s="50"/>
-      <x:c r="I37" s="75"/>
+      <x:c r="I37" s="57"/>
       <x:c r="J37" s="44"/>
       <x:c r="K37" s="44"/>
-      <x:c r="L37" s="96">
+      <x:c r="L37" s="68">
         <x:v>45343</x:v>
       </x:c>
       <x:c r="M37" s="49">
         <x:v>2800</x:v>
       </x:c>
       <x:c r="N37" s="53" t="s">
-        <x:v>44</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O37" s="53" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="P37" s="50"/>
       <x:c r="Q37" s="50"/>
@@ -5614,20 +5808,20 @@
       <x:c r="F38" s="50"/>
       <x:c r="G38" s="50"/>
       <x:c r="H38" s="50"/>
-      <x:c r="I38" s="75"/>
+      <x:c r="I38" s="57"/>
       <x:c r="J38" s="44"/>
       <x:c r="K38" s="44"/>
-      <x:c r="L38" s="96">
+      <x:c r="L38" s="42">
         <x:v>45343</x:v>
       </x:c>
       <x:c r="M38" s="49">
         <x:v>10800</x:v>
       </x:c>
       <x:c r="N38" s="53" t="s">
-        <x:v>34</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="O38" s="53" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="P38" s="50"/>
       <x:c r="Q38" s="50"/>
@@ -5659,13 +5853,21 @@
       <x:c r="F39" s="50"/>
       <x:c r="G39" s="50"/>
       <x:c r="H39" s="50"/>
-      <x:c r="I39" s="75"/>
+      <x:c r="I39" s="57"/>
       <x:c r="J39" s="44"/>
       <x:c r="K39" s="44"/>
-      <x:c r="L39" s="42"/>
-      <x:c r="M39" s="49"/>
-      <x:c r="N39" s="53"/>
-      <x:c r="O39" s="53"/>
+      <x:c r="L39" s="103">
+        <x:v>45345</x:v>
+      </x:c>
+      <x:c r="M39" s="49">
+        <x:v>62000</x:v>
+      </x:c>
+      <x:c r="N39" s="53" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O39" s="53" t="s">
+        <x:v>45</x:v>
+      </x:c>
       <x:c r="P39" s="50"/>
       <x:c r="Q39" s="50"/>
       <x:c r="R39" s="44"/>
@@ -5696,13 +5898,21 @@
       <x:c r="F40" s="50"/>
       <x:c r="G40" s="50"/>
       <x:c r="H40" s="50"/>
-      <x:c r="I40" s="75"/>
+      <x:c r="I40" s="57"/>
       <x:c r="J40" s="44"/>
       <x:c r="K40" s="44"/>
-      <x:c r="L40" s="54"/>
-      <x:c r="M40" s="55"/>
-      <x:c r="N40" s="53"/>
-      <x:c r="O40" s="53"/>
+      <x:c r="L40" s="103">
+        <x:v>45345</x:v>
+      </x:c>
+      <x:c r="M40" s="49">
+        <x:v>64000</x:v>
+      </x:c>
+      <x:c r="N40" s="104" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="O40" s="53" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="P40" s="50"/>
       <x:c r="Q40" s="50"/>
       <x:c r="R40" s="44"/>
@@ -5733,13 +5943,21 @@
       <x:c r="F41" s="50"/>
       <x:c r="G41" s="50"/>
       <x:c r="H41" s="50"/>
-      <x:c r="I41" s="75"/>
+      <x:c r="I41" s="57"/>
       <x:c r="J41" s="44"/>
       <x:c r="K41" s="44"/>
-      <x:c r="L41" s="54"/>
-      <x:c r="M41" s="55"/>
-      <x:c r="N41" s="53"/>
-      <x:c r="O41" s="53"/>
+      <x:c r="L41" s="103">
+        <x:v>45346</x:v>
+      </x:c>
+      <x:c r="M41" s="49">
+        <x:v>2200</x:v>
+      </x:c>
+      <x:c r="N41" s="53" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="O41" s="53" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="P41" s="50"/>
       <x:c r="Q41" s="50"/>
       <x:c r="R41" s="44"/>
@@ -5770,13 +5988,21 @@
       <x:c r="F42" s="50"/>
       <x:c r="G42" s="50"/>
       <x:c r="H42" s="50"/>
-      <x:c r="I42" s="75"/>
+      <x:c r="I42" s="57"/>
       <x:c r="J42" s="44"/>
       <x:c r="K42" s="44"/>
-      <x:c r="L42" s="54"/>
-      <x:c r="M42" s="55"/>
-      <x:c r="N42" s="53"/>
-      <x:c r="O42" s="53"/>
+      <x:c r="L42" s="103">
+        <x:v>45346</x:v>
+      </x:c>
+      <x:c r="M42" s="49">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="N42" s="53" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="O42" s="53" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="P42" s="50"/>
       <x:c r="Q42" s="50"/>
       <x:c r="R42" s="44"/>
@@ -5807,13 +6033,21 @@
       <x:c r="F43" s="50"/>
       <x:c r="G43" s="50"/>
       <x:c r="H43" s="50"/>
-      <x:c r="I43" s="75"/>
+      <x:c r="I43" s="57"/>
       <x:c r="J43" s="44"/>
       <x:c r="K43" s="44"/>
-      <x:c r="L43" s="54"/>
-      <x:c r="M43" s="55"/>
-      <x:c r="N43" s="53"/>
-      <x:c r="O43" s="53"/>
+      <x:c r="L43" s="103">
+        <x:v>45346</x:v>
+      </x:c>
+      <x:c r="M43" s="49">
+        <x:v>29000</x:v>
+      </x:c>
+      <x:c r="N43" s="104" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="O43" s="53" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="P43" s="50"/>
       <x:c r="Q43" s="50"/>
       <x:c r="R43" s="44"/>
@@ -5844,13 +6078,21 @@
       <x:c r="F44" s="50"/>
       <x:c r="G44" s="50"/>
       <x:c r="H44" s="50"/>
-      <x:c r="I44" s="75"/>
+      <x:c r="I44" s="57"/>
       <x:c r="J44" s="44"/>
       <x:c r="K44" s="44"/>
-      <x:c r="L44" s="54"/>
-      <x:c r="M44" s="55"/>
-      <x:c r="N44" s="53"/>
-      <x:c r="O44" s="53"/>
+      <x:c r="L44" s="103">
+        <x:v>45346</x:v>
+      </x:c>
+      <x:c r="M44" s="49">
+        <x:v>25800</x:v>
+      </x:c>
+      <x:c r="N44" s="53" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="O44" s="53" t="s">
+        <x:v>45</x:v>
+      </x:c>
       <x:c r="P44" s="50"/>
       <x:c r="Q44" s="50"/>
       <x:c r="R44" s="44"/>
@@ -5881,13 +6123,21 @@
       <x:c r="F45" s="50"/>
       <x:c r="G45" s="50"/>
       <x:c r="H45" s="50"/>
-      <x:c r="I45" s="75"/>
+      <x:c r="I45" s="57"/>
       <x:c r="J45" s="44"/>
       <x:c r="K45" s="44"/>
-      <x:c r="L45" s="54"/>
-      <x:c r="M45" s="55"/>
-      <x:c r="N45" s="53"/>
-      <x:c r="O45" s="53"/>
+      <x:c r="L45" s="103">
+        <x:v>45346</x:v>
+      </x:c>
+      <x:c r="M45" s="49">
+        <x:v>58000</x:v>
+      </x:c>
+      <x:c r="N45" s="53" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="O45" s="53" t="s">
+        <x:v>45</x:v>
+      </x:c>
       <x:c r="P45" s="50"/>
       <x:c r="Q45" s="50"/>
       <x:c r="R45" s="44"/>
@@ -5918,11 +6168,11 @@
       <x:c r="F46" s="50"/>
       <x:c r="G46" s="50"/>
       <x:c r="H46" s="50"/>
-      <x:c r="I46" s="75"/>
+      <x:c r="I46" s="57"/>
       <x:c r="J46" s="44"/>
       <x:c r="K46" s="44"/>
-      <x:c r="L46" s="54"/>
-      <x:c r="M46" s="55"/>
+      <x:c r="L46" s="42"/>
+      <x:c r="M46" s="49"/>
       <x:c r="N46" s="53"/>
       <x:c r="O46" s="53"/>
       <x:c r="P46" s="50"/>
@@ -5955,7 +6205,7 @@
       <x:c r="F47" s="50"/>
       <x:c r="G47" s="50"/>
       <x:c r="H47" s="50"/>
-      <x:c r="I47" s="75"/>
+      <x:c r="I47" s="57"/>
       <x:c r="J47" s="44"/>
       <x:c r="K47" s="44"/>
       <x:c r="L47" s="54"/>
@@ -5992,7 +6242,7 @@
       <x:c r="F48" s="50"/>
       <x:c r="G48" s="50"/>
       <x:c r="H48" s="50"/>
-      <x:c r="I48" s="75"/>
+      <x:c r="I48" s="57"/>
       <x:c r="J48" s="44"/>
       <x:c r="K48" s="44"/>
       <x:c r="L48" s="54"/>
@@ -6029,7 +6279,7 @@
       <x:c r="F49" s="50"/>
       <x:c r="G49" s="50"/>
       <x:c r="H49" s="50"/>
-      <x:c r="I49" s="75"/>
+      <x:c r="I49" s="57"/>
       <x:c r="J49" s="44"/>
       <x:c r="K49" s="44"/>
       <x:c r="L49" s="54"/>
@@ -6066,7 +6316,7 @@
       <x:c r="F50" s="50"/>
       <x:c r="G50" s="50"/>
       <x:c r="H50" s="50"/>
-      <x:c r="I50" s="75"/>
+      <x:c r="I50" s="57"/>
       <x:c r="J50" s="44"/>
       <x:c r="K50" s="44"/>
       <x:c r="L50" s="54"/>
@@ -6103,7 +6353,7 @@
       <x:c r="F51" s="50"/>
       <x:c r="G51" s="50"/>
       <x:c r="H51" s="50"/>
-      <x:c r="I51" s="75"/>
+      <x:c r="I51" s="57"/>
       <x:c r="J51" s="44"/>
       <x:c r="K51" s="44"/>
       <x:c r="L51" s="54"/>
@@ -6140,7 +6390,7 @@
       <x:c r="F52" s="50"/>
       <x:c r="G52" s="50"/>
       <x:c r="H52" s="50"/>
-      <x:c r="I52" s="75"/>
+      <x:c r="I52" s="57"/>
       <x:c r="J52" s="44"/>
       <x:c r="K52" s="44"/>
       <x:c r="L52" s="54"/>
@@ -6177,7 +6427,7 @@
       <x:c r="F53" s="50"/>
       <x:c r="G53" s="50"/>
       <x:c r="H53" s="50"/>
-      <x:c r="I53" s="75"/>
+      <x:c r="I53" s="57"/>
       <x:c r="J53" s="44"/>
       <x:c r="K53" s="44"/>
       <x:c r="L53" s="54"/>
@@ -6214,7 +6464,7 @@
       <x:c r="F54" s="50"/>
       <x:c r="G54" s="50"/>
       <x:c r="H54" s="50"/>
-      <x:c r="I54" s="75"/>
+      <x:c r="I54" s="57"/>
       <x:c r="J54" s="44"/>
       <x:c r="K54" s="44"/>
       <x:c r="L54" s="54"/>
@@ -6251,7 +6501,7 @@
       <x:c r="F55" s="50"/>
       <x:c r="G55" s="50"/>
       <x:c r="H55" s="50"/>
-      <x:c r="I55" s="75"/>
+      <x:c r="I55" s="57"/>
       <x:c r="J55" s="44"/>
       <x:c r="K55" s="44"/>
       <x:c r="L55" s="54"/>
@@ -6288,7 +6538,7 @@
       <x:c r="F56" s="50"/>
       <x:c r="G56" s="50"/>
       <x:c r="H56" s="50"/>
-      <x:c r="I56" s="75"/>
+      <x:c r="I56" s="57"/>
       <x:c r="J56" s="44"/>
       <x:c r="K56" s="44"/>
       <x:c r="L56" s="54"/>
@@ -6325,7 +6575,7 @@
       <x:c r="F57" s="50"/>
       <x:c r="G57" s="50"/>
       <x:c r="H57" s="50"/>
-      <x:c r="I57" s="75"/>
+      <x:c r="I57" s="57"/>
       <x:c r="J57" s="44"/>
       <x:c r="K57" s="44"/>
       <x:c r="L57" s="54"/>
@@ -6362,7 +6612,7 @@
       <x:c r="F58" s="50"/>
       <x:c r="G58" s="50"/>
       <x:c r="H58" s="50"/>
-      <x:c r="I58" s="75"/>
+      <x:c r="I58" s="57"/>
       <x:c r="J58" s="44"/>
       <x:c r="K58" s="44"/>
       <x:c r="L58" s="54"/>
@@ -6399,7 +6649,7 @@
       <x:c r="F59" s="50"/>
       <x:c r="G59" s="50"/>
       <x:c r="H59" s="50"/>
-      <x:c r="I59" s="75"/>
+      <x:c r="I59" s="57"/>
       <x:c r="J59" s="44"/>
       <x:c r="K59" s="44"/>
       <x:c r="L59" s="54"/>
@@ -6436,7 +6686,7 @@
       <x:c r="F60" s="50"/>
       <x:c r="G60" s="50"/>
       <x:c r="H60" s="50"/>
-      <x:c r="I60" s="75"/>
+      <x:c r="I60" s="57"/>
       <x:c r="J60" s="44"/>
       <x:c r="K60" s="44"/>
       <x:c r="L60" s="54"/>
@@ -6473,7 +6723,7 @@
       <x:c r="F61" s="50"/>
       <x:c r="G61" s="50"/>
       <x:c r="H61" s="50"/>
-      <x:c r="I61" s="75"/>
+      <x:c r="I61" s="57"/>
       <x:c r="J61" s="44"/>
       <x:c r="K61" s="44"/>
       <x:c r="L61" s="54"/>
@@ -6510,7 +6760,7 @@
       <x:c r="F62" s="50"/>
       <x:c r="G62" s="50"/>
       <x:c r="H62" s="50"/>
-      <x:c r="I62" s="75"/>
+      <x:c r="I62" s="57"/>
       <x:c r="J62" s="44"/>
       <x:c r="K62" s="44"/>
       <x:c r="L62" s="54"/>
@@ -6547,7 +6797,7 @@
       <x:c r="F63" s="50"/>
       <x:c r="G63" s="50"/>
       <x:c r="H63" s="50"/>
-      <x:c r="I63" s="75"/>
+      <x:c r="I63" s="57"/>
       <x:c r="J63" s="44"/>
       <x:c r="K63" s="44"/>
       <x:c r="L63" s="54"/>
@@ -6584,7 +6834,7 @@
       <x:c r="F64" s="50"/>
       <x:c r="G64" s="50"/>
       <x:c r="H64" s="50"/>
-      <x:c r="I64" s="75"/>
+      <x:c r="I64" s="57"/>
       <x:c r="J64" s="44"/>
       <x:c r="K64" s="44"/>
       <x:c r="L64" s="54"/>
@@ -6621,7 +6871,7 @@
       <x:c r="F65" s="50"/>
       <x:c r="G65" s="50"/>
       <x:c r="H65" s="50"/>
-      <x:c r="I65" s="75"/>
+      <x:c r="I65" s="57"/>
       <x:c r="J65" s="44"/>
       <x:c r="K65" s="44"/>
       <x:c r="L65" s="54"/>
@@ -6658,7 +6908,7 @@
       <x:c r="F66" s="17"/>
       <x:c r="G66" s="17"/>
       <x:c r="H66" s="17"/>
-      <x:c r="I66" s="75"/>
+      <x:c r="I66" s="57"/>
       <x:c r="J66" s="10"/>
       <x:c r="K66" s="44"/>
       <x:c r="L66" s="42"/>
@@ -7362,7 +7612,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet4"/>
+  <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:Z11"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
@@ -7414,19 +7664,19 @@
     </x:row>
     <x:row r="2" spans="1:26" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="57" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C2" s="58"/>
-      <x:c r="D2" s="58"/>
-      <x:c r="E2" s="58"/>
-      <x:c r="F2" s="58"/>
-      <x:c r="G2" s="58"/>
-      <x:c r="H2" s="58"/>
-      <x:c r="I2" s="58"/>
-      <x:c r="J2" s="58"/>
-      <x:c r="K2" s="58"/>
-      <x:c r="L2" s="59"/>
+      <x:c r="B2" s="83" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C2" s="84"/>
+      <x:c r="D2" s="84"/>
+      <x:c r="E2" s="84"/>
+      <x:c r="F2" s="84"/>
+      <x:c r="G2" s="84"/>
+      <x:c r="H2" s="84"/>
+      <x:c r="I2" s="84"/>
+      <x:c r="J2" s="84"/>
+      <x:c r="K2" s="84"/>
+      <x:c r="L2" s="85"/>
       <x:c r="M2" s="10"/>
       <x:c r="N2" s="10"/>
       <x:c r="O2" s="10"/>
@@ -7472,28 +7722,28 @@
     </x:row>
     <x:row r="4" spans="1:26" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="56" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C4" s="56"/>
-      <x:c r="D4" s="56"/>
-      <x:c r="E4" s="56"/>
-      <x:c r="F4" s="56"/>
-      <x:c r="G4" s="56"/>
-      <x:c r="H4" s="56"/>
-      <x:c r="I4" s="56"/>
-      <x:c r="J4" s="56"/>
-      <x:c r="K4" s="56"/>
-      <x:c r="L4" s="56"/>
+      <x:c r="B4" s="86" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C4" s="86"/>
+      <x:c r="D4" s="86"/>
+      <x:c r="E4" s="86"/>
+      <x:c r="F4" s="86"/>
+      <x:c r="G4" s="86"/>
+      <x:c r="H4" s="86"/>
+      <x:c r="I4" s="86"/>
+      <x:c r="J4" s="86"/>
+      <x:c r="K4" s="86"/>
+      <x:c r="L4" s="86"/>
       <x:c r="M4" s="11"/>
-      <x:c r="N4" s="60" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="O4" s="60"/>
-      <x:c r="Q4" s="60" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="R4" s="60"/>
+      <x:c r="N4" s="75" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="O4" s="75"/>
+      <x:c r="Q4" s="75" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="R4" s="75"/>
       <x:c r="S4" s="11"/>
       <x:c r="V4" s="11"/>
       <x:c r="W4" s="11"/>
@@ -7503,39 +7753,39 @@
     </x:row>
     <x:row r="5" spans="1:26">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="61" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C5" s="63" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D5" s="64"/>
-      <x:c r="E5" s="63" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="F5" s="64"/>
-      <x:c r="G5" s="63" t="s">
+      <x:c r="B5" s="87" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C5" s="89" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D5" s="90"/>
+      <x:c r="E5" s="89" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="H5" s="64"/>
-      <x:c r="I5" s="63" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="J5" s="64"/>
-      <x:c r="K5" s="63" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="L5" s="65"/>
+      <x:c r="F5" s="90"/>
+      <x:c r="G5" s="89" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H5" s="90"/>
+      <x:c r="I5" s="89" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="J5" s="90"/>
+      <x:c r="K5" s="89" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L5" s="91"/>
       <x:c r="M5" s="10"/>
       <x:c r="N5" s="8" t="s">
-        <x:v>109</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="O5" s="7">
         <x:f>R5+SUM(C8:L8)</x:f>
         <x:v>48800000</x:v>
       </x:c>
       <x:c r="Q5" s="8" t="s">
-        <x:v>109</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="R5" s="7">
         <x:f>'1월(자산)'!O5</x:f>
@@ -7550,32 +7800,32 @@
     </x:row>
     <x:row r="6" spans="1:26">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="73"/>
-      <x:c r="C6" s="67" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D6" s="68"/>
-      <x:c r="E6" s="69" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F6" s="70"/>
-      <x:c r="G6" s="69" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H6" s="70"/>
-      <x:c r="I6" s="67" t="s">
+      <x:c r="B6" s="88"/>
+      <x:c r="C6" s="77" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D6" s="78"/>
+      <x:c r="E6" s="79" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F6" s="80"/>
+      <x:c r="G6" s="79" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="H6" s="80"/>
+      <x:c r="I6" s="77" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="J6" s="78"/>
+      <x:c r="K6" s="25" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="J6" s="68"/>
-      <x:c r="K6" s="25" t="s">
-        <x:v>70</x:v>
       </x:c>
       <x:c r="L6" s="25" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="M6" s="10"/>
       <x:c r="N6" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="O6" s="7">
         <x:f>SUM(C9:L9)</x:f>
@@ -7594,27 +7844,27 @@
     <x:row r="7" spans="1:26">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C7" s="66">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C7" s="76">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D7" s="66"/>
-      <x:c r="E7" s="71">
+      <x:c r="D7" s="76"/>
+      <x:c r="E7" s="81">
         <x:f>SUM('1월(자산)'!E7:F8)</x:f>
         <x:v>39179849</x:v>
       </x:c>
-      <x:c r="F7" s="72"/>
-      <x:c r="G7" s="71">
+      <x:c r="F7" s="82"/>
+      <x:c r="G7" s="81">
         <x:f>SUM('1월(자산)'!G7:H8)</x:f>
         <x:v>6900000</x:v>
       </x:c>
-      <x:c r="H7" s="72"/>
-      <x:c r="I7" s="66">
+      <x:c r="H7" s="82"/>
+      <x:c r="I7" s="76">
         <x:f>SUM('1월(자산)'!I7:J8)</x:f>
         <x:v>1000000</x:v>
       </x:c>
-      <x:c r="J7" s="66"/>
+      <x:c r="J7" s="76"/>
       <x:c r="K7" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -7639,24 +7889,24 @@
     <x:row r="8" spans="1:26" ht="17.80000000000000071054">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C8" s="66">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C8" s="76">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D8" s="66"/>
-      <x:c r="E8" s="71">
+      <x:c r="D8" s="76"/>
+      <x:c r="E8" s="81">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F8" s="72"/>
-      <x:c r="G8" s="71">
+      <x:c r="F8" s="82"/>
+      <x:c r="G8" s="81">
         <x:v>100000</x:v>
       </x:c>
-      <x:c r="H8" s="72"/>
-      <x:c r="I8" s="66">
+      <x:c r="H8" s="82"/>
+      <x:c r="I8" s="76">
         <x:v>1800000</x:v>
       </x:c>
-      <x:c r="J8" s="66"/>
+      <x:c r="J8" s="76"/>
       <x:c r="K8" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -7664,10 +7914,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="10"/>
-      <x:c r="N8" s="60" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O8" s="60"/>
+      <x:c r="N8" s="75" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="O8" s="75"/>
       <x:c r="P8" s="10"/>
       <x:c r="Q8" s="10"/>
       <x:c r="R8" s="10"/>
@@ -7683,28 +7933,28 @@
     <x:row r="9" spans="1:26">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="C9" s="66">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C9" s="76">
         <x:f>C8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D9" s="66"/>
-      <x:c r="E9" s="66">
+      <x:c r="D9" s="76"/>
+      <x:c r="E9" s="76">
         <x:f>E8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F9" s="66"/>
-      <x:c r="G9" s="66">
+      <x:c r="F9" s="76"/>
+      <x:c r="G9" s="76">
         <x:f>G8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H9" s="66"/>
-      <x:c r="I9" s="66">
+      <x:c r="H9" s="76"/>
+      <x:c r="I9" s="76">
         <x:f>I8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J9" s="66"/>
+      <x:c r="J9" s="76"/>
       <x:c r="K9" s="7">
         <x:f>K8*0</x:f>
         <x:v>0</x:v>
@@ -7715,7 +7965,7 @@
       </x:c>
       <x:c r="M9" s="10"/>
       <x:c r="N9" s="8" t="s">
-        <x:v>109</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="O9" s="7"/>
       <x:c r="P9" s="10"/>
@@ -7798,7 +8048,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet5"/>
+  <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:AG92"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
@@ -7861,29 +8111,29 @@
     </x:row>
     <x:row r="2" spans="1:33" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="57" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C2" s="58"/>
-      <x:c r="D2" s="58"/>
-      <x:c r="E2" s="58"/>
-      <x:c r="F2" s="58"/>
-      <x:c r="G2" s="58"/>
-      <x:c r="H2" s="58"/>
-      <x:c r="I2" s="58"/>
-      <x:c r="J2" s="58"/>
-      <x:c r="K2" s="58"/>
-      <x:c r="L2" s="58"/>
-      <x:c r="M2" s="58"/>
-      <x:c r="N2" s="58"/>
-      <x:c r="O2" s="58"/>
-      <x:c r="P2" s="58"/>
-      <x:c r="Q2" s="58"/>
-      <x:c r="R2" s="58"/>
-      <x:c r="S2" s="58"/>
-      <x:c r="T2" s="58"/>
-      <x:c r="U2" s="58"/>
-      <x:c r="V2" s="59"/>
+      <x:c r="B2" s="83" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C2" s="84"/>
+      <x:c r="D2" s="84"/>
+      <x:c r="E2" s="84"/>
+      <x:c r="F2" s="84"/>
+      <x:c r="G2" s="84"/>
+      <x:c r="H2" s="84"/>
+      <x:c r="I2" s="84"/>
+      <x:c r="J2" s="84"/>
+      <x:c r="K2" s="84"/>
+      <x:c r="L2" s="84"/>
+      <x:c r="M2" s="84"/>
+      <x:c r="N2" s="84"/>
+      <x:c r="O2" s="84"/>
+      <x:c r="P2" s="84"/>
+      <x:c r="Q2" s="84"/>
+      <x:c r="R2" s="84"/>
+      <x:c r="S2" s="84"/>
+      <x:c r="T2" s="84"/>
+      <x:c r="U2" s="84"/>
+      <x:c r="V2" s="85"/>
       <x:c r="W2" s="10"/>
       <x:c r="X2" s="10"/>
       <x:c r="Y2" s="10"/>
@@ -7933,31 +8183,31 @@
     </x:row>
     <x:row r="4" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="56" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C4" s="56"/>
-      <x:c r="D4" s="56"/>
-      <x:c r="E4" s="56"/>
-      <x:c r="F4" s="56"/>
-      <x:c r="G4" s="56"/>
-      <x:c r="H4" s="56"/>
-      <x:c r="I4" s="56"/>
-      <x:c r="J4" s="56"/>
-      <x:c r="K4" s="56"/>
-      <x:c r="L4" s="56"/>
-      <x:c r="M4" s="56"/>
-      <x:c r="N4" s="56"/>
-      <x:c r="O4" s="56"/>
-      <x:c r="P4" s="56"/>
-      <x:c r="Q4" s="56"/>
-      <x:c r="R4" s="56"/>
-      <x:c r="S4" s="56"/>
+      <x:c r="B4" s="86" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C4" s="86"/>
+      <x:c r="D4" s="86"/>
+      <x:c r="E4" s="86"/>
+      <x:c r="F4" s="86"/>
+      <x:c r="G4" s="86"/>
+      <x:c r="H4" s="86"/>
+      <x:c r="I4" s="86"/>
+      <x:c r="J4" s="86"/>
+      <x:c r="K4" s="86"/>
+      <x:c r="L4" s="86"/>
+      <x:c r="M4" s="86"/>
+      <x:c r="N4" s="86"/>
+      <x:c r="O4" s="86"/>
+      <x:c r="P4" s="86"/>
+      <x:c r="Q4" s="86"/>
+      <x:c r="R4" s="86"/>
+      <x:c r="S4" s="86"/>
       <x:c r="T4" s="11"/>
-      <x:c r="U4" s="60" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="V4" s="60"/>
+      <x:c r="U4" s="75" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="V4" s="75"/>
       <x:c r="W4" s="11"/>
       <x:c r="X4" s="11"/>
       <x:c r="Y4" s="11"/>
@@ -7972,41 +8222,41 @@
     </x:row>
     <x:row r="5" spans="1:33">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="61" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C5" s="63" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D5" s="64"/>
-      <x:c r="E5" s="63" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F5" s="65"/>
-      <x:c r="G5" s="65"/>
-      <x:c r="H5" s="65"/>
-      <x:c r="I5" s="65"/>
-      <x:c r="J5" s="64"/>
-      <x:c r="K5" s="63" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="L5" s="65"/>
-      <x:c r="M5" s="65"/>
-      <x:c r="N5" s="65"/>
-      <x:c r="O5" s="64"/>
-      <x:c r="P5" s="61" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="Q5" s="63" t="s">
+      <x:c r="B5" s="87" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C5" s="89" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D5" s="90"/>
+      <x:c r="E5" s="89" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F5" s="91"/>
+      <x:c r="G5" s="91"/>
+      <x:c r="H5" s="91"/>
+      <x:c r="I5" s="91"/>
+      <x:c r="J5" s="90"/>
+      <x:c r="K5" s="89" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L5" s="91"/>
+      <x:c r="M5" s="91"/>
+      <x:c r="N5" s="91"/>
+      <x:c r="O5" s="90"/>
+      <x:c r="P5" s="87" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Q5" s="89" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="R5" s="64"/>
-      <x:c r="S5" s="61" t="s">
-        <x:v>119</x:v>
+      <x:c r="R5" s="90"/>
+      <x:c r="S5" s="87" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="T5" s="10"/>
       <x:c r="U5" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="V5" s="7">
         <x:f>D10</x:f>
@@ -8026,64 +8276,64 @@
     </x:row>
     <x:row r="6" spans="1:33">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="62"/>
+      <x:c r="B6" s="98"/>
       <x:c r="C6" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
-        <x:v>6</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E6" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F6" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G6" s="8" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H6" s="8" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="8" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="J6" s="8" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K6" s="8" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="J6" s="8" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="K6" s="8" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="L6" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M6" s="20" t="s">
-        <x:v>88</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="N6" s="20" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O6" s="20" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="P6" s="62"/>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="P6" s="98"/>
       <x:c r="Q6" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="R6" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="S6" s="62"/>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="S6" s="98"/>
       <x:c r="T6" s="10"/>
       <x:c r="U6" s="8" t="s">
-        <x:v>62</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="V6" s="7">
         <x:f>J10+O10+P10</x:f>
         <x:v>2861506</x:v>
       </x:c>
       <x:c r="W6" s="10" t="s">
-        <x:v>101</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="X6" s="10"/>
       <x:c r="Y6" s="10"/>
@@ -8099,7 +8349,7 @@
     <x:row r="7" spans="1:33">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C7" s="6">
         <x:v>4000000</x:v>
@@ -8120,7 +8370,7 @@
         <x:v>400000</x:v>
       </x:c>
       <x:c r="I7" s="24" t="s">
-        <x:v>65</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J7" s="6">
         <x:v>100000</x:v>
@@ -8154,7 +8404,7 @@
       <x:c r="S7" s="6"/>
       <x:c r="T7" s="10"/>
       <x:c r="U7" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="V7" s="7">
         <x:f>R10</x:f>
@@ -8175,7 +8425,7 @@
     <x:row r="8" spans="1:33">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="7">
         <x:f>4129547+34400+298400+100000</x:f>
@@ -8238,7 +8488,7 @@
       </x:c>
       <x:c r="T8" s="10"/>
       <x:c r="U8" s="8" t="s">
-        <x:v>71</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="V8" s="7">
         <x:f>S8</x:f>
@@ -8259,7 +8509,7 @@
     <x:row r="9" spans="1:33">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>59</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:f>C8-C7</x:f>
@@ -8328,14 +8578,14 @@
       <x:c r="S9" s="7"/>
       <x:c r="T9" s="10"/>
       <x:c r="U9" s="8" t="s">
-        <x:v>60</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="V9" s="7">
         <x:f>V5-(V6+V7+V8)</x:f>
         <x:v>-59159</x:v>
       </x:c>
       <x:c r="W9" s="13" t="s">
-        <x:v>87</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="X9" s="10"/>
       <x:c r="Y9" s="10"/>
@@ -8388,14 +8638,14 @@
       </x:c>
       <x:c r="T10" s="10"/>
       <x:c r="U10" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="V10" s="23">
         <x:f>V6/V5</x:f>
         <x:v>0.62720042995414427</x:v>
       </x:c>
       <x:c r="W10" s="10" t="s">
-        <x:v>95</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="X10" s="10"/>
       <x:c r="Y10" s="10"/>
@@ -8430,14 +8680,14 @@
       <x:c r="S11" s="12"/>
       <x:c r="T11" s="10"/>
       <x:c r="U11" s="21" t="s">
-        <x:v>76</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="V11" s="23">
         <x:f>V7/V5</x:f>
         <x:v>0.24110397565112868</x:v>
       </x:c>
       <x:c r="W11" s="10" t="s">
-        <x:v>90</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="X11" s="10"/>
       <x:c r="Y11" s="10"/>
@@ -8453,7 +8703,7 @@
     <x:row r="12" spans="1:33">
       <x:c r="A12" s="10"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C12" s="7">
         <x:f>SUM(C16:C72)</x:f>
@@ -8512,7 +8762,7 @@
       <x:c r="S13" s="10"/>
       <x:c r="T13" s="10"/>
       <x:c r="U13" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="V13" s="19">
         <x:v>0.5</x:v>
@@ -8534,24 +8784,24 @@
     </x:row>
     <x:row r="14" spans="1:33" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A14" s="11"/>
-      <x:c r="B14" s="56" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C14" s="56"/>
-      <x:c r="D14" s="56"/>
-      <x:c r="E14" s="56"/>
+      <x:c r="B14" s="86" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C14" s="86"/>
+      <x:c r="D14" s="86"/>
+      <x:c r="E14" s="86"/>
       <x:c r="F14" s="17" t="s">
-        <x:v>111</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G14" s="17"/>
       <x:c r="H14" s="17"/>
       <x:c r="I14" s="11"/>
-      <x:c r="J14" s="56" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="K14" s="56"/>
-      <x:c r="L14" s="56"/>
-      <x:c r="M14" s="56"/>
+      <x:c r="J14" s="86" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K14" s="86"/>
+      <x:c r="L14" s="86"/>
+      <x:c r="M14" s="86"/>
       <x:c r="N14" s="11"/>
       <x:c r="O14" s="11"/>
       <x:c r="P14" s="11"/>
@@ -8560,7 +8810,7 @@
       <x:c r="S14" s="11"/>
       <x:c r="T14" s="11"/>
       <x:c r="U14" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="V14" s="19">
         <x:v>0.5</x:v>
@@ -8583,32 +8833,32 @@
     <x:row r="15" spans="1:33">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F15" s="17"/>
       <x:c r="G15" s="17"/>
       <x:c r="H15" s="17"/>
       <x:c r="I15" s="10"/>
       <x:c r="J15" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K15" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="L15" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M15" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="N15" s="10"/>
       <x:c r="O15" s="10"/>
@@ -8640,10 +8890,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F16" s="22"/>
       <x:c r="G16" s="22"/>
@@ -8656,10 +8906,10 @@
         <x:v>22500</x:v>
       </x:c>
       <x:c r="L16" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M16" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N16" s="22"/>
       <x:c r="O16" s="22"/>
@@ -8691,10 +8941,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F17" s="17"/>
       <x:c r="G17" s="17"/>
@@ -8707,10 +8957,10 @@
         <x:v>1500</x:v>
       </x:c>
       <x:c r="L17" s="16" t="s">
-        <x:v>15</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="M17" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N17" s="17"/>
       <x:c r="O17" s="17"/>
@@ -8742,10 +8992,10 @@
         <x:v>19920</x:v>
       </x:c>
       <x:c r="D18" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F18" s="17"/>
       <x:c r="G18" s="17"/>
@@ -8758,10 +9008,10 @@
         <x:v>10580</x:v>
       </x:c>
       <x:c r="L18" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="M18" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N18" s="17"/>
       <x:c r="O18" s="17"/>
@@ -8793,10 +9043,10 @@
         <x:v>5400</x:v>
       </x:c>
       <x:c r="D19" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F19" s="17"/>
       <x:c r="G19" s="17"/>
@@ -8809,10 +9059,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="L19" s="16" t="s">
-        <x:v>64</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="M19" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N19" s="17"/>
       <x:c r="O19" s="17"/>
@@ -8844,10 +9094,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>66</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>125</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F20" s="17"/>
       <x:c r="G20" s="17"/>
@@ -8860,10 +9110,10 @@
         <x:v>6990</x:v>
       </x:c>
       <x:c r="L20" s="16" t="s">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="M20" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N20" s="17"/>
       <x:c r="O20" s="17"/>
@@ -8895,10 +9145,10 @@
         <x:v>22000</x:v>
       </x:c>
       <x:c r="D21" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s">
-        <x:v>120</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F21" s="17"/>
       <x:c r="G21" s="17"/>
@@ -8911,10 +9161,10 @@
         <x:v>30919</x:v>
       </x:c>
       <x:c r="L21" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="M21" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N21" s="17"/>
       <x:c r="O21" s="17"/>
@@ -8946,10 +9196,10 @@
         <x:v>23219</x:v>
       </x:c>
       <x:c r="D22" s="28" t="s">
-        <x:v>30</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E22" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F22" s="17"/>
       <x:c r="G22" s="17"/>
@@ -8962,10 +9212,10 @@
         <x:v>82320</x:v>
       </x:c>
       <x:c r="L22" s="16" t="s">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M22" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N22" s="17"/>
       <x:c r="O22" s="17"/>
@@ -8997,10 +9247,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D23" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E23" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F23" s="17"/>
       <x:c r="G23" s="17"/>
@@ -9013,10 +9263,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="L23" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="M23" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N23" s="17"/>
       <x:c r="O23" s="17"/>
@@ -9048,10 +9298,10 @@
         <x:v>30900</x:v>
       </x:c>
       <x:c r="D24" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E24" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F24" s="17"/>
       <x:c r="G24" s="17"/>
@@ -9064,10 +9314,10 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="L24" s="16" t="s">
-        <x:v>113</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M24" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N24" s="17"/>
       <x:c r="O24" s="17"/>
@@ -9099,10 +9349,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D25" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E25" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F25" s="17"/>
       <x:c r="G25" s="17"/>
@@ -9115,10 +9365,10 @@
         <x:v>39535</x:v>
       </x:c>
       <x:c r="L25" s="16" t="s">
-        <x:v>94</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M25" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N25" s="17"/>
       <x:c r="O25" s="17"/>
@@ -9150,10 +9400,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D26" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E26" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F26" s="17"/>
       <x:c r="G26" s="17"/>
@@ -9166,10 +9416,10 @@
         <x:v>3150</x:v>
       </x:c>
       <x:c r="L26" s="16" t="s">
-        <x:v>47</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="M26" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N26" s="17"/>
       <x:c r="O26" s="17"/>
@@ -9201,10 +9451,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D27" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E27" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F27" s="17"/>
       <x:c r="G27" s="17"/>
@@ -9217,10 +9467,10 @@
         <x:v>13500</x:v>
       </x:c>
       <x:c r="L27" s="28" t="s">
-        <x:v>30</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="M27" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N27" s="17"/>
       <x:c r="O27" s="17"/>
@@ -9252,10 +9502,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D28" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E28" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F28" s="17"/>
       <x:c r="G28" s="17"/>
@@ -9268,10 +9518,10 @@
         <x:v>5400</x:v>
       </x:c>
       <x:c r="L28" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M28" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N28" s="29"/>
       <x:c r="O28" s="17"/>
@@ -9303,10 +9553,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D29" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E29" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F29" s="17"/>
       <x:c r="G29" s="17"/>
@@ -9319,10 +9569,10 @@
         <x:v>11500</x:v>
       </x:c>
       <x:c r="L29" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M29" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N29" s="17"/>
       <x:c r="O29" s="17"/>
@@ -9354,10 +9604,10 @@
         <x:v>8910</x:v>
       </x:c>
       <x:c r="D30" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E30" s="16" t="s">
-        <x:v>58</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F30" s="17"/>
       <x:c r="G30" s="17"/>
@@ -9370,10 +9620,10 @@
         <x:v>2980</x:v>
       </x:c>
       <x:c r="L30" s="16" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="M30" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N30" s="17"/>
       <x:c r="O30" s="17"/>
@@ -9405,10 +9655,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="D31" s="16" t="s">
-        <x:v>66</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="16" t="s">
-        <x:v>125</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F31" s="17"/>
       <x:c r="G31" s="17"/>
@@ -9421,10 +9671,10 @@
         <x:v>50100</x:v>
       </x:c>
       <x:c r="L31" s="16" t="s">
-        <x:v>108</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="M31" s="16" t="s">
-        <x:v>41</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N31" s="17"/>
       <x:c r="O31" s="17"/>
@@ -9456,10 +9706,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D32" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E32" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F32" s="17"/>
       <x:c r="G32" s="17"/>
@@ -9472,10 +9722,10 @@
         <x:v>62100</x:v>
       </x:c>
       <x:c r="L32" s="16" t="s">
-        <x:v>21</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="M32" s="16" t="s">
-        <x:v>41</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N32" s="17"/>
       <x:c r="O32" s="17"/>
@@ -9507,10 +9757,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D33" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E33" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F33" s="17"/>
       <x:c r="G33" s="17"/>
@@ -9523,10 +9773,10 @@
         <x:v>35560</x:v>
       </x:c>
       <x:c r="L33" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="M33" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N33" s="17"/>
       <x:c r="O33" s="17"/>
@@ -9558,10 +9808,10 @@
         <x:v>2500</x:v>
       </x:c>
       <x:c r="D34" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E34" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F34" s="17"/>
       <x:c r="G34" s="17"/>
@@ -9574,10 +9824,10 @@
         <x:v>36000</x:v>
       </x:c>
       <x:c r="L34" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M34" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N34" s="17"/>
       <x:c r="O34" s="17"/>
@@ -9609,10 +9859,10 @@
         <x:v>36860</x:v>
       </x:c>
       <x:c r="D35" s="28" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E35" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F35" s="17"/>
       <x:c r="G35" s="17"/>
@@ -9625,10 +9875,10 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="L35" s="16" t="s">
-        <x:v>106</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="M35" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N35" s="17"/>
       <x:c r="O35" s="17"/>
@@ -9660,10 +9910,10 @@
         <x:v>10980</x:v>
       </x:c>
       <x:c r="D36" s="16" t="s">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E36" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F36" s="17"/>
       <x:c r="G36" s="17"/>
@@ -9676,10 +9926,10 @@
         <x:v>6600</x:v>
       </x:c>
       <x:c r="L36" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M36" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N36" s="17"/>
       <x:c r="O36" s="17"/>
@@ -9711,10 +9961,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D37" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F37" s="17"/>
       <x:c r="G37" s="17"/>
@@ -9727,10 +9977,10 @@
         <x:v>33000</x:v>
       </x:c>
       <x:c r="L37" s="16" t="s">
-        <x:v>11</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="M37" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N37" s="17"/>
       <x:c r="O37" s="17"/>
@@ -9762,10 +10012,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="D38" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E38" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F38" s="17"/>
       <x:c r="G38" s="17"/>
@@ -9778,10 +10028,10 @@
         <x:v>82000</x:v>
       </x:c>
       <x:c r="L38" s="40" t="s">
-        <x:v>115</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M38" s="40" t="s">
-        <x:v>125</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N38" s="17"/>
       <x:c r="O38" s="17"/>
@@ -9822,10 +10072,10 @@
         <x:v>11850</x:v>
       </x:c>
       <x:c r="L39" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="M39" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N39" s="17"/>
       <x:c r="O39" s="17"/>
@@ -9865,10 +10115,10 @@
         <x:v>27700</x:v>
       </x:c>
       <x:c r="L40" s="28" t="s">
-        <x:v>30</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="M40" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N40" s="17"/>
       <x:c r="O40" s="17"/>
@@ -9908,10 +10158,10 @@
         <x:v>11400</x:v>
       </x:c>
       <x:c r="L41" s="16" t="s">
-        <x:v>110</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="M41" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N41" s="17"/>
       <x:c r="O41" s="17"/>
@@ -9951,10 +10201,10 @@
         <x:v>7300</x:v>
       </x:c>
       <x:c r="L42" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M42" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N42" s="17"/>
       <x:c r="O42" s="17"/>
@@ -9994,10 +10244,10 @@
         <x:v>5990</x:v>
       </x:c>
       <x:c r="L43" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="M43" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N43" s="17"/>
       <x:c r="O43" s="17"/>
@@ -10037,10 +10287,10 @@
         <x:v>8450</x:v>
       </x:c>
       <x:c r="L44" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="M44" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N44" s="17"/>
       <x:c r="O44" s="17"/>
@@ -10080,10 +10330,10 @@
         <x:v>26600</x:v>
       </x:c>
       <x:c r="L45" s="28" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M45" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N45" s="17"/>
       <x:c r="O45" s="17"/>
@@ -10124,10 +10374,10 @@
         <x:v>100200</x:v>
       </x:c>
       <x:c r="L46" s="40" t="s">
-        <x:v>52</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M46" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N46" s="17"/>
       <x:c r="O46" s="17"/>
@@ -10167,10 +10417,10 @@
         <x:v>40000</x:v>
       </x:c>
       <x:c r="L47" s="16" t="s">
-        <x:v>85</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="M47" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N47" s="17"/>
       <x:c r="O47" s="17"/>
@@ -10210,10 +10460,10 @@
         <x:v>26000</x:v>
       </x:c>
       <x:c r="L48" s="28" t="s">
-        <x:v>98</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="M48" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N48" s="17"/>
       <x:c r="O48" s="17"/>
@@ -10253,10 +10503,10 @@
         <x:v>26400</x:v>
       </x:c>
       <x:c r="L49" s="28" t="s">
-        <x:v>50</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M49" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N49" s="17"/>
       <x:c r="O49" s="17"/>
@@ -10296,10 +10546,10 @@
         <x:v>16110</x:v>
       </x:c>
       <x:c r="L50" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="M50" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N50" s="17"/>
       <x:c r="O50" s="17"/>
@@ -10339,10 +10589,10 @@
         <x:v>17500</x:v>
       </x:c>
       <x:c r="L51" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="M51" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N51" s="17"/>
       <x:c r="O51" s="17"/>
@@ -10382,10 +10632,10 @@
         <x:v>6750</x:v>
       </x:c>
       <x:c r="L52" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="M52" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N52" s="17"/>
       <x:c r="O52" s="17"/>
@@ -10425,10 +10675,10 @@
         <x:v>62000</x:v>
       </x:c>
       <x:c r="L53" s="40" t="s">
-        <x:v>124</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M53" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N53" s="17"/>
       <x:c r="O53" s="17"/>
@@ -10468,10 +10718,10 @@
         <x:v>14820</x:v>
       </x:c>
       <x:c r="L54" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M54" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N54" s="17"/>
       <x:c r="O54" s="17"/>
@@ -10511,10 +10761,10 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="L55" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="M55" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N55" s="17"/>
       <x:c r="O55" s="17"/>
@@ -10554,10 +10804,10 @@
         <x:v>16650</x:v>
       </x:c>
       <x:c r="L56" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="M56" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N56" s="17"/>
       <x:c r="O56" s="17"/>
@@ -10598,10 +10848,10 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="L57" s="16" t="s">
-        <x:v>126</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M57" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N57" s="17"/>
       <x:c r="O57" s="17"/>
@@ -10641,10 +10891,10 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="L58" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M58" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N58" s="17"/>
       <x:c r="O58" s="17"/>
@@ -10684,10 +10934,10 @@
         <x:v>6950</x:v>
       </x:c>
       <x:c r="L59" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="M59" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N59" s="17"/>
       <x:c r="O59" s="17"/>
@@ -10727,10 +10977,10 @@
         <x:v>21700</x:v>
       </x:c>
       <x:c r="L60" s="28" t="s">
-        <x:v>72</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="M60" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N60" s="17"/>
       <x:c r="O60" s="17"/>
@@ -10770,10 +11020,10 @@
         <x:v>18900</x:v>
       </x:c>
       <x:c r="L61" s="28" t="s">
-        <x:v>4</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="M61" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N61" s="17"/>
       <x:c r="O61" s="17"/>
@@ -10813,10 +11063,10 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="L62" s="16" t="s">
-        <x:v>123</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="M62" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N62" s="17"/>
       <x:c r="O62" s="17"/>
@@ -10856,10 +11106,10 @@
         <x:v>4350</x:v>
       </x:c>
       <x:c r="L63" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="M63" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N63" s="17"/>
       <x:c r="O63" s="17"/>
@@ -10899,10 +11149,10 @@
         <x:v>26500</x:v>
       </x:c>
       <x:c r="L64" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M64" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N64" s="17"/>
       <x:c r="O64" s="17"/>
@@ -10942,10 +11192,10 @@
         <x:v>10900</x:v>
       </x:c>
       <x:c r="L65" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="M65" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N65" s="17"/>
       <x:c r="O65" s="17"/>
@@ -10985,10 +11235,10 @@
         <x:v>2985</x:v>
       </x:c>
       <x:c r="L66" s="16" t="s">
-        <x:v>113</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M66" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N66" s="17"/>
       <x:c r="O66" s="17"/>
@@ -11028,10 +11278,10 @@
         <x:v>104960</x:v>
       </x:c>
       <x:c r="L67" s="16" t="s">
-        <x:v>114</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M67" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N67" s="17"/>
       <x:c r="O67" s="17"/>
@@ -11071,10 +11321,10 @@
         <x:v>106800</x:v>
       </x:c>
       <x:c r="L68" s="16" t="s">
-        <x:v>69</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M68" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N68" s="17"/>
       <x:c r="O68" s="17"/>
@@ -11114,10 +11364,10 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="L69" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M69" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N69" s="17"/>
       <x:c r="O69" s="17"/>
@@ -11157,10 +11407,10 @@
         <x:v>21500</x:v>
       </x:c>
       <x:c r="L70" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="M70" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N70" s="17"/>
       <x:c r="O70" s="17"/>
@@ -11201,10 +11451,10 @@
         <x:v>26380</x:v>
       </x:c>
       <x:c r="L71" s="32" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="M71" s="33" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N71" s="17"/>
       <x:c r="O71" s="17"/>
@@ -11244,10 +11494,10 @@
         <x:v>6250</x:v>
       </x:c>
       <x:c r="L72" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="M72" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N72" s="17"/>
       <x:c r="O72" s="17"/>
@@ -11287,10 +11537,10 @@
         <x:v>82360</x:v>
       </x:c>
       <x:c r="L73" s="33" t="s">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M73" s="33" t="s">
-        <x:v>65</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N73" s="37"/>
       <x:c r="O73" s="37"/>
@@ -11330,10 +11580,10 @@
         <x:v>13500</x:v>
       </x:c>
       <x:c r="L74" s="33" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="M74" s="33" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N74" s="37"/>
       <x:c r="O74" s="37"/>
@@ -11373,10 +11623,10 @@
         <x:v>42460</x:v>
       </x:c>
       <x:c r="L75" s="33" t="s">
-        <x:v>94</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M75" s="33" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N75" s="37"/>
       <x:c r="O75" s="37"/>
@@ -11416,10 +11666,10 @@
         <x:v>6776</x:v>
       </x:c>
       <x:c r="L76" s="33" t="s">
-        <x:v>86</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M76" s="33" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N76" s="37"/>
       <x:c r="O76" s="37"/>
@@ -11459,10 +11709,10 @@
         <x:v>4500</x:v>
       </x:c>
       <x:c r="L77" s="33" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="M77" s="33" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N77" s="10"/>
       <x:c r="O77" s="10"/>
@@ -11502,10 +11752,10 @@
         <x:v>9150</x:v>
       </x:c>
       <x:c r="L78" s="33" t="s">
-        <x:v>18</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="M78" s="33" t="s">
-        <x:v>83</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N78" s="10"/>
       <x:c r="O78" s="10"/>
@@ -12066,7 +12316,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet6"/>
+  <x:sheetPr codeName="Sheet5"/>
   <x:dimension ref="A1:W15"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
@@ -12112,19 +12362,19 @@
     </x:row>
     <x:row r="2" spans="1:22" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="57" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C2" s="58"/>
-      <x:c r="D2" s="58"/>
-      <x:c r="E2" s="58"/>
-      <x:c r="F2" s="58"/>
-      <x:c r="G2" s="58"/>
-      <x:c r="H2" s="58"/>
-      <x:c r="I2" s="58"/>
-      <x:c r="J2" s="58"/>
-      <x:c r="K2" s="58"/>
-      <x:c r="L2" s="59"/>
+      <x:c r="B2" s="83" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C2" s="84"/>
+      <x:c r="D2" s="84"/>
+      <x:c r="E2" s="84"/>
+      <x:c r="F2" s="84"/>
+      <x:c r="G2" s="84"/>
+      <x:c r="H2" s="84"/>
+      <x:c r="I2" s="84"/>
+      <x:c r="J2" s="84"/>
+      <x:c r="K2" s="84"/>
+      <x:c r="L2" s="85"/>
       <x:c r="M2" s="10"/>
       <x:c r="N2" s="10"/>
       <x:c r="O2" s="10"/>
@@ -12156,60 +12406,60 @@
     </x:row>
     <x:row r="4" spans="1:22" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="56" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C4" s="56"/>
-      <x:c r="D4" s="56"/>
-      <x:c r="E4" s="56"/>
-      <x:c r="F4" s="56"/>
-      <x:c r="G4" s="56"/>
-      <x:c r="H4" s="56"/>
-      <x:c r="I4" s="56"/>
-      <x:c r="J4" s="56"/>
-      <x:c r="K4" s="56"/>
-      <x:c r="L4" s="56"/>
-      <x:c r="N4" s="60" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="O4" s="60"/>
+      <x:c r="B4" s="86" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C4" s="86"/>
+      <x:c r="D4" s="86"/>
+      <x:c r="E4" s="86"/>
+      <x:c r="F4" s="86"/>
+      <x:c r="G4" s="86"/>
+      <x:c r="H4" s="86"/>
+      <x:c r="I4" s="86"/>
+      <x:c r="J4" s="86"/>
+      <x:c r="K4" s="86"/>
+      <x:c r="L4" s="86"/>
+      <x:c r="N4" s="75" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="O4" s="75"/>
       <x:c r="P4" s="11"/>
       <x:c r="Q4" s="11"/>
-      <x:c r="R4" s="60" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="S4" s="60"/>
+      <x:c r="R4" s="75" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="S4" s="75"/>
       <x:c r="T4" s="11"/>
       <x:c r="U4" s="11"/>
       <x:c r="V4" s="11"/>
     </x:row>
     <x:row r="5" spans="1:22">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="61" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C5" s="63" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D5" s="64"/>
-      <x:c r="E5" s="63" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="F5" s="64"/>
-      <x:c r="G5" s="63" t="s">
+      <x:c r="B5" s="87" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C5" s="89" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D5" s="90"/>
+      <x:c r="E5" s="89" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="H5" s="64"/>
-      <x:c r="I5" s="63" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="J5" s="64"/>
-      <x:c r="K5" s="63" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="L5" s="65"/>
+      <x:c r="F5" s="90"/>
+      <x:c r="G5" s="89" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H5" s="90"/>
+      <x:c r="I5" s="89" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="J5" s="90"/>
+      <x:c r="K5" s="89" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L5" s="91"/>
       <x:c r="N5" s="8" t="s">
-        <x:v>109</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="O5" s="7">
         <x:f>SUM(C7:L7)</x:f>
@@ -12218,7 +12468,7 @@
       <x:c r="P5" s="10"/>
       <x:c r="Q5" s="10"/>
       <x:c r="R5" s="8" t="s">
-        <x:v>109</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="S5" s="7">
         <x:v>0</x:v>
@@ -12229,31 +12479,31 @@
     </x:row>
     <x:row r="6" spans="1:22">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="73"/>
-      <x:c r="C6" s="67" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D6" s="68"/>
-      <x:c r="E6" s="69" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F6" s="70"/>
-      <x:c r="G6" s="69" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H6" s="70"/>
-      <x:c r="I6" s="67" t="s">
+      <x:c r="B6" s="88"/>
+      <x:c r="C6" s="77" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D6" s="78"/>
+      <x:c r="E6" s="79" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F6" s="80"/>
+      <x:c r="G6" s="79" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="H6" s="80"/>
+      <x:c r="I6" s="77" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="J6" s="78"/>
+      <x:c r="K6" s="25" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="J6" s="68"/>
-      <x:c r="K6" s="25" t="s">
-        <x:v>70</x:v>
       </x:c>
       <x:c r="L6" s="25" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="N6" s="8" t="s">
-        <x:v>102</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="O6" s="7">
         <x:f>SUM(C9:H9)</x:f>
@@ -12270,22 +12520,22 @@
     <x:row r="7" spans="1:22">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C7" s="66"/>
-      <x:c r="D7" s="66"/>
-      <x:c r="E7" s="66">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C7" s="76"/>
+      <x:c r="D7" s="76"/>
+      <x:c r="E7" s="76">
         <x:v>39000000</x:v>
       </x:c>
-      <x:c r="F7" s="66"/>
-      <x:c r="G7" s="71">
+      <x:c r="F7" s="76"/>
+      <x:c r="G7" s="81">
         <x:v>6900000</x:v>
       </x:c>
-      <x:c r="H7" s="72"/>
-      <x:c r="I7" s="66">
+      <x:c r="H7" s="82"/>
+      <x:c r="I7" s="76">
         <x:v>1000000</x:v>
       </x:c>
-      <x:c r="J7" s="66"/>
+      <x:c r="J7" s="76"/>
       <x:c r="K7" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -12306,22 +12556,22 @@
     <x:row r="8" spans="1:22" ht="17.80000000000000071054">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C8" s="66"/>
-      <x:c r="D8" s="66"/>
-      <x:c r="E8" s="66">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C8" s="76"/>
+      <x:c r="D8" s="76"/>
+      <x:c r="E8" s="76">
         <x:v>179849</x:v>
       </x:c>
-      <x:c r="F8" s="66"/>
-      <x:c r="G8" s="71">
+      <x:c r="F8" s="76"/>
+      <x:c r="G8" s="81">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H8" s="72"/>
-      <x:c r="I8" s="66">
+      <x:c r="H8" s="82"/>
+      <x:c r="I8" s="76">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J8" s="66"/>
+      <x:c r="J8" s="76"/>
       <x:c r="K8" s="7">
         <x:v>0</x:v>
       </x:c>
@@ -12329,10 +12579,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="10"/>
-      <x:c r="N8" s="60" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O8" s="60"/>
+      <x:c r="N8" s="75" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="O8" s="75"/>
       <x:c r="P8" s="10"/>
       <x:c r="Q8" s="10"/>
       <x:c r="R8" s="10"/>
@@ -12344,28 +12594,28 @@
     <x:row r="9" spans="1:22">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="C9" s="66">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C9" s="76">
         <x:f>C8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D9" s="66"/>
-      <x:c r="E9" s="66">
+      <x:c r="D9" s="76"/>
+      <x:c r="E9" s="76">
         <x:f>E8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F9" s="66"/>
-      <x:c r="G9" s="66">
+      <x:c r="F9" s="76"/>
+      <x:c r="G9" s="76">
         <x:f>G8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H9" s="66"/>
-      <x:c r="I9" s="66">
+      <x:c r="H9" s="76"/>
+      <x:c r="I9" s="76">
         <x:f>I8*0</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J9" s="66"/>
+      <x:c r="J9" s="76"/>
       <x:c r="K9" s="7">
         <x:f>K8*0</x:f>
         <x:v>0</x:v>
@@ -12376,7 +12626,7 @@
       </x:c>
       <x:c r="M9" s="10"/>
       <x:c r="N9" s="8" t="s">
-        <x:v>109</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="O9" s="7">
         <x:f>O5-G7</x:f>

--- a/sharebox/가계부.xlsx
+++ b/sharebox/가계부.xlsx
@@ -3,450 +3,467 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.65535"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url=""/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="3월" sheetId="1" r:id="rId4"/>
-    <x:sheet name="3월(자산)" sheetId="2" r:id="rId5"/>
-    <x:sheet name="2월" sheetId="3" r:id="rId6"/>
-    <x:sheet name="2월(자산)" sheetId="4" r:id="rId7"/>
-    <x:sheet name="1월" sheetId="5" r:id="rId8"/>
-    <x:sheet name="1월(자산)" sheetId="6" r:id="rId9"/>
+    <x:sheet name="4월" sheetId="1" r:id="rId4"/>
+    <x:sheet name="4월(자산)" sheetId="2" r:id="rId5"/>
+    <x:sheet name="3월" sheetId="3" r:id="rId6"/>
+    <x:sheet name="3월(자산)" sheetId="4" r:id="rId7"/>
+    <x:sheet name="2월" sheetId="5" r:id="rId8"/>
+    <x:sheet name="2월(자산)" sheetId="6" r:id="rId9"/>
+    <x:sheet name="1월" sheetId="7" r:id="rId10"/>
+    <x:sheet name="1월(자산)" sheetId="8" r:id="rId11"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1월'!$B$15:$E$15</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'1월(자산)'!#REF!</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2월'!$L$15:$O$15</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2월(자산)'!#REF!</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3월'!$L$15:$O$15</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'3월(자산)'!#REF!</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1월'!$B$15:$E$15</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'1월(자산)'!#REF!</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2월'!$L$15:$O$15</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2월(자산)'!#REF!</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3월'!$L$15:$O$15</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'3월(자산)'!#REF!</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4월'!$L$15:$O$15</x:definedName>
   </x:definedNames>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="135">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="141">
   <x:si>
-    <x:t>2024년 3월 송민영의 자본</x:t>
+    <x:t>사용처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노래방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교통비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 4월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올리브영(치실)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 2월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돈까스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영강습</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출계 = 변동지출 + 고정지출 + 비상금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건강검진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점심</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 4월 송민영의 가계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커피</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 1월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드결제료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현금 흐름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아침(편의점)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>셍활비(식비)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생활비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈모약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청약통장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가용자산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>귀성비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>`</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고정수입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(모임)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이소 및 마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈플러스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축목표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변동수입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소득</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비상금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김밥천국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정기예금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 2월 송민영의 가계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지출목표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류구입비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드값(전월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가슴패치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단백질바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시가스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요가매트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변동지출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피트니스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 3월 송민영의 가계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국민은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이소(파스)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소득계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수익률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피부과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요가 강습</x:t>
   </x:si>
   <x:si>
     <x:t>주거비</x:t>
   </x:si>
   <x:si>
-    <x:t>건강검진</x:t>
+    <x:t>설 명절 선물</x:t>
   </x:si>
   <x:si>
-    <x:t>변동수입</x:t>
+    <x:t>기타(데이트통장+유투브 구독)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해든마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마트(쌀구매)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월 결산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이스크림점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잔액 = 소득계 - (지출계+저축계+투자계)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뽀미약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축률 = 저축계/소득계*100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연회비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아침</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편의점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취미</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지하철비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 3월 송민영의 자본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현금사용실적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잔액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>닭가슴살</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(데이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주택관리비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점심(데이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저축계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용돈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세탁비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본죽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빨래</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영 이어폰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미용(커트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>택시비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024년 1월 송민영의 가계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수영복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁(감자탕)</x:t>
   </x:si>
   <x:si>
     <x:t>올리브영</x:t>
   </x:si>
   <x:si>
+    <x:t>카드값(금월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생활비(식비)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차이</x:t>
+  </x:si>
+  <x:si>
     <x:t>명절선물비</x:t>
   </x:si>
   <x:si>
-    <x:t>세탁비</x:t>
+    <x:t>저녁(치킨)</x:t>
   </x:si>
   <x:si>
-    <x:t>ABC마트</x:t>
+    <x:t>다이소</x:t>
   </x:si>
   <x:si>
-    <x:t>저축</x:t>
+    <x:t>채권</x:t>
   </x:si>
   <x:si>
-    <x:t>수영 이어폰</x:t>
+    <x:t>지출계</x:t>
   </x:si>
   <x:si>
-    <x:t>전월</x:t>
+    <x:t>지출률</x:t>
   </x:si>
   <x:si>
-    <x:t>예금</x:t>
+    <x:t>통신비</x:t>
   </x:si>
   <x:si>
-    <x:t>정기예금</x:t>
+    <x:t>지출률 = 지출계/소득계*100</x:t>
   </x:si>
   <x:si>
-    <x:t>실적</x:t>
+    <x:t>고정지출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잔고</x:t>
   </x:si>
   <x:si>
     <x:t>교통후불</x:t>
   </x:si>
   <x:si>
-    <x:t>도시가스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요가매트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마트(쌀구매)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(모임)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고정수입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지하철비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김밥천국</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 2월 송민영의 자본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점심(데이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소득계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주택관리비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>택시비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타(데이트통장+유투브 구독)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현금사용실적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설 명절 선물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈모약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(감자탕)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생활비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돈까스</x:t>
-  </x:si>
-  <x:si>
     <x:t>금액조정</x:t>
   </x:si>
   <x:si>
-    <x:t>아침(편의점)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주차비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출계 = 변동지출 + 고정지출 + 비상금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아침</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요가 강습</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노래방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소득</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(데이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본죽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교통비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>닭가슴살</x:t>
+    <x:t>재생크림</x:t>
   </x:si>
   <x:si>
     <x:t>카드사용실적</x:t>
   </x:si>
   <x:si>
-    <x:t>의류구입비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월 결산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가용자산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피트니스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>`</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고정지출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단백질바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빨래</x:t>
-  </x:si>
-  <x:si>
-    <x:t>용돈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잔액 = 소득계 - (지출계+저축계+투자계)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현금 흐름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수익</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취미</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해든마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>커트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미용(커트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁(치킨)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 3월 송민영의 가계부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 2월 송민영의 가계부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 1월 송민영의 가계부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드값(금월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드결제료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축률 = 저축계/소득계*100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비상금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올리브영(치실)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024년 1월 송민영의 자본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수영복</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청약통장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이소(파스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생활비(식비)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수영강습</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점심</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이스크림점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>귀성비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>셍활비(식비)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가슴패치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통신비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이소 및 마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국민은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채권</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변동지출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈플러스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나은행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>커피</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피부과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지출률 = 지출계/소득계*100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저축률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잔액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뽀미약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편의점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드값(전월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁</x:t>
+    <x:t>예금</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="3">
+  <x:numFmts count="4">
     <x:numFmt numFmtId="164" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <x:numFmt numFmtId="165" formatCode="0.0%"/>
     <x:numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <x:numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </x:numFmts>
   <x:fonts count="12">
     <x:font>
@@ -666,7 +683,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="37">
+  <x:borders count="38">
     <x:border>
       <x:left>
         <x:color rgb="ff000000"/>
@@ -906,6 +923,20 @@
       </x:bottom>
     </x:border>
     <x:border>
+      <x:left style="thin">
+        <x:color rgb="ffd9d9d9"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ffd9d9d9"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ffd9d9d9"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
       <x:left style="medium">
         <x:color auto="1"/>
       </x:left>
@@ -1088,20 +1119,6 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="thin">
-        <x:color rgb="ffd9d9d9"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ffd9d9d9"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ffd9d9d9"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
       <x:left>
         <x:color auto="1"/>
       </x:left>
@@ -1185,6 +1202,20 @@
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
   </x:borders>
   <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1226,7 +1257,7 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </x:cellStyleXfs>
-  <x:cellXfs count="117">
+  <x:cellXfs count="126">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2123,6 +2154,32 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -2136,26 +2193,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2214,6 +2258,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -2227,13 +2284,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2253,19 +2310,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -2273,6 +2317,19 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2292,26 +2349,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2344,6 +2388,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -2357,13 +2414,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2488,13 +2545,54 @@
     <x:xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="6">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
     <x:cellStyle name="백분율" xfId="1" builtinId="5"/>
     <x:cellStyle name="쉼표 [0]" xfId="2" builtinId="6"/>
   </x:cellStyles>
-  <x:dxfs count="32">
+  <x:dxfs count="33">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
@@ -2875,7 +2973,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2908,7 +3005,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2939,7 +3035,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2970,7 +3065,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3003,7 +3097,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3038,7 +3131,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3071,7 +3163,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3104,7 +3195,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3135,7 +3225,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3166,7 +3255,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3198,7 +3286,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3232,7 +3319,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3267,7 +3353,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3300,7 +3385,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3333,7 +3417,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3364,7 +3447,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3395,7 +3477,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff006100"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3427,7 +3508,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3461,7 +3541,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3496,7 +3575,6 @@
             <x:color rgb="ff9c0006"/>
             <x:b val="1"/>
             <x:i val="0"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3518,6 +3596,39 @@
           </x:font>
           <x:fill>
             <x:patternFill>
+              <x:bgColor rgb="ffffc7ce"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff9c0006"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:bgColor rgb="ffffc7ce"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff9c0006"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
               <x:bgColor rgb="ffffc7ce"/>
             </x:patternFill>
           </x:fill>
@@ -3841,7 +3952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet6" filterMode="1"/>
+  <x:sheetPr codeName="Sheet8" filterMode="1"/>
   <x:dimension ref="A1:AI82"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
@@ -3849,7 +3960,7 @@
       <x:selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2:X2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="17.39999999999999857891"/>
+  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="2" max="2" width="22.8984375" bestFit="1" customWidth="1"/>
     <x:col min="3" max="4" width="10.8984375" customWidth="1"/>
@@ -3867,7 +3978,7 @@
     <x:col min="25" max="25" width="13.296875" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:35" ht="18">
+    <x:row r="1" spans="1:35">
       <x:c r="A1" s="10"/>
       <x:c r="B1" s="10"/>
       <x:c r="C1" s="10"/>
@@ -3906,31 +4017,31 @@
     </x:row>
     <x:row r="2" spans="1:35" ht="34.5" customHeight="1">
       <x:c r="A2" s="10"/>
-      <x:c r="B2" s="89" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C2" s="89"/>
-      <x:c r="D2" s="89"/>
-      <x:c r="E2" s="89"/>
-      <x:c r="F2" s="89"/>
-      <x:c r="G2" s="89"/>
-      <x:c r="H2" s="89"/>
-      <x:c r="I2" s="89"/>
-      <x:c r="J2" s="89"/>
-      <x:c r="K2" s="89"/>
-      <x:c r="L2" s="89"/>
-      <x:c r="M2" s="89"/>
-      <x:c r="N2" s="89"/>
-      <x:c r="O2" s="89"/>
-      <x:c r="P2" s="89"/>
-      <x:c r="Q2" s="89"/>
-      <x:c r="R2" s="89"/>
-      <x:c r="S2" s="89"/>
-      <x:c r="T2" s="89"/>
-      <x:c r="U2" s="89"/>
-      <x:c r="V2" s="89"/>
-      <x:c r="W2" s="89"/>
-      <x:c r="X2" s="89"/>
+      <x:c r="B2" s="91" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C2" s="91"/>
+      <x:c r="D2" s="91"/>
+      <x:c r="E2" s="91"/>
+      <x:c r="F2" s="91"/>
+      <x:c r="G2" s="91"/>
+      <x:c r="H2" s="91"/>
+      <x:c r="I2" s="91"/>
+      <x:c r="J2" s="91"/>
+      <x:c r="K2" s="91"/>
+      <x:c r="L2" s="91"/>
+      <x:c r="M2" s="91"/>
+      <x:c r="N2" s="91"/>
+      <x:c r="O2" s="91"/>
+      <x:c r="P2" s="91"/>
+      <x:c r="Q2" s="91"/>
+      <x:c r="R2" s="91"/>
+      <x:c r="S2" s="91"/>
+      <x:c r="T2" s="91"/>
+      <x:c r="U2" s="91"/>
+      <x:c r="V2" s="91"/>
+      <x:c r="W2" s="91"/>
+      <x:c r="X2" s="91"/>
       <x:c r="Y2" s="10"/>
       <x:c r="Z2" s="10"/>
       <x:c r="AA2" s="10"/>
@@ -3982,33 +4093,33 @@
     </x:row>
     <x:row r="4" spans="1:35" s="9" customFormat="1" ht="17.85000000000000142109" customHeight="1">
       <x:c r="A4" s="11"/>
-      <x:c r="B4" s="90" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C4" s="91"/>
-      <x:c r="D4" s="91"/>
-      <x:c r="E4" s="92"/>
-      <x:c r="F4" s="92"/>
-      <x:c r="G4" s="92"/>
-      <x:c r="H4" s="92"/>
-      <x:c r="I4" s="93"/>
-      <x:c r="J4" s="92"/>
-      <x:c r="K4" s="93"/>
-      <x:c r="L4" s="92"/>
-      <x:c r="M4" s="91"/>
-      <x:c r="N4" s="91"/>
-      <x:c r="O4" s="91"/>
-      <x:c r="P4" s="91"/>
-      <x:c r="Q4" s="91"/>
-      <x:c r="R4" s="91"/>
-      <x:c r="S4" s="91"/>
-      <x:c r="T4" s="91"/>
-      <x:c r="U4" s="94"/>
+      <x:c r="B4" s="92" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C4" s="93"/>
+      <x:c r="D4" s="93"/>
+      <x:c r="E4" s="94"/>
+      <x:c r="F4" s="94"/>
+      <x:c r="G4" s="94"/>
+      <x:c r="H4" s="94"/>
+      <x:c r="I4" s="95"/>
+      <x:c r="J4" s="94"/>
+      <x:c r="K4" s="95"/>
+      <x:c r="L4" s="94"/>
+      <x:c r="M4" s="93"/>
+      <x:c r="N4" s="93"/>
+      <x:c r="O4" s="93"/>
+      <x:c r="P4" s="93"/>
+      <x:c r="Q4" s="93"/>
+      <x:c r="R4" s="93"/>
+      <x:c r="S4" s="93"/>
+      <x:c r="T4" s="93"/>
+      <x:c r="U4" s="96"/>
       <x:c r="V4" s="11"/>
-      <x:c r="W4" s="95" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="X4" s="95"/>
+      <x:c r="W4" s="97" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="X4" s="97"/>
       <x:c r="Y4" s="11"/>
       <x:c r="Z4" s="11"/>
       <x:c r="AA4" s="11"/>
@@ -4023,43 +4134,43 @@
     </x:row>
     <x:row r="5" spans="1:35">
       <x:c r="A5" s="10"/>
-      <x:c r="B5" s="96" t="s">
+      <x:c r="B5" s="98" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C5" s="100" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D5" s="101"/>
+      <x:c r="E5" s="102" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F5" s="102"/>
+      <x:c r="G5" s="102"/>
+      <x:c r="H5" s="102"/>
+      <x:c r="I5" s="102"/>
+      <x:c r="J5" s="102"/>
+      <x:c r="K5" s="102"/>
+      <x:c r="L5" s="102"/>
+      <x:c r="M5" s="100" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="N5" s="103"/>
+      <x:c r="O5" s="103"/>
+      <x:c r="P5" s="103"/>
+      <x:c r="Q5" s="101"/>
+      <x:c r="R5" s="98" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="S5" s="100" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="T5" s="101"/>
+      <x:c r="U5" s="98" t="s">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="C5" s="98" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D5" s="99"/>
-      <x:c r="E5" s="100" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="F5" s="100"/>
-      <x:c r="G5" s="100"/>
-      <x:c r="H5" s="100"/>
-      <x:c r="I5" s="100"/>
-      <x:c r="J5" s="100"/>
-      <x:c r="K5" s="100"/>
-      <x:c r="L5" s="100"/>
-      <x:c r="M5" s="98" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="N5" s="101"/>
-      <x:c r="O5" s="101"/>
-      <x:c r="P5" s="101"/>
-      <x:c r="Q5" s="99"/>
-      <x:c r="R5" s="96" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="S5" s="98" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="T5" s="99"/>
-      <x:c r="U5" s="96" t="s">
-        <x:v>130</x:v>
       </x:c>
       <x:c r="V5" s="10"/>
       <x:c r="W5" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="X5" s="7">
         <x:f>D10</x:f>
@@ -4079,70 +4190,70 @@
     </x:row>
     <x:row r="6" spans="1:35">
       <x:c r="A6" s="10"/>
-      <x:c r="B6" s="97"/>
+      <x:c r="B6" s="99"/>
       <x:c r="C6" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E6" s="8" t="s">
-        <x:v>132</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F6" s="8" t="s">
         <x:v>102</x:v>
       </x:c>
       <x:c r="G6" s="8" t="s">
-        <x:v>94</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H6" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I6" s="66" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="J6" s="8" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K6" s="66" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L6" s="8" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="M6" s="8" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N6" s="8" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="O6" s="20" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="P6" s="20" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="Q6" s="20" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="J6" s="8" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="K6" s="66" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="L6" s="8" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="M6" s="8" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N6" s="8" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="O6" s="20" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="P6" s="20" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="Q6" s="20" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="R6" s="97"/>
+      <x:c r="R6" s="99"/>
       <x:c r="S6" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="T6" s="8" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="U6" s="97"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="U6" s="99"/>
       <x:c r="V6" s="10"/>
       <x:c r="W6" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="X6" s="7">
         <x:f>L10+Q10+R10</x:f>
-        <x:v>737221</x:v>
+        <x:v>938221</x:v>
       </x:c>
       <x:c r="Y6" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Z6" s="10"/>
       <x:c r="AA6" s="10"/>
@@ -4158,13 +4269,13 @@
     <x:row r="7" spans="1:35">
       <x:c r="A7" s="10"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C7" s="6"/>
       <x:c r="D7" s="6">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E7" s="6">
+      <x:c r="E7" s="124">
         <x:v>300000</x:v>
       </x:c>
       <x:c r="F7" s="6">
@@ -4178,7 +4289,7 @@
       </x:c>
       <x:c r="I7" s="67"/>
       <x:c r="J7" s="56" t="s">
-        <x:v>40</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K7" s="67">
         <x:v>100000</x:v>
@@ -4215,7 +4326,7 @@
       <x:c r="U7" s="6"/>
       <x:c r="V7" s="10"/>
       <x:c r="W7" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="X7" s="7">
         <x:f>T10</x:f>
@@ -4236,14 +4347,12 @@
     <x:row r="8" spans="1:35">
       <x:c r="A8" s="10"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="7"/>
-      <x:c r="D8" s="7"/>
-      <x:c r="E8" s="7">
-        <x:v>99000</x:v>
-      </x:c>
-      <x:c r="F8" s="59">
+      <x:c r="D8" s="52"/>
+      <x:c r="E8" s="122"/>
+      <x:c r="F8" s="125">
         <x:f>+SUMIF($O$16:$O$66,F$6,$M$16:$M$66)</x:f>
         <x:v>0</x:v>
       </x:c>
@@ -4281,7 +4390,9 @@
       <x:c r="O8" s="6">
         <x:v>135931</x:v>
       </x:c>
-      <x:c r="P8" s="6"/>
+      <x:c r="P8" s="6">
+        <x:v>300000</x:v>
+      </x:c>
       <x:c r="Q8" s="6">
         <x:f>35000+8690</x:f>
         <x:v>43690</x:v>
@@ -4301,7 +4412,7 @@
       </x:c>
       <x:c r="V8" s="10"/>
       <x:c r="W8" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="X8" s="7"/>
       <x:c r="Y8" s="10"/>
@@ -4319,7 +4430,7 @@
     <x:row r="9" spans="1:35">
       <x:c r="A9" s="10"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:f>C8-C7</x:f>
@@ -4329,9 +4440,9 @@
         <x:f>D8-D7</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E9" s="52">
+      <x:c r="E9" s="50">
         <x:f>E7-E8</x:f>
-        <x:v>201000</x:v>
+        <x:v>300000</x:v>
       </x:c>
       <x:c r="F9" s="68">
         <x:f>F7-F8</x:f>
@@ -4372,7 +4483,7 @@
       </x:c>
       <x:c r="P9" s="7">
         <x:f t="shared" si="1"/>
-        <x:v>300000</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q9" s="7">
         <x:f t="shared" si="1"/>
@@ -4396,14 +4507,14 @@
       </x:c>
       <x:c r="V9" s="10"/>
       <x:c r="W9" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="X9" s="7">
         <x:f>X5-(X6+X7+X8)</x:f>
-        <x:v>-2637221</x:v>
+        <x:v>-2838221</x:v>
       </x:c>
       <x:c r="Y9" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="Z9" s="10"/>
       <x:c r="AA9" s="10"/>
@@ -4433,7 +4544,7 @@
       <x:c r="K10" s="69"/>
       <x:c r="L10" s="69">
         <x:f>SUM(E8:L8)</x:f>
-        <x:v>99000</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M10" s="17"/>
       <x:c r="N10" s="17"/>
@@ -4441,7 +4552,7 @@
       <x:c r="P10" s="18"/>
       <x:c r="Q10" s="18">
         <x:f>SUM(M8:Q8)</x:f>
-        <x:v>538221</x:v>
+        <x:v>838221</x:v>
       </x:c>
       <x:c r="R10" s="18">
         <x:f>R8</x:f>
@@ -4458,14 +4569,14 @@
       </x:c>
       <x:c r="V10" s="10"/>
       <x:c r="W10" s="8" t="s">
-        <x:v>82</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="X10" s="23" t="e">
         <x:f>X6/X5</x:f>
         <x:v>#DIV/0!</x:v>
       </x:c>
       <x:c r="Y10" s="10" t="s">
-        <x:v>126</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="Z10" s="10"/>
       <x:c r="AA10" s="10"/>
@@ -4502,14 +4613,14 @@
       <x:c r="U11" s="12"/>
       <x:c r="V11" s="10"/>
       <x:c r="W11" s="21" t="s">
-        <x:v>127</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="X11" s="23" t="e">
         <x:f>X7/X5</x:f>
         <x:v>#DIV/0!</x:v>
       </x:c>
       <x:c r="Y11" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="Z11" s="10"/>
       <x:c r="AA11" s="10"/>
@@ -4524,10 +4635,10 @@
     </x:row>
     <x:row r="12" spans="1:35">
       <x:c r="A12" s="10"/>
-      <x:c r="B12" s="8" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="C12" s="7">
+      <x:c r="B12" s="88" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C12" s="123">
         <x:f>SUM(C16:C66)</x:f>
         <x:v>0</x:v>
       </x:c>
@@ -4564,7 +4675,7 @@
       <x:c r="AH12" s="10"/>
       <x:c r="AI12" s="10"/>
     </x:row>
-    <x:row r="13" spans="1:35" ht="19.19999999999999928946">
+    <x:row r="13" spans="1:35" ht="17.80000000000000071054">
       <x:c r="A13" s="10"/>
       <x:c r="B13" s="10"/>
       <x:c r="C13" s="10"/>
@@ -4588,7 +4699,7 @@
       <x:c r="U13" s="10"/>
       <x:c r="V13" s="10"/>
       <x:c r="W13" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="X13" s="19">
         <x:v>0.5</x:v>
@@ -4608,28 +4719,28 @@
       <x:c r="AH13" s="10"/>
       <x:c r="AI13" s="10"/>
     </x:row>
-    <x:row r="14" spans="1:35" s="9" customFormat="1" ht="19.19999999999999928946">
+    <x:row r="14" spans="1:35" s="9" customFormat="1" ht="17.80000000000000071054">
       <x:c r="A14" s="11"/>
-      <x:c r="B14" s="88" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C14" s="88"/>
-      <x:c r="D14" s="88"/>
-      <x:c r="E14" s="88"/>
+      <x:c r="B14" s="90" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C14" s="90"/>
+      <x:c r="D14" s="90"/>
+      <x:c r="E14" s="90"/>
       <x:c r="F14" s="17" t="s">
-        <x:v>65</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G14" s="17"/>
       <x:c r="H14" s="17"/>
       <x:c r="I14" s="47"/>
       <x:c r="J14" s="11"/>
       <x:c r="K14" s="55"/>
-      <x:c r="L14" s="88" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="M14" s="88"/>
-      <x:c r="N14" s="88"/>
-      <x:c r="O14" s="88"/>
+      <x:c r="L14" s="90" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M14" s="90"/>
+      <x:c r="N14" s="90"/>
+      <x:c r="O14" s="90"/>
       <x:c r="P14" s="11"/>
       <x:c r="Q14" s="11"/>
       <x:c r="R14" s="11"/>
@@ -4638,7 +4749,7 @@
       <x:c r="U14" s="11"/>
       <x:c r="V14" s="11"/>
       <x:c r="W14" s="8" t="s">
-        <x:v>100</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="X14" s="19">
         <x:v>0.5</x:v>
@@ -4661,16 +4772,16 @@
     <x:row r="15" spans="1:35">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>62</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>86</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F15" s="17"/>
       <x:c r="G15" s="17"/>
@@ -4679,16 +4790,16 @@
       <x:c r="J15" s="10"/>
       <x:c r="K15" s="65"/>
       <x:c r="L15" s="8" t="s">
-        <x:v>62</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="M15" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="N15" s="8" t="s">
-        <x:v>86</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O15" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="P15" s="10"/>
       <x:c r="Q15" s="10"/>
@@ -4713,8 +4824,8 @@
     </x:row>
     <x:row r="16" spans="1:35">
       <x:c r="A16" s="10"/>
-      <x:c r="B16" s="26"/>
-      <x:c r="C16" s="15"/>
+      <x:c r="B16" s="118"/>
+      <x:c r="C16" s="31"/>
       <x:c r="D16" s="16"/>
       <x:c r="E16" s="16"/>
       <x:c r="F16" s="22"/>
@@ -4750,10 +4861,3868 @@
     </x:row>
     <x:row r="17" spans="1:35">
       <x:c r="A17" s="10"/>
-      <x:c r="B17" s="26"/>
-      <x:c r="C17" s="15"/>
+      <x:c r="B17" s="118"/>
+      <x:c r="C17" s="31"/>
       <x:c r="D17" s="16"/>
       <x:c r="E17" s="16"/>
+      <x:c r="F17" s="17"/>
+      <x:c r="G17" s="17"/>
+      <x:c r="H17" s="17"/>
+      <x:c r="I17" s="70"/>
+      <x:c r="J17" s="10"/>
+      <x:c r="K17" s="65"/>
+      <x:c r="L17" s="72"/>
+      <x:c r="M17" s="80"/>
+      <x:c r="N17" s="79"/>
+      <x:c r="O17" s="79"/>
+      <x:c r="P17" s="17"/>
+      <x:c r="Q17" s="17"/>
+      <x:c r="R17" s="10"/>
+      <x:c r="S17" s="10"/>
+      <x:c r="T17" s="10"/>
+      <x:c r="U17" s="10"/>
+      <x:c r="V17" s="10"/>
+      <x:c r="W17" s="10"/>
+      <x:c r="X17" s="10"/>
+      <x:c r="Y17" s="10"/>
+      <x:c r="Z17" s="10"/>
+      <x:c r="AA17" s="10"/>
+      <x:c r="AB17" s="10"/>
+      <x:c r="AC17" s="10"/>
+      <x:c r="AD17" s="10"/>
+      <x:c r="AE17" s="10"/>
+      <x:c r="AF17" s="10"/>
+      <x:c r="AG17" s="10"/>
+      <x:c r="AH17" s="10"/>
+      <x:c r="AI17" s="10"/>
+    </x:row>
+    <x:row r="18" spans="1:35">
+      <x:c r="A18" s="10"/>
+      <x:c r="B18" s="26"/>
+      <x:c r="C18" s="15"/>
+      <x:c r="D18" s="16"/>
+      <x:c r="E18" s="16"/>
+      <x:c r="F18" s="17"/>
+      <x:c r="G18" s="17"/>
+      <x:c r="H18" s="17"/>
+      <x:c r="I18" s="70"/>
+      <x:c r="J18" s="10"/>
+      <x:c r="K18" s="65"/>
+      <x:c r="L18" s="72"/>
+      <x:c r="M18" s="80"/>
+      <x:c r="N18" s="79"/>
+      <x:c r="O18" s="79"/>
+      <x:c r="P18" s="17"/>
+      <x:c r="Q18" s="17"/>
+      <x:c r="R18" s="10"/>
+      <x:c r="S18" s="10"/>
+      <x:c r="T18" s="10"/>
+      <x:c r="U18" s="10"/>
+      <x:c r="V18" s="10"/>
+      <x:c r="W18" s="10"/>
+      <x:c r="X18" s="10"/>
+      <x:c r="Y18" s="10"/>
+      <x:c r="Z18" s="10"/>
+      <x:c r="AA18" s="10"/>
+      <x:c r="AB18" s="10"/>
+      <x:c r="AC18" s="10"/>
+      <x:c r="AD18" s="10"/>
+      <x:c r="AE18" s="10"/>
+      <x:c r="AF18" s="10"/>
+      <x:c r="AG18" s="10"/>
+      <x:c r="AH18" s="10"/>
+      <x:c r="AI18" s="10"/>
+    </x:row>
+    <x:row r="19" spans="1:35">
+      <x:c r="A19" s="10"/>
+      <x:c r="B19" s="26"/>
+      <x:c r="C19" s="15"/>
+      <x:c r="D19" s="16"/>
+      <x:c r="E19" s="16"/>
+      <x:c r="F19" s="17"/>
+      <x:c r="G19" s="17"/>
+      <x:c r="H19" s="17"/>
+      <x:c r="I19" s="70"/>
+      <x:c r="J19" s="10"/>
+      <x:c r="K19" s="65"/>
+      <x:c r="L19" s="72"/>
+      <x:c r="M19" s="80"/>
+      <x:c r="N19" s="79"/>
+      <x:c r="O19" s="79"/>
+      <x:c r="P19" s="17"/>
+      <x:c r="Q19" s="17"/>
+      <x:c r="R19" s="10"/>
+      <x:c r="S19" s="10"/>
+      <x:c r="T19" s="10"/>
+      <x:c r="U19" s="10"/>
+      <x:c r="V19" s="10"/>
+      <x:c r="W19" s="10"/>
+      <x:c r="X19" s="10"/>
+      <x:c r="Y19" s="10"/>
+      <x:c r="Z19" s="10"/>
+      <x:c r="AA19" s="10"/>
+      <x:c r="AB19" s="10"/>
+      <x:c r="AC19" s="10"/>
+      <x:c r="AD19" s="10"/>
+      <x:c r="AE19" s="10"/>
+      <x:c r="AF19" s="10"/>
+      <x:c r="AG19" s="10"/>
+      <x:c r="AH19" s="10"/>
+      <x:c r="AI19" s="10"/>
+    </x:row>
+    <x:row r="20" spans="1:35">
+      <x:c r="A20" s="10"/>
+      <x:c r="B20" s="26"/>
+      <x:c r="C20" s="15"/>
+      <x:c r="D20" s="16"/>
+      <x:c r="E20" s="16"/>
+      <x:c r="F20" s="17"/>
+      <x:c r="G20" s="17"/>
+      <x:c r="H20" s="17"/>
+      <x:c r="I20" s="70"/>
+      <x:c r="J20" s="10"/>
+      <x:c r="K20" s="65"/>
+      <x:c r="L20" s="72"/>
+      <x:c r="M20" s="80"/>
+      <x:c r="N20" s="79"/>
+      <x:c r="O20" s="79"/>
+      <x:c r="P20" s="17"/>
+      <x:c r="Q20" s="17"/>
+      <x:c r="R20" s="10"/>
+      <x:c r="S20" s="10"/>
+      <x:c r="T20" s="10"/>
+      <x:c r="U20" s="10"/>
+      <x:c r="V20" s="10"/>
+      <x:c r="W20" s="10"/>
+      <x:c r="X20" s="10"/>
+      <x:c r="Y20" s="10"/>
+      <x:c r="Z20" s="10"/>
+      <x:c r="AA20" s="10"/>
+      <x:c r="AB20" s="10"/>
+      <x:c r="AC20" s="10"/>
+      <x:c r="AD20" s="10"/>
+      <x:c r="AE20" s="10"/>
+      <x:c r="AF20" s="10"/>
+      <x:c r="AG20" s="10"/>
+      <x:c r="AH20" s="10"/>
+      <x:c r="AI20" s="10"/>
+    </x:row>
+    <x:row r="21" spans="1:35">
+      <x:c r="A21" s="10"/>
+      <x:c r="B21" s="26"/>
+      <x:c r="C21" s="15"/>
+      <x:c r="D21" s="16"/>
+      <x:c r="E21" s="16"/>
+      <x:c r="F21" s="17"/>
+      <x:c r="G21" s="17"/>
+      <x:c r="H21" s="17"/>
+      <x:c r="I21" s="70"/>
+      <x:c r="J21" s="10"/>
+      <x:c r="K21" s="65"/>
+      <x:c r="L21" s="72"/>
+      <x:c r="M21" s="80"/>
+      <x:c r="N21" s="79"/>
+      <x:c r="O21" s="79"/>
+      <x:c r="P21" s="17"/>
+      <x:c r="Q21" s="17"/>
+      <x:c r="R21" s="10"/>
+      <x:c r="S21" s="10"/>
+      <x:c r="T21" s="10"/>
+      <x:c r="U21" s="10"/>
+      <x:c r="V21" s="10"/>
+      <x:c r="W21" s="10"/>
+      <x:c r="X21" s="10"/>
+      <x:c r="Y21" s="10"/>
+      <x:c r="Z21" s="10"/>
+      <x:c r="AA21" s="10"/>
+      <x:c r="AB21" s="10"/>
+      <x:c r="AC21" s="10"/>
+      <x:c r="AD21" s="10"/>
+      <x:c r="AE21" s="10"/>
+      <x:c r="AF21" s="10"/>
+      <x:c r="AG21" s="10"/>
+      <x:c r="AH21" s="10"/>
+      <x:c r="AI21" s="10"/>
+    </x:row>
+    <x:row r="22" spans="1:35">
+      <x:c r="A22" s="10"/>
+      <x:c r="B22" s="2"/>
+      <x:c r="C22" s="15"/>
+      <x:c r="D22" s="16"/>
+      <x:c r="E22" s="16"/>
+      <x:c r="F22" s="17"/>
+      <x:c r="G22" s="17"/>
+      <x:c r="H22" s="17"/>
+      <x:c r="I22" s="70"/>
+      <x:c r="J22" s="10"/>
+      <x:c r="K22" s="65"/>
+      <x:c r="L22" s="72"/>
+      <x:c r="M22" s="80"/>
+      <x:c r="N22" s="79"/>
+      <x:c r="O22" s="79"/>
+      <x:c r="P22" s="17"/>
+      <x:c r="Q22" s="17"/>
+      <x:c r="R22" s="10"/>
+      <x:c r="S22" s="10"/>
+      <x:c r="T22" s="10"/>
+      <x:c r="U22" s="10"/>
+      <x:c r="V22" s="10"/>
+      <x:c r="W22" s="10"/>
+      <x:c r="X22" s="10"/>
+      <x:c r="Y22" s="10"/>
+      <x:c r="Z22" s="10"/>
+      <x:c r="AA22" s="10"/>
+      <x:c r="AB22" s="10"/>
+      <x:c r="AC22" s="10"/>
+      <x:c r="AD22" s="10"/>
+      <x:c r="AE22" s="10"/>
+      <x:c r="AF22" s="10"/>
+      <x:c r="AG22" s="10"/>
+      <x:c r="AH22" s="10"/>
+      <x:c r="AI22" s="10"/>
+    </x:row>
+    <x:row r="23" spans="1:35">
+      <x:c r="A23" s="10"/>
+      <x:c r="B23" s="2"/>
+      <x:c r="C23" s="15"/>
+      <x:c r="D23" s="16"/>
+      <x:c r="E23" s="16"/>
+      <x:c r="F23" s="17"/>
+      <x:c r="G23" s="17"/>
+      <x:c r="H23" s="17"/>
+      <x:c r="I23" s="70"/>
+      <x:c r="J23" s="10"/>
+      <x:c r="K23" s="65"/>
+      <x:c r="L23" s="72"/>
+      <x:c r="M23" s="80"/>
+      <x:c r="N23" s="79"/>
+      <x:c r="O23" s="79"/>
+      <x:c r="P23" s="17"/>
+      <x:c r="Q23" s="17"/>
+      <x:c r="R23" s="10"/>
+      <x:c r="S23" s="10"/>
+      <x:c r="T23" s="10"/>
+      <x:c r="U23" s="10"/>
+      <x:c r="V23" s="10"/>
+      <x:c r="W23" s="10"/>
+      <x:c r="X23" s="10"/>
+      <x:c r="Y23" s="10"/>
+      <x:c r="Z23" s="10"/>
+      <x:c r="AA23" s="10"/>
+      <x:c r="AB23" s="10"/>
+      <x:c r="AC23" s="10"/>
+      <x:c r="AD23" s="10"/>
+      <x:c r="AE23" s="10"/>
+      <x:c r="AF23" s="10"/>
+      <x:c r="AG23" s="10"/>
+      <x:c r="AH23" s="10"/>
+      <x:c r="AI23" s="10"/>
+    </x:row>
+    <x:row r="24" spans="1:35">
+      <x:c r="A24" s="10"/>
+      <x:c r="B24" s="2"/>
+      <x:c r="C24" s="15"/>
+      <x:c r="D24" s="16"/>
+      <x:c r="E24" s="16"/>
+      <x:c r="F24" s="17"/>
+      <x:c r="G24" s="17"/>
+      <x:c r="H24" s="17"/>
+      <x:c r="I24" s="70"/>
+      <x:c r="J24" s="10"/>
+      <x:c r="K24" s="65"/>
+      <x:c r="L24" s="72"/>
+      <x:c r="M24" s="78"/>
+      <x:c r="N24" s="79"/>
+      <x:c r="O24" s="79"/>
+      <x:c r="P24" s="17"/>
+      <x:c r="Q24" s="17"/>
+      <x:c r="R24" s="10"/>
+      <x:c r="S24" s="10"/>
+      <x:c r="T24" s="10"/>
+      <x:c r="U24" s="10"/>
+      <x:c r="V24" s="10"/>
+      <x:c r="W24" s="10"/>
+      <x:c r="X24" s="10"/>
+      <x:c r="Y24" s="10"/>
+      <x:c r="Z24" s="10"/>
+      <x:c r="AA24" s="10"/>
+      <x:c r="AB24" s="10"/>
+      <x:c r="AC24" s="10"/>
+      <x:c r="AD24" s="10"/>
+      <x:c r="AE24" s="10"/>
+      <x:c r="AF24" s="10"/>
+      <x:c r="AG24" s="10"/>
+      <x:c r="AH24" s="10"/>
+      <x:c r="AI24" s="10"/>
+    </x:row>
+    <x:row r="25" spans="1:35">
+      <x:c r="A25" s="10"/>
+      <x:c r="B25" s="2"/>
+      <x:c r="C25" s="15"/>
+      <x:c r="D25" s="16"/>
+      <x:c r="E25" s="16"/>
+      <x:c r="F25" s="17"/>
+      <x:c r="G25" s="17"/>
+      <x:c r="H25" s="17"/>
+      <x:c r="I25" s="70"/>
+      <x:c r="J25" s="10"/>
+      <x:c r="K25" s="65"/>
+      <x:c r="L25" s="72"/>
+      <x:c r="M25" s="78"/>
+      <x:c r="N25" s="79"/>
+      <x:c r="O25" s="79"/>
+      <x:c r="P25" s="17"/>
+      <x:c r="Q25" s="17"/>
+      <x:c r="R25" s="10"/>
+      <x:c r="S25" s="10"/>
+      <x:c r="T25" s="10"/>
+      <x:c r="U25" s="10"/>
+      <x:c r="V25" s="10"/>
+      <x:c r="W25" s="10"/>
+      <x:c r="X25" s="10"/>
+      <x:c r="Y25" s="10"/>
+      <x:c r="Z25" s="10"/>
+      <x:c r="AA25" s="10"/>
+      <x:c r="AB25" s="10"/>
+      <x:c r="AC25" s="10"/>
+      <x:c r="AD25" s="10"/>
+      <x:c r="AE25" s="10"/>
+      <x:c r="AF25" s="10"/>
+      <x:c r="AG25" s="10"/>
+      <x:c r="AH25" s="10"/>
+      <x:c r="AI25" s="10"/>
+    </x:row>
+    <x:row r="26" spans="1:35">
+      <x:c r="A26" s="10"/>
+      <x:c r="B26" s="14"/>
+      <x:c r="C26" s="15"/>
+      <x:c r="D26" s="16"/>
+      <x:c r="E26" s="16"/>
+      <x:c r="F26" s="17"/>
+      <x:c r="G26" s="17"/>
+      <x:c r="H26" s="17"/>
+      <x:c r="I26" s="70"/>
+      <x:c r="J26" s="10"/>
+      <x:c r="K26" s="65"/>
+      <x:c r="L26" s="72"/>
+      <x:c r="M26" s="78"/>
+      <x:c r="N26" s="79"/>
+      <x:c r="O26" s="79"/>
+      <x:c r="P26" s="17"/>
+      <x:c r="Q26" s="17"/>
+      <x:c r="R26" s="10"/>
+      <x:c r="S26" s="10"/>
+      <x:c r="T26" s="10"/>
+      <x:c r="U26" s="10"/>
+      <x:c r="V26" s="10"/>
+      <x:c r="W26" s="10"/>
+      <x:c r="X26" s="10"/>
+      <x:c r="Y26" s="10"/>
+      <x:c r="Z26" s="10"/>
+      <x:c r="AA26" s="10"/>
+      <x:c r="AB26" s="10"/>
+      <x:c r="AC26" s="10"/>
+      <x:c r="AD26" s="10"/>
+      <x:c r="AE26" s="10"/>
+      <x:c r="AF26" s="10"/>
+      <x:c r="AG26" s="10"/>
+      <x:c r="AH26" s="10"/>
+      <x:c r="AI26" s="10"/>
+    </x:row>
+    <x:row r="27" spans="1:35">
+      <x:c r="A27" s="10"/>
+      <x:c r="B27" s="14"/>
+      <x:c r="C27" s="15"/>
+      <x:c r="D27" s="16"/>
+      <x:c r="E27" s="16"/>
+      <x:c r="F27" s="17"/>
+      <x:c r="G27" s="17"/>
+      <x:c r="H27" s="17"/>
+      <x:c r="I27" s="70"/>
+      <x:c r="J27" s="10"/>
+      <x:c r="K27" s="65"/>
+      <x:c r="L27" s="72"/>
+      <x:c r="M27" s="78"/>
+      <x:c r="N27" s="79"/>
+      <x:c r="O27" s="79"/>
+      <x:c r="P27" s="17"/>
+      <x:c r="Q27" s="17"/>
+      <x:c r="R27" s="10"/>
+      <x:c r="S27" s="10"/>
+      <x:c r="T27" s="10"/>
+      <x:c r="U27" s="10"/>
+      <x:c r="V27" s="10"/>
+      <x:c r="W27" s="10"/>
+      <x:c r="X27" s="10"/>
+      <x:c r="Y27" s="10"/>
+      <x:c r="Z27" s="10"/>
+      <x:c r="AA27" s="10"/>
+      <x:c r="AB27" s="10"/>
+      <x:c r="AC27" s="10"/>
+      <x:c r="AD27" s="10"/>
+      <x:c r="AE27" s="10"/>
+      <x:c r="AF27" s="10"/>
+      <x:c r="AG27" s="10"/>
+      <x:c r="AH27" s="10"/>
+      <x:c r="AI27" s="10"/>
+    </x:row>
+    <x:row r="28" spans="1:35">
+      <x:c r="A28" s="10"/>
+      <x:c r="B28" s="14"/>
+      <x:c r="C28" s="15"/>
+      <x:c r="D28" s="16"/>
+      <x:c r="E28" s="16"/>
+      <x:c r="F28" s="17"/>
+      <x:c r="G28" s="17"/>
+      <x:c r="H28" s="17"/>
+      <x:c r="I28" s="70"/>
+      <x:c r="J28" s="10"/>
+      <x:c r="K28" s="65"/>
+      <x:c r="L28" s="72"/>
+      <x:c r="M28" s="78"/>
+      <x:c r="N28" s="79"/>
+      <x:c r="O28" s="79"/>
+      <x:c r="P28" s="17"/>
+      <x:c r="Q28" s="17"/>
+      <x:c r="R28" s="10"/>
+      <x:c r="S28" s="10"/>
+      <x:c r="T28" s="10"/>
+      <x:c r="U28" s="10"/>
+      <x:c r="V28" s="10"/>
+      <x:c r="W28" s="10"/>
+      <x:c r="X28" s="10"/>
+      <x:c r="Y28" s="10"/>
+      <x:c r="Z28" s="10"/>
+      <x:c r="AA28" s="10"/>
+      <x:c r="AB28" s="10"/>
+      <x:c r="AC28" s="10"/>
+      <x:c r="AD28" s="10"/>
+      <x:c r="AE28" s="10"/>
+      <x:c r="AF28" s="10"/>
+      <x:c r="AG28" s="10"/>
+      <x:c r="AH28" s="10"/>
+      <x:c r="AI28" s="10"/>
+    </x:row>
+    <x:row r="29" spans="1:35">
+      <x:c r="A29" s="10"/>
+      <x:c r="B29" s="14"/>
+      <x:c r="C29" s="15"/>
+      <x:c r="D29" s="16"/>
+      <x:c r="E29" s="16"/>
+      <x:c r="F29" s="17"/>
+      <x:c r="G29" s="17"/>
+      <x:c r="H29" s="17"/>
+      <x:c r="I29" s="70"/>
+      <x:c r="J29" s="10"/>
+      <x:c r="K29" s="65"/>
+      <x:c r="L29" s="72"/>
+      <x:c r="M29" s="78"/>
+      <x:c r="N29" s="79"/>
+      <x:c r="O29" s="79"/>
+      <x:c r="P29" s="17"/>
+      <x:c r="Q29" s="17"/>
+      <x:c r="R29" s="10"/>
+      <x:c r="S29" s="10"/>
+      <x:c r="T29" s="10"/>
+      <x:c r="U29" s="10"/>
+      <x:c r="V29" s="10"/>
+      <x:c r="W29" s="10"/>
+      <x:c r="X29" s="10"/>
+      <x:c r="Y29" s="10"/>
+      <x:c r="Z29" s="10"/>
+      <x:c r="AA29" s="10"/>
+      <x:c r="AB29" s="10"/>
+      <x:c r="AC29" s="10"/>
+      <x:c r="AD29" s="10"/>
+      <x:c r="AE29" s="10"/>
+      <x:c r="AF29" s="10"/>
+      <x:c r="AG29" s="10"/>
+      <x:c r="AH29" s="10"/>
+      <x:c r="AI29" s="10"/>
+    </x:row>
+    <x:row r="30" spans="1:35">
+      <x:c r="A30" s="10"/>
+      <x:c r="B30" s="14"/>
+      <x:c r="C30" s="15"/>
+      <x:c r="D30" s="16"/>
+      <x:c r="E30" s="16"/>
+      <x:c r="F30" s="17"/>
+      <x:c r="G30" s="17"/>
+      <x:c r="H30" s="17"/>
+      <x:c r="I30" s="70"/>
+      <x:c r="J30" s="10"/>
+      <x:c r="K30" s="65"/>
+      <x:c r="L30" s="81"/>
+      <x:c r="M30" s="80"/>
+      <x:c r="N30" s="79"/>
+      <x:c r="O30" s="79"/>
+      <x:c r="P30" s="17"/>
+      <x:c r="Q30" s="17"/>
+      <x:c r="R30" s="10"/>
+      <x:c r="S30" s="10"/>
+      <x:c r="T30" s="10"/>
+      <x:c r="U30" s="10"/>
+      <x:c r="V30" s="10"/>
+      <x:c r="W30" s="10"/>
+      <x:c r="X30" s="10"/>
+      <x:c r="Y30" s="10"/>
+      <x:c r="Z30" s="10"/>
+      <x:c r="AA30" s="10"/>
+      <x:c r="AB30" s="10"/>
+      <x:c r="AC30" s="10"/>
+      <x:c r="AD30" s="10"/>
+      <x:c r="AE30" s="10"/>
+      <x:c r="AF30" s="10"/>
+      <x:c r="AG30" s="10"/>
+      <x:c r="AH30" s="10"/>
+      <x:c r="AI30" s="10"/>
+    </x:row>
+    <x:row r="31" spans="1:35">
+      <x:c r="A31" s="65"/>
+      <x:c r="B31" s="73"/>
+      <x:c r="C31" s="74"/>
+      <x:c r="D31" s="75"/>
+      <x:c r="E31" s="75"/>
+      <x:c r="F31" s="70"/>
+      <x:c r="G31" s="70"/>
+      <x:c r="H31" s="70"/>
+      <x:c r="I31" s="70"/>
+      <x:c r="J31" s="65"/>
+      <x:c r="K31" s="65"/>
+      <x:c r="L31" s="81"/>
+      <x:c r="M31" s="82"/>
+      <x:c r="N31" s="83"/>
+      <x:c r="O31" s="83"/>
+      <x:c r="P31" s="70"/>
+      <x:c r="Q31" s="70"/>
+      <x:c r="R31" s="65"/>
+      <x:c r="S31" s="65"/>
+      <x:c r="T31" s="65"/>
+      <x:c r="U31" s="65"/>
+      <x:c r="V31" s="65"/>
+      <x:c r="W31" s="65"/>
+      <x:c r="X31" s="65"/>
+      <x:c r="Y31" s="65"/>
+      <x:c r="Z31" s="65"/>
+      <x:c r="AA31" s="65"/>
+      <x:c r="AB31" s="65"/>
+      <x:c r="AC31" s="65"/>
+      <x:c r="AD31" s="65"/>
+      <x:c r="AE31" s="65"/>
+      <x:c r="AF31" s="65"/>
+      <x:c r="AG31" s="65"/>
+      <x:c r="AH31" s="65"/>
+      <x:c r="AI31" s="65"/>
+    </x:row>
+    <x:row r="32" spans="1:35">
+      <x:c r="A32" s="10"/>
+      <x:c r="B32" s="14"/>
+      <x:c r="C32" s="15"/>
+      <x:c r="D32" s="16"/>
+      <x:c r="E32" s="16"/>
+      <x:c r="F32" s="17"/>
+      <x:c r="G32" s="17"/>
+      <x:c r="H32" s="17"/>
+      <x:c r="I32" s="70"/>
+      <x:c r="J32" s="10"/>
+      <x:c r="K32" s="65"/>
+      <x:c r="L32" s="81"/>
+      <x:c r="M32" s="80"/>
+      <x:c r="N32" s="79"/>
+      <x:c r="O32" s="79"/>
+      <x:c r="P32" s="17"/>
+      <x:c r="Q32" s="17"/>
+      <x:c r="R32" s="10"/>
+      <x:c r="S32" s="10"/>
+      <x:c r="T32" s="10"/>
+      <x:c r="U32" s="10"/>
+      <x:c r="V32" s="10"/>
+      <x:c r="W32" s="10"/>
+      <x:c r="X32" s="10"/>
+      <x:c r="Y32" s="10"/>
+      <x:c r="Z32" s="10"/>
+      <x:c r="AA32" s="10"/>
+      <x:c r="AB32" s="10"/>
+      <x:c r="AC32" s="10"/>
+      <x:c r="AD32" s="10"/>
+      <x:c r="AE32" s="10"/>
+      <x:c r="AF32" s="10"/>
+      <x:c r="AG32" s="10"/>
+      <x:c r="AH32" s="10"/>
+      <x:c r="AI32" s="10"/>
+    </x:row>
+    <x:row r="33" spans="1:35">
+      <x:c r="A33" s="65"/>
+      <x:c r="B33" s="73"/>
+      <x:c r="C33" s="74"/>
+      <x:c r="D33" s="75"/>
+      <x:c r="E33" s="75"/>
+      <x:c r="F33" s="70"/>
+      <x:c r="G33" s="70"/>
+      <x:c r="H33" s="70"/>
+      <x:c r="I33" s="70"/>
+      <x:c r="J33" s="65"/>
+      <x:c r="K33" s="65"/>
+      <x:c r="L33" s="81"/>
+      <x:c r="M33" s="84"/>
+      <x:c r="N33" s="83"/>
+      <x:c r="O33" s="83"/>
+      <x:c r="P33" s="70"/>
+      <x:c r="Q33" s="70"/>
+      <x:c r="R33" s="65"/>
+      <x:c r="S33" s="65"/>
+      <x:c r="T33" s="65"/>
+      <x:c r="U33" s="65"/>
+      <x:c r="V33" s="65"/>
+      <x:c r="W33" s="65"/>
+      <x:c r="X33" s="65"/>
+      <x:c r="Y33" s="65"/>
+      <x:c r="Z33" s="65"/>
+      <x:c r="AA33" s="65"/>
+      <x:c r="AB33" s="65"/>
+      <x:c r="AC33" s="65"/>
+      <x:c r="AD33" s="65"/>
+      <x:c r="AE33" s="65"/>
+      <x:c r="AF33" s="65"/>
+      <x:c r="AG33" s="65"/>
+      <x:c r="AH33" s="65"/>
+      <x:c r="AI33" s="65"/>
+    </x:row>
+    <x:row r="34" spans="1:35">
+      <x:c r="A34" s="65"/>
+      <x:c r="B34" s="73"/>
+      <x:c r="C34" s="74"/>
+      <x:c r="D34" s="75"/>
+      <x:c r="E34" s="75"/>
+      <x:c r="F34" s="70"/>
+      <x:c r="G34" s="70"/>
+      <x:c r="H34" s="70"/>
+      <x:c r="I34" s="70"/>
+      <x:c r="J34" s="65"/>
+      <x:c r="K34" s="65"/>
+      <x:c r="L34" s="81"/>
+      <x:c r="M34" s="82"/>
+      <x:c r="N34" s="83"/>
+      <x:c r="O34" s="83"/>
+      <x:c r="P34" s="70"/>
+      <x:c r="Q34" s="70"/>
+      <x:c r="R34" s="65"/>
+      <x:c r="S34" s="65"/>
+      <x:c r="T34" s="65"/>
+      <x:c r="U34" s="65"/>
+      <x:c r="V34" s="65"/>
+      <x:c r="W34" s="65"/>
+      <x:c r="X34" s="65"/>
+      <x:c r="Y34" s="65"/>
+      <x:c r="Z34" s="65"/>
+      <x:c r="AA34" s="65"/>
+      <x:c r="AB34" s="65"/>
+      <x:c r="AC34" s="65"/>
+      <x:c r="AD34" s="65"/>
+      <x:c r="AE34" s="65"/>
+      <x:c r="AF34" s="65"/>
+      <x:c r="AG34" s="65"/>
+      <x:c r="AH34" s="65"/>
+      <x:c r="AI34" s="65"/>
+    </x:row>
+    <x:row r="35" spans="1:35">
+      <x:c r="A35" s="65"/>
+      <x:c r="B35" s="73"/>
+      <x:c r="C35" s="74"/>
+      <x:c r="D35" s="75"/>
+      <x:c r="E35" s="75"/>
+      <x:c r="F35" s="70"/>
+      <x:c r="G35" s="70"/>
+      <x:c r="H35" s="70"/>
+      <x:c r="I35" s="70"/>
+      <x:c r="J35" s="65"/>
+      <x:c r="K35" s="65"/>
+      <x:c r="L35" s="81"/>
+      <x:c r="M35" s="82"/>
+      <x:c r="N35" s="83"/>
+      <x:c r="O35" s="83"/>
+      <x:c r="P35" s="70"/>
+      <x:c r="Q35" s="70"/>
+      <x:c r="R35" s="65"/>
+      <x:c r="S35" s="65"/>
+      <x:c r="T35" s="65"/>
+      <x:c r="U35" s="65"/>
+      <x:c r="V35" s="65"/>
+      <x:c r="W35" s="65"/>
+      <x:c r="X35" s="65"/>
+      <x:c r="Y35" s="65"/>
+      <x:c r="Z35" s="65"/>
+      <x:c r="AA35" s="65"/>
+      <x:c r="AB35" s="65"/>
+      <x:c r="AC35" s="65"/>
+      <x:c r="AD35" s="65"/>
+      <x:c r="AE35" s="65"/>
+      <x:c r="AF35" s="65"/>
+      <x:c r="AG35" s="65"/>
+      <x:c r="AH35" s="65"/>
+      <x:c r="AI35" s="65"/>
+    </x:row>
+    <x:row r="36" spans="1:35">
+      <x:c r="A36" s="65"/>
+      <x:c r="B36" s="73"/>
+      <x:c r="C36" s="74"/>
+      <x:c r="D36" s="75"/>
+      <x:c r="E36" s="75"/>
+      <x:c r="F36" s="70"/>
+      <x:c r="G36" s="70"/>
+      <x:c r="H36" s="70"/>
+      <x:c r="I36" s="70"/>
+      <x:c r="J36" s="65"/>
+      <x:c r="K36" s="65"/>
+      <x:c r="L36" s="81"/>
+      <x:c r="M36" s="82"/>
+      <x:c r="N36" s="83"/>
+      <x:c r="O36" s="83"/>
+      <x:c r="P36" s="70"/>
+      <x:c r="Q36" s="70"/>
+      <x:c r="R36" s="65"/>
+      <x:c r="S36" s="65"/>
+      <x:c r="T36" s="65"/>
+      <x:c r="U36" s="65"/>
+      <x:c r="V36" s="65"/>
+      <x:c r="W36" s="65"/>
+      <x:c r="X36" s="65"/>
+      <x:c r="Y36" s="65"/>
+      <x:c r="Z36" s="65"/>
+      <x:c r="AA36" s="65"/>
+      <x:c r="AB36" s="65"/>
+      <x:c r="AC36" s="65"/>
+      <x:c r="AD36" s="65"/>
+      <x:c r="AE36" s="65"/>
+      <x:c r="AF36" s="65"/>
+      <x:c r="AG36" s="65"/>
+      <x:c r="AH36" s="65"/>
+      <x:c r="AI36" s="65"/>
+    </x:row>
+    <x:row r="37" spans="1:35">
+      <x:c r="A37" s="65"/>
+      <x:c r="B37" s="73"/>
+      <x:c r="C37" s="74"/>
+      <x:c r="D37" s="75"/>
+      <x:c r="E37" s="75"/>
+      <x:c r="F37" s="70"/>
+      <x:c r="G37" s="70"/>
+      <x:c r="H37" s="70"/>
+      <x:c r="I37" s="70"/>
+      <x:c r="J37" s="65"/>
+      <x:c r="K37" s="65"/>
+      <x:c r="L37" s="81"/>
+      <x:c r="M37" s="82"/>
+      <x:c r="N37" s="83"/>
+      <x:c r="O37" s="83"/>
+      <x:c r="P37" s="70"/>
+      <x:c r="Q37" s="70"/>
+      <x:c r="R37" s="65"/>
+      <x:c r="S37" s="65"/>
+      <x:c r="T37" s="65"/>
+      <x:c r="U37" s="65"/>
+      <x:c r="V37" s="65"/>
+      <x:c r="W37" s="65"/>
+      <x:c r="X37" s="65"/>
+      <x:c r="Y37" s="65"/>
+      <x:c r="Z37" s="65"/>
+      <x:c r="AA37" s="65"/>
+      <x:c r="AB37" s="65"/>
+      <x:c r="AC37" s="65"/>
+      <x:c r="AD37" s="65"/>
+      <x:c r="AE37" s="65"/>
+      <x:c r="AF37" s="65"/>
+      <x:c r="AG37" s="65"/>
+      <x:c r="AH37" s="65"/>
+      <x:c r="AI37" s="65"/>
+    </x:row>
+    <x:row r="38" spans="1:35">
+      <x:c r="A38" s="65"/>
+      <x:c r="B38" s="73"/>
+      <x:c r="C38" s="74"/>
+      <x:c r="D38" s="75"/>
+      <x:c r="E38" s="75"/>
+      <x:c r="F38" s="70"/>
+      <x:c r="G38" s="70"/>
+      <x:c r="H38" s="70"/>
+      <x:c r="I38" s="70"/>
+      <x:c r="J38" s="65"/>
+      <x:c r="K38" s="65"/>
+      <x:c r="L38" s="81"/>
+      <x:c r="M38" s="82"/>
+      <x:c r="N38" s="83"/>
+      <x:c r="O38" s="83"/>
+      <x:c r="P38" s="70"/>
+      <x:c r="Q38" s="70"/>
+      <x:c r="R38" s="65"/>
+      <x:c r="S38" s="65"/>
+      <x:c r="T38" s="65"/>
+      <x:c r="U38" s="65"/>
+      <x:c r="V38" s="65"/>
+      <x:c r="W38" s="65"/>
+      <x:c r="X38" s="65"/>
+      <x:c r="Y38" s="65"/>
+      <x:c r="Z38" s="65"/>
+      <x:c r="AA38" s="65"/>
+      <x:c r="AB38" s="65"/>
+      <x:c r="AC38" s="65"/>
+      <x:c r="AD38" s="65"/>
+      <x:c r="AE38" s="65"/>
+      <x:c r="AF38" s="65"/>
+      <x:c r="AG38" s="65"/>
+      <x:c r="AH38" s="65"/>
+      <x:c r="AI38" s="65"/>
+    </x:row>
+    <x:row r="39" spans="1:35">
+      <x:c r="A39" s="65"/>
+      <x:c r="B39" s="73"/>
+      <x:c r="C39" s="74"/>
+      <x:c r="D39" s="75"/>
+      <x:c r="E39" s="75"/>
+      <x:c r="F39" s="70"/>
+      <x:c r="G39" s="70"/>
+      <x:c r="H39" s="70"/>
+      <x:c r="I39" s="70"/>
+      <x:c r="J39" s="65"/>
+      <x:c r="K39" s="65"/>
+      <x:c r="L39" s="81"/>
+      <x:c r="M39" s="82"/>
+      <x:c r="N39" s="83"/>
+      <x:c r="O39" s="83"/>
+      <x:c r="P39" s="70"/>
+      <x:c r="Q39" s="70"/>
+      <x:c r="R39" s="65"/>
+      <x:c r="S39" s="65"/>
+      <x:c r="T39" s="65"/>
+      <x:c r="U39" s="65"/>
+      <x:c r="V39" s="65"/>
+      <x:c r="W39" s="65"/>
+      <x:c r="X39" s="65"/>
+      <x:c r="Y39" s="65"/>
+      <x:c r="Z39" s="65"/>
+      <x:c r="AA39" s="65"/>
+      <x:c r="AB39" s="65"/>
+      <x:c r="AC39" s="65"/>
+      <x:c r="AD39" s="65"/>
+      <x:c r="AE39" s="65"/>
+      <x:c r="AF39" s="65"/>
+      <x:c r="AG39" s="65"/>
+      <x:c r="AH39" s="65"/>
+      <x:c r="AI39" s="65"/>
+    </x:row>
+    <x:row r="40" spans="1:35">
+      <x:c r="A40" s="65"/>
+      <x:c r="B40" s="73"/>
+      <x:c r="C40" s="74"/>
+      <x:c r="D40" s="75"/>
+      <x:c r="E40" s="75"/>
+      <x:c r="F40" s="70"/>
+      <x:c r="G40" s="70"/>
+      <x:c r="H40" s="70"/>
+      <x:c r="I40" s="70"/>
+      <x:c r="J40" s="65"/>
+      <x:c r="K40" s="65"/>
+      <x:c r="L40" s="81"/>
+      <x:c r="M40" s="82"/>
+      <x:c r="N40" s="83"/>
+      <x:c r="O40" s="83"/>
+      <x:c r="P40" s="70"/>
+      <x:c r="Q40" s="70"/>
+      <x:c r="R40" s="65"/>
+      <x:c r="S40" s="65"/>
+      <x:c r="T40" s="65"/>
+      <x:c r="U40" s="65"/>
+      <x:c r="V40" s="65"/>
+      <x:c r="W40" s="65"/>
+      <x:c r="X40" s="65"/>
+      <x:c r="Y40" s="65"/>
+      <x:c r="Z40" s="65"/>
+      <x:c r="AA40" s="65"/>
+      <x:c r="AB40" s="65"/>
+      <x:c r="AC40" s="65"/>
+      <x:c r="AD40" s="65"/>
+      <x:c r="AE40" s="65"/>
+      <x:c r="AF40" s="65"/>
+      <x:c r="AG40" s="65"/>
+      <x:c r="AH40" s="65"/>
+      <x:c r="AI40" s="65"/>
+    </x:row>
+    <x:row r="41" spans="1:35">
+      <x:c r="A41" s="65"/>
+      <x:c r="B41" s="73"/>
+      <x:c r="C41" s="74"/>
+      <x:c r="D41" s="75"/>
+      <x:c r="E41" s="75"/>
+      <x:c r="F41" s="70"/>
+      <x:c r="G41" s="70"/>
+      <x:c r="H41" s="70"/>
+      <x:c r="I41" s="70"/>
+      <x:c r="J41" s="65"/>
+      <x:c r="K41" s="65"/>
+      <x:c r="L41" s="81"/>
+      <x:c r="M41" s="82"/>
+      <x:c r="N41" s="83"/>
+      <x:c r="O41" s="83"/>
+      <x:c r="P41" s="70"/>
+      <x:c r="Q41" s="70"/>
+      <x:c r="R41" s="65"/>
+      <x:c r="S41" s="65"/>
+      <x:c r="T41" s="65"/>
+      <x:c r="U41" s="65"/>
+      <x:c r="V41" s="65"/>
+      <x:c r="W41" s="65"/>
+      <x:c r="X41" s="65"/>
+      <x:c r="Y41" s="65"/>
+      <x:c r="Z41" s="65"/>
+      <x:c r="AA41" s="65"/>
+      <x:c r="AB41" s="65"/>
+      <x:c r="AC41" s="65"/>
+      <x:c r="AD41" s="65"/>
+      <x:c r="AE41" s="65"/>
+      <x:c r="AF41" s="65"/>
+      <x:c r="AG41" s="65"/>
+      <x:c r="AH41" s="65"/>
+      <x:c r="AI41" s="65"/>
+    </x:row>
+    <x:row r="42" spans="1:35">
+      <x:c r="A42" s="65"/>
+      <x:c r="B42" s="73"/>
+      <x:c r="C42" s="74"/>
+      <x:c r="D42" s="75"/>
+      <x:c r="E42" s="75"/>
+      <x:c r="F42" s="70"/>
+      <x:c r="G42" s="70"/>
+      <x:c r="H42" s="70"/>
+      <x:c r="I42" s="70"/>
+      <x:c r="J42" s="65"/>
+      <x:c r="K42" s="65"/>
+      <x:c r="L42" s="81"/>
+      <x:c r="M42" s="82"/>
+      <x:c r="N42" s="83"/>
+      <x:c r="O42" s="83"/>
+      <x:c r="P42" s="70"/>
+      <x:c r="Q42" s="70"/>
+      <x:c r="R42" s="65"/>
+      <x:c r="S42" s="65"/>
+      <x:c r="T42" s="65"/>
+      <x:c r="U42" s="65"/>
+      <x:c r="V42" s="65"/>
+      <x:c r="W42" s="65"/>
+      <x:c r="X42" s="65"/>
+      <x:c r="Y42" s="65"/>
+      <x:c r="Z42" s="65"/>
+      <x:c r="AA42" s="65"/>
+      <x:c r="AB42" s="65"/>
+      <x:c r="AC42" s="65"/>
+      <x:c r="AD42" s="65"/>
+      <x:c r="AE42" s="65"/>
+      <x:c r="AF42" s="65"/>
+      <x:c r="AG42" s="65"/>
+      <x:c r="AH42" s="65"/>
+      <x:c r="AI42" s="65"/>
+    </x:row>
+    <x:row r="43" spans="1:35">
+      <x:c r="A43" s="65"/>
+      <x:c r="B43" s="73"/>
+      <x:c r="C43" s="74"/>
+      <x:c r="D43" s="75"/>
+      <x:c r="E43" s="75"/>
+      <x:c r="F43" s="70"/>
+      <x:c r="G43" s="70"/>
+      <x:c r="H43" s="70"/>
+      <x:c r="I43" s="70"/>
+      <x:c r="J43" s="65"/>
+      <x:c r="K43" s="65"/>
+      <x:c r="L43" s="81"/>
+      <x:c r="M43" s="82"/>
+      <x:c r="N43" s="83"/>
+      <x:c r="O43" s="83"/>
+      <x:c r="P43" s="70"/>
+      <x:c r="Q43" s="70"/>
+      <x:c r="R43" s="65"/>
+      <x:c r="S43" s="65"/>
+      <x:c r="T43" s="65"/>
+      <x:c r="U43" s="65"/>
+      <x:c r="V43" s="65"/>
+      <x:c r="W43" s="65"/>
+      <x:c r="X43" s="65"/>
+      <x:c r="Y43" s="65"/>
+      <x:c r="Z43" s="65"/>
+      <x:c r="AA43" s="65"/>
+      <x:c r="AB43" s="65"/>
+      <x:c r="AC43" s="65"/>
+      <x:c r="AD43" s="65"/>
+      <x:c r="AE43" s="65"/>
+      <x:c r="AF43" s="65"/>
+      <x:c r="AG43" s="65"/>
+      <x:c r="AH43" s="65"/>
+      <x:c r="AI43" s="65"/>
+    </x:row>
+    <x:row r="44" spans="1:35">
+      <x:c r="A44" s="65"/>
+      <x:c r="B44" s="73"/>
+      <x:c r="C44" s="74"/>
+      <x:c r="D44" s="75"/>
+      <x:c r="E44" s="75"/>
+      <x:c r="F44" s="70"/>
+      <x:c r="G44" s="70"/>
+      <x:c r="H44" s="70"/>
+      <x:c r="I44" s="70"/>
+      <x:c r="J44" s="65"/>
+      <x:c r="K44" s="65"/>
+      <x:c r="L44" s="81"/>
+      <x:c r="M44" s="82"/>
+      <x:c r="N44" s="83"/>
+      <x:c r="O44" s="83"/>
+      <x:c r="P44" s="70"/>
+      <x:c r="Q44" s="70"/>
+      <x:c r="R44" s="65"/>
+      <x:c r="S44" s="65"/>
+      <x:c r="T44" s="65"/>
+      <x:c r="U44" s="65"/>
+      <x:c r="V44" s="65"/>
+      <x:c r="W44" s="65"/>
+      <x:c r="X44" s="65"/>
+      <x:c r="Y44" s="65"/>
+      <x:c r="Z44" s="65"/>
+      <x:c r="AA44" s="65"/>
+      <x:c r="AB44" s="65"/>
+      <x:c r="AC44" s="65"/>
+      <x:c r="AD44" s="65"/>
+      <x:c r="AE44" s="65"/>
+      <x:c r="AF44" s="65"/>
+      <x:c r="AG44" s="65"/>
+      <x:c r="AH44" s="65"/>
+      <x:c r="AI44" s="65"/>
+    </x:row>
+    <x:row r="45" spans="1:35">
+      <x:c r="A45" s="65"/>
+      <x:c r="B45" s="73"/>
+      <x:c r="C45" s="74"/>
+      <x:c r="D45" s="75"/>
+      <x:c r="E45" s="75"/>
+      <x:c r="F45" s="70"/>
+      <x:c r="G45" s="70"/>
+      <x:c r="H45" s="70"/>
+      <x:c r="I45" s="70"/>
+      <x:c r="J45" s="65"/>
+      <x:c r="K45" s="65"/>
+      <x:c r="L45" s="81"/>
+      <x:c r="M45" s="82"/>
+      <x:c r="N45" s="83"/>
+      <x:c r="O45" s="83"/>
+      <x:c r="P45" s="70"/>
+      <x:c r="Q45" s="70"/>
+      <x:c r="R45" s="65"/>
+      <x:c r="S45" s="65"/>
+      <x:c r="T45" s="65"/>
+      <x:c r="U45" s="65"/>
+      <x:c r="V45" s="65"/>
+      <x:c r="W45" s="65"/>
+      <x:c r="X45" s="65"/>
+      <x:c r="Y45" s="65"/>
+      <x:c r="Z45" s="65"/>
+      <x:c r="AA45" s="65"/>
+      <x:c r="AB45" s="65"/>
+      <x:c r="AC45" s="65"/>
+      <x:c r="AD45" s="65"/>
+      <x:c r="AE45" s="65"/>
+      <x:c r="AF45" s="65"/>
+      <x:c r="AG45" s="65"/>
+      <x:c r="AH45" s="65"/>
+      <x:c r="AI45" s="65"/>
+    </x:row>
+    <x:row r="46" spans="1:35">
+      <x:c r="A46" s="65"/>
+      <x:c r="B46" s="73"/>
+      <x:c r="C46" s="74"/>
+      <x:c r="D46" s="75"/>
+      <x:c r="E46" s="75"/>
+      <x:c r="F46" s="70"/>
+      <x:c r="G46" s="70"/>
+      <x:c r="H46" s="70"/>
+      <x:c r="I46" s="70"/>
+      <x:c r="J46" s="65"/>
+      <x:c r="K46" s="65"/>
+      <x:c r="L46" s="81"/>
+      <x:c r="M46" s="82"/>
+      <x:c r="N46" s="85"/>
+      <x:c r="O46" s="85"/>
+      <x:c r="P46" s="70"/>
+      <x:c r="Q46" s="70"/>
+      <x:c r="R46" s="65"/>
+      <x:c r="S46" s="65"/>
+      <x:c r="T46" s="65"/>
+      <x:c r="U46" s="65"/>
+      <x:c r="V46" s="65"/>
+      <x:c r="W46" s="65"/>
+      <x:c r="X46" s="65"/>
+      <x:c r="Y46" s="65"/>
+      <x:c r="Z46" s="65"/>
+      <x:c r="AA46" s="65"/>
+      <x:c r="AB46" s="65"/>
+      <x:c r="AC46" s="65"/>
+      <x:c r="AD46" s="65"/>
+      <x:c r="AE46" s="65"/>
+      <x:c r="AF46" s="65"/>
+      <x:c r="AG46" s="65"/>
+      <x:c r="AH46" s="65"/>
+      <x:c r="AI46" s="65"/>
+    </x:row>
+    <x:row r="47" spans="1:35">
+      <x:c r="A47" s="65"/>
+      <x:c r="B47" s="73"/>
+      <x:c r="C47" s="74"/>
+      <x:c r="D47" s="75"/>
+      <x:c r="E47" s="75"/>
+      <x:c r="F47" s="70"/>
+      <x:c r="G47" s="70"/>
+      <x:c r="H47" s="70"/>
+      <x:c r="I47" s="70"/>
+      <x:c r="J47" s="65"/>
+      <x:c r="K47" s="65"/>
+      <x:c r="L47" s="81"/>
+      <x:c r="M47" s="82"/>
+      <x:c r="N47" s="85"/>
+      <x:c r="O47" s="85"/>
+      <x:c r="P47" s="70"/>
+      <x:c r="Q47" s="70"/>
+      <x:c r="R47" s="65"/>
+      <x:c r="S47" s="65"/>
+      <x:c r="T47" s="65"/>
+      <x:c r="U47" s="65"/>
+      <x:c r="V47" s="65"/>
+      <x:c r="W47" s="65"/>
+      <x:c r="X47" s="65"/>
+      <x:c r="Y47" s="65"/>
+      <x:c r="Z47" s="65"/>
+      <x:c r="AA47" s="65"/>
+      <x:c r="AB47" s="65"/>
+      <x:c r="AC47" s="65"/>
+      <x:c r="AD47" s="65"/>
+      <x:c r="AE47" s="65"/>
+      <x:c r="AF47" s="65"/>
+      <x:c r="AG47" s="65"/>
+      <x:c r="AH47" s="65"/>
+      <x:c r="AI47" s="65"/>
+    </x:row>
+    <x:row r="48" spans="1:35">
+      <x:c r="A48" s="65"/>
+      <x:c r="B48" s="73"/>
+      <x:c r="C48" s="74"/>
+      <x:c r="D48" s="75"/>
+      <x:c r="E48" s="75"/>
+      <x:c r="F48" s="70"/>
+      <x:c r="G48" s="70"/>
+      <x:c r="H48" s="70"/>
+      <x:c r="I48" s="70"/>
+      <x:c r="J48" s="65"/>
+      <x:c r="K48" s="65"/>
+      <x:c r="L48" s="63"/>
+      <x:c r="M48" s="76"/>
+      <x:c r="N48" s="75"/>
+      <x:c r="O48" s="75"/>
+      <x:c r="P48" s="70"/>
+      <x:c r="Q48" s="70"/>
+      <x:c r="R48" s="65"/>
+      <x:c r="S48" s="65"/>
+      <x:c r="T48" s="65"/>
+      <x:c r="U48" s="65"/>
+      <x:c r="V48" s="65"/>
+      <x:c r="W48" s="65"/>
+      <x:c r="X48" s="65"/>
+      <x:c r="Y48" s="65"/>
+      <x:c r="Z48" s="65"/>
+      <x:c r="AA48" s="65"/>
+      <x:c r="AB48" s="65"/>
+      <x:c r="AC48" s="65"/>
+      <x:c r="AD48" s="65"/>
+      <x:c r="AE48" s="65"/>
+      <x:c r="AF48" s="65"/>
+      <x:c r="AG48" s="65"/>
+      <x:c r="AH48" s="65"/>
+      <x:c r="AI48" s="65"/>
+    </x:row>
+    <x:row r="49" spans="1:35">
+      <x:c r="A49" s="65"/>
+      <x:c r="B49" s="73"/>
+      <x:c r="C49" s="74"/>
+      <x:c r="D49" s="75"/>
+      <x:c r="E49" s="75"/>
+      <x:c r="F49" s="70"/>
+      <x:c r="G49" s="70"/>
+      <x:c r="H49" s="70"/>
+      <x:c r="I49" s="70"/>
+      <x:c r="J49" s="65"/>
+      <x:c r="K49" s="65"/>
+      <x:c r="L49" s="63"/>
+      <x:c r="M49" s="76"/>
+      <x:c r="N49" s="75"/>
+      <x:c r="O49" s="75"/>
+      <x:c r="P49" s="70"/>
+      <x:c r="Q49" s="70"/>
+      <x:c r="R49" s="65"/>
+      <x:c r="S49" s="65"/>
+      <x:c r="T49" s="65"/>
+      <x:c r="U49" s="65"/>
+      <x:c r="V49" s="65"/>
+      <x:c r="W49" s="65"/>
+      <x:c r="X49" s="65"/>
+      <x:c r="Y49" s="65"/>
+      <x:c r="Z49" s="65"/>
+      <x:c r="AA49" s="65"/>
+      <x:c r="AB49" s="65"/>
+      <x:c r="AC49" s="65"/>
+      <x:c r="AD49" s="65"/>
+      <x:c r="AE49" s="65"/>
+      <x:c r="AF49" s="65"/>
+      <x:c r="AG49" s="65"/>
+      <x:c r="AH49" s="65"/>
+      <x:c r="AI49" s="65"/>
+    </x:row>
+    <x:row r="50" spans="1:35">
+      <x:c r="A50" s="65"/>
+      <x:c r="B50" s="73"/>
+      <x:c r="C50" s="74"/>
+      <x:c r="D50" s="75"/>
+      <x:c r="E50" s="75"/>
+      <x:c r="F50" s="70"/>
+      <x:c r="G50" s="70"/>
+      <x:c r="H50" s="70"/>
+      <x:c r="I50" s="70"/>
+      <x:c r="J50" s="65"/>
+      <x:c r="K50" s="65"/>
+      <x:c r="L50" s="63"/>
+      <x:c r="M50" s="76"/>
+      <x:c r="N50" s="75"/>
+      <x:c r="O50" s="75"/>
+      <x:c r="P50" s="70"/>
+      <x:c r="Q50" s="70"/>
+      <x:c r="R50" s="65"/>
+      <x:c r="S50" s="65"/>
+      <x:c r="T50" s="65"/>
+      <x:c r="U50" s="65"/>
+      <x:c r="V50" s="65"/>
+      <x:c r="W50" s="65"/>
+      <x:c r="X50" s="65"/>
+      <x:c r="Y50" s="65"/>
+      <x:c r="Z50" s="65"/>
+      <x:c r="AA50" s="65"/>
+      <x:c r="AB50" s="65"/>
+      <x:c r="AC50" s="65"/>
+      <x:c r="AD50" s="65"/>
+      <x:c r="AE50" s="65"/>
+      <x:c r="AF50" s="65"/>
+      <x:c r="AG50" s="65"/>
+      <x:c r="AH50" s="65"/>
+      <x:c r="AI50" s="65"/>
+    </x:row>
+    <x:row r="51" spans="1:35">
+      <x:c r="A51" s="65"/>
+      <x:c r="B51" s="73"/>
+      <x:c r="C51" s="74"/>
+      <x:c r="D51" s